--- a/data/emdi_results.xlsx
+++ b/data/emdi_results.xlsx
@@ -1687,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0461951124585424</v>
+        <v>-0.680947806695327</v>
       </c>
       <c r="E16" t="n">
-        <v>2.98710516034379</v>
+        <v>6.38498929225834</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1700,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177394903238508</v>
+        <v>0.259297910232491</v>
       </c>
       <c r="E17" t="n">
-        <v>2.6159584197554</v>
+        <v>3.0317899528752</v>
       </c>
       <c r="F17" t="n">
-        <v>0.990265284776705</v>
+        <v>0.993166473217248</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0915976979305141</v>
+        <v>0.305891238160633</v>
       </c>
     </row>
     <row r="19">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.137604746281775</v>
+        <v>0.184214595326583</v>
       </c>
       <c r="E20" t="n">
-        <v>0.308943336160266</v>
+        <v>0.372715063061257</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>0.376644351225947</v>
+        <v>0.197235276375694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0570441977425624</v>
+        <v>0.0528868901029511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.63412413062548</v>
+        <v>1.16597549223296</v>
       </c>
       <c r="E2" t="n">
-        <v>0.173494618214046</v>
+        <v>0.221431236058475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00993895284099076</v>
+        <v>0.00963699932973239</v>
       </c>
       <c r="G2" t="n">
-        <v>0.574624722999375</v>
+        <v>0.443335011347105</v>
       </c>
     </row>
     <row r="3">
@@ -1811,22 +1811,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0356723930782756</v>
+        <v>-0.442051068007048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439284152694108</v>
+        <v>0.0440618448550245</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.87544172630077</v>
+        <v>-0.4748526809465</v>
       </c>
       <c r="E3" t="n">
-        <v>0.314499121265378</v>
+        <v>0.497065026362039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00816922052412462</v>
+        <v>0.00901770539207763</v>
       </c>
       <c r="G3" t="n">
-        <v>0.287389484622605</v>
+        <v>0.191044620983938</v>
       </c>
     </row>
     <row r="4">
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0512700410161372</v>
+        <v>-0.462402631365162</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0330092197433457</v>
+        <v>0.0386584478149672</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.54367565114331</v>
+        <v>-0.425208472476129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.319779290493359</v>
+        <v>0.507057846601231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00583160337622543</v>
+        <v>0.00737965732774251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.238805131493298</v>
+        <v>0.169418405598629</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.286163091663724</v>
+        <v>-0.322697700633263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0242389064074571</v>
+        <v>0.026012518700728</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.544055107404706</v>
+        <v>-0.499798941303084</v>
       </c>
       <c r="E5" t="n">
-        <v>0.422468993711271</v>
+        <v>0.436149235316324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00459791719681685</v>
+        <v>0.00507731299398774</v>
       </c>
       <c r="G5" t="n">
-        <v>0.160503952889714</v>
+        <v>0.163373590184476</v>
       </c>
     </row>
     <row r="6">
@@ -1880,22 +1880,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.396355517376342</v>
+        <v>-0.51843712852349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.142817955316154</v>
+        <v>0.184350390122905</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.953468824431234</v>
+        <v>-0.828182279981806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.479104068428556</v>
+        <v>0.533071608729027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0235673113768123</v>
+        <v>0.0303892117212979</v>
       </c>
       <c r="G6" t="n">
-        <v>0.320424091132601</v>
+        <v>0.327019887442646</v>
       </c>
     </row>
     <row r="7">
@@ -1903,22 +1903,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0524990091949169</v>
+        <v>-0.161797871761884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.036629801831981</v>
+        <v>0.0349328512953753</v>
       </c>
       <c r="D7" t="n">
-        <v>3.64557617598595</v>
+        <v>-1.15516550794288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.277567485063827</v>
+        <v>0.360246075126023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00690847907957564</v>
+        <v>0.00744682522976914</v>
       </c>
       <c r="G7" t="n">
-        <v>0.299448838546567</v>
+        <v>0.239544565664186</v>
       </c>
     </row>
     <row r="8">
@@ -1926,22 +1926,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.462033337667268</v>
+        <v>-0.640094409593741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.177223687698367</v>
+        <v>0.17799093689899</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.911145158258597</v>
+        <v>-0.659105461522205</v>
       </c>
       <c r="E8" t="n">
-        <v>0.507506297229219</v>
+        <v>0.589489924433249</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0289516159934355</v>
+        <v>0.0274274695684812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.335270212310862</v>
+        <v>0.280941880069951</v>
       </c>
     </row>
     <row r="9">
@@ -1949,22 +1949,22 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.199569643347281</v>
+        <v>-0.273078399874435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0458697941494554</v>
+        <v>0.0384307753553738</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.07317096550507</v>
+        <v>-0.717880611207945</v>
       </c>
       <c r="E9" t="n">
-        <v>0.386569293213464</v>
+        <v>0.414235506830727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00775199234202384</v>
+        <v>0.00747595838096648</v>
       </c>
       <c r="G9" t="n">
-        <v>0.22776097550723</v>
+        <v>0.20873059693282</v>
       </c>
     </row>
     <row r="10">
@@ -1972,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>0.111256386220867</v>
+        <v>-0.00995155564790975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0414103324078594</v>
+        <v>0.0383962713951622</v>
       </c>
       <c r="D10" t="n">
-        <v>1.82906613569917</v>
+        <v>-19.6903551963169</v>
       </c>
       <c r="E10" t="n">
-        <v>0.256964149504195</v>
+        <v>0.293628273582507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00778694250078337</v>
+        <v>0.00829089924872429</v>
       </c>
       <c r="G10" t="n">
-        <v>0.343408426185055</v>
+        <v>0.310100843219736</v>
       </c>
     </row>
     <row r="11">
@@ -1995,22 +1995,22 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0218242450085262</v>
+        <v>-0.392483638023347</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00572914488681293</v>
+        <v>0.0104569603872412</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.46821230011628</v>
+        <v>-0.260544059151297</v>
       </c>
       <c r="E11" t="n">
-        <v>0.306202466770784</v>
+        <v>0.471311617151278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000953353602673229</v>
+        <v>0.00195415678624219</v>
       </c>
       <c r="G11" t="n">
-        <v>0.100836629542536</v>
+        <v>0.0937932442209976</v>
       </c>
     </row>
     <row r="12">
@@ -2018,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.561088802650982</v>
+        <v>-0.733420614144324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0353727996929653</v>
+        <v>0.0395779254402565</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.335199309704095</v>
+        <v>-0.27125228202582</v>
       </c>
       <c r="E12" t="n">
-        <v>0.552942930801529</v>
+        <v>0.638885615842963</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00670230325119211</v>
+        <v>0.00827259925526962</v>
       </c>
       <c r="G12" t="n">
-        <v>0.148057948289576</v>
+        <v>0.142363246399944</v>
       </c>
     </row>
     <row r="13">
@@ -2041,22 +2041,22 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>0.26708753187423</v>
+        <v>-0.00869412666746249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00386944851710428</v>
+        <v>0.00489589956155059</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232900768477483</v>
+        <v>-8.0480429720247</v>
       </c>
       <c r="E13" t="n">
-        <v>0.204098365251975</v>
+        <v>0.301566782117091</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000549589720053993</v>
+        <v>0.000924806837869752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.114862899271406</v>
+        <v>0.100842130908247</v>
       </c>
     </row>
     <row r="14">
@@ -2064,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.531543697108584</v>
+        <v>-0.727680743425342</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0509376911999416</v>
+        <v>0.0579581450098609</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.424600650664397</v>
+        <v>-0.330838738519392</v>
       </c>
       <c r="E14" t="n">
-        <v>0.539265377091937</v>
+        <v>0.635409693544882</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00942132555172961</v>
+        <v>0.0109502307409713</v>
       </c>
       <c r="G14" t="n">
-        <v>0.179992109825295</v>
+        <v>0.164686423991563</v>
       </c>
     </row>
     <row r="15">
@@ -2087,22 +2087,22 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263242237214956</v>
+        <v>0.0355819545075199</v>
       </c>
       <c r="C15" t="n">
-        <v>0.020915719458901</v>
+        <v>0.0252783159208257</v>
       </c>
       <c r="D15" t="n">
-        <v>0.549390102229241</v>
+        <v>4.4683200087226</v>
       </c>
       <c r="E15" t="n">
-        <v>0.204415638049953</v>
+        <v>0.276223366733855</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00364068907363285</v>
+        <v>0.00531282083461487</v>
       </c>
       <c r="G15" t="n">
-        <v>0.295173713046037</v>
+        <v>0.263877384529412</v>
       </c>
     </row>
     <row r="16">
@@ -2110,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.422588453738858</v>
+        <v>-0.527399599752346</v>
       </c>
       <c r="C16" t="n">
-        <v>0.237562498015443</v>
+        <v>0.229556582302867</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.15337707483768</v>
+        <v>-0.908458471754196</v>
       </c>
       <c r="E16" t="n">
-        <v>0.488686911890505</v>
+        <v>0.534854576561163</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0359279417623875</v>
+        <v>0.0375434168866227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.387869348967338</v>
+        <v>0.362269007861361</v>
       </c>
     </row>
     <row r="17">
@@ -2133,22 +2133,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.160240230403078</v>
+        <v>-0.507342336011184</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00653446271697328</v>
+        <v>0.00979349420524977</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.504467719690387</v>
+        <v>-0.195059780469542</v>
       </c>
       <c r="E17" t="n">
-        <v>0.370454846419921</v>
+        <v>0.528635621605502</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00108252266302707</v>
+        <v>0.00194876849365289</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0888143655764522</v>
+        <v>0.0835071574097976</v>
       </c>
     </row>
     <row r="18">
@@ -2156,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.507212640996365</v>
+        <v>-0.663130903771947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.185611382804024</v>
+        <v>0.20307291896776</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.849399956509692</v>
+        <v>-0.67955832618878</v>
       </c>
       <c r="E18" t="n">
-        <v>0.527229146692234</v>
+        <v>0.598322147651007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0292762976517064</v>
+        <v>0.0316903175569404</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3245328515189</v>
+        <v>0.297528255908358</v>
       </c>
     </row>
     <row r="19">
@@ -2179,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.486957566542376</v>
+        <v>-0.728241119209786</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0203817863915908</v>
+        <v>0.0239593503683865</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.293177072827337</v>
+        <v>-0.212550593537504</v>
       </c>
       <c r="E19" t="n">
-        <v>0.519120596501072</v>
+        <v>0.638111352737085</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00387267485606841</v>
+        <v>0.00514825623677377</v>
       </c>
       <c r="G19" t="n">
-        <v>0.119877384179105</v>
+        <v>0.112443305955267</v>
       </c>
     </row>
     <row r="20">
@@ -2202,22 +2202,22 @@
         <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.459799683830323</v>
+        <v>-0.654557861330419</v>
       </c>
       <c r="C20" t="n">
-        <v>0.175409350714799</v>
+        <v>0.171828480462889</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.910872734144952</v>
+        <v>-0.63328548141234</v>
       </c>
       <c r="E20" t="n">
-        <v>0.503903040262942</v>
+        <v>0.588615447822514</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0287630090676522</v>
+        <v>0.0279206533594538</v>
       </c>
       <c r="G20" t="n">
-        <v>0.336565952844232</v>
+        <v>0.283877605115687</v>
       </c>
     </row>
     <row r="21">
@@ -2225,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129062275757899</v>
+        <v>-0.140460080297154</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0334792939480337</v>
+        <v>0.0541799944598078</v>
       </c>
       <c r="D21" t="n">
-        <v>1.41771464772384</v>
+        <v>-1.65716810429011</v>
       </c>
       <c r="E21" t="n">
-        <v>0.250992184339718</v>
+        <v>0.352948615899221</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00593916409413867</v>
+        <v>0.0107899606450504</v>
       </c>
       <c r="G21" t="n">
-        <v>0.307045307215474</v>
+        <v>0.294305546687734</v>
       </c>
     </row>
     <row r="22">
@@ -2248,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.972646806827345</v>
+        <v>-1.22796942450648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0159092299227377</v>
+        <v>0.0224917628882506</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.129678928628832</v>
+        <v>-0.122130516814525</v>
       </c>
       <c r="E22" t="n">
-        <v>0.734272018009021</v>
+        <v>0.83811864987743</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00306901600818753</v>
+        <v>0.00460574082698529</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0754471082390913</v>
+        <v>0.0809737482669512</v>
       </c>
     </row>
     <row r="23">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.629629800566448</v>
+        <v>-0.998480432686397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.013221697710065</v>
+        <v>0.0161356423504027</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.182624204282943</v>
+        <v>-0.127219466837434</v>
       </c>
       <c r="E23" t="n">
-        <v>0.585756509844485</v>
+        <v>0.756239084182577</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00248862233781141</v>
+        <v>0.0034671081712114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0851652398105669</v>
+        <v>0.0778618246248426</v>
       </c>
     </row>
     <row r="24">
@@ -2294,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.831410442668544</v>
+        <v>-1.09621621426993</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0442671343547357</v>
+        <v>0.0413148168098532</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.253061005513297</v>
+        <v>-0.185420050161209</v>
       </c>
       <c r="E24" t="n">
-        <v>0.675106836877496</v>
+        <v>0.791445233300338</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00814708681261947</v>
+        <v>0.00917452455849568</v>
       </c>
       <c r="G24" t="n">
-        <v>0.133699156046324</v>
+        <v>0.121023836466002</v>
       </c>
     </row>
     <row r="25">
@@ -2317,22 +2317,22 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.407344200063666</v>
+        <v>-0.5590661636743</v>
       </c>
       <c r="C25" t="n">
-        <v>0.204376907520045</v>
+        <v>0.203148144600795</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.10982467075028</v>
+        <v>-0.806200794497392</v>
       </c>
       <c r="E25" t="n">
-        <v>0.483007031882256</v>
+        <v>0.548792812763375</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0332356129545119</v>
+        <v>0.0329782691249876</v>
       </c>
       <c r="G25" t="n">
-        <v>0.377440407894991</v>
+        <v>0.330906664423118</v>
       </c>
     </row>
     <row r="26">
@@ -2340,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.343681937365001</v>
+        <v>-0.485479438149445</v>
       </c>
       <c r="C26" t="n">
-        <v>0.161419722133263</v>
+        <v>0.173926069486477</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.16901905400218</v>
+        <v>-0.859036269479552</v>
       </c>
       <c r="E26" t="n">
-        <v>0.456106537530266</v>
+        <v>0.517330104923325</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0251824342449357</v>
+        <v>0.0290175645264184</v>
       </c>
       <c r="G26" t="n">
-        <v>0.347922533516759</v>
+        <v>0.329278009257439</v>
       </c>
     </row>
     <row r="27">
@@ -2363,22 +2363,22 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.553631164535766</v>
+        <v>-0.724491598761083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0436356146252623</v>
+        <v>0.0447813749891505</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.377311480479019</v>
+        <v>-0.292089105271454</v>
       </c>
       <c r="E27" t="n">
-        <v>0.549924723570741</v>
+        <v>0.635854607993374</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00814591967879408</v>
+        <v>0.00932966352184638</v>
       </c>
       <c r="G27" t="n">
-        <v>0.164122006012047</v>
+        <v>0.151906083792514</v>
       </c>
     </row>
     <row r="28">
@@ -2386,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.659339984193932</v>
+        <v>-0.942728472458008</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0574312964010197</v>
+        <v>0.055965489108449</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.363466924781945</v>
+        <v>-0.250942099905479</v>
       </c>
       <c r="E28" t="n">
-        <v>0.598687943262411</v>
+        <v>0.732381796690307</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0107233584127643</v>
+        <v>0.0108571214598388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.172967655504447</v>
+        <v>0.142272121241431</v>
       </c>
     </row>
     <row r="29">
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.343861527863914</v>
+        <v>-0.601738519591947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0371670422303983</v>
+        <v>0.0445554384760139</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.560654628761598</v>
+        <v>-0.35078623873161</v>
       </c>
       <c r="E29" t="n">
-        <v>0.451479414049406</v>
+        <v>0.575102298931736</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00704314701797404</v>
+        <v>0.00914663675616792</v>
       </c>
       <c r="G29" t="n">
-        <v>0.185885461598279</v>
+        <v>0.166297458649201</v>
       </c>
     </row>
     <row r="30">
@@ -2432,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0572724949196513</v>
+        <v>-0.104696761899021</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0303759570103886</v>
+        <v>0.0236886467814323</v>
       </c>
       <c r="D30" t="n">
-        <v>3.04311862695843</v>
+        <v>-1.47006614564755</v>
       </c>
       <c r="E30" t="n">
-        <v>0.273214343141984</v>
+        <v>0.331890979257115</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00385872337147615</v>
+        <v>0.00420831813510723</v>
       </c>
       <c r="G30" t="n">
-        <v>0.227362233887402</v>
+        <v>0.195460422549459</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2455,22 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.422769723976768</v>
+        <v>-0.655520814760761</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197109756339985</v>
+        <v>0.207158369599005</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.05014720819877</v>
+        <v>-0.694328122240337</v>
       </c>
       <c r="E31" t="n">
-        <v>0.49061360275998</v>
+        <v>0.591187777230163</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0304503721505154</v>
+        <v>0.0325428750753308</v>
       </c>
       <c r="G31" t="n">
-        <v>0.355677765596922</v>
+        <v>0.305142368620841</v>
       </c>
     </row>
     <row r="32">
@@ -2478,22 +2478,22 @@
         <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.494959238703907</v>
+        <v>-0.6900297265472</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0249574156609789</v>
+        <v>0.0255981097713104</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.319176105336847</v>
+        <v>-0.231865507775857</v>
       </c>
       <c r="E32" t="n">
-        <v>0.521988761651735</v>
+        <v>0.619635357560723</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00485336497342727</v>
+        <v>0.0053023758043727</v>
       </c>
       <c r="G32" t="n">
-        <v>0.133462827969197</v>
+        <v>0.117516557548779</v>
       </c>
     </row>
     <row r="33">
@@ -2501,22 +2501,22 @@
         <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.03126017382411</v>
+        <v>-1.21654361102356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0391118574463923</v>
+        <v>0.0370523739269454</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.191772343121375</v>
+        <v>-0.158226906351957</v>
       </c>
       <c r="E33" t="n">
-        <v>0.753751003364088</v>
+        <v>0.830989474823453</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00747157149939813</v>
+        <v>0.00750284924212371</v>
       </c>
       <c r="G33" t="n">
-        <v>0.114677462634461</v>
+        <v>0.104235963929471</v>
       </c>
     </row>
     <row r="34">
@@ -2524,22 +2524,22 @@
         <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.976005201872742</v>
+        <v>-1.11859725213105</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0471538497850124</v>
+        <v>0.056533326870968</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.222487924901366</v>
+        <v>-0.212558523000458</v>
       </c>
       <c r="E34" t="n">
-        <v>0.733112582781457</v>
+        <v>0.798427152317881</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00880878609490812</v>
+        <v>0.012093014651526</v>
       </c>
       <c r="G34" t="n">
-        <v>0.128022810903624</v>
+        <v>0.137731092326833</v>
       </c>
     </row>
     <row r="35">
@@ -2547,22 +2547,22 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.503373666932053</v>
+        <v>-0.620930699623253</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13336686154552</v>
+        <v>0.150174646881945</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.725493412091641</v>
+        <v>-0.624101429387012</v>
       </c>
       <c r="E35" t="n">
-        <v>0.526039930031281</v>
+        <v>0.580932783307788</v>
       </c>
       <c r="F35" t="n">
-        <v>0.023099032984923</v>
+        <v>0.0271224753909004</v>
       </c>
       <c r="G35" t="n">
-        <v>0.28892038717922</v>
+        <v>0.283490674057521</v>
       </c>
     </row>
     <row r="36">
@@ -2570,22 +2570,22 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.20896486512758</v>
+        <v>-1.57136745666119</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0577184644576012</v>
+        <v>0.07515830968605</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.19872097288865</v>
+        <v>-0.174465977292188</v>
       </c>
       <c r="E36" t="n">
-        <v>0.817302389705882</v>
+        <v>0.92140625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0109110300512611</v>
+        <v>0.0159107354675082</v>
       </c>
       <c r="G36" t="n">
-        <v>0.127805665825743</v>
+        <v>0.136897013498417</v>
       </c>
     </row>
     <row r="37">
@@ -2593,22 +2593,22 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>0.512754952618334</v>
+        <v>0.445743097954104</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00820330490148588</v>
+        <v>0.00894955906675437</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176638172574047</v>
+        <v>0.212234602494157</v>
       </c>
       <c r="E37" t="n">
-        <v>0.129570661168618</v>
+        <v>0.132044056907937</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00130050002605911</v>
+        <v>0.00173457884954806</v>
       </c>
       <c r="G37" t="n">
-        <v>0.278322622394349</v>
+        <v>0.315411965099756</v>
       </c>
     </row>
     <row r="38">
@@ -2616,22 +2616,22 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.363937054996665</v>
+        <v>-0.476830151263043</v>
       </c>
       <c r="C38" t="n">
-        <v>0.170372456271677</v>
+        <v>0.193721571328366</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.13415762243981</v>
+        <v>-0.923050118349256</v>
       </c>
       <c r="E38" t="n">
-        <v>0.465143266475645</v>
+        <v>0.514695558739255</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0276953665913047</v>
+        <v>0.0333082136738409</v>
       </c>
       <c r="G38" t="n">
-        <v>0.357780626864435</v>
+        <v>0.354588992949701</v>
       </c>
     </row>
     <row r="39">
@@ -2639,22 +2639,22 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.775207351477344</v>
+        <v>0.46198133446868</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00767123019514799</v>
+        <v>0.0086847990982872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.112983396142219</v>
+        <v>0.201723019020181</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0713634595779314</v>
+        <v>0.125786922940788</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000639650488989524</v>
+        <v>0.000782319405367465</v>
       </c>
       <c r="G39" t="n">
-        <v>0.354401435548176</v>
+        <v>0.222359945116552</v>
       </c>
     </row>
     <row r="40">
@@ -2662,22 +2662,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>0.761721552443994</v>
+        <v>0.449256839896775</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0129067342559502</v>
+        <v>0.0159841616741336</v>
       </c>
       <c r="D40" t="n">
-        <v>0.149146113290643</v>
+        <v>0.281416938369971</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0921379703534778</v>
+        <v>0.154412770809578</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000981556608189264</v>
+        <v>0.000955073401861066</v>
       </c>
       <c r="G40" t="n">
-        <v>0.340031408467188</v>
+        <v>0.200140582350142</v>
       </c>
     </row>
     <row r="41">
@@ -2685,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>0.797637056817826</v>
+        <v>0.475080253615016</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00673787267255508</v>
+        <v>0.00905383521740268</v>
       </c>
       <c r="D41" t="n">
-        <v>0.102909644405029</v>
+        <v>0.200285409776936</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0655407599870088</v>
+        <v>0.119126339720689</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000721118094360681</v>
+        <v>0.000949694941826901</v>
       </c>
       <c r="G41" t="n">
-        <v>0.409724301509302</v>
+        <v>0.258692754203028</v>
       </c>
     </row>
     <row r="42">
@@ -2708,22 +2708,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>0.610397996379744</v>
+        <v>0.3774729404237</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00167294153196843</v>
+        <v>0.00213290870237998</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0670080966537464</v>
+        <v>0.122348967556869</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0996668448949702</v>
+        <v>0.143410094731947</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000186831781751127</v>
+        <v>0.000222857043851489</v>
       </c>
       <c r="G42" t="n">
-        <v>0.137143322770968</v>
+        <v>0.104095860599838</v>
       </c>
     </row>
     <row r="43">
@@ -2731,22 +2731,22 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>0.601500947994136</v>
+        <v>0.402068410253361</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000898134225878307</v>
+        <v>0.00127633729318144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0498235085606873</v>
+        <v>0.088855185272261</v>
       </c>
       <c r="E43" t="n">
-        <v>0.101528635058242</v>
+        <v>0.137336398015234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000116423014908032</v>
+        <v>0.000131636540712314</v>
       </c>
       <c r="G43" t="n">
-        <v>0.106274941167054</v>
+        <v>0.0835415594143052</v>
       </c>
     </row>
     <row r="44">
@@ -2754,22 +2754,22 @@
         <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.636566873619608</v>
+        <v>-0.862657188056225</v>
       </c>
       <c r="C44" t="n">
-        <v>0.166638643318944</v>
+        <v>0.196056972007004</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.641274286310996</v>
+        <v>-0.513278295483101</v>
       </c>
       <c r="E44" t="n">
-        <v>0.582532527687439</v>
+        <v>0.683656761254153</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0250560611767352</v>
+        <v>0.0278454601409909</v>
       </c>
       <c r="G44" t="n">
-        <v>0.27172914338202</v>
+        <v>0.244083873194319</v>
       </c>
     </row>
     <row r="45">
@@ -2777,22 +2777,22 @@
         <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.672128096664606</v>
+        <v>-0.770534093357935</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0536895963475851</v>
+        <v>0.0388902555858527</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.344741065059879</v>
+        <v>-0.255934327001756</v>
       </c>
       <c r="E45" t="n">
-        <v>0.602590046300958</v>
+        <v>0.65399998257888</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00998714904125435</v>
+        <v>0.00676716845922798</v>
       </c>
       <c r="G45" t="n">
-        <v>0.165843636420924</v>
+        <v>0.125784103025816</v>
       </c>
     </row>
     <row r="46">
@@ -2800,22 +2800,22 @@
         <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.571473219550662</v>
+        <v>-0.825814902171812</v>
       </c>
       <c r="C46" t="n">
-        <v>0.193221482366435</v>
+        <v>0.219451953158189</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.769186797976368</v>
+        <v>-0.567266333604953</v>
       </c>
       <c r="E46" t="n">
-        <v>0.553326413255721</v>
+        <v>0.663771236503083</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0306464987924849</v>
+        <v>0.0317849110432198</v>
       </c>
       <c r="G46" t="n">
-        <v>0.316380006721516</v>
+        <v>0.26859138034766</v>
       </c>
     </row>
     <row r="47">
@@ -2823,22 +2823,22 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.426557402417119</v>
+        <v>-0.970048637588137</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00568763901555454</v>
+        <v>0.0101515645201295</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.176802551957038</v>
+        <v>-0.103865897830036</v>
       </c>
       <c r="E47" t="n">
-        <v>0.489041331186259</v>
+        <v>0.746076221148685</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00110526079186486</v>
+        <v>0.00224595673560528</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0679808854710543</v>
+        <v>0.0635210245897505</v>
       </c>
     </row>
     <row r="48">
@@ -2846,22 +2846,22 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.752335186978933</v>
+        <v>-0.920491012252442</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0486243402093994</v>
+        <v>0.0416852788060442</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.293099775834844</v>
+        <v>-0.221805240538709</v>
       </c>
       <c r="E48" t="n">
-        <v>0.637433524504692</v>
+        <v>0.718043534932221</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00831367184570995</v>
+        <v>0.00774111978424788</v>
       </c>
       <c r="G48" t="n">
-        <v>0.143041329666292</v>
+        <v>0.122532450102978</v>
       </c>
     </row>
     <row r="49">
@@ -2869,22 +2869,22 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.269974997139141</v>
+        <v>-0.637090655537292</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0346195216059783</v>
+        <v>0.0475023942637154</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.689186855640238</v>
+        <v>-0.342102710236242</v>
       </c>
       <c r="E49" t="n">
-        <v>0.417535862947064</v>
+        <v>0.592873431437288</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00746327408738866</v>
+        <v>0.00897584968551951</v>
       </c>
       <c r="G49" t="n">
-        <v>0.206904964763016</v>
+        <v>0.159799640102482</v>
       </c>
     </row>
     <row r="50">
@@ -2892,22 +2892,22 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.14977607281012</v>
+        <v>-1.34329227487422</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0466281564846786</v>
+        <v>0.0394836924764519</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.187806602438294</v>
+        <v>-0.147923905018349</v>
       </c>
       <c r="E50" t="n">
-        <v>0.795149968091895</v>
+        <v>0.866700701978303</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00802542377465344</v>
+        <v>0.00607553233103467</v>
       </c>
       <c r="G50" t="n">
-        <v>0.112663941619791</v>
+        <v>0.0899338156679198</v>
       </c>
     </row>
     <row r="51">
@@ -2915,22 +2915,22 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.581234567679629</v>
+        <v>-0.816203088663587</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151797272152675</v>
+        <v>0.200720946618456</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.670317485797508</v>
+        <v>-0.548906172324102</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5578073089701</v>
+        <v>0.66078073089701</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0235196970911607</v>
+        <v>0.0274610545063313</v>
       </c>
       <c r="G51" t="n">
-        <v>0.274936032698953</v>
+        <v>0.250784814211202</v>
       </c>
     </row>
     <row r="52">
@@ -2938,22 +2938,22 @@
         <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.987567481160616</v>
+        <v>-1.25335748692057</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0505005768132272</v>
+        <v>0.0603757187208327</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.227552383222727</v>
+        <v>-0.196045192680796</v>
       </c>
       <c r="E52" t="n">
-        <v>0.736480122543831</v>
+        <v>0.841468895327742</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00932015202680284</v>
+        <v>0.010310447992522</v>
       </c>
       <c r="G52" t="n">
-        <v>0.131084236365509</v>
+        <v>0.120670385718004</v>
       </c>
     </row>
     <row r="53">
@@ -2961,22 +2961,22 @@
         <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.583434538432536</v>
+        <v>-0.840987569712836</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0277474508880456</v>
+        <v>0.0309371065792747</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.285508742075818</v>
+        <v>-0.20914634051267</v>
       </c>
       <c r="E53" t="n">
-        <v>0.563930546477067</v>
+        <v>0.689956855715976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0048875143966639</v>
+        <v>0.00477513922713008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.123970514936532</v>
+        <v>0.100154642479103</v>
       </c>
     </row>
     <row r="54">
@@ -2984,22 +2984,22 @@
         <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.501222062700136</v>
+        <v>-0.763755540537179</v>
       </c>
       <c r="C54" t="n">
-        <v>0.190513703092374</v>
+        <v>0.216288191007253</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.870829093407598</v>
+        <v>-0.608922512076194</v>
       </c>
       <c r="E54" t="n">
-        <v>0.524019804746162</v>
+        <v>0.642104285557346</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0292254845461967</v>
+        <v>0.0315857919512236</v>
       </c>
       <c r="G54" t="n">
-        <v>0.326236958237197</v>
+        <v>0.27678357642406</v>
       </c>
     </row>
     <row r="55">
@@ -3007,22 +3007,22 @@
         <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.835835541545586</v>
+        <v>-1.50887426508712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0261923374415072</v>
+        <v>0.0356326747887981</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.19362716834223</v>
+        <v>-0.125103989886255</v>
       </c>
       <c r="E55" t="n">
-        <v>0.677876678907103</v>
+        <v>0.909392113365917</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00414135502341671</v>
+        <v>0.00586953834734221</v>
       </c>
       <c r="G55" t="n">
-        <v>0.094933728545299</v>
+        <v>0.0842462907694651</v>
       </c>
     </row>
     <row r="56">
@@ -3030,22 +3030,22 @@
         <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.0596699862164207</v>
+        <v>-0.402189078458335</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00791511118944898</v>
+        <v>0.023278877257114</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.49098259082587</v>
+        <v>-0.37935930601734</v>
       </c>
       <c r="E56" t="n">
-        <v>0.322607264599714</v>
+        <v>0.476782786132437</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00156133895651252</v>
+        <v>0.00409405244815312</v>
       </c>
       <c r="G56" t="n">
-        <v>0.122482616454352</v>
+        <v>0.134201118000031</v>
       </c>
     </row>
     <row r="57">
@@ -3053,22 +3053,22 @@
         <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.44019150922985</v>
+        <v>-1.61928289389965</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0407216030237697</v>
+        <v>0.0504242268966539</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.140117437666334</v>
+        <v>-0.138674591794369</v>
       </c>
       <c r="E57" t="n">
-        <v>0.879277239710058</v>
+        <v>0.928302257256853</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00738676691838248</v>
+        <v>0.00731605249699022</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0977465339114222</v>
+        <v>0.0921401680664355</v>
       </c>
     </row>
     <row r="58">
@@ -3076,22 +3076,22 @@
         <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.702351581651105</v>
+        <v>-0.797380377630727</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0194084931621886</v>
+        <v>0.0303842247062719</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.198354174391653</v>
+        <v>-0.218604217013491</v>
       </c>
       <c r="E58" t="n">
-        <v>0.617699539827488</v>
+        <v>0.669544984413777</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00395192963297366</v>
+        <v>0.00527167342350406</v>
       </c>
       <c r="G58" t="n">
-        <v>0.101771769052538</v>
+        <v>0.108441243251979</v>
       </c>
     </row>
     <row r="59">
@@ -3099,22 +3099,22 @@
         <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.704313492828942</v>
+        <v>-0.946609502740718</v>
       </c>
       <c r="C59" t="n">
-        <v>0.148475099238338</v>
+        <v>0.179271827963353</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.547092553577688</v>
+        <v>-0.447285854253521</v>
       </c>
       <c r="E59" t="n">
-        <v>0.608838146494493</v>
+        <v>0.712018797130151</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0227008505001997</v>
+        <v>0.0250736025375654</v>
       </c>
       <c r="G59" t="n">
-        <v>0.247468091574589</v>
+        <v>0.22239084733087</v>
       </c>
     </row>
     <row r="60">
@@ -3122,22 +3122,22 @@
         <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.15952453750913</v>
+        <v>-1.36447800421926</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0484975868252881</v>
+        <v>0.0579703753633727</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.18992411926825</v>
+        <v>-0.176456035327447</v>
       </c>
       <c r="E60" t="n">
-        <v>0.799770264412657</v>
+        <v>0.873675769397486</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00986294991515805</v>
+        <v>0.0104259314695724</v>
       </c>
       <c r="G60" t="n">
-        <v>0.124176141482669</v>
+        <v>0.116871102740965</v>
       </c>
     </row>
     <row r="61">
@@ -3145,22 +3145,22 @@
         <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.793567581760136</v>
+        <v>-0.990878593373939</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0245515494559286</v>
+        <v>0.0254503912809523</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.197449271109246</v>
+        <v>-0.161000337224563</v>
       </c>
       <c r="E61" t="n">
-        <v>0.657761904672413</v>
+        <v>0.749137715051773</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00443989742914955</v>
+        <v>0.00428813499999572</v>
       </c>
       <c r="G61" t="n">
-        <v>0.10130193745146</v>
+        <v>0.0874123030463029</v>
       </c>
     </row>
     <row r="62">
@@ -3168,22 +3168,22 @@
         <v>89</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.86237976207307</v>
+        <v>-1.06429704721137</v>
       </c>
       <c r="C62" t="n">
-        <v>0.204246189440345</v>
+        <v>0.211915494124866</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.524056877975618</v>
+        <v>-0.432532253915399</v>
       </c>
       <c r="E62" t="n">
-        <v>0.67539517274018</v>
+        <v>0.760461429247515</v>
       </c>
       <c r="F62" t="n">
-        <v>0.028257007250991</v>
+        <v>0.0260957470202826</v>
       </c>
       <c r="G62" t="n">
-        <v>0.248888671323693</v>
+        <v>0.212426001928653</v>
       </c>
     </row>
     <row r="63">
@@ -3191,22 +3191,22 @@
         <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.399775494011708</v>
+        <v>-0.5437715956171</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00525075437910525</v>
+        <v>0.00544803802415773</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.181256956316154</v>
+        <v>-0.135738656676483</v>
       </c>
       <c r="E63" t="n">
-        <v>0.475814618167565</v>
+        <v>0.546589103514501</v>
       </c>
       <c r="F63" t="n">
-        <v>0.000985363830456116</v>
+        <v>0.00110737086168113</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0659721333065039</v>
+        <v>0.060881532551296</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.23887385533894</v>
+        <v>-1.43889083675234</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0493718401135038</v>
+        <v>0.0439414379779169</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.179354620376749</v>
+        <v>-0.145683137357121</v>
       </c>
       <c r="E64" t="n">
-        <v>0.82351396799566</v>
+        <v>0.890615676701926</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00866096638967472</v>
+        <v>0.00693599762997841</v>
       </c>
       <c r="G64" t="n">
-        <v>0.113008785287886</v>
+        <v>0.0935113081932836</v>
       </c>
     </row>
     <row r="65">
@@ -3237,22 +3237,22 @@
         <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.980005087275662</v>
+        <v>-1.31012889810497</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0175152382994591</v>
+        <v>0.0296332112702809</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.135045368740797</v>
+        <v>-0.131393939043199</v>
       </c>
       <c r="E65" t="n">
-        <v>0.734904811235841</v>
+        <v>0.858694360002038</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00310720897299345</v>
+        <v>0.00461111662967845</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0758497477107452</v>
+        <v>0.0790795962128795</v>
       </c>
     </row>
     <row r="66">
@@ -3260,22 +3260,22 @@
         <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.06034174300135</v>
+        <v>-1.30444663181135</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0338001236532112</v>
+        <v>0.0341985524544119</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.173385703820548</v>
+        <v>-0.141767782462533</v>
       </c>
       <c r="E66" t="n">
-        <v>0.763739971684757</v>
+        <v>0.854915054270882</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00553857921581208</v>
+        <v>0.0051760023902261</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0974436773370644</v>
+        <v>0.0841539042348375</v>
       </c>
     </row>
     <row r="67">
@@ -3283,22 +3283,22 @@
         <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.875740843398528</v>
+        <v>-1.08086930396895</v>
       </c>
       <c r="C67" t="n">
-        <v>0.173537126201285</v>
+        <v>0.199316169554826</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.475686247197924</v>
+        <v>-0.413045678636812</v>
       </c>
       <c r="E67" t="n">
-        <v>0.678508909155363</v>
+        <v>0.760816435949848</v>
       </c>
       <c r="F67" t="n">
-        <v>0.025279471603677</v>
+        <v>0.0245487531022411</v>
       </c>
       <c r="G67" t="n">
-        <v>0.234330296189528</v>
+        <v>0.20593721388675</v>
       </c>
     </row>
     <row r="68">
@@ -3306,22 +3306,22 @@
         <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.665678047780735</v>
+        <v>-0.810309798335052</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0165823628143224</v>
+        <v>0.0184236716719798</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.193445651320017</v>
+        <v>-0.167508558870366</v>
       </c>
       <c r="E68" t="n">
-        <v>0.601898530774609</v>
+        <v>0.675561378503027</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00296919834096397</v>
+        <v>0.00274779045584081</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0905307923374745</v>
+        <v>0.0775937948292685</v>
       </c>
     </row>
     <row r="69">
@@ -3329,22 +3329,22 @@
         <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.442774434364169</v>
+        <v>-0.643659764668268</v>
       </c>
       <c r="C69" t="n">
-        <v>0.068755948873844</v>
+        <v>0.0491299538353215</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.592205727123813</v>
+        <v>-0.344363264268619</v>
       </c>
       <c r="E69" t="n">
-        <v>0.497614913303401</v>
+        <v>0.594667104904125</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0107386102589038</v>
+        <v>0.00692345146031398</v>
       </c>
       <c r="G69" t="n">
-        <v>0.208247910645145</v>
+        <v>0.139922453093227</v>
       </c>
     </row>
     <row r="70">
@@ -3352,22 +3352,22 @@
         <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.977447858274792</v>
+        <v>-1.17963261185789</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0463508897961299</v>
+        <v>0.0445462689036161</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.220259900397468</v>
+        <v>-0.178920002976272</v>
       </c>
       <c r="E70" t="n">
-        <v>0.731053033376888</v>
+        <v>0.814326404184055</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00812357450651514</v>
+        <v>0.00690973463866029</v>
       </c>
       <c r="G70" t="n">
-        <v>0.123289105180587</v>
+        <v>0.102078003597443</v>
       </c>
     </row>
     <row r="71">
@@ -3375,22 +3375,22 @@
         <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.781922692799943</v>
+        <v>-0.92328042471748</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0425826913519911</v>
+        <v>0.0465089829745485</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.263908109725989</v>
+        <v>-0.233579537183535</v>
       </c>
       <c r="E71" t="n">
-        <v>0.648094044339027</v>
+        <v>0.717523045612515</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0076819997663091</v>
+        <v>0.00841158354271812</v>
       </c>
       <c r="G71" t="n">
-        <v>0.135238116716369</v>
+        <v>0.12782124016149</v>
       </c>
     </row>
     <row r="72">
@@ -3398,22 +3398,22 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.851479220765125</v>
+        <v>-1.02835791404535</v>
       </c>
       <c r="C72" t="n">
-        <v>0.161587247781536</v>
+        <v>0.159660841022902</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.472095094706086</v>
+        <v>-0.388557155944567</v>
       </c>
       <c r="E72" t="n">
-        <v>0.666594990548204</v>
+        <v>0.74069943289225</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0239108078247447</v>
+        <v>0.0223851551703691</v>
       </c>
       <c r="G72" t="n">
-        <v>0.231971739335583</v>
+        <v>0.201993801416114</v>
       </c>
     </row>
     <row r="73">
@@ -3421,22 +3421,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.872918253691401</v>
+        <v>-1.10482900030275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.154827934792002</v>
+        <v>0.150925094937297</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.45076593177513</v>
+        <v>-0.351629791768226</v>
       </c>
       <c r="E73" t="n">
-        <v>0.679472571665196</v>
+        <v>0.771426494436243</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0230799628511717</v>
+        <v>0.0169593807895127</v>
       </c>
       <c r="G73" t="n">
-        <v>0.223586523121437</v>
+        <v>0.16881477149667</v>
       </c>
     </row>
     <row r="74">
@@ -3444,22 +3444,22 @@
         <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.634378429768867</v>
+        <v>-0.746571636458487</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0503222784817765</v>
+        <v>0.0428676760088499</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.353615864467041</v>
+        <v>-0.277327849207111</v>
       </c>
       <c r="E74" t="n">
-        <v>0.586866074874566</v>
+        <v>0.64497105364724</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00786573288277371</v>
+        <v>0.0054281072514319</v>
       </c>
       <c r="G74" t="n">
-        <v>0.151123008950401</v>
+        <v>0.114231001956268</v>
       </c>
     </row>
     <row r="75">
@@ -3467,22 +3467,22 @@
         <v>102</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.660033590499822</v>
+        <v>-0.957289245895234</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0476070843224178</v>
+        <v>0.0501496898779166</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.330574807552947</v>
+        <v>-0.233932706659499</v>
       </c>
       <c r="E75" t="n">
-        <v>0.598993229319988</v>
+        <v>0.738460406240801</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00769239557969425</v>
+        <v>0.00649113746332306</v>
       </c>
       <c r="G75" t="n">
-        <v>0.146422862014705</v>
+        <v>0.109102119673567</v>
       </c>
     </row>
     <row r="76">
@@ -3490,22 +3490,22 @@
         <v>103</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.627959493558498</v>
+        <v>-0.774497981440191</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0593828468281958</v>
+        <v>0.0461147928664358</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.388059997403805</v>
+        <v>-0.277268058203726</v>
       </c>
       <c r="E76" t="n">
-        <v>0.584113968033356</v>
+        <v>0.657590919620107</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0100750487670183</v>
+        <v>0.00583767427748864</v>
       </c>
       <c r="G76" t="n">
-        <v>0.171840681644543</v>
+        <v>0.1161887613838</v>
       </c>
     </row>
     <row r="77">
@@ -3513,22 +3513,22 @@
         <v>104</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.811675157438564</v>
+        <v>-1.00181112184971</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192411564899329</v>
+        <v>0.223140848086418</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.540422387726998</v>
+        <v>-0.471523878588821</v>
       </c>
       <c r="E77" t="n">
-        <v>0.658469082811285</v>
+        <v>0.740889738990554</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0260041225566539</v>
+        <v>0.0271912065944869</v>
       </c>
       <c r="G77" t="n">
-        <v>0.244898268080112</v>
+        <v>0.222566942509053</v>
       </c>
     </row>
     <row r="78">
@@ -3536,22 +3536,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.588081070795472</v>
+        <v>-0.608740093976927</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0479648195528898</v>
+        <v>0.0421663258073356</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.372412463421973</v>
+        <v>-0.337326898316265</v>
       </c>
       <c r="E78" t="n">
-        <v>0.565371779859485</v>
+        <v>0.579186182669789</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00858328168199724</v>
+        <v>0.0066633298888959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.163867397128084</v>
+        <v>0.140937792493118</v>
       </c>
     </row>
     <row r="79">
@@ -3559,22 +3559,22 @@
         <v>106</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.135041492351219</v>
+        <v>-0.274241267028899</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00199928525296955</v>
+        <v>0.0029580455438664</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.331108364863812</v>
+        <v>-0.198321419125219</v>
       </c>
       <c r="E79" t="n">
-        <v>0.352129811191506</v>
+        <v>0.410560745529534</v>
       </c>
       <c r="F79" t="n">
-        <v>0.000371336524823046</v>
+        <v>0.000655226717411994</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0547244040148036</v>
+        <v>0.062347404058492</v>
       </c>
     </row>
     <row r="80">
@@ -3582,22 +3582,22 @@
         <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.4627260116218</v>
+        <v>-0.567722896533656</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0190265565445388</v>
+        <v>0.0259247805662538</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.298096024712386</v>
+        <v>-0.283609735390287</v>
       </c>
       <c r="E80" t="n">
-        <v>0.507568689181454</v>
+        <v>0.559767219996184</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00292786558039175</v>
+        <v>0.00350576945678786</v>
       </c>
       <c r="G80" t="n">
-        <v>0.106605777897687</v>
+        <v>0.105775287382735</v>
       </c>
     </row>
     <row r="81">
@@ -3605,22 +3605,22 @@
         <v>108</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.639875531801154</v>
+        <v>-0.74413369615844</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0375371543413264</v>
+        <v>0.0347180753101096</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.302785566923633</v>
+        <v>-0.250395690212362</v>
       </c>
       <c r="E81" t="n">
-        <v>0.588669386066856</v>
+        <v>0.642561570432539</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00569466653948892</v>
+        <v>0.00480519317072556</v>
       </c>
       <c r="G81" t="n">
-        <v>0.128192523965523</v>
+        <v>0.107879935312558</v>
       </c>
     </row>
     <row r="82">
@@ -3628,22 +3628,22 @@
         <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.484792859144556</v>
+        <v>-0.740997801765993</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0451611278138555</v>
+        <v>0.039272696300512</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.438355212727622</v>
+        <v>-0.267441278646484</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5166779880317</v>
+        <v>0.642172084748504</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00853309166606961</v>
+        <v>0.00613827095515192</v>
       </c>
       <c r="G82" t="n">
-        <v>0.178785892061219</v>
+        <v>0.122003307555228</v>
       </c>
     </row>
     <row r="83">
@@ -3651,22 +3651,22 @@
         <v>110</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.681727687235876</v>
+        <v>-0.914263911473713</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0450590934560328</v>
+        <v>0.0455629534535044</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.311372527836641</v>
+        <v>-0.233471759698784</v>
       </c>
       <c r="E83" t="n">
-        <v>0.607903263739674</v>
+        <v>0.71832627622523</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00826853848399643</v>
+        <v>0.00714481318071946</v>
       </c>
       <c r="G83" t="n">
-        <v>0.149582194696807</v>
+        <v>0.117672149209073</v>
       </c>
     </row>
     <row r="84">
@@ -3674,22 +3674,22 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.638875418102428</v>
+        <v>-0.918459394813599</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0510166610956713</v>
+        <v>0.0506344632650681</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.353541042097353</v>
+        <v>-0.24499834153358</v>
       </c>
       <c r="E84" t="n">
-        <v>0.589268456255124</v>
+        <v>0.7207766660149</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0080933938028614</v>
+        <v>0.00617689268675603</v>
       </c>
       <c r="G84" t="n">
-        <v>0.152669450508673</v>
+        <v>0.109039615026404</v>
       </c>
     </row>
     <row r="85">
@@ -3697,22 +3697,22 @@
         <v>112</v>
       </c>
       <c r="B85" t="n">
-        <v>0.364387027508952</v>
+        <v>0.118452236847538</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0450274892038431</v>
+        <v>0.0519932099439874</v>
       </c>
       <c r="D85" t="n">
-        <v>0.582339109571074</v>
+        <v>1.92499696434246</v>
       </c>
       <c r="E85" t="n">
-        <v>0.170662508066251</v>
+        <v>0.241561626156163</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00797233609269631</v>
+        <v>0.0103111799850934</v>
       </c>
       <c r="G85" t="n">
-        <v>0.523184267276635</v>
+        <v>0.420364700145676</v>
       </c>
     </row>
     <row r="86">
@@ -3720,22 +3720,22 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.387287090321629</v>
+        <v>-0.556838703389098</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0420424833896294</v>
+        <v>0.0490928839508394</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.529433185622866</v>
+        <v>-0.397905423942485</v>
       </c>
       <c r="E86" t="n">
-        <v>0.471322176889565</v>
+        <v>0.552354608948206</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00631130060652441</v>
+        <v>0.00880857512923851</v>
       </c>
       <c r="G86" t="n">
-        <v>0.16855496826336</v>
+        <v>0.169916224359213</v>
       </c>
     </row>
     <row r="87">
@@ -3743,22 +3743,22 @@
         <v>114</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.081947964494258</v>
+        <v>-0.348799867446222</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0408483122733451</v>
+        <v>0.0395046145563177</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.46631695283481</v>
+        <v>-0.569833008928651</v>
       </c>
       <c r="E87" t="n">
-        <v>0.332578151260504</v>
+        <v>0.450349579831933</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00810892660597415</v>
+        <v>0.00857674320491491</v>
       </c>
       <c r="G87" t="n">
-        <v>0.270762159986611</v>
+        <v>0.20564182132761</v>
       </c>
     </row>
     <row r="88">
@@ -3766,22 +3766,22 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.147505832119958</v>
+        <v>-0.30463215842965</v>
       </c>
       <c r="C88" t="n">
-        <v>0.189917396220662</v>
+        <v>0.165504874630181</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.95442644373209</v>
+        <v>-1.33545619534544</v>
       </c>
       <c r="E88" t="n">
-        <v>0.371264767199444</v>
+        <v>0.433242992819087</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0284686164584434</v>
+        <v>0.0288995520796863</v>
       </c>
       <c r="G88" t="n">
-        <v>0.454463955207177</v>
+        <v>0.392386456099465</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +3789,22 @@
         <v>116</v>
       </c>
       <c r="B89" t="n">
-        <v>0.438532815565311</v>
+        <v>0.257739356984231</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00359241708976371</v>
+        <v>0.00273354948159216</v>
       </c>
       <c r="D89" t="n">
-        <v>0.136675691403481</v>
+        <v>0.20285360454272</v>
       </c>
       <c r="E89" t="n">
-        <v>0.148160845159277</v>
+        <v>0.184972403482831</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000555590340530993</v>
+        <v>0.000491666750845533</v>
       </c>
       <c r="G89" t="n">
-        <v>0.159090371706657</v>
+        <v>0.119874961382133</v>
       </c>
     </row>
     <row r="90">
@@ -3812,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>0.711052683289855</v>
+        <v>0.476646031287052</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0566001407312676</v>
+        <v>0.0633238268817391</v>
       </c>
       <c r="D90" t="n">
-        <v>0.334585392091209</v>
+        <v>0.527943679820326</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0911266831547128</v>
+        <v>0.131766968947513</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00871372937304571</v>
+        <v>0.010441927255275</v>
       </c>
       <c r="G90" t="n">
-        <v>1.02436910300209</v>
+        <v>0.77550352416672</v>
       </c>
     </row>
     <row r="91">
@@ -3835,22 +3835,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.135754955192062</v>
+        <v>-0.32064185268538</v>
       </c>
       <c r="C91" t="n">
-        <v>0.190607132021485</v>
+        <v>0.196594922973222</v>
       </c>
       <c r="D91" t="n">
-        <v>-3.21598402406498</v>
+        <v>-1.38282091572444</v>
       </c>
       <c r="E91" t="n">
-        <v>0.368591603594888</v>
+        <v>0.444828655961592</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0282582168586423</v>
+        <v>0.0320316749859357</v>
       </c>
       <c r="G91" t="n">
-        <v>0.456065204424847</v>
+        <v>0.402343572475872</v>
       </c>
     </row>
     <row r="92">
@@ -3858,22 +3858,22 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.933269398953465</v>
+        <v>-1.1334603844184</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0504428019915849</v>
+        <v>0.0489467584521366</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.240653717822129</v>
+        <v>-0.195189127180483</v>
       </c>
       <c r="E92" t="n">
-        <v>0.716418002466091</v>
+        <v>0.805154130702836</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00919417869278919</v>
+        <v>0.0101527312044165</v>
       </c>
       <c r="G92" t="n">
-        <v>0.133841248646471</v>
+        <v>0.125144687686445</v>
       </c>
     </row>
     <row r="93">
@@ -3881,22 +3881,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.141157088882587</v>
+        <v>-0.318870240897861</v>
       </c>
       <c r="C93" t="n">
-        <v>0.186113338948982</v>
+        <v>0.213140398040015</v>
       </c>
       <c r="D93" t="n">
-        <v>-3.05623015931218</v>
+        <v>-1.44783441761971</v>
       </c>
       <c r="E93" t="n">
-        <v>0.36623148331029</v>
+        <v>0.439624728421884</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0273122856780782</v>
+        <v>0.0350778359217022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.451256371779164</v>
+        <v>0.426024213274927</v>
       </c>
     </row>
     <row r="94">
@@ -3904,22 +3904,22 @@
         <v>121</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.40926362309481</v>
+        <v>-0.63573521914939</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0419556367210625</v>
+        <v>0.046775803524665</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.500486092206067</v>
+        <v>-0.340200037153034</v>
       </c>
       <c r="E94" t="n">
-        <v>0.480536604062859</v>
+        <v>0.592372556535071</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00729436117173196</v>
+        <v>0.0102495419918462</v>
       </c>
       <c r="G94" t="n">
-        <v>0.177732625589263</v>
+        <v>0.170905995852418</v>
       </c>
     </row>
     <row r="95">
@@ -3927,22 +3927,22 @@
         <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.226686336680724</v>
+        <v>-0.399974475969309</v>
       </c>
       <c r="C95" t="n">
-        <v>0.181063353822865</v>
+        <v>0.181497043766407</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.87711091942624</v>
+        <v>-1.06512971235958</v>
       </c>
       <c r="E95" t="n">
-        <v>0.409360354409187</v>
+        <v>0.480336984737804</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0271261702393387</v>
+        <v>0.0306585074005068</v>
       </c>
       <c r="G95" t="n">
-        <v>0.402335599474286</v>
+        <v>0.364526811012522</v>
       </c>
     </row>
     <row r="96">
@@ -3950,22 +3950,22 @@
         <v>123</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.812909529857443</v>
+        <v>-0.960409637782946</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0466030783418957</v>
+        <v>0.0354404996944624</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.265561484364774</v>
+        <v>-0.19601685132539</v>
       </c>
       <c r="E96" t="n">
-        <v>0.666387202037818</v>
+        <v>0.737986614333818</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00847500704349473</v>
+        <v>0.00759020214583126</v>
       </c>
       <c r="G96" t="n">
-        <v>0.13814761323611</v>
+        <v>0.118053314935504</v>
       </c>
     </row>
     <row r="97">
@@ -3973,22 +3973,22 @@
         <v>124</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.483012224322742</v>
+        <v>-0.776491435919496</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0425989813970881</v>
+        <v>0.0466576367942405</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.427308453955867</v>
+        <v>-0.278179228836622</v>
       </c>
       <c r="E97" t="n">
-        <v>0.516594926050666</v>
+        <v>0.658825267242642</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00770996953758315</v>
+        <v>0.00976842178533657</v>
       </c>
       <c r="G97" t="n">
-        <v>0.169971534335493</v>
+        <v>0.150017510742663</v>
       </c>
     </row>
     <row r="98">
@@ -3996,22 +3996,22 @@
         <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.0730392314362601</v>
+        <v>-0.14344950300774</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0240114433541615</v>
+        <v>0.0299952198252194</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.12154837429816</v>
+        <v>-1.20733273660649</v>
       </c>
       <c r="E98" t="n">
-        <v>0.328687555128266</v>
+        <v>0.351109048938381</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0033926933527064</v>
+        <v>0.00516205171488606</v>
       </c>
       <c r="G98" t="n">
-        <v>0.177210333518059</v>
+        <v>0.204629928789117</v>
       </c>
     </row>
     <row r="99">
@@ -4019,22 +4019,22 @@
         <v>126</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0517254961925551</v>
+        <v>-0.225677683367236</v>
       </c>
       <c r="C99" t="n">
-        <v>0.178166637621206</v>
+        <v>0.217052924850525</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.16034512160297</v>
+        <v>-2.06440169124299</v>
       </c>
       <c r="E99" t="n">
-        <v>0.332720848056537</v>
+        <v>0.399317749388421</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0225094900052021</v>
+        <v>0.0337640478212626</v>
       </c>
       <c r="G99" t="n">
-        <v>0.450923441954921</v>
+        <v>0.460159760840276</v>
       </c>
     </row>
     <row r="100">
@@ -4042,22 +4042,22 @@
         <v>127</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.255012518007877</v>
+        <v>-0.382858095072638</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0124835275662468</v>
+        <v>0.0132132739578424</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.438134208073646</v>
+        <v>-0.300239194054714</v>
       </c>
       <c r="E100" t="n">
-        <v>0.410365315134484</v>
+        <v>0.466631874749097</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00181846267329145</v>
+        <v>0.00247799486473263</v>
       </c>
       <c r="G100" t="n">
-        <v>0.103915791343277</v>
+        <v>0.106678229611353</v>
       </c>
     </row>
     <row r="101">
@@ -4065,22 +4065,22 @@
         <v>128</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.717625636318008</v>
+        <v>-0.808272186379301</v>
       </c>
       <c r="C101" t="n">
-        <v>0.040843333614038</v>
+        <v>0.048345277846997</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.281619449962805</v>
+        <v>-0.272031624992598</v>
       </c>
       <c r="E101" t="n">
-        <v>0.624173532440783</v>
+        <v>0.672554067971164</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00772511904426356</v>
+        <v>0.00944760104666375</v>
       </c>
       <c r="G101" t="n">
-        <v>0.140814455923952</v>
+        <v>0.144521868853772</v>
       </c>
     </row>
     <row r="102">
@@ -4088,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.11382135428604</v>
+        <v>-0.146367037431364</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0527513528533669</v>
+        <v>0.0318270275235798</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.01786938965029</v>
+        <v>-1.21886261722541</v>
       </c>
       <c r="E102" t="n">
-        <v>0.349263959390863</v>
+        <v>0.355617597292724</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00927445003020491</v>
+        <v>0.00641856943692901</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2757339928403</v>
+        <v>0.225286868611357</v>
       </c>
     </row>
     <row r="103">
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.228190541486562</v>
+        <v>-0.377257541248285</v>
       </c>
       <c r="C103" t="n">
-        <v>0.180742326567467</v>
+        <v>0.218883635553995</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.86308339547588</v>
+        <v>-1.24013429235372</v>
       </c>
       <c r="E103" t="n">
-        <v>0.406105229387231</v>
+        <v>0.467279435354508</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0258728452179768</v>
+        <v>0.0364736753609548</v>
       </c>
       <c r="G103" t="n">
-        <v>0.396080547175881</v>
+        <v>0.408707959606208</v>
       </c>
     </row>
     <row r="104">
@@ -4134,22 +4134,22 @@
         <v>131</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.572922509272444</v>
+        <v>-0.648684238304361</v>
       </c>
       <c r="C104" t="n">
-        <v>0.017701831668786</v>
+        <v>0.0230817036571019</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.232227270630742</v>
+        <v>-0.234207384875784</v>
       </c>
       <c r="E104" t="n">
-        <v>0.558703510601321</v>
+        <v>0.598540145985402</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00341583954786738</v>
+        <v>0.00483154865147082</v>
       </c>
       <c r="G104" t="n">
-        <v>0.104608585806184</v>
+        <v>0.116131461948993</v>
       </c>
     </row>
     <row r="105">
@@ -4157,22 +4157,22 @@
         <v>132</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.592058130001408</v>
+        <v>-0.710076322289473</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0425097824705222</v>
+        <v>0.0503088067458578</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.348241153096384</v>
+        <v>-0.315876252579488</v>
       </c>
       <c r="E105" t="n">
-        <v>0.567115638199189</v>
+        <v>0.626751209828262</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00796975142022571</v>
+        <v>0.00993783747332754</v>
       </c>
       <c r="G105" t="n">
-        <v>0.157416685844257</v>
+        <v>0.15905625912447</v>
       </c>
     </row>
     <row r="106">
@@ -4180,22 +4180,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0111597097669641</v>
+        <v>-0.157592962742709</v>
       </c>
       <c r="C106" t="n">
-        <v>0.160004307135275</v>
+        <v>0.171384043186702</v>
       </c>
       <c r="D106" t="n">
-        <v>35.8437085045877</v>
+        <v>-2.62692922290101</v>
       </c>
       <c r="E106" t="n">
-        <v>0.307950918699275</v>
+        <v>0.370667424589</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0246720195493038</v>
+        <v>0.0292006436874264</v>
       </c>
       <c r="G106" t="n">
-        <v>0.51005950630676</v>
+        <v>0.461011534890926</v>
       </c>
     </row>
     <row r="107">
@@ -4203,22 +4203,22 @@
         <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.00327613026163283</v>
+        <v>-0.203873847519185</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0371002405450649</v>
+        <v>0.0407227750699782</v>
       </c>
       <c r="D107" t="n">
-        <v>-58.7932139088531</v>
+        <v>-0.989822139989216</v>
       </c>
       <c r="E107" t="n">
-        <v>0.300757304942493</v>
+        <v>0.380918363382033</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00590232748179184</v>
+        <v>0.00852253267349633</v>
       </c>
       <c r="G107" t="n">
-        <v>0.255443859012752</v>
+        <v>0.242355247603221</v>
       </c>
     </row>
     <row r="108">
@@ -4226,22 +4226,22 @@
         <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.485052736393589</v>
+        <v>-0.588746151172279</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0545008743750368</v>
+        <v>0.0502429351816937</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.481296580310817</v>
+        <v>-0.380723268672658</v>
       </c>
       <c r="E108" t="n">
-        <v>0.517733970529669</v>
+        <v>0.569026948095048</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0096407775897472</v>
+        <v>0.0103837882884933</v>
       </c>
       <c r="G108" t="n">
-        <v>0.189648481764979</v>
+        <v>0.179079172187279</v>
       </c>
     </row>
     <row r="109">
@@ -4249,22 +4249,22 @@
         <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.164689142109396</v>
+        <v>-0.348531771579003</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181904752852228</v>
+        <v>0.189171619918473</v>
       </c>
       <c r="D109" t="n">
-        <v>-2.58974531473797</v>
+        <v>-1.24791676031783</v>
       </c>
       <c r="E109" t="n">
-        <v>0.383764013745705</v>
+        <v>0.459193072164948</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0256838206737493</v>
+        <v>0.0308195860015466</v>
       </c>
       <c r="G109" t="n">
-        <v>0.417604881650917</v>
+        <v>0.382312126035756</v>
       </c>
     </row>
     <row r="110">
@@ -4272,22 +4272,22 @@
         <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.259351530427265</v>
+        <v>-0.450979352009551</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0416491336181596</v>
+        <v>0.0458821676368445</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.786890261855554</v>
+        <v>-0.474969043898085</v>
       </c>
       <c r="E110" t="n">
-        <v>0.412474949041635</v>
+        <v>0.501101292266604</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00718236145189157</v>
+        <v>0.00862897582771957</v>
       </c>
       <c r="G110" t="n">
-        <v>0.205464147735701</v>
+        <v>0.185376254680105</v>
       </c>
     </row>
     <row r="111">
@@ -4295,22 +4295,22 @@
         <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.633351737931718</v>
+        <v>-0.771800416941395</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0187967447903757</v>
+        <v>0.0210766426104094</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.21646932147648</v>
+        <v>-0.188102993420822</v>
       </c>
       <c r="E111" t="n">
-        <v>0.586948676824378</v>
+        <v>0.657558139534884</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00369996323413562</v>
+        <v>0.00463159874219378</v>
       </c>
       <c r="G111" t="n">
-        <v>0.10363312073176</v>
+        <v>0.103497844642158</v>
       </c>
     </row>
     <row r="112">
@@ -4318,22 +4318,22 @@
         <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342268569463015</v>
+        <v>0.183675089227105</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0395557021158378</v>
+        <v>0.0451839454188228</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581082142504141</v>
+        <v>1.15728897477034</v>
       </c>
       <c r="E112" t="n">
-        <v>0.178573048627909</v>
+        <v>0.217252928676472</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0067081309169768</v>
+        <v>0.00905147069099141</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4586536477307</v>
+        <v>0.437919147962833</v>
       </c>
     </row>
     <row r="113">
@@ -4341,22 +4341,22 @@
         <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.0253194707584991</v>
+        <v>-0.222996547520863</v>
       </c>
       <c r="C113" t="n">
-        <v>0.174748366139914</v>
+        <v>0.173676048717432</v>
       </c>
       <c r="D113" t="n">
-        <v>-16.5101849510019</v>
+        <v>-1.86883872930738</v>
       </c>
       <c r="E113" t="n">
-        <v>0.325656614785992</v>
+        <v>0.400275616083009</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0234222823573429</v>
+        <v>0.0278779270617006</v>
       </c>
       <c r="G113" t="n">
-        <v>0.469953298328135</v>
+        <v>0.417129691367853</v>
       </c>
     </row>
     <row r="114">
@@ -4364,22 +4364,22 @@
         <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.295754509799991</v>
+        <v>-0.389350957733766</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0250661129388555</v>
+        <v>0.028223974417559</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.535318337315945</v>
+        <v>-0.431487121130037</v>
       </c>
       <c r="E114" t="n">
-        <v>0.426879473232179</v>
+        <v>0.469415974806756</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00419843417750392</v>
+        <v>0.00581483552946964</v>
       </c>
       <c r="G114" t="n">
-        <v>0.15178833684477</v>
+        <v>0.1624466847525</v>
       </c>
     </row>
     <row r="115">
@@ -4387,22 +4387,22 @@
         <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.0219527441062453</v>
+        <v>-0.220485235989009</v>
       </c>
       <c r="C115" t="n">
-        <v>0.202388015577558</v>
+        <v>0.236708206220637</v>
       </c>
       <c r="D115" t="n">
-        <v>-20.4929075599649</v>
+        <v>-2.20661793326907</v>
       </c>
       <c r="E115" t="n">
-        <v>0.324659524402839</v>
+        <v>0.399592764247747</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0294866011722683</v>
+        <v>0.0384863962942543</v>
       </c>
       <c r="G115" t="n">
-        <v>0.528912961242763</v>
+        <v>0.490948580007276</v>
       </c>
     </row>
     <row r="116">
@@ -4410,22 +4410,22 @@
         <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0852544095238769</v>
+        <v>-0.151675620984189</v>
       </c>
       <c r="C116" t="n">
-        <v>0.012473839837779</v>
+        <v>0.0149253471122157</v>
       </c>
       <c r="D116" t="n">
-        <v>1.31003600191527</v>
+        <v>-0.805464563543196</v>
       </c>
       <c r="E116" t="n">
-        <v>0.263415691728708</v>
+        <v>0.354781968420191</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00173779471613746</v>
+        <v>0.00257368084714736</v>
       </c>
       <c r="G116" t="n">
-        <v>0.158255055944917</v>
+        <v>0.142993338660817</v>
       </c>
     </row>
     <row r="117">
@@ -4433,22 +4433,22 @@
         <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.0857570194160665</v>
+        <v>-0.337601543468667</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0477431193889467</v>
+        <v>0.0459982732324971</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.54791958637496</v>
+        <v>-0.635281693639238</v>
       </c>
       <c r="E117" t="n">
-        <v>0.334225618631732</v>
+        <v>0.445048034934498</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00901181971118866</v>
+        <v>0.00944220197947323</v>
       </c>
       <c r="G117" t="n">
-        <v>0.28403150273668</v>
+        <v>0.218338214936798</v>
       </c>
     </row>
     <row r="118">
@@ -4456,22 +4456,22 @@
         <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0506790637509798</v>
+        <v>-0.0719201369580728</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0507823573568717</v>
+        <v>0.0478433290322402</v>
       </c>
       <c r="D118" t="n">
-        <v>4.44659776697323</v>
+        <v>-3.04130649755349</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277760447321954</v>
+        <v>0.319159799882284</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00820166351467522</v>
+        <v>0.00913752895414451</v>
       </c>
       <c r="G118" t="n">
-        <v>0.326047272071875</v>
+        <v>0.299506463395092</v>
       </c>
     </row>
     <row r="119">
@@ -4479,22 +4479,22 @@
         <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.0734211093616836</v>
+        <v>-0.284236082012873</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0272359815582794</v>
+        <v>0.0323682722671361</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.24776328673142</v>
+        <v>-0.632966246044758</v>
       </c>
       <c r="E119" t="n">
-        <v>0.327490534521158</v>
+        <v>0.417721046770601</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00430653286503725</v>
+        <v>0.00676260151856886</v>
       </c>
       <c r="G119" t="n">
-        <v>0.200384963988438</v>
+        <v>0.19686592021519</v>
       </c>
     </row>
     <row r="120">
@@ -4502,22 +4502,22 @@
         <v>147</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.0985500897476476</v>
+        <v>-0.25676010755611</v>
       </c>
       <c r="C120" t="n">
-        <v>0.175745381248595</v>
+        <v>0.189888804265305</v>
       </c>
       <c r="D120" t="n">
-        <v>-4.25387707601519</v>
+        <v>-1.69715743453677</v>
       </c>
       <c r="E120" t="n">
-        <v>0.348490024779737</v>
+        <v>0.411410841886337</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0246969367906368</v>
+        <v>0.0324207817837888</v>
       </c>
       <c r="G120" t="n">
-        <v>0.450952910015033</v>
+        <v>0.43765914650631</v>
       </c>
     </row>
     <row r="121">
@@ -4525,22 +4525,22 @@
         <v>148</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.132373534412746</v>
+        <v>-0.302921697647944</v>
       </c>
       <c r="C121" t="n">
-        <v>0.15595410823523</v>
+        <v>0.186266177299268</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.98330217702008</v>
+        <v>-1.42474328514798</v>
       </c>
       <c r="E121" t="n">
-        <v>0.363107594936709</v>
+        <v>0.432237341772152</v>
       </c>
       <c r="F121" t="n">
-        <v>0.024388078567337</v>
+        <v>0.0316029634259333</v>
       </c>
       <c r="G121" t="n">
-        <v>0.430084171902598</v>
+        <v>0.411283816221665</v>
       </c>
     </row>
     <row r="122">
@@ -4548,22 +4548,22 @@
         <v>149</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.299673580097543</v>
+        <v>-0.452800937391005</v>
       </c>
       <c r="C122" t="n">
-        <v>0.042897925599991</v>
+        <v>0.0507894079423696</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.691145826052856</v>
+        <v>-0.497713313353661</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4315368675531</v>
+        <v>0.50274736660335</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00702570260791036</v>
+        <v>0.010776724582945</v>
       </c>
       <c r="G122" t="n">
-        <v>0.194234770366367</v>
+        <v>0.206487415046798</v>
       </c>
     </row>
     <row r="123">
@@ -4571,22 +4571,22 @@
         <v>150</v>
       </c>
       <c r="B123" t="n">
-        <v>0.279580173063392</v>
+        <v>-0.136678608709349</v>
       </c>
       <c r="C123" t="n">
-        <v>0.021364332760874</v>
+        <v>0.0215078675329837</v>
       </c>
       <c r="D123" t="n">
-        <v>0.522803272599333</v>
+        <v>-1.0729960597489</v>
       </c>
       <c r="E123" t="n">
-        <v>0.193502163426977</v>
+        <v>0.347030208093119</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00355432336732896</v>
+        <v>0.00422426170677845</v>
       </c>
       <c r="G123" t="n">
-        <v>0.308100670485728</v>
+        <v>0.187287213209435</v>
       </c>
     </row>
     <row r="124">
@@ -4594,22 +4594,22 @@
         <v>151</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.004738123421762</v>
+        <v>-0.19147455343954</v>
       </c>
       <c r="C124" t="n">
-        <v>0.193563941520934</v>
+        <v>0.186605563596107</v>
       </c>
       <c r="D124" t="n">
-        <v>-92.8551207692832</v>
+        <v>-2.25606302917397</v>
       </c>
       <c r="E124" t="n">
-        <v>0.314926435690555</v>
+        <v>0.384965590887518</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0273456625687529</v>
+        <v>0.0308095341766512</v>
       </c>
       <c r="G124" t="n">
-        <v>0.525091644155364</v>
+        <v>0.455953604186017</v>
       </c>
     </row>
     <row r="125">
@@ -4617,22 +4617,22 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>1.05639936155304</v>
+        <v>0.410019586324809</v>
       </c>
       <c r="C125" t="n">
-        <v>0.037796976970407</v>
+        <v>0.0155462833571032</v>
       </c>
       <c r="D125" t="n">
-        <v>0.184034990439371</v>
+        <v>0.304094584798042</v>
       </c>
       <c r="E125" t="n">
-        <v>0.103683131307257</v>
+        <v>0.139961175153864</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00166867244558246</v>
+        <v>0.00245777775291359</v>
       </c>
       <c r="G125" t="n">
-        <v>0.393982963469558</v>
+        <v>0.354212370263441</v>
       </c>
     </row>
     <row r="126">
@@ -4640,22 +4640,22 @@
         <v>153</v>
       </c>
       <c r="B126" t="n">
-        <v>0.00210379141557525</v>
+        <v>-0.237111723341591</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0458449088074587</v>
+        <v>0.0507974195032411</v>
       </c>
       <c r="D126" t="n">
-        <v>101.775414062289</v>
+        <v>-0.950534311805442</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298908023566424</v>
+        <v>0.396204675616815</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00761778987939225</v>
+        <v>0.0100082612119177</v>
       </c>
       <c r="G126" t="n">
-        <v>0.291996013177199</v>
+        <v>0.252499033173731</v>
       </c>
     </row>
     <row r="127">
@@ -4663,22 +4663,22 @@
         <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.123419159986682</v>
+        <v>-0.309567181669232</v>
       </c>
       <c r="C127" t="n">
-        <v>0.180769130314877</v>
+        <v>0.180931491107826</v>
       </c>
       <c r="D127" t="n">
-        <v>-3.44492322998666</v>
+        <v>-1.37404883376059</v>
       </c>
       <c r="E127" t="n">
-        <v>0.362928598697008</v>
+        <v>0.440616710465699</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0246190735440141</v>
+        <v>0.028130015511828</v>
       </c>
       <c r="G127" t="n">
-        <v>0.43232929130651</v>
+        <v>0.380648411713224</v>
       </c>
     </row>
     <row r="128">
@@ -4686,22 +4686,22 @@
         <v>155</v>
       </c>
       <c r="B128" t="n">
-        <v>0.199313498039627</v>
+        <v>0.00828766304140008</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0492842286991668</v>
+        <v>0.0412149108906183</v>
       </c>
       <c r="D128" t="n">
-        <v>1.11382579339147</v>
+        <v>24.4959957116644</v>
       </c>
       <c r="E128" t="n">
-        <v>0.228695438940657</v>
+        <v>0.2838425698872</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00869862885016095</v>
+        <v>0.00822826342163996</v>
       </c>
       <c r="G128" t="n">
-        <v>0.407819414932962</v>
+        <v>0.319577770923315</v>
       </c>
     </row>
     <row r="129">
@@ -4709,22 +4709,22 @@
         <v>156</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.0368318823664208</v>
+        <v>-0.243873676165238</v>
       </c>
       <c r="C129" t="n">
-        <v>0.217311378187384</v>
+        <v>0.236567141320222</v>
       </c>
       <c r="D129" t="n">
-        <v>-12.6566076733373</v>
+        <v>-1.99440009435911</v>
       </c>
       <c r="E129" t="n">
-        <v>0.329496074028781</v>
+        <v>0.41008848721845</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0274462445955069</v>
+        <v>0.0332300592613437</v>
       </c>
       <c r="G129" t="n">
-        <v>0.502795312752161</v>
+        <v>0.444516596824156</v>
       </c>
     </row>
     <row r="130">
@@ -4732,22 +4732,22 @@
         <v>157</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213451333392089</v>
+        <v>0.112453446002709</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0470499482905112</v>
+        <v>0.0446289697441512</v>
       </c>
       <c r="D130" t="n">
-        <v>1.01620353919601</v>
+        <v>1.87860581468859</v>
       </c>
       <c r="E130" t="n">
-        <v>0.217750690155374</v>
+        <v>0.241846725839258</v>
       </c>
       <c r="F130" t="n">
-        <v>0.00722091838240931</v>
+        <v>0.0088135985493113</v>
       </c>
       <c r="G130" t="n">
-        <v>0.39024439845516</v>
+        <v>0.388182917932067</v>
       </c>
     </row>
     <row r="131">
@@ -4755,22 +4755,22 @@
         <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>0.466437518455478</v>
+        <v>0.300766741008088</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0338440645614209</v>
+        <v>0.0345418654620981</v>
       </c>
       <c r="D131" t="n">
-        <v>0.394409876146316</v>
+        <v>0.617935412186553</v>
       </c>
       <c r="E131" t="n">
-        <v>0.138684171559286</v>
+        <v>0.172282784876866</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00550963804887032</v>
+        <v>0.00700973819958621</v>
       </c>
       <c r="G131" t="n">
-        <v>0.535222839826412</v>
+        <v>0.485969502760253</v>
       </c>
     </row>
     <row r="132">
@@ -4778,22 +4778,22 @@
         <v>159</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.0809907764482758</v>
+        <v>-0.293360829520665</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0487533067409177</v>
+        <v>0.0502062637137705</v>
       </c>
       <c r="D132" t="n">
-        <v>-2.72625500714675</v>
+        <v>-0.763795027153251</v>
       </c>
       <c r="E132" t="n">
-        <v>0.333422086425142</v>
+        <v>0.422934671904554</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00819691277812887</v>
+        <v>0.0104354339099459</v>
       </c>
       <c r="G132" t="n">
-        <v>0.271538110795865</v>
+        <v>0.241536053598619</v>
       </c>
     </row>
     <row r="133">
@@ -4801,22 +4801,22 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>0.144385357137007</v>
+        <v>-0.0142717335750689</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0366304389985191</v>
+        <v>0.0349837416812499</v>
       </c>
       <c r="D133" t="n">
-        <v>1.32555548260249</v>
+        <v>-13.1055846245278</v>
       </c>
       <c r="E133" t="n">
-        <v>0.245643454600423</v>
+        <v>0.297562229164567</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00544101094181521</v>
+        <v>0.00626395435964454</v>
       </c>
       <c r="G133" t="n">
-        <v>0.300285666932095</v>
+        <v>0.265978473273029</v>
       </c>
     </row>
     <row r="134">
@@ -4824,22 +4824,22 @@
         <v>161</v>
       </c>
       <c r="B134" t="n">
-        <v>0.600671674817121</v>
+        <v>0.428386555558389</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0146314508126969</v>
+        <v>0.0122004583604038</v>
       </c>
       <c r="D134" t="n">
-        <v>0.201375458812801</v>
+        <v>0.257841156822637</v>
       </c>
       <c r="E134" t="n">
-        <v>0.10411466743593</v>
+        <v>0.131671523456435</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00207014817055104</v>
+        <v>0.00221557169399979</v>
       </c>
       <c r="G134" t="n">
-        <v>0.437007408291486</v>
+        <v>0.357479419116229</v>
       </c>
     </row>
     <row r="135">
@@ -4847,22 +4847,22 @@
         <v>162</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.155698445963014</v>
+        <v>-0.349085387058367</v>
       </c>
       <c r="C135" t="n">
-        <v>0.169704736583609</v>
+        <v>0.192981239178193</v>
       </c>
       <c r="D135" t="n">
-        <v>-2.6458346768914</v>
+        <v>-1.25842076542984</v>
       </c>
       <c r="E135" t="n">
-        <v>0.372984734339862</v>
+        <v>0.454083566067231</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0262809264657842</v>
+        <v>0.0332186496576778</v>
       </c>
       <c r="G135" t="n">
-        <v>0.434639585982261</v>
+        <v>0.401379513958936</v>
       </c>
     </row>
     <row r="136">
@@ -4870,22 +4870,22 @@
         <v>163</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.346738811606524</v>
+        <v>-0.615302882061006</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0567631314625446</v>
+        <v>0.0566806540372502</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.687117036663295</v>
+        <v>-0.386926502000513</v>
       </c>
       <c r="E136" t="n">
-        <v>0.452355433170938</v>
+        <v>0.582548188943021</v>
       </c>
       <c r="F136" t="n">
-        <v>0.00924430222335129</v>
+        <v>0.0108568077473722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.212548114523929</v>
+        <v>0.178862467288485</v>
       </c>
     </row>
     <row r="137">
@@ -4893,22 +4893,22 @@
         <v>164</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.145065946367377</v>
+        <v>-0.290208334474557</v>
       </c>
       <c r="C137" t="n">
-        <v>0.16789047632861</v>
+        <v>0.199959388457386</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.82453886606711</v>
+        <v>-1.54085232913594</v>
       </c>
       <c r="E137" t="n">
-        <v>0.371760525877718</v>
+        <v>0.429764536050019</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0237873165042571</v>
+        <v>0.0298492375872711</v>
       </c>
       <c r="G137" t="n">
-        <v>0.414867535807447</v>
+        <v>0.402009250429593</v>
       </c>
     </row>
     <row r="138">
@@ -4916,22 +4916,22 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.132208235699774</v>
+        <v>-0.249520721072276</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0458623112081274</v>
+        <v>0.0445793442885432</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.61983007754289</v>
+        <v>-0.846175060869887</v>
       </c>
       <c r="E138" t="n">
-        <v>0.355357681353661</v>
+        <v>0.40204054280449</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00694460989816683</v>
+        <v>0.00833949278874565</v>
       </c>
       <c r="G138" t="n">
-        <v>0.234508300854255</v>
+        <v>0.227143319366565</v>
       </c>
     </row>
     <row r="139">
@@ -4939,22 +4939,22 @@
         <v>166</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.41191199229715</v>
+        <v>-0.632317501978387</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0473029871498149</v>
+        <v>0.0609420163093128</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.5280072033172</v>
+        <v>-0.390412043748973</v>
       </c>
       <c r="E139" t="n">
-        <v>0.482898917359294</v>
+        <v>0.589188558200182</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00764468618992964</v>
+        <v>0.0118385370896016</v>
       </c>
       <c r="G139" t="n">
-        <v>0.181060451726814</v>
+        <v>0.184669305167136</v>
       </c>
     </row>
     <row r="140">
@@ -4962,22 +4962,22 @@
         <v>167</v>
       </c>
       <c r="B140" t="n">
-        <v>0.492498099413226</v>
+        <v>0.254186762262523</v>
       </c>
       <c r="C140" t="n">
-        <v>0.00301317748366337</v>
+        <v>0.00419954468302853</v>
       </c>
       <c r="D140" t="n">
-        <v>0.111457115115276</v>
+        <v>0.254945983281532</v>
       </c>
       <c r="E140" t="n">
-        <v>0.1293657945753</v>
+        <v>0.185186720911771</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000430656667654146</v>
+        <v>0.000834662379829354</v>
       </c>
       <c r="G140" t="n">
-        <v>0.160415425454418</v>
+        <v>0.156007536106356</v>
       </c>
     </row>
     <row r="141">
@@ -4985,22 +4985,22 @@
         <v>168</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0498954366147133</v>
+        <v>0.0416615383038315</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0251630790487285</v>
+        <v>0.0247267666984122</v>
       </c>
       <c r="D141" t="n">
-        <v>3.17922352693618</v>
+        <v>3.77440382690985</v>
       </c>
       <c r="E141" t="n">
-        <v>0.278206182996759</v>
+        <v>0.269595487409623</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00447979594185517</v>
+        <v>0.005105910305467</v>
       </c>
       <c r="G141" t="n">
-        <v>0.240581560889746</v>
+        <v>0.265047658643525</v>
       </c>
     </row>
     <row r="142">
@@ -5008,22 +5008,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0598556181424268</v>
+        <v>-0.0646030863863032</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0138944198448011</v>
+        <v>0.0144417438435029</v>
       </c>
       <c r="D142" t="n">
-        <v>1.9693154523964</v>
+        <v>-1.86018677331659</v>
       </c>
       <c r="E142" t="n">
-        <v>0.270679716261112</v>
+        <v>0.311371105324594</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00239301450452178</v>
+        <v>0.00321238565390732</v>
       </c>
       <c r="G142" t="n">
-        <v>0.180724467139758</v>
+        <v>0.182026882223786</v>
       </c>
     </row>
     <row r="143">
@@ -5031,22 +5031,22 @@
         <v>170</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0254199598855047</v>
+        <v>-0.145756448778341</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0382438008954541</v>
+        <v>0.0467797408060261</v>
       </c>
       <c r="D143" t="n">
-        <v>7.6931759166512</v>
+        <v>-1.48388801451673</v>
       </c>
       <c r="E143" t="n">
-        <v>0.288053067993366</v>
+        <v>0.352985074626866</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00695361635625081</v>
+        <v>0.00951866600518689</v>
       </c>
       <c r="G143" t="n">
-        <v>0.28948952783695</v>
+        <v>0.276395967019028</v>
       </c>
     </row>
     <row r="144">
@@ -5054,22 +5054,22 @@
         <v>171</v>
       </c>
       <c r="B144" t="n">
-        <v>0.126455081176906</v>
+        <v>-0.0475807398150165</v>
       </c>
       <c r="C144" t="n">
-        <v>0.011713936083466</v>
+        <v>0.0123766947235675</v>
       </c>
       <c r="D144" t="n">
-        <v>0.855884458369087</v>
+        <v>-2.33814343144213</v>
       </c>
       <c r="E144" t="n">
-        <v>0.244589147908911</v>
+        <v>0.304106137377514</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00213158231616379</v>
+        <v>0.00255427646787442</v>
       </c>
       <c r="G144" t="n">
-        <v>0.188761695773582</v>
+        <v>0.166191484102115</v>
       </c>
     </row>
     <row r="145">
@@ -5077,22 +5077,22 @@
         <v>172</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.13684905397176</v>
+        <v>-0.314221629453457</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0349689610508202</v>
+        <v>0.0444799880894652</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.36646831257136</v>
+        <v>-0.671191201424411</v>
       </c>
       <c r="E145" t="n">
-        <v>0.358640583554377</v>
+        <v>0.433594164456233</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00666790617945669</v>
+        <v>0.00772130372865495</v>
       </c>
       <c r="G145" t="n">
-        <v>0.227685465390927</v>
+        <v>0.202657130770012</v>
       </c>
     </row>
     <row r="146">
@@ -5100,22 +5100,22 @@
         <v>173</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.873951681328727</v>
+        <v>-0.987656222582552</v>
       </c>
       <c r="C146" t="n">
-        <v>0.136413205612504</v>
+        <v>0.200182948334216</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.422610988468406</v>
+        <v>-0.4530099451319</v>
       </c>
       <c r="E146" t="n">
-        <v>0.681070012446972</v>
+        <v>0.73335017163783</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0197484334898315</v>
+        <v>0.0279244002574405</v>
       </c>
       <c r="G146" t="n">
-        <v>0.206335790966733</v>
+        <v>0.227866524949804</v>
       </c>
     </row>
     <row r="147">
@@ -5123,22 +5123,22 @@
         <v>174</v>
       </c>
       <c r="B147" t="n">
-        <v>0.281299195930439</v>
+        <v>0.141336617050457</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0110255841301595</v>
+        <v>0.0144994307344685</v>
       </c>
       <c r="D147" t="n">
-        <v>0.373277929885414</v>
+        <v>0.851963097257898</v>
       </c>
       <c r="E147" t="n">
-        <v>0.191687569231106</v>
+        <v>0.226524141502004</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00214152853514193</v>
+        <v>0.00296283296822115</v>
       </c>
       <c r="G147" t="n">
-        <v>0.241417074386568</v>
+        <v>0.240291877692219</v>
       </c>
     </row>
     <row r="148">
@@ -5146,22 +5146,22 @@
         <v>175</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.920847795991958</v>
+        <v>-1.01377933475856</v>
       </c>
       <c r="C148" t="n">
-        <v>0.173046215918284</v>
+        <v>0.189804212476937</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.451744839843014</v>
+        <v>-0.429743670875279</v>
       </c>
       <c r="E148" t="n">
-        <v>0.69303453434453</v>
+        <v>0.734196281428111</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0252126012892661</v>
+        <v>0.0263939194977803</v>
       </c>
       <c r="G148" t="n">
-        <v>0.229115226103368</v>
+        <v>0.221278777450447</v>
       </c>
     </row>
     <row r="149">
@@ -5169,22 +5169,22 @@
         <v>176</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.48442192653986</v>
+        <v>-0.595809697219258</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0272562080913909</v>
+        <v>0.0214428648796135</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.340807328989463</v>
+        <v>-0.245772811212732</v>
       </c>
       <c r="E149" t="n">
-        <v>0.51686568942569</v>
+        <v>0.572836213692302</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00506880625311955</v>
+        <v>0.00414951154544883</v>
       </c>
       <c r="G149" t="n">
-        <v>0.13774477750756</v>
+        <v>0.112452217300108</v>
       </c>
     </row>
     <row r="150">
@@ -5192,22 +5192,22 @@
         <v>177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.366617677501237</v>
+        <v>-0.484287570952804</v>
       </c>
       <c r="C150" t="n">
-        <v>0.060287420167156</v>
+        <v>0.0519667547915213</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.669730300442114</v>
+        <v>-0.470716557880794</v>
       </c>
       <c r="E150" t="n">
-        <v>0.461750571293555</v>
+        <v>0.518005092093826</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0111948375519828</v>
+        <v>0.0100690026284079</v>
       </c>
       <c r="G150" t="n">
-        <v>0.229140289010703</v>
+        <v>0.19371319229836</v>
       </c>
     </row>
     <row r="151">
@@ -5215,22 +5215,22 @@
         <v>178</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.897430223274789</v>
+        <v>-1.16849697382559</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0207394701644956</v>
+        <v>0.0255356473582613</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.160471583130665</v>
+        <v>-0.136755828242324</v>
       </c>
       <c r="E151" t="n">
-        <v>0.702475875600333</v>
+        <v>0.814263791372971</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00302939948685313</v>
+        <v>0.00428700171979693</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0783514177714568</v>
+        <v>0.0804103043342714</v>
       </c>
     </row>
     <row r="152">
@@ -5238,22 +5238,22 @@
         <v>179</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.108557087608847</v>
+        <v>-0.214666126258381</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0262390524514296</v>
+        <v>0.0230513209304416</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.49216170621922</v>
+        <v>-0.707268619151178</v>
       </c>
       <c r="E152" t="n">
-        <v>0.345839799936299</v>
+        <v>0.386683988787865</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00476000204127909</v>
+        <v>0.00457727351556096</v>
       </c>
       <c r="G152" t="n">
-        <v>0.199493430336181</v>
+        <v>0.174963413219204</v>
       </c>
     </row>
     <row r="153">
@@ -5261,22 +5261,22 @@
         <v>180</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.591847950577419</v>
+        <v>-0.663629710919831</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0453731520606048</v>
+        <v>0.0402723343556582</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.359906199202574</v>
+        <v>-0.302397071245389</v>
       </c>
       <c r="E153" t="n">
-        <v>0.565739311083442</v>
+        <v>0.603671347209444</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00750025254731852</v>
+        <v>0.00613870181428342</v>
       </c>
       <c r="G153" t="n">
-        <v>0.153081104233217</v>
+        <v>0.129788946176873</v>
       </c>
     </row>
     <row r="154">
@@ -5284,22 +5284,22 @@
         <v>181</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.621054286852043</v>
+        <v>-0.842659914069741</v>
       </c>
       <c r="C154" t="n">
-        <v>0.178922541262965</v>
+        <v>0.172152341444514</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.681087586777959</v>
+        <v>-0.492384226909472</v>
       </c>
       <c r="E154" t="n">
-        <v>0.57142719568567</v>
+        <v>0.667159090909091</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0287896712270018</v>
+        <v>0.0262982484842821</v>
       </c>
       <c r="G154" t="n">
-        <v>0.296932303183317</v>
+        <v>0.243071479303511</v>
       </c>
     </row>
     <row r="155">
@@ -5307,22 +5307,22 @@
         <v>182</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.80551196380116</v>
+        <v>-0.9419938658393</v>
       </c>
       <c r="C155" t="n">
-        <v>0.021773733782099</v>
+        <v>0.027052097184069</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.183186919359157</v>
+        <v>-0.174603278749741</v>
       </c>
       <c r="E155" t="n">
-        <v>0.663860941601346</v>
+        <v>0.73188639683059</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00389586941687673</v>
+        <v>0.00448855520879912</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0940210459432869</v>
+        <v>0.091539726480201</v>
       </c>
     </row>
     <row r="156">
@@ -5330,22 +5330,22 @@
         <v>183</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.0917090152315485</v>
+        <v>-0.200532645854099</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0198500271815578</v>
+        <v>0.0248312754551259</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.53627344208241</v>
+        <v>-0.785804352160478</v>
       </c>
       <c r="E156" t="n">
-        <v>0.333946480689967</v>
+        <v>0.375073937291459</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00370245189304458</v>
+        <v>0.00537475377605983</v>
       </c>
       <c r="G156" t="n">
-        <v>0.182208167836031</v>
+        <v>0.195462027486972</v>
       </c>
     </row>
     <row r="157">
@@ -5353,22 +5353,22 @@
         <v>184</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.766883652618015</v>
+        <v>-0.924689612918608</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0438767615964646</v>
+        <v>0.0424170274099282</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.273141570976691</v>
+        <v>-0.222727650444568</v>
       </c>
       <c r="E157" t="n">
-        <v>0.644672825250192</v>
+        <v>0.721868103669489</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00785471413842287</v>
+        <v>0.00851358875605476</v>
       </c>
       <c r="G157" t="n">
-        <v>0.137475664695998</v>
+        <v>0.12781990234842</v>
       </c>
     </row>
     <row r="158">
@@ -5376,22 +5376,22 @@
         <v>185</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.471455780700141</v>
+        <v>-0.734748666090241</v>
       </c>
       <c r="C158" t="n">
-        <v>0.172182001004576</v>
+        <v>0.192110156618076</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.880142333033266</v>
+        <v>-0.596535586488595</v>
       </c>
       <c r="E158" t="n">
-        <v>0.509526847421584</v>
+        <v>0.624242424242424</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0262869802809991</v>
+        <v>0.029430878658433</v>
       </c>
       <c r="G158" t="n">
-        <v>0.318202272834485</v>
+        <v>0.274819998927179</v>
       </c>
     </row>
     <row r="159">
@@ -5399,22 +5399,22 @@
         <v>186</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.453588124175163</v>
+        <v>-0.675702232459791</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0461974069497329</v>
+        <v>0.0533178506986802</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.473856807709494</v>
+        <v>-0.341728313542528</v>
       </c>
       <c r="E159" t="n">
-        <v>0.501833210874357</v>
+        <v>0.610426157237326</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00822584333182532</v>
+        <v>0.00957205350301055</v>
       </c>
       <c r="G159" t="n">
-        <v>0.180730236840536</v>
+        <v>0.160276342583255</v>
       </c>
     </row>
     <row r="160">
@@ -5422,22 +5422,22 @@
         <v>187</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.227681544692916</v>
+        <v>-0.296661975144433</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0249585740293379</v>
+        <v>0.0307620599707194</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.693876302037201</v>
+        <v>-0.59121551612534</v>
       </c>
       <c r="E160" t="n">
-        <v>0.398818685798141</v>
+        <v>0.427481656611772</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00468862184927541</v>
+        <v>0.00572777409328955</v>
       </c>
       <c r="G160" t="n">
-        <v>0.171690832112596</v>
+        <v>0.177041653333758</v>
       </c>
     </row>
     <row r="161">
@@ -5445,22 +5445,22 @@
         <v>188</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.828548400234575</v>
+        <v>-0.953221454135125</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0379420966699323</v>
+        <v>0.034841485822354</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.235094668353406</v>
+        <v>-0.195818863295722</v>
       </c>
       <c r="E161" t="n">
-        <v>0.671972747610331</v>
+        <v>0.733706528370958</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00582803307025978</v>
+        <v>0.00620968023432419</v>
       </c>
       <c r="G161" t="n">
-        <v>0.113608112236478</v>
+        <v>0.107401966954945</v>
       </c>
     </row>
     <row r="162">
@@ -5468,22 +5468,22 @@
         <v>189</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.823571568944441</v>
+        <v>-1.05531659335306</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0525084478194449</v>
+        <v>0.05197012174249</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.278235950948775</v>
+        <v>-0.216020068886487</v>
       </c>
       <c r="E162" t="n">
-        <v>0.671575091575092</v>
+        <v>0.775615666384897</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00967671298889174</v>
+        <v>0.00903458099095058</v>
       </c>
       <c r="G162" t="n">
-        <v>0.14647697081844</v>
+        <v>0.122548340642837</v>
       </c>
     </row>
     <row r="163">
@@ -5491,22 +5491,22 @@
         <v>190</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.43661495175494</v>
+        <v>-1.51878001963275</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0271545498919854</v>
+        <v>0.0264654547123784</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.114704623069019</v>
+        <v>-0.107113646643041</v>
       </c>
       <c r="E163" t="n">
-        <v>0.880012711614786</v>
+        <v>0.911636348617099</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0049844143270144</v>
+        <v>0.00467400420441729</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0802265510706425</v>
+        <v>0.0749933779991149</v>
       </c>
     </row>
     <row r="164">
@@ -5514,22 +5514,22 @@
         <v>191</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.610602509584139</v>
+        <v>-0.663076769445475</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0575008054477478</v>
+        <v>0.0367355184894722</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.392715804259831</v>
+        <v>-0.289054193304384</v>
       </c>
       <c r="E164" t="n">
-        <v>0.572957251850694</v>
+        <v>0.601664069450846</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0101352819418714</v>
+        <v>0.00695740139237874</v>
       </c>
       <c r="G164" t="n">
-        <v>0.175709683537438</v>
+        <v>0.138633903912927</v>
       </c>
     </row>
     <row r="165">
@@ -5537,22 +5537,22 @@
         <v>192</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.573625097402181</v>
+        <v>-0.710616862913111</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0427933718481704</v>
+        <v>0.0404039464323849</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.360628553007537</v>
+        <v>-0.282863157055059</v>
       </c>
       <c r="E165" t="n">
-        <v>0.556533263120941</v>
+        <v>0.623633491311216</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00691518360870315</v>
+        <v>0.00714521202608137</v>
       </c>
       <c r="G165" t="n">
-        <v>0.149420687855121</v>
+        <v>0.135543323409535</v>
       </c>
     </row>
     <row r="166">
@@ -5560,22 +5560,22 @@
         <v>193</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.43926921901626</v>
+        <v>-0.598098106420286</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0033303246261075</v>
+        <v>0.00460878365588072</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.131374934480935</v>
+        <v>-0.11350650033912</v>
       </c>
       <c r="E166" t="n">
-        <v>0.493786673284472</v>
+        <v>0.571965748170609</v>
       </c>
       <c r="F166" t="n">
-        <v>0.000647677674498441</v>
+        <v>0.00101713667454894</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0515394878828361</v>
+        <v>0.0557595980963763</v>
       </c>
     </row>
     <row r="167">
@@ -5583,22 +5583,22 @@
         <v>194</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.585637480502636</v>
+        <v>-0.652041491574049</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0398617643096149</v>
+        <v>0.0403531016416215</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.340917578406782</v>
+        <v>-0.308079803378127</v>
       </c>
       <c r="E167" t="n">
-        <v>0.564612851697669</v>
+        <v>0.59998173827081</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00735860632842939</v>
+        <v>0.00670133843903195</v>
       </c>
       <c r="G167" t="n">
-        <v>0.15193122009466</v>
+        <v>0.136440324607252</v>
       </c>
     </row>
     <row r="168">
@@ -5606,22 +5606,22 @@
         <v>195</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.11712115925243</v>
+        <v>-1.46448351126023</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0410491715624336</v>
+        <v>0.0605854625272028</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.181364348683794</v>
+        <v>-0.168073687149769</v>
       </c>
       <c r="E168" t="n">
-        <v>0.781560644588569</v>
+        <v>0.893677222420406</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00640354699092179</v>
+        <v>0.00770969855955934</v>
       </c>
       <c r="G168" t="n">
-        <v>0.102387660095998</v>
+        <v>0.0982512331660481</v>
       </c>
     </row>
     <row r="169">
@@ -5629,22 +5629,22 @@
         <v>196</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.58284570870129</v>
+        <v>-0.604803958397273</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0458513057957231</v>
+        <v>0.0463606490191809</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.367385702532658</v>
+        <v>-0.356008304427147</v>
       </c>
       <c r="E169" t="n">
-        <v>0.562661114663036</v>
+        <v>0.577571584147781</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00743895380006389</v>
+        <v>0.00775252504478169</v>
       </c>
       <c r="G169" t="n">
-        <v>0.153288307305177</v>
+        <v>0.15244590774132</v>
       </c>
     </row>
     <row r="170">
@@ -5652,22 +5652,22 @@
         <v>197</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.1073512505697</v>
+        <v>-1.31794240033751</v>
       </c>
       <c r="C170" t="n">
-        <v>0.043357584099069</v>
+        <v>0.0484844827339681</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.18803865543793</v>
+        <v>-0.167072493033824</v>
       </c>
       <c r="E170" t="n">
-        <v>0.781947232058727</v>
+        <v>0.860067425390615</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00687206877820773</v>
+        <v>0.00726935945773889</v>
       </c>
       <c r="G170" t="n">
-        <v>0.106014752074351</v>
+        <v>0.0991323891280417</v>
       </c>
     </row>
     <row r="171">
@@ -5675,22 +5675,22 @@
         <v>198</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.793737185924355</v>
+        <v>-0.959177885707321</v>
       </c>
       <c r="C171" t="n">
-        <v>0.190317069224806</v>
+        <v>0.182919291432158</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.549619513644526</v>
+        <v>-0.445892941857047</v>
       </c>
       <c r="E171" t="n">
-        <v>0.648308655764109</v>
+        <v>0.720538254143806</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0281833627642679</v>
+        <v>0.0271490002623708</v>
       </c>
       <c r="G171" t="n">
-        <v>0.258949206967798</v>
+        <v>0.228675626683026</v>
       </c>
     </row>
     <row r="172">
@@ -5698,22 +5698,22 @@
         <v>199</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.957698925770877</v>
+        <v>-1.14067436018894</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0206047338477479</v>
+        <v>0.024158831797057</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.149883734098671</v>
+        <v>-0.136262478887678</v>
       </c>
       <c r="E172" t="n">
-        <v>0.72495655781974</v>
+        <v>0.80466687838578</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00369611922364175</v>
+        <v>0.00398893419340651</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0838611865677567</v>
+        <v>0.0784896351885194</v>
       </c>
     </row>
     <row r="173">
@@ -5721,22 +5721,22 @@
         <v>200</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.02924508055344</v>
+        <v>-1.0783324952488</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0436826790523456</v>
+        <v>0.0531604074209309</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.20306535419208</v>
+        <v>-0.213816618839328</v>
       </c>
       <c r="E173" t="n">
-        <v>0.752431489539975</v>
+        <v>0.783314812435105</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00739426614909152</v>
+        <v>0.00866741481725747</v>
       </c>
       <c r="G173" t="n">
-        <v>0.114282722182679</v>
+        <v>0.118852535754098</v>
       </c>
     </row>
     <row r="174">
@@ -5744,22 +5744,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.25349542785412</v>
+        <v>-1.37883245756743</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0430681918257537</v>
+        <v>0.0395846161776509</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.165560056205424</v>
+        <v>-0.144295145698542</v>
       </c>
       <c r="E174" t="n">
-        <v>0.829038547693441</v>
+        <v>0.877952157913248</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00762063032617858</v>
+        <v>0.00552901318668991</v>
       </c>
       <c r="G174" t="n">
-        <v>0.105298145617637</v>
+        <v>0.0846940619497433</v>
       </c>
     </row>
     <row r="175">
@@ -5767,22 +5767,22 @@
         <v>202</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.968523016723236</v>
+        <v>-1.07909720417667</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0566448072231924</v>
+        <v>0.0466023151465801</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.245736747327103</v>
+        <v>-0.200052129596661</v>
       </c>
       <c r="E175" t="n">
-        <v>0.730143443746166</v>
+        <v>0.786054312248941</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00921098143232595</v>
+        <v>0.00765564392984267</v>
       </c>
       <c r="G175" t="n">
-        <v>0.131445209690446</v>
+        <v>0.111311057404017</v>
       </c>
     </row>
     <row r="176">
@@ -5790,22 +5790,22 @@
         <v>203</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.761781530564943</v>
+        <v>-0.867543328593135</v>
       </c>
       <c r="C176" t="n">
-        <v>0.142813808569219</v>
+        <v>0.148083234037682</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.49608336199285</v>
+        <v>-0.443569596623378</v>
       </c>
       <c r="E176" t="n">
-        <v>0.634573673870334</v>
+        <v>0.683787819253438</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0200130336669999</v>
+        <v>0.0203459934607324</v>
       </c>
       <c r="G176" t="n">
-        <v>0.222933026579839</v>
+        <v>0.208601818512172</v>
       </c>
     </row>
     <row r="177">
@@ -5813,22 +5813,22 @@
         <v>204</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.844680971939705</v>
+        <v>-0.892129489085415</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0446976182201546</v>
+        <v>0.039539220917572</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.250293447290612</v>
+        <v>-0.222887728767494</v>
       </c>
       <c r="E177" t="n">
-        <v>0.679491470349309</v>
+        <v>0.709593826157595</v>
       </c>
       <c r="F177" t="n">
-        <v>0.00707373839031095</v>
+        <v>0.00676975474773338</v>
       </c>
       <c r="G177" t="n">
-        <v>0.123777152548427</v>
+        <v>0.115951571624381</v>
       </c>
     </row>
     <row r="178">
@@ -5836,22 +5836,22 @@
         <v>205</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.842329459684653</v>
+        <v>-0.923354935646007</v>
       </c>
       <c r="C178" t="n">
-        <v>0.210155732143292</v>
+        <v>0.208628990827576</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.5442377094061</v>
+        <v>-0.494673509271369</v>
       </c>
       <c r="E178" t="n">
-        <v>0.670057685782151</v>
+        <v>0.710732948761452</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0298350416188773</v>
+        <v>0.0299327455633164</v>
       </c>
       <c r="G178" t="n">
-        <v>0.257781134648526</v>
+        <v>0.243425924308598</v>
       </c>
     </row>
     <row r="179">
@@ -5859,22 +5859,22 @@
         <v>206</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.2639772635055</v>
+        <v>-1.40493457989126</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0249789342508003</v>
+        <v>0.0309407300185682</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.12503963305715</v>
+        <v>-0.125201397394828</v>
       </c>
       <c r="E179" t="n">
-        <v>0.834602793086554</v>
+        <v>0.887010033581129</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00403632316192141</v>
+        <v>0.00506228312582959</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0761225154913007</v>
+        <v>0.0802129858823498</v>
       </c>
     </row>
     <row r="180">
@@ -5882,22 +5882,22 @@
         <v>207</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.806306718414722</v>
+        <v>-0.930626412039119</v>
       </c>
       <c r="C180" t="n">
-        <v>0.166617529179578</v>
+        <v>0.142850015605826</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.506244206850633</v>
+        <v>-0.406129720299063</v>
       </c>
       <c r="E180" t="n">
-        <v>0.645369372711796</v>
+        <v>0.699304953095606</v>
       </c>
       <c r="F180" t="n">
-        <v>0.025877723358277</v>
+        <v>0.0219355733399033</v>
       </c>
       <c r="G180" t="n">
-        <v>0.249261200096527</v>
+        <v>0.211791190127375</v>
       </c>
     </row>
     <row r="181">
@@ -5905,22 +5905,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.7645380373981</v>
+        <v>-0.898553915343182</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0438716757468126</v>
+        <v>0.0422044737519546</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.273963694549292</v>
+        <v>-0.228630993630013</v>
       </c>
       <c r="E181" t="n">
-        <v>0.646092385228764</v>
+        <v>0.713424084085346</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00750662800094624</v>
+        <v>0.00698829050181436</v>
       </c>
       <c r="G181" t="n">
-        <v>0.134099705692084</v>
+        <v>0.117175741039813</v>
       </c>
     </row>
     <row r="182">
@@ -5928,22 +5928,22 @@
         <v>209</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.429437568569955</v>
+        <v>-0.631507517961201</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0482022788603464</v>
+        <v>0.0542076732532853</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.511250505243388</v>
+        <v>-0.36868193497905</v>
       </c>
       <c r="E182" t="n">
-        <v>0.491874796907496</v>
+        <v>0.590650425348174</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00759597873686401</v>
+        <v>0.00838234525652635</v>
       </c>
       <c r="G182" t="n">
-        <v>0.177189221406184</v>
+        <v>0.155007335621018</v>
       </c>
     </row>
     <row r="183">
@@ -5951,22 +5951,22 @@
         <v>210</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.46295156332378</v>
+        <v>-1.68185772240441</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0481594166620959</v>
+        <v>0.0520958677800809</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.150006701534015</v>
+        <v>-0.135710166917328</v>
       </c>
       <c r="E183" t="n">
-        <v>0.884439572004912</v>
+        <v>0.937261883880021</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00703559160200509</v>
+        <v>0.00801332916528737</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0948379472478569</v>
+        <v>0.0955092721975651</v>
       </c>
     </row>
     <row r="184">
@@ -5974,22 +5974,22 @@
         <v>211</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.48671183991887</v>
+        <v>-1.62141132799004</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0314832387272813</v>
+        <v>0.0305580081852859</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.119347383204444</v>
+        <v>-0.10781255009673</v>
       </c>
       <c r="E184" t="n">
-        <v>0.893167028199566</v>
+        <v>0.931641359363702</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00498951505328362</v>
+        <v>0.00532573400589432</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0790854310681677</v>
+        <v>0.0783323174903824</v>
       </c>
     </row>
     <row r="185">
@@ -5997,22 +5997,22 @@
         <v>212</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.232999750497841</v>
+        <v>-0.454387597372731</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0202172233995739</v>
+        <v>0.027941318091987</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.610246502537857</v>
+        <v>-0.367872205506969</v>
       </c>
       <c r="E185" t="n">
-        <v>0.401263265306122</v>
+        <v>0.502628571428571</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00371189225393586</v>
+        <v>0.00524264718279883</v>
       </c>
       <c r="G185" t="n">
-        <v>0.151833735788289</v>
+        <v>0.144054936009723</v>
       </c>
     </row>
     <row r="186">
@@ -6020,22 +6020,22 @@
         <v>213</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.84165714828705</v>
+        <v>-0.941846116769407</v>
       </c>
       <c r="C186" t="n">
-        <v>0.156063403129264</v>
+        <v>0.150523768407364</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.469369991532967</v>
+        <v>-0.411929210702467</v>
       </c>
       <c r="E186" t="n">
-        <v>0.666790247160989</v>
+        <v>0.713336673346693</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0214592625369867</v>
+        <v>0.0200755184994795</v>
       </c>
       <c r="G186" t="n">
-        <v>0.219693980452435</v>
+        <v>0.198627251591338</v>
       </c>
     </row>
     <row r="187">
@@ -6043,22 +6043,22 @@
         <v>214</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.35014692842369</v>
+        <v>-1.94458243945925</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0391547012995593</v>
+        <v>0.0510708825200455</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.146558470789404</v>
+        <v>-0.116214501001525</v>
       </c>
       <c r="E187" t="n">
-        <v>0.855136452133738</v>
+        <v>0.968317565209488</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00698920962351544</v>
+        <v>0.00758338352630027</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0977639214673585</v>
+        <v>0.0899318858175283</v>
       </c>
     </row>
     <row r="188">
@@ -6066,22 +6066,22 @@
         <v>215</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.971355505136694</v>
+        <v>-1.45952047590801</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0522283411018875</v>
+        <v>0.0623363304796386</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.235274527572703</v>
+        <v>-0.171064709606897</v>
       </c>
       <c r="E188" t="n">
-        <v>0.7315374841169</v>
+        <v>0.897617534942821</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00807761266022355</v>
+        <v>0.00884669380692285</v>
       </c>
       <c r="G188" t="n">
-        <v>0.122858420496689</v>
+        <v>0.104785012647629</v>
       </c>
     </row>
     <row r="189">
@@ -6089,22 +6089,22 @@
         <v>216</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.585627787056902</v>
+        <v>-1.76574829186257</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0172305746066406</v>
+        <v>0.0720245330921678</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.224144561148002</v>
+        <v>-0.151988745712746</v>
       </c>
       <c r="E189" t="n">
-        <v>0.564718069201196</v>
+        <v>0.951586928662965</v>
       </c>
       <c r="F189" t="n">
-        <v>0.00315537721090397</v>
+        <v>0.0116514658022098</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0994704215096093</v>
+        <v>0.113433625932969</v>
       </c>
     </row>
     <row r="190">
@@ -6112,22 +6112,22 @@
         <v>217</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.719318261702498</v>
+        <v>-0.965850501632043</v>
       </c>
       <c r="C190" t="n">
-        <v>0.133687951952515</v>
+        <v>0.195292492810357</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.508305780959846</v>
+        <v>-0.457544000198791</v>
       </c>
       <c r="E190" t="n">
-        <v>0.614705418378451</v>
+        <v>0.718266886562455</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0214292448983265</v>
+        <v>0.0296894094859148</v>
       </c>
       <c r="G190" t="n">
-        <v>0.238142217206262</v>
+        <v>0.23989154126733</v>
       </c>
     </row>
     <row r="191">
@@ -6135,22 +6135,22 @@
         <v>218</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.1360184347354</v>
+        <v>-1.28462474297567</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0375812339731581</v>
+        <v>0.0314989150864505</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.170647582057591</v>
+        <v>-0.138156561314465</v>
       </c>
       <c r="E191" t="n">
-        <v>0.795076673684995</v>
+        <v>0.855292627028639</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00643273937306905</v>
+        <v>0.00571542951297947</v>
       </c>
       <c r="G191" t="n">
-        <v>0.100876258500935</v>
+        <v>0.0883913380653969</v>
       </c>
     </row>
     <row r="192">
@@ -6158,22 +6158,22 @@
         <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.37477563215181</v>
+        <v>-1.63386536450603</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0428588760378273</v>
+        <v>0.0484121920923592</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.150587375094359</v>
+        <v>-0.134666975832825</v>
       </c>
       <c r="E192" t="n">
-        <v>0.863701503763319</v>
+        <v>0.93211217396051</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00827557937681777</v>
+        <v>0.00728092763689884</v>
       </c>
       <c r="G192" t="n">
-        <v>0.105325984827147</v>
+        <v>0.0915430076738135</v>
       </c>
     </row>
     <row r="193">
@@ -6181,22 +6181,22 @@
         <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.521339640648264</v>
+        <v>-0.761185516328016</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0607189627561568</v>
+        <v>0.0681206194954424</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.472651917107343</v>
+        <v>-0.342885230294603</v>
       </c>
       <c r="E193" t="n">
-        <v>0.534178498985801</v>
+        <v>0.65335953346856</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0107768103709926</v>
+        <v>0.0119104544691863</v>
       </c>
       <c r="G193" t="n">
-        <v>0.194338442189654</v>
+        <v>0.167036712586475</v>
       </c>
     </row>
     <row r="194">
@@ -6204,22 +6204,22 @@
         <v>221</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.01404639151282</v>
+        <v>-1.12457561844429</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0551351792907879</v>
+        <v>0.0433384428397792</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.231556284114019</v>
+        <v>-0.185117718015586</v>
       </c>
       <c r="E194" t="n">
-        <v>0.746299452221546</v>
+        <v>0.79830797321972</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00964900131508319</v>
+        <v>0.00771390123058446</v>
       </c>
       <c r="G194" t="n">
-        <v>0.131621870987079</v>
+        <v>0.110018715476574</v>
       </c>
     </row>
     <row r="195">
@@ -6227,22 +6227,22 @@
         <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.491859199032763</v>
+        <v>-0.624670423294948</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0291362412591994</v>
+        <v>0.03270922419086</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.347037146783578</v>
+        <v>-0.289523738604276</v>
       </c>
       <c r="E195" t="n">
-        <v>0.519973001038422</v>
+        <v>0.585430944963655</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00529538201923937</v>
+        <v>0.00589606095291087</v>
       </c>
       <c r="G195" t="n">
-        <v>0.139948373114803</v>
+        <v>0.131161177668482</v>
       </c>
     </row>
     <row r="196">
@@ -6250,22 +6250,22 @@
         <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.694194021703457</v>
+        <v>-0.930519561117369</v>
       </c>
       <c r="C196" t="n">
-        <v>0.161961009754878</v>
+        <v>0.204869590200047</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.579728122731812</v>
+        <v>-0.486422037082644</v>
       </c>
       <c r="E196" t="n">
-        <v>0.607955230804832</v>
+        <v>0.711262011922714</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0228053648895823</v>
+        <v>0.0234941645884045</v>
       </c>
       <c r="G196" t="n">
-        <v>0.248397324232572</v>
+        <v>0.215501545706777</v>
       </c>
     </row>
     <row r="197">
@@ -6273,22 +6273,22 @@
         <v>224</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.595342864608292</v>
+        <v>-0.815840770313032</v>
       </c>
       <c r="C197" t="n">
-        <v>0.189098663800054</v>
+        <v>0.217041559532656</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.730427435318356</v>
+        <v>-0.571039362789464</v>
       </c>
       <c r="E197" t="n">
-        <v>0.565363735685902</v>
+        <v>0.665856348522322</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0283754116137203</v>
+        <v>0.0319794850517775</v>
       </c>
       <c r="G197" t="n">
-        <v>0.297949826667501</v>
+        <v>0.268568570954078</v>
       </c>
     </row>
     <row r="198">
@@ -6296,22 +6296,22 @@
         <v>225</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.510597621076609</v>
+        <v>-0.857530838755652</v>
       </c>
       <c r="C198" t="n">
-        <v>0.037545090846679</v>
+        <v>0.0557931800688138</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.379487777460866</v>
+        <v>-0.275448753057737</v>
       </c>
       <c r="E198" t="n">
-        <v>0.528622375611159</v>
+        <v>0.695018694276675</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00703157231733345</v>
+        <v>0.00945360425414423</v>
       </c>
       <c r="G198" t="n">
-        <v>0.158628304309892</v>
+        <v>0.139895009720508</v>
       </c>
     </row>
     <row r="199">
@@ -6319,22 +6319,22 @@
         <v>226</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.575198291642418</v>
+        <v>-0.675907606627704</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0506316414046435</v>
+        <v>0.0367375683821584</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.391195108647611</v>
+        <v>-0.283574953627035</v>
       </c>
       <c r="E199" t="n">
-        <v>0.560050193050193</v>
+        <v>0.611926640926641</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00967367268555925</v>
+        <v>0.00628872776672977</v>
       </c>
       <c r="G199" t="n">
-        <v>0.175617885209448</v>
+        <v>0.129593147024048</v>
       </c>
     </row>
     <row r="200">
@@ -6342,22 +6342,22 @@
         <v>227</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.544908671114805</v>
+        <v>-0.671795968077482</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0393609912179013</v>
+        <v>0.0403854965693731</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.364090455691959</v>
+        <v>-0.299140572586007</v>
       </c>
       <c r="E200" t="n">
-        <v>0.544633610161212</v>
+        <v>0.609440644846116</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00756166588569926</v>
+        <v>0.00662338373014329</v>
       </c>
       <c r="G200" t="n">
-        <v>0.159663006615784</v>
+        <v>0.133539130342393</v>
       </c>
     </row>
     <row r="201">
@@ -6365,22 +6365,22 @@
         <v>228</v>
       </c>
       <c r="B201" t="n">
-        <v>0.28630450712055</v>
+        <v>-0.00864182885468713</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00167529103073163</v>
+        <v>0.00425310798742733</v>
       </c>
       <c r="D201" t="n">
-        <v>0.14296079241944</v>
+        <v>-7.54653418479749</v>
       </c>
       <c r="E201" t="n">
-        <v>0.186719145774104</v>
+        <v>0.285253598289885</v>
       </c>
       <c r="F201" t="n">
-        <v>0.000307608670867819</v>
+        <v>0.000796446103582183</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0939313220136178</v>
+        <v>0.0989343408191165</v>
       </c>
     </row>
     <row r="202">
@@ -6388,22 +6388,22 @@
         <v>229</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.412088932675488</v>
+        <v>-0.650530669278879</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0511526707684541</v>
+        <v>0.0589923493431574</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.548836777820072</v>
+        <v>-0.373361961797445</v>
       </c>
       <c r="E202" t="n">
-        <v>0.482383702277831</v>
+        <v>0.599525184472249</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00904487175268784</v>
+        <v>0.00988104350746509</v>
       </c>
       <c r="G202" t="n">
-        <v>0.197155356232435</v>
+        <v>0.165803607056752</v>
       </c>
     </row>
     <row r="203">
@@ -6411,22 +6411,22 @@
         <v>230</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.10136996865853</v>
+        <v>-0.286535521571558</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0184459515358306</v>
+        <v>0.0235330689974829</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.33980384377358</v>
+        <v>-0.535378362812603</v>
       </c>
       <c r="E203" t="n">
-        <v>0.340314346693177</v>
+        <v>0.419022581739288</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00335898420816941</v>
+        <v>0.00385922427218578</v>
       </c>
       <c r="G203" t="n">
-        <v>0.170303558602853</v>
+        <v>0.14825610306256</v>
       </c>
     </row>
     <row r="204">
@@ -6434,22 +6434,22 @@
         <v>231</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.69064218398735</v>
+        <v>-1.0445631032176</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0232273595383692</v>
+        <v>0.0253686238645066</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.220671791084421</v>
+        <v>-0.152480312491373</v>
       </c>
       <c r="E204" t="n">
-        <v>0.614424349382317</v>
+        <v>0.774618728203329</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0040619980797237</v>
+        <v>0.00345599084940648</v>
       </c>
       <c r="G204" t="n">
-        <v>0.103729297961204</v>
+        <v>0.0758924021056399</v>
       </c>
     </row>
     <row r="205">
@@ -6457,22 +6457,22 @@
         <v>232</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.623243237996332</v>
+        <v>-0.851748671603847</v>
       </c>
       <c r="C205" t="n">
-        <v>0.182453521030129</v>
+        <v>0.226794206347743</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.685359676994681</v>
+        <v>-0.559119337741872</v>
       </c>
       <c r="E205" t="n">
-        <v>0.576196569441473</v>
+        <v>0.677225601162763</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0291731781333666</v>
+        <v>0.0325906926442534</v>
       </c>
       <c r="G205" t="n">
-        <v>0.296429351341277</v>
+        <v>0.266571323300358</v>
       </c>
     </row>
     <row r="206">
@@ -6480,22 +6480,22 @@
         <v>233</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.42661885911414</v>
+        <v>-1.56414400921224</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0439124702106164</v>
+        <v>0.0560092951040277</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.146887883529524</v>
+        <v>-0.151305013225781</v>
       </c>
       <c r="E206" t="n">
-        <v>0.872793475183578</v>
+        <v>0.916574731295463</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00736860889955243</v>
+        <v>0.00926102398242927</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0983515621242102</v>
+        <v>0.104993309233632</v>
       </c>
     </row>
     <row r="207">
@@ -6503,22 +6503,22 @@
         <v>234</v>
       </c>
       <c r="B207" t="n">
-        <v>0.501988359887161</v>
+        <v>0.445575451197032</v>
       </c>
       <c r="C207" t="n">
-        <v>0.02982150303761</v>
+        <v>0.0366047341126209</v>
       </c>
       <c r="D207" t="n">
-        <v>0.344010039794669</v>
+        <v>0.429385498201416</v>
       </c>
       <c r="E207" t="n">
-        <v>0.131444376846997</v>
+        <v>0.132108657064707</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00565698652509851</v>
+        <v>0.00690436085752224</v>
       </c>
       <c r="G207" t="n">
-        <v>0.572203566343148</v>
+        <v>0.628970770023054</v>
       </c>
     </row>
     <row r="208">
@@ -6526,22 +6526,22 @@
         <v>235</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.776283512477659</v>
+        <v>-1.00920250814191</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0513360442858933</v>
+        <v>0.0507937217950787</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.291870927501765</v>
+        <v>-0.223319525692905</v>
       </c>
       <c r="E208" t="n">
-        <v>0.650427644138984</v>
+        <v>0.759054982817869</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0092607543007811</v>
+        <v>0.00849452966073402</v>
       </c>
       <c r="G208" t="n">
-        <v>0.147953141109794</v>
+        <v>0.121421734662753</v>
       </c>
     </row>
     <row r="209">
@@ -6549,22 +6549,22 @@
         <v>236</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.471664609852813</v>
+        <v>-0.590177630577368</v>
       </c>
       <c r="C209" t="n">
-        <v>0.044852204268653</v>
+        <v>0.047875188961468</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.449012678817591</v>
+        <v>-0.370742612630237</v>
       </c>
       <c r="E209" t="n">
-        <v>0.510515574650913</v>
+        <v>0.569462943071966</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00755107046031144</v>
+        <v>0.00822015792531044</v>
       </c>
       <c r="G209" t="n">
-        <v>0.170213995200671</v>
+        <v>0.159211565365522</v>
       </c>
     </row>
     <row r="210">
@@ -6572,22 +6572,22 @@
         <v>237</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.589761370980668</v>
+        <v>-0.731359444437408</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0425668489268277</v>
+        <v>0.0510014331856316</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.349831915398654</v>
+        <v>-0.308787929976725</v>
       </c>
       <c r="E210" t="n">
-        <v>0.565753533428617</v>
+        <v>0.636844529140861</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00826682173762375</v>
+        <v>0.00844729444014077</v>
       </c>
       <c r="G210" t="n">
-        <v>0.16070967075503</v>
+        <v>0.144319625693425</v>
       </c>
     </row>
     <row r="211">
@@ -6595,22 +6595,22 @@
         <v>238</v>
       </c>
       <c r="B211" t="n">
-        <v>0.277547386107842</v>
+        <v>0.154747993855383</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0289118203652314</v>
+        <v>0.0290776805607373</v>
       </c>
       <c r="D211" t="n">
-        <v>0.612633268179549</v>
+        <v>1.10193214697039</v>
       </c>
       <c r="E211" t="n">
-        <v>0.196422944362383</v>
+        <v>0.224603643525357</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00597066651993801</v>
+        <v>0.00598129691401931</v>
       </c>
       <c r="G211" t="n">
-        <v>0.393386263416938</v>
+        <v>0.344334773825422</v>
       </c>
     </row>
     <row r="212">
@@ -6618,22 +6618,22 @@
         <v>239</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.377827716187614</v>
+        <v>-0.49100411962486</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0441985581512131</v>
+        <v>0.0432455536222532</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.556429616709955</v>
+        <v>-0.423531381319466</v>
       </c>
       <c r="E212" t="n">
-        <v>0.465735351183547</v>
+        <v>0.520325960419092</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00790514771472485</v>
+        <v>0.00723809607932866</v>
       </c>
       <c r="G212" t="n">
-        <v>0.190904335239246</v>
+        <v>0.163507123140582</v>
       </c>
     </row>
     <row r="213">
@@ -6641,22 +6641,22 @@
         <v>240</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.543194590702849</v>
+        <v>-0.762885061557604</v>
       </c>
       <c r="C213" t="n">
-        <v>0.185766653805642</v>
+        <v>0.19397511424098</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.793466220515316</v>
+        <v>-0.577316403342561</v>
       </c>
       <c r="E213" t="n">
-        <v>0.538341708542714</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0272503831076095</v>
+        <v>0.0278184272572616</v>
       </c>
       <c r="G213" t="n">
-        <v>0.306639626779922</v>
+        <v>0.263350374510738</v>
       </c>
     </row>
     <row r="214">
@@ -6664,22 +6664,22 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.33270206253737</v>
+        <v>-1.41376097219482</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0454283610569322</v>
+        <v>0.043354244298768</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.159930194186122</v>
+        <v>-0.147278659192175</v>
       </c>
       <c r="E214" t="n">
-        <v>0.851146928287783</v>
+        <v>0.885900490539594</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00735545262970767</v>
+        <v>0.00677129747987132</v>
       </c>
       <c r="G214" t="n">
-        <v>0.10076278564096</v>
+        <v>0.0928861590695373</v>
       </c>
     </row>
     <row r="215">
@@ -6687,22 +6687,22 @@
         <v>242</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.190813776007625</v>
+        <v>-0.343456119969282</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0457171641782112</v>
+        <v>0.0476338432170215</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.12054658363119</v>
+        <v>-0.635457561788193</v>
       </c>
       <c r="E215" t="n">
-        <v>0.381640363462458</v>
+        <v>0.44780487804878</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00868856353399976</v>
+        <v>0.00806440259729418</v>
       </c>
       <c r="G215" t="n">
-        <v>0.244241630083326</v>
+        <v>0.200538277484809</v>
       </c>
     </row>
     <row r="216">
@@ -6710,22 +6710,22 @@
         <v>243</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.505496113862682</v>
+        <v>-0.877353076433518</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0285599300415713</v>
+        <v>0.0259350421146322</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.33431876087336</v>
+        <v>-0.18355620727045</v>
       </c>
       <c r="E216" t="n">
-        <v>0.526766258853831</v>
+        <v>0.705611075338055</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00513192793207091</v>
+        <v>0.00497026424006213</v>
       </c>
       <c r="G216" t="n">
-        <v>0.135994807084914</v>
+        <v>0.0999135408404691</v>
       </c>
     </row>
     <row r="217">
@@ -6733,22 +6733,22 @@
         <v>244</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.720333907931682</v>
+        <v>-0.967237135117364</v>
       </c>
       <c r="C217" t="n">
-        <v>0.140837373441162</v>
+        <v>0.154867614543866</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.520984856643569</v>
+        <v>-0.406862199351143</v>
       </c>
       <c r="E217" t="n">
-        <v>0.617474785207322</v>
+        <v>0.7244564811356</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0203361588733925</v>
+        <v>0.019798159943815</v>
       </c>
       <c r="G217" t="n">
-        <v>0.230948547564474</v>
+        <v>0.194222755889056</v>
       </c>
     </row>
     <row r="218">
@@ -6756,22 +6756,22 @@
         <v>245</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.19435193327268</v>
+        <v>-1.41940997650376</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0209586164881213</v>
+        <v>0.0220687913778702</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.121212940953706</v>
+        <v>-0.104660166473286</v>
       </c>
       <c r="E218" t="n">
-        <v>0.813113943313677</v>
+        <v>0.891190793228077</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00401462154427357</v>
+        <v>0.00397030741655582</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0779239388764337</v>
+        <v>0.0707035754254903</v>
       </c>
     </row>
     <row r="219">
@@ -6779,22 +6779,22 @@
         <v>246</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.720461371581674</v>
+        <v>-0.899474526355064</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0530001457382363</v>
+        <v>0.0468013999456702</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.319541913374232</v>
+        <v>-0.240514106614977</v>
       </c>
       <c r="E219" t="n">
-        <v>0.624555172741131</v>
+        <v>0.711870241922435</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00938040474955449</v>
+        <v>0.0074851320099633</v>
       </c>
       <c r="G219" t="n">
-        <v>0.155074353504073</v>
+        <v>0.121534308246427</v>
       </c>
     </row>
     <row r="220">
@@ -6802,22 +6802,22 @@
         <v>247</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.686391830043076</v>
+        <v>-0.912527557492954</v>
       </c>
       <c r="C220" t="n">
-        <v>0.197947181138657</v>
+        <v>0.193826498439388</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.648190341160388</v>
+        <v>-0.482459193411408</v>
       </c>
       <c r="E220" t="n">
-        <v>0.600896335078534</v>
+        <v>0.700215706806283</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0306055640773444</v>
+        <v>0.0250589847536197</v>
       </c>
       <c r="G220" t="n">
-        <v>0.291139169547667</v>
+        <v>0.226073619523185</v>
       </c>
     </row>
     <row r="221">
@@ -6825,22 +6825,22 @@
         <v>248</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.995935737503412</v>
+        <v>-1.25498706022868</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0459168029390969</v>
+        <v>0.0445563524434713</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.215156516530691</v>
+        <v>-0.168195962833681</v>
       </c>
       <c r="E221" t="n">
-        <v>0.739412446255165</v>
+        <v>0.841724503125261</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00843111839550527</v>
+        <v>0.00712017521916926</v>
       </c>
       <c r="G221" t="n">
-        <v>0.124181195750322</v>
+        <v>0.100247920064558</v>
       </c>
     </row>
     <row r="222">
@@ -6848,22 +6848,22 @@
         <v>249</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.21420629174002</v>
+        <v>-1.23395539823693</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0528982533183405</v>
+        <v>0.0632888760331596</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.189421027052179</v>
+        <v>-0.20387511979518</v>
       </c>
       <c r="E222" t="n">
-        <v>0.817431429333511</v>
+        <v>0.837556610543376</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00901892758850942</v>
+        <v>0.00934352562962545</v>
       </c>
       <c r="G222" t="n">
-        <v>0.116178594501947</v>
+        <v>0.115409409755219</v>
       </c>
     </row>
     <row r="223">
@@ -6871,22 +6871,22 @@
         <v>250</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.77107886586988</v>
+        <v>-0.995621707381784</v>
       </c>
       <c r="C223" t="n">
-        <v>0.139940993397052</v>
+        <v>0.149663731092714</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.4851473643429</v>
+        <v>-0.388565221995724</v>
       </c>
       <c r="E223" t="n">
-        <v>0.641545808277326</v>
+        <v>0.739628581535196</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0217541890963996</v>
+        <v>0.0203499646124234</v>
       </c>
       <c r="G223" t="n">
-        <v>0.229902544475657</v>
+        <v>0.192871538100014</v>
       </c>
     </row>
     <row r="224">
@@ -6894,22 +6894,22 @@
         <v>251</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.1129498319552</v>
+        <v>-1.37062870325574</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0276605381807043</v>
+        <v>0.0276265631910136</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.149435824685555</v>
+        <v>-0.121267272053634</v>
       </c>
       <c r="E224" t="n">
-        <v>0.786518121562544</v>
+        <v>0.878616556197997</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00477824151269112</v>
+        <v>0.00398818111469525</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0878871366009194</v>
+        <v>0.0718766874395923</v>
       </c>
     </row>
     <row r="225">
@@ -6917,22 +6917,22 @@
         <v>252</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.380508464803153</v>
+        <v>-0.676743475861778</v>
       </c>
       <c r="C225" t="n">
-        <v>0.020650520203978</v>
+        <v>0.018583193463932</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.377660162477787</v>
+        <v>-0.201435539693427</v>
       </c>
       <c r="E225" t="n">
-        <v>0.468243513347094</v>
+        <v>0.612410432952561</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00393541677832066</v>
+        <v>0.00321116750914265</v>
       </c>
       <c r="G225" t="n">
-        <v>0.133974947859484</v>
+        <v>0.0925313502922659</v>
       </c>
     </row>
     <row r="226">
@@ -6940,22 +6940,22 @@
         <v>253</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.764879771169651</v>
+        <v>-1.00466585891711</v>
       </c>
       <c r="C226" t="n">
-        <v>0.187795686888396</v>
+        <v>0.20393026911928</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.566564855724148</v>
+        <v>-0.449489138739231</v>
       </c>
       <c r="E226" t="n">
-        <v>0.63208865923307</v>
+        <v>0.730943704106609</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0247552464698159</v>
+        <v>0.0241863580381069</v>
       </c>
       <c r="G226" t="n">
-        <v>0.248917613722917</v>
+        <v>0.212765549357683</v>
       </c>
     </row>
     <row r="227">
@@ -6963,22 +6963,22 @@
         <v>254</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.729963802088568</v>
+        <v>-0.958200218521962</v>
       </c>
       <c r="C227" t="n">
-        <v>0.154712674502302</v>
+        <v>0.162904749841767</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.538842226922195</v>
+        <v>-0.421221575390443</v>
       </c>
       <c r="E227" t="n">
-        <v>0.616850714554869</v>
+        <v>0.713091606202362</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0243920378719859</v>
+        <v>0.0228226016174852</v>
       </c>
       <c r="G227" t="n">
-        <v>0.253188496994192</v>
+        <v>0.211854283919834</v>
       </c>
     </row>
     <row r="228">
@@ -6986,22 +6986,22 @@
         <v>255</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.798212788234123</v>
+        <v>-1.02738450419066</v>
       </c>
       <c r="C228" t="n">
-        <v>0.156356101962085</v>
+        <v>0.145232142349063</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.495380304749924</v>
+        <v>-0.370935467365975</v>
       </c>
       <c r="E228" t="n">
-        <v>0.651625412541254</v>
+        <v>0.747559818481848</v>
       </c>
       <c r="F228" t="n">
-        <v>0.024523380542502</v>
+        <v>0.0187689351044866</v>
       </c>
       <c r="G228" t="n">
-        <v>0.240321239786701</v>
+        <v>0.18326260958364</v>
       </c>
     </row>
     <row r="229">
@@ -7009,22 +7009,22 @@
         <v>256</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.943387453350495</v>
+        <v>-1.0462818250966</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0207084630362857</v>
+        <v>0.0192185800646252</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.152540033542943</v>
+        <v>-0.132498806823576</v>
       </c>
       <c r="E229" t="n">
-        <v>0.722830908383206</v>
+        <v>0.775094867219055</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00348983437238156</v>
+        <v>0.00289650141682424</v>
       </c>
       <c r="G229" t="n">
-        <v>0.081727025555098</v>
+        <v>0.0694355710703285</v>
       </c>
     </row>
     <row r="230">
@@ -7032,22 +7032,22 @@
         <v>257</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.18538512277419</v>
+        <v>-0.302628917360739</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0360291833547878</v>
+        <v>0.0340198687021562</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.02388771052744</v>
+        <v>-0.609474994884478</v>
       </c>
       <c r="E230" t="n">
-        <v>0.379395807079144</v>
+        <v>0.428488065213563</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00664133805273799</v>
+        <v>0.00624642106424849</v>
       </c>
       <c r="G230" t="n">
-        <v>0.214800489406765</v>
+        <v>0.184449251921049</v>
       </c>
     </row>
     <row r="231">
@@ -7055,22 +7055,22 @@
         <v>258</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.664553838817461</v>
+        <v>-0.931313922976904</v>
       </c>
       <c r="C231" t="n">
-        <v>0.167907688002089</v>
+        <v>0.182223713028599</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.616602270761709</v>
+        <v>-0.458359619472269</v>
       </c>
       <c r="E231" t="n">
-        <v>0.592244582043344</v>
+        <v>0.704623323013416</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0240641355769835</v>
+        <v>0.0211462606942674</v>
       </c>
       <c r="G231" t="n">
-        <v>0.261929272349039</v>
+        <v>0.206376278512013</v>
       </c>
     </row>
     <row r="232">
@@ -7078,22 +7078,22 @@
         <v>259</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.758932510709425</v>
+        <v>-1.01014800049825</v>
       </c>
       <c r="C232" t="n">
-        <v>0.165956614387899</v>
+        <v>0.18496534265071</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.536777280750196</v>
+        <v>-0.425755407032183</v>
       </c>
       <c r="E232" t="n">
-        <v>0.631691056910569</v>
+        <v>0.734818428184282</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0256972725593966</v>
+        <v>0.0257784477569936</v>
       </c>
       <c r="G232" t="n">
-        <v>0.253769127781527</v>
+        <v>0.21849844079173</v>
       </c>
     </row>
     <row r="233">
@@ -7101,22 +7101,22 @@
         <v>260</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.842234291607203</v>
+        <v>-1.08800606236665</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0397470528670416</v>
+        <v>0.0472135925343921</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.236711603004148</v>
+        <v>-0.199711102211063</v>
       </c>
       <c r="E233" t="n">
-        <v>0.678963375764748</v>
+        <v>0.788220422879004</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00737542896045095</v>
+        <v>0.00893072194168928</v>
       </c>
       <c r="G233" t="n">
-        <v>0.126487408187291</v>
+        <v>0.119893489523922</v>
       </c>
     </row>
     <row r="234">
@@ -7124,22 +7124,22 @@
         <v>261</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.729225091962297</v>
+        <v>-0.98058128470939</v>
       </c>
       <c r="C234" t="n">
-        <v>0.150924135631729</v>
+        <v>0.161312179078036</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.532742991072656</v>
+        <v>-0.409590597854725</v>
       </c>
       <c r="E234" t="n">
-        <v>0.620903771131339</v>
+        <v>0.725357607282185</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0249171255151253</v>
+        <v>0.0239284238984309</v>
       </c>
       <c r="G234" t="n">
-        <v>0.254228755990665</v>
+        <v>0.213257776475254</v>
       </c>
     </row>
     <row r="235">
@@ -7147,22 +7147,22 @@
         <v>262</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.07857838810779</v>
+        <v>-1.03000417363226</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0494820089544454</v>
+        <v>0.0531579822313153</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.206239547837155</v>
+        <v>-0.223843897664045</v>
       </c>
       <c r="E235" t="n">
-        <v>0.771708925781118</v>
+        <v>0.766698192318387</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00859717406972827</v>
+        <v>0.00926967093900941</v>
       </c>
       <c r="G235" t="n">
-        <v>0.120150155337829</v>
+        <v>0.125576310606362</v>
       </c>
     </row>
     <row r="236">
@@ -7170,22 +7170,22 @@
         <v>263</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.835508651020839</v>
+        <v>-1.02469814116213</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0393068425003375</v>
+        <v>0.0343467431564812</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.237292017200309</v>
+        <v>-0.180861793367418</v>
       </c>
       <c r="E236" t="n">
-        <v>0.675920525386987</v>
+        <v>0.763504551411517</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00709741073499389</v>
+        <v>0.00574202811308655</v>
       </c>
       <c r="G236" t="n">
-        <v>0.124639108749345</v>
+        <v>0.0992478315982085</v>
       </c>
     </row>
     <row r="237">
@@ -7193,22 +7193,22 @@
         <v>264</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.793610082605797</v>
+        <v>-1.05516616474767</v>
       </c>
       <c r="C237" t="n">
-        <v>0.202702218964713</v>
+        <v>0.249180672066968</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.56731213670356</v>
+        <v>-0.473081886383073</v>
       </c>
       <c r="E237" t="n">
-        <v>0.647470754336426</v>
+        <v>0.754372730939895</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0283954839628271</v>
+        <v>0.0302403965676344</v>
       </c>
       <c r="G237" t="n">
-        <v>0.260258235490987</v>
+        <v>0.230519548306244</v>
       </c>
     </row>
     <row r="238">
@@ -7216,22 +7216,22 @@
         <v>265</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.673045428156011</v>
+        <v>-0.923347912304267</v>
       </c>
       <c r="C238" t="n">
-        <v>0.219203968603247</v>
+        <v>0.181852168573655</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.69563244185546</v>
+        <v>-0.46184247364372</v>
       </c>
       <c r="E238" t="n">
-        <v>0.596851270628733</v>
+        <v>0.705012655664676</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0338118422528752</v>
+        <v>0.026366127016585</v>
       </c>
       <c r="G238" t="n">
-        <v>0.308083397018259</v>
+        <v>0.230317138891085</v>
       </c>
     </row>
     <row r="239">
@@ -7239,22 +7239,22 @@
         <v>266</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.530936105784347</v>
+        <v>-0.80761500842181</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0156829785338931</v>
+        <v>0.0268537771267142</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.235869623543734</v>
+        <v>-0.202907597627582</v>
       </c>
       <c r="E239" t="n">
-        <v>0.539105945092923</v>
+        <v>0.674451963548842</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00299668419485136</v>
+        <v>0.00447604924300251</v>
       </c>
       <c r="G239" t="n">
-        <v>0.10154215300174</v>
+        <v>0.0991965126767968</v>
       </c>
     </row>
     <row r="240">
@@ -7262,22 +7262,22 @@
         <v>267</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.101673755847099</v>
+        <v>-0.803477342199029</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0277635431177216</v>
+        <v>0.0436411917044837</v>
       </c>
       <c r="D240" t="n">
-        <v>-1.63880989569012</v>
+        <v>-0.260000789273895</v>
       </c>
       <c r="E240" t="n">
-        <v>0.340274336283186</v>
+        <v>0.673008849557522</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00510950437798575</v>
+        <v>0.00926237508712507</v>
       </c>
       <c r="G240" t="n">
-        <v>0.21006814104232</v>
+        <v>0.14300143881155</v>
       </c>
     </row>
     <row r="241">
@@ -7285,22 +7285,22 @@
         <v>268</v>
       </c>
       <c r="B241" t="n">
-        <v>0.146945041060332</v>
+        <v>0.029199039278782</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0113128385186265</v>
+        <v>0.0160167581604392</v>
       </c>
       <c r="D241" t="n">
-        <v>0.723820467361509</v>
+        <v>4.33429779341814</v>
       </c>
       <c r="E241" t="n">
-        <v>0.242451657514829</v>
+        <v>0.276966381650064</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00187183314246503</v>
+        <v>0.00309360748645177</v>
       </c>
       <c r="G241" t="n">
-        <v>0.178446653893803</v>
+        <v>0.20081934567499</v>
       </c>
     </row>
     <row r="242">
@@ -7308,22 +7308,22 @@
         <v>269</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.238649489935566</v>
+        <v>-0.5231427354427</v>
       </c>
       <c r="C242" t="n">
-        <v>0.175916539741815</v>
+        <v>0.21959736652475</v>
       </c>
       <c r="D242" t="n">
-        <v>-1.75748985381791</v>
+        <v>-0.895763505728128</v>
       </c>
       <c r="E242" t="n">
-        <v>0.412100336952452</v>
+        <v>0.534518906776488</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0272059449383613</v>
+        <v>0.0381770290409309</v>
       </c>
       <c r="G242" t="n">
-        <v>0.400247785530938</v>
+        <v>0.36554259674887</v>
       </c>
     </row>
     <row r="243">
@@ -7331,22 +7331,22 @@
         <v>270</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.17010036029281</v>
+        <v>-0.385713882069654</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0358736910517938</v>
+        <v>0.0378101874863222</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.11348096797478</v>
+        <v>-0.504126057199817</v>
       </c>
       <c r="E243" t="n">
-        <v>0.370113430127042</v>
+        <v>0.46812613430127</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00688675949951581</v>
+        <v>0.00712584484879002</v>
       </c>
       <c r="G243" t="n">
-        <v>0.224219104621698</v>
+        <v>0.18032473130485</v>
       </c>
     </row>
     <row r="244">
@@ -7354,22 +7354,22 @@
         <v>271</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.19422022535544</v>
+        <v>-0.46784365965301</v>
       </c>
       <c r="C244" t="n">
-        <v>0.16490950650173</v>
+        <v>0.17705307458723</v>
       </c>
       <c r="D244" t="n">
-        <v>-2.09087655219924</v>
+        <v>-0.899396075589588</v>
       </c>
       <c r="E244" t="n">
-        <v>0.390366780232149</v>
+        <v>0.507875234490388</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0231106799393771</v>
+        <v>0.0301073000040531</v>
       </c>
       <c r="G244" t="n">
-        <v>0.389433680310466</v>
+        <v>0.341647989372012</v>
       </c>
     </row>
     <row r="245">
@@ -7377,22 +7377,22 @@
         <v>272</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.20640504801856</v>
+        <v>-0.479802129573064</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0499042414278804</v>
+        <v>0.0627315657816084</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.08230188456682</v>
+        <v>-0.522012487933844</v>
       </c>
       <c r="E245" t="n">
-        <v>0.389568713450292</v>
+        <v>0.515434941520468</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00870304436020378</v>
+        <v>0.0124365203132748</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2394702278859</v>
+        <v>0.21635930892424</v>
       </c>
     </row>
     <row r="246">
@@ -7400,22 +7400,22 @@
         <v>273</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.424858604153485</v>
+        <v>-0.646961140707631</v>
       </c>
       <c r="C246" t="n">
-        <v>0.167186217948255</v>
+        <v>0.196541919134803</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.962400453011808</v>
+        <v>-0.685250561951371</v>
       </c>
       <c r="E246" t="n">
-        <v>0.4893061006967</v>
+        <v>0.58903796257036</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0266510306954386</v>
+        <v>0.0326570340425903</v>
       </c>
       <c r="G246" t="n">
-        <v>0.333638664517411</v>
+        <v>0.306792744253398</v>
       </c>
     </row>
     <row r="247">
@@ -7423,22 +7423,22 @@
         <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.214967470806088</v>
+        <v>-0.497345298279551</v>
       </c>
       <c r="C247" t="n">
-        <v>0.149887654208885</v>
+        <v>0.153977241079008</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.80098536866456</v>
+        <v>-0.788987731748032</v>
       </c>
       <c r="E247" t="n">
-        <v>0.40012067134456</v>
+        <v>0.518017811989563</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0224396480743262</v>
+        <v>0.0271399103117674</v>
       </c>
       <c r="G247" t="n">
-        <v>0.374383786090772</v>
+        <v>0.31802371822109</v>
       </c>
     </row>
     <row r="248">
@@ -7446,22 +7446,22 @@
         <v>275</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.198185046732516</v>
+        <v>-0.590243203028597</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0435173354539481</v>
+        <v>0.0575408886657978</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.05259248372049</v>
+        <v>-0.406403358048113</v>
       </c>
       <c r="E248" t="n">
-        <v>0.383692056836711</v>
+        <v>0.570561378989052</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00865840163318755</v>
+        <v>0.0124162119513839</v>
       </c>
       <c r="G248" t="n">
-        <v>0.24251357573923</v>
+        <v>0.195295478090816</v>
       </c>
     </row>
     <row r="249">
@@ -7469,22 +7469,22 @@
         <v>276</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.569506569762017</v>
+        <v>-0.81355366192893</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0614787691826675</v>
+        <v>0.0469171368478741</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.435375357131084</v>
+        <v>-0.266243826443555</v>
       </c>
       <c r="E249" t="n">
-        <v>0.556013513435851</v>
+        <v>0.675382752841149</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0105958130404517</v>
+        <v>0.00915589476845115</v>
       </c>
       <c r="G249" t="n">
-        <v>0.185132129419622</v>
+        <v>0.141677351743554</v>
       </c>
     </row>
     <row r="250">
@@ -7492,22 +7492,22 @@
         <v>277</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.433921269660587</v>
+        <v>-0.594178743280558</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0198324985636929</v>
+        <v>0.0169167018545242</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.324547133115658</v>
+        <v>-0.218897467318611</v>
       </c>
       <c r="E250" t="n">
-        <v>0.49366197479244</v>
+        <v>0.573618930901489</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00397220705277716</v>
+        <v>0.00365368588677329</v>
       </c>
       <c r="G250" t="n">
-        <v>0.127669237005274</v>
+        <v>0.105376101677314</v>
       </c>
     </row>
     <row r="251">
@@ -7515,22 +7515,22 @@
         <v>278</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.24442468087202</v>
+        <v>-0.435259889808386</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0481804367909492</v>
+        <v>0.0486678680122505</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.898028892615916</v>
+        <v>-0.506841903176998</v>
       </c>
       <c r="E251" t="n">
-        <v>0.406240284345996</v>
+        <v>0.494017132126128</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00920337040545706</v>
+        <v>0.00963477018431906</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2361513665855</v>
+        <v>0.198691216981787</v>
       </c>
     </row>
     <row r="252">
@@ -7538,22 +7538,22 @@
         <v>279</v>
       </c>
       <c r="B252" t="n">
-        <v>0.233391554954717</v>
+        <v>-0.43950383480163</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0463986389435848</v>
+        <v>0.0516496509399713</v>
       </c>
       <c r="D252" t="n">
-        <v>0.922927279999971</v>
+        <v>-0.517095819414142</v>
       </c>
       <c r="E252" t="n">
-        <v>0.212333645735708</v>
+        <v>0.495670103092783</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00883707780378203</v>
+        <v>0.0111654513409879</v>
       </c>
       <c r="G252" t="n">
-        <v>0.442726504781228</v>
+        <v>0.213179489020682</v>
       </c>
     </row>
     <row r="253">
@@ -7561,22 +7561,22 @@
         <v>280</v>
       </c>
       <c r="B253" t="n">
-        <v>0.23265017813794</v>
+        <v>-0.00327945260203789</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0448540632917639</v>
+        <v>0.0421409897055744</v>
       </c>
       <c r="D253" t="n">
-        <v>0.91032717273614</v>
+        <v>-62.5966378226939</v>
       </c>
       <c r="E253" t="n">
-        <v>0.210861558697797</v>
+        <v>0.289728707661953</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00843957314047165</v>
+        <v>0.00861187739869595</v>
       </c>
       <c r="G253" t="n">
-        <v>0.435675188858462</v>
+        <v>0.32030033285363</v>
       </c>
     </row>
     <row r="254">
@@ -7584,22 +7584,22 @@
         <v>281</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.97732891663305</v>
+        <v>-1.20659456554117</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0362374188849357</v>
+        <v>0.0436704744560772</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.194777092862829</v>
+        <v>-0.173193899362617</v>
       </c>
       <c r="E254" t="n">
-        <v>0.733151353765879</v>
+        <v>0.827832231018058</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00631716798924537</v>
+        <v>0.00832842307818304</v>
       </c>
       <c r="G254" t="n">
-        <v>0.108409557607248</v>
+        <v>0.110239962833125</v>
       </c>
     </row>
     <row r="255">
@@ -7607,22 +7607,22 @@
         <v>282</v>
       </c>
       <c r="B255" t="n">
-        <v>0.4522040998541</v>
+        <v>0.511902572937271</v>
       </c>
       <c r="C255" t="n">
-        <v>0.00343028737169513</v>
+        <v>0.00800672108698864</v>
       </c>
       <c r="D255" t="n">
-        <v>0.129518187068265</v>
+        <v>0.17479944028596</v>
       </c>
       <c r="E255" t="n">
-        <v>0.145958761892498</v>
+        <v>0.114940142291222</v>
       </c>
       <c r="F255" t="n">
-        <v>0.000470430072215192</v>
+        <v>0.00144171447058864</v>
       </c>
       <c r="G255" t="n">
-        <v>0.148599506569099</v>
+        <v>0.330345122066612</v>
       </c>
     </row>
     <row r="256">
@@ -7630,22 +7630,22 @@
         <v>283</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.458290991456027</v>
+        <v>-0.527663551348619</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0234538516371856</v>
+        <v>0.0227783945415925</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.334168697816702</v>
+        <v>-0.286025306355028</v>
       </c>
       <c r="E256" t="n">
-        <v>0.504429210968103</v>
+        <v>0.539921656407387</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00448185563209263</v>
+        <v>0.00499857330087754</v>
       </c>
       <c r="G256" t="n">
-        <v>0.132717656185415</v>
+        <v>0.130946014618308</v>
       </c>
     </row>
     <row r="257">
@@ -7653,22 +7653,22 @@
         <v>284</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.318151781603182</v>
+        <v>-0.484038714084409</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0238468009594064</v>
+        <v>0.028996229169676</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.485378688476873</v>
+        <v>-0.351795810552849</v>
       </c>
       <c r="E257" t="n">
-        <v>0.43931153944984</v>
+        <v>0.517932354435186</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00433860225136847</v>
+        <v>0.00539735191546744</v>
       </c>
       <c r="G257" t="n">
-        <v>0.149934752659749</v>
+        <v>0.141846076059638</v>
       </c>
     </row>
     <row r="258">
@@ -7676,22 +7676,22 @@
         <v>285</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.0871104267494484</v>
+        <v>-0.216197018669753</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0431313699446639</v>
+        <v>0.0348529000873323</v>
       </c>
       <c r="D258" t="n">
-        <v>-2.38411107350481</v>
+        <v>-0.863514749115967</v>
       </c>
       <c r="E258" t="n">
-        <v>0.333814007152745</v>
+        <v>0.385023152800384</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00818313472953988</v>
+        <v>0.00748550258633801</v>
       </c>
       <c r="G258" t="n">
-        <v>0.270991266494562</v>
+        <v>0.224710639879775</v>
       </c>
     </row>
     <row r="259">
@@ -7699,22 +7699,22 @@
         <v>286</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.310450013910494</v>
+        <v>-0.550162840346992</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0399066069023305</v>
+        <v>0.0423950941493284</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.643473576614517</v>
+        <v>-0.374254084275806</v>
       </c>
       <c r="E259" t="n">
-        <v>0.435383990719258</v>
+        <v>0.55039211136891</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00814812754908189</v>
+        <v>0.00913911122200031</v>
       </c>
       <c r="G259" t="n">
-        <v>0.207327281683027</v>
+        <v>0.173691985906577</v>
       </c>
     </row>
     <row r="260">
@@ -7722,22 +7722,22 @@
         <v>287</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.230218426965849</v>
+        <v>-0.547548921472583</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0210477276065468</v>
+        <v>0.023427263651641</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.63017696628876</v>
+        <v>-0.279536069740447</v>
       </c>
       <c r="E260" t="n">
-        <v>0.398124773304316</v>
+        <v>0.549571998549148</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00397119377226749</v>
+        <v>0.00446052655788037</v>
       </c>
       <c r="G260" t="n">
-        <v>0.158285574551879</v>
+        <v>0.121525794216844</v>
       </c>
     </row>
     <row r="261">
@@ -7745,22 +7745,22 @@
         <v>288</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.350077043566677</v>
+        <v>-0.627533199346129</v>
       </c>
       <c r="C261" t="n">
-        <v>0.18836556298097</v>
+        <v>0.195565596825435</v>
       </c>
       <c r="D261" t="n">
-        <v>-1.2397585762766</v>
+        <v>-0.704708519592333</v>
       </c>
       <c r="E261" t="n">
-        <v>0.458510266491918</v>
+        <v>0.584023591087811</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0299300753408565</v>
+        <v>0.0297792017629092</v>
       </c>
       <c r="G261" t="n">
-        <v>0.377315668888483</v>
+        <v>0.295478670140814</v>
       </c>
     </row>
     <row r="262">
@@ -7768,22 +7768,22 @@
         <v>289</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.326410067123064</v>
+        <v>-0.411424777413528</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0399219487727482</v>
+        <v>0.0413872269733887</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.612128107483125</v>
+        <v>-0.494473158254638</v>
       </c>
       <c r="E262" t="n">
-        <v>0.443227848101266</v>
+        <v>0.481716772151899</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00735910365254091</v>
+        <v>0.00809762612771766</v>
       </c>
       <c r="G262" t="n">
-        <v>0.193546543870306</v>
+        <v>0.186804396393052</v>
       </c>
     </row>
     <row r="263">
@@ -7791,22 +7791,22 @@
         <v>290</v>
       </c>
       <c r="B263" t="n">
-        <v>0.38969304921819</v>
+        <v>0.314499199656078</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0496156459617505</v>
+        <v>0.0458037035997081</v>
       </c>
       <c r="D263" t="n">
-        <v>0.571592689198608</v>
+        <v>0.680504111113515</v>
       </c>
       <c r="E263" t="n">
-        <v>0.160859707132735</v>
+        <v>0.169414265470005</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00874941058538421</v>
+        <v>0.00937757765498677</v>
       </c>
       <c r="G263" t="n">
-        <v>0.581489831915843</v>
+        <v>0.571604129232022</v>
       </c>
     </row>
     <row r="264">
@@ -7814,22 +7814,22 @@
         <v>291</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.427940340837684</v>
+        <v>-0.775707983928576</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0429734175520677</v>
+        <v>0.0456240308571286</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.484414035949256</v>
+        <v>-0.275358549163378</v>
       </c>
       <c r="E264" t="n">
-        <v>0.490890804597701</v>
+        <v>0.658929597701149</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00774562253801485</v>
+        <v>0.00943725825543025</v>
       </c>
       <c r="G264" t="n">
-        <v>0.179284715987451</v>
+        <v>0.147429334251349</v>
       </c>
     </row>
     <row r="265">
@@ -7837,22 +7837,22 @@
         <v>292</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.307657919677838</v>
+        <v>-0.55771207234649</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0354619847721555</v>
+        <v>0.0482427755962425</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.612087373045456</v>
+        <v>-0.393827553747604</v>
       </c>
       <c r="E265" t="n">
-        <v>0.43524882629108</v>
+        <v>0.553826291079812</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0068600699642928</v>
+        <v>0.010137286448456</v>
       </c>
       <c r="G265" t="n">
-        <v>0.190294687362342</v>
+        <v>0.1817972421179</v>
       </c>
     </row>
     <row r="266">
@@ -7860,22 +7860,22 @@
         <v>293</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.858838532752476</v>
+        <v>-1.10432490420858</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0246203234625005</v>
+        <v>0.0243812396930273</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.182698657414556</v>
+        <v>-0.14139401465701</v>
       </c>
       <c r="E266" t="n">
-        <v>0.687029850746269</v>
+        <v>0.796087686567164</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00487269379260414</v>
+        <v>0.00540108724357457</v>
       </c>
       <c r="G266" t="n">
-        <v>0.101603566562908</v>
+        <v>0.0923165763103088</v>
       </c>
     </row>
     <row r="267">
@@ -7883,22 +7883,22 @@
         <v>294</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.248497285172005</v>
+        <v>-0.510990397716396</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0399580958712308</v>
+        <v>0.0482534278201279</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.804416080797501</v>
+        <v>-0.42988406398335</v>
       </c>
       <c r="E267" t="n">
-        <v>0.407582461786002</v>
+        <v>0.531379726468222</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00726153336795467</v>
+        <v>0.00953966510819398</v>
       </c>
       <c r="G267" t="n">
-        <v>0.209073351221627</v>
+        <v>0.183806803954255</v>
       </c>
     </row>
     <row r="268">
@@ -7906,22 +7906,22 @@
         <v>295</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.522895721596867</v>
+        <v>-1.00009890362941</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0275978130645337</v>
+        <v>0.0358353418996902</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.317703680417101</v>
+        <v>-0.18928352928984</v>
       </c>
       <c r="E268" t="n">
-        <v>0.53569822741029</v>
+        <v>0.757792909641159</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00495050929210992</v>
+        <v>0.00737280259988422</v>
       </c>
       <c r="G268" t="n">
-        <v>0.131342334332186</v>
+        <v>0.113309354551787</v>
       </c>
     </row>
     <row r="269">
@@ -7929,22 +7929,22 @@
         <v>296</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.821338831571974</v>
+        <v>-1.1470525104634</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0525625456733914</v>
+        <v>0.0511551134441538</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.279135992549664</v>
+        <v>-0.197179257231487</v>
       </c>
       <c r="E269" t="n">
-        <v>0.66893567251462</v>
+        <v>0.8072261208577</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0098311144834688</v>
+        <v>0.0106094139155068</v>
       </c>
       <c r="G269" t="n">
-        <v>0.148223485117828</v>
+        <v>0.127599945811387</v>
       </c>
     </row>
     <row r="270">
@@ -7952,22 +7952,22 @@
         <v>297</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.281001724316133</v>
+        <v>-0.853639732624901</v>
       </c>
       <c r="C270" t="n">
-        <v>0.023945216871804</v>
+        <v>0.0395481597658388</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.550681393235635</v>
+        <v>-0.232963841390178</v>
       </c>
       <c r="E270" t="n">
-        <v>0.421001863932898</v>
+        <v>0.696508232370301</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00456616845078842</v>
+        <v>0.00831838803103968</v>
       </c>
       <c r="G270" t="n">
-        <v>0.160506249150618</v>
+        <v>0.130946330785087</v>
       </c>
     </row>
     <row r="271">
@@ -7975,22 +7975,22 @@
         <v>298</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.102275762980231</v>
+        <v>-0.260434818200115</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0092829626284916</v>
+        <v>0.00946795125822766</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.942042666339485</v>
+        <v>-0.373619006288432</v>
       </c>
       <c r="E271" t="n">
-        <v>0.338330844532935</v>
+        <v>0.404841546374647</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00126309197304679</v>
+        <v>0.00190280277355958</v>
       </c>
       <c r="G271" t="n">
-        <v>0.105045123205746</v>
+        <v>0.107748643873008</v>
       </c>
     </row>
     <row r="272">
@@ -7998,22 +7998,22 @@
         <v>299</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.6227512520057</v>
+        <v>-0.700245553196519</v>
       </c>
       <c r="C272" t="n">
-        <v>0.017418214572024</v>
+        <v>0.0342034671566826</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.211927448167491</v>
+        <v>-0.264109915622223</v>
       </c>
       <c r="E272" t="n">
-        <v>0.582888473722687</v>
+        <v>0.625538948907481</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00313885509022486</v>
+        <v>0.00727040763267417</v>
       </c>
       <c r="G272" t="n">
-        <v>0.0961169908194077</v>
+        <v>0.136309154707672</v>
       </c>
     </row>
     <row r="273">
@@ -8021,22 +8021,22 @@
         <v>300</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.185552381493794</v>
+        <v>-0.358000971298821</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0258763918934215</v>
+        <v>0.0277831337345699</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.866932585608873</v>
+        <v>-0.465592965175113</v>
       </c>
       <c r="E273" t="n">
-        <v>0.377639484978541</v>
+        <v>0.455059608965188</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00436126437022347</v>
+        <v>0.00563876349345717</v>
       </c>
       <c r="G273" t="n">
-        <v>0.174875435904363</v>
+        <v>0.165015086119931</v>
       </c>
     </row>
     <row r="274">
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.199051454827221</v>
+        <v>-0.41395923866187</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0194275121202146</v>
+        <v>0.0235099515821101</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.700234070925853</v>
+        <v>-0.370397705603876</v>
       </c>
       <c r="E274" t="n">
-        <v>0.384579973992198</v>
+        <v>0.48221066319896</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00292334762886141</v>
+        <v>0.00451253105856566</v>
       </c>
       <c r="G274" t="n">
-        <v>0.14058971983403</v>
+        <v>0.139307113083546</v>
       </c>
     </row>
     <row r="275">
@@ -8067,22 +8067,22 @@
         <v>302</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.351682276088917</v>
+        <v>-0.582845573424266</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0484343154167648</v>
+        <v>0.0628574229069485</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.625786372325548</v>
+        <v>-0.430154809693019</v>
       </c>
       <c r="E275" t="n">
-        <v>0.454897643877945</v>
+        <v>0.567132097334878</v>
       </c>
       <c r="F275" t="n">
-        <v>0.00910988072166597</v>
+        <v>0.0127504125214216</v>
       </c>
       <c r="G275" t="n">
-        <v>0.209817958895313</v>
+        <v>0.199103039834597</v>
       </c>
     </row>
     <row r="276">
@@ -8090,22 +8090,22 @@
         <v>303</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.279070438243496</v>
+        <v>-0.32334503884993</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0212775211360819</v>
+        <v>0.0212621855417426</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.522692996303816</v>
+        <v>-0.450959717715142</v>
       </c>
       <c r="E276" t="n">
-        <v>0.42028729281768</v>
+        <v>0.437504340962904</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00367729330549203</v>
+        <v>0.0045112514098832</v>
       </c>
       <c r="G276" t="n">
-        <v>0.144283901074745</v>
+        <v>0.153520419658981</v>
       </c>
     </row>
     <row r="277">
@@ -8113,22 +8113,22 @@
         <v>304</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.436324202899458</v>
+        <v>-0.648686575577929</v>
       </c>
       <c r="C277" t="n">
-        <v>0.137355898156781</v>
+        <v>0.15595124645227</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.849404099223613</v>
+        <v>-0.608778792272083</v>
       </c>
       <c r="E277" t="n">
-        <v>0.49539093625498</v>
+        <v>0.590044820717131</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0229230041947499</v>
+        <v>0.0238002713067674</v>
       </c>
       <c r="G277" t="n">
-        <v>0.305624179499131</v>
+        <v>0.261460418084328</v>
       </c>
     </row>
     <row r="278">
@@ -8136,22 +8136,22 @@
         <v>305</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.208882151695389</v>
+        <v>-0.418154760615543</v>
       </c>
       <c r="C278" t="n">
-        <v>0.19720760476831</v>
+        <v>0.220405368617096</v>
       </c>
       <c r="D278" t="n">
-        <v>-2.12598647167816</v>
+        <v>-1.12272666898676</v>
       </c>
       <c r="E278" t="n">
-        <v>0.39483447658813</v>
+        <v>0.484700268416344</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0309111521978573</v>
+        <v>0.0353431451839159</v>
       </c>
       <c r="G278" t="n">
-        <v>0.445289576251293</v>
+        <v>0.387863879575443</v>
       </c>
     </row>
     <row r="279">
@@ -8159,22 +8159,22 @@
         <v>306</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.602613333090856</v>
+        <v>-0.686760540053</v>
       </c>
       <c r="C279" t="n">
-        <v>0.041834156370125</v>
+        <v>0.0380098572765801</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.339411670547998</v>
+        <v>-0.283885222384297</v>
       </c>
       <c r="E279" t="n">
-        <v>0.57236216839677</v>
+        <v>0.617388696655133</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00796601370396534</v>
+        <v>0.00789836043416892</v>
       </c>
       <c r="G279" t="n">
-        <v>0.155937154210446</v>
+        <v>0.143949380508019</v>
       </c>
     </row>
     <row r="280">
@@ -8182,22 +8182,22 @@
         <v>307</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.253347319912949</v>
+        <v>-0.506446151594496</v>
       </c>
       <c r="C280" t="n">
-        <v>0.166988559919551</v>
+        <v>0.188319323325282</v>
       </c>
       <c r="D280" t="n">
-        <v>-1.61297280565304</v>
+        <v>-0.856868479191806</v>
       </c>
       <c r="E280" t="n">
-        <v>0.41465393258427</v>
+        <v>0.526793258426966</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0259719235335437</v>
+        <v>0.0314770360899381</v>
       </c>
       <c r="G280" t="n">
-        <v>0.38865679873967</v>
+        <v>0.336788076484165</v>
       </c>
     </row>
     <row r="281">
@@ -8205,22 +8205,22 @@
         <v>308</v>
       </c>
       <c r="B281" t="n">
-        <v>0.320275122538425</v>
+        <v>0.224819067673507</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0263800672029264</v>
+        <v>0.0248269255096133</v>
       </c>
       <c r="D281" t="n">
-        <v>0.507124675435545</v>
+        <v>0.700855245500318</v>
       </c>
       <c r="E281" t="n">
-        <v>0.178815739689746</v>
+        <v>0.196320469163829</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0046875473713286</v>
+        <v>0.0050934754765227</v>
       </c>
       <c r="G281" t="n">
-        <v>0.382883887947072</v>
+        <v>0.363531063105966</v>
       </c>
     </row>
     <row r="282">
@@ -8228,22 +8228,22 @@
         <v>309</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.911104664804509</v>
+        <v>-1.02484900590874</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0452774852861414</v>
+        <v>0.0426633036783636</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.233546239534638</v>
+        <v>-0.201542832112723</v>
       </c>
       <c r="E282" t="n">
-        <v>0.706952054794521</v>
+        <v>0.763320736891828</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00817158093271309</v>
+        <v>0.00790563698298231</v>
       </c>
       <c r="G282" t="n">
-        <v>0.127868356169847</v>
+        <v>0.116482685099426</v>
       </c>
     </row>
     <row r="283">
@@ -8251,22 +8251,22 @@
         <v>310</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.387573185070547</v>
+        <v>-0.584899124541907</v>
       </c>
       <c r="C283" t="n">
-        <v>0.163785772717194</v>
+        <v>0.20305061333627</v>
       </c>
       <c r="D283" t="n">
-        <v>-1.04420162565044</v>
+        <v>-0.770408705322032</v>
       </c>
       <c r="E283" t="n">
-        <v>0.471052460084718</v>
+        <v>0.558647768002607</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0263864392047956</v>
+        <v>0.0323730341119177</v>
       </c>
       <c r="G283" t="n">
-        <v>0.344842763883939</v>
+        <v>0.322072492666711</v>
       </c>
     </row>
     <row r="284">
@@ -8274,22 +8274,22 @@
         <v>311</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.0906704441036332</v>
+        <v>-0.151042577449067</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0485983631739291</v>
+        <v>0.0573596807655719</v>
       </c>
       <c r="D284" t="n">
-        <v>-2.43133654634296</v>
+        <v>-1.5856377430858</v>
       </c>
       <c r="E284" t="n">
-        <v>0.336</v>
+        <v>0.354832369942196</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00902592657656453</v>
+        <v>0.0115478216305256</v>
       </c>
       <c r="G284" t="n">
-        <v>0.282752608909514</v>
+        <v>0.302849458601037</v>
       </c>
     </row>
     <row r="285">
@@ -8297,22 +8297,22 @@
         <v>312</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.256297372527498</v>
+        <v>-0.474030271776681</v>
       </c>
       <c r="C285" t="n">
-        <v>0.172258082366016</v>
+        <v>0.200443199206601</v>
       </c>
       <c r="D285" t="n">
-        <v>-1.61936836209231</v>
+        <v>-0.944473084787189</v>
       </c>
       <c r="E285" t="n">
-        <v>0.414553191489362</v>
+        <v>0.510704491725768</v>
       </c>
       <c r="F285" t="n">
-        <v>0.027146660846481</v>
+        <v>0.0323249924134154</v>
       </c>
       <c r="G285" t="n">
-        <v>0.397445830813437</v>
+        <v>0.352046100589053</v>
       </c>
     </row>
     <row r="286">
@@ -8320,22 +8320,22 @@
         <v>313</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.204348194712496</v>
+        <v>-0.39357533678601</v>
       </c>
       <c r="C286" t="n">
-        <v>0.176061964422171</v>
+        <v>0.155336605129475</v>
       </c>
       <c r="D286" t="n">
-        <v>-2.05334519498628</v>
+        <v>-1.00140332477135</v>
       </c>
       <c r="E286" t="n">
-        <v>0.393846512712853</v>
+        <v>0.475540004665267</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0268397051858084</v>
+        <v>0.0258389415809422</v>
       </c>
       <c r="G286" t="n">
-        <v>0.415969862062017</v>
+        <v>0.338026152595043</v>
       </c>
     </row>
     <row r="287">
@@ -8343,22 +8343,22 @@
         <v>314</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.346305560982282</v>
+        <v>-0.541062920374976</v>
       </c>
       <c r="C287" t="n">
-        <v>0.193236404443469</v>
+        <v>0.218458168477081</v>
       </c>
       <c r="D287" t="n">
-        <v>-1.26936058377924</v>
+        <v>-0.863846089988804</v>
       </c>
       <c r="E287" t="n">
-        <v>0.457717584369449</v>
+        <v>0.541629662522202</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0311137068094593</v>
+        <v>0.0360965304396881</v>
       </c>
       <c r="G287" t="n">
-        <v>0.38537033472365</v>
+        <v>0.350776337606782</v>
       </c>
     </row>
     <row r="288">
@@ -8366,22 +8366,22 @@
         <v>315</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.237860839676193</v>
+        <v>-0.45062397567918</v>
       </c>
       <c r="C288" t="n">
-        <v>0.149444255480844</v>
+        <v>0.149976336380533</v>
       </c>
       <c r="D288" t="n">
-        <v>-1.62523686656582</v>
+        <v>-0.859403415521182</v>
       </c>
       <c r="E288" t="n">
-        <v>0.409151911917869</v>
+        <v>0.500758815652433</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0237267061762437</v>
+        <v>0.0266011652822828</v>
       </c>
       <c r="G288" t="n">
-        <v>0.376473265561326</v>
+        <v>0.325702976298927</v>
       </c>
     </row>
     <row r="289">
@@ -8389,22 +8389,22 @@
         <v>316</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.41254978670491</v>
+        <v>-0.514224216431046</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0284415487577852</v>
+        <v>0.029727006824182</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.408789991181218</v>
+        <v>-0.335291903466972</v>
       </c>
       <c r="E289" t="n">
-        <v>0.48308</v>
+        <v>0.532490625</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00470087327762891</v>
+        <v>0.00631778306011328</v>
       </c>
       <c r="G289" t="n">
-        <v>0.141928696571761</v>
+        <v>0.149269262985626</v>
       </c>
     </row>
     <row r="290">
@@ -8412,22 +8412,22 @@
         <v>317</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.538537324508252</v>
+        <v>-0.751759387627344</v>
       </c>
       <c r="C290" t="n">
-        <v>0.152416065760458</v>
+        <v>0.162295489279769</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.724935829803669</v>
+        <v>-0.535888410381166</v>
       </c>
       <c r="E290" t="n">
-        <v>0.540345849802372</v>
+        <v>0.63381093544137</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0246373598735464</v>
+        <v>0.0265958072300163</v>
       </c>
       <c r="G290" t="n">
-        <v>0.29048603817993</v>
+        <v>0.257304191070466</v>
       </c>
     </row>
     <row r="291">
@@ -8435,22 +8435,22 @@
         <v>318</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.744504606290291</v>
+        <v>-0.872245511626854</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0408193173439526</v>
+        <v>0.0462570028924117</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.271372277556409</v>
+        <v>-0.246575545058188</v>
       </c>
       <c r="E291" t="n">
-        <v>0.637428571428571</v>
+        <v>0.701389252948886</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00753154907403177</v>
+        <v>0.00858085490330128</v>
       </c>
       <c r="G291" t="n">
-        <v>0.136147800365419</v>
+        <v>0.132070606456559</v>
       </c>
     </row>
     <row r="292">
@@ -8458,22 +8458,22 @@
         <v>319</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.25648075124513</v>
+        <v>-0.426051960656064</v>
       </c>
       <c r="C292" t="n">
-        <v>0.00479057307119553</v>
+        <v>0.00602668115007177</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.269860274239393</v>
+        <v>-0.182211817183124</v>
       </c>
       <c r="E292" t="n">
-        <v>0.409593065037729</v>
+        <v>0.488013833992095</v>
       </c>
       <c r="F292" t="n">
-        <v>0.000748157542080859</v>
+        <v>0.00116583281042671</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0667796186018982</v>
+        <v>0.0699658320882926</v>
       </c>
     </row>
     <row r="293">
@@ -8481,22 +8481,22 @@
         <v>320</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.948885737875146</v>
+        <v>-1.2310701389881</v>
       </c>
       <c r="C293" t="n">
-        <v>0.0467668848638891</v>
+        <v>0.0525833697968888</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.227905760373911</v>
+        <v>-0.18626935470977</v>
       </c>
       <c r="E293" t="n">
-        <v>0.721351091912647</v>
+        <v>0.834576433885289</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00898482076333821</v>
+        <v>0.0108181042716871</v>
       </c>
       <c r="G293" t="n">
-        <v>0.131403827491655</v>
+        <v>0.12462623191334</v>
       </c>
     </row>
     <row r="294">
@@ -8504,22 +8504,22 @@
         <v>321</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.58826620070731</v>
+        <v>-1.00795125781765</v>
       </c>
       <c r="C294" t="n">
-        <v>0.039595305158231</v>
+        <v>0.0517136601549884</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.338257901947508</v>
+        <v>-0.225612473735032</v>
       </c>
       <c r="E294" t="n">
-        <v>0.566317644097659</v>
+        <v>0.757920966524037</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00800389382820573</v>
+        <v>0.0105171347019642</v>
       </c>
       <c r="G294" t="n">
-        <v>0.157975801294186</v>
+        <v>0.135308411947501</v>
       </c>
     </row>
     <row r="295">
@@ -8527,22 +8527,22 @@
         <v>322</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.355773227176393</v>
+        <v>-0.473134987914966</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0208519983110729</v>
+        <v>0.0248010709866514</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.405882734199914</v>
+        <v>-0.332851219740798</v>
       </c>
       <c r="E295" t="n">
-        <v>0.455957505901958</v>
+        <v>0.511599777808638</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00422768635580228</v>
+        <v>0.00475012899458621</v>
       </c>
       <c r="G295" t="n">
-        <v>0.142602457795085</v>
+        <v>0.134716984972899</v>
       </c>
     </row>
     <row r="296">
@@ -8550,22 +8550,22 @@
         <v>323</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.406269106914933</v>
+        <v>-0.607474466778482</v>
       </c>
       <c r="C296" t="n">
-        <v>0.197053865677497</v>
+        <v>0.168285909900602</v>
       </c>
       <c r="D296" t="n">
-        <v>-1.09264398695822</v>
+        <v>-0.675298599653293</v>
       </c>
       <c r="E296" t="n">
-        <v>0.47815503875969</v>
+        <v>0.567701550387597</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0284991686213268</v>
+        <v>0.0274724490412235</v>
       </c>
       <c r="G296" t="n">
-        <v>0.353059058522454</v>
+        <v>0.291963531405061</v>
       </c>
     </row>
     <row r="297">
@@ -8573,22 +8573,22 @@
         <v>324</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.686533764136518</v>
+        <v>-0.837274511306698</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0445332058238241</v>
+        <v>0.0396025437500063</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.307383165686547</v>
+        <v>-0.237680564789298</v>
       </c>
       <c r="E297" t="n">
-        <v>0.611338322311173</v>
+        <v>0.686447963800905</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00843439799680863</v>
+        <v>0.00713487492011574</v>
       </c>
       <c r="G297" t="n">
-        <v>0.150226110949963</v>
+        <v>0.123051117142218</v>
       </c>
     </row>
     <row r="298">
@@ -8596,22 +8596,22 @@
         <v>325</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.06653061288595</v>
+        <v>-1.21279971867853</v>
       </c>
       <c r="C298" t="n">
-        <v>0.049983618621542</v>
+        <v>0.0510437966228844</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.209623767168283</v>
+        <v>-0.186286934996062</v>
       </c>
       <c r="E298" t="n">
-        <v>0.766983679525223</v>
+        <v>0.829508902077151</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00950302413374248</v>
+        <v>0.01033082817809</v>
       </c>
       <c r="G298" t="n">
-        <v>0.127099778384851</v>
+        <v>0.122531152412708</v>
       </c>
     </row>
     <row r="299">
@@ -8619,22 +8619,22 @@
         <v>326</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.660616194062494</v>
+        <v>-0.777151721791461</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0431625290970341</v>
+        <v>0.0497141029031243</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.314488107069454</v>
+        <v>-0.286902273627677</v>
       </c>
       <c r="E299" t="n">
-        <v>0.598427843803056</v>
+        <v>0.657376910016978</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0085934268939038</v>
+        <v>0.0100351844042592</v>
       </c>
       <c r="G299" t="n">
-        <v>0.154907127613765</v>
+        <v>0.152387110078981</v>
       </c>
     </row>
     <row r="300">
@@ -8642,22 +8642,22 @@
         <v>327</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.558889991533726</v>
+        <v>-0.838904765879992</v>
       </c>
       <c r="C300" t="n">
-        <v>0.194477277106637</v>
+        <v>0.207483572219702</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.789056497150846</v>
+        <v>-0.542974203145712</v>
       </c>
       <c r="E300" t="n">
-        <v>0.546450790413055</v>
+        <v>0.664553799082101</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0302640700344635</v>
+        <v>0.0295509034016457</v>
       </c>
       <c r="G300" t="n">
-        <v>0.318355683922791</v>
+        <v>0.258675463554689</v>
       </c>
     </row>
     <row r="301">
@@ -8665,22 +8665,22 @@
         <v>328</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.496772540929706</v>
+        <v>-0.780329588173028</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0423990729407959</v>
+        <v>0.059318544501466</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.414496242733805</v>
+        <v>-0.312116816436015</v>
       </c>
       <c r="E301" t="n">
-        <v>0.523588984979518</v>
+        <v>0.660614474283113</v>
       </c>
       <c r="F301" t="n">
-        <v>0.00783498290278318</v>
+        <v>0.0110014318920119</v>
       </c>
       <c r="G301" t="n">
-        <v>0.169055196578548</v>
+        <v>0.158772952993545</v>
       </c>
     </row>
     <row r="302">
@@ -8688,22 +8688,22 @@
         <v>329</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.525677270136313</v>
+        <v>-0.735761955731609</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0441931378014711</v>
+        <v>0.0387533601228793</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.399906276437196</v>
+        <v>-0.26755763851664</v>
       </c>
       <c r="E302" t="n">
-        <v>0.536216077828981</v>
+        <v>0.638609831029186</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00791060721298964</v>
+        <v>0.00804812503110081</v>
       </c>
       <c r="G302" t="n">
-        <v>0.165868943639468</v>
+        <v>0.140479113324004</v>
       </c>
     </row>
     <row r="303">
@@ -8711,22 +8711,22 @@
         <v>330</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.282402213229234</v>
+        <v>-0.36425442143032</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0503091606452868</v>
+        <v>0.0524885151702453</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.794246737923008</v>
+        <v>-0.62896620588489</v>
       </c>
       <c r="E303" t="n">
-        <v>0.421901369739847</v>
+        <v>0.457942258889577</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00988498797147545</v>
+        <v>0.0108911207429879</v>
       </c>
       <c r="G303" t="n">
-        <v>0.235655259594179</v>
+        <v>0.227890155299756</v>
       </c>
     </row>
     <row r="304">
@@ -8734,22 +8734,22 @@
         <v>331</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.343085000169528</v>
+        <v>-0.581752177791371</v>
       </c>
       <c r="C304" t="n">
-        <v>0.169034451078107</v>
+        <v>0.179438165515033</v>
       </c>
       <c r="D304" t="n">
-        <v>-1.19835607786344</v>
+        <v>-0.728147549951822</v>
       </c>
       <c r="E304" t="n">
-        <v>0.454537010976639</v>
+        <v>0.56147762454264</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0278096556170962</v>
+        <v>0.0278665537708151</v>
       </c>
       <c r="G304" t="n">
-        <v>0.36688381525793</v>
+        <v>0.297309767827944</v>
       </c>
     </row>
     <row r="305">
@@ -8757,22 +8757,22 @@
         <v>332</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.513259493661486</v>
+        <v>-0.797343493074995</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0483016371330912</v>
+        <v>0.0561623940157471</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.428197309640994</v>
+        <v>-0.297219535837207</v>
       </c>
       <c r="E305" t="n">
-        <v>0.530580474934037</v>
+        <v>0.667874104787034</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00843933313757413</v>
+        <v>0.0107949907925925</v>
       </c>
       <c r="G305" t="n">
-        <v>0.173142148061425</v>
+        <v>0.155566661970949</v>
       </c>
     </row>
     <row r="306">
@@ -8780,22 +8780,22 @@
         <v>333</v>
       </c>
       <c r="B306" t="n">
-        <v>0.0345809716874586</v>
+        <v>-0.0698746861945013</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0132777775243388</v>
+        <v>0.0148570680843216</v>
       </c>
       <c r="D306" t="n">
-        <v>3.33215735110081</v>
+        <v>-1.74440244327525</v>
       </c>
       <c r="E306" t="n">
-        <v>0.28977204156889</v>
+        <v>0.322726282266175</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00227987633319872</v>
+        <v>0.00293483438063908</v>
       </c>
       <c r="G306" t="n">
-        <v>0.164777976201909</v>
+        <v>0.16786395994612</v>
       </c>
     </row>
     <row r="307">
@@ -8803,22 +8803,22 @@
         <v>334</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.482776217417798</v>
+        <v>-0.734234762191203</v>
       </c>
       <c r="C307" t="n">
-        <v>0.154526268831293</v>
+        <v>0.221752826012817</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.814245358256052</v>
+        <v>-0.641356704949579</v>
       </c>
       <c r="E307" t="n">
-        <v>0.515747826086956</v>
+        <v>0.626808695652174</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0256153166101239</v>
+        <v>0.0330859518110481</v>
       </c>
       <c r="G307" t="n">
-        <v>0.310321923145468</v>
+        <v>0.290192914099739</v>
       </c>
     </row>
     <row r="308">
@@ -8826,22 +8826,22 @@
         <v>335</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.502520530276005</v>
+        <v>-0.610807909521936</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0420205932722637</v>
+        <v>0.0436675668685247</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.407922142980319</v>
+        <v>-0.342117149423083</v>
       </c>
       <c r="E308" t="n">
-        <v>0.52595191682911</v>
+        <v>0.580204678362573</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00813550397315456</v>
+        <v>0.00853981291932814</v>
       </c>
       <c r="G308" t="n">
-        <v>0.171492917396074</v>
+        <v>0.159273290356629</v>
       </c>
     </row>
     <row r="309">
@@ -8849,22 +8849,22 @@
         <v>336</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.885937723297776</v>
+        <v>-1.0321619826827</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0430099875542908</v>
+        <v>0.0418360238624192</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.234089246696622</v>
+        <v>-0.198165178234097</v>
       </c>
       <c r="E309" t="n">
-        <v>0.696613007083065</v>
+        <v>0.763198111182657</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00818945068208598</v>
+        <v>0.00799859160747067</v>
       </c>
       <c r="G309" t="n">
-        <v>0.129907973079787</v>
+        <v>0.117184312027804</v>
       </c>
     </row>
     <row r="310">
@@ -8872,22 +8872,22 @@
         <v>337</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.612634703640857</v>
+        <v>-0.853223859508289</v>
       </c>
       <c r="C310" t="n">
-        <v>0.183672895195494</v>
+        <v>0.204492180236222</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.699553512285477</v>
+        <v>-0.529999379444095</v>
       </c>
       <c r="E310" t="n">
-        <v>0.568994497248624</v>
+        <v>0.671278139069535</v>
       </c>
       <c r="F310" t="n">
-        <v>0.027548384595124</v>
+        <v>0.0311813236968659</v>
       </c>
       <c r="G310" t="n">
-        <v>0.291702400025096</v>
+        <v>0.263053915005525</v>
       </c>
     </row>
     <row r="311">
@@ -8895,22 +8895,22 @@
         <v>338</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.701082228086093</v>
+        <v>-1.02415638623278</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0323519386156497</v>
+        <v>0.0445462007953749</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.256555421608317</v>
+        <v>-0.206081524182709</v>
       </c>
       <c r="E311" t="n">
-        <v>0.617885499373172</v>
+        <v>0.76408692018387</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00571932925151346</v>
+        <v>0.00768271697608762</v>
       </c>
       <c r="G311" t="n">
-        <v>0.122395245047638</v>
+        <v>0.114713532018065</v>
       </c>
     </row>
     <row r="312">
@@ -8918,22 +8918,22 @@
         <v>339</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.916683251066608</v>
+        <v>-0.981873433390189</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0566240855747412</v>
+        <v>0.038444800678355</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.259586022780981</v>
+        <v>-0.19969320961867</v>
       </c>
       <c r="E312" t="n">
-        <v>0.708311795435799</v>
+        <v>0.742738520758867</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0104374772497161</v>
+        <v>0.00647026308208134</v>
       </c>
       <c r="G312" t="n">
-        <v>0.144235876099884</v>
+        <v>0.108299143356661</v>
       </c>
     </row>
     <row r="313">
@@ -8941,22 +8941,22 @@
         <v>340</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.527871126808943</v>
+        <v>-0.824612969961535</v>
       </c>
       <c r="C313" t="n">
-        <v>0.174840215904323</v>
+        <v>0.211288107729937</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.792123247314236</v>
+        <v>-0.557426184635811</v>
       </c>
       <c r="E313" t="n">
-        <v>0.537867593269934</v>
+        <v>0.66272860277981</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0273714246772737</v>
+        <v>0.0295312795477204</v>
       </c>
       <c r="G313" t="n">
-        <v>0.30759078666863</v>
+        <v>0.25930173197781</v>
       </c>
     </row>
     <row r="314">
@@ -8964,22 +8964,22 @@
         <v>341</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.948782674586485</v>
+        <v>-1.18559236115179</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0342271183354353</v>
+        <v>0.0463009249840642</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.194992731315368</v>
+        <v>-0.181492816870442</v>
       </c>
       <c r="E314" t="n">
-        <v>0.720318409041513</v>
+        <v>0.814646815909585</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00664583813967518</v>
+        <v>0.00830182003176454</v>
       </c>
       <c r="G314" t="n">
-        <v>0.113174964198474</v>
+        <v>0.11184518516061</v>
       </c>
     </row>
     <row r="315">
@@ -8987,22 +8987,22 @@
         <v>342</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.985582905857219</v>
+        <v>-1.27654685104444</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0334648734976713</v>
+        <v>0.0397896808239762</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.185610025935619</v>
+        <v>-0.156260233547252</v>
       </c>
       <c r="E315" t="n">
-        <v>0.734885394961167</v>
+        <v>0.842805455578708</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0063189551719848</v>
+        <v>0.00693794949508288</v>
       </c>
       <c r="G315" t="n">
-        <v>0.10816905133166</v>
+        <v>0.0988298710808457</v>
       </c>
     </row>
     <row r="316">
@@ -9010,22 +9010,22 @@
         <v>343</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.491312469448176</v>
+        <v>-0.710322632106946</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0052481373434447</v>
+        <v>0.0126900105619755</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.147450011029948</v>
+        <v>-0.158589832170503</v>
       </c>
       <c r="E316" t="n">
-        <v>0.520201111405134</v>
+        <v>0.630161418364647</v>
       </c>
       <c r="F316" t="n">
-        <v>0.000923408520922076</v>
+        <v>0.00250845680943362</v>
       </c>
       <c r="G316" t="n">
-        <v>0.0584151724532907</v>
+        <v>0.0794788370690695</v>
       </c>
     </row>
     <row r="317">
@@ -9033,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.407268453747452</v>
+        <v>-0.682148009093238</v>
       </c>
       <c r="C317" t="n">
-        <v>0.166005312943041</v>
+        <v>0.165625870853489</v>
       </c>
       <c r="D317" t="n">
-        <v>-1.00041506284369</v>
+        <v>-0.596603053000411</v>
       </c>
       <c r="E317" t="n">
-        <v>0.4801365001365</v>
+        <v>0.597226317226317</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0259455522308102</v>
+        <v>0.0273421671609067</v>
       </c>
       <c r="G317" t="n">
-        <v>0.335480079250507</v>
+        <v>0.276871038745706</v>
       </c>
     </row>
     <row r="318">
@@ -9056,22 +9056,22 @@
         <v>345</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.590417118412203</v>
+        <v>-0.6913187172444</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0453851535342356</v>
+        <v>0.0407487009030648</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.36082611610706</v>
+        <v>-0.291997120292801</v>
       </c>
       <c r="E318" t="n">
-        <v>0.567240601503759</v>
+        <v>0.61693984962406</v>
       </c>
       <c r="F318" t="n">
-        <v>0.00833467082480638</v>
+        <v>0.0069750498750636</v>
       </c>
       <c r="G318" t="n">
-        <v>0.160944788021323</v>
+        <v>0.135372620340547</v>
       </c>
     </row>
     <row r="319">
@@ -9079,22 +9079,22 @@
         <v>346</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.494420036312588</v>
+        <v>-0.702047097894347</v>
       </c>
       <c r="C319" t="n">
-        <v>0.159882039928815</v>
+        <v>0.167263659856957</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.80873041818088</v>
+        <v>-0.582551800952385</v>
       </c>
       <c r="E319" t="n">
-        <v>0.51728515625</v>
+        <v>0.610286458333333</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0251711842481825</v>
+        <v>0.0266153613819546</v>
       </c>
       <c r="G319" t="n">
-        <v>0.306705672295278</v>
+        <v>0.267320614141391</v>
       </c>
     </row>
     <row r="320">
@@ -9102,22 +9102,22 @@
         <v>347</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.19667797327754</v>
+        <v>-1.32276442630918</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0396679853478792</v>
+        <v>0.0317306138429641</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.166434277416004</v>
+        <v>-0.134665618529138</v>
       </c>
       <c r="E320" t="n">
-        <v>0.810960346964064</v>
+        <v>0.859340148698885</v>
       </c>
       <c r="F320" t="n">
-        <v>0.00755674095699187</v>
+        <v>0.00553996306462659</v>
       </c>
       <c r="G320" t="n">
-        <v>0.107193301749629</v>
+        <v>0.0866140471364797</v>
       </c>
     </row>
     <row r="321">
@@ -9125,22 +9125,22 @@
         <v>348</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.00557388995785</v>
+        <v>-1.25755145272165</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0520259914715298</v>
+        <v>0.0437053423451337</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.226827755025632</v>
+        <v>-0.166242285126366</v>
       </c>
       <c r="E321" t="n">
-        <v>0.740269709543569</v>
+        <v>0.833278008298755</v>
       </c>
       <c r="F321" t="n">
-        <v>0.00949789848246415</v>
+        <v>0.00875381777500388</v>
       </c>
       <c r="G321" t="n">
-        <v>0.13165088485712</v>
+        <v>0.112281661555744</v>
       </c>
     </row>
     <row r="322">
@@ -9148,22 +9148,22 @@
         <v>349</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.772114697418756</v>
+        <v>-0.915607638712408</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0478965528343458</v>
+        <v>0.0411889843548232</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.283445984931249</v>
+        <v>-0.221656838379976</v>
       </c>
       <c r="E322" t="n">
-        <v>0.649077828646174</v>
+        <v>0.71978417266187</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00897070852936534</v>
+        <v>0.00820497875689579</v>
       </c>
       <c r="G322" t="n">
-        <v>0.145920597197319</v>
+        <v>0.125845136967824</v>
       </c>
     </row>
     <row r="323">
@@ -9171,22 +9171,22 @@
         <v>350</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.60539625695817</v>
+        <v>-0.818345551923117</v>
       </c>
       <c r="C323" t="n">
-        <v>0.184901790661556</v>
+        <v>0.19238225405124</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.71028202969096</v>
+        <v>-0.535976536869583</v>
       </c>
       <c r="E323" t="n">
-        <v>0.567931972789116</v>
+        <v>0.662095238095238</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0295494064704521</v>
+        <v>0.0289763804900736</v>
       </c>
       <c r="G323" t="n">
-        <v>0.302676053181042</v>
+        <v>0.257099719903669</v>
       </c>
     </row>
     <row r="324">
@@ -9194,22 +9194,22 @@
         <v>351</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.206191296535953</v>
+        <v>-0.469170099901908</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0406189988988746</v>
+        <v>0.0481214122463114</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.977449386292615</v>
+        <v>-0.467561620675924</v>
       </c>
       <c r="E324" t="n">
-        <v>0.390933488914819</v>
+        <v>0.510842473745624</v>
       </c>
       <c r="F324" t="n">
-        <v>0.00736205688264264</v>
+        <v>0.00708949422655624</v>
       </c>
       <c r="G324" t="n">
-        <v>0.219480888142414</v>
+        <v>0.164824067466736</v>
       </c>
     </row>
     <row r="325">
@@ -9217,22 +9217,22 @@
         <v>352</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.531439199374676</v>
+        <v>-0.828833353461855</v>
       </c>
       <c r="C325" t="n">
-        <v>0.19922569105604</v>
+        <v>0.178736621781286</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.839883570461924</v>
+        <v>-0.51008147736478</v>
       </c>
       <c r="E325" t="n">
-        <v>0.537035681610247</v>
+        <v>0.668440073193047</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0308095801505296</v>
+        <v>0.0255720479272573</v>
       </c>
       <c r="G325" t="n">
-        <v>0.326843421439689</v>
+        <v>0.239232554014644</v>
       </c>
     </row>
     <row r="326">
@@ -9240,22 +9240,22 @@
         <v>353</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.509169857184683</v>
+        <v>-0.755540446297393</v>
       </c>
       <c r="C326" t="n">
-        <v>0.127917446567369</v>
+        <v>0.161719026929562</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.702428631262304</v>
+        <v>-0.532258788846798</v>
       </c>
       <c r="E326" t="n">
-        <v>0.527387283236994</v>
+        <v>0.633684971098266</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0209102012760199</v>
+        <v>0.0270502242471349</v>
       </c>
       <c r="G326" t="n">
-        <v>0.274188637251766</v>
+        <v>0.259544618012455</v>
       </c>
     </row>
     <row r="327">
@@ -9263,22 +9263,22 @@
         <v>354</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.142664991566075</v>
+        <v>-0.241631597613263</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0263083825186712</v>
+        <v>0.0255414570859884</v>
       </c>
       <c r="D327" t="n">
-        <v>-1.13691935193767</v>
+        <v>-0.661407490826908</v>
       </c>
       <c r="E327" t="n">
-        <v>0.361300405170751</v>
+        <v>0.401464402855489</v>
       </c>
       <c r="F327" t="n">
-        <v>0.0048013367160163</v>
+        <v>0.00484722814705863</v>
       </c>
       <c r="G327" t="n">
-        <v>0.191784115258257</v>
+        <v>0.173420201896288</v>
       </c>
     </row>
     <row r="328">
@@ -9286,22 +9286,22 @@
         <v>355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.516110855710879</v>
+        <v>0.511392341283277</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0374548366716212</v>
+        <v>0.0623076361612176</v>
       </c>
       <c r="D328" t="n">
-        <v>0.374982465152495</v>
+        <v>0.48810855322714</v>
       </c>
       <c r="E328" t="n">
-        <v>0.132586316458377</v>
+        <v>0.122931582291887</v>
       </c>
       <c r="F328" t="n">
-        <v>0.00729671974091165</v>
+        <v>0.0120568757810593</v>
       </c>
       <c r="G328" t="n">
-        <v>0.644265873837015</v>
+        <v>0.893210709661267</v>
       </c>
     </row>
     <row r="329">
@@ -9309,22 +9309,22 @@
         <v>356</v>
       </c>
       <c r="B329" t="n">
-        <v>0.30136754163461</v>
+        <v>0.0518899591472839</v>
       </c>
       <c r="C329" t="n">
-        <v>0.00317791508354685</v>
+        <v>0.00362210440240018</v>
       </c>
       <c r="D329" t="n">
-        <v>0.187057303155767</v>
+        <v>1.15983751866095</v>
       </c>
       <c r="E329" t="n">
-        <v>0.183399098083427</v>
+        <v>0.260509131905299</v>
       </c>
       <c r="F329" t="n">
-        <v>0.000455539454623657</v>
+        <v>0.000656922235150597</v>
       </c>
       <c r="G329" t="n">
-        <v>0.116376637051956</v>
+        <v>0.0983861642612787</v>
       </c>
     </row>
     <row r="330">
@@ -9332,22 +9332,22 @@
         <v>357</v>
       </c>
       <c r="B330" t="n">
-        <v>0.178980492870699</v>
+        <v>-0.00220884032495481</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0377872088891635</v>
+        <v>0.0470165675059593</v>
       </c>
       <c r="D330" t="n">
-        <v>1.08609223197203</v>
+        <v>-98.166009635743</v>
       </c>
       <c r="E330" t="n">
-        <v>0.230765957446809</v>
+        <v>0.29048632218845</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0070396552097634</v>
+        <v>0.00823825675150821</v>
       </c>
       <c r="G330" t="n">
-        <v>0.363583320967503</v>
+        <v>0.312458233707008</v>
       </c>
     </row>
     <row r="331">
@@ -9355,22 +9355,22 @@
         <v>358</v>
       </c>
       <c r="B331" t="n">
-        <v>0.0754567265495116</v>
+        <v>-0.0560615584778685</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0363439939042174</v>
+        <v>0.0423498994923768</v>
       </c>
       <c r="D331" t="n">
-        <v>2.52649454391576</v>
+        <v>-3.67080255458027</v>
       </c>
       <c r="E331" t="n">
-        <v>0.279849517031012</v>
+        <v>0.326977122521607</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00606653073437184</v>
+        <v>0.00783443943518487</v>
       </c>
       <c r="G331" t="n">
-        <v>0.278320784161615</v>
+        <v>0.270698965552622</v>
       </c>
     </row>
     <row r="332">
@@ -9378,22 +9378,22 @@
         <v>359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.491088017161327</v>
+        <v>0.283011417897528</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0227520139857555</v>
+        <v>0.0296928653628766</v>
       </c>
       <c r="D332" t="n">
-        <v>0.307150046771453</v>
+        <v>0.60886652471905</v>
       </c>
       <c r="E332" t="n">
-        <v>0.136439340813464</v>
+        <v>0.185541725105189</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00402738985166287</v>
+        <v>0.00594324121043229</v>
       </c>
       <c r="G332" t="n">
-        <v>0.465127720484288</v>
+        <v>0.415499100726775</v>
       </c>
     </row>
     <row r="333">
@@ -9401,22 +9401,22 @@
         <v>360</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.318474517726293</v>
+        <v>-0.505881301207785</v>
       </c>
       <c r="C333" t="n">
-        <v>0.04090236605648</v>
+        <v>0.0330239559786886</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.635037726782736</v>
+        <v>-0.359224477186776</v>
       </c>
       <c r="E333" t="n">
-        <v>0.439439612657768</v>
+        <v>0.528447536652223</v>
       </c>
       <c r="F333" t="n">
-        <v>0.007689242728872</v>
+        <v>0.00618022671850145</v>
       </c>
       <c r="G333" t="n">
-        <v>0.199545795791058</v>
+        <v>0.148764849022736</v>
       </c>
     </row>
     <row r="334">
@@ -9424,22 +9424,22 @@
         <v>361</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.757195688649102</v>
+        <v>-0.912742799874418</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0432156967270403</v>
+        <v>0.04027838576375</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.274544423656578</v>
+        <v>-0.219880954104894</v>
       </c>
       <c r="E334" t="n">
-        <v>0.640153563678852</v>
+        <v>0.71096478050409</v>
       </c>
       <c r="F334" t="n">
-        <v>0.0078027509900025</v>
+        <v>0.00738347748925452</v>
       </c>
       <c r="G334" t="n">
-        <v>0.137987487247046</v>
+        <v>0.120859944427094</v>
       </c>
     </row>
     <row r="335">
@@ -9447,22 +9447,22 @@
         <v>362</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.66048006735588</v>
+        <v>-1.01681984144341</v>
       </c>
       <c r="C335" t="n">
-        <v>0.13975416135151</v>
+        <v>0.171289530332469</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.566008116061842</v>
+        <v>-0.407025292584867</v>
       </c>
       <c r="E335" t="n">
-        <v>0.592886439101116</v>
+        <v>0.745112383267956</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0225059294961826</v>
+        <v>0.0233100286481821</v>
       </c>
       <c r="G335" t="n">
-        <v>0.25303288082067</v>
+        <v>0.204903615949125</v>
       </c>
     </row>
     <row r="336">
@@ -9470,22 +9470,22 @@
         <v>363</v>
       </c>
       <c r="B336" t="n">
-        <v>0.145737759056305</v>
+        <v>-0.0467183177199107</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0396727444558397</v>
+        <v>0.0423551744334577</v>
       </c>
       <c r="D336" t="n">
-        <v>1.36670264570335</v>
+        <v>-4.40520416793535</v>
       </c>
       <c r="E336" t="n">
-        <v>0.242369526606968</v>
+        <v>0.310526712285138</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00781263688111648</v>
+        <v>0.00775498179006574</v>
       </c>
       <c r="G336" t="n">
-        <v>0.364687439047509</v>
+        <v>0.283590335211144</v>
       </c>
     </row>
     <row r="337">
@@ -9493,22 +9493,22 @@
         <v>364</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.435787415752714</v>
+        <v>-0.673813281989428</v>
       </c>
       <c r="C337" t="n">
-        <v>0.17757873873302</v>
+        <v>0.179078319838866</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.966987362988207</v>
+        <v>-0.628032239041201</v>
       </c>
       <c r="E337" t="n">
-        <v>0.499212513484358</v>
+        <v>0.601614527148508</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0286479110304539</v>
+        <v>0.0270152026013578</v>
       </c>
       <c r="G337" t="n">
-        <v>0.339047867065668</v>
+        <v>0.273203211304405</v>
       </c>
     </row>
     <row r="338">
@@ -9516,22 +9516,22 @@
         <v>365</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.810028806603872</v>
+        <v>-0.961076855924191</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0404837428502905</v>
+        <v>0.0381172605890483</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.248393293012853</v>
+        <v>-0.203143402203153</v>
       </c>
       <c r="E338" t="n">
-        <v>0.664111951235911</v>
+        <v>0.735122718295229</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00822386323476814</v>
+        <v>0.00667000359617201</v>
       </c>
       <c r="G338" t="n">
-        <v>0.136551553034341</v>
+        <v>0.111097219471379</v>
       </c>
     </row>
     <row r="339">
@@ -9539,22 +9539,22 @@
         <v>366</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0968196228495437</v>
+        <v>0.0194145553417212</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0395969896706517</v>
+        <v>0.0417591699315908</v>
       </c>
       <c r="D339" t="n">
-        <v>2.05526439459201</v>
+        <v>10.5256392337373</v>
       </c>
       <c r="E339" t="n">
-        <v>0.269070715129649</v>
+        <v>0.293077477606326</v>
       </c>
       <c r="F339" t="n">
-        <v>0.00716500897995607</v>
+        <v>0.00810890167760385</v>
       </c>
       <c r="G339" t="n">
-        <v>0.314587843639608</v>
+        <v>0.307254726362162</v>
       </c>
     </row>
     <row r="340">
@@ -9562,22 +9562,22 @@
         <v>367</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.06390166232553</v>
+        <v>-1.34713831350575</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0434772623824263</v>
+        <v>0.0550902715419183</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.195988057110001</v>
+        <v>-0.174230935536327</v>
       </c>
       <c r="E340" t="n">
-        <v>0.762231821454284</v>
+        <v>0.860791936645068</v>
       </c>
       <c r="F340" t="n">
-        <v>0.00813121468913156</v>
+        <v>0.0108621542273162</v>
       </c>
       <c r="G340" t="n">
-        <v>0.118301605432761</v>
+        <v>0.121076481634627</v>
       </c>
     </row>
     <row r="341">
@@ -9585,22 +9585,22 @@
         <v>368</v>
       </c>
       <c r="B341" t="n">
-        <v>0.281668887250034</v>
+        <v>0.103623963237679</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0411401259188163</v>
+        <v>0.0464253735438482</v>
       </c>
       <c r="D341" t="n">
-        <v>0.720101855924904</v>
+        <v>2.07930168238791</v>
       </c>
       <c r="E341" t="n">
-        <v>0.201167419792416</v>
+        <v>0.257046446203679</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00739007613378401</v>
+        <v>0.00869657433799466</v>
       </c>
       <c r="G341" t="n">
-        <v>0.427333372903277</v>
+        <v>0.36279601069872</v>
       </c>
     </row>
   </sheetData>

--- a/data/emdi_results.xlsx
+++ b/data/emdi_results.xlsx
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2708005</v>
+        <v>2724105</v>
       </c>
     </row>
     <row r="9">
@@ -1653,13 +1653,13 @@
         <v>3072.75</v>
       </c>
       <c r="F13" t="n">
-        <v>4340.5</v>
+        <v>4374</v>
       </c>
       <c r="G13" t="n">
-        <v>7964.72058823529</v>
+        <v>8012.07352941176</v>
       </c>
       <c r="H13" t="n">
-        <v>6886.25</v>
+        <v>7094.75</v>
       </c>
       <c r="I13" t="n">
         <v>239753</v>
@@ -1687,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.680947806695327</v>
+        <v>-0.737503706254742</v>
       </c>
       <c r="E16" t="n">
-        <v>6.38498929225834</v>
+        <v>6.36146272910254</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1700,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.259297910232491</v>
+        <v>0.301866279536378</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0317899528752</v>
+        <v>2.92484964431523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.993166473217248</v>
+        <v>0.992457716479222</v>
       </c>
       <c r="G17" t="n">
-        <v>0.305891238160633</v>
+        <v>0.230507920467718</v>
       </c>
     </row>
     <row r="19">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.184214595326583</v>
+        <v>0.226062138500008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.372715063061257</v>
+        <v>0.391563114797249</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197235276375694</v>
+        <v>0.258308898118984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0528868901029511</v>
+        <v>0.0518201620569012</v>
       </c>
       <c r="D2" t="n">
-        <v>1.16597549223296</v>
+        <v>0.881272090815911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.221431236058475</v>
+        <v>0.199013838207416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00963699932973239</v>
+        <v>0.0104329470201879</v>
       </c>
       <c r="G2" t="n">
-        <v>0.443335011347105</v>
+        <v>0.513239679787398</v>
       </c>
     </row>
     <row r="3">
@@ -1811,22 +1811,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.442051068007048</v>
+        <v>-0.274301804590769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0440618448550245</v>
+        <v>0.0788159340049285</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4748526809465</v>
+        <v>-1.02347761513183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.497065026362039</v>
+        <v>0.415285402071342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00901770539207763</v>
+        <v>0.0156278248536701</v>
       </c>
       <c r="G3" t="n">
-        <v>0.191044620983938</v>
+        <v>0.301025025874961</v>
       </c>
     </row>
     <row r="4">
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.462402631365162</v>
+        <v>-0.269012468993182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0386584478149672</v>
+        <v>0.0700316254499612</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.425208472476129</v>
+        <v>-0.983727229561337</v>
       </c>
       <c r="E4" t="n">
-        <v>0.507057846601231</v>
+        <v>0.412279636740178</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00737965732774251</v>
+        <v>0.0141144318308023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.169418405598629</v>
+        <v>0.288164060777026</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.322697700633263</v>
+        <v>-0.551182797818879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.026012518700728</v>
+        <v>0.0257667055966249</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.499798941303084</v>
+        <v>-0.291228445931753</v>
       </c>
       <c r="E5" t="n">
-        <v>0.436149235316324</v>
+        <v>0.551493452662168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00507731299398774</v>
+        <v>0.00456171628907863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.163373590184476</v>
+        <v>0.122468324087696</v>
       </c>
     </row>
     <row r="6">
@@ -1880,22 +1880,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.51843712852349</v>
+        <v>-0.880234274474808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184350390122905</v>
+        <v>0.176406587086435</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.828182279981806</v>
+        <v>-0.477154609716781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.533071608729027</v>
+        <v>0.692496662216288</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0303892117212979</v>
+        <v>0.0273500771184009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.327019887442646</v>
+        <v>0.23881499545925</v>
       </c>
     </row>
     <row r="7">
@@ -1903,22 +1903,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.161797871761884</v>
+        <v>-0.310315144247751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0349328512953753</v>
+        <v>0.04489597150452</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.15516550794288</v>
+        <v>-0.682811325505175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.360246075126023</v>
+        <v>0.431889955058909</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00744682522976914</v>
+        <v>0.00993275719284318</v>
       </c>
       <c r="G7" t="n">
-        <v>0.239544565664186</v>
+        <v>0.230760678013289</v>
       </c>
     </row>
     <row r="8">
@@ -1926,22 +1926,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.640094409593741</v>
+        <v>-0.829050145673491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17799093689899</v>
+        <v>0.16968145153326</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.659105461522205</v>
+        <v>-0.496862688972627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.589489924433249</v>
+        <v>0.668313280083842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0274274695684812</v>
+        <v>0.0236552499099811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280941880069951</v>
+        <v>0.230135533077399</v>
       </c>
     </row>
     <row r="9">
@@ -1949,22 +1949,22 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.273078399874435</v>
+        <v>-0.195614490188909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0384307753553738</v>
+        <v>0.0725501917452951</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.717880611207945</v>
+        <v>-1.37695028472644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.414235506830727</v>
+        <v>0.378269821062576</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00747595838096648</v>
+        <v>0.014204962022563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.20873059693282</v>
+        <v>0.31507819182874</v>
       </c>
     </row>
     <row r="10">
@@ -1972,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00995155564790975</v>
+        <v>-0.278562547999467</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0383962713951622</v>
+        <v>0.0450299049836191</v>
       </c>
       <c r="D10" t="n">
-        <v>-19.6903551963169</v>
+        <v>-0.761776882411493</v>
       </c>
       <c r="E10" t="n">
-        <v>0.293628273582507</v>
+        <v>0.416145818783296</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00829089924872429</v>
+        <v>0.00613550445314768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.310100843219736</v>
+        <v>0.18822599535365</v>
       </c>
     </row>
     <row r="11">
@@ -1995,22 +1995,22 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.392483638023347</v>
+        <v>-0.638405677033733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0104569603872412</v>
+        <v>0.01385656670011</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.260544059151297</v>
+        <v>-0.184387331007979</v>
       </c>
       <c r="E11" t="n">
-        <v>0.471311617151278</v>
+        <v>0.595056795457364</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00195415678624219</v>
+        <v>0.00278046259633171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0937932442209976</v>
+        <v>0.0886135446997267</v>
       </c>
     </row>
     <row r="12">
@@ -2018,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.733420614144324</v>
+        <v>-0.759328847578295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0395779254402565</v>
+        <v>0.0403574914015973</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.27125228202582</v>
+        <v>-0.264564873495703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.638885615842963</v>
+        <v>0.649062714786616</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00827259925526962</v>
+        <v>0.00773687008371518</v>
       </c>
       <c r="G12" t="n">
-        <v>0.142363246399944</v>
+        <v>0.135517690015558</v>
       </c>
     </row>
     <row r="13">
@@ -2041,22 +2041,22 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.00869412666746249</v>
+        <v>-0.244840155691407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00489589956155059</v>
+        <v>0.0292309180060375</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.0480429720247</v>
+        <v>-0.698294434020385</v>
       </c>
       <c r="E13" t="n">
-        <v>0.301566782117091</v>
+        <v>0.406047926144327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000924806837869752</v>
+        <v>0.005209529640953</v>
       </c>
       <c r="G13" t="n">
-        <v>0.100842130908247</v>
+        <v>0.177755054977138</v>
       </c>
     </row>
     <row r="14">
@@ -2064,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.727680743425342</v>
+        <v>-0.610654212341631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0579581450098609</v>
+        <v>0.0836008966667721</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.330838738519392</v>
+        <v>-0.47348923603845</v>
       </c>
       <c r="E14" t="n">
-        <v>0.635409693544882</v>
+        <v>0.578747889367458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0109502307409713</v>
+        <v>0.0162636374578852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.164686423991563</v>
+        <v>0.220353230612891</v>
       </c>
     </row>
     <row r="15">
@@ -2087,22 +2087,22 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0355819545075199</v>
+        <v>-0.0781361238303751</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0252783159208257</v>
+        <v>0.0266345388147584</v>
       </c>
       <c r="D15" t="n">
-        <v>4.4683200087226</v>
+        <v>-2.08867432223942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.276223366733855</v>
+        <v>0.326067590203685</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00531282083461487</v>
+        <v>0.00533869184685592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.263877384529412</v>
+        <v>0.224083455556047</v>
       </c>
     </row>
     <row r="16">
@@ -2110,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.527399599752346</v>
+        <v>-0.98030759102442</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229556582302867</v>
+        <v>0.215143661822835</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.908458471754196</v>
+        <v>-0.473153342562672</v>
       </c>
       <c r="E16" t="n">
-        <v>0.534854576561163</v>
+        <v>0.72768924221825</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0375434168866227</v>
+        <v>0.0293608470174495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.362269007861361</v>
+        <v>0.235471491951246</v>
       </c>
     </row>
     <row r="17">
@@ -2133,22 +2133,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.507342336011184</v>
+        <v>-0.718804282937968</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00979349420524977</v>
+        <v>0.011493617845231</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.195059780469542</v>
+        <v>-0.149148098324761</v>
       </c>
       <c r="E17" t="n">
-        <v>0.528635621605502</v>
+        <v>0.631413652096833</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00194876849365289</v>
+        <v>0.0023624234407081</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0835071574097976</v>
+        <v>0.0769776952291973</v>
       </c>
     </row>
     <row r="18">
@@ -2156,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.663130903771947</v>
+        <v>-0.835831385399209</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20307291896776</v>
+        <v>0.1800551881515</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.67955832618878</v>
+        <v>-0.507673091726489</v>
       </c>
       <c r="E18" t="n">
-        <v>0.598322147651007</v>
+        <v>0.668827238068946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0316903175569404</v>
+        <v>0.0269015036480832</v>
       </c>
       <c r="G18" t="n">
-        <v>0.297528255908358</v>
+        <v>0.245230411115056</v>
       </c>
     </row>
     <row r="19">
@@ -2179,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.728241119209786</v>
+        <v>-0.755675956642464</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0239593503683865</v>
+        <v>0.0299701487500739</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.212550593537504</v>
+        <v>-0.229091430860168</v>
       </c>
       <c r="E19" t="n">
-        <v>0.638111352737085</v>
+        <v>0.650378875683479</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00514825623677377</v>
+        <v>0.00505347654783403</v>
       </c>
       <c r="G19" t="n">
-        <v>0.112443305955267</v>
+        <v>0.109302148904863</v>
       </c>
     </row>
     <row r="20">
@@ -2202,22 +2202,22 @@
         <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.654557861330419</v>
+        <v>-0.707984232147151</v>
       </c>
       <c r="C20" t="n">
-        <v>0.171828480462889</v>
+        <v>0.165863449685933</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.63328548141234</v>
+        <v>-0.575243554868864</v>
       </c>
       <c r="E20" t="n">
-        <v>0.588615447822514</v>
+        <v>0.616614626129827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0279206533594538</v>
+        <v>0.0264835370060476</v>
       </c>
       <c r="G20" t="n">
-        <v>0.283877605115687</v>
+        <v>0.263921135706088</v>
       </c>
     </row>
     <row r="21">
@@ -2225,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.140460080297154</v>
+        <v>-0.390717862417985</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0541799944598078</v>
+        <v>0.0389487421936329</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.65716810429011</v>
+        <v>-0.505107075715499</v>
       </c>
       <c r="E21" t="n">
-        <v>0.352948615899221</v>
+        <v>0.470675140310333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0107899606450504</v>
+        <v>0.00805217126942581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.294305546687734</v>
+        <v>0.19064931145739</v>
       </c>
     </row>
     <row r="22">
@@ -2248,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.22796942450648</v>
+        <v>-1.2157254190092</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0224917628882506</v>
+        <v>0.0220385380774526</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.122130516814525</v>
+        <v>-0.122111311000331</v>
       </c>
       <c r="E22" t="n">
-        <v>0.83811864987743</v>
+        <v>0.834424556283181</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00460574082698529</v>
+        <v>0.00408416610792823</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0809737482669512</v>
+        <v>0.0765886866147184</v>
       </c>
     </row>
     <row r="23">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.998480432686397</v>
+        <v>-1.03754347834266</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0161356423504027</v>
+        <v>0.0295639108954143</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.127219466837434</v>
+        <v>-0.165719890406438</v>
       </c>
       <c r="E23" t="n">
-        <v>0.756239084182577</v>
+        <v>0.771015253562568</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0034671081712114</v>
+        <v>0.00538188189422977</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0778618246248426</v>
+        <v>0.0951489743811811</v>
       </c>
     </row>
     <row r="24">
@@ -2294,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.09621621426993</v>
+        <v>-1.04300019903736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0413148168098532</v>
+        <v>0.0489285303702609</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.185420050161209</v>
+        <v>-0.212078525075557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.791445233300338</v>
+        <v>0.770525869204066</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00917452455849568</v>
+        <v>0.00915152606175816</v>
       </c>
       <c r="G24" t="n">
-        <v>0.121023836466002</v>
+        <v>0.124153662702311</v>
       </c>
     </row>
     <row r="25">
@@ -2317,22 +2317,22 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.5590661636743</v>
+        <v>-0.735422624250776</v>
       </c>
       <c r="C25" t="n">
-        <v>0.203148144600795</v>
+        <v>0.125876638501326</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.806200794497392</v>
+        <v>-0.482431416859158</v>
       </c>
       <c r="E25" t="n">
-        <v>0.548792812763375</v>
+        <v>0.629017379679144</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0329782691249876</v>
+        <v>0.0216058208760572</v>
       </c>
       <c r="G25" t="n">
-        <v>0.330906664423118</v>
+        <v>0.233680643817009</v>
       </c>
     </row>
     <row r="26">
@@ -2340,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.485479438149445</v>
+        <v>-0.667817563076872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.173926069486477</v>
+        <v>0.17441989240115</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.859036269479552</v>
+        <v>-0.625374502856718</v>
       </c>
       <c r="E26" t="n">
-        <v>0.517330104923325</v>
+        <v>0.596362051741067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0290175645264184</v>
+        <v>0.0280273847463115</v>
       </c>
       <c r="G26" t="n">
-        <v>0.329278009257439</v>
+        <v>0.280725127296531</v>
       </c>
     </row>
     <row r="27">
@@ -2363,22 +2363,22 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.724491598761083</v>
+        <v>-0.928327180674805</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0447813749891505</v>
+        <v>0.0505091396242094</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.292089105271454</v>
+        <v>-0.242093940259335</v>
       </c>
       <c r="E27" t="n">
-        <v>0.635854607993374</v>
+        <v>0.724862720770955</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00932966352184638</v>
+        <v>0.0093219709422133</v>
       </c>
       <c r="G27" t="n">
-        <v>0.151906083792514</v>
+        <v>0.133198123826646</v>
       </c>
     </row>
     <row r="28">
@@ -2386,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.942728472458008</v>
+        <v>-0.999287340166469</v>
       </c>
       <c r="C28" t="n">
-        <v>0.055965489108449</v>
+        <v>0.0468971843633053</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.250942099905479</v>
+        <v>-0.216712019430073</v>
       </c>
       <c r="E28" t="n">
-        <v>0.732381796690307</v>
+        <v>0.754124155957308</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0108571214598388</v>
+        <v>0.00838006031753466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.142272121241431</v>
+        <v>0.121389387488236</v>
       </c>
     </row>
     <row r="29">
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.601738519591947</v>
+        <v>-0.583642340404159</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0445554384760139</v>
+        <v>0.0385866839044388</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.35078623873161</v>
+        <v>-0.33656731520495</v>
       </c>
       <c r="E29" t="n">
-        <v>0.575102298931736</v>
+        <v>0.567015261267854</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00914663675616792</v>
+        <v>0.00730367696487095</v>
       </c>
       <c r="G29" t="n">
-        <v>0.166297458649201</v>
+        <v>0.150721785446307</v>
       </c>
     </row>
     <row r="30">
@@ -2432,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.104696761899021</v>
+        <v>-0.425533532074591</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0236886467814323</v>
+        <v>0.0382922702163869</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.47006614564755</v>
+        <v>-0.459855906731187</v>
       </c>
       <c r="E30" t="n">
-        <v>0.331890979257115</v>
+        <v>0.487470418077412</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00420831813510723</v>
+        <v>0.00813936703393861</v>
       </c>
       <c r="G30" t="n">
-        <v>0.195460422549459</v>
+        <v>0.185074698500197</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2455,22 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.655520814760761</v>
+        <v>-0.694921717533907</v>
       </c>
       <c r="C31" t="n">
-        <v>0.207158369599005</v>
+        <v>0.141624586341686</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.694328122240337</v>
+        <v>-0.541543618891349</v>
       </c>
       <c r="E31" t="n">
-        <v>0.591187777230163</v>
+        <v>0.61147609659931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0325428750753308</v>
+        <v>0.025590227473626</v>
       </c>
       <c r="G31" t="n">
-        <v>0.305142368620841</v>
+        <v>0.26161195642755</v>
       </c>
     </row>
     <row r="32">
@@ -2478,22 +2478,22 @@
         <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.6900297265472</v>
+        <v>-0.948948868442425</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0255981097713104</v>
+        <v>0.0277373437241647</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.231865507775857</v>
+        <v>-0.175505051820537</v>
       </c>
       <c r="E32" t="n">
-        <v>0.619635357560723</v>
+        <v>0.735781672178377</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0053023758043727</v>
+        <v>0.00531741200477699</v>
       </c>
       <c r="G32" t="n">
-        <v>0.117516557548779</v>
+        <v>0.0991062834700659</v>
       </c>
     </row>
     <row r="33">
@@ -2501,22 +2501,22 @@
         <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.21654361102356</v>
+        <v>-1.20464684806649</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0370523739269454</v>
+        <v>0.0371545030736462</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.158226906351957</v>
+        <v>-0.160009578041172</v>
       </c>
       <c r="E33" t="n">
-        <v>0.830989474823453</v>
+        <v>0.828199631166436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00750284924212371</v>
+        <v>0.00618698251999496</v>
       </c>
       <c r="G33" t="n">
-        <v>0.104235963929471</v>
+        <v>0.0949739305176541</v>
       </c>
     </row>
     <row r="34">
@@ -2524,22 +2524,22 @@
         <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.11859725213105</v>
+        <v>-1.08198495497303</v>
       </c>
       <c r="C34" t="n">
-        <v>0.056533326870968</v>
+        <v>0.0480004579694594</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.212558523000458</v>
+        <v>-0.202489015360246</v>
       </c>
       <c r="E34" t="n">
-        <v>0.798427152317881</v>
+        <v>0.784458213563292</v>
       </c>
       <c r="F34" t="n">
-        <v>0.012093014651526</v>
+        <v>0.0101385061171006</v>
       </c>
       <c r="G34" t="n">
-        <v>0.137731092326833</v>
+        <v>0.128356293956728</v>
       </c>
     </row>
     <row r="35">
@@ -2547,22 +2547,22 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.620930699623253</v>
+        <v>-0.922041662824312</v>
       </c>
       <c r="C35" t="n">
-        <v>0.150174646881945</v>
+        <v>0.228976845928752</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.624101429387012</v>
+        <v>-0.518973567902971</v>
       </c>
       <c r="E35" t="n">
-        <v>0.580932783307788</v>
+        <v>0.705276497695853</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0271224753909004</v>
+        <v>0.0326945522065762</v>
       </c>
       <c r="G35" t="n">
-        <v>0.283490674057521</v>
+        <v>0.256376541654675</v>
       </c>
     </row>
     <row r="36">
@@ -2570,22 +2570,22 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.57136745666119</v>
+        <v>-1.70339745527367</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07515830968605</v>
+        <v>0.0610615922581302</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.174465977292188</v>
+        <v>-0.145066812423711</v>
       </c>
       <c r="E36" t="n">
-        <v>0.92140625</v>
+        <v>0.941714711775092</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0159107354675082</v>
+        <v>0.0112989191802477</v>
       </c>
       <c r="G36" t="n">
-        <v>0.136897013498417</v>
+        <v>0.112875346352968</v>
       </c>
     </row>
     <row r="37">
@@ -2593,22 +2593,22 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445743097954104</v>
+        <v>-0.0511137818067394</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00894955906675437</v>
+        <v>0.0229133479063064</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212234602494157</v>
+        <v>-2.96146265161159</v>
       </c>
       <c r="E37" t="n">
-        <v>0.132044056907937</v>
+        <v>0.308749397209651</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00173457884954806</v>
+        <v>0.00439692932450753</v>
       </c>
       <c r="G37" t="n">
-        <v>0.315411965099756</v>
+        <v>0.214767530817095</v>
       </c>
     </row>
     <row r="38">
@@ -2616,22 +2616,22 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.476830151263043</v>
+        <v>-0.863065089719521</v>
       </c>
       <c r="C38" t="n">
-        <v>0.193721571328366</v>
+        <v>0.188997152662785</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.923050118349256</v>
+        <v>-0.50371406838587</v>
       </c>
       <c r="E38" t="n">
-        <v>0.514695558739255</v>
+        <v>0.682224212034384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0333082136738409</v>
+        <v>0.0273822174633213</v>
       </c>
       <c r="G38" t="n">
-        <v>0.354588992949701</v>
+        <v>0.24255329526446</v>
       </c>
     </row>
     <row r="39">
@@ -2639,22 +2639,22 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.46198133446868</v>
+        <v>0.441697693761237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0086847990982872</v>
+        <v>0.0129655795685209</v>
       </c>
       <c r="D39" t="n">
-        <v>0.201723019020181</v>
+        <v>0.257792830920688</v>
       </c>
       <c r="E39" t="n">
-        <v>0.125786922940788</v>
+        <v>0.130244299674267</v>
       </c>
       <c r="F39" t="n">
-        <v>0.000782319405367465</v>
+        <v>0.00115869592346102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.222359945116552</v>
+        <v>0.261352112381032</v>
       </c>
     </row>
     <row r="40">
@@ -2662,22 +2662,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>0.449256839896775</v>
+        <v>0.467048850375233</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0159841616741336</v>
+        <v>0.0647839749344017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281416938369971</v>
+        <v>0.544968610617218</v>
       </c>
       <c r="E40" t="n">
-        <v>0.154412770809578</v>
+        <v>0.157951940045252</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000955073401861066</v>
+        <v>0.00316079470383856</v>
       </c>
       <c r="G40" t="n">
-        <v>0.200140582350142</v>
+        <v>0.355937036311052</v>
       </c>
     </row>
     <row r="41">
@@ -2685,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>0.475080253615016</v>
+        <v>0.474721772398871</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00905383521740268</v>
+        <v>0.016542318548379</v>
       </c>
       <c r="D41" t="n">
-        <v>0.200285409776936</v>
+        <v>0.270931211724796</v>
       </c>
       <c r="E41" t="n">
-        <v>0.119126339720689</v>
+        <v>0.119359643564758</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000949694941826901</v>
+        <v>0.00153935806673233</v>
       </c>
       <c r="G41" t="n">
-        <v>0.258692754203028</v>
+        <v>0.328709543102206</v>
       </c>
     </row>
     <row r="42">
@@ -2708,22 +2708,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3774729404237</v>
+        <v>0.303898414921398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00213290870237998</v>
+        <v>0.0452421942792998</v>
       </c>
       <c r="D42" t="n">
-        <v>0.122348967556869</v>
+        <v>0.699911928661156</v>
       </c>
       <c r="E42" t="n">
-        <v>0.143410094731947</v>
+        <v>0.165931583586174</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000222857043851489</v>
+        <v>0.00621629036818352</v>
       </c>
       <c r="G42" t="n">
-        <v>0.104095860599838</v>
+        <v>0.475156405534533</v>
       </c>
     </row>
     <row r="43">
@@ -2731,22 +2731,22 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>0.402068410253361</v>
+        <v>0.192852400274555</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00127633729318144</v>
+        <v>0.0111873785122112</v>
       </c>
       <c r="D43" t="n">
-        <v>0.088855185272261</v>
+        <v>0.548452622616952</v>
       </c>
       <c r="E43" t="n">
-        <v>0.137336398015234</v>
+        <v>0.20466952306649</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000131636540712314</v>
+        <v>0.00164737782004612</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0835415594143052</v>
+        <v>0.198309458962322</v>
       </c>
     </row>
     <row r="44">
@@ -2754,22 +2754,22 @@
         <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.862657188056225</v>
+        <v>-0.953992583719024</v>
       </c>
       <c r="C44" t="n">
-        <v>0.196056972007004</v>
+        <v>0.143943482949003</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.513278295483101</v>
+        <v>-0.397695800401005</v>
       </c>
       <c r="E44" t="n">
-        <v>0.683656761254153</v>
+        <v>0.721394682242804</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0278454601409909</v>
+        <v>0.0210585530192119</v>
       </c>
       <c r="G44" t="n">
-        <v>0.244083873194319</v>
+        <v>0.201159860912086</v>
       </c>
     </row>
     <row r="45">
@@ -2777,22 +2777,22 @@
         <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.770534093357935</v>
+        <v>-0.924343464538758</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0388902555858527</v>
+        <v>0.0444919575058717</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.255934327001756</v>
+        <v>-0.228195660800071</v>
       </c>
       <c r="E45" t="n">
-        <v>0.65399998257888</v>
+        <v>0.721522120903967</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00676716845922798</v>
+        <v>0.00716082955240564</v>
       </c>
       <c r="G45" t="n">
-        <v>0.125784103025816</v>
+        <v>0.117282176708305</v>
       </c>
     </row>
     <row r="46">
@@ -2800,22 +2800,22 @@
         <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.825814902171812</v>
+        <v>-0.858429635061169</v>
       </c>
       <c r="C46" t="n">
-        <v>0.219451953158189</v>
+        <v>0.134510449706093</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.567266333604953</v>
+        <v>-0.427241381025952</v>
       </c>
       <c r="E46" t="n">
-        <v>0.663771236503083</v>
+        <v>0.679327495127382</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0317849110432198</v>
+        <v>0.0206281530449447</v>
       </c>
       <c r="G46" t="n">
-        <v>0.26859138034766</v>
+        <v>0.211422390919813</v>
       </c>
     </row>
     <row r="47">
@@ -2823,22 +2823,22 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.970048637588137</v>
+        <v>-1.20365746159867</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0101515645201295</v>
+        <v>0.0143093598945407</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.103865897830036</v>
+        <v>-0.0993818760990374</v>
       </c>
       <c r="E47" t="n">
-        <v>0.746076221148685</v>
+        <v>0.832272236153897</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00224595673560528</v>
+        <v>0.00270386079969895</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0635210245897505</v>
+        <v>0.0624779480313282</v>
       </c>
     </row>
     <row r="48">
@@ -2846,22 +2846,22 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.920491012252442</v>
+        <v>-0.968868990037246</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0416852788060442</v>
+        <v>0.0503567155435805</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.221805240538709</v>
+        <v>-0.231613378754586</v>
       </c>
       <c r="E48" t="n">
-        <v>0.718043534932221</v>
+        <v>0.738368091762252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00774111978424788</v>
+        <v>0.00833501286172869</v>
       </c>
       <c r="G48" t="n">
-        <v>0.122532450102978</v>
+        <v>0.123646041355948</v>
       </c>
     </row>
     <row r="49">
@@ -2869,22 +2869,22 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.637090655537292</v>
+        <v>-0.677410663758895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0475023942637154</v>
+        <v>0.0570705671909369</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.342102710236242</v>
+        <v>-0.352658264053295</v>
       </c>
       <c r="E49" t="n">
-        <v>0.592873431437288</v>
+        <v>0.61153515625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00897584968551951</v>
+        <v>0.0085861519456482</v>
       </c>
       <c r="G49" t="n">
-        <v>0.159799640102482</v>
+        <v>0.151522754206205</v>
       </c>
     </row>
     <row r="50">
@@ -2892,22 +2892,22 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.34329227487422</v>
+        <v>-1.29653996948483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0394836924764519</v>
+        <v>0.0445692201012861</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.147923905018349</v>
+        <v>-0.162828944489531</v>
       </c>
       <c r="E50" t="n">
-        <v>0.866700701978303</v>
+        <v>0.853618379068283</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00607553233103467</v>
+        <v>0.00685975593048879</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0899338156679198</v>
+        <v>0.0970265467314963</v>
       </c>
     </row>
     <row r="51">
@@ -2915,22 +2915,22 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.816203088663587</v>
+        <v>-1.01088788938734</v>
       </c>
       <c r="C51" t="n">
-        <v>0.200720946618456</v>
+        <v>0.199732505047886</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.548906172324102</v>
+        <v>-0.442100881489912</v>
       </c>
       <c r="E51" t="n">
-        <v>0.66078073089701</v>
+        <v>0.734285714285714</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0274610545063313</v>
+        <v>0.0290267739608282</v>
       </c>
       <c r="G51" t="n">
-        <v>0.250784814211202</v>
+        <v>0.232024746314073</v>
       </c>
     </row>
     <row r="52">
@@ -2938,22 +2938,22 @@
         <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.25335748692057</v>
+        <v>-1.35644166346354</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0603757187208327</v>
+        <v>0.0514848122297992</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.196045192680796</v>
+        <v>-0.167277853037549</v>
       </c>
       <c r="E52" t="n">
-        <v>0.841468895327742</v>
+        <v>0.868606756005859</v>
       </c>
       <c r="F52" t="n">
-        <v>0.010310447992522</v>
+        <v>0.00743105137599864</v>
       </c>
       <c r="G52" t="n">
-        <v>0.120670385718004</v>
+        <v>0.0992434673061283</v>
       </c>
     </row>
     <row r="53">
@@ -2961,22 +2961,22 @@
         <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.840987569712836</v>
+        <v>-0.803038534245248</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0309371065792747</v>
+        <v>0.029982031178628</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.20914634051267</v>
+        <v>-0.215622531278366</v>
       </c>
       <c r="E53" t="n">
-        <v>0.689956855715976</v>
+        <v>0.672268470315426</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00477513922713008</v>
+        <v>0.00423228738957215</v>
       </c>
       <c r="G53" t="n">
-        <v>0.100154642479103</v>
+        <v>0.0967709115691361</v>
       </c>
     </row>
     <row r="54">
@@ -2984,22 +2984,22 @@
         <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.763755540537179</v>
+        <v>-0.863696043291182</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216288191007253</v>
+        <v>0.191855137526527</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.608922512076194</v>
+        <v>-0.507137571474534</v>
       </c>
       <c r="E54" t="n">
-        <v>0.642104285557346</v>
+        <v>0.68320196209458</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0315857919512236</v>
+        <v>0.0290749088423072</v>
       </c>
       <c r="G54" t="n">
-        <v>0.27678357642406</v>
+        <v>0.249580169857899</v>
       </c>
     </row>
     <row r="55">
@@ -3007,22 +3007,22 @@
         <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.50887426508712</v>
+        <v>-1.50510631772629</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0356326747887981</v>
+        <v>0.0409444481770087</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.125103989886255</v>
+        <v>-0.134440566080755</v>
       </c>
       <c r="E55" t="n">
-        <v>0.909392113365917</v>
+        <v>0.909487003605761</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00586953834734221</v>
+        <v>0.00544307586284525</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0842462907694651</v>
+        <v>0.081119580521447</v>
       </c>
     </row>
     <row r="56">
@@ -3030,22 +3030,22 @@
         <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.402189078458335</v>
+        <v>-0.52855955481576</v>
       </c>
       <c r="C56" t="n">
-        <v>0.023278877257114</v>
+        <v>0.0282978204394775</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.37935930601734</v>
+        <v>-0.318260371388555</v>
       </c>
       <c r="E56" t="n">
-        <v>0.476782786132437</v>
+        <v>0.539151420074677</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00409405244815312</v>
+        <v>0.00550798816780736</v>
       </c>
       <c r="G56" t="n">
-        <v>0.134201118000031</v>
+        <v>0.137653020622894</v>
       </c>
     </row>
     <row r="57">
@@ -3053,22 +3053,22 @@
         <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.61928289389965</v>
+        <v>-1.55301272487001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0504242268966539</v>
+        <v>0.0717653589110479</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.138674591794369</v>
+        <v>-0.172497345548487</v>
       </c>
       <c r="E57" t="n">
-        <v>0.928302257256853</v>
+        <v>0.915751776927283</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00731605249699022</v>
+        <v>0.00948217539842421</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0921401680664355</v>
+        <v>0.106334996768419</v>
       </c>
     </row>
     <row r="58">
@@ -3076,22 +3076,22 @@
         <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.797380377630727</v>
+        <v>-0.793417240168341</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0303842247062719</v>
+        <v>0.0330663688617114</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.218604217013491</v>
+        <v>-0.22918786555684</v>
       </c>
       <c r="E58" t="n">
-        <v>0.669544984413777</v>
+        <v>0.667861674613112</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00527167342350406</v>
+        <v>0.00522237005732076</v>
       </c>
       <c r="G58" t="n">
-        <v>0.108441243251979</v>
+        <v>0.108204992496753</v>
       </c>
     </row>
     <row r="59">
@@ -3099,22 +3099,22 @@
         <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.946609502740718</v>
+        <v>-0.983855722645437</v>
       </c>
       <c r="C59" t="n">
-        <v>0.179271827963353</v>
+        <v>0.193232209602749</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.447285854253521</v>
+        <v>-0.446795040739883</v>
       </c>
       <c r="E59" t="n">
-        <v>0.712018797130151</v>
+        <v>0.726859582542694</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0250736025375654</v>
+        <v>0.0248911202851971</v>
       </c>
       <c r="G59" t="n">
-        <v>0.22239084733087</v>
+        <v>0.217055953044917</v>
       </c>
     </row>
     <row r="60">
@@ -3122,22 +3122,22 @@
         <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.36447800421926</v>
+        <v>-1.36969691498799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0579703753633727</v>
+        <v>0.0326012689922492</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.176456035327447</v>
+        <v>-0.131823480794714</v>
       </c>
       <c r="E60" t="n">
-        <v>0.873675769397486</v>
+        <v>0.874825175474594</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0104259314695724</v>
+        <v>0.00535056715954789</v>
       </c>
       <c r="G60" t="n">
-        <v>0.116871102740965</v>
+        <v>0.0836139301456008</v>
       </c>
     </row>
     <row r="61">
@@ -3145,22 +3145,22 @@
         <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.990878593373939</v>
+        <v>-1.04413973758818</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0254503912809523</v>
+        <v>0.0181902529379473</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.161000337224563</v>
+        <v>-0.129169727885671</v>
       </c>
       <c r="E61" t="n">
-        <v>0.749137715051773</v>
+        <v>0.768263970580127</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00428813499999572</v>
+        <v>0.00235073096922926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0874123030463029</v>
+        <v>0.0631089563178339</v>
       </c>
     </row>
     <row r="62">
@@ -3168,22 +3168,22 @@
         <v>89</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.06429704721137</v>
+        <v>-1.03087821810079</v>
       </c>
       <c r="C62" t="n">
-        <v>0.211915494124866</v>
+        <v>0.143844175232434</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.432532253915399</v>
+        <v>-0.367907614912743</v>
       </c>
       <c r="E62" t="n">
-        <v>0.760461429247515</v>
+        <v>0.74420965451964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0260957470202826</v>
+        <v>0.0199006499440397</v>
       </c>
       <c r="G62" t="n">
-        <v>0.212426001928653</v>
+        <v>0.189556346906672</v>
       </c>
     </row>
     <row r="63">
@@ -3191,22 +3191,22 @@
         <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5437715956171</v>
+        <v>-0.919586932536034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00544803802415773</v>
+        <v>0.0165323395063237</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.135738656676483</v>
+        <v>-0.139821631837619</v>
       </c>
       <c r="E63" t="n">
-        <v>0.546589103514501</v>
+        <v>0.724480909549866</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00110737086168113</v>
+        <v>0.00331943995864745</v>
       </c>
       <c r="G63" t="n">
-        <v>0.060881532551296</v>
+        <v>0.0795253268503656</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.43889083675234</v>
+        <v>-1.42282086421668</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0439414379779169</v>
+        <v>0.0521709753691407</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.145683137357121</v>
+        <v>-0.160532974606488</v>
       </c>
       <c r="E64" t="n">
-        <v>0.890615676701926</v>
+        <v>0.885661538461538</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00693599762997841</v>
+        <v>0.00711450020740741</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0935113081932836</v>
+        <v>0.0952367163793259</v>
       </c>
     </row>
     <row r="65">
@@ -3237,22 +3237,22 @@
         <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.31012889810497</v>
+        <v>-1.31390154915615</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0296332112702809</v>
+        <v>0.0277005309349508</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.131393939043199</v>
+        <v>-0.126672173352451</v>
       </c>
       <c r="E65" t="n">
-        <v>0.858694360002038</v>
+        <v>0.861038943944836</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00461111662967845</v>
+        <v>0.00388652732205009</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0790795962128795</v>
+        <v>0.0724032511544588</v>
       </c>
     </row>
     <row r="66">
@@ -3260,22 +3260,22 @@
         <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.30444663181135</v>
+        <v>-1.39127634863909</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0341985524544119</v>
+        <v>0.0410756678241705</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.141767782462533</v>
+        <v>-0.145672949701673</v>
       </c>
       <c r="E66" t="n">
-        <v>0.854915054270882</v>
+        <v>0.875643432146809</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0051760023902261</v>
+        <v>0.00580505363331721</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0841539042348375</v>
+        <v>0.0870113333413494</v>
       </c>
     </row>
     <row r="67">
@@ -3283,22 +3283,22 @@
         <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.08086930396895</v>
+        <v>-1.20778771463519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.199316169554826</v>
+        <v>0.238077463738949</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.413045678636812</v>
+        <v>-0.403988065888166</v>
       </c>
       <c r="E67" t="n">
-        <v>0.760816435949848</v>
+        <v>0.807539251757677</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0245487531022411</v>
+        <v>0.0251786455118011</v>
       </c>
       <c r="G67" t="n">
-        <v>0.20593721388675</v>
+        <v>0.196495469102835</v>
       </c>
     </row>
     <row r="68">
@@ -3306,22 +3306,22 @@
         <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.810309798335052</v>
+        <v>-0.754402991787814</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0184236716719798</v>
+        <v>0.0165268951157112</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.167508558870366</v>
+        <v>-0.170408884450016</v>
       </c>
       <c r="E68" t="n">
-        <v>0.675561378503027</v>
+        <v>0.649702541261448</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00274779045584081</v>
+        <v>0.00235536148559235</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0775937948292685</v>
+        <v>0.0746989021716876</v>
       </c>
     </row>
     <row r="69">
@@ -3329,22 +3329,22 @@
         <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.643659764668268</v>
+        <v>-0.619601116640261</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0491299538353215</v>
+        <v>0.043269421741331</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.344363264268619</v>
+        <v>-0.335720880801004</v>
       </c>
       <c r="E69" t="n">
-        <v>0.594667104904125</v>
+        <v>0.581288505963301</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00692345146031398</v>
+        <v>0.00632453025147397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.139922453093227</v>
+        <v>0.13681143605726</v>
       </c>
     </row>
     <row r="70">
@@ -3352,22 +3352,22 @@
         <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.17963261185789</v>
+        <v>-1.2658496230289</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0445462689036161</v>
+        <v>0.045359504837776</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.178920002976272</v>
+        <v>-0.168248823435172</v>
       </c>
       <c r="E70" t="n">
-        <v>0.814326404184055</v>
+        <v>0.843030643349912</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00690973463866029</v>
+        <v>0.00624048221190839</v>
       </c>
       <c r="G70" t="n">
-        <v>0.102078003597443</v>
+        <v>0.0937056362249168</v>
       </c>
     </row>
     <row r="71">
@@ -3375,22 +3375,22 @@
         <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.92328042471748</v>
+        <v>-1.00841155550126</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0465089829745485</v>
+        <v>0.0501936462620244</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.233579537183535</v>
+        <v>-0.222170585306141</v>
       </c>
       <c r="E71" t="n">
-        <v>0.717523045612515</v>
+        <v>0.752663812745978</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00841158354271812</v>
+        <v>0.00900300709111697</v>
       </c>
       <c r="G71" t="n">
-        <v>0.12782124016149</v>
+        <v>0.126064486742121</v>
       </c>
     </row>
     <row r="72">
@@ -3398,22 +3398,22 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.02835791404535</v>
+        <v>-1.12332446366175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.159660841022902</v>
+        <v>0.154465669999674</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.388557155944567</v>
+        <v>-0.349873274189715</v>
       </c>
       <c r="E72" t="n">
-        <v>0.74069943289225</v>
+        <v>0.782289797214494</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0223851551703691</v>
+        <v>0.0205895879523486</v>
       </c>
       <c r="G72" t="n">
-        <v>0.201993801416114</v>
+        <v>0.183424000650122</v>
       </c>
     </row>
     <row r="73">
@@ -3421,22 +3421,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.10482900030275</v>
+        <v>-1.11203113143237</v>
       </c>
       <c r="C73" t="n">
-        <v>0.150925094937297</v>
+        <v>0.139089463721332</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.351629791768226</v>
+        <v>-0.335374602383129</v>
       </c>
       <c r="E73" t="n">
-        <v>0.771426494436243</v>
+        <v>0.774972893050764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0169593807895127</v>
+        <v>0.0163341698481918</v>
       </c>
       <c r="G73" t="n">
-        <v>0.16881477149667</v>
+        <v>0.16491570723194</v>
       </c>
     </row>
     <row r="74">
@@ -3444,22 +3444,22 @@
         <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.746571636458487</v>
+        <v>-0.773104043436118</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0428676760088499</v>
+        <v>0.0480532449739512</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.277327849207111</v>
+        <v>-0.283545928463211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.64497105364724</v>
+        <v>0.654788741713166</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0054281072514319</v>
+        <v>0.00673197624320024</v>
       </c>
       <c r="G74" t="n">
-        <v>0.114231001956268</v>
+        <v>0.125305485552225</v>
       </c>
     </row>
     <row r="75">
@@ -3467,22 +3467,22 @@
         <v>102</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.957289245895234</v>
+        <v>-1.08015191854965</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0501496898779166</v>
+        <v>0.046422431116397</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.233932706659499</v>
+        <v>-0.19947069409028</v>
       </c>
       <c r="E75" t="n">
-        <v>0.738460406240801</v>
+        <v>0.77974389166912</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00649113746332306</v>
+        <v>0.00544290898409123</v>
       </c>
       <c r="G75" t="n">
-        <v>0.109102119673567</v>
+        <v>0.094615775817634</v>
       </c>
     </row>
     <row r="76">
@@ -3490,22 +3490,22 @@
         <v>103</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.774497981440191</v>
+        <v>-0.831663743354793</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0461147928664358</v>
+        <v>0.0558377578051963</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.277268058203726</v>
+        <v>-0.284129427741382</v>
       </c>
       <c r="E76" t="n">
-        <v>0.657590919620107</v>
+        <v>0.682291364219208</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00583767427748864</v>
+        <v>0.00732558896961098</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1161887613838</v>
+        <v>0.125444434826035</v>
       </c>
     </row>
     <row r="77">
@@ -3513,22 +3513,22 @@
         <v>104</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.00181112184971</v>
+        <v>-1.06230652539489</v>
       </c>
       <c r="C77" t="n">
-        <v>0.223140848086418</v>
+        <v>0.195498305758481</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.471523878588821</v>
+        <v>-0.416218758822095</v>
       </c>
       <c r="E77" t="n">
-        <v>0.740889738990554</v>
+        <v>0.764481865284974</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0271912065944869</v>
+        <v>0.0241854947763287</v>
       </c>
       <c r="G77" t="n">
-        <v>0.222566942509053</v>
+        <v>0.203427799114919</v>
       </c>
     </row>
     <row r="78">
@@ -3536,22 +3536,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.608740093976927</v>
+        <v>-0.69193644252464</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0421663258073356</v>
+        <v>0.0424935965094981</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.337326898316265</v>
+        <v>-0.297917174586132</v>
       </c>
       <c r="E78" t="n">
-        <v>0.579186182669789</v>
+        <v>0.618723653395785</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0066633298888959</v>
+        <v>0.00518449597688108</v>
       </c>
       <c r="G78" t="n">
-        <v>0.140937792493118</v>
+        <v>0.116374158004686</v>
       </c>
     </row>
     <row r="79">
@@ -3559,22 +3559,22 @@
         <v>106</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.274241267028899</v>
+        <v>-0.670379594416981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0029580455438664</v>
+        <v>0.0111629823357335</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.198321419125219</v>
+        <v>-0.157604760866188</v>
       </c>
       <c r="E79" t="n">
-        <v>0.410560745529534</v>
+        <v>0.612176516811665</v>
       </c>
       <c r="F79" t="n">
-        <v>0.000655226717411994</v>
+        <v>0.00228956130128615</v>
       </c>
       <c r="G79" t="n">
-        <v>0.062347404058492</v>
+        <v>0.0781626854292655</v>
       </c>
     </row>
     <row r="80">
@@ -3582,22 +3582,22 @@
         <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.567722896533656</v>
+        <v>-0.650642312791654</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0259247805662538</v>
+        <v>0.0347869174751108</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.283609735390287</v>
+        <v>-0.286659058674003</v>
       </c>
       <c r="E80" t="n">
-        <v>0.559767219996184</v>
+        <v>0.598836596480757</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00350576945678786</v>
+        <v>0.00412013607931793</v>
       </c>
       <c r="G80" t="n">
-        <v>0.105775287382735</v>
+        <v>0.107188315695262</v>
       </c>
     </row>
     <row r="81">
@@ -3605,22 +3605,22 @@
         <v>108</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.74413369615844</v>
+        <v>-0.865868209183611</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0347180753101096</v>
+        <v>0.0360357207141595</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.250395690212362</v>
+        <v>-0.219237485110047</v>
       </c>
       <c r="E81" t="n">
-        <v>0.642561570432539</v>
+        <v>0.697729591836735</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00480519317072556</v>
+        <v>0.00425848171637367</v>
       </c>
       <c r="G81" t="n">
-        <v>0.107879935312558</v>
+        <v>0.0935276992504965</v>
       </c>
     </row>
     <row r="82">
@@ -3628,22 +3628,22 @@
         <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.740997801765993</v>
+        <v>-0.907284103517553</v>
       </c>
       <c r="C82" t="n">
-        <v>0.039272696300512</v>
+        <v>0.0372601539934987</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.267441278646484</v>
+        <v>-0.212754630489999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.642172084748504</v>
+        <v>0.714047898493259</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00613827095515192</v>
+        <v>0.00415960026020668</v>
       </c>
       <c r="G82" t="n">
-        <v>0.122003307555228</v>
+        <v>0.0903230206220576</v>
       </c>
     </row>
     <row r="83">
@@ -3651,22 +3651,22 @@
         <v>110</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.914263911473713</v>
+        <v>-0.924053243213522</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0455629534535044</v>
+        <v>0.0281954208596259</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.233471759698784</v>
+        <v>-0.181715634596918</v>
       </c>
       <c r="E83" t="n">
-        <v>0.71832627622523</v>
+        <v>0.719382583934586</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00714481318071946</v>
+        <v>0.00472446176112777</v>
       </c>
       <c r="G83" t="n">
-        <v>0.117672149209073</v>
+        <v>0.0955468227006467</v>
       </c>
     </row>
     <row r="84">
@@ -3674,22 +3674,22 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.918459394813599</v>
+        <v>-0.905066115987782</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0506344632650681</v>
+        <v>0.0480487846004548</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.24499834153358</v>
+        <v>-0.242192615505578</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7207766660149</v>
+        <v>0.711992960844699</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00617689268675603</v>
+        <v>0.00604300501168192</v>
       </c>
       <c r="G84" t="n">
-        <v>0.109039615026404</v>
+        <v>0.10918193256517</v>
       </c>
     </row>
     <row r="85">
@@ -3697,22 +3697,22 @@
         <v>112</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118452236847538</v>
+        <v>0.0341898854903922</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0519932099439874</v>
+        <v>0.0509831981683325</v>
       </c>
       <c r="D85" t="n">
-        <v>1.92499696434246</v>
+        <v>6.60413422359207</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241561626156163</v>
+        <v>0.2731920580683</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0103111799850934</v>
+        <v>0.0109174149778583</v>
       </c>
       <c r="G85" t="n">
-        <v>0.420364700145676</v>
+        <v>0.382465124202597</v>
       </c>
     </row>
     <row r="86">
@@ -3720,22 +3720,22 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.556838703389098</v>
+        <v>-0.740308794244584</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0490928839508394</v>
+        <v>0.0537141763583096</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.397905423942485</v>
+        <v>-0.313062862496372</v>
       </c>
       <c r="E86" t="n">
-        <v>0.552354608948206</v>
+        <v>0.640722841439299</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00880857512923851</v>
+        <v>0.0109298532950703</v>
       </c>
       <c r="G86" t="n">
-        <v>0.169916224359213</v>
+        <v>0.163168739931237</v>
       </c>
     </row>
     <row r="87">
@@ -3743,22 +3743,22 @@
         <v>114</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.348799867446222</v>
+        <v>-0.297292491938345</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0395046145563177</v>
+        <v>0.0471299142132504</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.569833008928651</v>
+        <v>-0.730237923253936</v>
       </c>
       <c r="E87" t="n">
-        <v>0.450349579831933</v>
+        <v>0.424994957983193</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00857674320491491</v>
+        <v>0.00977891455744651</v>
       </c>
       <c r="G87" t="n">
-        <v>0.20564182132761</v>
+        <v>0.232681335614057</v>
       </c>
     </row>
     <row r="88">
@@ -3766,22 +3766,22 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.30463215842965</v>
+        <v>-0.41517774581553</v>
       </c>
       <c r="C88" t="n">
-        <v>0.165504874630181</v>
+        <v>0.174113926932243</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.33545619534544</v>
+        <v>-1.00503847715742</v>
       </c>
       <c r="E88" t="n">
-        <v>0.433242992819087</v>
+        <v>0.484901552003706</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0288995520796863</v>
+        <v>0.0303986026078195</v>
       </c>
       <c r="G88" t="n">
-        <v>0.392386456099465</v>
+        <v>0.359561543324026</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +3789,22 @@
         <v>116</v>
       </c>
       <c r="B89" t="n">
-        <v>0.257739356984231</v>
+        <v>-0.0712722559532617</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00273354948159216</v>
+        <v>0.0173551962691579</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20285360454272</v>
+        <v>-1.84839276170682</v>
       </c>
       <c r="E89" t="n">
-        <v>0.184972403482831</v>
+        <v>0.314910643091151</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000491666750845533</v>
+        <v>0.0031230791692022</v>
       </c>
       <c r="G89" t="n">
-        <v>0.119874961382133</v>
+        <v>0.177461504047998</v>
       </c>
     </row>
     <row r="90">
@@ -3812,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>0.476646031287052</v>
+        <v>0.342373125670355</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0633238268817391</v>
+        <v>0.0500890575200757</v>
       </c>
       <c r="D90" t="n">
-        <v>0.527943679820326</v>
+        <v>0.653689881136187</v>
       </c>
       <c r="E90" t="n">
-        <v>0.131766968947513</v>
+        <v>0.165377851057983</v>
       </c>
       <c r="F90" t="n">
-        <v>0.010441927255275</v>
+        <v>0.0100080678085813</v>
       </c>
       <c r="G90" t="n">
-        <v>0.77550352416672</v>
+        <v>0.604919765675997</v>
       </c>
     </row>
     <row r="91">
@@ -3835,22 +3835,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.32064185268538</v>
+        <v>-0.407336539612171</v>
       </c>
       <c r="C91" t="n">
-        <v>0.196594922973222</v>
+        <v>0.14024295453833</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.38282091572444</v>
+        <v>-0.919363286094181</v>
       </c>
       <c r="E91" t="n">
-        <v>0.444828655961592</v>
+        <v>0.475705090696314</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0320316749859357</v>
+        <v>0.0259054797678274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.402343572475872</v>
+        <v>0.338343642840933</v>
       </c>
     </row>
     <row r="92">
@@ -3858,22 +3858,22 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.1334603844184</v>
+        <v>-1.19065389919831</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0489467584521366</v>
+        <v>0.049585884221059</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.195189127180483</v>
+        <v>-0.187022342553801</v>
       </c>
       <c r="E92" t="n">
-        <v>0.805154130702836</v>
+        <v>0.822000616522811</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0101527312044165</v>
+        <v>0.010426000064237</v>
       </c>
       <c r="G92" t="n">
-        <v>0.125144687686445</v>
+        <v>0.124218625204245</v>
       </c>
     </row>
     <row r="93">
@@ -3881,22 +3881,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.318870240897861</v>
+        <v>-0.340833777240391</v>
       </c>
       <c r="C93" t="n">
-        <v>0.213140398040015</v>
+        <v>0.195233998525371</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.44783441761971</v>
+        <v>-1.29638828232644</v>
       </c>
       <c r="E93" t="n">
-        <v>0.439624728421884</v>
+        <v>0.451046329928286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0350778359217022</v>
+        <v>0.0330931823335161</v>
       </c>
       <c r="G93" t="n">
-        <v>0.426024213274927</v>
+        <v>0.403318471538379</v>
       </c>
     </row>
     <row r="94">
@@ -3904,22 +3904,22 @@
         <v>121</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.63573521914939</v>
+        <v>-0.652314044367594</v>
       </c>
       <c r="C94" t="n">
-        <v>0.046775803524665</v>
+        <v>0.0440476125333527</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.340200037153034</v>
+        <v>-0.321739555791627</v>
       </c>
       <c r="E94" t="n">
-        <v>0.592372556535071</v>
+        <v>0.59928708317363</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0102495419918462</v>
+        <v>0.00941656188642052</v>
       </c>
       <c r="G94" t="n">
-        <v>0.170905995852418</v>
+        <v>0.161924015537858</v>
       </c>
     </row>
     <row r="95">
@@ -3927,22 +3927,22 @@
         <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.399974475969309</v>
+        <v>-0.360040103736121</v>
       </c>
       <c r="C95" t="n">
-        <v>0.181497043766407</v>
+        <v>0.138042458794755</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.06512971235958</v>
+        <v>-1.03194241915376</v>
       </c>
       <c r="E95" t="n">
-        <v>0.480336984737804</v>
+        <v>0.461064651553317</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0306585074005068</v>
+        <v>0.0243366015821432</v>
       </c>
       <c r="G95" t="n">
-        <v>0.364526811012522</v>
+        <v>0.33835152534555</v>
       </c>
     </row>
     <row r="96">
@@ -3950,22 +3950,22 @@
         <v>123</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.960409637782946</v>
+        <v>-1.02787351331085</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0354404996944624</v>
+        <v>0.0348891128960588</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.19601685132539</v>
+        <v>-0.181721071284913</v>
       </c>
       <c r="E96" t="n">
-        <v>0.737986614333818</v>
+        <v>0.765010321651522</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00759020214583126</v>
+        <v>0.00765685836215742</v>
       </c>
       <c r="G96" t="n">
-        <v>0.118053314935504</v>
+        <v>0.114382085848497</v>
       </c>
     </row>
     <row r="97">
@@ -3973,22 +3973,22 @@
         <v>124</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.776491435919496</v>
+        <v>-0.760589850405506</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0466576367942405</v>
+        <v>0.0430586676295091</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.278179228836622</v>
+        <v>-0.272822238451997</v>
       </c>
       <c r="E97" t="n">
-        <v>0.658825267242642</v>
+        <v>0.650468891690443</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00976842178533657</v>
+        <v>0.00927009126048436</v>
       </c>
       <c r="G97" t="n">
-        <v>0.150017510742663</v>
+        <v>0.148018320895396</v>
       </c>
     </row>
     <row r="98">
@@ -3996,22 +3996,22 @@
         <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.14344950300774</v>
+        <v>-0.372364559616744</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0299952198252194</v>
+        <v>0.0285687150875741</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.20733273660649</v>
+        <v>-0.45391759176974</v>
       </c>
       <c r="E98" t="n">
-        <v>0.351109048938381</v>
+        <v>0.460891139290551</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00516205171488606</v>
+        <v>0.00559909526217568</v>
       </c>
       <c r="G98" t="n">
-        <v>0.204629928789117</v>
+        <v>0.162353093992255</v>
       </c>
     </row>
     <row r="99">
@@ -4019,22 +4019,22 @@
         <v>126</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.225677683367236</v>
+        <v>-0.354018516817995</v>
       </c>
       <c r="C99" t="n">
-        <v>0.217052924850525</v>
+        <v>0.130980571860528</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.06440169124299</v>
+        <v>-1.02229788634196</v>
       </c>
       <c r="E99" t="n">
-        <v>0.399317749388421</v>
+        <v>0.457188094590921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0337640478212626</v>
+        <v>0.0228550027367483</v>
       </c>
       <c r="G99" t="n">
-        <v>0.460159760840276</v>
+        <v>0.330670708716409</v>
       </c>
     </row>
     <row r="100">
@@ -4042,22 +4042,22 @@
         <v>127</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.382858095072638</v>
+        <v>-0.750913730933582</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0132132739578424</v>
+        <v>0.0288215254010626</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.300239194054714</v>
+        <v>-0.226083274904378</v>
       </c>
       <c r="E100" t="n">
-        <v>0.466631874749097</v>
+        <v>0.646936973103171</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00247799486473263</v>
+        <v>0.0052460501839138</v>
       </c>
       <c r="G100" t="n">
-        <v>0.106678229611353</v>
+        <v>0.111957772230238</v>
       </c>
     </row>
     <row r="101">
@@ -4065,22 +4065,22 @@
         <v>128</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.808272186379301</v>
+        <v>-0.893516478961277</v>
       </c>
       <c r="C101" t="n">
-        <v>0.048345277846997</v>
+        <v>0.0528406409950365</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.272031624992598</v>
+        <v>-0.257265453830804</v>
       </c>
       <c r="E101" t="n">
-        <v>0.672554067971164</v>
+        <v>0.709840370751802</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00944760104666375</v>
+        <v>0.0113928977207583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.144521868853772</v>
+        <v>0.150368339512154</v>
       </c>
     </row>
     <row r="102">
@@ -4088,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.146367037431364</v>
+        <v>-0.202353735363718</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0318270275235798</v>
+        <v>0.0408778256051823</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.21886261722541</v>
+        <v>-0.999154543416829</v>
       </c>
       <c r="E102" t="n">
-        <v>0.355617597292724</v>
+        <v>0.378925549915398</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00641856943692901</v>
+        <v>0.00781321484993458</v>
       </c>
       <c r="G102" t="n">
-        <v>0.225286868611357</v>
+        <v>0.233271130377578</v>
       </c>
     </row>
     <row r="103">
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.377257541248285</v>
+        <v>-0.521550274386358</v>
       </c>
       <c r="C103" t="n">
-        <v>0.218883635553995</v>
+        <v>0.224247640460158</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.24013429235372</v>
+        <v>-0.907962188158401</v>
       </c>
       <c r="E103" t="n">
-        <v>0.467279435354508</v>
+        <v>0.53362528071864</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0364736753609548</v>
+        <v>0.0383098441265463</v>
       </c>
       <c r="G103" t="n">
-        <v>0.408707959606208</v>
+        <v>0.36679110591758</v>
       </c>
     </row>
     <row r="104">
@@ -4134,22 +4134,22 @@
         <v>131</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.648684238304361</v>
+        <v>-0.649145192340853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0230817036571019</v>
+        <v>0.0304139445526737</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.234207384875784</v>
+        <v>-0.268654753916266</v>
       </c>
       <c r="E104" t="n">
-        <v>0.598540145985402</v>
+        <v>0.596232186305179</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00483154865147082</v>
+        <v>0.00623605760209851</v>
       </c>
       <c r="G104" t="n">
-        <v>0.116131461948993</v>
+        <v>0.132446242619828</v>
       </c>
     </row>
     <row r="105">
@@ -4157,22 +4157,22 @@
         <v>132</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.710076322289473</v>
+        <v>-0.702434245739075</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0503088067458578</v>
+        <v>0.0466951462933292</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.315876252579488</v>
+        <v>-0.307631068289716</v>
       </c>
       <c r="E105" t="n">
-        <v>0.626751209828262</v>
+        <v>0.62127207690588</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00993783747332754</v>
+        <v>0.00863844638404489</v>
       </c>
       <c r="G105" t="n">
-        <v>0.15905625912447</v>
+        <v>0.149601513193573</v>
       </c>
     </row>
     <row r="106">
@@ -4180,22 +4180,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.157592962742709</v>
+        <v>-0.295221386500621</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171384043186702</v>
+        <v>0.170801616473059</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.62692922290101</v>
+        <v>-1.3999037364974</v>
       </c>
       <c r="E106" t="n">
-        <v>0.370667424589</v>
+        <v>0.431174421497885</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0292006436874264</v>
+        <v>0.0293088580851431</v>
       </c>
       <c r="G106" t="n">
-        <v>0.461011534890926</v>
+        <v>0.3970511513163</v>
       </c>
     </row>
     <row r="107">
@@ -4203,22 +4203,22 @@
         <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.203873847519185</v>
+        <v>-0.393208864947602</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0407227750699782</v>
+        <v>0.0505624703987992</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.989822139989216</v>
+        <v>-0.571861477300504</v>
       </c>
       <c r="E107" t="n">
-        <v>0.380918363382033</v>
+        <v>0.472485370051635</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00852253267349633</v>
+        <v>0.0110723070896223</v>
       </c>
       <c r="G107" t="n">
-        <v>0.242355247603221</v>
+        <v>0.222705373304125</v>
       </c>
     </row>
     <row r="108">
@@ -4226,22 +4226,22 @@
         <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.588746151172279</v>
+        <v>-0.502715801139953</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0502429351816937</v>
+        <v>0.0538955597665086</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.380723268672658</v>
+        <v>-0.46180003071658</v>
       </c>
       <c r="E108" t="n">
-        <v>0.569026948095048</v>
+        <v>0.525849424449917</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0103837882884933</v>
+        <v>0.0113466004177476</v>
       </c>
       <c r="G108" t="n">
-        <v>0.179079172187279</v>
+        <v>0.202568297283532</v>
       </c>
     </row>
     <row r="109">
@@ -4249,22 +4249,22 @@
         <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.348531771579003</v>
+        <v>-0.220924873159917</v>
       </c>
       <c r="C109" t="n">
-        <v>0.189171619918473</v>
+        <v>0.170173159092148</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.24791676031783</v>
+        <v>-1.86724332783254</v>
       </c>
       <c r="E109" t="n">
-        <v>0.459193072164948</v>
+        <v>0.397184441009789</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0308195860015466</v>
+        <v>0.0304686903973769</v>
       </c>
       <c r="G109" t="n">
-        <v>0.382312126035756</v>
+        <v>0.439475497514332</v>
       </c>
     </row>
     <row r="110">
@@ -4272,22 +4272,22 @@
         <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.450979352009551</v>
+        <v>-0.446099392563007</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0458821676368445</v>
+        <v>0.0455857677103055</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.474969043898085</v>
+        <v>-0.478611362395759</v>
       </c>
       <c r="E110" t="n">
-        <v>0.501101292266604</v>
+        <v>0.498837672521276</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00862897582771957</v>
+        <v>0.00957109100498652</v>
       </c>
       <c r="G110" t="n">
-        <v>0.185376254680105</v>
+        <v>0.196119816670947</v>
       </c>
     </row>
     <row r="111">
@@ -4295,22 +4295,22 @@
         <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.771800416941395</v>
+        <v>-0.796909437913497</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0210766426104094</v>
+        <v>0.0215763540106263</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.188102993420822</v>
+        <v>-0.184323224523148</v>
       </c>
       <c r="E111" t="n">
-        <v>0.657558139534884</v>
+        <v>0.669625100240577</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00463159874219378</v>
+        <v>0.00421950168355135</v>
       </c>
       <c r="G111" t="n">
-        <v>0.103497844642158</v>
+        <v>0.0970060582637079</v>
       </c>
     </row>
     <row r="112">
@@ -4318,22 +4318,22 @@
         <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>0.183675089227105</v>
+        <v>0.131902195803106</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0451839454188228</v>
+        <v>0.055582427956978</v>
       </c>
       <c r="D112" t="n">
-        <v>1.15728897477034</v>
+        <v>1.78737933087598</v>
       </c>
       <c r="E112" t="n">
-        <v>0.217252928676472</v>
+        <v>0.237623426994968</v>
       </c>
       <c r="F112" t="n">
-        <v>0.00905147069099141</v>
+        <v>0.0112660240006761</v>
       </c>
       <c r="G112" t="n">
-        <v>0.437919147962833</v>
+        <v>0.446679561459118</v>
       </c>
     </row>
     <row r="113">
@@ -4341,22 +4341,22 @@
         <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.222996547520863</v>
+        <v>-0.319373137262785</v>
       </c>
       <c r="C113" t="n">
-        <v>0.173676048717432</v>
+        <v>0.168475415528903</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.86883872930738</v>
+        <v>-1.28519753416222</v>
       </c>
       <c r="E113" t="n">
-        <v>0.400275616083009</v>
+        <v>0.440785098648217</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0278779270617006</v>
+        <v>0.0297350198389697</v>
       </c>
       <c r="G113" t="n">
-        <v>0.417129691367853</v>
+        <v>0.391207535940168</v>
       </c>
     </row>
     <row r="114">
@@ -4364,22 +4364,22 @@
         <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.389350957733766</v>
+        <v>-0.358463398053128</v>
       </c>
       <c r="C114" t="n">
-        <v>0.028223974417559</v>
+        <v>0.0328556318190334</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.431487121130037</v>
+        <v>-0.505661739370119</v>
       </c>
       <c r="E114" t="n">
-        <v>0.469415974806756</v>
+        <v>0.454271399942743</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00581483552946964</v>
+        <v>0.00684699831662015</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1624466847525</v>
+        <v>0.182152323428657</v>
       </c>
     </row>
     <row r="115">
@@ -4387,22 +4387,22 @@
         <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.220485235989009</v>
+        <v>-0.365001760815757</v>
       </c>
       <c r="C115" t="n">
-        <v>0.236708206220637</v>
+        <v>0.212973519414066</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.20661793326907</v>
+        <v>-1.2643515470957</v>
       </c>
       <c r="E115" t="n">
-        <v>0.399592764247747</v>
+        <v>0.461868404717567</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0384863962942543</v>
+        <v>0.0358518809422804</v>
       </c>
       <c r="G115" t="n">
-        <v>0.490948580007276</v>
+        <v>0.409956445094478</v>
       </c>
     </row>
     <row r="116">
@@ -4410,22 +4410,22 @@
         <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.151675620984189</v>
+        <v>-0.347178193050085</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0149253471122157</v>
+        <v>0.0214674392449424</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.805464563543196</v>
+        <v>-0.422024518233602</v>
       </c>
       <c r="E116" t="n">
-        <v>0.354781968420191</v>
+        <v>0.448262846740753</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00257368084714736</v>
+        <v>0.00381714853456393</v>
       </c>
       <c r="G116" t="n">
-        <v>0.142993338660817</v>
+        <v>0.137827787626423</v>
       </c>
     </row>
     <row r="117">
@@ -4433,22 +4433,22 @@
         <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.337601543468667</v>
+        <v>-0.28452665853818</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0459982732324971</v>
+        <v>0.0477890097074938</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.635281693639238</v>
+        <v>-0.768318078014436</v>
       </c>
       <c r="E117" t="n">
-        <v>0.445048034934498</v>
+        <v>0.419873362445415</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00944220197947323</v>
+        <v>0.0101142419670148</v>
       </c>
       <c r="G117" t="n">
-        <v>0.218338214936798</v>
+        <v>0.239523619928371</v>
       </c>
     </row>
     <row r="118">
@@ -4456,22 +4456,22 @@
         <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.0719201369580728</v>
+        <v>-0.0796327601579716</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0478433290322402</v>
+        <v>0.0390001879267698</v>
       </c>
       <c r="D118" t="n">
-        <v>-3.04130649755349</v>
+        <v>-2.47994232513197</v>
       </c>
       <c r="E118" t="n">
-        <v>0.319159799882284</v>
+        <v>0.3218952324897</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00913752895414451</v>
+        <v>0.00798902668127237</v>
       </c>
       <c r="G118" t="n">
-        <v>0.299506463395092</v>
+        <v>0.277672193658433</v>
       </c>
     </row>
     <row r="119">
@@ -4479,22 +4479,22 @@
         <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.284236082012873</v>
+        <v>-0.434559150461195</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0323682722671361</v>
+        <v>0.0336456442334611</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.632966246044758</v>
+        <v>-0.422100167957931</v>
       </c>
       <c r="E119" t="n">
-        <v>0.417721046770601</v>
+        <v>0.492752783964365</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00676260151856886</v>
+        <v>0.0070765988160525</v>
       </c>
       <c r="G119" t="n">
-        <v>0.19686592021519</v>
+        <v>0.170719527888965</v>
       </c>
     </row>
     <row r="120">
@@ -4502,22 +4502,22 @@
         <v>147</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.25676010755611</v>
+        <v>-0.455132307224661</v>
       </c>
       <c r="C120" t="n">
-        <v>0.189888804265305</v>
+        <v>0.156992002431828</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.69715743453677</v>
+        <v>-0.870564793323845</v>
       </c>
       <c r="E120" t="n">
-        <v>0.411410841886337</v>
+        <v>0.500377387318564</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0324207817837888</v>
+        <v>0.027630009537427</v>
       </c>
       <c r="G120" t="n">
-        <v>0.43765914650631</v>
+        <v>0.332194809413336</v>
       </c>
     </row>
     <row r="121">
@@ -4525,22 +4525,22 @@
         <v>148</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.302921697647944</v>
+        <v>-0.465823731077913</v>
       </c>
       <c r="C121" t="n">
-        <v>0.186266177299268</v>
+        <v>0.1701896751595</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.42474328514798</v>
+        <v>-0.885615063879936</v>
       </c>
       <c r="E121" t="n">
-        <v>0.432237341772152</v>
+        <v>0.506803797468354</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0316029634259333</v>
+        <v>0.0296026254604631</v>
       </c>
       <c r="G121" t="n">
-        <v>0.411283816221665</v>
+        <v>0.339488646534651</v>
       </c>
     </row>
     <row r="122">
@@ -4548,22 +4548,22 @@
         <v>149</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.452800937391005</v>
+        <v>-0.520981552094805</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0507894079423696</v>
+        <v>0.0433629680105685</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.497713313353661</v>
+        <v>-0.399702767086782</v>
       </c>
       <c r="E122" t="n">
-        <v>0.50274736660335</v>
+        <v>0.535348995246239</v>
       </c>
       <c r="F122" t="n">
-        <v>0.010776724582945</v>
+        <v>0.00929344125398784</v>
       </c>
       <c r="G122" t="n">
-        <v>0.206487415046798</v>
+        <v>0.180074114184122</v>
       </c>
     </row>
     <row r="123">
@@ -4571,22 +4571,22 @@
         <v>150</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.136678608709349</v>
+        <v>-0.337700314150897</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0215078675329837</v>
+        <v>0.0312452459439553</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.0729960597489</v>
+        <v>-0.523432288562045</v>
       </c>
       <c r="E123" t="n">
-        <v>0.347030208093119</v>
+        <v>0.444341498047568</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00422426170677845</v>
+        <v>0.00665423353147417</v>
       </c>
       <c r="G123" t="n">
-        <v>0.187287213209435</v>
+        <v>0.183582865491744</v>
       </c>
     </row>
     <row r="124">
@@ -4594,22 +4594,22 @@
         <v>151</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.19147455343954</v>
+        <v>-0.371122870918562</v>
       </c>
       <c r="C124" t="n">
-        <v>0.186605563596107</v>
+        <v>0.136540402685174</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.25606302917397</v>
+        <v>-0.995664150905804</v>
       </c>
       <c r="E124" t="n">
-        <v>0.384965590887518</v>
+        <v>0.46504559962434</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0308095341766512</v>
+        <v>0.0248956730690482</v>
       </c>
       <c r="G124" t="n">
-        <v>0.455953604186017</v>
+        <v>0.339286357094885</v>
       </c>
     </row>
     <row r="125">
@@ -4617,22 +4617,22 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>0.410019586324809</v>
+        <v>0.14946920940671</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0155462833571032</v>
+        <v>0.0273645272532626</v>
       </c>
       <c r="D125" t="n">
-        <v>0.304094584798042</v>
+        <v>1.1067314142957</v>
       </c>
       <c r="E125" t="n">
-        <v>0.139961175153864</v>
+        <v>0.224610840348545</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00245777775291359</v>
+        <v>0.00581462626911433</v>
       </c>
       <c r="G125" t="n">
-        <v>0.354212370263441</v>
+        <v>0.339492504630273</v>
       </c>
     </row>
     <row r="126">
@@ -4640,22 +4640,22 @@
         <v>153</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.237111723341591</v>
+        <v>-0.458866137931502</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0507974195032411</v>
+        <v>0.0512198200009133</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.950534311805442</v>
+        <v>-0.493211295107757</v>
       </c>
       <c r="E126" t="n">
-        <v>0.396204675616815</v>
+        <v>0.505254828458625</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0100082612119177</v>
+        <v>0.0107142235114649</v>
       </c>
       <c r="G126" t="n">
-        <v>0.252499033173731</v>
+        <v>0.204865995538374</v>
       </c>
     </row>
     <row r="127">
@@ -4663,22 +4663,22 @@
         <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.309567181669232</v>
+        <v>-0.422580499094455</v>
       </c>
       <c r="C127" t="n">
-        <v>0.180931491107826</v>
+        <v>0.221479902275044</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.37404883376059</v>
+        <v>-1.11367304921351</v>
       </c>
       <c r="E127" t="n">
-        <v>0.440616710465699</v>
+        <v>0.487704494332894</v>
       </c>
       <c r="F127" t="n">
-        <v>0.028130015511828</v>
+        <v>0.0376615905889986</v>
       </c>
       <c r="G127" t="n">
-        <v>0.380648411713224</v>
+        <v>0.397917071041153</v>
       </c>
     </row>
     <row r="128">
@@ -4686,22 +4686,22 @@
         <v>155</v>
       </c>
       <c r="B128" t="n">
-        <v>0.00828766304140008</v>
+        <v>-0.0629932735646944</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0412149108906183</v>
+        <v>0.0497522786089923</v>
       </c>
       <c r="D128" t="n">
-        <v>24.4959957116644</v>
+        <v>-3.54088897848391</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2838425698872</v>
+        <v>0.315809220205983</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00822826342163996</v>
+        <v>0.0107069541697444</v>
       </c>
       <c r="G128" t="n">
-        <v>0.319577770923315</v>
+        <v>0.327648486794405</v>
       </c>
     </row>
     <row r="129">
@@ -4709,22 +4709,22 @@
         <v>156</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.243873676165238</v>
+        <v>-0.425912625421131</v>
       </c>
       <c r="C129" t="n">
-        <v>0.236567141320222</v>
+        <v>0.167616551209061</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.99440009435911</v>
+        <v>-0.961253504500337</v>
       </c>
       <c r="E129" t="n">
-        <v>0.41008848721845</v>
+        <v>0.488253315103086</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0332300592613437</v>
+        <v>0.0297955502019876</v>
       </c>
       <c r="G129" t="n">
-        <v>0.444516596824156</v>
+        <v>0.353533444017305</v>
       </c>
     </row>
     <row r="130">
@@ -4732,22 +4732,22 @@
         <v>157</v>
       </c>
       <c r="B130" t="n">
-        <v>0.112453446002709</v>
+        <v>0.0124476611446298</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0446289697441512</v>
+        <v>0.0322868559386175</v>
       </c>
       <c r="D130" t="n">
-        <v>1.87860581468859</v>
+        <v>14.4352769560837</v>
       </c>
       <c r="E130" t="n">
-        <v>0.241846725839258</v>
+        <v>0.281120448220461</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0088135985493113</v>
+        <v>0.00680303810748863</v>
       </c>
       <c r="G130" t="n">
-        <v>0.388182917932067</v>
+        <v>0.293399260743333</v>
       </c>
     </row>
     <row r="131">
@@ -4755,22 +4755,22 @@
         <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>0.300766741008088</v>
+        <v>0.177474741337433</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0345418654620981</v>
+        <v>0.0352337459173723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.617935412186553</v>
+        <v>1.05765215154658</v>
       </c>
       <c r="E131" t="n">
-        <v>0.172282784876866</v>
+        <v>0.214039070774255</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00700973819958621</v>
+        <v>0.00780325869644755</v>
       </c>
       <c r="G131" t="n">
-        <v>0.485969502760253</v>
+        <v>0.412709955958025</v>
       </c>
     </row>
     <row r="132">
@@ -4778,22 +4778,22 @@
         <v>159</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.293360829520665</v>
+        <v>-0.335478481481114</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0502062637137705</v>
+        <v>0.0411248369042663</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.763795027153251</v>
+        <v>-0.60448764071942</v>
       </c>
       <c r="E132" t="n">
-        <v>0.422934671904554</v>
+        <v>0.443769823948785</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0104354339099459</v>
+        <v>0.00862850768763513</v>
       </c>
       <c r="G132" t="n">
-        <v>0.241536053598619</v>
+        <v>0.209319687657491</v>
       </c>
     </row>
     <row r="133">
@@ -4801,22 +4801,22 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.0142717335750689</v>
+        <v>-0.333984987212288</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0349837416812499</v>
+        <v>0.0531660988033811</v>
       </c>
       <c r="D133" t="n">
-        <v>-13.1055846245278</v>
+        <v>-0.690383576647049</v>
       </c>
       <c r="E133" t="n">
-        <v>0.297562229164567</v>
+        <v>0.4453350801169</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00626395435964454</v>
+        <v>0.0112109531478751</v>
       </c>
       <c r="G133" t="n">
-        <v>0.265978473273029</v>
+        <v>0.237757574652503</v>
       </c>
     </row>
     <row r="134">
@@ -4824,22 +4824,22 @@
         <v>161</v>
       </c>
       <c r="B134" t="n">
-        <v>0.428386555558389</v>
+        <v>0.279241318304376</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0122004583604038</v>
+        <v>0.0222259266030815</v>
       </c>
       <c r="D134" t="n">
-        <v>0.257841156822637</v>
+        <v>0.533888121423537</v>
       </c>
       <c r="E134" t="n">
-        <v>0.131671523456435</v>
+        <v>0.176360695110981</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00221557169399979</v>
+        <v>0.00416783130776877</v>
       </c>
       <c r="G134" t="n">
-        <v>0.357479419116229</v>
+        <v>0.366060833662769</v>
       </c>
     </row>
     <row r="135">
@@ -4847,22 +4847,22 @@
         <v>162</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.349085387058367</v>
+        <v>-0.381380892039803</v>
       </c>
       <c r="C135" t="n">
-        <v>0.192981239178193</v>
+        <v>0.163506471128144</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.25842076542984</v>
+        <v>-1.06025063815993</v>
       </c>
       <c r="E135" t="n">
-        <v>0.454083566067231</v>
+        <v>0.468946651274152</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0332186496576778</v>
+        <v>0.0282429329662327</v>
       </c>
       <c r="G135" t="n">
-        <v>0.401379513958936</v>
+        <v>0.35836984486531</v>
       </c>
     </row>
     <row r="136">
@@ -4870,22 +4870,22 @@
         <v>163</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.615302882061006</v>
+        <v>-0.777848956648967</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0566806540372502</v>
+        <v>0.0469123375092473</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.386926502000513</v>
+        <v>-0.278450667336973</v>
       </c>
       <c r="E136" t="n">
-        <v>0.582548188943021</v>
+        <v>0.659063757678458</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0108568077473722</v>
+        <v>0.00996258545939914</v>
       </c>
       <c r="G136" t="n">
-        <v>0.178862467288485</v>
+        <v>0.151446276365574</v>
       </c>
     </row>
     <row r="137">
@@ -4893,22 +4893,22 @@
         <v>164</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.290208334474557</v>
+        <v>-0.343199249511679</v>
       </c>
       <c r="C137" t="n">
-        <v>0.199959388457386</v>
+        <v>0.17531978348829</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.54085232913594</v>
+        <v>-1.22002613288869</v>
       </c>
       <c r="E137" t="n">
-        <v>0.429764536050019</v>
+        <v>0.452413123591396</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0298492375872711</v>
+        <v>0.0291779498206976</v>
       </c>
       <c r="G137" t="n">
-        <v>0.402009250429593</v>
+        <v>0.377565402852089</v>
       </c>
     </row>
     <row r="138">
@@ -4916,22 +4916,22 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.249520721072276</v>
+        <v>-0.33178678159711</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0445793442885432</v>
+        <v>0.052748833057479</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.846175060869887</v>
+        <v>-0.692225109154833</v>
       </c>
       <c r="E138" t="n">
-        <v>0.40204054280449</v>
+        <v>0.442038984624887</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00833949278874565</v>
+        <v>0.0112755620589176</v>
       </c>
       <c r="G138" t="n">
-        <v>0.227143319366565</v>
+        <v>0.240219648493628</v>
       </c>
     </row>
     <row r="139">
@@ -4939,22 +4939,22 @@
         <v>166</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.632317501978387</v>
+        <v>-0.748331886638862</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0609420163093128</v>
+        <v>0.0744242797162794</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.390412043748973</v>
+        <v>-0.364555008358465</v>
       </c>
       <c r="E139" t="n">
-        <v>0.589188558200182</v>
+        <v>0.643448667540411</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0118385370896016</v>
+        <v>0.0153868460039152</v>
       </c>
       <c r="G139" t="n">
-        <v>0.184669305167136</v>
+        <v>0.19277952140506</v>
       </c>
     </row>
     <row r="140">
@@ -4962,22 +4962,22 @@
         <v>167</v>
       </c>
       <c r="B140" t="n">
-        <v>0.254186762262523</v>
+        <v>-0.160368661218287</v>
       </c>
       <c r="C140" t="n">
-        <v>0.00419954468302853</v>
+        <v>0.0221335093568874</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254945983281532</v>
+        <v>-0.927695896546982</v>
       </c>
       <c r="E140" t="n">
-        <v>0.185186720911771</v>
+        <v>0.356014358255181</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000834662379829354</v>
+        <v>0.00413783893708519</v>
       </c>
       <c r="G140" t="n">
-        <v>0.156007536106356</v>
+        <v>0.180683825633974</v>
       </c>
     </row>
     <row r="141">
@@ -4985,22 +4985,22 @@
         <v>168</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0416615383038315</v>
+        <v>-0.09620102535235</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0247267666984122</v>
+        <v>0.0389987321742801</v>
       </c>
       <c r="D141" t="n">
-        <v>3.77440382690985</v>
+        <v>-2.05279482094273</v>
       </c>
       <c r="E141" t="n">
-        <v>0.269595487409623</v>
+        <v>0.329708302169035</v>
       </c>
       <c r="F141" t="n">
-        <v>0.005105910305467</v>
+        <v>0.00771929793253979</v>
       </c>
       <c r="G141" t="n">
-        <v>0.265047658643525</v>
+        <v>0.266476563258262</v>
       </c>
     </row>
     <row r="142">
@@ -5008,22 +5008,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.0646030863863032</v>
+        <v>-0.204914546987137</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0144417438435029</v>
+        <v>0.0127249955000871</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.86018677331659</v>
+        <v>-0.55049835865655</v>
       </c>
       <c r="E142" t="n">
-        <v>0.311371105324594</v>
+        <v>0.376744186046512</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00321238565390732</v>
+        <v>0.0029028093721668</v>
       </c>
       <c r="G142" t="n">
-        <v>0.182026882223786</v>
+        <v>0.143008779214922</v>
       </c>
     </row>
     <row r="143">
@@ -5031,22 +5031,22 @@
         <v>170</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.145756448778341</v>
+        <v>-0.195674491491729</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0467797408060261</v>
+        <v>0.0430626926356887</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.48388801451673</v>
+        <v>-1.06051392933565</v>
       </c>
       <c r="E143" t="n">
-        <v>0.352985074626866</v>
+        <v>0.376026533996683</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00951866600518689</v>
+        <v>0.00764399961508103</v>
       </c>
       <c r="G143" t="n">
-        <v>0.276395967019028</v>
+        <v>0.232510107324102</v>
       </c>
     </row>
     <row r="144">
@@ -5054,22 +5054,22 @@
         <v>171</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0475807398150165</v>
+        <v>-0.196855378196714</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0123766947235675</v>
+        <v>0.0124109779929457</v>
       </c>
       <c r="D144" t="n">
-        <v>-2.33814343144213</v>
+        <v>-0.565920880676185</v>
       </c>
       <c r="E144" t="n">
-        <v>0.304106137377514</v>
+        <v>0.373501621855841</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00255427646787442</v>
+        <v>0.00259299478108433</v>
       </c>
       <c r="G144" t="n">
-        <v>0.166191484102115</v>
+        <v>0.136335303520625</v>
       </c>
     </row>
     <row r="145">
@@ -5077,22 +5077,22 @@
         <v>172</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.314221629453457</v>
+        <v>-0.336754051728324</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0444799880894652</v>
+        <v>0.034271242107952</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.671191201424411</v>
+        <v>-0.549733360395218</v>
       </c>
       <c r="E145" t="n">
-        <v>0.433594164456233</v>
+        <v>0.444848773495757</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00772130372865495</v>
+        <v>0.00665823790431541</v>
       </c>
       <c r="G145" t="n">
-        <v>0.202657130770012</v>
+        <v>0.183428686808309</v>
       </c>
     </row>
     <row r="146">
@@ -5100,22 +5100,22 @@
         <v>173</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.987656222582552</v>
+        <v>-1.22103935812836</v>
       </c>
       <c r="C146" t="n">
-        <v>0.200182948334216</v>
+        <v>0.217042166410079</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.4530099451319</v>
+        <v>-0.381542037808308</v>
       </c>
       <c r="E146" t="n">
-        <v>0.73335017163783</v>
+        <v>0.810414086687307</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0279244002574405</v>
+        <v>0.0210304736563539</v>
       </c>
       <c r="G146" t="n">
-        <v>0.227866524949804</v>
+        <v>0.178944166730331</v>
       </c>
     </row>
     <row r="147">
@@ -5123,22 +5123,22 @@
         <v>174</v>
       </c>
       <c r="B147" t="n">
-        <v>0.141336617050457</v>
+        <v>-0.0354213112369886</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0144994307344685</v>
+        <v>0.0189085258314385</v>
       </c>
       <c r="D147" t="n">
-        <v>0.851963097257898</v>
+        <v>-3.88207750361484</v>
       </c>
       <c r="E147" t="n">
-        <v>0.226524141502004</v>
+        <v>0.29886856321366</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00296283296822115</v>
+        <v>0.00404267714582872</v>
       </c>
       <c r="G147" t="n">
-        <v>0.240291877692219</v>
+        <v>0.212742517368389</v>
       </c>
     </row>
     <row r="148">
@@ -5146,22 +5146,22 @@
         <v>175</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.01377933475856</v>
+        <v>-1.03059724559012</v>
       </c>
       <c r="C148" t="n">
-        <v>0.189804212476937</v>
+        <v>0.155297125833663</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.429743670875279</v>
+        <v>-0.382377854109894</v>
       </c>
       <c r="E148" t="n">
-        <v>0.734196281428111</v>
+        <v>0.747083032490975</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0263939194977803</v>
+        <v>0.0222798548288131</v>
       </c>
       <c r="G148" t="n">
-        <v>0.221278777450447</v>
+        <v>0.199796237468655</v>
       </c>
     </row>
     <row r="149">
@@ -5169,22 +5169,22 @@
         <v>176</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.595809697219258</v>
+        <v>-0.657043799990432</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0214428648796135</v>
+        <v>0.0262745381120052</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.245772811212732</v>
+        <v>-0.246702314262093</v>
       </c>
       <c r="E149" t="n">
-        <v>0.572836213692302</v>
+        <v>0.602937983134445</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00414951154544883</v>
+        <v>0.00501773380037405</v>
       </c>
       <c r="G149" t="n">
-        <v>0.112452217300108</v>
+        <v>0.11748466013697</v>
       </c>
     </row>
     <row r="150">
@@ -5192,22 +5192,22 @@
         <v>177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.484287570952804</v>
+        <v>-0.530231158087602</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0519667547915213</v>
+        <v>0.0338376639687045</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.470716557880794</v>
+        <v>-0.346924476757094</v>
       </c>
       <c r="E150" t="n">
-        <v>0.518005092093826</v>
+        <v>0.541205607476635</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0100690026284079</v>
+        <v>0.0053690424799837</v>
       </c>
       <c r="G150" t="n">
-        <v>0.19371319229836</v>
+        <v>0.135389857878363</v>
       </c>
     </row>
     <row r="151">
@@ -5215,22 +5215,22 @@
         <v>178</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.16849697382559</v>
+        <v>-1.30038522204102</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0255356473582613</v>
+        <v>0.0266781132988366</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.136755828242324</v>
+        <v>-0.12560459598197</v>
       </c>
       <c r="E151" t="n">
-        <v>0.814263791372971</v>
+        <v>0.853782636458879</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00428700171979693</v>
+        <v>0.00264946795910459</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0804103043342714</v>
+        <v>0.0602881583783674</v>
       </c>
     </row>
     <row r="152">
@@ -5238,22 +5238,22 @@
         <v>179</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.214666126258381</v>
+        <v>-0.316152956920406</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0230513209304416</v>
+        <v>0.0274935958842234</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.707268619151178</v>
+        <v>-0.524467431438999</v>
       </c>
       <c r="E152" t="n">
-        <v>0.386683988787865</v>
+        <v>0.435151944999712</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00457727351556096</v>
+        <v>0.00440878208601359</v>
       </c>
       <c r="G152" t="n">
-        <v>0.174963413219204</v>
+        <v>0.152587299759801</v>
       </c>
     </row>
     <row r="153">
@@ -5261,22 +5261,22 @@
         <v>180</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.663629710919831</v>
+        <v>-0.77222135208919</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0402723343556582</v>
+        <v>0.0334200951424665</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.302397071245389</v>
+        <v>-0.236734762548621</v>
       </c>
       <c r="E153" t="n">
-        <v>0.603671347209444</v>
+        <v>0.655036231884058</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00613870181428342</v>
+        <v>0.00518380409297911</v>
       </c>
       <c r="G153" t="n">
-        <v>0.129788946176873</v>
+        <v>0.109915506985982</v>
       </c>
     </row>
     <row r="154">
@@ -5284,22 +5284,22 @@
         <v>181</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.842659914069741</v>
+        <v>-0.548530550333796</v>
       </c>
       <c r="C154" t="n">
-        <v>0.172152341444514</v>
+        <v>0.208911383856</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.492384226909472</v>
+        <v>-0.833259420642111</v>
       </c>
       <c r="E154" t="n">
-        <v>0.667159090909091</v>
+        <v>0.543250604072181</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0262982484842821</v>
+        <v>0.0355405070008181</v>
       </c>
       <c r="G154" t="n">
-        <v>0.243071479303511</v>
+        <v>0.347025662141081</v>
       </c>
     </row>
     <row r="155">
@@ -5307,22 +5307,22 @@
         <v>182</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.9419938658393</v>
+        <v>-1.01107366189014</v>
       </c>
       <c r="C155" t="n">
-        <v>0.027052097184069</v>
+        <v>0.0276612873795297</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.174603278749741</v>
+        <v>-0.164495263382076</v>
       </c>
       <c r="E155" t="n">
-        <v>0.73188639683059</v>
+        <v>0.758750534421921</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00448855520879912</v>
+        <v>0.00440971921667838</v>
       </c>
       <c r="G155" t="n">
-        <v>0.091539726480201</v>
+        <v>0.087519828631897</v>
       </c>
     </row>
     <row r="156">
@@ -5330,22 +5330,22 @@
         <v>183</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.200532645854099</v>
+        <v>-0.323712692689836</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0248312754551259</v>
+        <v>0.0291878326667847</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.785804352160478</v>
+        <v>-0.527765741316126</v>
       </c>
       <c r="E156" t="n">
-        <v>0.375073937291459</v>
+        <v>0.436614871708078</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00537475377605983</v>
+        <v>0.00618410744175052</v>
       </c>
       <c r="G156" t="n">
-        <v>0.195462027486972</v>
+        <v>0.180110896893124</v>
       </c>
     </row>
     <row r="157">
@@ -5353,22 +5353,22 @@
         <v>184</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.924689612918608</v>
+        <v>-0.656773085176129</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0424170274099282</v>
+        <v>0.0659665370731019</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.222727650444568</v>
+        <v>-0.391062791670417</v>
       </c>
       <c r="E157" t="n">
-        <v>0.721868103669489</v>
+        <v>0.599612118594871</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00851358875605476</v>
+        <v>0.0141996950288783</v>
       </c>
       <c r="G157" t="n">
-        <v>0.12781990234842</v>
+        <v>0.198732596532744</v>
       </c>
     </row>
     <row r="158">
@@ -5376,22 +5376,22 @@
         <v>185</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.734748666090241</v>
+        <v>-0.348121784641533</v>
       </c>
       <c r="C158" t="n">
-        <v>0.192110156618076</v>
+        <v>0.179745105125554</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.596535586488595</v>
+        <v>-1.21785991139914</v>
       </c>
       <c r="E158" t="n">
-        <v>0.624242424242424</v>
+        <v>0.454019138755981</v>
       </c>
       <c r="F158" t="n">
-        <v>0.029430878658433</v>
+        <v>0.0322939801741639</v>
       </c>
       <c r="G158" t="n">
-        <v>0.274819998927179</v>
+        <v>0.395809876351558</v>
       </c>
     </row>
     <row r="159">
@@ -5399,22 +5399,22 @@
         <v>186</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.675702232459791</v>
+        <v>-0.405422922210199</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0533178506986802</v>
+        <v>0.0794335502246211</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.341728313542528</v>
+        <v>-0.695174266156602</v>
       </c>
       <c r="E159" t="n">
-        <v>0.610426157237326</v>
+        <v>0.479259949630909</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00957205350301055</v>
+        <v>0.0146173600231382</v>
       </c>
       <c r="G159" t="n">
-        <v>0.160276342583255</v>
+        <v>0.252268679605956</v>
       </c>
     </row>
     <row r="160">
@@ -5422,22 +5422,22 @@
         <v>187</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.296661975144433</v>
+        <v>-0.338342150923494</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0307620599707194</v>
+        <v>0.0219511100836114</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.59121551612534</v>
+        <v>-0.437897169475511</v>
       </c>
       <c r="E160" t="n">
-        <v>0.427481656611772</v>
+        <v>0.447296592206098</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00572777409328955</v>
+        <v>0.00428295425355647</v>
       </c>
       <c r="G160" t="n">
-        <v>0.177041653333758</v>
+        <v>0.146310713567451</v>
       </c>
     </row>
     <row r="161">
@@ -5445,22 +5445,22 @@
         <v>188</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.953221454135125</v>
+        <v>-0.879684641567262</v>
       </c>
       <c r="C161" t="n">
-        <v>0.034841485822354</v>
+        <v>0.0378873471264803</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.195818863295722</v>
+        <v>-0.221268753262543</v>
       </c>
       <c r="E161" t="n">
-        <v>0.733706528370958</v>
+        <v>0.703951596501932</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00620968023432419</v>
+        <v>0.00579983260363854</v>
       </c>
       <c r="G161" t="n">
-        <v>0.107401966954945</v>
+        <v>0.108184472367406</v>
       </c>
     </row>
     <row r="162">
@@ -5468,22 +5468,22 @@
         <v>189</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.05531659335306</v>
+        <v>-0.935582784065161</v>
       </c>
       <c r="C162" t="n">
-        <v>0.05197012174249</v>
+        <v>0.0441340600794389</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.216020068886487</v>
+        <v>-0.224545687835562</v>
       </c>
       <c r="E162" t="n">
-        <v>0.775615666384897</v>
+        <v>0.725928430543815</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00903458099095058</v>
+        <v>0.00560516262658092</v>
       </c>
       <c r="G162" t="n">
-        <v>0.122548340642837</v>
+        <v>0.103133629830151</v>
       </c>
     </row>
     <row r="163">
@@ -5491,22 +5491,22 @@
         <v>190</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.51878001963275</v>
+        <v>-1.54051323007747</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0264654547123784</v>
+        <v>0.0251050555575442</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.107113646643041</v>
+        <v>-0.10285257307682</v>
       </c>
       <c r="E163" t="n">
-        <v>0.911636348617099</v>
+        <v>0.9162026032824</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00467400420441729</v>
+        <v>0.00395063683551081</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0749933779991149</v>
+        <v>0.0686028302165978</v>
       </c>
     </row>
     <row r="164">
@@ -5514,22 +5514,22 @@
         <v>191</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.663076769445475</v>
+        <v>-0.816868938561491</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0367355184894722</v>
+        <v>0.050433661458993</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.289054193304384</v>
+        <v>-0.274920969716419</v>
       </c>
       <c r="E164" t="n">
-        <v>0.601664069450846</v>
+        <v>0.671871681181355</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00695740139237874</v>
+        <v>0.00870726083676364</v>
       </c>
       <c r="G164" t="n">
-        <v>0.138633903912927</v>
+        <v>0.138884711467278</v>
       </c>
     </row>
     <row r="165">
@@ -5537,22 +5537,22 @@
         <v>192</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.710616862913111</v>
+        <v>-0.991582784763865</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0404039464323849</v>
+        <v>0.0470441632782325</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.282863157055059</v>
+        <v>-0.218737828358782</v>
       </c>
       <c r="E165" t="n">
-        <v>0.623633491311216</v>
+        <v>0.745105384256014</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00714521202608137</v>
+        <v>0.00737436614539093</v>
       </c>
       <c r="G165" t="n">
-        <v>0.135543323409535</v>
+        <v>0.115250985266765</v>
       </c>
     </row>
     <row r="166">
@@ -5560,22 +5560,22 @@
         <v>193</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.598098106420286</v>
+        <v>-0.937892230028243</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00460878365588072</v>
+        <v>0.0108996488582012</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.11350650033912</v>
+        <v>-0.111314903854352</v>
       </c>
       <c r="E166" t="n">
-        <v>0.571965748170609</v>
+        <v>0.730069523533547</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00101713667454894</v>
+        <v>0.00205604745926932</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0557595980963763</v>
+        <v>0.0621086870017423</v>
       </c>
     </row>
     <row r="167">
@@ -5583,22 +5583,22 @@
         <v>194</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.652041491574049</v>
+        <v>-0.76793801582444</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0403531016416215</v>
+        <v>0.0496586812884665</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.308079803378127</v>
+        <v>-0.290182637608635</v>
       </c>
       <c r="E167" t="n">
-        <v>0.59998173827081</v>
+        <v>0.655509845436879</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00670133843903195</v>
+        <v>0.00686546535857437</v>
       </c>
       <c r="G167" t="n">
-        <v>0.136440324607252</v>
+        <v>0.126402531305997</v>
       </c>
     </row>
     <row r="168">
@@ -5606,22 +5606,22 @@
         <v>195</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.46448351126023</v>
+        <v>-1.45251888970573</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0605854625272028</v>
+        <v>0.0493415837617605</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.168073687149769</v>
+        <v>-0.152927205883459</v>
       </c>
       <c r="E168" t="n">
-        <v>0.893677222420406</v>
+        <v>0.889573083815252</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00770969855955934</v>
+        <v>0.00782162266254241</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0982512331660481</v>
+        <v>0.0994184061698495</v>
       </c>
     </row>
     <row r="169">
@@ -5629,22 +5629,22 @@
         <v>196</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.604803958397273</v>
+        <v>-0.718039082296462</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0463606490191809</v>
+        <v>0.0428837613348437</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.356008304427147</v>
+        <v>-0.288402055905383</v>
       </c>
       <c r="E169" t="n">
-        <v>0.577571584147781</v>
+        <v>0.629826194546964</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00775252504478169</v>
+        <v>0.00672874154561636</v>
       </c>
       <c r="G169" t="n">
-        <v>0.15244590774132</v>
+        <v>0.130240544897293</v>
       </c>
     </row>
     <row r="170">
@@ -5652,22 +5652,22 @@
         <v>197</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.31794240033751</v>
+        <v>-1.26377588591011</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0484844827339681</v>
+        <v>0.0449075365100103</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.167072493033824</v>
+        <v>-0.167683199304169</v>
       </c>
       <c r="E170" t="n">
-        <v>0.860067425390615</v>
+        <v>0.843484455958549</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00726935945773889</v>
+        <v>0.00573240613076442</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0991323891280417</v>
+        <v>0.0897617667866027</v>
       </c>
     </row>
     <row r="171">
@@ -5675,22 +5675,22 @@
         <v>198</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.959177885707321</v>
+        <v>-0.978443243426851</v>
       </c>
       <c r="C171" t="n">
-        <v>0.182919291432158</v>
+        <v>0.144845529064683</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.445892941857047</v>
+        <v>-0.388970718052958</v>
       </c>
       <c r="E171" t="n">
-        <v>0.720538254143806</v>
+        <v>0.730563980813164</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0271490002623708</v>
+        <v>0.0180783245471975</v>
       </c>
       <c r="G171" t="n">
-        <v>0.228675626683026</v>
+        <v>0.184043648036701</v>
       </c>
     </row>
     <row r="172">
@@ -5698,22 +5698,22 @@
         <v>199</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.14067436018894</v>
+        <v>-1.1894858348557</v>
       </c>
       <c r="C172" t="n">
-        <v>0.024158831797057</v>
+        <v>0.0233440586824428</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.136262478887678</v>
+        <v>-0.128448462016517</v>
       </c>
       <c r="E172" t="n">
-        <v>0.80466687838578</v>
+        <v>0.822356280686171</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00398893419340651</v>
+        <v>0.00425821927198852</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0784896351885194</v>
+        <v>0.0793512910085919</v>
       </c>
     </row>
     <row r="173">
@@ -5721,22 +5721,22 @@
         <v>200</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.0783324952488</v>
+        <v>-1.1038739870392</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0531604074209309</v>
+        <v>0.0392778225599032</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.213816618839328</v>
+        <v>-0.179537098668954</v>
       </c>
       <c r="E173" t="n">
-        <v>0.783314812435105</v>
+        <v>0.794269037127271</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00866741481725747</v>
+        <v>0.00608919071910363</v>
       </c>
       <c r="G173" t="n">
-        <v>0.118852535754098</v>
+        <v>0.0982453842448154</v>
       </c>
     </row>
     <row r="174">
@@ -5744,22 +5744,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.37883245756743</v>
+        <v>-1.53795986692204</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0395846161776509</v>
+        <v>0.0403083862348547</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.144295145698542</v>
+        <v>-0.130542733679914</v>
       </c>
       <c r="E174" t="n">
-        <v>0.877952157913248</v>
+        <v>0.912239466485906</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00552901318668991</v>
+        <v>0.00436841675218361</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0846940619497433</v>
+        <v>0.0724524664784952</v>
       </c>
     </row>
     <row r="175">
@@ -5767,22 +5767,22 @@
         <v>202</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.07909720417667</v>
+        <v>-1.21030715458294</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0466023151465801</v>
+        <v>0.0372583188392027</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.200052129596661</v>
+        <v>-0.159483598712782</v>
       </c>
       <c r="E175" t="n">
-        <v>0.786054312248941</v>
+        <v>0.83140350877193</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00765564392984267</v>
+        <v>0.00518864838350262</v>
       </c>
       <c r="G175" t="n">
-        <v>0.111311057404017</v>
+        <v>0.0866393663821968</v>
       </c>
     </row>
     <row r="176">
@@ -5790,22 +5790,22 @@
         <v>203</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.867543328593135</v>
+        <v>-1.21553612865835</v>
       </c>
       <c r="C176" t="n">
-        <v>0.148083234037682</v>
+        <v>0.189579123008399</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.443569596623378</v>
+        <v>-0.358201486090428</v>
       </c>
       <c r="E176" t="n">
-        <v>0.683787819253438</v>
+        <v>0.815054897677895</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0203459934607324</v>
+        <v>0.0186705378281363</v>
       </c>
       <c r="G176" t="n">
-        <v>0.208601818512172</v>
+        <v>0.167645365812796</v>
       </c>
     </row>
     <row r="177">
@@ -5813,22 +5813,22 @@
         <v>204</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.892129489085415</v>
+        <v>-0.944520962352244</v>
       </c>
       <c r="C177" t="n">
-        <v>0.039539220917572</v>
+        <v>0.0420355266715696</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.222887728767494</v>
+        <v>-0.217068420260907</v>
       </c>
       <c r="E177" t="n">
-        <v>0.709593826157595</v>
+        <v>0.731034175665031</v>
       </c>
       <c r="F177" t="n">
-        <v>0.00676975474773338</v>
+        <v>0.0049905309608201</v>
       </c>
       <c r="G177" t="n">
-        <v>0.115951571624381</v>
+        <v>0.0966352771477879</v>
       </c>
     </row>
     <row r="178">
@@ -5836,22 +5836,22 @@
         <v>205</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.923354935646007</v>
+        <v>-1.18702756055267</v>
       </c>
       <c r="C178" t="n">
-        <v>0.208628990827576</v>
+        <v>0.163153194340629</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.494673509271369</v>
+        <v>-0.340280441809142</v>
       </c>
       <c r="E178" t="n">
-        <v>0.710732948761452</v>
+        <v>0.801004411265694</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0299327455633164</v>
+        <v>0.0182645839178501</v>
       </c>
       <c r="G178" t="n">
-        <v>0.243425924308598</v>
+        <v>0.168721327476647</v>
       </c>
     </row>
     <row r="179">
@@ -5859,22 +5859,22 @@
         <v>206</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.40493457989126</v>
+        <v>-1.51513817818381</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0309407300185682</v>
+        <v>0.0223116598925635</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.125201397394828</v>
+        <v>-0.0985856488124135</v>
       </c>
       <c r="E179" t="n">
-        <v>0.887010033581129</v>
+        <v>0.911941207910208</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00506228312582959</v>
+        <v>0.00213380587217027</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0802129858823498</v>
+        <v>0.0506536345043038</v>
       </c>
     </row>
     <row r="180">
@@ -5882,22 +5882,22 @@
         <v>207</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.930626412039119</v>
+        <v>-1.11840359778359</v>
       </c>
       <c r="C180" t="n">
-        <v>0.142850015605826</v>
+        <v>0.20950369628021</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.406129720299063</v>
+        <v>-0.409258105325484</v>
       </c>
       <c r="E180" t="n">
-        <v>0.699304953095606</v>
+        <v>0.774188481675393</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0219355733399033</v>
+        <v>0.0250130013179349</v>
       </c>
       <c r="G180" t="n">
-        <v>0.211791190127375</v>
+        <v>0.20428486755509</v>
       </c>
     </row>
     <row r="181">
@@ -5905,22 +5905,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.898553915343182</v>
+        <v>-1.03389440547123</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0422044737519546</v>
+        <v>0.0406559519999956</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.228630993630013</v>
+        <v>-0.19502302216073</v>
       </c>
       <c r="E181" t="n">
-        <v>0.713424084085346</v>
+        <v>0.768518424396442</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00698829050181436</v>
+        <v>0.00609213343070125</v>
       </c>
       <c r="G181" t="n">
-        <v>0.117175741039813</v>
+        <v>0.101561807088994</v>
       </c>
     </row>
     <row r="182">
@@ -5928,22 +5928,22 @@
         <v>209</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.631507517961201</v>
+        <v>-0.923839338617393</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0542076732532853</v>
+        <v>0.0456659303646103</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.36868193497905</v>
+        <v>-0.231312820269077</v>
       </c>
       <c r="E182" t="n">
-        <v>0.590650425348174</v>
+        <v>0.724101404301916</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00838234525652635</v>
+        <v>0.00634645738279507</v>
       </c>
       <c r="G182" t="n">
-        <v>0.155007335621018</v>
+        <v>0.110018645621767</v>
       </c>
     </row>
     <row r="183">
@@ -5951,22 +5951,22 @@
         <v>210</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.68185772240441</v>
+        <v>-1.6572177584887</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0520958677800809</v>
+        <v>0.044407976215309</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.135710166917328</v>
+        <v>-0.127160115108004</v>
       </c>
       <c r="E183" t="n">
-        <v>0.937261883880021</v>
+        <v>0.931753810339929</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00801332916528737</v>
+        <v>0.00514764790134622</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0955092721975651</v>
+        <v>0.0770022187796874</v>
       </c>
     </row>
     <row r="184">
@@ -5974,22 +5974,22 @@
         <v>211</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.62141132799004</v>
+        <v>-1.66448137041915</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0305580081852859</v>
+        <v>0.0284545429601273</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.10781255009673</v>
+        <v>-0.101343726219786</v>
       </c>
       <c r="E184" t="n">
-        <v>0.931641359363702</v>
+        <v>0.937624500038151</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00532573400589432</v>
+        <v>0.00372352433596728</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0783323174903824</v>
+        <v>0.0650800909829822</v>
       </c>
     </row>
     <row r="185">
@@ -5997,22 +5997,22 @@
         <v>212</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.454387597372731</v>
+        <v>-0.703820291778751</v>
       </c>
       <c r="C185" t="n">
-        <v>0.027941318091987</v>
+        <v>0.0215353884739319</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.367872205506969</v>
+        <v>-0.20850408659593</v>
       </c>
       <c r="E185" t="n">
-        <v>0.502628571428571</v>
+        <v>0.624397032126672</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00524264718279883</v>
+        <v>0.00302410383269152</v>
       </c>
       <c r="G185" t="n">
-        <v>0.144054936009723</v>
+        <v>0.0880719311456143</v>
       </c>
     </row>
     <row r="186">
@@ -6020,22 +6020,22 @@
         <v>213</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.941846116769407</v>
+        <v>-1.15657251152746</v>
       </c>
       <c r="C186" t="n">
-        <v>0.150523768407364</v>
+        <v>0.228212809190683</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.411929210702467</v>
+        <v>-0.413044784153436</v>
       </c>
       <c r="E186" t="n">
-        <v>0.713336673346693</v>
+        <v>0.796792002006634</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0200755184994795</v>
+        <v>0.025674198123466</v>
       </c>
       <c r="G186" t="n">
-        <v>0.198627251591338</v>
+        <v>0.201096021251521</v>
       </c>
     </row>
     <row r="187">
@@ -6043,22 +6043,22 @@
         <v>214</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.94458243945925</v>
+        <v>-1.8750546200637</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0510708825200455</v>
+        <v>0.0473024231879308</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.116214501001525</v>
+        <v>-0.115991929102079</v>
       </c>
       <c r="E187" t="n">
-        <v>0.968317565209488</v>
+        <v>0.961496329757199</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00758338352630027</v>
+        <v>0.00751925181065099</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0899318858175283</v>
+        <v>0.0901861159929291</v>
       </c>
     </row>
     <row r="188">
@@ -6066,22 +6066,22 @@
         <v>215</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.45952047590801</v>
+        <v>-1.48436415778048</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0623363304796386</v>
+        <v>0.07119200235865</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.171064709606897</v>
+        <v>-0.179752585138244</v>
       </c>
       <c r="E188" t="n">
-        <v>0.897617534942821</v>
+        <v>0.901353240152478</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00884669380692285</v>
+        <v>0.00988628512203549</v>
       </c>
       <c r="G188" t="n">
-        <v>0.104785012647629</v>
+        <v>0.110311690844962</v>
       </c>
     </row>
     <row r="189">
@@ -6089,22 +6089,22 @@
         <v>216</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.76574829186257</v>
+        <v>-1.74613937930606</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0720245330921678</v>
+        <v>0.0930470375478013</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.151988745712746</v>
+        <v>-0.174691739160822</v>
       </c>
       <c r="E189" t="n">
-        <v>0.951586928662965</v>
+        <v>0.948921401110636</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0116514658022098</v>
+        <v>0.0145952488357805</v>
       </c>
       <c r="G189" t="n">
-        <v>0.113433625932969</v>
+        <v>0.12731380864355</v>
       </c>
     </row>
     <row r="190">
@@ -6112,22 +6112,22 @@
         <v>217</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.965850501632043</v>
+        <v>-0.94859561471374</v>
       </c>
       <c r="C190" t="n">
-        <v>0.195292492810357</v>
+        <v>0.162185736891954</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.457544000198791</v>
+        <v>-0.424546452792825</v>
       </c>
       <c r="E190" t="n">
-        <v>0.718266886562455</v>
+        <v>0.71624487704918</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0296894094859148</v>
+        <v>0.0190926122159151</v>
       </c>
       <c r="G190" t="n">
-        <v>0.23989154126733</v>
+        <v>0.19291728763252</v>
       </c>
     </row>
     <row r="191">
@@ -6135,22 +6135,22 @@
         <v>218</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.28462474297567</v>
+        <v>-1.22181961964921</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0314989150864505</v>
+        <v>0.0308240832024282</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.138156561314465</v>
+        <v>-0.143693786634152</v>
       </c>
       <c r="E191" t="n">
-        <v>0.855292627028639</v>
+        <v>0.835380835380835</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00571542951297947</v>
+        <v>0.00475928814319829</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0883913380653969</v>
+        <v>0.0825822082617662</v>
       </c>
     </row>
     <row r="192">
@@ -6158,22 +6158,22 @@
         <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.63386536450603</v>
+        <v>-1.61467026587112</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0484121920923592</v>
+        <v>0.0581346542928534</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.134666975832825</v>
+        <v>-0.149325404301101</v>
       </c>
       <c r="E192" t="n">
-        <v>0.93211217396051</v>
+        <v>0.927742584935763</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00728092763689884</v>
+        <v>0.00752798776611535</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0915430076738135</v>
+        <v>0.0935216069218461</v>
       </c>
     </row>
     <row r="193">
@@ -6181,22 +6181,22 @@
         <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.761185516328016</v>
+        <v>-0.808012734345873</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0681206194954424</v>
+        <v>0.0396248065001284</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.342885230294603</v>
+        <v>-0.246357263788886</v>
       </c>
       <c r="E193" t="n">
-        <v>0.65335953346856</v>
+        <v>0.673153179552796</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0119104544691863</v>
+        <v>0.00657498643315867</v>
       </c>
       <c r="G193" t="n">
-        <v>0.167036712586475</v>
+        <v>0.120457412231541</v>
       </c>
     </row>
     <row r="194">
@@ -6204,22 +6204,22 @@
         <v>221</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.12457561844429</v>
+        <v>-1.0902176171955</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0433384428397792</v>
+        <v>0.0530572785206463</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.185117718015586</v>
+        <v>-0.211280438360202</v>
       </c>
       <c r="E194" t="n">
-        <v>0.79830797321972</v>
+        <v>0.783339268816329</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00771390123058446</v>
+        <v>0.00944267878572854</v>
       </c>
       <c r="G194" t="n">
-        <v>0.110018715476574</v>
+        <v>0.124050268874969</v>
       </c>
     </row>
     <row r="195">
@@ -6227,22 +6227,22 @@
         <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.624670423294948</v>
+        <v>-0.635155851634212</v>
       </c>
       <c r="C195" t="n">
-        <v>0.03270922419086</v>
+        <v>0.0461340954679902</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.289523738604276</v>
+        <v>-0.338166592531133</v>
       </c>
       <c r="E195" t="n">
-        <v>0.585430944963655</v>
+        <v>0.591592938733126</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00589606095291087</v>
+        <v>0.00700617379274054</v>
       </c>
       <c r="G195" t="n">
-        <v>0.131161177668482</v>
+        <v>0.141487304039869</v>
       </c>
     </row>
     <row r="196">
@@ -6250,22 +6250,22 @@
         <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.930519561117369</v>
+        <v>-0.96089054447541</v>
       </c>
       <c r="C196" t="n">
-        <v>0.204869590200047</v>
+        <v>0.163154543116894</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.486422037082644</v>
+        <v>-0.420364145179904</v>
       </c>
       <c r="E196" t="n">
-        <v>0.711262011922714</v>
+        <v>0.717869990215896</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0234941645884045</v>
+        <v>0.0212614969829181</v>
       </c>
       <c r="G196" t="n">
-        <v>0.215501545706777</v>
+        <v>0.203119267210163</v>
       </c>
     </row>
     <row r="197">
@@ -6273,22 +6273,22 @@
         <v>224</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.815840770313032</v>
+        <v>-0.783776100330837</v>
       </c>
       <c r="C197" t="n">
-        <v>0.217041559532656</v>
+        <v>0.121511628679128</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.571039362789464</v>
+        <v>-0.444750970634176</v>
       </c>
       <c r="E197" t="n">
-        <v>0.665856348522322</v>
+        <v>0.645922840859272</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0319794850517775</v>
+        <v>0.0192333523241862</v>
       </c>
       <c r="G197" t="n">
-        <v>0.268568570954078</v>
+        <v>0.214707320203837</v>
       </c>
     </row>
     <row r="198">
@@ -6296,22 +6296,22 @@
         <v>225</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.857530838755652</v>
+        <v>-0.854882630459162</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0557931800688138</v>
+        <v>0.04548010381684</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.275448753057737</v>
+        <v>-0.249461902729626</v>
       </c>
       <c r="E198" t="n">
-        <v>0.695018694276675</v>
+        <v>0.691748633879781</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00945360425414423</v>
+        <v>0.00785484251917506</v>
       </c>
       <c r="G198" t="n">
-        <v>0.139895009720508</v>
+        <v>0.1281210328378</v>
       </c>
     </row>
     <row r="199">
@@ -6319,22 +6319,22 @@
         <v>226</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.675907606627704</v>
+        <v>-0.744652147790919</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0367375683821584</v>
+        <v>0.0425910622316631</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.283574953627035</v>
+        <v>-0.277144196880919</v>
       </c>
       <c r="E199" t="n">
-        <v>0.611926640926641</v>
+        <v>0.643312741312741</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00628872776672977</v>
+        <v>0.00771423125057766</v>
       </c>
       <c r="G199" t="n">
-        <v>0.129593147024048</v>
+        <v>0.136528768787163</v>
       </c>
     </row>
     <row r="200">
@@ -6342,22 +6342,22 @@
         <v>227</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.671795968077482</v>
+        <v>-0.617996740770513</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0403854965693731</v>
+        <v>0.043449449440531</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.299140572586007</v>
+        <v>-0.337291932912439</v>
       </c>
       <c r="E200" t="n">
-        <v>0.609440644846116</v>
+        <v>0.583430113185747</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00662338373014329</v>
+        <v>0.00782908004820585</v>
       </c>
       <c r="G200" t="n">
-        <v>0.133539130342393</v>
+        <v>0.151658419501529</v>
       </c>
     </row>
     <row r="201">
@@ -6365,22 +6365,22 @@
         <v>228</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.00864182885468713</v>
+        <v>-0.16434634345853</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00425310798742733</v>
+        <v>0.00607351597495406</v>
       </c>
       <c r="D201" t="n">
-        <v>-7.54653418479749</v>
+        <v>-0.474198355095669</v>
       </c>
       <c r="E201" t="n">
-        <v>0.285253598289885</v>
+        <v>0.356866826654913</v>
       </c>
       <c r="F201" t="n">
-        <v>0.000796446103582183</v>
+        <v>0.00137118491775601</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0989343408191165</v>
+        <v>0.103762836381578</v>
       </c>
     </row>
     <row r="202">
@@ -6388,22 +6388,22 @@
         <v>229</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.650530669278879</v>
+        <v>-0.636126351137101</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0589923493431574</v>
+        <v>0.0396234234577111</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.373361961797445</v>
+        <v>-0.312919488427072</v>
       </c>
       <c r="E202" t="n">
-        <v>0.599525184472249</v>
+        <v>0.591305742701315</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00988104350746509</v>
+        <v>0.00610085629655293</v>
       </c>
       <c r="G202" t="n">
-        <v>0.165803607056752</v>
+        <v>0.132094063701829</v>
       </c>
     </row>
     <row r="203">
@@ -6411,22 +6411,22 @@
         <v>230</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.286535521571558</v>
+        <v>-0.278404194751673</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0235330689974829</v>
+        <v>0.0199341682051741</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.535378362812603</v>
+        <v>-0.507134649946119</v>
       </c>
       <c r="E203" t="n">
-        <v>0.419022581739288</v>
+        <v>0.414828609518439</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00385922427218578</v>
+        <v>0.00367869679766161</v>
       </c>
       <c r="G203" t="n">
-        <v>0.14825610306256</v>
+        <v>0.14621041047412</v>
       </c>
     </row>
     <row r="204">
@@ -6434,22 +6434,22 @@
         <v>231</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.0445631032176</v>
+        <v>-1.0522937185312</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0253686238645066</v>
+        <v>0.0342801168787715</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.152480312491373</v>
+        <v>-0.175947932930505</v>
       </c>
       <c r="E204" t="n">
-        <v>0.774618728203329</v>
+        <v>0.776310774966658</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00345599084940648</v>
+        <v>0.00557100778744427</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0758924021056399</v>
+        <v>0.0961460105950969</v>
       </c>
     </row>
     <row r="205">
@@ -6457,22 +6457,22 @@
         <v>232</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.851748671603847</v>
+        <v>-0.872518548223951</v>
       </c>
       <c r="C205" t="n">
-        <v>0.226794206347743</v>
+        <v>0.173635135653292</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.559119337741872</v>
+        <v>-0.477577807335088</v>
       </c>
       <c r="E205" t="n">
-        <v>0.677225601162763</v>
+        <v>0.683268893713275</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0325906926442534</v>
+        <v>0.0245986600682348</v>
       </c>
       <c r="G205" t="n">
-        <v>0.266571323300358</v>
+        <v>0.229543011912344</v>
       </c>
     </row>
     <row r="206">
@@ -6480,22 +6480,22 @@
         <v>233</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.56414400921224</v>
+        <v>-1.56934692898139</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0560092951040277</v>
+        <v>0.0401620337233039</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.151305013225781</v>
+        <v>-0.12769940871767</v>
       </c>
       <c r="E206" t="n">
-        <v>0.916574731295463</v>
+        <v>0.919361844417885</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00926102398242927</v>
+        <v>0.00701447236850045</v>
       </c>
       <c r="G206" t="n">
-        <v>0.104993309233632</v>
+        <v>0.0910984586198544</v>
       </c>
     </row>
     <row r="207">
@@ -6503,22 +6503,22 @@
         <v>234</v>
       </c>
       <c r="B207" t="n">
-        <v>0.445575451197032</v>
+        <v>0.391007027836906</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0366047341126209</v>
+        <v>0.0343430949368525</v>
       </c>
       <c r="D207" t="n">
-        <v>0.429385498201416</v>
+        <v>0.473952863895497</v>
       </c>
       <c r="E207" t="n">
-        <v>0.132108657064707</v>
+        <v>0.147533760365663</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00690436085752224</v>
+        <v>0.00649812690285045</v>
       </c>
       <c r="G207" t="n">
-        <v>0.628970770023054</v>
+        <v>0.546389924521717</v>
       </c>
     </row>
     <row r="208">
@@ -6526,22 +6526,22 @@
         <v>235</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.00920250814191</v>
+        <v>-1.07859011398883</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0507937217950787</v>
+        <v>0.0441420497460798</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.223319525692905</v>
+        <v>-0.194791415073766</v>
       </c>
       <c r="E208" t="n">
-        <v>0.759054982817869</v>
+        <v>0.780525009545628</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00849452966073402</v>
+        <v>0.00700793113151886</v>
       </c>
       <c r="G208" t="n">
-        <v>0.121421734662753</v>
+        <v>0.107252664281229</v>
       </c>
     </row>
     <row r="209">
@@ -6549,22 +6549,22 @@
         <v>236</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.590177630577368</v>
+        <v>-0.625083466871941</v>
       </c>
       <c r="C209" t="n">
-        <v>0.047875188961468</v>
+        <v>0.0394068254758119</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.370742612630237</v>
+        <v>-0.317576028345182</v>
       </c>
       <c r="E209" t="n">
-        <v>0.569462943071966</v>
+        <v>0.587228786251343</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00822015792531044</v>
+        <v>0.00709498987639038</v>
       </c>
       <c r="G209" t="n">
-        <v>0.159211565365522</v>
+        <v>0.143439430837352</v>
       </c>
     </row>
     <row r="210">
@@ -6572,22 +6572,22 @@
         <v>237</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.731359444437408</v>
+        <v>-0.669087154225829</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0510014331856316</v>
+        <v>0.0389965203299852</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.308787929976725</v>
+        <v>-0.295141470196454</v>
       </c>
       <c r="E210" t="n">
-        <v>0.636844529140861</v>
+        <v>0.608273781165634</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00844729444014077</v>
+        <v>0.00676095678538363</v>
       </c>
       <c r="G210" t="n">
-        <v>0.144319625693425</v>
+        <v>0.135177678220736</v>
       </c>
     </row>
     <row r="211">
@@ -6595,22 +6595,22 @@
         <v>238</v>
       </c>
       <c r="B211" t="n">
-        <v>0.154747993855383</v>
+        <v>-0.0308477448850631</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0290776805607373</v>
+        <v>0.0328839125580989</v>
       </c>
       <c r="D211" t="n">
-        <v>1.10193214697039</v>
+        <v>-5.87852435425193</v>
       </c>
       <c r="E211" t="n">
-        <v>0.224603643525357</v>
+        <v>0.297712949286066</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00598129691401931</v>
+        <v>0.0060384695176512</v>
       </c>
       <c r="G211" t="n">
-        <v>0.344334773825422</v>
+        <v>0.261015149053244</v>
       </c>
     </row>
     <row r="212">
@@ -6618,22 +6618,22 @@
         <v>239</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.49100411962486</v>
+        <v>-0.555503899547932</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0432455536222532</v>
+        <v>0.0368516961802931</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.423531381319466</v>
+        <v>-0.345574452825779</v>
       </c>
       <c r="E212" t="n">
-        <v>0.520325960419092</v>
+        <v>0.553077221575475</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00723809607932866</v>
+        <v>0.00583270270725677</v>
       </c>
       <c r="G212" t="n">
-        <v>0.163507123140582</v>
+        <v>0.138085840593297</v>
       </c>
     </row>
     <row r="213">
@@ -6641,22 +6641,22 @@
         <v>240</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.762885061557604</v>
+        <v>-0.834291433925949</v>
       </c>
       <c r="C213" t="n">
-        <v>0.19397511424098</v>
+        <v>0.186075403142497</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.577316403342561</v>
+        <v>-0.517043044052668</v>
       </c>
       <c r="E213" t="n">
-        <v>0.633333333333333</v>
+        <v>0.668252372975991</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0278184272572616</v>
+        <v>0.0286083965372492</v>
       </c>
       <c r="G213" t="n">
-        <v>0.263350374510738</v>
+        <v>0.253108219519875</v>
       </c>
     </row>
     <row r="214">
@@ -6664,22 +6664,22 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.41376097219482</v>
+        <v>-1.35140319591648</v>
       </c>
       <c r="C214" t="n">
-        <v>0.043354244298768</v>
+        <v>0.0327528378474569</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.147278659192175</v>
+        <v>-0.133918176129515</v>
       </c>
       <c r="E214" t="n">
-        <v>0.885900490539594</v>
+        <v>0.871198318149965</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00677129747987132</v>
+        <v>0.00486961566028323</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0928861590695373</v>
+        <v>0.0800995939212983</v>
       </c>
     </row>
     <row r="215">
@@ -6687,22 +6687,22 @@
         <v>242</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.343456119969282</v>
+        <v>-0.392408400085301</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0476338432170215</v>
+        <v>0.0422516152126233</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.635457561788193</v>
+        <v>-0.523821551393355</v>
       </c>
       <c r="E215" t="n">
-        <v>0.44780487804878</v>
+        <v>0.471951219512195</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00806440259729418</v>
+        <v>0.00717698197536938</v>
       </c>
       <c r="G215" t="n">
-        <v>0.200538277484809</v>
+        <v>0.179503869575596</v>
       </c>
     </row>
     <row r="216">
@@ -6710,22 +6710,22 @@
         <v>243</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.877353076433518</v>
+        <v>-0.880580828034385</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0259350421146322</v>
+        <v>0.0335716480008936</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.18355620727045</v>
+        <v>-0.208073659141747</v>
       </c>
       <c r="E216" t="n">
-        <v>0.705611075338055</v>
+        <v>0.706916934964585</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00497026424006213</v>
+        <v>0.00507500215048538</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0999135408404691</v>
+        <v>0.100774285936283</v>
       </c>
     </row>
     <row r="217">
@@ -6733,22 +6733,22 @@
         <v>244</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.967237135117364</v>
+        <v>-1.09062880480616</v>
       </c>
       <c r="C217" t="n">
-        <v>0.154867614543866</v>
+        <v>0.193683188559218</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.406862199351143</v>
+        <v>-0.403523655675934</v>
       </c>
       <c r="E217" t="n">
-        <v>0.7244564811356</v>
+        <v>0.766410160627568</v>
       </c>
       <c r="F217" t="n">
-        <v>0.019798159943815</v>
+        <v>0.0246406712711627</v>
       </c>
       <c r="G217" t="n">
-        <v>0.194222755889056</v>
+        <v>0.204816534551593</v>
       </c>
     </row>
     <row r="218">
@@ -6756,22 +6756,22 @@
         <v>245</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.41940997650376</v>
+        <v>-1.37751994465805</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0220687913778702</v>
+        <v>0.0209549875801334</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.104660166473286</v>
+        <v>-0.105086229137385</v>
       </c>
       <c r="E218" t="n">
-        <v>0.891190793228077</v>
+        <v>0.879998097774396</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00397030741655582</v>
+        <v>0.00376578184649333</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0707035754254903</v>
+        <v>0.0697342035984079</v>
       </c>
     </row>
     <row r="219">
@@ -6779,22 +6779,22 @@
         <v>246</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.899474526355064</v>
+        <v>-0.958757565152177</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0468013999456702</v>
+        <v>0.0495498043775279</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.240514106614977</v>
+        <v>-0.232173243350429</v>
       </c>
       <c r="E219" t="n">
-        <v>0.711870241922435</v>
+        <v>0.738130252464149</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0074851320099633</v>
+        <v>0.00671413860982647</v>
       </c>
       <c r="G219" t="n">
-        <v>0.121534308246427</v>
+        <v>0.111010011086292</v>
       </c>
     </row>
     <row r="220">
@@ -6802,22 +6802,22 @@
         <v>247</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.912527557492954</v>
+        <v>-1.09456489578155</v>
       </c>
       <c r="C220" t="n">
-        <v>0.193826498439388</v>
+        <v>0.158574602733282</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.482459193411408</v>
+        <v>-0.363810559702779</v>
       </c>
       <c r="E220" t="n">
-        <v>0.700215706806283</v>
+        <v>0.771752879581152</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0250589847536197</v>
+        <v>0.022081348486149</v>
       </c>
       <c r="G220" t="n">
-        <v>0.226073619523185</v>
+        <v>0.192546016132502</v>
       </c>
     </row>
     <row r="221">
@@ -6825,22 +6825,22 @@
         <v>248</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.25498706022868</v>
+        <v>-1.34293166954257</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0445563524434713</v>
+        <v>0.0495840817530758</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.168195962833681</v>
+        <v>-0.165812482627596</v>
       </c>
       <c r="E221" t="n">
-        <v>0.841724503125261</v>
+        <v>0.867558365310331</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00712017521916926</v>
+        <v>0.00761032311390602</v>
       </c>
       <c r="G221" t="n">
-        <v>0.100247920064558</v>
+        <v>0.10055480920496</v>
       </c>
     </row>
     <row r="222">
@@ -6848,22 +6848,22 @@
         <v>249</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.23395539823693</v>
+        <v>-1.21823922997674</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0632888760331596</v>
+        <v>0.0608082362886822</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.20387511979518</v>
+        <v>-0.202417763905518</v>
       </c>
       <c r="E222" t="n">
-        <v>0.837556610543376</v>
+        <v>0.831386929327907</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00934352562962545</v>
+        <v>0.00879327205000516</v>
       </c>
       <c r="G222" t="n">
-        <v>0.115409409755219</v>
+        <v>0.112790380673381</v>
       </c>
     </row>
     <row r="223">
@@ -6871,22 +6871,22 @@
         <v>250</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.995621707381784</v>
+        <v>-1.04025428366193</v>
       </c>
       <c r="C223" t="n">
-        <v>0.149663731092714</v>
+        <v>0.136465022441428</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.388565221995724</v>
+        <v>-0.355116754269908</v>
       </c>
       <c r="E223" t="n">
-        <v>0.739628581535196</v>
+        <v>0.755801202688362</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0203499646124234</v>
+        <v>0.0186055225902282</v>
       </c>
       <c r="G223" t="n">
-        <v>0.192871538100014</v>
+        <v>0.180473465482891</v>
       </c>
     </row>
     <row r="224">
@@ -6894,22 +6894,22 @@
         <v>251</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.37062870325574</v>
+        <v>-1.34145604464698</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0276265631910136</v>
+        <v>0.0246700291499255</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.121267272053634</v>
+        <v>-0.117086920711085</v>
       </c>
       <c r="E224" t="n">
-        <v>0.878616556197997</v>
+        <v>0.870827809899873</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00398818111469525</v>
+        <v>0.00424796145208687</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0718766874395923</v>
+        <v>0.0748441729662236</v>
       </c>
     </row>
     <row r="225">
@@ -6917,22 +6917,22 @@
         <v>252</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.676743475861778</v>
+        <v>-0.774395808570861</v>
       </c>
       <c r="C225" t="n">
-        <v>0.018583193463932</v>
+        <v>0.0194756480137747</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.201435539693427</v>
+        <v>-0.180211692206928</v>
       </c>
       <c r="E225" t="n">
-        <v>0.612410432952561</v>
+        <v>0.659266236352434</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00321116750914265</v>
+        <v>0.00321210116540488</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0925313502922659</v>
+        <v>0.0859673962376202</v>
       </c>
     </row>
     <row r="226">
@@ -6940,22 +6940,22 @@
         <v>253</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.00466585891711</v>
+        <v>-1.08360539846091</v>
       </c>
       <c r="C226" t="n">
-        <v>0.20393026911928</v>
+        <v>0.162165523218176</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.449489138739231</v>
+        <v>-0.371627722504878</v>
       </c>
       <c r="E226" t="n">
-        <v>0.730943704106609</v>
+        <v>0.765686701115039</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0241863580381069</v>
+        <v>0.0195491312448832</v>
       </c>
       <c r="G226" t="n">
-        <v>0.212765549357683</v>
+        <v>0.182604984050284</v>
       </c>
     </row>
     <row r="227">
@@ -6963,22 +6963,22 @@
         <v>254</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.958200218521962</v>
+        <v>-0.989431604284335</v>
       </c>
       <c r="C227" t="n">
-        <v>0.162904749841767</v>
+        <v>0.160646931818927</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.421221575390443</v>
+        <v>-0.405088989742308</v>
       </c>
       <c r="E227" t="n">
-        <v>0.713091606202362</v>
+        <v>0.731221877205135</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0228226016174852</v>
+        <v>0.0174171708272587</v>
       </c>
       <c r="G227" t="n">
-        <v>0.211854283919834</v>
+        <v>0.180484383058504</v>
       </c>
     </row>
     <row r="228">
@@ -6986,22 +6986,22 @@
         <v>255</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.02738450419066</v>
+        <v>-1.03061860892892</v>
       </c>
       <c r="C228" t="n">
-        <v>0.145232142349063</v>
+        <v>0.147469389735536</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.370935467365975</v>
+        <v>-0.37260867485675</v>
       </c>
       <c r="E228" t="n">
-        <v>0.747559818481848</v>
+        <v>0.745336221122112</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0187689351044866</v>
+        <v>0.018435648046658</v>
       </c>
       <c r="G228" t="n">
-        <v>0.18326260958364</v>
+        <v>0.182170049805675</v>
       </c>
     </row>
     <row r="229">
@@ -7009,22 +7009,22 @@
         <v>256</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.0462818250966</v>
+        <v>-1.02342605428042</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0192185800646252</v>
+        <v>0.0170242784570165</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.132498806823576</v>
+        <v>-0.127490518707501</v>
       </c>
       <c r="E229" t="n">
-        <v>0.775094867219055</v>
+        <v>0.766197061410434</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00289650141682424</v>
+        <v>0.00287868512061993</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0694355710703285</v>
+        <v>0.0700255614362651</v>
       </c>
     </row>
     <row r="230">
@@ -7032,22 +7032,22 @@
         <v>257</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.302628917360739</v>
+        <v>-0.234120903900201</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0340198687021562</v>
+        <v>0.042547650107395</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.609474994884478</v>
+        <v>-0.881043998871275</v>
       </c>
       <c r="E230" t="n">
-        <v>0.428488065213563</v>
+        <v>0.394556699455652</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00624642106424849</v>
+        <v>0.00787034978087196</v>
       </c>
       <c r="G230" t="n">
-        <v>0.184449251921049</v>
+        <v>0.224847257652075</v>
       </c>
     </row>
     <row r="231">
@@ -7055,22 +7055,22 @@
         <v>258</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.931313922976904</v>
+        <v>-1.02357412564495</v>
       </c>
       <c r="C231" t="n">
-        <v>0.182223713028599</v>
+        <v>0.243357486291454</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.458359619472269</v>
+        <v>-0.481951189317353</v>
       </c>
       <c r="E231" t="n">
-        <v>0.704623323013416</v>
+        <v>0.748034055727554</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0211462606942674</v>
+        <v>0.0253808810262088</v>
       </c>
       <c r="G231" t="n">
-        <v>0.206376278512013</v>
+        <v>0.212976642491444</v>
       </c>
     </row>
     <row r="232">
@@ -7078,22 +7078,22 @@
         <v>259</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.01014800049825</v>
+        <v>-0.958417057212183</v>
       </c>
       <c r="C232" t="n">
-        <v>0.18496534265071</v>
+        <v>0.182578372050471</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.425755407032183</v>
+        <v>-0.44583086428998</v>
       </c>
       <c r="E232" t="n">
-        <v>0.734818428184282</v>
+        <v>0.724140921409214</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0257784477569936</v>
+        <v>0.0237077695434082</v>
       </c>
       <c r="G232" t="n">
-        <v>0.21849844079173</v>
+        <v>0.212628883228774</v>
       </c>
     </row>
     <row r="233">
@@ -7101,22 +7101,22 @@
         <v>260</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.08800606236665</v>
+        <v>-1.03353503073913</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0472135925343921</v>
+        <v>0.0501530231212826</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.199711102211063</v>
+        <v>-0.216682260195191</v>
       </c>
       <c r="E233" t="n">
-        <v>0.788220422879004</v>
+        <v>0.76846839469627</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00893072194168928</v>
+        <v>0.00858564743441529</v>
       </c>
       <c r="G233" t="n">
-        <v>0.119893489523922</v>
+        <v>0.120575900627113</v>
       </c>
     </row>
     <row r="234">
@@ -7124,22 +7124,22 @@
         <v>261</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.98058128470939</v>
+        <v>-0.932258919476135</v>
       </c>
       <c r="C234" t="n">
-        <v>0.161312179078036</v>
+        <v>0.150276106223107</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.409590597854725</v>
+        <v>-0.415822915976841</v>
       </c>
       <c r="E234" t="n">
-        <v>0.725357607282185</v>
+        <v>0.710513654096229</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0239284238984309</v>
+        <v>0.0211032940149925</v>
       </c>
       <c r="G234" t="n">
-        <v>0.213257776475254</v>
+        <v>0.204457335408755</v>
       </c>
     </row>
     <row r="235">
@@ -7147,22 +7147,22 @@
         <v>262</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.03000417363226</v>
+        <v>-1.03465747152559</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0531579822313153</v>
+        <v>0.042158675914957</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.223843897664045</v>
+        <v>-0.198448071567362</v>
       </c>
       <c r="E235" t="n">
-        <v>0.766698192318387</v>
+        <v>0.767945864218733</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00926967093900941</v>
+        <v>0.00708640947930138</v>
       </c>
       <c r="G235" t="n">
-        <v>0.125576310606362</v>
+        <v>0.109618162063031</v>
       </c>
     </row>
     <row r="236">
@@ -7170,22 +7170,22 @@
         <v>263</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.02469814116213</v>
+        <v>-0.973274635423727</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0343467431564812</v>
+        <v>0.0463570038372637</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.180861793367418</v>
+        <v>-0.221218923190611</v>
       </c>
       <c r="E236" t="n">
-        <v>0.763504551411517</v>
+        <v>0.743821756855413</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00574202811308655</v>
+        <v>0.00728193603154188</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0992478315982085</v>
+        <v>0.114724071741601</v>
       </c>
     </row>
     <row r="237">
@@ -7193,22 +7193,22 @@
         <v>264</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.05516616474767</v>
+        <v>-1.05226369119527</v>
       </c>
       <c r="C237" t="n">
-        <v>0.249180672066968</v>
+        <v>0.196547783491186</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.473081886383073</v>
+        <v>-0.421317491869307</v>
       </c>
       <c r="E237" t="n">
-        <v>0.754372730939895</v>
+        <v>0.754110528438887</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0302403965676344</v>
+        <v>0.0255022840338065</v>
       </c>
       <c r="G237" t="n">
-        <v>0.230519548306244</v>
+        <v>0.211765171856736</v>
       </c>
     </row>
     <row r="238">
@@ -7216,22 +7216,22 @@
         <v>265</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.923347912304267</v>
+        <v>-0.891821899872571</v>
       </c>
       <c r="C238" t="n">
-        <v>0.181852168573655</v>
+        <v>0.159616279523607</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.46184247364372</v>
+        <v>-0.447981891379169</v>
       </c>
       <c r="E238" t="n">
-        <v>0.705012655664676</v>
+        <v>0.694105160136344</v>
       </c>
       <c r="F238" t="n">
-        <v>0.026366127016585</v>
+        <v>0.0227473037508874</v>
       </c>
       <c r="G238" t="n">
-        <v>0.230317138891085</v>
+        <v>0.217289975220386</v>
       </c>
     </row>
     <row r="239">
@@ -7239,22 +7239,22 @@
         <v>266</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.80761500842181</v>
+        <v>-0.84369691397175</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0268537771267142</v>
+        <v>0.024102298126259</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.202907597627582</v>
+        <v>-0.184010568228347</v>
       </c>
       <c r="E239" t="n">
-        <v>0.674451963548842</v>
+        <v>0.689848157382821</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00447604924300251</v>
+        <v>0.00455247164954612</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0991965126767968</v>
+        <v>0.0978070401319786</v>
       </c>
     </row>
     <row r="240">
@@ -7262,22 +7262,22 @@
         <v>267</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.803477342199029</v>
+        <v>-0.892483338648662</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0436411917044837</v>
+        <v>0.0333179312701906</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.260000789273895</v>
+        <v>-0.204521465858124</v>
       </c>
       <c r="E240" t="n">
-        <v>0.673008849557522</v>
+        <v>0.712570796460177</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00926237508712507</v>
+        <v>0.00690896281423761</v>
       </c>
       <c r="G240" t="n">
-        <v>0.14300143881155</v>
+        <v>0.116648298436769</v>
       </c>
     </row>
     <row r="241">
@@ -7285,22 +7285,22 @@
         <v>268</v>
       </c>
       <c r="B241" t="n">
-        <v>0.029199039278782</v>
+        <v>-0.0782252132273518</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0160167581604392</v>
+        <v>0.0163342729311497</v>
       </c>
       <c r="D241" t="n">
-        <v>4.33429779341814</v>
+        <v>-1.63381601341886</v>
       </c>
       <c r="E241" t="n">
-        <v>0.276966381650064</v>
+        <v>0.323550509278288</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00309360748645177</v>
+        <v>0.00348599516172024</v>
       </c>
       <c r="G241" t="n">
-        <v>0.20081934567499</v>
+        <v>0.182482533670655</v>
       </c>
     </row>
     <row r="242">
@@ -7308,22 +7308,22 @@
         <v>269</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5231427354427</v>
+        <v>-0.467776406958493</v>
       </c>
       <c r="C242" t="n">
-        <v>0.21959736652475</v>
+        <v>0.158512885004381</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.895763505728128</v>
+        <v>-0.8511262235227</v>
       </c>
       <c r="E242" t="n">
-        <v>0.534518906776488</v>
+        <v>0.508723324597529</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0381770290409309</v>
+        <v>0.0281515735997705</v>
       </c>
       <c r="G242" t="n">
-        <v>0.36554259674887</v>
+        <v>0.329814456428068</v>
       </c>
     </row>
     <row r="243">
@@ -7331,22 +7331,22 @@
         <v>270</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.385713882069654</v>
+        <v>-0.38196125136197</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0378101874863222</v>
+        <v>0.0442110563719022</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.504126057199817</v>
+        <v>-0.550485822636311</v>
       </c>
       <c r="E243" t="n">
-        <v>0.46812613430127</v>
+        <v>0.467068965517241</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00712584484879002</v>
+        <v>0.00877835216678305</v>
       </c>
       <c r="G243" t="n">
-        <v>0.18032473130485</v>
+        <v>0.200597487153433</v>
       </c>
     </row>
     <row r="244">
@@ -7354,22 +7354,22 @@
         <v>271</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.46784365965301</v>
+        <v>-0.564649240313126</v>
       </c>
       <c r="C244" t="n">
-        <v>0.17705307458723</v>
+        <v>0.199863401312069</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.899396075589588</v>
+        <v>-0.791749666023069</v>
       </c>
       <c r="E244" t="n">
-        <v>0.507875234490388</v>
+        <v>0.549043877728596</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0301073000040531</v>
+        <v>0.0348269749065305</v>
       </c>
       <c r="G244" t="n">
-        <v>0.341647989372012</v>
+        <v>0.33989973290852</v>
       </c>
     </row>
     <row r="245">
@@ -7377,22 +7377,22 @@
         <v>272</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.479802129573064</v>
+        <v>-0.541458320507402</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0627315657816084</v>
+        <v>0.0614534780917112</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.522012487933844</v>
+        <v>-0.457834169313913</v>
       </c>
       <c r="E245" t="n">
-        <v>0.515434941520468</v>
+        <v>0.545391081871345</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0124365203132748</v>
+        <v>0.0127865076634157</v>
       </c>
       <c r="G245" t="n">
-        <v>0.21635930892424</v>
+        <v>0.207332764982821</v>
       </c>
     </row>
     <row r="246">
@@ -7400,22 +7400,22 @@
         <v>273</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.646961140707631</v>
+        <v>-0.648651207674721</v>
       </c>
       <c r="C246" t="n">
-        <v>0.196541919134803</v>
+        <v>0.159677365311261</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.685250561951371</v>
+        <v>-0.616042178599171</v>
       </c>
       <c r="E246" t="n">
-        <v>0.58903796257036</v>
+        <v>0.587207714660266</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0326570340425903</v>
+        <v>0.0274207902193871</v>
       </c>
       <c r="G246" t="n">
-        <v>0.306792744253398</v>
+        <v>0.281999429988061</v>
       </c>
     </row>
     <row r="247">
@@ -7423,22 +7423,22 @@
         <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.497345298279551</v>
+        <v>-0.487782867317421</v>
       </c>
       <c r="C247" t="n">
-        <v>0.153977241079008</v>
+        <v>0.184862500112228</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.788987731748032</v>
+        <v>-0.881450379003253</v>
       </c>
       <c r="E247" t="n">
-        <v>0.518017811989563</v>
+        <v>0.518623215195326</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0271399103117674</v>
+        <v>0.0320358551083068</v>
       </c>
       <c r="G247" t="n">
-        <v>0.31802371822109</v>
+        <v>0.345116884422138</v>
       </c>
     </row>
     <row r="248">
@@ -7446,22 +7446,22 @@
         <v>275</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.590243203028597</v>
+        <v>-0.520065284191733</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0575408886657978</v>
+        <v>0.045812316465564</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.406403358048113</v>
+        <v>-0.411560097730259</v>
       </c>
       <c r="E248" t="n">
-        <v>0.570561378989052</v>
+        <v>0.535553226182157</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0124162119513839</v>
+        <v>0.00972908358120569</v>
       </c>
       <c r="G248" t="n">
-        <v>0.195295478090816</v>
+        <v>0.184176123305796</v>
       </c>
     </row>
     <row r="249">
@@ -7469,22 +7469,22 @@
         <v>276</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.81355366192893</v>
+        <v>-0.80718058387244</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0469171368478741</v>
+        <v>0.0461654085157611</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.266243826443555</v>
+        <v>-0.266187486112175</v>
       </c>
       <c r="E249" t="n">
-        <v>0.675382752841149</v>
+        <v>0.671919040782222</v>
       </c>
       <c r="F249" t="n">
-        <v>0.00915589476845115</v>
+        <v>0.0091798975717518</v>
       </c>
       <c r="G249" t="n">
-        <v>0.141677351743554</v>
+        <v>0.142594235605409</v>
       </c>
     </row>
     <row r="250">
@@ -7492,22 +7492,22 @@
         <v>277</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.594178743280558</v>
+        <v>-0.561492453362477</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0169167018545242</v>
+        <v>0.0204956584528772</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.218897467318611</v>
+        <v>-0.254968784767131</v>
       </c>
       <c r="E250" t="n">
-        <v>0.573618930901489</v>
+        <v>0.556790181306996</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00365368588677329</v>
+        <v>0.00364130263498164</v>
       </c>
       <c r="G250" t="n">
-        <v>0.105376101677314</v>
+        <v>0.10837692376502</v>
       </c>
     </row>
     <row r="251">
@@ -7515,22 +7515,22 @@
         <v>278</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.435259889808386</v>
+        <v>-0.452436129025772</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0486678680122505</v>
+        <v>0.0560935785486744</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.506841903176998</v>
+        <v>-0.523479037967683</v>
       </c>
       <c r="E251" t="n">
-        <v>0.494017132126128</v>
+        <v>0.50146975905977</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00963477018431906</v>
+        <v>0.0115033033136415</v>
       </c>
       <c r="G251" t="n">
-        <v>0.198691216981787</v>
+        <v>0.213878208373201</v>
       </c>
     </row>
     <row r="252">
@@ -7538,22 +7538,22 @@
         <v>279</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.43950383480163</v>
+        <v>-0.425962596918164</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0516496509399713</v>
+        <v>0.0426096724913</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.517095819414142</v>
+        <v>-0.484599132073527</v>
       </c>
       <c r="E252" t="n">
-        <v>0.495670103092783</v>
+        <v>0.487989690721649</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0111654513409879</v>
+        <v>0.00954519677375012</v>
       </c>
       <c r="G252" t="n">
-        <v>0.213179489020682</v>
+        <v>0.200208169868709</v>
       </c>
     </row>
     <row r="253">
@@ -7561,22 +7561,22 @@
         <v>280</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.00327945260203789</v>
+        <v>-0.0357014803654743</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0421409897055744</v>
+        <v>0.0451145660496553</v>
       </c>
       <c r="D253" t="n">
-        <v>-62.5966378226939</v>
+        <v>-5.94938628027557</v>
       </c>
       <c r="E253" t="n">
-        <v>0.289728707661953</v>
+        <v>0.30516113120684</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00861187739869595</v>
+        <v>0.00949173920153604</v>
       </c>
       <c r="G253" t="n">
-        <v>0.32030033285363</v>
+        <v>0.319259392061171</v>
       </c>
     </row>
     <row r="254">
@@ -7584,22 +7584,22 @@
         <v>281</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.20659456554117</v>
+        <v>-1.35033860895152</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0436704744560772</v>
+        <v>0.0360327464257684</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.173193899362617</v>
+        <v>-0.140574321985395</v>
       </c>
       <c r="E254" t="n">
-        <v>0.827832231018058</v>
+        <v>0.868160107912632</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00832842307818304</v>
+        <v>0.00696743469621248</v>
       </c>
       <c r="G254" t="n">
-        <v>0.110239962833125</v>
+        <v>0.0961471969335985</v>
       </c>
     </row>
     <row r="255">
@@ -7607,22 +7607,22 @@
         <v>282</v>
       </c>
       <c r="B255" t="n">
-        <v>0.511902572937271</v>
+        <v>0.305816168418023</v>
       </c>
       <c r="C255" t="n">
-        <v>0.00800672108698864</v>
+        <v>0.00812953440207169</v>
       </c>
       <c r="D255" t="n">
-        <v>0.17479944028596</v>
+        <v>0.29483048977406</v>
       </c>
       <c r="E255" t="n">
-        <v>0.114940142291222</v>
+        <v>0.170651998091697</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00144171447058864</v>
+        <v>0.00160670045993045</v>
       </c>
       <c r="G255" t="n">
-        <v>0.330345122066612</v>
+        <v>0.234885431712925</v>
       </c>
     </row>
     <row r="256">
@@ -7630,22 +7630,22 @@
         <v>283</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.527663551348619</v>
+        <v>-0.501790808840106</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0227783945415925</v>
+        <v>0.0332129172631635</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.286025306355028</v>
+        <v>-0.363187430440997</v>
       </c>
       <c r="E256" t="n">
-        <v>0.539921656407387</v>
+        <v>0.526359820928931</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00499857330087754</v>
+        <v>0.0072839924098186</v>
       </c>
       <c r="G256" t="n">
-        <v>0.130946014618308</v>
+        <v>0.162144421578076</v>
       </c>
     </row>
     <row r="257">
@@ -7653,22 +7653,22 @@
         <v>284</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.484038714084409</v>
+        <v>-0.472947801365417</v>
       </c>
       <c r="C257" t="n">
-        <v>0.028996229169676</v>
+        <v>0.0205172463612682</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.351795810552849</v>
+        <v>-0.302863073818189</v>
       </c>
       <c r="E257" t="n">
-        <v>0.517932354435186</v>
+        <v>0.511917404799282</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00539735191546744</v>
+        <v>0.00426032734323575</v>
       </c>
       <c r="G257" t="n">
-        <v>0.141846076059638</v>
+        <v>0.127503348172546</v>
       </c>
     </row>
     <row r="258">
@@ -7676,22 +7676,22 @@
         <v>285</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.216197018669753</v>
+        <v>-0.227045535484256</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0348529000873323</v>
+        <v>0.0389570487431129</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.863514749115967</v>
+        <v>-0.869320773611134</v>
       </c>
       <c r="E258" t="n">
-        <v>0.385023152800384</v>
+        <v>0.390687893138908</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00748550258633801</v>
+        <v>0.00824005169763991</v>
       </c>
       <c r="G258" t="n">
-        <v>0.224710639879775</v>
+        <v>0.23234590089879</v>
       </c>
     </row>
     <row r="259">
@@ -7699,22 +7699,22 @@
         <v>286</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.550162840346992</v>
+        <v>-0.523392959950182</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0423950941493284</v>
+        <v>0.0571225571010564</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.374254084275806</v>
+        <v>-0.456642094563405</v>
       </c>
       <c r="E259" t="n">
-        <v>0.55039211136891</v>
+        <v>0.537109048723898</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00913911122200031</v>
+        <v>0.011528058821954</v>
       </c>
       <c r="G259" t="n">
-        <v>0.173691985906577</v>
+        <v>0.199901302039138</v>
       </c>
     </row>
     <row r="260">
@@ -7722,22 +7722,22 @@
         <v>287</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.547548921472583</v>
+        <v>-0.471255129076868</v>
       </c>
       <c r="C260" t="n">
-        <v>0.023427263651641</v>
+        <v>0.0342065823568078</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.279536069740447</v>
+        <v>-0.392463030057047</v>
       </c>
       <c r="E260" t="n">
-        <v>0.549571998549148</v>
+        <v>0.511247733043163</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00446052655788037</v>
+        <v>0.00666434501639182</v>
       </c>
       <c r="G260" t="n">
-        <v>0.121525794216844</v>
+        <v>0.159678829718267</v>
       </c>
     </row>
     <row r="261">
@@ -7745,22 +7745,22 @@
         <v>288</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.627533199346129</v>
+        <v>-0.605944763422913</v>
       </c>
       <c r="C261" t="n">
-        <v>0.195565596825435</v>
+        <v>0.185042751901005</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.704708519592333</v>
+        <v>-0.709909523974995</v>
       </c>
       <c r="E261" t="n">
-        <v>0.584023591087811</v>
+        <v>0.573826998689384</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0297792017629092</v>
+        <v>0.0309633565530131</v>
       </c>
       <c r="G261" t="n">
-        <v>0.295478670140814</v>
+        <v>0.306650049322221</v>
       </c>
     </row>
     <row r="262">
@@ -7768,22 +7768,22 @@
         <v>289</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.411424777413528</v>
+        <v>-0.402990567962758</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0413872269733887</v>
+        <v>0.0451046435120957</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.494473158254638</v>
+        <v>-0.527006225804342</v>
       </c>
       <c r="E262" t="n">
-        <v>0.481716772151899</v>
+        <v>0.478330696202532</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00809762612771766</v>
+        <v>0.00931916234252323</v>
       </c>
       <c r="G262" t="n">
-        <v>0.186804396393052</v>
+        <v>0.201818134125238</v>
       </c>
     </row>
     <row r="263">
@@ -7791,22 +7791,22 @@
         <v>290</v>
       </c>
       <c r="B263" t="n">
-        <v>0.314499199656078</v>
+        <v>0.193936596781546</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0458037035997081</v>
+        <v>0.0444508372858157</v>
       </c>
       <c r="D263" t="n">
-        <v>0.680504111113515</v>
+        <v>1.08712680116166</v>
       </c>
       <c r="E263" t="n">
-        <v>0.169414265470005</v>
+        <v>0.210170051960321</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00937757765498677</v>
+        <v>0.0089852246773482</v>
       </c>
       <c r="G263" t="n">
-        <v>0.571604129232022</v>
+        <v>0.451017755126174</v>
       </c>
     </row>
     <row r="264">
@@ -7814,22 +7814,22 @@
         <v>291</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.775707983928576</v>
+        <v>-0.734067275099526</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0456240308571286</v>
+        <v>0.0539318768399078</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.275358549163378</v>
+        <v>-0.316363887466379</v>
       </c>
       <c r="E264" t="n">
-        <v>0.658929597701149</v>
+        <v>0.63711566091954</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00943725825543025</v>
+        <v>0.0117608701309928</v>
       </c>
       <c r="G264" t="n">
-        <v>0.147429334251349</v>
+        <v>0.170216417802737</v>
       </c>
     </row>
     <row r="265">
@@ -7837,22 +7837,22 @@
         <v>292</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.55771207234649</v>
+        <v>-0.516432686598914</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0482427755962425</v>
+        <v>0.0552567980958696</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.393827553747604</v>
+        <v>-0.455175770021742</v>
       </c>
       <c r="E265" t="n">
-        <v>0.553826291079812</v>
+        <v>0.534380281690141</v>
       </c>
       <c r="F265" t="n">
-        <v>0.010137286448456</v>
+        <v>0.0117623824223589</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1817972421179</v>
+        <v>0.202953816739044</v>
       </c>
     </row>
     <row r="266">
@@ -7860,22 +7860,22 @@
         <v>293</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.10432490420858</v>
+        <v>-1.10470788766206</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0243812396930273</v>
+        <v>0.0229660784260551</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.14139401465701</v>
+        <v>-0.137181632529558</v>
       </c>
       <c r="E266" t="n">
-        <v>0.796087686567164</v>
+        <v>0.796147388059702</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00540108724357457</v>
+        <v>0.00451988424290627</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0923165763103088</v>
+        <v>0.084444269198393</v>
       </c>
     </row>
     <row r="267">
@@ -7883,22 +7883,22 @@
         <v>294</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.510990397716396</v>
+        <v>-0.504013002475347</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0482534278201279</v>
+        <v>0.0448888481920381</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.42988406398335</v>
+        <v>-0.420365911219874</v>
       </c>
       <c r="E267" t="n">
-        <v>0.531379726468222</v>
+        <v>0.526363636363636</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00953966510819398</v>
+        <v>0.0092313485093353</v>
       </c>
       <c r="G267" t="n">
-        <v>0.183806803954255</v>
+        <v>0.182535228992565</v>
       </c>
     </row>
     <row r="268">
@@ -7906,22 +7906,22 @@
         <v>295</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.00009890362941</v>
+        <v>-1.03427331941471</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0358353418996902</v>
+        <v>0.040534297318763</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.18928352928984</v>
+        <v>-0.19465967896149</v>
       </c>
       <c r="E268" t="n">
-        <v>0.757792909641159</v>
+        <v>0.770616083009079</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00737280259988422</v>
+        <v>0.00832958294295724</v>
       </c>
       <c r="G268" t="n">
-        <v>0.113309354551787</v>
+        <v>0.118433226199176</v>
       </c>
     </row>
     <row r="269">
@@ -7929,22 +7929,22 @@
         <v>296</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.1470525104634</v>
+        <v>-1.10201836801276</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0511551134441538</v>
+        <v>0.0556750723894302</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.197179257231487</v>
+        <v>-0.214112273012054</v>
       </c>
       <c r="E269" t="n">
-        <v>0.8072261208577</v>
+        <v>0.791849902534113</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0106094139155068</v>
+        <v>0.0111751813889554</v>
       </c>
       <c r="G269" t="n">
-        <v>0.127599945811387</v>
+        <v>0.133500970522142</v>
       </c>
     </row>
     <row r="270">
@@ -7952,22 +7952,22 @@
         <v>297</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.853639732624901</v>
+        <v>-0.982106700250456</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0395481597658388</v>
+        <v>0.0474073609976637</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.232963841390178</v>
+        <v>-0.221699246069695</v>
       </c>
       <c r="E270" t="n">
-        <v>0.696508232370301</v>
+        <v>0.749251320285803</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00831838803103968</v>
+        <v>0.00902673316445603</v>
       </c>
       <c r="G270" t="n">
-        <v>0.130946330785087</v>
+        <v>0.126805410825364</v>
       </c>
     </row>
     <row r="271">
@@ -7975,22 +7975,22 @@
         <v>298</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.260434818200115</v>
+        <v>-0.512466643878892</v>
       </c>
       <c r="C271" t="n">
-        <v>0.00946795125822766</v>
+        <v>0.0150059805991205</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.373619006288432</v>
+        <v>-0.239037802484932</v>
       </c>
       <c r="E271" t="n">
-        <v>0.404841546374647</v>
+        <v>0.532133731541397</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00190280277355958</v>
+        <v>0.00305115258737374</v>
       </c>
       <c r="G271" t="n">
-        <v>0.107748643873008</v>
+        <v>0.103803303308837</v>
       </c>
     </row>
     <row r="272">
@@ -7998,22 +7998,22 @@
         <v>299</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.700245553196519</v>
+        <v>-0.677655647089331</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0342034671566826</v>
+        <v>0.0511158317231826</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.264109915622223</v>
+        <v>-0.333632733790957</v>
       </c>
       <c r="E272" t="n">
-        <v>0.625538948907481</v>
+        <v>0.61316058809195</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00727040763267417</v>
+        <v>0.0102101186433654</v>
       </c>
       <c r="G272" t="n">
-        <v>0.136309154707672</v>
+        <v>0.164793911542407</v>
       </c>
     </row>
     <row r="273">
@@ -8021,22 +8021,22 @@
         <v>300</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.358000971298821</v>
+        <v>-0.515193453781382</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0277831337345699</v>
+        <v>0.0263037791314521</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.465592965175113</v>
+        <v>-0.314802910158816</v>
       </c>
       <c r="E273" t="n">
-        <v>0.455059608965188</v>
+        <v>0.532713400095374</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00563876349345717</v>
+        <v>0.00548200167780618</v>
       </c>
       <c r="G273" t="n">
-        <v>0.165015086119931</v>
+        <v>0.138987569598807</v>
       </c>
     </row>
     <row r="274">
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.41395923866187</v>
+        <v>-0.509197048460055</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0235099515821101</v>
+        <v>0.0190007700421433</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.370397705603876</v>
+        <v>-0.270707147941859</v>
       </c>
       <c r="E274" t="n">
-        <v>0.48221066319896</v>
+        <v>0.529892501083658</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00451253105856566</v>
+        <v>0.00382920371299426</v>
       </c>
       <c r="G274" t="n">
-        <v>0.139307113083546</v>
+        <v>0.116779459853958</v>
       </c>
     </row>
     <row r="275">
@@ -8067,22 +8067,22 @@
         <v>302</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.582845573424266</v>
+        <v>-0.668454324567833</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0628574229069485</v>
+        <v>0.0478090236988355</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.430154809693019</v>
+        <v>-0.327102000540054</v>
       </c>
       <c r="E275" t="n">
-        <v>0.567132097334878</v>
+        <v>0.607612977983778</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0127504125214216</v>
+        <v>0.0104488698476008</v>
       </c>
       <c r="G275" t="n">
-        <v>0.199103039834597</v>
+        <v>0.168231616669809</v>
       </c>
     </row>
     <row r="276">
@@ -8090,22 +8090,22 @@
         <v>303</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.32334503884993</v>
+        <v>-0.644796767078005</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0212621855417426</v>
+        <v>0.033250684836624</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.450959717715142</v>
+        <v>-0.282798724249023</v>
       </c>
       <c r="E276" t="n">
-        <v>0.437504340962904</v>
+        <v>0.595859510655091</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0045112514098832</v>
+        <v>0.00730647785389422</v>
       </c>
       <c r="G276" t="n">
-        <v>0.153520419658981</v>
+        <v>0.14345317359396</v>
       </c>
     </row>
     <row r="277">
@@ -8113,22 +8113,22 @@
         <v>304</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.648686575577929</v>
+        <v>-0.897868938919041</v>
       </c>
       <c r="C277" t="n">
-        <v>0.15595124645227</v>
+        <v>0.161735631046727</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.608778792272083</v>
+        <v>-0.447909120641176</v>
       </c>
       <c r="E277" t="n">
-        <v>0.590044820717131</v>
+        <v>0.687828685258964</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0238002713067674</v>
+        <v>0.0229691084672143</v>
       </c>
       <c r="G277" t="n">
-        <v>0.261460418084328</v>
+        <v>0.220339208789618</v>
       </c>
     </row>
     <row r="278">
@@ -8136,22 +8136,22 @@
         <v>305</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.418154760615543</v>
+        <v>-0.772389033832224</v>
       </c>
       <c r="C278" t="n">
-        <v>0.220405368617096</v>
+        <v>0.137273117379542</v>
       </c>
       <c r="D278" t="n">
-        <v>-1.12272666898676</v>
+        <v>-0.479685564345144</v>
       </c>
       <c r="E278" t="n">
-        <v>0.484700268416344</v>
+        <v>0.647023560990158</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0353431451839159</v>
+        <v>0.0232067221793447</v>
       </c>
       <c r="G278" t="n">
-        <v>0.387863879575443</v>
+        <v>0.23544355466856</v>
       </c>
     </row>
     <row r="279">
@@ -8159,22 +8159,22 @@
         <v>306</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.686760540053</v>
+        <v>-0.873589797439349</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0380098572765801</v>
+        <v>0.0455313588956567</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.283885222384297</v>
+        <v>-0.24425741283467</v>
       </c>
       <c r="E279" t="n">
-        <v>0.617388696655133</v>
+        <v>0.702532871972318</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00789836043416892</v>
+        <v>0.00854596059992896</v>
       </c>
       <c r="G279" t="n">
-        <v>0.143949380508019</v>
+        <v>0.131587244637452</v>
       </c>
     </row>
     <row r="280">
@@ -8182,22 +8182,22 @@
         <v>307</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.506446151594496</v>
+        <v>-0.671491462413201</v>
       </c>
       <c r="C280" t="n">
-        <v>0.188319323325282</v>
+        <v>0.166009174396723</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.856868479191806</v>
+        <v>-0.606772025015799</v>
       </c>
       <c r="E280" t="n">
-        <v>0.526793258426966</v>
+        <v>0.604480898876404</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0314770360899381</v>
+        <v>0.0285262416142911</v>
       </c>
       <c r="G280" t="n">
-        <v>0.336788076484165</v>
+        <v>0.279408552936643</v>
       </c>
     </row>
     <row r="281">
@@ -8205,22 +8205,22 @@
         <v>308</v>
       </c>
       <c r="B281" t="n">
-        <v>0.224819067673507</v>
+        <v>0.118210626559422</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0248269255096133</v>
+        <v>0.0261627457054319</v>
       </c>
       <c r="D281" t="n">
-        <v>0.700855245500318</v>
+        <v>1.36831201587018</v>
       </c>
       <c r="E281" t="n">
-        <v>0.196320469163829</v>
+        <v>0.236331819901627</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0050934754765227</v>
+        <v>0.00571298915062582</v>
       </c>
       <c r="G281" t="n">
-        <v>0.363531063105966</v>
+        <v>0.319822858319612</v>
       </c>
     </row>
     <row r="282">
@@ -8228,22 +8228,22 @@
         <v>309</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.02484900590874</v>
+        <v>-1.0685879760132</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0426633036783636</v>
+        <v>0.0421206037924484</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.201542832112723</v>
+        <v>-0.192060038220794</v>
       </c>
       <c r="E282" t="n">
-        <v>0.763320736891828</v>
+        <v>0.779057628719887</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00790563698298231</v>
+        <v>0.00808739974937463</v>
       </c>
       <c r="G282" t="n">
-        <v>0.116482685099426</v>
+        <v>0.115434299142807</v>
       </c>
     </row>
     <row r="283">
@@ -8251,22 +8251,22 @@
         <v>310</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.584899124541907</v>
+        <v>-0.744063615872074</v>
       </c>
       <c r="C283" t="n">
-        <v>0.20305061333627</v>
+        <v>0.16418940910265</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.770408705322032</v>
+        <v>-0.544581020655047</v>
       </c>
       <c r="E283" t="n">
-        <v>0.558647768002607</v>
+        <v>0.631404366243076</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0323730341119177</v>
+        <v>0.0247909017924969</v>
       </c>
       <c r="G283" t="n">
-        <v>0.322072492666711</v>
+        <v>0.249366770979924</v>
       </c>
     </row>
     <row r="284">
@@ -8274,22 +8274,22 @@
         <v>311</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.151042577449067</v>
+        <v>-0.287874766394094</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0573596807655719</v>
+        <v>0.0546383072500316</v>
       </c>
       <c r="D284" t="n">
-        <v>-1.5856377430858</v>
+        <v>-0.81197941526583</v>
       </c>
       <c r="E284" t="n">
-        <v>0.354832369942196</v>
+        <v>0.420040462427746</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0115478216305256</v>
+        <v>0.0106589948655151</v>
       </c>
       <c r="G284" t="n">
-        <v>0.302849458601037</v>
+        <v>0.245791578444346</v>
       </c>
     </row>
     <row r="285">
@@ -8297,22 +8297,22 @@
         <v>312</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.474030271776681</v>
+        <v>-0.617520015629616</v>
       </c>
       <c r="C285" t="n">
-        <v>0.200443199206601</v>
+        <v>0.173411495988173</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.944473084787189</v>
+        <v>-0.67435394656919</v>
       </c>
       <c r="E285" t="n">
-        <v>0.510704491725768</v>
+        <v>0.575780141843972</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0323249924134154</v>
+        <v>0.0289465572491882</v>
       </c>
       <c r="G285" t="n">
-        <v>0.352046100589053</v>
+        <v>0.295489312007742</v>
       </c>
     </row>
     <row r="286">
@@ -8320,22 +8320,22 @@
         <v>313</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.39357533678601</v>
+        <v>-0.690424071733253</v>
       </c>
       <c r="C286" t="n">
-        <v>0.155336605129475</v>
+        <v>0.169050764102873</v>
       </c>
       <c r="D286" t="n">
-        <v>-1.00140332477135</v>
+        <v>-0.595514916700469</v>
       </c>
       <c r="E286" t="n">
-        <v>0.475540004665267</v>
+        <v>0.609274550968043</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0258389415809422</v>
+        <v>0.0275168759415485</v>
       </c>
       <c r="G286" t="n">
-        <v>0.338026152595043</v>
+        <v>0.27226168289574</v>
       </c>
     </row>
     <row r="287">
@@ -8343,22 +8343,22 @@
         <v>314</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.541062920374976</v>
+        <v>-0.617848985984459</v>
       </c>
       <c r="C287" t="n">
-        <v>0.218458168477081</v>
+        <v>0.161952386273413</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.863846089988804</v>
+        <v>-0.651345380675157</v>
       </c>
       <c r="E287" t="n">
-        <v>0.541629662522202</v>
+        <v>0.577895204262877</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0360965304396881</v>
+        <v>0.0272896653065836</v>
       </c>
       <c r="G287" t="n">
-        <v>0.350776337606782</v>
+        <v>0.285857778425339</v>
       </c>
     </row>
     <row r="288">
@@ -8366,22 +8366,22 @@
         <v>315</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.45062397567918</v>
+        <v>-0.786542201883767</v>
       </c>
       <c r="C288" t="n">
-        <v>0.149976336380533</v>
+        <v>0.162302071575582</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.859403415521182</v>
+        <v>-0.51220050450256</v>
       </c>
       <c r="E288" t="n">
-        <v>0.500758815652433</v>
+        <v>0.650251450676983</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0266011652822828</v>
+        <v>0.0244896094870475</v>
       </c>
       <c r="G288" t="n">
-        <v>0.325702976298927</v>
+        <v>0.240663151871586</v>
       </c>
     </row>
     <row r="289">
@@ -8389,22 +8389,22 @@
         <v>316</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.514224216431046</v>
+        <v>-0.799261389677718</v>
       </c>
       <c r="C289" t="n">
-        <v>0.029727006824182</v>
+        <v>0.0304178441470379</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.335291903466972</v>
+        <v>-0.218210367832353</v>
       </c>
       <c r="E289" t="n">
-        <v>0.532490625</v>
+        <v>0.6706925</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00631778306011328</v>
+        <v>0.0058450598136875</v>
       </c>
       <c r="G289" t="n">
-        <v>0.149269262985626</v>
+        <v>0.113991122421532</v>
       </c>
     </row>
     <row r="290">
@@ -8412,22 +8412,22 @@
         <v>317</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.751759387627344</v>
+        <v>-0.825826414355356</v>
       </c>
       <c r="C290" t="n">
-        <v>0.162295489279769</v>
+        <v>0.188349065108681</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.535888410381166</v>
+        <v>-0.525524496281834</v>
       </c>
       <c r="E290" t="n">
-        <v>0.63381093544137</v>
+        <v>0.662776679841897</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0265958072300163</v>
+        <v>0.0242098395833225</v>
       </c>
       <c r="G290" t="n">
-        <v>0.257304191070466</v>
+        <v>0.234762505981212</v>
       </c>
     </row>
     <row r="291">
@@ -8435,22 +8435,22 @@
         <v>318</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.872245511626854</v>
+        <v>-0.974046931204907</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0462570028924117</v>
+        <v>0.0434362744472189</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.246575545058188</v>
+        <v>-0.213966805046308</v>
       </c>
       <c r="E291" t="n">
-        <v>0.701389252948886</v>
+        <v>0.737680209698558</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00858085490330128</v>
+        <v>0.0080061282377454</v>
       </c>
       <c r="G291" t="n">
-        <v>0.132070606456559</v>
+        <v>0.121295066962524</v>
       </c>
     </row>
     <row r="292">
@@ -8458,22 +8458,22 @@
         <v>319</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.426051960656064</v>
+        <v>-0.5712798646924</v>
       </c>
       <c r="C292" t="n">
-        <v>0.00602668115007177</v>
+        <v>0.012473533541263</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.182211817183124</v>
+        <v>-0.195499581653804</v>
       </c>
       <c r="E292" t="n">
-        <v>0.488013833992095</v>
+        <v>0.56103305785124</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00116583281042671</v>
+        <v>0.00253514093694566</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0699658320882926</v>
+        <v>0.0897454835911993</v>
       </c>
     </row>
     <row r="293">
@@ -8481,22 +8481,22 @@
         <v>320</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.2310701389881</v>
+        <v>-1.27536561985523</v>
       </c>
       <c r="C293" t="n">
-        <v>0.0525833697968888</v>
+        <v>0.028547223260612</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.18626935470977</v>
+        <v>-0.132479057667233</v>
       </c>
       <c r="E293" t="n">
-        <v>0.834576433885289</v>
+        <v>0.841372690184785</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0108181042716871</v>
+        <v>0.00475820970323814</v>
       </c>
       <c r="G293" t="n">
-        <v>0.12462623191334</v>
+        <v>0.0819848068514015</v>
       </c>
     </row>
     <row r="294">
@@ -8504,22 +8504,22 @@
         <v>321</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.00795125781765</v>
+        <v>-1.18197268188309</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0517136601549884</v>
+        <v>0.0560601942465874</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.225612473735032</v>
+        <v>-0.200317946728551</v>
       </c>
       <c r="E294" t="n">
-        <v>0.757920966524037</v>
+        <v>0.814840171155298</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0105171347019642</v>
+        <v>0.00979982681185087</v>
       </c>
       <c r="G294" t="n">
-        <v>0.135308411947501</v>
+        <v>0.121488947322821</v>
       </c>
     </row>
     <row r="295">
@@ -8527,22 +8527,22 @@
         <v>322</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.473134987914966</v>
+        <v>-0.423303668641355</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0248010709866514</v>
+        <v>0.0244190382031779</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.332851219740798</v>
+        <v>-0.369157966290603</v>
       </c>
       <c r="E295" t="n">
-        <v>0.511599777808638</v>
+        <v>0.487791973337036</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00475012899458621</v>
+        <v>0.00454346474201872</v>
       </c>
       <c r="G295" t="n">
-        <v>0.134716984972899</v>
+        <v>0.138184372720699</v>
       </c>
     </row>
     <row r="296">
@@ -8550,22 +8550,22 @@
         <v>323</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.607474466778482</v>
+        <v>-0.692362804966337</v>
       </c>
       <c r="C296" t="n">
-        <v>0.168285909900602</v>
+        <v>0.156228770026608</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.675298599653293</v>
+        <v>-0.570882562935762</v>
       </c>
       <c r="E296" t="n">
-        <v>0.567701550387597</v>
+        <v>0.608151162790698</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0274724490412235</v>
+        <v>0.0258787771809086</v>
       </c>
       <c r="G296" t="n">
-        <v>0.291963531405061</v>
+        <v>0.264521108621539</v>
       </c>
     </row>
     <row r="297">
@@ -8573,22 +8573,22 @@
         <v>324</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.837274511306698</v>
+        <v>-0.906757752795761</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0396025437500063</v>
+        <v>0.0424048452664451</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.237680564789298</v>
+        <v>-0.227099649488207</v>
       </c>
       <c r="E297" t="n">
-        <v>0.686447963800905</v>
+        <v>0.711324399582318</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00713487492011574</v>
+        <v>0.00736528367572157</v>
       </c>
       <c r="G297" t="n">
-        <v>0.123051117142218</v>
+        <v>0.120649918609759</v>
       </c>
     </row>
     <row r="298">
@@ -8596,22 +8596,22 @@
         <v>325</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.21279971867853</v>
+        <v>-1.47599925255316</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0510437966228844</v>
+        <v>0.0443944048446267</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.186286934996062</v>
+        <v>-0.142750612886924</v>
       </c>
       <c r="E298" t="n">
-        <v>0.829508902077151</v>
+        <v>0.896126112759644</v>
       </c>
       <c r="F298" t="n">
-        <v>0.01033082817809</v>
+        <v>0.00784278662687441</v>
       </c>
       <c r="G298" t="n">
-        <v>0.122531152412708</v>
+        <v>0.0988248279979649</v>
       </c>
     </row>
     <row r="299">
@@ -8619,22 +8619,22 @@
         <v>326</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.777151721791461</v>
+        <v>-0.841565658525259</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0497141029031243</v>
+        <v>0.042387050095728</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.286902273627677</v>
+        <v>-0.244640632831664</v>
       </c>
       <c r="E299" t="n">
-        <v>0.657376910016978</v>
+        <v>0.687624787775891</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0100351844042592</v>
+        <v>0.00658492339521101</v>
       </c>
       <c r="G299" t="n">
-        <v>0.152387110078981</v>
+        <v>0.118011366590215</v>
       </c>
     </row>
     <row r="300">
@@ -8642,22 +8642,22 @@
         <v>327</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.838904765879992</v>
+        <v>-0.601687972583492</v>
       </c>
       <c r="C300" t="n">
-        <v>0.207483572219702</v>
+        <v>0.149446305053236</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.542974203145712</v>
+        <v>-0.642497231558342</v>
       </c>
       <c r="E300" t="n">
-        <v>0.664553799082101</v>
+        <v>0.564201937786843</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0295509034016457</v>
+        <v>0.0247585451734628</v>
       </c>
       <c r="G300" t="n">
-        <v>0.258675463554689</v>
+        <v>0.278886818154205</v>
       </c>
     </row>
     <row r="301">
@@ -8665,22 +8665,22 @@
         <v>328</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.780329588173028</v>
+        <v>-0.865931909813732</v>
       </c>
       <c r="C301" t="n">
-        <v>0.059318544501466</v>
+        <v>0.0500050564721209</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.312116816436015</v>
+        <v>-0.258239824107678</v>
       </c>
       <c r="E301" t="n">
-        <v>0.660614474283113</v>
+        <v>0.697690031861629</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0110014318920119</v>
+        <v>0.0095054653454798</v>
       </c>
       <c r="G301" t="n">
-        <v>0.158772952993545</v>
+        <v>0.139741105068511</v>
       </c>
     </row>
     <row r="302">
@@ -8688,22 +8688,22 @@
         <v>329</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.735761955731609</v>
+        <v>-0.949507492669348</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0387533601228793</v>
+        <v>0.0474033386786975</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.26755763851664</v>
+        <v>-0.229301063600084</v>
       </c>
       <c r="E302" t="n">
-        <v>0.638609831029186</v>
+        <v>0.732273425499232</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00804812503110081</v>
+        <v>0.00814964775081806</v>
       </c>
       <c r="G302" t="n">
-        <v>0.140479113324004</v>
+        <v>0.123280999055689</v>
       </c>
     </row>
     <row r="303">
@@ -8711,22 +8711,22 @@
         <v>330</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.36425442143032</v>
+        <v>-0.609059081575361</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0524885151702453</v>
+        <v>0.0383128512160805</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.62896620588489</v>
+        <v>-0.321375535475263</v>
       </c>
       <c r="E303" t="n">
-        <v>0.457942258889577</v>
+        <v>0.579145207420422</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0108911207429879</v>
+        <v>0.00680038588318666</v>
       </c>
       <c r="G303" t="n">
-        <v>0.227890155299756</v>
+        <v>0.142389941560533</v>
       </c>
     </row>
     <row r="304">
@@ -8734,22 +8734,22 @@
         <v>331</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.581752177791371</v>
+        <v>-0.868741504902253</v>
       </c>
       <c r="C304" t="n">
-        <v>0.179438165515033</v>
+        <v>0.150797537141539</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.728147549951822</v>
+        <v>-0.446999001985171</v>
       </c>
       <c r="E304" t="n">
-        <v>0.56147762454264</v>
+        <v>0.683408387278356</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0278665537708151</v>
+        <v>0.0231486141216965</v>
       </c>
       <c r="G304" t="n">
-        <v>0.297309767827944</v>
+        <v>0.222629234630993</v>
       </c>
     </row>
     <row r="305">
@@ -8757,22 +8757,22 @@
         <v>332</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.797343493074995</v>
+        <v>-1.07857147711336</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0561623940157471</v>
+        <v>0.050247009978168</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.297219535837207</v>
+        <v>-0.207829015630519</v>
       </c>
       <c r="E305" t="n">
-        <v>0.667874104787034</v>
+        <v>0.779690915944214</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0107949907925925</v>
+        <v>0.00942984268792138</v>
       </c>
       <c r="G305" t="n">
-        <v>0.155566661970949</v>
+        <v>0.124545990106736</v>
       </c>
     </row>
     <row r="306">
@@ -8780,22 +8780,22 @@
         <v>333</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.0698746861945013</v>
+        <v>-0.167100883551029</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0148570680843216</v>
+        <v>0.0184103218484708</v>
       </c>
       <c r="D306" t="n">
-        <v>-1.74440244327525</v>
+        <v>-0.81199236223682</v>
       </c>
       <c r="E306" t="n">
-        <v>0.322726282266175</v>
+        <v>0.366283104257459</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00293483438063908</v>
+        <v>0.00333697968727471</v>
       </c>
       <c r="G306" t="n">
-        <v>0.16786395994612</v>
+        <v>0.157710240979569</v>
       </c>
     </row>
     <row r="307">
@@ -8803,22 +8803,22 @@
         <v>334</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.734234762191203</v>
+        <v>-0.703875272268489</v>
       </c>
       <c r="C307" t="n">
-        <v>0.221752826012817</v>
+        <v>0.183934419044646</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.641356704949579</v>
+        <v>-0.609306476132401</v>
       </c>
       <c r="E307" t="n">
-        <v>0.626808695652174</v>
+        <v>0.609617391304348</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0330859518110481</v>
+        <v>0.0281286964825877</v>
       </c>
       <c r="G307" t="n">
-        <v>0.290192914099739</v>
+        <v>0.275117017861539</v>
       </c>
     </row>
     <row r="308">
@@ -8826,22 +8826,22 @@
         <v>335</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.610807909521936</v>
+        <v>-0.74096014520599</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0436675668685247</v>
+        <v>0.0483595991209549</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.342117149423083</v>
+        <v>-0.296788109419807</v>
       </c>
       <c r="E308" t="n">
-        <v>0.580204678362573</v>
+        <v>0.64141975308642</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00853981291932814</v>
+        <v>0.00859468825250019</v>
       </c>
       <c r="G308" t="n">
-        <v>0.159273290356629</v>
+        <v>0.144534902553491</v>
       </c>
     </row>
     <row r="309">
@@ -8849,22 +8849,22 @@
         <v>336</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.0321619826827</v>
+        <v>-1.17873706335107</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0418360238624192</v>
+        <v>0.0494917819148617</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.198165178234097</v>
+        <v>-0.188733765985852</v>
       </c>
       <c r="E309" t="n">
-        <v>0.763198111182657</v>
+        <v>0.805702940545181</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00799859160747067</v>
+        <v>0.00852561359857085</v>
       </c>
       <c r="G309" t="n">
-        <v>0.117184312027804</v>
+        <v>0.114600859298572</v>
       </c>
     </row>
     <row r="310">
@@ -8872,22 +8872,22 @@
         <v>337</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.853223859508289</v>
+        <v>-0.876255288821253</v>
       </c>
       <c r="C310" t="n">
-        <v>0.204492180236222</v>
+        <v>0.128434669980564</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.529999379444095</v>
+        <v>-0.408987923828238</v>
       </c>
       <c r="E310" t="n">
-        <v>0.671278139069535</v>
+        <v>0.687901450725363</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0311813236968659</v>
+        <v>0.0170766383038318</v>
       </c>
       <c r="G310" t="n">
-        <v>0.263053915005525</v>
+        <v>0.189965600393716</v>
       </c>
     </row>
     <row r="311">
@@ -8895,22 +8895,22 @@
         <v>338</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.02415638623278</v>
+        <v>-1.31077541005888</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0445462007953749</v>
+        <v>0.0506708533519567</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.206081524182709</v>
+        <v>-0.171731840212797</v>
       </c>
       <c r="E311" t="n">
-        <v>0.76408692018387</v>
+        <v>0.852440451316339</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00768271697608762</v>
+        <v>0.00749473714443279</v>
       </c>
       <c r="G311" t="n">
-        <v>0.114713532018065</v>
+        <v>0.101558003027295</v>
       </c>
     </row>
     <row r="312">
@@ -8918,22 +8918,22 @@
         <v>339</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.981873433390189</v>
+        <v>-1.01747976346455</v>
       </c>
       <c r="C312" t="n">
-        <v>0.038444800678355</v>
+        <v>0.0445819283245392</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.19969320961867</v>
+        <v>-0.207516982778829</v>
       </c>
       <c r="E312" t="n">
-        <v>0.742738520758867</v>
+        <v>0.754426725323068</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00647026308208134</v>
+        <v>0.00818339567904459</v>
       </c>
       <c r="G312" t="n">
-        <v>0.108299143356661</v>
+        <v>0.119908428294784</v>
       </c>
     </row>
     <row r="313">
@@ -8941,22 +8941,22 @@
         <v>340</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.824612969961535</v>
+        <v>-0.593656548847254</v>
       </c>
       <c r="C313" t="n">
-        <v>0.211288107729937</v>
+        <v>0.177274351273626</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.557426184635811</v>
+        <v>-0.709230966192563</v>
       </c>
       <c r="E313" t="n">
-        <v>0.66272860277981</v>
+        <v>0.561792245793709</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0295312795477204</v>
+        <v>0.0293964107176207</v>
       </c>
       <c r="G313" t="n">
-        <v>0.25930173197781</v>
+        <v>0.305190782534125</v>
       </c>
     </row>
     <row r="314">
@@ -8964,22 +8964,22 @@
         <v>341</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.18559236115179</v>
+        <v>-1.28867521492402</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0463009249840642</v>
+        <v>0.0465703392141596</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.181492816870442</v>
+        <v>-0.167460053197334</v>
       </c>
       <c r="E314" t="n">
-        <v>0.814646815909585</v>
+        <v>0.83284394696805</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00830182003176454</v>
+        <v>0.00858996977946877</v>
       </c>
       <c r="G314" t="n">
-        <v>0.11184518516061</v>
+        <v>0.111283860788246</v>
       </c>
     </row>
     <row r="315">
@@ -8987,22 +8987,22 @@
         <v>342</v>
       </c>
       <c r="B315" t="n">
-        <v>-1.27654685104444</v>
+        <v>-1.30971151408876</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0397896808239762</v>
+        <v>0.0449617901919417</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.156260233547252</v>
+        <v>-0.161899740185267</v>
       </c>
       <c r="E315" t="n">
-        <v>0.842805455578708</v>
+        <v>0.839962114036749</v>
       </c>
       <c r="F315" t="n">
-        <v>0.00693794949508288</v>
+        <v>0.00757731910042834</v>
       </c>
       <c r="G315" t="n">
-        <v>0.0988298710808457</v>
+        <v>0.103633004795431</v>
       </c>
     </row>
     <row r="316">
@@ -9010,22 +9010,22 @@
         <v>343</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.710322632106946</v>
+        <v>-0.767631720312925</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0126900105619755</v>
+        <v>0.0227961216227642</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.158589832170503</v>
+        <v>-0.196687866816292</v>
       </c>
       <c r="E316" t="n">
-        <v>0.630161418364647</v>
+        <v>0.65512040222281</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00250845680943362</v>
+        <v>0.00433470811269293</v>
       </c>
       <c r="G316" t="n">
-        <v>0.0794788370690695</v>
+        <v>0.100498320625957</v>
       </c>
     </row>
     <row r="317">
@@ -9033,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.682148009093238</v>
+        <v>-0.806501744029341</v>
       </c>
       <c r="C317" t="n">
-        <v>0.165625870853489</v>
+        <v>0.136151118463236</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.596603053000411</v>
+        <v>-0.45751495625709</v>
       </c>
       <c r="E317" t="n">
-        <v>0.597226317226317</v>
+        <v>0.654100464100464</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0273421671609067</v>
+        <v>0.0214584136085307</v>
       </c>
       <c r="G317" t="n">
-        <v>0.276871038745706</v>
+        <v>0.223951692390311</v>
       </c>
     </row>
     <row r="318">
@@ -9056,22 +9056,22 @@
         <v>345</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.6913187172444</v>
+        <v>-0.484833109140472</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0407487009030648</v>
+        <v>0.0423804113477474</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.291997120292801</v>
+        <v>-0.42461009364063</v>
       </c>
       <c r="E318" t="n">
-        <v>0.61693984962406</v>
+        <v>0.515729323308271</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0069750498750636</v>
+        <v>0.00892202917575895</v>
       </c>
       <c r="G318" t="n">
-        <v>0.135372620340547</v>
+        <v>0.183151295246625</v>
       </c>
     </row>
     <row r="319">
@@ -9079,22 +9079,22 @@
         <v>346</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.702047097894347</v>
+        <v>-0.866078891965981</v>
       </c>
       <c r="C319" t="n">
-        <v>0.167263659856957</v>
+        <v>0.226101246520454</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.582551800952385</v>
+        <v>-0.549027406481815</v>
       </c>
       <c r="E319" t="n">
-        <v>0.610286458333333</v>
+        <v>0.675859375</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0266153613819546</v>
+        <v>0.0330983293965657</v>
       </c>
       <c r="G319" t="n">
-        <v>0.267320614141391</v>
+        <v>0.269182420818243</v>
       </c>
     </row>
     <row r="320">
@@ -9102,22 +9102,22 @@
         <v>347</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.32276442630918</v>
+        <v>-1.10846802447062</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0317306138429641</v>
+        <v>0.0534733409300847</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.134665618529138</v>
+        <v>-0.20861497962375</v>
       </c>
       <c r="E320" t="n">
-        <v>0.859340148698885</v>
+        <v>0.781623296158612</v>
       </c>
       <c r="F320" t="n">
-        <v>0.00553996306462659</v>
+        <v>0.0105574019467784</v>
       </c>
       <c r="G320" t="n">
-        <v>0.0866140471364797</v>
+        <v>0.131456187681611</v>
       </c>
     </row>
     <row r="321">
@@ -9125,22 +9125,22 @@
         <v>348</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.25755145272165</v>
+        <v>-0.829936362416526</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0437053423451337</v>
+        <v>0.0748429289656546</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.166242285126366</v>
+        <v>-0.329632932929506</v>
       </c>
       <c r="E321" t="n">
-        <v>0.833278008298755</v>
+        <v>0.668128630705394</v>
       </c>
       <c r="F321" t="n">
-        <v>0.00875381777500388</v>
+        <v>0.0122946707606618</v>
       </c>
       <c r="G321" t="n">
-        <v>0.112281661555744</v>
+        <v>0.165958067502026</v>
       </c>
     </row>
     <row r="322">
@@ -9148,22 +9148,22 @@
         <v>349</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.915607638712408</v>
+        <v>-1.12680606295508</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0411889843548232</v>
+        <v>0.0507639462679669</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.221656838379976</v>
+        <v>-0.199953270858514</v>
       </c>
       <c r="E322" t="n">
-        <v>0.71978417266187</v>
+        <v>0.797684761281884</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00820497875689579</v>
+        <v>0.00769574301203546</v>
       </c>
       <c r="G322" t="n">
-        <v>0.125845136967824</v>
+        <v>0.10997500308182</v>
       </c>
     </row>
     <row r="323">
@@ -9171,22 +9171,22 @@
         <v>350</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.818345551923117</v>
+        <v>-0.92475736538386</v>
       </c>
       <c r="C323" t="n">
-        <v>0.19238225405124</v>
+        <v>0.207708396068687</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.535976536869583</v>
+        <v>-0.492832372053016</v>
       </c>
       <c r="E323" t="n">
-        <v>0.662095238095238</v>
+        <v>0.703326530612245</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0289763804900736</v>
+        <v>0.0292159623698459</v>
       </c>
       <c r="G323" t="n">
-        <v>0.257099719903669</v>
+        <v>0.243026201113427</v>
       </c>
     </row>
     <row r="324">
@@ -9194,22 +9194,22 @@
         <v>351</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.469170099901908</v>
+        <v>-0.136722498878927</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0481214122463114</v>
+        <v>0.0631338019458538</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.467561620675924</v>
+        <v>-1.83776926624855</v>
       </c>
       <c r="E324" t="n">
-        <v>0.510842473745624</v>
+        <v>0.359528588098016</v>
       </c>
       <c r="F324" t="n">
-        <v>0.00708949422655624</v>
+        <v>0.0117877212910903</v>
       </c>
       <c r="G324" t="n">
-        <v>0.164824067466736</v>
+        <v>0.301982308103391</v>
       </c>
     </row>
     <row r="325">
@@ -9217,22 +9217,22 @@
         <v>352</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.828833353461855</v>
+        <v>-0.685777346074071</v>
       </c>
       <c r="C325" t="n">
-        <v>0.178736621781286</v>
+        <v>0.182915585872009</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.51008147736478</v>
+        <v>-0.623651859589984</v>
       </c>
       <c r="E325" t="n">
-        <v>0.668440073193047</v>
+        <v>0.601870997255261</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0255720479272573</v>
+        <v>0.0315200547995687</v>
       </c>
       <c r="G325" t="n">
-        <v>0.239232554014644</v>
+        <v>0.294978298190572</v>
       </c>
     </row>
     <row r="326">
@@ -9240,22 +9240,22 @@
         <v>353</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.755540446297393</v>
+        <v>-0.782747647586129</v>
       </c>
       <c r="C326" t="n">
-        <v>0.161719026929562</v>
+        <v>0.177817999114519</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.532258788846798</v>
+        <v>-0.538723708204945</v>
       </c>
       <c r="E326" t="n">
-        <v>0.633684971098266</v>
+        <v>0.642205202312139</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0270502242471349</v>
+        <v>0.026090690208577</v>
       </c>
       <c r="G326" t="n">
-        <v>0.259544618012455</v>
+        <v>0.251517938474395</v>
       </c>
     </row>
     <row r="327">
@@ -9263,22 +9263,22 @@
         <v>354</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.241631597613263</v>
+        <v>-0.279940640618648</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0255414570859884</v>
+        <v>0.0273400576302097</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.661407490826908</v>
+        <v>-0.590654831404194</v>
       </c>
       <c r="E327" t="n">
-        <v>0.401464402855489</v>
+        <v>0.423677406907197</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00484722814705863</v>
+        <v>0.00473667391428567</v>
       </c>
       <c r="G327" t="n">
-        <v>0.173420201896288</v>
+        <v>0.162443163475729</v>
       </c>
     </row>
     <row r="328">
@@ -9286,22 +9286,22 @@
         <v>355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.511392341283277</v>
+        <v>0.503619961725634</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0623076361612176</v>
+        <v>0.0540336126610444</v>
       </c>
       <c r="D328" t="n">
-        <v>0.48810855322714</v>
+        <v>0.46156095889517</v>
       </c>
       <c r="E328" t="n">
-        <v>0.122931582291887</v>
+        <v>0.132101249735226</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0120568757810593</v>
+        <v>0.0105201568113753</v>
       </c>
       <c r="G328" t="n">
-        <v>0.893210709661267</v>
+        <v>0.776433348479846</v>
       </c>
     </row>
     <row r="329">
@@ -9309,22 +9309,22 @@
         <v>356</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0518899591472839</v>
+        <v>0.0584995768324334</v>
       </c>
       <c r="C329" t="n">
-        <v>0.00362210440240018</v>
+        <v>0.0238232436679911</v>
       </c>
       <c r="D329" t="n">
-        <v>1.15983751866095</v>
+        <v>2.63844303394115</v>
       </c>
       <c r="E329" t="n">
-        <v>0.260509131905299</v>
+        <v>0.258019616685456</v>
       </c>
       <c r="F329" t="n">
-        <v>0.000656922235150597</v>
+        <v>0.00405726215345139</v>
       </c>
       <c r="G329" t="n">
-        <v>0.0983861642612787</v>
+        <v>0.246867437586966</v>
       </c>
     </row>
     <row r="330">
@@ -9332,22 +9332,22 @@
         <v>357</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.00220884032495481</v>
+        <v>0.0439383820553647</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0470165675059593</v>
+        <v>0.052660081520756</v>
       </c>
       <c r="D330" t="n">
-        <v>-98.166009635743</v>
+        <v>5.22271951415859</v>
       </c>
       <c r="E330" t="n">
-        <v>0.29048632218845</v>
+        <v>0.274851063829787</v>
       </c>
       <c r="F330" t="n">
-        <v>0.00823825675150821</v>
+        <v>0.0105161781916279</v>
       </c>
       <c r="G330" t="n">
-        <v>0.312458233707008</v>
+        <v>0.373105409665014</v>
       </c>
     </row>
     <row r="331">
@@ -9355,22 +9355,22 @@
         <v>358</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.0560615584778685</v>
+        <v>-0.011156868170352</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0423498994923768</v>
+        <v>0.0494008516363314</v>
       </c>
       <c r="D331" t="n">
-        <v>-3.67080255458027</v>
+        <v>-19.9216321420567</v>
       </c>
       <c r="E331" t="n">
-        <v>0.326977122521607</v>
+        <v>0.314401626842908</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00783443943518487</v>
+        <v>0.00846387596271887</v>
       </c>
       <c r="G331" t="n">
-        <v>0.270698965552622</v>
+        <v>0.292617206869097</v>
       </c>
     </row>
     <row r="332">
@@ -9378,22 +9378,22 @@
         <v>359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.283011417897528</v>
+        <v>0.20982003846808</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0296928653628766</v>
+        <v>0.0425848886756486</v>
       </c>
       <c r="D332" t="n">
-        <v>0.60886652471905</v>
+        <v>0.983514564968852</v>
       </c>
       <c r="E332" t="n">
-        <v>0.185541725105189</v>
+        <v>0.217010869565217</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00594324121043229</v>
+        <v>0.00785659185367813</v>
       </c>
       <c r="G332" t="n">
-        <v>0.415499100726775</v>
+        <v>0.408446904466901</v>
       </c>
     </row>
     <row r="333">
@@ -9401,22 +9401,22 @@
         <v>360</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.505881301207785</v>
+        <v>-0.561519721381156</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0330239559786886</v>
+        <v>0.0484760480258374</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.359224477186776</v>
+        <v>-0.392101577558497</v>
       </c>
       <c r="E333" t="n">
-        <v>0.528447536652223</v>
+        <v>0.554771106289987</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00618022671850145</v>
+        <v>0.00873457749765474</v>
       </c>
       <c r="G333" t="n">
-        <v>0.148764849022736</v>
+        <v>0.168464003459973</v>
       </c>
     </row>
     <row r="334">
@@ -9424,22 +9424,22 @@
         <v>361</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.912742799874418</v>
+        <v>-0.674666020566342</v>
       </c>
       <c r="C334" t="n">
-        <v>0.04027838576375</v>
+        <v>0.0405462536224448</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.219880954104894</v>
+        <v>-0.298460270850146</v>
       </c>
       <c r="E334" t="n">
-        <v>0.71096478050409</v>
+        <v>0.603299949924887</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00738347748925452</v>
+        <v>0.00757873602087881</v>
       </c>
       <c r="G334" t="n">
-        <v>0.120859944427094</v>
+        <v>0.144299591226388</v>
       </c>
     </row>
     <row r="335">
@@ -9447,22 +9447,22 @@
         <v>362</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.01681984144341</v>
+        <v>-0.65262872086859</v>
       </c>
       <c r="C335" t="n">
-        <v>0.171289530332469</v>
+        <v>0.138071412135879</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.407025292584867</v>
+        <v>-0.569358358911894</v>
       </c>
       <c r="E335" t="n">
-        <v>0.745112383267956</v>
+        <v>0.590080647509382</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0233100286481821</v>
+        <v>0.0228549576396593</v>
       </c>
       <c r="G335" t="n">
-        <v>0.204903615949125</v>
+        <v>0.256199830890102</v>
       </c>
     </row>
     <row r="336">
@@ -9470,22 +9470,22 @@
         <v>363</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.0467183177199107</v>
+        <v>0.132909249543043</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0423551744334577</v>
+        <v>0.0528113471548974</v>
       </c>
       <c r="D336" t="n">
-        <v>-4.40520416793535</v>
+        <v>1.72905344362237</v>
       </c>
       <c r="E336" t="n">
-        <v>0.310526712285138</v>
+        <v>0.241668044469933</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00775498179006574</v>
+        <v>0.0107062443932276</v>
       </c>
       <c r="G336" t="n">
-        <v>0.283590335211144</v>
+        <v>0.42815335211726</v>
       </c>
     </row>
     <row r="337">
@@ -9493,22 +9493,22 @@
         <v>364</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.673813281989428</v>
+        <v>-0.556597021005483</v>
       </c>
       <c r="C337" t="n">
-        <v>0.179078319838866</v>
+        <v>0.195982052562882</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.628032239041201</v>
+        <v>-0.795366460272677</v>
       </c>
       <c r="E337" t="n">
-        <v>0.601614527148508</v>
+        <v>0.546530025170802</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0270152026013578</v>
+        <v>0.0315062854793294</v>
       </c>
       <c r="G337" t="n">
-        <v>0.273203211304405</v>
+        <v>0.324776483938412</v>
       </c>
     </row>
     <row r="338">
@@ -9516,22 +9516,22 @@
         <v>365</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.961076855924191</v>
+        <v>-1.0413492051657</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0381172605890483</v>
+        <v>0.0528645773810985</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.203143402203153</v>
+        <v>-0.22079335180824</v>
       </c>
       <c r="E338" t="n">
-        <v>0.735122718295229</v>
+        <v>0.759964185783287</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00667000359617201</v>
+        <v>0.00935208288059229</v>
       </c>
       <c r="G338" t="n">
-        <v>0.111097219471379</v>
+        <v>0.12725095413382</v>
       </c>
     </row>
     <row r="339">
@@ -9539,22 +9539,22 @@
         <v>366</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0194145553417212</v>
+        <v>0.429668025051113</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0417591699315908</v>
+        <v>0.0833845365129783</v>
       </c>
       <c r="D339" t="n">
-        <v>10.5256392337373</v>
+        <v>0.672062594022923</v>
       </c>
       <c r="E339" t="n">
-        <v>0.293077477606326</v>
+        <v>0.162513374349538</v>
       </c>
       <c r="F339" t="n">
-        <v>0.00810890167760385</v>
+        <v>0.0117565715143406</v>
       </c>
       <c r="G339" t="n">
-        <v>0.307254726362162</v>
+        <v>0.667192625072564</v>
       </c>
     </row>
     <row r="340">
@@ -9562,22 +9562,22 @@
         <v>367</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.34713831350575</v>
+        <v>-1.09110809696957</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0550902715419183</v>
+        <v>0.0496752066818111</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.174230935536327</v>
+        <v>-0.20426881182782</v>
       </c>
       <c r="E340" t="n">
-        <v>0.860791936645068</v>
+        <v>0.775475161987041</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0108621542273162</v>
+        <v>0.00931990671031415</v>
       </c>
       <c r="G340" t="n">
-        <v>0.121076481634627</v>
+        <v>0.124490981342799</v>
       </c>
     </row>
     <row r="341">
@@ -9585,22 +9585,22 @@
         <v>368</v>
       </c>
       <c r="B341" t="n">
-        <v>0.103623963237679</v>
+        <v>0.31438345968677</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0464253735438482</v>
+        <v>0.0700370625255778</v>
       </c>
       <c r="D341" t="n">
-        <v>2.07930168238791</v>
+        <v>0.841790988912689</v>
       </c>
       <c r="E341" t="n">
-        <v>0.257046446203679</v>
+        <v>0.199667940496174</v>
       </c>
       <c r="F341" t="n">
-        <v>0.00869657433799466</v>
+        <v>0.011768816241035</v>
       </c>
       <c r="G341" t="n">
-        <v>0.36279601069872</v>
+        <v>0.543322953110735</v>
       </c>
     </row>
   </sheetData>

--- a/data/emdi_results.xlsx
+++ b/data/emdi_results.xlsx
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2724105</v>
+        <v>2699425</v>
       </c>
     </row>
     <row r="9">
@@ -1653,13 +1653,13 @@
         <v>3072.75</v>
       </c>
       <c r="F13" t="n">
-        <v>4374</v>
+        <v>4340.5</v>
       </c>
       <c r="G13" t="n">
-        <v>8012.07352941176</v>
+        <v>7939.48529411765</v>
       </c>
       <c r="H13" t="n">
-        <v>7094.75</v>
+        <v>6870.75</v>
       </c>
       <c r="I13" t="n">
         <v>239753</v>
@@ -1687,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.737503706254742</v>
+        <v>-0.751821057801511</v>
       </c>
       <c r="E16" t="n">
-        <v>6.36146272910254</v>
+        <v>6.63928243764697</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1700,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.301866279536378</v>
+        <v>0.224594194831941</v>
       </c>
       <c r="E17" t="n">
-        <v>2.92484964431523</v>
+        <v>3.09640494298322</v>
       </c>
       <c r="F17" t="n">
-        <v>0.992457716479222</v>
+        <v>0.9943565304237</v>
       </c>
       <c r="G17" t="n">
-        <v>0.230507920467718</v>
+        <v>0.475175692022425</v>
       </c>
     </row>
     <row r="19">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.226062138500008</v>
+        <v>0.227763435625725</v>
       </c>
       <c r="E20" t="n">
-        <v>0.391563114797249</v>
+        <v>0.383037305071663</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>0.258308898118984</v>
+        <v>0.256335096913801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0518201620569012</v>
+        <v>0.053237776408793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.881272090815911</v>
+        <v>0.900123045540475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.199013838207416</v>
+        <v>0.2007457983329</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0104329470201879</v>
+        <v>0.0103377309599477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.513239679787398</v>
+        <v>0.506484487688502</v>
       </c>
     </row>
     <row r="3">
@@ -1811,22 +1811,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.274301804590769</v>
+        <v>-0.367440015850772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0788159340049285</v>
+        <v>0.061520219139591</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.02347761513183</v>
+        <v>-0.675029085083142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.415285402071342</v>
+        <v>0.460365163054091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0156278248536701</v>
+        <v>0.0127433021920109</v>
       </c>
       <c r="G3" t="n">
-        <v>0.301025025874961</v>
+        <v>0.245210204154334</v>
       </c>
     </row>
     <row r="4">
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.269012468993182</v>
+        <v>-0.506843120843852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0700316254499612</v>
+        <v>0.0359336770665004</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.983727229561337</v>
+        <v>-0.37400488428592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.412279636740178</v>
+        <v>0.529086769081304</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0141144318308023</v>
+        <v>0.00720286285369708</v>
       </c>
       <c r="G4" t="n">
-        <v>0.288164060777026</v>
+        <v>0.160407869847823</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.551182797818879</v>
+        <v>-0.335731816727514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0257667055966249</v>
+        <v>0.0291910896997747</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.291228445931753</v>
+        <v>-0.508900237065632</v>
       </c>
       <c r="E5" t="n">
-        <v>0.551493452662168</v>
+        <v>0.443448396512195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00456171628907863</v>
+        <v>0.00490553501767896</v>
       </c>
       <c r="G5" t="n">
-        <v>0.122468324087696</v>
+        <v>0.157942897601757</v>
       </c>
     </row>
     <row r="6">
@@ -1880,22 +1880,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.880234274474808</v>
+        <v>-0.98942907121007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176406587086435</v>
+        <v>0.131837303800055</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.477154609716781</v>
+        <v>-0.36697331900323</v>
       </c>
       <c r="E6" t="n">
-        <v>0.692496662216288</v>
+        <v>0.732939649815404</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0273500771184009</v>
+        <v>0.0182720192705999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.23881499545925</v>
+        <v>0.184427235318067</v>
       </c>
     </row>
     <row r="7">
@@ -1903,22 +1903,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.310315144247751</v>
+        <v>-0.21147777697098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04489597150452</v>
+        <v>0.043698872067491</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.682811325505175</v>
+        <v>-0.988485668631215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.431889955058909</v>
+        <v>0.383565173998468</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00993275719284318</v>
+        <v>0.009438080432882</v>
       </c>
       <c r="G7" t="n">
-        <v>0.230760678013289</v>
+        <v>0.25328103300154</v>
       </c>
     </row>
     <row r="8">
@@ -1926,22 +1926,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.829050145673491</v>
+        <v>-0.64004659620517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16968145153326</v>
+        <v>0.151020489440796</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.496862688972627</v>
+        <v>-0.60716446268842</v>
       </c>
       <c r="E8" t="n">
-        <v>0.668313280083842</v>
+        <v>0.586199622166247</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0236552499099811</v>
+        <v>0.0249573114961313</v>
       </c>
       <c r="G8" t="n">
-        <v>0.230135533077399</v>
+        <v>0.269496646631722</v>
       </c>
     </row>
     <row r="9">
@@ -1949,22 +1949,22 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.195614490188909</v>
+        <v>-0.261993709035739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0725501917452951</v>
+        <v>0.0384287586178595</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.37695028472644</v>
+        <v>-0.74823378589541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.378269821062576</v>
+        <v>0.408343742447609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.014204962022563</v>
+        <v>0.0077432366441487</v>
       </c>
       <c r="G9" t="n">
-        <v>0.31507819182874</v>
+        <v>0.215494088672719</v>
       </c>
     </row>
     <row r="10">
@@ -1972,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.278562547999467</v>
+        <v>-0.043092329961549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0450299049836191</v>
+        <v>0.0331398364414516</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.761776882411493</v>
+        <v>-4.22449892291439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.416145818783296</v>
+        <v>0.307175184337656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00613550445314768</v>
+        <v>0.00678467008872036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.18822599535365</v>
+        <v>0.268150270677589</v>
       </c>
     </row>
     <row r="11">
@@ -1995,22 +1995,22 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.638405677033733</v>
+        <v>-0.381154872662299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01385656670011</v>
+        <v>0.0106416176099243</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.184387331007979</v>
+        <v>-0.270646458420096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.595056795457364</v>
+        <v>0.46538119109748</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00278046259633171</v>
+        <v>0.00205864560716097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0886135446997267</v>
+        <v>0.0974949157089469</v>
       </c>
     </row>
     <row r="12">
@@ -2018,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.759328847578295</v>
+        <v>-0.818444279626682</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0403574914015973</v>
+        <v>0.0429763227093554</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.264564873495703</v>
+        <v>-0.253294353464465</v>
       </c>
       <c r="E12" t="n">
-        <v>0.649062714786616</v>
+        <v>0.677515466102085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00773687008371518</v>
+        <v>0.00626376346760046</v>
       </c>
       <c r="G12" t="n">
-        <v>0.135517690015558</v>
+        <v>0.116814959075825</v>
       </c>
     </row>
     <row r="13">
@@ -2041,22 +2041,22 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.244840155691407</v>
+        <v>-0.083218797202919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0292309180060375</v>
+        <v>0.00883950842113857</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.698294434020385</v>
+        <v>-1.1297767225981</v>
       </c>
       <c r="E13" t="n">
-        <v>0.406047926144327</v>
+        <v>0.3353764215294</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005209529640953</v>
+        <v>0.0012554150342575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.177755054977138</v>
+        <v>0.105647965020789</v>
       </c>
     </row>
     <row r="14">
@@ -2064,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.610654212341631</v>
+        <v>-0.699431530882249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0836008966667721</v>
+        <v>0.0428039572228732</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.47348923603845</v>
+        <v>-0.29579903575853</v>
       </c>
       <c r="E14" t="n">
-        <v>0.578747889367458</v>
+        <v>0.620758530754184</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0162636374578852</v>
+        <v>0.00882905846956624</v>
       </c>
       <c r="G14" t="n">
-        <v>0.220353230612891</v>
+        <v>0.15136814889538</v>
       </c>
     </row>
     <row r="15">
@@ -2087,22 +2087,22 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0781361238303751</v>
+        <v>0.0391147306786813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0266345388147584</v>
+        <v>0.0282759594921878</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.08867432223942</v>
+        <v>4.29900877038191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.326067590203685</v>
+        <v>0.275795016325414</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00533869184685592</v>
+        <v>0.00595277671017075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.224083455556047</v>
+        <v>0.279752117242741</v>
       </c>
     </row>
     <row r="16">
@@ -2110,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.98030759102442</v>
+        <v>-1.06267564880478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215143661822835</v>
+        <v>0.195683894151245</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.473153342562672</v>
+        <v>-0.416271628785462</v>
       </c>
       <c r="E16" t="n">
-        <v>0.72768924221825</v>
+        <v>0.756441402908469</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0293608470174495</v>
+        <v>0.0249232376834989</v>
       </c>
       <c r="G16" t="n">
-        <v>0.235471491951246</v>
+        <v>0.208702157259568</v>
       </c>
     </row>
     <row r="17">
@@ -2133,22 +2133,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.718804282937968</v>
+        <v>-0.536586893645418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.011493617845231</v>
+        <v>0.00894039576437009</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.149148098324761</v>
+        <v>-0.17621314865195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.631413652096833</v>
+        <v>0.543182886328259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0023624234407081</v>
+        <v>0.00170747018608393</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0769776952291973</v>
+        <v>0.0760729899805874</v>
       </c>
     </row>
     <row r="18">
@@ -2156,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.835831385399209</v>
+        <v>-0.890752478466423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1800551881515</v>
+        <v>0.161980662041309</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.507673091726489</v>
+        <v>-0.451829461259106</v>
       </c>
       <c r="E18" t="n">
-        <v>0.668827238068946</v>
+        <v>0.69769255353148</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0269015036480832</v>
+        <v>0.0244688700449746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.245230411115056</v>
+        <v>0.224203748530444</v>
       </c>
     </row>
     <row r="19">
@@ -2179,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.755675956642464</v>
+        <v>-0.760685870120514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0299701487500739</v>
+        <v>0.0288256085304088</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.229091430860168</v>
+        <v>-0.223194707888276</v>
       </c>
       <c r="E19" t="n">
-        <v>0.650378875683479</v>
+        <v>0.652749665269175</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00505347654783403</v>
+        <v>0.00585851820768457</v>
       </c>
       <c r="G19" t="n">
-        <v>0.109302148904863</v>
+        <v>0.117259282977705</v>
       </c>
     </row>
     <row r="20">
@@ -2202,22 +2202,22 @@
         <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.707984232147151</v>
+        <v>-0.829900944878961</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165863449685933</v>
+        <v>0.19888297406515</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.575243554868864</v>
+        <v>-0.537368919296124</v>
       </c>
       <c r="E20" t="n">
-        <v>0.616614626129827</v>
+        <v>0.668151191454396</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0264835370060476</v>
+        <v>0.0285587773312407</v>
       </c>
       <c r="G20" t="n">
-        <v>0.263921135706088</v>
+        <v>0.252926921466871</v>
       </c>
     </row>
     <row r="21">
@@ -2225,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.390717862417985</v>
+        <v>-0.109647764830808</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0389487421936329</v>
+        <v>0.0493992169919563</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.505107075715499</v>
+        <v>-2.02703034197767</v>
       </c>
       <c r="E21" t="n">
-        <v>0.470675140310333</v>
+        <v>0.337530114550105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00805217126942581</v>
+        <v>0.00950210617518359</v>
       </c>
       <c r="G21" t="n">
-        <v>0.19064931145739</v>
+        <v>0.288800148780686</v>
       </c>
     </row>
     <row r="22">
@@ -2248,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.2157254190092</v>
+        <v>-1.27716274343527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0220385380774526</v>
+        <v>0.0273397744227818</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.122111311000331</v>
+        <v>-0.129464656198968</v>
       </c>
       <c r="E22" t="n">
-        <v>0.834424556283181</v>
+        <v>0.852608840996202</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00408416610792823</v>
+        <v>0.00429886009402736</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0765886866147184</v>
+        <v>0.076900085728349</v>
       </c>
     </row>
     <row r="23">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.03754347834266</v>
+        <v>-1.01713493283163</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0295639108954143</v>
+        <v>0.034195017644078</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.165719890406438</v>
+        <v>-0.181803753741876</v>
       </c>
       <c r="E23" t="n">
-        <v>0.771015253562568</v>
+        <v>0.761372164363943</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00538188189422977</v>
+        <v>0.00633744708891412</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0951489743811811</v>
+        <v>0.104558700783783</v>
       </c>
     </row>
     <row r="24">
@@ -2294,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.04300019903736</v>
+        <v>-1.24281803807684</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0489285303702609</v>
+        <v>0.0371094699097201</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.212078525075557</v>
+        <v>-0.155001116843259</v>
       </c>
       <c r="E24" t="n">
-        <v>0.770525869204066</v>
+        <v>0.838617878963716</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00915152606175816</v>
+        <v>0.00654553189247616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.124153662702311</v>
+        <v>0.0964735710280087</v>
       </c>
     </row>
     <row r="25">
@@ -2317,22 +2317,22 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.735422624250776</v>
+        <v>-0.765277468917306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125876638501326</v>
+        <v>0.153114725506172</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.482431416859158</v>
+        <v>-0.511316200291621</v>
       </c>
       <c r="E25" t="n">
-        <v>0.629017379679144</v>
+        <v>0.641477699194487</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0216058208760572</v>
+        <v>0.0246941814814816</v>
       </c>
       <c r="G25" t="n">
-        <v>0.233680643817009</v>
+        <v>0.24497160912792</v>
       </c>
     </row>
     <row r="26">
@@ -2340,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.667817563076872</v>
+        <v>-0.595495141012168</v>
       </c>
       <c r="C26" t="n">
-        <v>0.17441989240115</v>
+        <v>0.153231221211088</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.625374502856718</v>
+        <v>-0.657348095825858</v>
       </c>
       <c r="E26" t="n">
-        <v>0.596362051741067</v>
+        <v>0.567115415657789</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0280273847463115</v>
+        <v>0.0263850107148297</v>
       </c>
       <c r="G26" t="n">
-        <v>0.280725127296531</v>
+        <v>0.286422535382132</v>
       </c>
     </row>
     <row r="27">
@@ -2363,22 +2363,22 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.928327180674805</v>
+        <v>-0.721285884734505</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0505091396242094</v>
+        <v>0.0456182004035288</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.242093940259335</v>
+        <v>-0.296115841040004</v>
       </c>
       <c r="E27" t="n">
-        <v>0.724862720770955</v>
+        <v>0.633025023447008</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0093219709422133</v>
+        <v>0.00867420419191262</v>
       </c>
       <c r="G27" t="n">
-        <v>0.133198123826646</v>
+        <v>0.147127529531462</v>
       </c>
     </row>
     <row r="28">
@@ -2386,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.999287340166469</v>
+        <v>-1.04020198306283</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0468971843633053</v>
+        <v>0.0491222761065344</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.216712019430073</v>
+        <v>-0.21306963580269</v>
       </c>
       <c r="E28" t="n">
-        <v>0.754124155957308</v>
+        <v>0.770975177304965</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00838006031753466</v>
+        <v>0.00917159942456226</v>
       </c>
       <c r="G28" t="n">
-        <v>0.121389387488236</v>
+        <v>0.124217316741298</v>
       </c>
     </row>
     <row r="29">
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.583642340404159</v>
+        <v>-0.651162783814101</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0385866839044388</v>
+        <v>0.0393439696257518</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.33656731520495</v>
+        <v>-0.304613759655579</v>
       </c>
       <c r="E29" t="n">
-        <v>0.567015261267854</v>
+        <v>0.598610531489526</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00730367696487095</v>
+        <v>0.00836222521705017</v>
       </c>
       <c r="G29" t="n">
-        <v>0.150721785446307</v>
+        <v>0.152762436587465</v>
       </c>
     </row>
     <row r="30">
@@ -2432,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.425533532074591</v>
+        <v>-0.0824593629708374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0382922702163869</v>
+        <v>0.0349708388357081</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.459855906731187</v>
+        <v>-2.26784333362506</v>
       </c>
       <c r="E30" t="n">
-        <v>0.487470418077412</v>
+        <v>0.322887924103554</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00813936703393861</v>
+        <v>0.00636983898711657</v>
       </c>
       <c r="G30" t="n">
-        <v>0.185074698500197</v>
+        <v>0.247179485806772</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2455,22 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.694921717533907</v>
+        <v>-0.682653088241585</v>
       </c>
       <c r="C31" t="n">
-        <v>0.141624586341686</v>
+        <v>0.17392690630143</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.541543618891349</v>
+        <v>-0.610918570365339</v>
       </c>
       <c r="E31" t="n">
-        <v>0.61147609659931</v>
+        <v>0.606384918679152</v>
       </c>
       <c r="F31" t="n">
-        <v>0.025590227473626</v>
+        <v>0.030382614282043</v>
       </c>
       <c r="G31" t="n">
-        <v>0.26161195642755</v>
+        <v>0.287451234812098</v>
       </c>
     </row>
     <row r="32">
@@ -2478,22 +2478,22 @@
         <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.948948868442425</v>
+        <v>-0.677478291084886</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0277373437241647</v>
+        <v>0.0212740640969072</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.175505051820537</v>
+        <v>-0.21529296969031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.735781672178377</v>
+        <v>0.613989535346519</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00531741200477699</v>
+        <v>0.00416912157383363</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0991062834700659</v>
+        <v>0.10516259895118</v>
       </c>
     </row>
     <row r="33">
@@ -2501,22 +2501,22 @@
         <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.20464684806649</v>
+        <v>-1.25394683169121</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0371545030736462</v>
+        <v>0.0354565907000385</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.160009578041172</v>
+        <v>-0.150165222716845</v>
       </c>
       <c r="E33" t="n">
-        <v>0.828199631166436</v>
+        <v>0.842056242502954</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00618698251999496</v>
+        <v>0.00708911752361471</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0949739305176541</v>
+        <v>0.0999896362043525</v>
       </c>
     </row>
     <row r="34">
@@ -2524,22 +2524,22 @@
         <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.08198495497303</v>
+        <v>-1.13863346491633</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0480004579694594</v>
+        <v>0.049003830356707</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.202489015360246</v>
+        <v>-0.194415582149492</v>
       </c>
       <c r="E34" t="n">
-        <v>0.784458213563292</v>
+        <v>0.80455298013245</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0101385061171006</v>
+        <v>0.0104417497447724</v>
       </c>
       <c r="G34" t="n">
-        <v>0.128356293956728</v>
+        <v>0.127008267621166</v>
       </c>
     </row>
     <row r="35">
@@ -2547,22 +2547,22 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.922041662824312</v>
+        <v>-1.048515178344</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228976845928752</v>
+        <v>0.168867121684636</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.518973567902971</v>
+        <v>-0.391920363066034</v>
       </c>
       <c r="E35" t="n">
-        <v>0.705276497695853</v>
+        <v>0.758824662264183</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0326945522065762</v>
+        <v>0.0223640646845627</v>
       </c>
       <c r="G35" t="n">
-        <v>0.256376541654675</v>
+        <v>0.19707608787369</v>
       </c>
     </row>
     <row r="36">
@@ -2570,22 +2570,22 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.70339745527367</v>
+        <v>-1.56923497090247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0610615922581302</v>
+        <v>0.0626279086644851</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.145066812423711</v>
+        <v>-0.159476236011867</v>
       </c>
       <c r="E36" t="n">
-        <v>0.941714711775092</v>
+        <v>0.919779411764706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0112989191802477</v>
+        <v>0.00679122061716892</v>
       </c>
       <c r="G36" t="n">
-        <v>0.112875346352968</v>
+        <v>0.0895963330311409</v>
       </c>
     </row>
     <row r="37">
@@ -2593,22 +2593,22 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0511137818067394</v>
+        <v>0.453836089081537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0229133479063064</v>
+        <v>0.00820521179702756</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.96146265161159</v>
+        <v>0.19959325916214</v>
       </c>
       <c r="E37" t="n">
-        <v>0.308749397209651</v>
+        <v>0.12803277784167</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00439692932450753</v>
+        <v>0.00113545674086452</v>
       </c>
       <c r="G37" t="n">
-        <v>0.214767530817095</v>
+        <v>0.263186814910117</v>
       </c>
     </row>
     <row r="38">
@@ -2616,22 +2616,22 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.863065089719521</v>
+        <v>-0.830862032702937</v>
       </c>
       <c r="C38" t="n">
-        <v>0.188997152662785</v>
+        <v>0.174528252934727</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.50371406838587</v>
+        <v>-0.502810058388236</v>
       </c>
       <c r="E38" t="n">
-        <v>0.682224212034384</v>
+        <v>0.671676217765043</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0273822174633213</v>
+        <v>0.0274070526845531</v>
       </c>
       <c r="G38" t="n">
-        <v>0.24255329526446</v>
+        <v>0.246474046923119</v>
       </c>
     </row>
     <row r="39">
@@ -2639,22 +2639,22 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.441697693761237</v>
+        <v>0.446309226666452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0129655795685209</v>
+        <v>0.0115182607325534</v>
       </c>
       <c r="D39" t="n">
-        <v>0.257792830920688</v>
+        <v>0.240468163927337</v>
       </c>
       <c r="E39" t="n">
-        <v>0.130244299674267</v>
+        <v>0.131062426537734</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00115869592346102</v>
+        <v>0.0014539579971734</v>
       </c>
       <c r="G39" t="n">
-        <v>0.261352112381032</v>
+        <v>0.290936175746289</v>
       </c>
     </row>
     <row r="40">
@@ -2662,22 +2662,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>0.467048850375233</v>
+        <v>0.456435054070009</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0647839749344017</v>
+        <v>0.0117454543062451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.544968610617218</v>
+        <v>0.237441112874496</v>
       </c>
       <c r="E40" t="n">
-        <v>0.157951940045252</v>
+        <v>0.163945267958951</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00316079470383856</v>
+        <v>0.000499196552853943</v>
       </c>
       <c r="G40" t="n">
-        <v>0.355937036311052</v>
+        <v>0.136281499342962</v>
       </c>
     </row>
     <row r="41">
@@ -2685,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>0.474721772398871</v>
+        <v>0.598455304338093</v>
       </c>
       <c r="C41" t="n">
-        <v>0.016542318548379</v>
+        <v>0.0120926754279409</v>
       </c>
       <c r="D41" t="n">
-        <v>0.270931211724796</v>
+        <v>0.183750901117497</v>
       </c>
       <c r="E41" t="n">
-        <v>0.119359643564758</v>
+        <v>0.0915102305943488</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00153935806673233</v>
+        <v>0.000731828469234063</v>
       </c>
       <c r="G41" t="n">
-        <v>0.328709543102206</v>
+        <v>0.295620808468485</v>
       </c>
     </row>
     <row r="42">
@@ -2708,22 +2708,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>0.303898414921398</v>
+        <v>0.383384474423342</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0452421942792998</v>
+        <v>0.00172532280536549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.699911928661156</v>
+        <v>0.108342950807304</v>
       </c>
       <c r="E42" t="n">
-        <v>0.165931583586174</v>
+        <v>0.141542222086649</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00621629036818352</v>
+        <v>0.000267429401312426</v>
       </c>
       <c r="G42" t="n">
-        <v>0.475156405534533</v>
+        <v>0.115536329622611</v>
       </c>
     </row>
     <row r="43">
@@ -2731,22 +2731,22 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>0.192852400274555</v>
+        <v>0.387469800443593</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0111873785122112</v>
+        <v>0.00116154157998239</v>
       </c>
       <c r="D43" t="n">
-        <v>0.548452622616952</v>
+        <v>0.0879588457017908</v>
       </c>
       <c r="E43" t="n">
-        <v>0.20466952306649</v>
+        <v>0.141097590004377</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00164737782004612</v>
+        <v>0.000194605896466105</v>
       </c>
       <c r="G43" t="n">
-        <v>0.198309458962322</v>
+        <v>0.098868603894457</v>
       </c>
     </row>
     <row r="44">
@@ -2754,22 +2754,22 @@
         <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.953992583719024</v>
+        <v>-0.969985309164638</v>
       </c>
       <c r="C44" t="n">
-        <v>0.143943482949003</v>
+        <v>0.108435178586785</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.397695800401005</v>
+        <v>-0.339484494138464</v>
       </c>
       <c r="E44" t="n">
-        <v>0.721394682242804</v>
+        <v>0.726056891185465</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0210585530192119</v>
+        <v>0.0159181653435897</v>
       </c>
       <c r="G44" t="n">
-        <v>0.201159860912086</v>
+        <v>0.173770421260568</v>
       </c>
     </row>
     <row r="45">
@@ -2777,22 +2777,22 @@
         <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.924343464538758</v>
+        <v>-0.847002881139757</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0444919575058717</v>
+        <v>0.0430134091202193</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.228195660800071</v>
+        <v>-0.244859548758386</v>
       </c>
       <c r="E45" t="n">
-        <v>0.721522120903967</v>
+        <v>0.687462077538369</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00716082955240564</v>
+        <v>0.00588778931685419</v>
       </c>
       <c r="G45" t="n">
-        <v>0.117282176708305</v>
+        <v>0.111616238975987</v>
       </c>
     </row>
     <row r="46">
@@ -2800,22 +2800,22 @@
         <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.858429635061169</v>
+        <v>-0.784050414740939</v>
       </c>
       <c r="C46" t="n">
-        <v>0.134510449706093</v>
+        <v>0.185747529823058</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.427241381025952</v>
+        <v>-0.549689618114317</v>
       </c>
       <c r="E46" t="n">
-        <v>0.679327495127382</v>
+        <v>0.649571057183112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0206281530449447</v>
+        <v>0.0303164464620845</v>
       </c>
       <c r="G46" t="n">
-        <v>0.211422390919813</v>
+        <v>0.26804794448448</v>
       </c>
     </row>
     <row r="47">
@@ -2823,22 +2823,22 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.20365746159867</v>
+        <v>-0.959143308585106</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0143093598945407</v>
+        <v>0.00829155054976133</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0993818760990374</v>
+        <v>-0.0949367532316704</v>
       </c>
       <c r="E47" t="n">
-        <v>0.832272236153897</v>
+        <v>0.741460010735373</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00270386079969895</v>
+        <v>0.00171726104675938</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0624779480313282</v>
+        <v>0.0558895259850605</v>
       </c>
     </row>
     <row r="48">
@@ -2846,22 +2846,22 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.968868990037246</v>
+        <v>-0.981925735423055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0503567155435805</v>
+        <v>0.0421468096081201</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.231613378754586</v>
+        <v>-0.209075772460808</v>
       </c>
       <c r="E48" t="n">
-        <v>0.738368091762252</v>
+        <v>0.745002606882169</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00833501286172869</v>
+        <v>0.00812693850153613</v>
       </c>
       <c r="G48" t="n">
-        <v>0.123646041355948</v>
+        <v>0.121005662643797</v>
       </c>
     </row>
     <row r="49">
@@ -2869,22 +2869,22 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.677410663758895</v>
+        <v>-0.651220356305073</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0570705671909369</v>
+        <v>0.0483159797859163</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.352658264053295</v>
+        <v>-0.337533923648851</v>
       </c>
       <c r="E49" t="n">
-        <v>0.61153515625</v>
+        <v>0.600131351563252</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0085861519456482</v>
+        <v>0.00695373195576328</v>
       </c>
       <c r="G49" t="n">
-        <v>0.151522754206205</v>
+        <v>0.13895131384951</v>
       </c>
     </row>
     <row r="50">
@@ -2892,22 +2892,22 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.29653996948483</v>
+        <v>-1.30992760932763</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0445692201012861</v>
+        <v>0.042206354842253</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.162828944489531</v>
+        <v>-0.15683450844201</v>
       </c>
       <c r="E50" t="n">
-        <v>0.853618379068283</v>
+        <v>0.860025526483727</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00685975593048879</v>
+        <v>0.00576245400692082</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0970265467314963</v>
+        <v>0.0882657862760515</v>
       </c>
     </row>
     <row r="51">
@@ -2915,22 +2915,22 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.01088788938734</v>
+        <v>-1.01686601988874</v>
       </c>
       <c r="C51" t="n">
-        <v>0.199732505047886</v>
+        <v>0.191394835870235</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.442100881489912</v>
+        <v>-0.430230675948494</v>
       </c>
       <c r="E51" t="n">
-        <v>0.734285714285714</v>
+        <v>0.744655315614618</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0290267739608282</v>
+        <v>0.02542954876826</v>
       </c>
       <c r="G51" t="n">
-        <v>0.232024746314073</v>
+        <v>0.214148005052384</v>
       </c>
     </row>
     <row r="52">
@@ -2938,22 +2938,22 @@
         <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.35644166346354</v>
+        <v>-1.3223385994879</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0514848122297992</v>
+        <v>0.0432185651113229</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.167277853037549</v>
+        <v>-0.15721446300391</v>
       </c>
       <c r="E52" t="n">
-        <v>0.868606756005859</v>
+        <v>0.862058896511391</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00743105137599864</v>
+        <v>0.0061785714593491</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0992434673061283</v>
+        <v>0.0911815769344446</v>
       </c>
     </row>
     <row r="53">
@@ -2961,22 +2961,22 @@
         <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.803038534245248</v>
+        <v>-0.849951595274153</v>
       </c>
       <c r="C53" t="n">
-        <v>0.029982031178628</v>
+        <v>0.0304437622811791</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.215622531278366</v>
+        <v>-0.205283936788472</v>
       </c>
       <c r="E53" t="n">
-        <v>0.672268470315426</v>
+        <v>0.693908270312604</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00423228738957215</v>
+        <v>0.00479718796815299</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0967709115691361</v>
+        <v>0.0998139641809016</v>
       </c>
     </row>
     <row r="54">
@@ -2984,22 +2984,22 @@
         <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.863696043291182</v>
+        <v>-0.914782874245571</v>
       </c>
       <c r="C54" t="n">
-        <v>0.191855137526527</v>
+        <v>0.18439088371311</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.507137571474534</v>
+        <v>-0.469409308301022</v>
       </c>
       <c r="E54" t="n">
-        <v>0.68320196209458</v>
+        <v>0.701092444016892</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0290749088423072</v>
+        <v>0.0268392457585232</v>
       </c>
       <c r="G54" t="n">
-        <v>0.249580169857899</v>
+        <v>0.233673717065068</v>
       </c>
     </row>
     <row r="55">
@@ -3007,22 +3007,22 @@
         <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.50510631772629</v>
+        <v>-1.52857586533034</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0409444481770087</v>
+        <v>0.0344967321357727</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.134440566080755</v>
+        <v>-0.121507190725412</v>
       </c>
       <c r="E55" t="n">
-        <v>0.909487003605761</v>
+        <v>0.914361549517004</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00544307586284525</v>
+        <v>0.00541097438270216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.081119580521447</v>
+        <v>0.0804488395631781</v>
       </c>
     </row>
     <row r="56">
@@ -3030,22 +3030,22 @@
         <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.52855955481576</v>
+        <v>-0.411532324023104</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0282978204394775</v>
+        <v>0.0256285636910627</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.318260371388555</v>
+        <v>-0.389007684948332</v>
       </c>
       <c r="E56" t="n">
-        <v>0.539151420074677</v>
+        <v>0.481941543498581</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00550798816780736</v>
+        <v>0.0047826604791565</v>
       </c>
       <c r="G56" t="n">
-        <v>0.137653020622894</v>
+        <v>0.143496203651347</v>
       </c>
     </row>
     <row r="57">
@@ -3053,22 +3053,22 @@
         <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.55301272487001</v>
+        <v>-1.54109808651095</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0717653589110479</v>
+        <v>0.0417413673197546</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.172497345548487</v>
+        <v>-0.132572380412049</v>
       </c>
       <c r="E57" t="n">
-        <v>0.915751776927283</v>
+        <v>0.914120508562793</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00948217539842421</v>
+        <v>0.00615215544036087</v>
       </c>
       <c r="G57" t="n">
-        <v>0.106334996768419</v>
+        <v>0.0858045261581609</v>
       </c>
     </row>
     <row r="58">
@@ -3076,22 +3076,22 @@
         <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.793417240168341</v>
+        <v>-0.82087231543326</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0330663688617114</v>
+        <v>0.0301615042189919</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.22918786555684</v>
+        <v>-0.211568442767992</v>
       </c>
       <c r="E58" t="n">
-        <v>0.667861674613112</v>
+        <v>0.680379663192506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00522237005732076</v>
+        <v>0.00514994109422881</v>
       </c>
       <c r="G58" t="n">
-        <v>0.108204992496753</v>
+        <v>0.105475066256651</v>
       </c>
     </row>
     <row r="59">
@@ -3099,22 +3099,22 @@
         <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.983855722645437</v>
+        <v>-1.08000013984775</v>
       </c>
       <c r="C59" t="n">
-        <v>0.193232209602749</v>
+        <v>0.16407295652827</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.446795040739883</v>
+        <v>-0.375054767419436</v>
       </c>
       <c r="E59" t="n">
-        <v>0.726859582542694</v>
+        <v>0.768444768425227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0248911202851971</v>
+        <v>0.0152667827420993</v>
       </c>
       <c r="G59" t="n">
-        <v>0.217055953044917</v>
+        <v>0.160790766078178</v>
       </c>
     </row>
     <row r="60">
@@ -3122,22 +3122,22 @@
         <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.36969691498799</v>
+        <v>-1.4377696830097</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0326012689922492</v>
+        <v>0.037095669304548</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.131823480794714</v>
+        <v>-0.13395911936748</v>
       </c>
       <c r="E60" t="n">
-        <v>0.874825175474594</v>
+        <v>0.891976592977893</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00535056715954789</v>
+        <v>0.00595372794283018</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0836139301456008</v>
+        <v>0.0865049650299286</v>
       </c>
     </row>
     <row r="61">
@@ -3145,22 +3145,22 @@
         <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.04413973758818</v>
+        <v>-1.05052838273666</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0181902529379473</v>
+        <v>0.0305744795341342</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.129169727885671</v>
+        <v>-0.166445380350301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.768263970580127</v>
+        <v>0.77060121708829</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00235073096922926</v>
+        <v>0.00340726378614345</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0631089563178339</v>
+        <v>0.0757483519030819</v>
       </c>
     </row>
     <row r="62">
@@ -3168,22 +3168,22 @@
         <v>89</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.03087821810079</v>
+        <v>-1.23442053052108</v>
       </c>
       <c r="C62" t="n">
-        <v>0.143844175232434</v>
+        <v>0.173038132946175</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.367907614912743</v>
+        <v>-0.336982830677467</v>
       </c>
       <c r="E62" t="n">
-        <v>0.74420965451964</v>
+        <v>0.818618078561287</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0199006499440397</v>
+        <v>0.0150638202248537</v>
       </c>
       <c r="G62" t="n">
-        <v>0.189556346906672</v>
+        <v>0.149929202377025</v>
       </c>
     </row>
     <row r="63">
@@ -3191,22 +3191,22 @@
         <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.919586932536034</v>
+        <v>-0.549613435433486</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0165323395063237</v>
+        <v>0.00340408806746114</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.139821631837619</v>
+        <v>-0.10615563511613</v>
       </c>
       <c r="E63" t="n">
-        <v>0.724480909549866</v>
+        <v>0.54997357772399</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00331943995864745</v>
+        <v>0.000705944958918805</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0795253268503656</v>
+        <v>0.0483107294931002</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.42282086421668</v>
+        <v>-1.5244612424692</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0521709753691407</v>
+        <v>0.0516840098881352</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.160532974606488</v>
+        <v>-0.149128865168659</v>
       </c>
       <c r="E64" t="n">
-        <v>0.885661538461538</v>
+        <v>0.909457553566585</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00711450020740741</v>
+        <v>0.00534270739783502</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0952367163793259</v>
+        <v>0.0803707943303175</v>
       </c>
     </row>
     <row r="65">
@@ -3237,22 +3237,22 @@
         <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.31390154915615</v>
+        <v>-1.32653886072164</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0277005309349508</v>
+        <v>0.0250326314286103</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.126672173352451</v>
+        <v>-0.119270564685732</v>
       </c>
       <c r="E65" t="n">
-        <v>0.861038943944836</v>
+        <v>0.862846888462431</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00388652732205009</v>
+        <v>0.00333008982834073</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0724032511544588</v>
+        <v>0.066879687783435</v>
       </c>
     </row>
     <row r="66">
@@ -3260,22 +3260,22 @@
         <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.39127634863909</v>
+        <v>-1.27433455991812</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0410756678241705</v>
+        <v>0.0416323827960152</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.145672949701673</v>
+        <v>-0.1601150564212</v>
       </c>
       <c r="E66" t="n">
-        <v>0.875643432146809</v>
+        <v>0.8429400660689</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00580505363331721</v>
+        <v>0.00592517358876441</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0870113333413494</v>
+        <v>0.0913174640311222</v>
       </c>
     </row>
     <row r="67">
@@ -3283,22 +3283,22 @@
         <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.20778771463519</v>
+        <v>-1.26602969083831</v>
       </c>
       <c r="C67" t="n">
-        <v>0.238077463738949</v>
+        <v>0.145767561834004</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.403988065888166</v>
+        <v>-0.301568901469826</v>
       </c>
       <c r="E67" t="n">
-        <v>0.807539251757677</v>
+        <v>0.830618217604554</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0251786455118011</v>
+        <v>0.0158124546608568</v>
       </c>
       <c r="G67" t="n">
-        <v>0.196495469102835</v>
+        <v>0.151390350531898</v>
       </c>
     </row>
     <row r="68">
@@ -3306,22 +3306,22 @@
         <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.754402991787814</v>
+        <v>-0.840132450798828</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0165268951157112</v>
+        <v>0.0211103880112531</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.170408884450016</v>
+        <v>-0.172941948539933</v>
       </c>
       <c r="E68" t="n">
-        <v>0.649702541261448</v>
+        <v>0.68810821649803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00235536148559235</v>
+        <v>0.00286112240700909</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0746989021716876</v>
+        <v>0.0777340822666986</v>
       </c>
     </row>
     <row r="69">
@@ -3329,22 +3329,22 @@
         <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.619601116640261</v>
+        <v>-0.782400047930068</v>
       </c>
       <c r="C69" t="n">
-        <v>0.043269421741331</v>
+        <v>0.0455046150392705</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.335720880801004</v>
+        <v>-0.272645826372304</v>
       </c>
       <c r="E69" t="n">
-        <v>0.581288505963301</v>
+        <v>0.658440701510679</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00632453025147397</v>
+        <v>0.00453675718550515</v>
       </c>
       <c r="G69" t="n">
-        <v>0.13681143605726</v>
+        <v>0.102295398598548</v>
       </c>
     </row>
     <row r="70">
@@ -3352,22 +3352,22 @@
         <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.2658496230289</v>
+        <v>-1.2455108923264</v>
       </c>
       <c r="C70" t="n">
-        <v>0.045359504837776</v>
+        <v>0.0493041366279484</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.168248823435172</v>
+        <v>-0.178276520504173</v>
       </c>
       <c r="E70" t="n">
-        <v>0.843030643349912</v>
+        <v>0.836931156222228</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00624048221190839</v>
+        <v>0.00503693345677301</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0937056362249168</v>
+        <v>0.0847995155470308</v>
       </c>
     </row>
     <row r="71">
@@ -3375,22 +3375,22 @@
         <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.00841155550126</v>
+        <v>-0.980174986539507</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0501936462620244</v>
+        <v>0.0469528301745195</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.222170585306141</v>
+        <v>-0.221068707591016</v>
       </c>
       <c r="E71" t="n">
-        <v>0.752663812745978</v>
+        <v>0.743026956150105</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00900300709111697</v>
+        <v>0.00653591557496822</v>
       </c>
       <c r="G71" t="n">
-        <v>0.126064486742121</v>
+        <v>0.108804948349298</v>
       </c>
     </row>
     <row r="72">
@@ -3398,22 +3398,22 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.12332446366175</v>
+        <v>-1.09907909566021</v>
       </c>
       <c r="C72" t="n">
-        <v>0.154465669999674</v>
+        <v>0.161023097353014</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.349873274189715</v>
+        <v>-0.365102780495974</v>
       </c>
       <c r="E72" t="n">
-        <v>0.782289797214494</v>
+        <v>0.772875708884688</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0205895879523486</v>
+        <v>0.0189640332456087</v>
       </c>
       <c r="G72" t="n">
-        <v>0.183424000650122</v>
+        <v>0.178178663149338</v>
       </c>
     </row>
     <row r="73">
@@ -3421,22 +3421,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.11203113143237</v>
+        <v>-1.08735020813107</v>
       </c>
       <c r="C73" t="n">
-        <v>0.139089463721332</v>
+        <v>0.165521058868557</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.335374602383129</v>
+        <v>-0.374159852786717</v>
       </c>
       <c r="E73" t="n">
-        <v>0.774972893050764</v>
+        <v>0.769463363591059</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0163341698481918</v>
+        <v>0.023469794576641</v>
       </c>
       <c r="G73" t="n">
-        <v>0.16491570723194</v>
+        <v>0.199097908374144</v>
       </c>
     </row>
     <row r="74">
@@ -3444,22 +3444,22 @@
         <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.773104043436118</v>
+        <v>-0.748603242781369</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0480532449739512</v>
+        <v>0.0452789668739576</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.283545928463211</v>
+        <v>-0.284247432441178</v>
       </c>
       <c r="E74" t="n">
-        <v>0.654788741713166</v>
+        <v>0.644886144345812</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00673197624320024</v>
+        <v>0.00712413704669893</v>
       </c>
       <c r="G74" t="n">
-        <v>0.125305485552225</v>
+        <v>0.13088295348214</v>
       </c>
     </row>
     <row r="75">
@@ -3467,22 +3467,22 @@
         <v>102</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.08015191854965</v>
+        <v>-0.906861253711256</v>
       </c>
       <c r="C75" t="n">
-        <v>0.046422431116397</v>
+        <v>0.0449716314819284</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.19947069409028</v>
+        <v>-0.233845208082595</v>
       </c>
       <c r="E75" t="n">
-        <v>0.77974389166912</v>
+        <v>0.713603179275832</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00544290898409123</v>
+        <v>0.00762191060355685</v>
       </c>
       <c r="G75" t="n">
-        <v>0.094615775817634</v>
+        <v>0.122341879763892</v>
       </c>
     </row>
     <row r="76">
@@ -3490,22 +3490,22 @@
         <v>103</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.831663743354793</v>
+        <v>-0.767439219382558</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0558377578051963</v>
+        <v>0.0384538297010887</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.284129427741382</v>
+        <v>-0.25552053588178</v>
       </c>
       <c r="E76" t="n">
-        <v>0.682291364219208</v>
+        <v>0.652381283298587</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00732558896961098</v>
+        <v>0.00565737834975247</v>
       </c>
       <c r="G76" t="n">
-        <v>0.125444434826035</v>
+        <v>0.11529384404018</v>
       </c>
     </row>
     <row r="77">
@@ -3513,22 +3513,22 @@
         <v>104</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.06230652539489</v>
+        <v>-1.02340438559839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.195498305758481</v>
+        <v>0.176807841718333</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.416218758822095</v>
+        <v>-0.41086910654181</v>
       </c>
       <c r="E77" t="n">
-        <v>0.764481865284974</v>
+        <v>0.73605538671056</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0241854947763287</v>
+        <v>0.0244573301747512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.203427799114919</v>
+        <v>0.212468243684356</v>
       </c>
     </row>
     <row r="78">
@@ -3536,22 +3536,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.69193644252464</v>
+        <v>-0.59322143598171</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0424935965094981</v>
+        <v>0.0419477110426717</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.297917174586132</v>
+        <v>-0.345252870467078</v>
       </c>
       <c r="E78" t="n">
-        <v>0.618723653395785</v>
+        <v>0.571642271662763</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00518449597688108</v>
+        <v>0.00623431068160098</v>
       </c>
       <c r="G78" t="n">
-        <v>0.116374158004686</v>
+        <v>0.138124234517053</v>
       </c>
     </row>
     <row r="79">
@@ -3559,22 +3559,22 @@
         <v>106</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.670379594416981</v>
+        <v>-0.250099754163251</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0111629823357335</v>
+        <v>0.00322643357830239</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.157604760866188</v>
+        <v>-0.227116192892036</v>
       </c>
       <c r="E79" t="n">
-        <v>0.612176516811665</v>
+        <v>0.398529301232559</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00228956130128615</v>
+        <v>0.000693980214461767</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0781626854292655</v>
+        <v>0.0661018001339117</v>
       </c>
     </row>
     <row r="80">
@@ -3582,22 +3582,22 @@
         <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.650642312791654</v>
+        <v>-0.64523119332239</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0347869174751108</v>
+        <v>0.0224918388119769</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.286659058674003</v>
+        <v>-0.232432646041789</v>
       </c>
       <c r="E80" t="n">
-        <v>0.598836596480757</v>
+        <v>0.596529288303759</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00412013607931793</v>
+        <v>0.00365289135561336</v>
       </c>
       <c r="G80" t="n">
-        <v>0.107188315695262</v>
+        <v>0.10131799954394</v>
       </c>
     </row>
     <row r="81">
@@ -3605,22 +3605,22 @@
         <v>108</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.865868209183611</v>
+        <v>-0.824601098567297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0360357207141595</v>
+        <v>0.0413986865431813</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.219237485110047</v>
+        <v>-0.246745574530068</v>
       </c>
       <c r="E81" t="n">
-        <v>0.697729591836735</v>
+        <v>0.68055775401049</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00425848171637367</v>
+        <v>0.00619943274917705</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0935276992504965</v>
+        <v>0.11569404087663</v>
       </c>
     </row>
     <row r="82">
@@ -3628,22 +3628,22 @@
         <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.907284103517553</v>
+        <v>-0.773952148038223</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0372601539934987</v>
+        <v>0.0509248983207622</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.212754630489999</v>
+        <v>-0.291575463951484</v>
       </c>
       <c r="E82" t="n">
-        <v>0.714047898493259</v>
+        <v>0.657229500242601</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00415960026020668</v>
+        <v>0.00633736711092319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0903230206220576</v>
+        <v>0.121126002354677</v>
       </c>
     </row>
     <row r="83">
@@ -3651,22 +3651,22 @@
         <v>110</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.924053243213522</v>
+        <v>-0.858123813408274</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0281954208596259</v>
+        <v>0.0394444917847065</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.181715634596918</v>
+        <v>-0.23144256210444</v>
       </c>
       <c r="E83" t="n">
-        <v>0.719382583934586</v>
+        <v>0.693064740214015</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00472446176112777</v>
+        <v>0.00712733987720831</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0955468227006467</v>
+        <v>0.12181195966373</v>
       </c>
     </row>
     <row r="84">
@@ -3674,22 +3674,22 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.905066115987782</v>
+        <v>-0.959470120872694</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0480487846004548</v>
+        <v>0.0506933993054255</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.242192615505578</v>
+        <v>-0.234662802157077</v>
       </c>
       <c r="E84" t="n">
-        <v>0.711992960844699</v>
+        <v>0.7368466046319</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00604300501168192</v>
+        <v>0.0078215115280037</v>
       </c>
       <c r="G84" t="n">
-        <v>0.10918193256517</v>
+        <v>0.120024044762072</v>
       </c>
     </row>
     <row r="85">
@@ -3697,22 +3697,22 @@
         <v>112</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0341898854903922</v>
+        <v>0.0419137986461295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0509831981683325</v>
+        <v>0.0500774256599657</v>
       </c>
       <c r="D85" t="n">
-        <v>6.60413422359207</v>
+        <v>5.33904983671104</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2731920580683</v>
+        <v>0.272026242202624</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0109174149778583</v>
+        <v>0.0104213299991982</v>
       </c>
       <c r="G85" t="n">
-        <v>0.382465124202597</v>
+        <v>0.37527598368259</v>
       </c>
     </row>
     <row r="86">
@@ -3720,22 +3720,22 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.740308794244584</v>
+        <v>-0.626751840878983</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0537141763583096</v>
+        <v>0.0377144652487495</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.313062862496372</v>
+        <v>-0.309854893214727</v>
       </c>
       <c r="E86" t="n">
-        <v>0.640722841439299</v>
+        <v>0.585581218449623</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0109298532950703</v>
+        <v>0.00747074669457714</v>
       </c>
       <c r="G86" t="n">
-        <v>0.163168739931237</v>
+        <v>0.147602891973577</v>
       </c>
     </row>
     <row r="87">
@@ -3743,22 +3743,22 @@
         <v>114</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.297292491938345</v>
+        <v>-0.368666374899818</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0471299142132504</v>
+        <v>0.0371706091626844</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.730237923253936</v>
+        <v>-0.522957397512807</v>
       </c>
       <c r="E87" t="n">
-        <v>0.424994957983193</v>
+        <v>0.460467226890756</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00977891455744651</v>
+        <v>0.00773828258535414</v>
       </c>
       <c r="G87" t="n">
-        <v>0.232681335614057</v>
+        <v>0.191039673518765</v>
       </c>
     </row>
     <row r="88">
@@ -3766,22 +3766,22 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.41517774581553</v>
+        <v>-0.403721225288766</v>
       </c>
       <c r="C88" t="n">
-        <v>0.174113926932243</v>
+        <v>0.152576967808443</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.00503847715742</v>
+        <v>-0.967526585368907</v>
       </c>
       <c r="E88" t="n">
-        <v>0.484901552003706</v>
+        <v>0.479629372249247</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0303986026078195</v>
+        <v>0.0280565713232788</v>
       </c>
       <c r="G88" t="n">
-        <v>0.359561543324026</v>
+        <v>0.349229986449153</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +3789,22 @@
         <v>116</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.0712722559532617</v>
+        <v>0.273044309522359</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0173551962691579</v>
+        <v>0.00452936156698406</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.84839276170682</v>
+        <v>0.24648208862821</v>
       </c>
       <c r="E89" t="n">
-        <v>0.314910643091151</v>
+        <v>0.178825741743636</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0031230791692022</v>
+        <v>0.000494374237830323</v>
       </c>
       <c r="G89" t="n">
-        <v>0.177461504047998</v>
+        <v>0.124336283122563</v>
       </c>
     </row>
     <row r="90">
@@ -3812,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>0.342373125670355</v>
+        <v>0.434183353545378</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0500890575200757</v>
+        <v>0.0567741250553126</v>
       </c>
       <c r="D90" t="n">
-        <v>0.653689881136187</v>
+        <v>0.548784777672573</v>
       </c>
       <c r="E90" t="n">
-        <v>0.165377851057983</v>
+        <v>0.13916735366859</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0100080678085813</v>
+        <v>0.0103003812289402</v>
       </c>
       <c r="G90" t="n">
-        <v>0.604919765675997</v>
+        <v>0.729271565049755</v>
       </c>
     </row>
     <row r="91">
@@ -3835,22 +3835,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.407336539612171</v>
+        <v>-0.537463090463463</v>
       </c>
       <c r="C91" t="n">
-        <v>0.14024295453833</v>
+        <v>0.140921672186733</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.919363286094181</v>
+        <v>-0.698457924217675</v>
       </c>
       <c r="E91" t="n">
-        <v>0.475705090696314</v>
+        <v>0.543697260735952</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0259054797678274</v>
+        <v>0.0253941350740963</v>
       </c>
       <c r="G91" t="n">
-        <v>0.338343642840933</v>
+        <v>0.293095781498133</v>
       </c>
     </row>
     <row r="92">
@@ -3858,22 +3858,22 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.19065389919831</v>
+        <v>-1.16505406737697</v>
       </c>
       <c r="C92" t="n">
-        <v>0.049585884221059</v>
+        <v>0.0484272972615191</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.187022342553801</v>
+        <v>-0.188885680628728</v>
       </c>
       <c r="E92" t="n">
-        <v>0.822000616522811</v>
+        <v>0.813736128236745</v>
       </c>
       <c r="F92" t="n">
-        <v>0.010426000064237</v>
+        <v>0.0100683386153665</v>
       </c>
       <c r="G92" t="n">
-        <v>0.124218625204245</v>
+        <v>0.123309151222878</v>
       </c>
     </row>
     <row r="93">
@@ -3881,22 +3881,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.340833777240391</v>
+        <v>-0.391700502592054</v>
       </c>
       <c r="C93" t="n">
-        <v>0.195233998525371</v>
+        <v>0.180705416723813</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.29638828232644</v>
+        <v>-1.08525415354203</v>
       </c>
       <c r="E93" t="n">
-        <v>0.451046329928286</v>
+        <v>0.473207584436105</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0330931823335161</v>
+        <v>0.0312894570451029</v>
       </c>
       <c r="G93" t="n">
-        <v>0.403318471538379</v>
+        <v>0.373806902690695</v>
       </c>
     </row>
     <row r="94">
@@ -3904,22 +3904,22 @@
         <v>121</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.652314044367594</v>
+        <v>-0.775262737340545</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0440476125333527</v>
+        <v>0.0365422738742302</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.321739555791627</v>
+        <v>-0.246574904619838</v>
       </c>
       <c r="E94" t="n">
-        <v>0.59928708317363</v>
+        <v>0.657194327328478</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00941656188642052</v>
+        <v>0.00726614556299721</v>
       </c>
       <c r="G94" t="n">
-        <v>0.161924015537858</v>
+        <v>0.129705454793636</v>
       </c>
     </row>
     <row r="95">
@@ -3927,22 +3927,22 @@
         <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.360040103736121</v>
+        <v>-0.540732988366705</v>
       </c>
       <c r="C95" t="n">
-        <v>0.138042458794755</v>
+        <v>0.162811321775799</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.03194241915376</v>
+        <v>-0.746207201083246</v>
       </c>
       <c r="E95" t="n">
-        <v>0.461064651553317</v>
+        <v>0.541351604712712</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0243366015821432</v>
+        <v>0.0291409725105571</v>
       </c>
       <c r="G95" t="n">
-        <v>0.33835152534555</v>
+        <v>0.31533530134383</v>
       </c>
     </row>
     <row r="96">
@@ -3950,22 +3950,22 @@
         <v>123</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.02787351331085</v>
+        <v>-1.09480497385966</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0348891128960588</v>
+        <v>0.0355218136594564</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.181721071284913</v>
+        <v>-0.172151497176385</v>
       </c>
       <c r="E96" t="n">
-        <v>0.765010321651522</v>
+        <v>0.788268187815548</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00765685836215742</v>
+        <v>0.00812656741868498</v>
       </c>
       <c r="G96" t="n">
-        <v>0.114382085848497</v>
+        <v>0.114361428426611</v>
       </c>
     </row>
     <row r="97">
@@ -3973,22 +3973,22 @@
         <v>124</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.760589850405506</v>
+        <v>-0.851942556912089</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0430586676295091</v>
+        <v>0.0347167494483102</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.272822238451997</v>
+        <v>-0.218705253119695</v>
       </c>
       <c r="E97" t="n">
-        <v>0.650468891690443</v>
+        <v>0.6921601625421</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00927009126048436</v>
+        <v>0.00680506001121421</v>
       </c>
       <c r="G97" t="n">
-        <v>0.148018320895396</v>
+        <v>0.119181646237078</v>
       </c>
     </row>
     <row r="98">
@@ -3996,22 +3996,22 @@
         <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.372364559616744</v>
+        <v>-0.136128546963448</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0285687150875741</v>
+        <v>0.020007947144812</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.45391759176974</v>
+        <v>-1.03908734796535</v>
       </c>
       <c r="E98" t="n">
-        <v>0.460891139290551</v>
+        <v>0.346525477683887</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00559909526217568</v>
+        <v>0.00248896463669328</v>
       </c>
       <c r="G98" t="n">
-        <v>0.162353093992255</v>
+        <v>0.143970725187719</v>
       </c>
     </row>
     <row r="99">
@@ -4019,22 +4019,22 @@
         <v>126</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.354018516817995</v>
+        <v>-0.202503816374874</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130980571860528</v>
+        <v>0.202969466162904</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.02229788634196</v>
+        <v>-2.22475474860169</v>
       </c>
       <c r="E99" t="n">
-        <v>0.457188094590921</v>
+        <v>0.389154661592824</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0228550027367483</v>
+        <v>0.0322092437681016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.330670708716409</v>
+        <v>0.461177411107603</v>
       </c>
     </row>
     <row r="100">
@@ -4042,22 +4042,22 @@
         <v>127</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.750913730933582</v>
+        <v>-0.333337426671244</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0288215254010626</v>
+        <v>0.0155443916206623</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.226083274904378</v>
+        <v>-0.374026855604091</v>
       </c>
       <c r="E100" t="n">
-        <v>0.646936973103171</v>
+        <v>0.442109594540345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0052460501839138</v>
+        <v>0.00231744256900111</v>
       </c>
       <c r="G100" t="n">
-        <v>0.111957772230238</v>
+        <v>0.108886628347021</v>
       </c>
     </row>
     <row r="101">
@@ -4065,22 +4065,22 @@
         <v>128</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.893516478961277</v>
+        <v>-0.781090567098332</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0528406409950365</v>
+        <v>0.0508323529382322</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.257265453830804</v>
+        <v>-0.288648106814917</v>
       </c>
       <c r="E101" t="n">
-        <v>0.709840370751802</v>
+        <v>0.659945932028836</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0113928977207583</v>
+        <v>0.0106730974839607</v>
       </c>
       <c r="G101" t="n">
-        <v>0.150368339512154</v>
+        <v>0.156544164081113</v>
       </c>
     </row>
     <row r="102">
@@ -4088,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.202353735363718</v>
+        <v>-0.150553256611306</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0408778256051823</v>
+        <v>0.0509781710654846</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.999154543416829</v>
+        <v>-1.49969164167364</v>
       </c>
       <c r="E102" t="n">
-        <v>0.378925549915398</v>
+        <v>0.357986463620981</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00781321484993458</v>
+        <v>0.0101914712387734</v>
       </c>
       <c r="G102" t="n">
-        <v>0.233271130377578</v>
+        <v>0.282001771442917</v>
       </c>
     </row>
     <row r="103">
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.521550274386358</v>
+        <v>-0.438199797460213</v>
       </c>
       <c r="C103" t="n">
-        <v>0.224247640460158</v>
+        <v>0.190966974687955</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.907962188158401</v>
+        <v>-0.997256697141364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.53362528071864</v>
+        <v>0.493541867179981</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0383098441265463</v>
+        <v>0.0321961481498636</v>
       </c>
       <c r="G103" t="n">
-        <v>0.36679110591758</v>
+        <v>0.363561560425925</v>
       </c>
     </row>
     <row r="104">
@@ -4134,22 +4134,22 @@
         <v>131</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.649145192340853</v>
+        <v>-0.66376140759805</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0304139445526737</v>
+        <v>0.0356104459759527</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.268654753916266</v>
+        <v>-0.284299900885432</v>
       </c>
       <c r="E104" t="n">
-        <v>0.596232186305179</v>
+        <v>0.603555787278415</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00623605760209851</v>
+        <v>0.00683521358782737</v>
       </c>
       <c r="G104" t="n">
-        <v>0.132446242619828</v>
+        <v>0.136980461935989</v>
       </c>
     </row>
     <row r="105">
@@ -4157,22 +4157,22 @@
         <v>132</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.702434245739075</v>
+        <v>-0.849143900441163</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0466951462933292</v>
+        <v>0.0457648490801332</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.307631068289716</v>
+        <v>-0.251932805481772</v>
       </c>
       <c r="E105" t="n">
-        <v>0.62127207690588</v>
+        <v>0.687542987490504</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00863844638404489</v>
+        <v>0.0093539824253753</v>
       </c>
       <c r="G105" t="n">
-        <v>0.149601513193573</v>
+        <v>0.140669005760904</v>
       </c>
     </row>
     <row r="106">
@@ -4180,22 +4180,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.295221386500621</v>
+        <v>-0.44180972101093</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170801616473059</v>
+        <v>0.14474951965629</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.3999037364974</v>
+        <v>-0.861139079188298</v>
       </c>
       <c r="E106" t="n">
-        <v>0.431174421497885</v>
+        <v>0.497823162977947</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0293088580851431</v>
+        <v>0.0260882630471576</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3970511513163</v>
+        <v>0.324449778925601</v>
       </c>
     </row>
     <row r="107">
@@ -4203,22 +4203,22 @@
         <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.393208864947602</v>
+        <v>-0.0640872138360011</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0505624703987992</v>
+        <v>0.0461735206632137</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.571861477300504</v>
+        <v>-3.35293476498284</v>
       </c>
       <c r="E107" t="n">
-        <v>0.472485370051635</v>
+        <v>0.316674761682727</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0110723070896223</v>
+        <v>0.00508119347567241</v>
       </c>
       <c r="G107" t="n">
-        <v>0.222705373304125</v>
+        <v>0.225096847908224</v>
       </c>
     </row>
     <row r="108">
@@ -4226,22 +4226,22 @@
         <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.502715801139953</v>
+        <v>-0.665731965754196</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0538955597665086</v>
+        <v>0.0499744603365644</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.46180003071658</v>
+        <v>-0.335795325343355</v>
       </c>
       <c r="E108" t="n">
-        <v>0.525849424449917</v>
+        <v>0.605343156776848</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0113466004177476</v>
+        <v>0.00907215314170815</v>
       </c>
       <c r="G108" t="n">
-        <v>0.202568297283532</v>
+        <v>0.157345218240317</v>
       </c>
     </row>
     <row r="109">
@@ -4249,22 +4249,22 @@
         <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.220924873159917</v>
+        <v>-0.360325313235442</v>
       </c>
       <c r="C109" t="n">
-        <v>0.170173159092148</v>
+        <v>0.187965019272931</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.86724332783254</v>
+        <v>-1.20321640322336</v>
       </c>
       <c r="E109" t="n">
-        <v>0.397184441009789</v>
+        <v>0.457399972508591</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0304686903973769</v>
+        <v>0.0298802304101531</v>
       </c>
       <c r="G109" t="n">
-        <v>0.439475497514332</v>
+        <v>0.377916485242511</v>
       </c>
     </row>
     <row r="110">
@@ -4272,22 +4272,22 @@
         <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.446099392563007</v>
+        <v>-0.508382616790014</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0455857677103055</v>
+        <v>0.0352374352835935</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.478611362395759</v>
+        <v>-0.36924230500466</v>
       </c>
       <c r="E110" t="n">
-        <v>0.498837672521276</v>
+        <v>0.529731132905849</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00957109100498652</v>
+        <v>0.00705065286649097</v>
       </c>
       <c r="G110" t="n">
-        <v>0.196119816670947</v>
+        <v>0.158510913510972</v>
       </c>
     </row>
     <row r="111">
@@ -4295,22 +4295,22 @@
         <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.796909437913497</v>
+        <v>-0.869935605106891</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0215763540106263</v>
+        <v>0.0218232101809741</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.184323224523148</v>
+        <v>-0.169813499316398</v>
       </c>
       <c r="E111" t="n">
-        <v>0.669625100240577</v>
+        <v>0.701090617481957</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00421950168355135</v>
+        <v>0.00474993698706085</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0970060582637079</v>
+        <v>0.0983036784354066</v>
       </c>
     </row>
     <row r="112">
@@ -4318,22 +4318,22 @@
         <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>0.131902195803106</v>
+        <v>0.152854037706933</v>
       </c>
       <c r="C112" t="n">
-        <v>0.055582427956978</v>
+        <v>0.036678153163352</v>
       </c>
       <c r="D112" t="n">
-        <v>1.78737933087598</v>
+        <v>1.2529300188074</v>
       </c>
       <c r="E112" t="n">
-        <v>0.237623426994968</v>
+        <v>0.228460863994294</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0112660240006761</v>
+        <v>0.00697555462132265</v>
       </c>
       <c r="G112" t="n">
-        <v>0.446679561459118</v>
+        <v>0.365575899290734</v>
       </c>
     </row>
     <row r="113">
@@ -4341,22 +4341,22 @@
         <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.319373137262785</v>
+        <v>-0.396086308607192</v>
       </c>
       <c r="C113" t="n">
-        <v>0.168475415528903</v>
+        <v>0.167086609497488</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.28519753416222</v>
+        <v>-1.03200307821245</v>
       </c>
       <c r="E113" t="n">
-        <v>0.440785098648217</v>
+        <v>0.47738813229572</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0297350198389697</v>
+        <v>0.0280872507746248</v>
       </c>
       <c r="G113" t="n">
-        <v>0.391207535940168</v>
+        <v>0.35106133298913</v>
       </c>
     </row>
     <row r="114">
@@ -4364,22 +4364,22 @@
         <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.358463398053128</v>
+        <v>-0.401964897456664</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0328556318190334</v>
+        <v>0.0210426026302175</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.505661739370119</v>
+        <v>-0.36087898954221</v>
       </c>
       <c r="E114" t="n">
-        <v>0.454271399942743</v>
+        <v>0.476504437446321</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00684699831662015</v>
+        <v>0.00447723282432519</v>
       </c>
       <c r="G114" t="n">
-        <v>0.182152323428657</v>
+        <v>0.140422884603601</v>
       </c>
     </row>
     <row r="115">
@@ -4387,22 +4387,22 @@
         <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.365001760815757</v>
+        <v>-0.036800138810742</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212973519414066</v>
+        <v>0.131115744105797</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.2643515470957</v>
+        <v>-9.83961181156644</v>
       </c>
       <c r="E115" t="n">
-        <v>0.461868404717567</v>
+        <v>0.320359856637168</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0358518809422804</v>
+        <v>0.0191736745217053</v>
       </c>
       <c r="G115" t="n">
-        <v>0.409956445094478</v>
+        <v>0.43222967942156</v>
       </c>
     </row>
     <row r="116">
@@ -4410,22 +4410,22 @@
         <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.347178193050085</v>
+        <v>-0.130549242242648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0214674392449424</v>
+        <v>0.0136742432448316</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.422024518233602</v>
+        <v>-0.895730361434821</v>
       </c>
       <c r="E116" t="n">
-        <v>0.448262846740753</v>
+        <v>0.343745398020126</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00381714853456393</v>
+        <v>0.00203291203254415</v>
       </c>
       <c r="G116" t="n">
-        <v>0.137827787626423</v>
+        <v>0.131166340053839</v>
       </c>
     </row>
     <row r="117">
@@ -4433,22 +4433,22 @@
         <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.28452665853818</v>
+        <v>-0.470354843439472</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0477890097074938</v>
+        <v>0.0470306593626315</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.768318078014436</v>
+        <v>-0.461067927610216</v>
       </c>
       <c r="E117" t="n">
-        <v>0.419873362445415</v>
+        <v>0.510786026200873</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0101142419670148</v>
+        <v>0.0103471258480536</v>
       </c>
       <c r="G117" t="n">
-        <v>0.239523619928371</v>
+        <v>0.199145665429585</v>
       </c>
     </row>
     <row r="118">
@@ -4456,22 +4456,22 @@
         <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.0796327601579716</v>
+        <v>-0.111050637602167</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0390001879267698</v>
+        <v>0.0443736907552457</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.47994232513197</v>
+        <v>-1.89688813391428</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3218952324897</v>
+        <v>0.338357857563272</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00798902668127237</v>
+        <v>0.00984028636426545</v>
       </c>
       <c r="G118" t="n">
-        <v>0.277672193658433</v>
+        <v>0.293175451163442</v>
       </c>
     </row>
     <row r="119">
@@ -4479,22 +4479,22 @@
         <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.434559150461195</v>
+        <v>-0.326585738593066</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0336456442334611</v>
+        <v>0.0263841742582885</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.422100167957931</v>
+        <v>-0.497364217856646</v>
       </c>
       <c r="E119" t="n">
-        <v>0.492752783964365</v>
+        <v>0.438728841870824</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0070765988160525</v>
+        <v>0.00575934970483777</v>
       </c>
       <c r="G119" t="n">
-        <v>0.170719527888965</v>
+        <v>0.172977867613976</v>
       </c>
     </row>
     <row r="120">
@@ -4502,22 +4502,22 @@
         <v>147</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.455132307224661</v>
+        <v>-0.376800963601336</v>
       </c>
       <c r="C120" t="n">
-        <v>0.156992002431828</v>
+        <v>0.159918572912682</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.870564793323845</v>
+        <v>-1.06129824978557</v>
       </c>
       <c r="E120" t="n">
-        <v>0.500377387318564</v>
+        <v>0.466183801168407</v>
       </c>
       <c r="F120" t="n">
-        <v>0.027630009537427</v>
+        <v>0.0293024062183627</v>
       </c>
       <c r="G120" t="n">
-        <v>0.332194809413336</v>
+        <v>0.367193059372276</v>
       </c>
     </row>
     <row r="121">
@@ -4525,22 +4525,22 @@
         <v>148</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.465823731077913</v>
+        <v>-0.298993682939524</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1701896751595</v>
+        <v>0.200841083789702</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.885615063879936</v>
+        <v>-1.49887102891087</v>
       </c>
       <c r="E121" t="n">
-        <v>0.506803797468354</v>
+        <v>0.432487341772152</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0296026254604631</v>
+        <v>0.0347561692051554</v>
       </c>
       <c r="G121" t="n">
-        <v>0.339488646534651</v>
+        <v>0.431064790062566</v>
       </c>
     </row>
     <row r="122">
@@ -4548,22 +4548,22 @@
         <v>149</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.520981552094805</v>
+        <v>-0.518583113509576</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0433629680105685</v>
+        <v>0.0346857747567426</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.399702767086782</v>
+        <v>-0.359134666715339</v>
       </c>
       <c r="E122" t="n">
-        <v>0.535348995246239</v>
+        <v>0.534412018649629</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00929344125398784</v>
+        <v>0.00725312776886803</v>
       </c>
       <c r="G122" t="n">
-        <v>0.180074114184122</v>
+        <v>0.159362614926824</v>
       </c>
     </row>
     <row r="123">
@@ -4571,22 +4571,22 @@
         <v>150</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.337700314150897</v>
+        <v>-0.127557641367075</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0312452459439553</v>
+        <v>0.0277175695559714</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.523432288562045</v>
+        <v>-1.3051820513059</v>
       </c>
       <c r="E123" t="n">
-        <v>0.444341498047568</v>
+        <v>0.344076372515639</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00665423353147417</v>
+        <v>0.00517072718580717</v>
       </c>
       <c r="G123" t="n">
-        <v>0.183582865491744</v>
+        <v>0.208987813024353</v>
       </c>
     </row>
     <row r="124">
@@ -4594,22 +4594,22 @@
         <v>151</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.371122870918562</v>
+        <v>-0.276651656529785</v>
       </c>
       <c r="C124" t="n">
-        <v>0.136540402685174</v>
+        <v>0.193822209049125</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.995664150905804</v>
+        <v>-1.59136020868563</v>
       </c>
       <c r="E124" t="n">
-        <v>0.46504559962434</v>
+        <v>0.423096820123398</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0248956730690482</v>
+        <v>0.0302605109548082</v>
       </c>
       <c r="G124" t="n">
-        <v>0.339286357094885</v>
+        <v>0.411148175267887</v>
       </c>
     </row>
     <row r="125">
@@ -4617,22 +4617,22 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>0.14946920940671</v>
+        <v>0.454991711185245</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0273645272532626</v>
+        <v>0.0171926091963692</v>
       </c>
       <c r="D125" t="n">
-        <v>1.1067314142957</v>
+        <v>0.288182371371606</v>
       </c>
       <c r="E125" t="n">
-        <v>0.224610840348545</v>
+        <v>0.126703800467669</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00581462626911433</v>
+        <v>0.00239290799521371</v>
       </c>
       <c r="G125" t="n">
-        <v>0.339492504630273</v>
+        <v>0.386076492201655</v>
       </c>
     </row>
     <row r="126">
@@ -4640,22 +4640,22 @@
         <v>153</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.458866137931502</v>
+        <v>-0.249318107739566</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0512198200009133</v>
+        <v>0.0519655618749983</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.493211295107757</v>
+        <v>-0.914332151788282</v>
       </c>
       <c r="E126" t="n">
-        <v>0.505254828458625</v>
+        <v>0.401518978611427</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0107142235114649</v>
+        <v>0.0111482807756768</v>
       </c>
       <c r="G126" t="n">
-        <v>0.204865995538374</v>
+        <v>0.26296495298408</v>
       </c>
     </row>
     <row r="127">
@@ -4663,22 +4663,22 @@
         <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.422580499094455</v>
+        <v>-0.430183492767199</v>
       </c>
       <c r="C127" t="n">
-        <v>0.221479902275044</v>
+        <v>0.201178503782805</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.11367304921351</v>
+        <v>-1.04264639396334</v>
       </c>
       <c r="E127" t="n">
-        <v>0.487704494332894</v>
+        <v>0.488625097964614</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0376615905889986</v>
+        <v>0.0354794038420846</v>
       </c>
       <c r="G127" t="n">
-        <v>0.397917071041153</v>
+        <v>0.385489351940441</v>
       </c>
     </row>
     <row r="128">
@@ -4686,22 +4686,22 @@
         <v>155</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.0629932735646944</v>
+        <v>-0.0797059699224695</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0497522786089923</v>
+        <v>0.0443411518648377</v>
       </c>
       <c r="D128" t="n">
-        <v>-3.54088897848391</v>
+        <v>-2.64187724603282</v>
       </c>
       <c r="E128" t="n">
-        <v>0.315809220205983</v>
+        <v>0.324467876410005</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0107069541697444</v>
+        <v>0.00795387866164717</v>
       </c>
       <c r="G128" t="n">
-        <v>0.327648486794405</v>
+        <v>0.274863944281934</v>
       </c>
     </row>
     <row r="129">
@@ -4709,22 +4709,22 @@
         <v>156</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.425912625421131</v>
+        <v>-0.410595778384959</v>
       </c>
       <c r="C129" t="n">
-        <v>0.167616551209061</v>
+        <v>0.125401314704625</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.961253504500337</v>
+        <v>-0.862455239763899</v>
       </c>
       <c r="E129" t="n">
-        <v>0.488253315103086</v>
+        <v>0.484121933370336</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0297955502019876</v>
+        <v>0.0227074657880593</v>
       </c>
       <c r="G129" t="n">
-        <v>0.353533444017305</v>
+        <v>0.311264488132539</v>
       </c>
     </row>
     <row r="130">
@@ -4732,22 +4732,22 @@
         <v>157</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0124476611446298</v>
+        <v>0.0542399884562511</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0322868559386175</v>
+        <v>0.044821568842537</v>
       </c>
       <c r="D130" t="n">
-        <v>14.4352769560837</v>
+        <v>3.90322816027227</v>
       </c>
       <c r="E130" t="n">
-        <v>0.281120448220461</v>
+        <v>0.266422807347867</v>
       </c>
       <c r="F130" t="n">
-        <v>0.00680303810748863</v>
+        <v>0.00994283532340532</v>
       </c>
       <c r="G130" t="n">
-        <v>0.293399260743333</v>
+        <v>0.374268884720872</v>
       </c>
     </row>
     <row r="131">
@@ -4755,22 +4755,22 @@
         <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>0.177474741337433</v>
+        <v>0.32308396849054</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0352337459173723</v>
+        <v>0.0305889855136846</v>
       </c>
       <c r="D131" t="n">
-        <v>1.05765215154658</v>
+        <v>0.541336272472007</v>
       </c>
       <c r="E131" t="n">
-        <v>0.214039070774255</v>
+        <v>0.163656460242997</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00780325869644755</v>
+        <v>0.00555584091351115</v>
       </c>
       <c r="G131" t="n">
-        <v>0.412709955958025</v>
+        <v>0.455451091598212</v>
       </c>
     </row>
     <row r="132">
@@ -4778,22 +4778,22 @@
         <v>159</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.335478481481114</v>
+        <v>-0.433547701713136</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0411248369042663</v>
+        <v>0.0526647378576425</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.60448764071942</v>
+        <v>-0.52932581525455</v>
       </c>
       <c r="E132" t="n">
-        <v>0.443769823948785</v>
+        <v>0.492192637858286</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00862850768763513</v>
+        <v>0.0110045743144907</v>
       </c>
       <c r="G132" t="n">
-        <v>0.209319687657491</v>
+        <v>0.213133398734968</v>
       </c>
     </row>
     <row r="133">
@@ -4801,22 +4801,22 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.333984987212288</v>
+        <v>0.00991237959620179</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0531660988033811</v>
+        <v>0.0443985133979007</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.690383576647049</v>
+        <v>21.2572112913829</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4453350801169</v>
+        <v>0.285895394537942</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0112109531478751</v>
+        <v>0.00761937311827932</v>
       </c>
       <c r="G133" t="n">
-        <v>0.237757574652503</v>
+        <v>0.305318036852755</v>
       </c>
     </row>
     <row r="134">
@@ -4824,22 +4824,22 @@
         <v>161</v>
       </c>
       <c r="B134" t="n">
-        <v>0.279241318304376</v>
+        <v>0.464990998552278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0222259266030815</v>
+        <v>0.0151717219933253</v>
       </c>
       <c r="D134" t="n">
-        <v>0.533888121423537</v>
+        <v>0.264894470202193</v>
       </c>
       <c r="E134" t="n">
-        <v>0.176360695110981</v>
+        <v>0.122378339335498</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00416783130776877</v>
+        <v>0.00122506897801133</v>
       </c>
       <c r="G134" t="n">
-        <v>0.366060833662769</v>
+        <v>0.286006376425293</v>
       </c>
     </row>
     <row r="135">
@@ -4847,22 +4847,22 @@
         <v>162</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.381380892039803</v>
+        <v>-0.375513525420001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.163506471128144</v>
+        <v>0.165239857157634</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.06025063815993</v>
+        <v>-1.08250976129062</v>
       </c>
       <c r="E135" t="n">
-        <v>0.468946651274152</v>
+        <v>0.465917334608798</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0282429329662327</v>
+        <v>0.028597099875163</v>
       </c>
       <c r="G135" t="n">
-        <v>0.35836984486531</v>
+        <v>0.362954451520156</v>
       </c>
     </row>
     <row r="136">
@@ -4870,22 +4870,22 @@
         <v>163</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.777848956648967</v>
+        <v>-0.638548395415161</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0469123375092473</v>
+        <v>0.0380048764597916</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.278450667336973</v>
+        <v>-0.305299325391982</v>
       </c>
       <c r="E136" t="n">
-        <v>0.659063757678458</v>
+        <v>0.594162253759797</v>
       </c>
       <c r="F136" t="n">
-        <v>0.00996258545939914</v>
+        <v>0.00826130727283096</v>
       </c>
       <c r="G136" t="n">
-        <v>0.151446276365574</v>
+        <v>0.152974601168252</v>
       </c>
     </row>
     <row r="137">
@@ -4893,22 +4893,22 @@
         <v>164</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.343199249511679</v>
+        <v>-0.346707574239804</v>
       </c>
       <c r="C137" t="n">
-        <v>0.17531978348829</v>
+        <v>0.165967734960241</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.22002613288869</v>
+        <v>-1.17502878039384</v>
       </c>
       <c r="E137" t="n">
-        <v>0.452413123591396</v>
+        <v>0.451558843971933</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0291779498206976</v>
+        <v>0.029304859869744</v>
       </c>
       <c r="G137" t="n">
-        <v>0.377565402852089</v>
+        <v>0.379101473072627</v>
       </c>
     </row>
     <row r="138">
@@ -4916,22 +4916,22 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.33178678159711</v>
+        <v>-0.308633535107439</v>
       </c>
       <c r="C138" t="n">
-        <v>0.052748833057479</v>
+        <v>0.0326961636162899</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.692225109154833</v>
+        <v>-0.585875430552183</v>
       </c>
       <c r="E138" t="n">
-        <v>0.442038984624887</v>
+        <v>0.430212765957447</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0112755620589176</v>
+        <v>0.00707467407736083</v>
       </c>
       <c r="G138" t="n">
-        <v>0.240219648493628</v>
+        <v>0.195510427469091</v>
       </c>
     </row>
     <row r="139">
@@ -4939,22 +4939,22 @@
         <v>166</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.748331886638862</v>
+        <v>-0.655506651977304</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0744242797162794</v>
+        <v>0.0507465953379609</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.364555008358465</v>
+        <v>-0.343657915785981</v>
       </c>
       <c r="E139" t="n">
-        <v>0.643448667540411</v>
+        <v>0.600874111929646</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0153868460039152</v>
+        <v>0.0108846855077465</v>
       </c>
       <c r="G139" t="n">
-        <v>0.19277952140506</v>
+        <v>0.173629873748538</v>
       </c>
     </row>
     <row r="140">
@@ -4962,22 +4962,22 @@
         <v>167</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.160368661218287</v>
+        <v>0.263301225078811</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0221335093568874</v>
+        <v>0.00399721475424965</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.927695896546982</v>
+        <v>0.240118632372484</v>
       </c>
       <c r="E140" t="n">
-        <v>0.356014358255181</v>
+        <v>0.181693082346632</v>
       </c>
       <c r="F140" t="n">
-        <v>0.00413783893708519</v>
+        <v>0.000557857304524701</v>
       </c>
       <c r="G140" t="n">
-        <v>0.180683825633974</v>
+        <v>0.129993958676265</v>
       </c>
     </row>
     <row r="141">
@@ -4985,22 +4985,22 @@
         <v>168</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.09620102535235</v>
+        <v>0.0108978232512307</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0389987321742801</v>
+        <v>0.0306955371787396</v>
       </c>
       <c r="D141" t="n">
-        <v>-2.05279482094273</v>
+        <v>16.0767352199042</v>
       </c>
       <c r="E141" t="n">
-        <v>0.329708302169035</v>
+        <v>0.283436175517327</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00771929793253979</v>
+        <v>0.00666195954980541</v>
       </c>
       <c r="G141" t="n">
-        <v>0.266476563258262</v>
+        <v>0.287968985496339</v>
       </c>
     </row>
     <row r="142">
@@ -5008,22 +5008,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.204914546987137</v>
+        <v>-0.037996032713747</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0127249955000871</v>
+        <v>0.015153363676572</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.55049835865655</v>
+        <v>-3.23978559609105</v>
       </c>
       <c r="E142" t="n">
-        <v>0.376744186046512</v>
+        <v>0.298664810990392</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0029028093721668</v>
+        <v>0.00251246709261969</v>
       </c>
       <c r="G142" t="n">
-        <v>0.143008779214922</v>
+        <v>0.167828662901152</v>
       </c>
     </row>
     <row r="143">
@@ -5031,22 +5031,22 @@
         <v>170</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.195674491491729</v>
+        <v>-0.144961153444136</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0430626926356887</v>
+        <v>0.0452580337951422</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.06051392933565</v>
+        <v>-1.46756114603548</v>
       </c>
       <c r="E143" t="n">
-        <v>0.376026533996683</v>
+        <v>0.351747927031509</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00764399961508103</v>
+        <v>0.00918072264668916</v>
       </c>
       <c r="G143" t="n">
-        <v>0.232510107324102</v>
+        <v>0.272399864380211</v>
       </c>
     </row>
     <row r="144">
@@ -5054,22 +5054,22 @@
         <v>171</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.196855378196714</v>
+        <v>-0.0282415201069354</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0124109779929457</v>
+        <v>0.00960399548839228</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.565920880676185</v>
+        <v>-3.47006735510403</v>
       </c>
       <c r="E144" t="n">
-        <v>0.373501621855841</v>
+        <v>0.2954603666801</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00259299478108433</v>
+        <v>0.00142898306407384</v>
       </c>
       <c r="G144" t="n">
-        <v>0.136335303520625</v>
+        <v>0.127942345565052</v>
       </c>
     </row>
     <row r="145">
@@ -5077,22 +5077,22 @@
         <v>172</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.336754051728324</v>
+        <v>-0.245591737668974</v>
       </c>
       <c r="C145" t="n">
-        <v>0.034271242107952</v>
+        <v>0.0508627054757618</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.549733360395218</v>
+        <v>-0.918302944197132</v>
       </c>
       <c r="E145" t="n">
-        <v>0.444848773495757</v>
+        <v>0.400641909814324</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00665823790431541</v>
+        <v>0.0109345412644851</v>
       </c>
       <c r="G145" t="n">
-        <v>0.183428686808309</v>
+        <v>0.261002042814542</v>
       </c>
     </row>
     <row r="146">
@@ -5100,22 +5100,22 @@
         <v>173</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.22103935812836</v>
+        <v>-1.22916944614026</v>
       </c>
       <c r="C146" t="n">
-        <v>0.217042166410079</v>
+        <v>0.121954359943851</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.381542037808308</v>
+        <v>-0.284110254583926</v>
       </c>
       <c r="E146" t="n">
-        <v>0.810414086687307</v>
+        <v>0.813643716337113</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0210304736563539</v>
+        <v>0.011665742122828</v>
       </c>
       <c r="G146" t="n">
-        <v>0.178944166730331</v>
+        <v>0.132746142953774</v>
       </c>
     </row>
     <row r="147">
@@ -5123,22 +5123,22 @@
         <v>174</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.0354213112369886</v>
+        <v>0.142280535107267</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0189085258314385</v>
+        <v>0.0123906722805358</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.88207750361484</v>
+        <v>0.782351546516985</v>
       </c>
       <c r="E147" t="n">
-        <v>0.29886856321366</v>
+        <v>0.224922810629252</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00404267714582872</v>
+        <v>0.00213957469317844</v>
       </c>
       <c r="G147" t="n">
-        <v>0.212742517368389</v>
+        <v>0.205650715295241</v>
       </c>
     </row>
     <row r="148">
@@ -5146,22 +5146,22 @@
         <v>175</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.03059724559012</v>
+        <v>-1.28450982011628</v>
       </c>
       <c r="C148" t="n">
-        <v>0.155297125833663</v>
+        <v>0.152584942506039</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.382377854109894</v>
+        <v>-0.304101393599421</v>
       </c>
       <c r="E148" t="n">
-        <v>0.747083032490975</v>
+        <v>0.824474088876226</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0222798548288131</v>
+        <v>0.016283385849543</v>
       </c>
       <c r="G148" t="n">
-        <v>0.199796237468655</v>
+        <v>0.154773051629412</v>
       </c>
     </row>
     <row r="149">
@@ -5169,22 +5169,22 @@
         <v>176</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.657043799990432</v>
+        <v>-0.735899420262167</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0262745381120052</v>
+        <v>0.0234587437003795</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.246702314262093</v>
+        <v>-0.208129631070463</v>
       </c>
       <c r="E149" t="n">
-        <v>0.602937983134445</v>
+        <v>0.640907377886674</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00501773380037405</v>
+        <v>0.00458988588881695</v>
       </c>
       <c r="G149" t="n">
-        <v>0.11748466013697</v>
+        <v>0.105707468694293</v>
       </c>
     </row>
     <row r="150">
@@ -5192,22 +5192,22 @@
         <v>177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.530231158087602</v>
+        <v>-0.497876026281969</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0338376639687045</v>
+        <v>0.0324812575798551</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.346924476757094</v>
+        <v>-0.361988857952998</v>
       </c>
       <c r="E150" t="n">
-        <v>0.541205607476635</v>
+        <v>0.524989287240011</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0053690424799837</v>
+        <v>0.0055542433459109</v>
       </c>
       <c r="G150" t="n">
-        <v>0.135389857878363</v>
+        <v>0.141958698913745</v>
       </c>
     </row>
     <row r="151">
@@ -5215,22 +5215,22 @@
         <v>178</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.30038522204102</v>
+        <v>-1.17603307446033</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0266781132988366</v>
+        <v>0.0322438671239254</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.12560459598197</v>
+        <v>-0.152687690260955</v>
       </c>
       <c r="E151" t="n">
-        <v>0.853782636458879</v>
+        <v>0.817215816074226</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00264946795910459</v>
+        <v>0.00241397016027838</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0602881583783674</v>
+        <v>0.0601214138943844</v>
       </c>
     </row>
     <row r="152">
@@ -5238,22 +5238,22 @@
         <v>179</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.316152956920406</v>
+        <v>-0.258022757213334</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0274935958842234</v>
+        <v>0.0197419146565101</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.524467431438999</v>
+        <v>-0.544548571750452</v>
       </c>
       <c r="E152" t="n">
-        <v>0.435151944999712</v>
+        <v>0.406484412920368</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00440878208601359</v>
+        <v>0.00361290119071422</v>
       </c>
       <c r="G152" t="n">
-        <v>0.152587299759801</v>
+        <v>0.14787138661264</v>
       </c>
     </row>
     <row r="153">
@@ -5261,22 +5261,22 @@
         <v>180</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.77222135208919</v>
+        <v>-0.702838069390662</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0334200951424665</v>
+        <v>0.030190598526314</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.236734762548621</v>
+        <v>-0.247218282177037</v>
       </c>
       <c r="E153" t="n">
-        <v>0.655036231884058</v>
+        <v>0.62304660422034</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00518380409297911</v>
+        <v>0.00522662828938024</v>
       </c>
       <c r="G153" t="n">
-        <v>0.109915506985982</v>
+        <v>0.116035338640956</v>
       </c>
     </row>
     <row r="154">
@@ -5284,22 +5284,22 @@
         <v>181</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.548530550333796</v>
+        <v>-0.696480697014216</v>
       </c>
       <c r="C154" t="n">
-        <v>0.208911383856</v>
+        <v>0.178802061611662</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.833259420642111</v>
+        <v>-0.607123686004755</v>
       </c>
       <c r="E154" t="n">
-        <v>0.543250604072181</v>
+        <v>0.608516949152542</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0355405070008181</v>
+        <v>0.0292196544725306</v>
       </c>
       <c r="G154" t="n">
-        <v>0.347025662141081</v>
+        <v>0.280908485820454</v>
       </c>
     </row>
     <row r="155">
@@ -5307,22 +5307,22 @@
         <v>182</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.01107366189014</v>
+        <v>-0.976017867120238</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0276612873795297</v>
+        <v>0.0221655032558102</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.164495263382076</v>
+        <v>-0.15253904746297</v>
       </c>
       <c r="E155" t="n">
-        <v>0.758750534421921</v>
+        <v>0.74357720414929</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00440971921667838</v>
+        <v>0.00376277824534192</v>
       </c>
       <c r="G155" t="n">
-        <v>0.087519828631897</v>
+        <v>0.0824951174328679</v>
       </c>
     </row>
     <row r="156">
@@ -5330,22 +5330,22 @@
         <v>183</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.323712692689836</v>
+        <v>-0.127751508093633</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0291878326667847</v>
+        <v>0.0290568593109232</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.527765741316126</v>
+        <v>-1.33431478921543</v>
       </c>
       <c r="E156" t="n">
-        <v>0.436614871708078</v>
+        <v>0.341472822394255</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00618410744175052</v>
+        <v>0.00440437120462694</v>
       </c>
       <c r="G156" t="n">
-        <v>0.180110896893124</v>
+        <v>0.194350567512423</v>
       </c>
     </row>
     <row r="157">
@@ -5353,22 +5353,22 @@
         <v>184</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.656773085176129</v>
+        <v>-0.913087173266928</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0659665370731019</v>
+        <v>0.0563449355561393</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.391062791670417</v>
+        <v>-0.259965191508632</v>
       </c>
       <c r="E157" t="n">
-        <v>0.599612118594871</v>
+        <v>0.717649473954324</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0141996950288783</v>
+        <v>0.0116404066867725</v>
       </c>
       <c r="G157" t="n">
-        <v>0.198732596532744</v>
+        <v>0.150339016919097</v>
       </c>
     </row>
     <row r="158">
@@ -5376,22 +5376,22 @@
         <v>185</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.348121784641533</v>
+        <v>-0.506479365650435</v>
       </c>
       <c r="C158" t="n">
-        <v>0.179745105125554</v>
+        <v>0.217248499427194</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.21785991139914</v>
+        <v>-0.920272906176935</v>
       </c>
       <c r="E158" t="n">
-        <v>0.454019138755981</v>
+        <v>0.52575225943647</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0322939801741639</v>
+        <v>0.0379302098646726</v>
       </c>
       <c r="G158" t="n">
-        <v>0.395809876351558</v>
+        <v>0.370434540630557</v>
       </c>
     </row>
     <row r="159">
@@ -5399,22 +5399,22 @@
         <v>186</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.405422922210199</v>
+        <v>-0.739439281787609</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0794335502246211</v>
+        <v>0.0503756848774309</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.695174266156602</v>
+        <v>-0.303534432264095</v>
       </c>
       <c r="E159" t="n">
-        <v>0.479259949630909</v>
+        <v>0.639654665686995</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0146173600231382</v>
+        <v>0.00857023083553013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.252268679605956</v>
+        <v>0.144727375886001</v>
       </c>
     </row>
     <row r="160">
@@ -5422,22 +5422,22 @@
         <v>187</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.338342150923494</v>
+        <v>-0.336311000573306</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0219511100836114</v>
+        <v>0.0230954044575899</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.437897169475511</v>
+        <v>-0.451878535938663</v>
       </c>
       <c r="E160" t="n">
-        <v>0.447296592206098</v>
+        <v>0.445879667373227</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00428295425355647</v>
+        <v>0.00435373955581039</v>
       </c>
       <c r="G160" t="n">
-        <v>0.146310713567451</v>
+        <v>0.147983588463114</v>
       </c>
     </row>
     <row r="161">
@@ -5445,22 +5445,22 @@
         <v>188</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.879684641567262</v>
+        <v>-1.02241298438962</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0378873471264803</v>
+        <v>0.0497377013173487</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.221268753262543</v>
+        <v>-0.218130552166204</v>
       </c>
       <c r="E161" t="n">
-        <v>0.703951596501932</v>
+        <v>0.761699206833435</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00579983260363854</v>
+        <v>0.00540326752958166</v>
       </c>
       <c r="G161" t="n">
-        <v>0.108184472367406</v>
+        <v>0.096503870536529</v>
       </c>
     </row>
     <row r="162">
@@ -5468,22 +5468,22 @@
         <v>189</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.935582784065161</v>
+        <v>-1.19317872436459</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0441340600794389</v>
+        <v>0.0340014542631847</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.224545687835562</v>
+        <v>-0.154540831782446</v>
       </c>
       <c r="E162" t="n">
-        <v>0.725928430543815</v>
+        <v>0.822087912087912</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00560516262658092</v>
+        <v>0.0046415282925887</v>
       </c>
       <c r="G162" t="n">
-        <v>0.103133629830151</v>
+        <v>0.0828728431500253</v>
       </c>
     </row>
     <row r="163">
@@ -5491,22 +5491,22 @@
         <v>190</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.54051323007747</v>
+        <v>-1.51163673969384</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0251050555575442</v>
+        <v>0.0245899760738193</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.10285257307682</v>
+        <v>-0.103736505557483</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9162026032824</v>
+        <v>0.910651559535604</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00395063683551081</v>
+        <v>0.00310975084041124</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0686028302165978</v>
+        <v>0.0612365283150918</v>
       </c>
     </row>
     <row r="164">
@@ -5514,22 +5514,22 @@
         <v>191</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.816868938561491</v>
+        <v>-0.609881108056857</v>
       </c>
       <c r="C164" t="n">
-        <v>0.050433661458993</v>
+        <v>0.0444500109679624</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.274920969716419</v>
+        <v>-0.345693135348939</v>
       </c>
       <c r="E164" t="n">
-        <v>0.671871681181355</v>
+        <v>0.57720898380496</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00870726083676364</v>
+        <v>0.00903115567207374</v>
       </c>
       <c r="G164" t="n">
-        <v>0.138884711467278</v>
+        <v>0.164641222534407</v>
       </c>
     </row>
     <row r="165">
@@ -5537,22 +5537,22 @@
         <v>192</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.991582784763865</v>
+        <v>-0.713361706656141</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0470441632782325</v>
+        <v>0.0401391482471211</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.218737828358782</v>
+        <v>-0.28084990649005</v>
       </c>
       <c r="E165" t="n">
-        <v>0.745105384256014</v>
+        <v>0.626155871511322</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00737436614539093</v>
+        <v>0.00787117664652882</v>
       </c>
       <c r="G165" t="n">
-        <v>0.115250985266765</v>
+        <v>0.141689403567609</v>
       </c>
     </row>
     <row r="166">
@@ -5560,22 +5560,22 @@
         <v>193</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.937892230028243</v>
+        <v>-0.593822882386086</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0108996488582012</v>
+        <v>0.00449201256675314</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.111314903854352</v>
+        <v>-0.112866108832837</v>
       </c>
       <c r="E166" t="n">
-        <v>0.730069523533547</v>
+        <v>0.571514144868223</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00205604745926932</v>
+        <v>0.000907938680959347</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0621086870017423</v>
+        <v>0.0527231410247768</v>
       </c>
     </row>
     <row r="167">
@@ -5583,22 +5583,22 @@
         <v>194</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.76793801582444</v>
+        <v>-0.724507069962866</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0496586812884665</v>
+        <v>0.0399046978614668</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.290182637608635</v>
+        <v>-0.275720708399118</v>
       </c>
       <c r="E167" t="n">
-        <v>0.655509845436879</v>
+        <v>0.633717881061776</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00686546535857437</v>
+        <v>0.00593579526841357</v>
       </c>
       <c r="G167" t="n">
-        <v>0.126402531305997</v>
+        <v>0.121574780807346</v>
       </c>
     </row>
     <row r="168">
@@ -5606,22 +5606,22 @@
         <v>195</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.45251888970573</v>
+        <v>-1.50284155530512</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0493415837617605</v>
+        <v>0.0386300175340444</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.152927205883459</v>
+        <v>-0.130782386284697</v>
       </c>
       <c r="E168" t="n">
-        <v>0.889573083815252</v>
+        <v>0.899182608788197</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00782162266254241</v>
+        <v>0.00638824867925574</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0994184061698495</v>
+        <v>0.0888879741655952</v>
       </c>
     </row>
     <row r="169">
@@ -5629,22 +5629,22 @@
         <v>196</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.718039082296462</v>
+        <v>-0.649327620270303</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0428837613348437</v>
+        <v>0.037291909551931</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.288402055905383</v>
+        <v>-0.297401691561952</v>
       </c>
       <c r="E169" t="n">
-        <v>0.629826194546964</v>
+        <v>0.598223671207113</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00672874154561636</v>
+        <v>0.00584877795465453</v>
       </c>
       <c r="G169" t="n">
-        <v>0.130240544897293</v>
+        <v>0.127840650925742</v>
       </c>
     </row>
     <row r="170">
@@ -5652,22 +5652,22 @@
         <v>197</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.26377588591011</v>
+        <v>-1.37019018317258</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0449075365100103</v>
+        <v>0.0396331967207373</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.167683199304169</v>
+        <v>-0.145294341101063</v>
       </c>
       <c r="E170" t="n">
-        <v>0.843484455958549</v>
+        <v>0.869640399557435</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00573240613076442</v>
+        <v>0.00550561180878812</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0897617667866027</v>
+        <v>0.0853224046051477</v>
       </c>
     </row>
     <row r="171">
@@ -5675,22 +5675,22 @@
         <v>198</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.978443243426851</v>
+        <v>-1.09800107499953</v>
       </c>
       <c r="C171" t="n">
-        <v>0.144845529064683</v>
+        <v>0.17675846969991</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.388970718052958</v>
+        <v>-0.382901749945063</v>
       </c>
       <c r="E171" t="n">
-        <v>0.730563980813164</v>
+        <v>0.771550188614547</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0180783245471975</v>
+        <v>0.0234099518100115</v>
       </c>
       <c r="G171" t="n">
-        <v>0.184043648036701</v>
+        <v>0.198306102074008</v>
       </c>
     </row>
     <row r="172">
@@ -5698,22 +5698,22 @@
         <v>199</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.1894858348557</v>
+        <v>-1.23265022870024</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0233440586824428</v>
+        <v>0.024530987423628</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.128448462016517</v>
+        <v>-0.127062575573157</v>
       </c>
       <c r="E172" t="n">
-        <v>0.822356280686171</v>
+        <v>0.835222835577851</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00425821927198852</v>
+        <v>0.00349416862426607</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0793512910085919</v>
+        <v>0.07077332018191</v>
       </c>
     </row>
     <row r="173">
@@ -5721,22 +5721,22 @@
         <v>200</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.1038739870392</v>
+        <v>-1.18982943982269</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0392778225599032</v>
+        <v>0.0471524944211526</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.179537098668954</v>
+        <v>-0.182501998990332</v>
       </c>
       <c r="E173" t="n">
-        <v>0.794269037127271</v>
+        <v>0.822415506611734</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00608919071910363</v>
+        <v>0.00683363746842917</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0982453842448154</v>
+        <v>0.100515879567533</v>
       </c>
     </row>
     <row r="174">
@@ -5744,22 +5744,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.53795986692204</v>
+        <v>-1.42955112263003</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0403083862348547</v>
+        <v>0.0397346975914797</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.130542733679914</v>
+        <v>-0.139439322868186</v>
       </c>
       <c r="E174" t="n">
-        <v>0.912239466485906</v>
+        <v>0.889916088010164</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00436841675218361</v>
+        <v>0.00447857465010771</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0724524664784952</v>
+        <v>0.0752005212162876</v>
       </c>
     </row>
     <row r="175">
@@ -5767,22 +5767,22 @@
         <v>202</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.21030715458294</v>
+        <v>-1.18053376739511</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0372583188392027</v>
+        <v>0.0327095350141658</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.159483598712782</v>
+        <v>-0.153200002107615</v>
       </c>
       <c r="E175" t="n">
-        <v>0.83140350877193</v>
+        <v>0.820908242512836</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00518864838350262</v>
+        <v>0.00410579645998253</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0866393663821968</v>
+        <v>0.078055604533528</v>
       </c>
     </row>
     <row r="176">
@@ -5790,22 +5790,22 @@
         <v>203</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.21553612865835</v>
+        <v>-1.33230389910169</v>
       </c>
       <c r="C176" t="n">
-        <v>0.189579123008399</v>
+        <v>0.153550094655202</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.358201486090428</v>
+        <v>-0.294118095654159</v>
       </c>
       <c r="E176" t="n">
-        <v>0.815054897677895</v>
+        <v>0.843866404715128</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0186705378281363</v>
+        <v>0.0138699601641186</v>
       </c>
       <c r="G176" t="n">
-        <v>0.167645365812796</v>
+        <v>0.139560947539746</v>
       </c>
     </row>
     <row r="177">
@@ -5813,22 +5813,22 @@
         <v>204</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.944520962352244</v>
+        <v>-0.926504129495509</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0420355266715696</v>
+        <v>0.038246065717323</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.217068420260907</v>
+        <v>-0.21107948413968</v>
       </c>
       <c r="E177" t="n">
-        <v>0.731034175665031</v>
+        <v>0.724036763576168</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0049905309608201</v>
+        <v>0.00499345551456997</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0966352771477879</v>
+        <v>0.0975977878756416</v>
       </c>
     </row>
     <row r="178">
@@ -5836,22 +5836,22 @@
         <v>205</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.18702756055267</v>
+        <v>-1.31849763138203</v>
       </c>
       <c r="C178" t="n">
-        <v>0.163153194340629</v>
+        <v>0.134572415723018</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.340280441809142</v>
+        <v>-0.278226613926339</v>
       </c>
       <c r="E178" t="n">
-        <v>0.801004411265694</v>
+        <v>0.83639972435103</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0182645839178501</v>
+        <v>0.0103995388974972</v>
       </c>
       <c r="G178" t="n">
-        <v>0.168721327476647</v>
+        <v>0.121925111327486</v>
       </c>
     </row>
     <row r="179">
@@ -5859,22 +5859,22 @@
         <v>206</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.51513817818381</v>
+        <v>-1.45889615764833</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0223116598925635</v>
+        <v>0.0240830092672021</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0985856488124135</v>
+        <v>-0.10637289915042</v>
       </c>
       <c r="E179" t="n">
-        <v>0.911941207910208</v>
+        <v>0.899129276232424</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00213380587217027</v>
+        <v>0.00247866290943141</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0506536345043038</v>
+        <v>0.0553715390941747</v>
       </c>
     </row>
     <row r="180">
@@ -5882,22 +5882,22 @@
         <v>207</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.11840359778359</v>
+        <v>-1.22342192868919</v>
       </c>
       <c r="C180" t="n">
-        <v>0.20950369628021</v>
+        <v>0.193537044566089</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.409258105325484</v>
+        <v>-0.359588498130549</v>
       </c>
       <c r="E180" t="n">
-        <v>0.774188481675393</v>
+        <v>0.823652410134984</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0250130013179349</v>
+        <v>0.020276686538635</v>
       </c>
       <c r="G180" t="n">
-        <v>0.20428486755509</v>
+        <v>0.172883887695585</v>
       </c>
     </row>
     <row r="181">
@@ -5905,22 +5905,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.03389440547123</v>
+        <v>-0.941650692286632</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0406559519999956</v>
+        <v>0.0471114932718301</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.19502302216073</v>
+        <v>-0.230501419905995</v>
       </c>
       <c r="E181" t="n">
-        <v>0.768518424396442</v>
+        <v>0.73174332909784</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00609213343070125</v>
+        <v>0.00722472972137773</v>
       </c>
       <c r="G181" t="n">
-        <v>0.101561807088994</v>
+        <v>0.116158776897462</v>
       </c>
     </row>
     <row r="182">
@@ -5928,22 +5928,22 @@
         <v>209</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.923839338617393</v>
+        <v>-0.702577604747786</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0456659303646103</v>
+        <v>0.0437701909537867</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.231312820269077</v>
+        <v>-0.297779583726417</v>
       </c>
       <c r="E182" t="n">
-        <v>0.724101404301916</v>
+        <v>0.623535536441829</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00634645738279507</v>
+        <v>0.00521753745306302</v>
       </c>
       <c r="G182" t="n">
-        <v>0.110018645621767</v>
+        <v>0.115843475297717</v>
       </c>
     </row>
     <row r="183">
@@ -5951,22 +5951,22 @@
         <v>210</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.6572177584887</v>
+        <v>-1.73598334682768</v>
       </c>
       <c r="C183" t="n">
-        <v>0.044407976215309</v>
+        <v>0.0332201968259621</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.127160115108004</v>
+        <v>-0.104991839772569</v>
       </c>
       <c r="E183" t="n">
-        <v>0.931753810339929</v>
+        <v>0.944111559375548</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00514764790134622</v>
+        <v>0.0031871397069314</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0770022187796874</v>
+        <v>0.0597967025118327</v>
       </c>
     </row>
     <row r="184">
@@ -5974,22 +5974,22 @@
         <v>211</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.66448137041915</v>
+        <v>-1.70804375131753</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0284545429601273</v>
+        <v>0.0373758267716559</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.101343726219786</v>
+        <v>-0.113186964568603</v>
       </c>
       <c r="E184" t="n">
-        <v>0.937624500038151</v>
+        <v>0.944078091106291</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00372352433596728</v>
+        <v>0.00260765208706172</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0650800909829822</v>
+        <v>0.0540899904108648</v>
       </c>
     </row>
     <row r="185">
@@ -5997,22 +5997,22 @@
         <v>212</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.703820291778751</v>
+        <v>-0.484662133183156</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0215353884739319</v>
+        <v>0.0253909708131287</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.20850408659593</v>
+        <v>-0.328776345414241</v>
       </c>
       <c r="E185" t="n">
-        <v>0.624397032126672</v>
+        <v>0.518098014257682</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00302410383269152</v>
+        <v>0.00520876153274914</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0880719311456143</v>
+        <v>0.139301345023899</v>
       </c>
     </row>
     <row r="186">
@@ -6020,22 +6020,22 @@
         <v>213</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.15657251152746</v>
+        <v>-1.26579592691438</v>
       </c>
       <c r="C186" t="n">
-        <v>0.228212809190683</v>
+        <v>0.158363799793109</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.413044784153436</v>
+        <v>-0.314386770854138</v>
       </c>
       <c r="E186" t="n">
-        <v>0.796792002006634</v>
+        <v>0.828717434869739</v>
       </c>
       <c r="F186" t="n">
-        <v>0.025674198123466</v>
+        <v>0.0162987182733313</v>
       </c>
       <c r="G186" t="n">
-        <v>0.201096021251521</v>
+        <v>0.154053032129566</v>
       </c>
     </row>
     <row r="187">
@@ -6043,22 +6043,22 @@
         <v>214</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.8750546200637</v>
+        <v>-1.99092687623812</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0473024231879308</v>
+        <v>0.0415279319040631</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.115991929102079</v>
+        <v>-0.102356362223714</v>
       </c>
       <c r="E187" t="n">
-        <v>0.961496329757199</v>
+        <v>0.97366513933972</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00751925181065099</v>
+        <v>0.00656308657570706</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0901861159929291</v>
+        <v>0.0832040460316809</v>
       </c>
     </row>
     <row r="188">
@@ -6066,22 +6066,22 @@
         <v>215</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.48436415778048</v>
+        <v>-1.38879354996538</v>
       </c>
       <c r="C188" t="n">
-        <v>0.07119200235865</v>
+        <v>0.0705731320502674</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.179752585138244</v>
+        <v>-0.191285480031042</v>
       </c>
       <c r="E188" t="n">
-        <v>0.901353240152478</v>
+        <v>0.878043202033037</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00988628512203549</v>
+        <v>0.00913123983037576</v>
       </c>
       <c r="G188" t="n">
-        <v>0.110311690844962</v>
+        <v>0.108830090404192</v>
       </c>
     </row>
     <row r="189">
@@ -6089,22 +6089,22 @@
         <v>216</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.74613937930606</v>
+        <v>-1.77512203506382</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0930470375478013</v>
+        <v>0.0821687661216132</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.174691739160822</v>
+        <v>-0.161482389699753</v>
       </c>
       <c r="E189" t="n">
-        <v>0.948921401110636</v>
+        <v>0.952279603122967</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0145952488357805</v>
+        <v>0.01358474368203</v>
       </c>
       <c r="G189" t="n">
-        <v>0.12731380864355</v>
+        <v>0.12239431385112</v>
       </c>
     </row>
     <row r="190">
@@ -6112,22 +6112,22 @@
         <v>217</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.94859561471374</v>
+        <v>-0.979419202174612</v>
       </c>
       <c r="C190" t="n">
-        <v>0.162185736891954</v>
+        <v>0.108722428333846</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.424546452792825</v>
+        <v>-0.336659564691372</v>
       </c>
       <c r="E190" t="n">
-        <v>0.71624487704918</v>
+        <v>0.725284953818733</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0190926122159151</v>
+        <v>0.0152688080318766</v>
       </c>
       <c r="G190" t="n">
-        <v>0.19291728763252</v>
+        <v>0.170370304432265</v>
       </c>
     </row>
     <row r="191">
@@ -6135,22 +6135,22 @@
         <v>218</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.22181961964921</v>
+        <v>-1.30701868337725</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0308240832024282</v>
+        <v>0.0328137728395038</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.143693786634152</v>
+        <v>-0.138594593151526</v>
       </c>
       <c r="E191" t="n">
-        <v>0.835380835380835</v>
+        <v>0.862007722007722</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00475928814319829</v>
+        <v>0.00540030659024411</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0825822082617662</v>
+        <v>0.0852507192918301</v>
       </c>
     </row>
     <row r="192">
@@ -6158,22 +6158,22 @@
         <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.61467026587112</v>
+        <v>-1.6525243002372</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0581346542928534</v>
+        <v>0.0608028535216557</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.149325404301101</v>
+        <v>-0.149215564512245</v>
       </c>
       <c r="E192" t="n">
-        <v>0.927742584935763</v>
+        <v>0.933268497330282</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00752798776611535</v>
+        <v>0.00799613223474025</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0935216069218461</v>
+        <v>0.095814972086509</v>
       </c>
     </row>
     <row r="193">
@@ -6181,22 +6181,22 @@
         <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.808012734345873</v>
+        <v>-0.79825400082265</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0396248065001284</v>
+        <v>0.0580773797927063</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.246357263788886</v>
+        <v>-0.301899506712259</v>
       </c>
       <c r="E193" t="n">
-        <v>0.673153179552796</v>
+        <v>0.668840899333967</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00657498643315867</v>
+        <v>0.00755853123428753</v>
       </c>
       <c r="G193" t="n">
-        <v>0.120457412231541</v>
+        <v>0.129985791760286</v>
       </c>
     </row>
     <row r="194">
@@ -6204,22 +6204,22 @@
         <v>221</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.0902176171955</v>
+        <v>-1.08892013871047</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0530572785206463</v>
+        <v>0.0374860277381691</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.211280438360202</v>
+        <v>-0.177802834975267</v>
       </c>
       <c r="E194" t="n">
-        <v>0.783339268816329</v>
+        <v>0.786979604398869</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00944267878572854</v>
+        <v>0.00733152432379008</v>
       </c>
       <c r="G194" t="n">
-        <v>0.124050268874969</v>
+        <v>0.108801194322638</v>
       </c>
     </row>
     <row r="195">
@@ -6227,22 +6227,22 @@
         <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.635155851634212</v>
+        <v>-0.600343690518004</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0461340954679902</v>
+        <v>0.0448553342157109</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.338166592531133</v>
+        <v>-0.352782552212063</v>
       </c>
       <c r="E195" t="n">
-        <v>0.591592938733126</v>
+        <v>0.575522326064382</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00700617379274054</v>
+        <v>0.00790646072171918</v>
       </c>
       <c r="G195" t="n">
-        <v>0.141487304039869</v>
+        <v>0.154500142075642</v>
       </c>
     </row>
     <row r="196">
@@ -6250,22 +6250,22 @@
         <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.96089054447541</v>
+        <v>-1.03534369333289</v>
       </c>
       <c r="C196" t="n">
-        <v>0.163154543116894</v>
+        <v>0.15995395465708</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.420364145179904</v>
+        <v>-0.386289540135537</v>
       </c>
       <c r="E196" t="n">
-        <v>0.717869990215896</v>
+        <v>0.750678280207561</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0212614969829181</v>
+        <v>0.0228375464493096</v>
       </c>
       <c r="G196" t="n">
-        <v>0.203119267210163</v>
+        <v>0.201312559939676</v>
       </c>
     </row>
     <row r="197">
@@ -6273,22 +6273,22 @@
         <v>224</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.783776100330837</v>
+        <v>-0.774769096761603</v>
       </c>
       <c r="C197" t="n">
-        <v>0.121511628679128</v>
+        <v>0.135757382736989</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.444750970634176</v>
+        <v>-0.475564511779847</v>
       </c>
       <c r="E197" t="n">
-        <v>0.645922840859272</v>
+        <v>0.646900482244629</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0192333523241862</v>
+        <v>0.0221784443339091</v>
       </c>
       <c r="G197" t="n">
-        <v>0.214707320203837</v>
+        <v>0.230212056874635</v>
       </c>
     </row>
     <row r="198">
@@ -6296,22 +6296,22 @@
         <v>225</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.854882630459162</v>
+        <v>-0.864574887233043</v>
       </c>
       <c r="C198" t="n">
-        <v>0.04548010381684</v>
+        <v>0.0526986174474073</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.249461902729626</v>
+        <v>-0.265519850030654</v>
       </c>
       <c r="E198" t="n">
-        <v>0.691748633879781</v>
+        <v>0.696301409260857</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00785484251917506</v>
+        <v>0.0108984398633727</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1281210328378</v>
+        <v>0.149928740246547</v>
       </c>
     </row>
     <row r="199">
@@ -6319,22 +6319,22 @@
         <v>226</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.744652147790919</v>
+        <v>-0.724236183248576</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0425910622316631</v>
+        <v>0.0283943530441915</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.277144196880919</v>
+        <v>-0.232667525137755</v>
       </c>
       <c r="E199" t="n">
-        <v>0.643312741312741</v>
+        <v>0.634509652509653</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00771423125057766</v>
+        <v>0.00453356343748602</v>
       </c>
       <c r="G199" t="n">
-        <v>0.136528768787163</v>
+        <v>0.106116181861657</v>
       </c>
     </row>
     <row r="200">
@@ -6342,22 +6342,22 @@
         <v>227</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.617996740770513</v>
+        <v>-0.66830329354378</v>
       </c>
       <c r="C200" t="n">
-        <v>0.043449449440531</v>
+        <v>0.0492362027496968</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.337291932912439</v>
+        <v>-0.332023386036428</v>
       </c>
       <c r="E200" t="n">
-        <v>0.583430113185747</v>
+        <v>0.607550073277968</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00782908004820585</v>
+        <v>0.00923323408187993</v>
       </c>
       <c r="G200" t="n">
-        <v>0.151658419501529</v>
+        <v>0.158159340513755</v>
       </c>
     </row>
     <row r="201">
@@ -6365,22 +6365,22 @@
         <v>228</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.16434634345853</v>
+        <v>0.00408466783888228</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00607351597495406</v>
+        <v>0.00479304785558532</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.474198355095669</v>
+        <v>16.9491973577001</v>
       </c>
       <c r="E201" t="n">
-        <v>0.356866826654913</v>
+        <v>0.279559608763023</v>
       </c>
       <c r="F201" t="n">
-        <v>0.00137118491775601</v>
+        <v>0.000878610986749406</v>
       </c>
       <c r="G201" t="n">
-        <v>0.103762836381578</v>
+        <v>0.106028810886644</v>
       </c>
     </row>
     <row r="202">
@@ -6388,22 +6388,22 @@
         <v>229</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.636126351137101</v>
+        <v>-0.661867909605019</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0396234234577111</v>
+        <v>0.0500969067851053</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.312919488427072</v>
+        <v>-0.338169262731616</v>
       </c>
       <c r="E202" t="n">
-        <v>0.591305742701315</v>
+        <v>0.605760318218465</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00610085629655293</v>
+        <v>0.00879022543449519</v>
       </c>
       <c r="G202" t="n">
-        <v>0.132094063701829</v>
+        <v>0.15477442033161</v>
       </c>
     </row>
     <row r="203">
@@ -6411,22 +6411,22 @@
         <v>230</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.278404194751673</v>
+        <v>-0.163252973110302</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0199341682051741</v>
+        <v>0.0217406456758951</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.507134649946119</v>
+        <v>-0.903181679872708</v>
       </c>
       <c r="E203" t="n">
-        <v>0.414828609518439</v>
+        <v>0.358406839450313</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00367869679766161</v>
+        <v>0.00402863381192503</v>
       </c>
       <c r="G203" t="n">
-        <v>0.14621041047412</v>
+        <v>0.177093494612606</v>
       </c>
     </row>
     <row r="204">
@@ -6434,22 +6434,22 @@
         <v>231</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.0522937185312</v>
+        <v>-1.04358340306013</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0342801168787715</v>
+        <v>0.0290838731959779</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.175947932930505</v>
+        <v>-0.16341764878766</v>
       </c>
       <c r="E204" t="n">
-        <v>0.776310774966658</v>
+        <v>0.773626170616328</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00557100778744427</v>
+        <v>0.00501637512395536</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0961460105950969</v>
+        <v>0.0915511596842797</v>
       </c>
     </row>
     <row r="205">
@@ -6457,22 +6457,22 @@
         <v>232</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.872518548223951</v>
+        <v>-0.880802396001289</v>
       </c>
       <c r="C205" t="n">
-        <v>0.173635135653292</v>
+        <v>0.137531296812509</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.477577807335088</v>
+        <v>-0.421038957490005</v>
       </c>
       <c r="E205" t="n">
-        <v>0.683268893713275</v>
+        <v>0.691509520462117</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0245986600682348</v>
+        <v>0.0200351353017624</v>
       </c>
       <c r="G205" t="n">
-        <v>0.229543011912344</v>
+        <v>0.204690636340081</v>
       </c>
     </row>
     <row r="206">
@@ -6480,22 +6480,22 @@
         <v>233</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.56934692898139</v>
+        <v>-1.52521850162991</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0401620337233039</v>
+        <v>0.046435522370173</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.12769940871767</v>
+        <v>-0.141284039310975</v>
       </c>
       <c r="E206" t="n">
-        <v>0.919361844417885</v>
+        <v>0.912180506703133</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00701447236850045</v>
+        <v>0.00711863219126846</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0910984586198544</v>
+        <v>0.0924948366968677</v>
       </c>
     </row>
     <row r="207">
@@ -6503,22 +6503,22 @@
         <v>234</v>
       </c>
       <c r="B207" t="n">
-        <v>0.391007027836906</v>
+        <v>0.393353472045385</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0343430949368525</v>
+        <v>0.0567379794143397</v>
       </c>
       <c r="D207" t="n">
-        <v>0.473952863895497</v>
+        <v>0.605555488505265</v>
       </c>
       <c r="E207" t="n">
-        <v>0.147533760365663</v>
+        <v>0.146076360999747</v>
       </c>
       <c r="F207" t="n">
-        <v>0.00649812690285045</v>
+        <v>0.0107725248366471</v>
       </c>
       <c r="G207" t="n">
-        <v>0.546389924521717</v>
+        <v>0.710524095908959</v>
       </c>
     </row>
     <row r="208">
@@ -6526,22 +6526,22 @@
         <v>235</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.07859011398883</v>
+        <v>-1.0288604246267</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0441420497460798</v>
+        <v>0.0436217630348993</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.194791415073766</v>
+        <v>-0.202999582542708</v>
       </c>
       <c r="E208" t="n">
-        <v>0.780525009545628</v>
+        <v>0.76409698358152</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00700793113151886</v>
+        <v>0.0057614689624941</v>
       </c>
       <c r="G208" t="n">
-        <v>0.107252664281229</v>
+        <v>0.0993386212722405</v>
       </c>
     </row>
     <row r="209">
@@ -6549,22 +6549,22 @@
         <v>236</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.625083466871941</v>
+        <v>-0.634802362642495</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0394068254758119</v>
+        <v>0.0468373420096025</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.317576028345182</v>
+        <v>-0.340924008486463</v>
       </c>
       <c r="E209" t="n">
-        <v>0.587228786251343</v>
+        <v>0.590848549946294</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00709498987639038</v>
+        <v>0.00857162068494083</v>
       </c>
       <c r="G209" t="n">
-        <v>0.143439430837352</v>
+        <v>0.156695057492153</v>
       </c>
     </row>
     <row r="210">
@@ -6572,22 +6572,22 @@
         <v>237</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.669087154225829</v>
+        <v>-0.799918861161419</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0389965203299852</v>
+        <v>0.0365181127598799</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.295141470196454</v>
+        <v>-0.238895641050027</v>
       </c>
       <c r="E210" t="n">
-        <v>0.608273781165634</v>
+        <v>0.671065586787359</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00676095678538363</v>
+        <v>0.00602075531633055</v>
       </c>
       <c r="G210" t="n">
-        <v>0.135177678220736</v>
+        <v>0.115627336255138</v>
       </c>
     </row>
     <row r="211">
@@ -6595,22 +6595,22 @@
         <v>238</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.0308477448850631</v>
+        <v>0.209103446387914</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0328839125580989</v>
+        <v>0.0294215576821109</v>
       </c>
       <c r="D211" t="n">
-        <v>-5.87852435425193</v>
+        <v>0.82029797650842</v>
       </c>
       <c r="E211" t="n">
-        <v>0.297712949286066</v>
+        <v>0.202232890201871</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0060384695176512</v>
+        <v>0.00622517608657391</v>
       </c>
       <c r="G211" t="n">
-        <v>0.261015149053244</v>
+        <v>0.39014319088734</v>
       </c>
     </row>
     <row r="212">
@@ -6618,22 +6618,22 @@
         <v>239</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.555503899547932</v>
+        <v>-0.610075305666932</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0368516961802931</v>
+        <v>0.0437640683008461</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.345574452825779</v>
+        <v>-0.342906247242824</v>
       </c>
       <c r="E212" t="n">
-        <v>0.553077221575475</v>
+        <v>0.57895227008149</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00583270270725677</v>
+        <v>0.0048511561456236</v>
       </c>
       <c r="G212" t="n">
-        <v>0.138085840593297</v>
+        <v>0.120303944094266</v>
       </c>
     </row>
     <row r="213">
@@ -6641,22 +6641,22 @@
         <v>240</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.834291433925949</v>
+        <v>-0.865944592004158</v>
       </c>
       <c r="C213" t="n">
-        <v>0.186075403142497</v>
+        <v>0.147663676442348</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.517043044052668</v>
+        <v>-0.443758550417326</v>
       </c>
       <c r="E213" t="n">
-        <v>0.668252372975991</v>
+        <v>0.685795644891122</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0286083965372492</v>
+        <v>0.0191483341192594</v>
       </c>
       <c r="G213" t="n">
-        <v>0.253108219519875</v>
+        <v>0.201776588782891</v>
       </c>
     </row>
     <row r="214">
@@ -6664,22 +6664,22 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.35140319591648</v>
+        <v>-1.40146606947666</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0327528378474569</v>
+        <v>0.0437579079146478</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.133918176129515</v>
+        <v>-0.149260773319435</v>
       </c>
       <c r="E214" t="n">
-        <v>0.871198318149965</v>
+        <v>0.882149030600327</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00486961566028323</v>
+        <v>0.00648638145173114</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0800995939212983</v>
+        <v>0.0912975832350552</v>
       </c>
     </row>
     <row r="215">
@@ -6687,22 +6687,22 @@
         <v>242</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.392408400085301</v>
+        <v>-0.437062082205108</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0422516152126233</v>
+        <v>0.0493340016116032</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.523821551393355</v>
+        <v>-0.50819459462647</v>
       </c>
       <c r="E215" t="n">
-        <v>0.471951219512195</v>
+        <v>0.493897656623625</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00717698197536938</v>
+        <v>0.00734446441188249</v>
       </c>
       <c r="G215" t="n">
-        <v>0.179503869575596</v>
+        <v>0.173517427267887</v>
       </c>
     </row>
     <row r="216">
@@ -6710,22 +6710,22 @@
         <v>243</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.880580828034385</v>
+        <v>-0.889553710977439</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0335716480008936</v>
+        <v>0.0266048680117234</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.208073659141747</v>
+        <v>-0.183361595207676</v>
       </c>
       <c r="E216" t="n">
-        <v>0.706916934964585</v>
+        <v>0.711058596265293</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00507500215048538</v>
+        <v>0.00424338047419178</v>
       </c>
       <c r="G216" t="n">
-        <v>0.100774285936283</v>
+        <v>0.0916116268962626</v>
       </c>
     </row>
     <row r="217">
@@ -6733,22 +6733,22 @@
         <v>244</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.09062880480616</v>
+        <v>-1.11186134068056</v>
       </c>
       <c r="C217" t="n">
-        <v>0.193683188559218</v>
+        <v>0.183380317344954</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.403523655675934</v>
+        <v>-0.385146299822914</v>
       </c>
       <c r="E217" t="n">
-        <v>0.766410160627568</v>
+        <v>0.781763167725065</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0246406712711627</v>
+        <v>0.022967732753827</v>
       </c>
       <c r="G217" t="n">
-        <v>0.204816534551593</v>
+        <v>0.193858058092097</v>
       </c>
     </row>
     <row r="218">
@@ -6756,22 +6756,22 @@
         <v>245</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.37751994465805</v>
+        <v>-1.39895436747526</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0209549875801334</v>
+        <v>0.0239331452199201</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.105086229137385</v>
+        <v>-0.110585029859029</v>
       </c>
       <c r="E218" t="n">
-        <v>0.879998097774396</v>
+        <v>0.886361042419631</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00376578184649333</v>
+        <v>0.00374902003596824</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0697342035984079</v>
+        <v>0.0690793466134452</v>
       </c>
     </row>
     <row r="219">
@@ -6779,22 +6779,22 @@
         <v>246</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.958757565152177</v>
+        <v>-0.926101329946316</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0495498043775279</v>
+        <v>0.0470752235038245</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.232173243350429</v>
+        <v>-0.234281333568304</v>
       </c>
       <c r="E219" t="n">
-        <v>0.738130252464149</v>
+        <v>0.725656542617115</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00671413860982647</v>
+        <v>0.004664663399963</v>
       </c>
       <c r="G219" t="n">
-        <v>0.111010011086292</v>
+        <v>0.0941193761931546</v>
       </c>
     </row>
     <row r="220">
@@ -6802,22 +6802,22 @@
         <v>247</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.09456489578155</v>
+        <v>-1.13648590103333</v>
       </c>
       <c r="C220" t="n">
-        <v>0.158574602733282</v>
+        <v>0.164537874524944</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.363810559702779</v>
+        <v>-0.356918360247724</v>
       </c>
       <c r="E220" t="n">
-        <v>0.771752879581152</v>
+        <v>0.787742408376963</v>
       </c>
       <c r="F220" t="n">
-        <v>0.022081348486149</v>
+        <v>0.0193401728208766</v>
       </c>
       <c r="G220" t="n">
-        <v>0.192546016132502</v>
+        <v>0.176541148986855</v>
       </c>
     </row>
     <row r="221">
@@ -6825,22 +6825,22 @@
         <v>248</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.34293166954257</v>
+        <v>-1.28926184080358</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0495840817530758</v>
+        <v>0.0367713059604573</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.165812482627596</v>
+        <v>-0.148735075582458</v>
       </c>
       <c r="E221" t="n">
-        <v>0.867558365310331</v>
+        <v>0.854913177771674</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00761032311390602</v>
+        <v>0.00450831176837239</v>
       </c>
       <c r="G221" t="n">
-        <v>0.10055480920496</v>
+        <v>0.0785389262365311</v>
       </c>
     </row>
     <row r="222">
@@ -6848,22 +6848,22 @@
         <v>249</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.21823922997674</v>
+        <v>-1.22700628344453</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0608082362886822</v>
+        <v>0.0375490170469151</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.202417763905518</v>
+        <v>-0.157925586906143</v>
       </c>
       <c r="E222" t="n">
-        <v>0.831386929327907</v>
+        <v>0.834151692389139</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00879327205000516</v>
+        <v>0.00509072604555999</v>
       </c>
       <c r="G222" t="n">
-        <v>0.112790380673381</v>
+        <v>0.0855351906891728</v>
       </c>
     </row>
     <row r="223">
@@ -6871,22 +6871,22 @@
         <v>250</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.04025428366193</v>
+        <v>-1.15101295852717</v>
       </c>
       <c r="C223" t="n">
-        <v>0.136465022441428</v>
+        <v>0.158185272725861</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.355116754269908</v>
+        <v>-0.34554356588588</v>
       </c>
       <c r="E223" t="n">
-        <v>0.755801202688362</v>
+        <v>0.791124867350548</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0186055225902282</v>
+        <v>0.0193004579562706</v>
       </c>
       <c r="G223" t="n">
-        <v>0.180473465482891</v>
+        <v>0.175605765712641</v>
       </c>
     </row>
     <row r="224">
@@ -6894,22 +6894,22 @@
         <v>251</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.34145604464698</v>
+        <v>-1.4224696976135</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0246700291499255</v>
+        <v>0.028994404127445</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.117086920711085</v>
+        <v>-0.11970549046122</v>
       </c>
       <c r="E224" t="n">
-        <v>0.870827809899873</v>
+        <v>0.892823297137216</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00424796145208687</v>
+        <v>0.00310001028931046</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0748441729662236</v>
+        <v>0.0623614282999632</v>
       </c>
     </row>
     <row r="225">
@@ -6917,22 +6917,22 @@
         <v>252</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.774395808570861</v>
+        <v>-0.642756899643099</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0194756480137747</v>
+        <v>0.0230532075422826</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.180211692206928</v>
+        <v>-0.236221233411367</v>
       </c>
       <c r="E225" t="n">
-        <v>0.659266236352434</v>
+        <v>0.597098752131779</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00321210116540488</v>
+        <v>0.00463945455885878</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0859673962376202</v>
+        <v>0.114074165164513</v>
       </c>
     </row>
     <row r="226">
@@ -6940,22 +6940,22 @@
         <v>253</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.08360539846091</v>
+        <v>-1.11580512459931</v>
       </c>
       <c r="C226" t="n">
-        <v>0.162165523218176</v>
+        <v>0.186028554481782</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.371627722504878</v>
+        <v>-0.386546240770334</v>
       </c>
       <c r="E226" t="n">
-        <v>0.765686701115039</v>
+        <v>0.779431601849334</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0195491312448832</v>
+        <v>0.0203316708361905</v>
       </c>
       <c r="G226" t="n">
-        <v>0.182604984050284</v>
+        <v>0.182939936846442</v>
       </c>
     </row>
     <row r="227">
@@ -6963,22 +6963,22 @@
         <v>254</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.989431604284335</v>
+        <v>-1.04488511709755</v>
       </c>
       <c r="C227" t="n">
-        <v>0.160646931818927</v>
+        <v>0.133888794087271</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.405088989742308</v>
+        <v>-0.350189864070281</v>
       </c>
       <c r="E227" t="n">
-        <v>0.731221877205135</v>
+        <v>0.753590277162029</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0174171708272587</v>
+        <v>0.0176416014783918</v>
       </c>
       <c r="G227" t="n">
-        <v>0.180484383058504</v>
+        <v>0.176251863336183</v>
       </c>
     </row>
     <row r="228">
@@ -6986,22 +6986,22 @@
         <v>255</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.03061860892892</v>
+        <v>-1.15739335022808</v>
       </c>
       <c r="C228" t="n">
-        <v>0.147469389735536</v>
+        <v>0.149079128876326</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.37260867485675</v>
+        <v>-0.333601074172699</v>
       </c>
       <c r="E228" t="n">
-        <v>0.745336221122112</v>
+        <v>0.795930280528053</v>
       </c>
       <c r="F228" t="n">
-        <v>0.018435648046658</v>
+        <v>0.0145279361813231</v>
       </c>
       <c r="G228" t="n">
-        <v>0.182170049805675</v>
+        <v>0.151435234464445</v>
       </c>
     </row>
     <row r="229">
@@ -7009,22 +7009,22 @@
         <v>256</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.02342605428042</v>
+        <v>-1.08338057372991</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0170242784570165</v>
+        <v>0.0170671233253132</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.127490518707501</v>
+        <v>-0.120586619223995</v>
       </c>
       <c r="E229" t="n">
-        <v>0.766197061410434</v>
+        <v>0.790020533759049</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00287868512061993</v>
+        <v>0.00295828005052151</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0700255614362651</v>
+        <v>0.0688464043196896</v>
       </c>
     </row>
     <row r="230">
@@ -7032,22 +7032,22 @@
         <v>257</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.234120903900201</v>
+        <v>-0.310059708494122</v>
       </c>
       <c r="C230" t="n">
-        <v>0.042547650107395</v>
+        <v>0.0488383067999843</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.881043998871275</v>
+        <v>-0.71274628934086</v>
       </c>
       <c r="E230" t="n">
-        <v>0.394556699455652</v>
+        <v>0.43062976356694</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00787034978087196</v>
+        <v>0.00985127923075422</v>
       </c>
       <c r="G230" t="n">
-        <v>0.224847257652075</v>
+        <v>0.230484790104788</v>
       </c>
     </row>
     <row r="231">
@@ -7055,22 +7055,22 @@
         <v>258</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.02357412564495</v>
+        <v>-1.03466365026263</v>
       </c>
       <c r="C231" t="n">
-        <v>0.243357486291454</v>
+        <v>0.140344631333041</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.481951189317353</v>
+        <v>-0.36207514248995</v>
       </c>
       <c r="E231" t="n">
-        <v>0.748034055727554</v>
+        <v>0.749654282765738</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0253808810262088</v>
+        <v>0.0164692745028814</v>
       </c>
       <c r="G231" t="n">
-        <v>0.212976642491444</v>
+        <v>0.171189139009751</v>
       </c>
     </row>
     <row r="232">
@@ -7078,22 +7078,22 @@
         <v>259</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.958417057212183</v>
+        <v>-0.931083279945923</v>
       </c>
       <c r="C232" t="n">
-        <v>0.182578372050471</v>
+        <v>0.149700805780835</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.44583086428998</v>
+        <v>-0.415550243544852</v>
       </c>
       <c r="E232" t="n">
-        <v>0.724140921409214</v>
+        <v>0.710607046070461</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0237077695434082</v>
+        <v>0.0218404357365178</v>
       </c>
       <c r="G232" t="n">
-        <v>0.212628883228774</v>
+        <v>0.207970214569802</v>
       </c>
     </row>
     <row r="233">
@@ -7101,22 +7101,22 @@
         <v>260</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.03353503073913</v>
+        <v>-1.11706652278808</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0501530231212826</v>
+        <v>0.0445230505772493</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.216682260195191</v>
+        <v>-0.188891936896648</v>
       </c>
       <c r="E233" t="n">
-        <v>0.76846839469627</v>
+        <v>0.799323706362978</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00858564743441529</v>
+        <v>0.00897369834371646</v>
       </c>
       <c r="G233" t="n">
-        <v>0.120575900627113</v>
+        <v>0.118512194402812</v>
       </c>
     </row>
     <row r="234">
@@ -7124,22 +7124,22 @@
         <v>261</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.932258919476135</v>
+        <v>-0.90437022059501</v>
       </c>
       <c r="C234" t="n">
-        <v>0.150276106223107</v>
+        <v>0.16228915040351</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.415822915976841</v>
+        <v>-0.445449514605115</v>
       </c>
       <c r="E234" t="n">
-        <v>0.710513654096229</v>
+        <v>0.695617685305592</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0211032940149925</v>
+        <v>0.0237953158713544</v>
       </c>
       <c r="G234" t="n">
-        <v>0.204457335408755</v>
+        <v>0.221755868731914</v>
       </c>
     </row>
     <row r="235">
@@ -7147,22 +7147,22 @@
         <v>262</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.03465747152559</v>
+        <v>-0.920348440734269</v>
       </c>
       <c r="C235" t="n">
-        <v>0.042158675914957</v>
+        <v>0.0484100835282148</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.198448071567362</v>
+        <v>-0.239064800001772</v>
       </c>
       <c r="E235" t="n">
-        <v>0.767945864218733</v>
+        <v>0.722010069802564</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00708640947930138</v>
+        <v>0.00939197010121663</v>
       </c>
       <c r="G235" t="n">
-        <v>0.109618162063031</v>
+        <v>0.134225520270384</v>
       </c>
     </row>
     <row r="236">
@@ -7170,22 +7170,22 @@
         <v>263</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.973274635423727</v>
+        <v>-1.00393695608318</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0463570038372637</v>
+        <v>0.037693340389793</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.221218923190611</v>
+        <v>-0.193386374599398</v>
       </c>
       <c r="E236" t="n">
-        <v>0.743821756855413</v>
+        <v>0.752726084456549</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00728193603154188</v>
+        <v>0.00677513062522206</v>
       </c>
       <c r="G236" t="n">
-        <v>0.114724071741601</v>
+        <v>0.109350776269549</v>
       </c>
     </row>
     <row r="237">
@@ -7193,22 +7193,22 @@
         <v>264</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.05226369119527</v>
+        <v>-1.01236240125967</v>
       </c>
       <c r="C237" t="n">
-        <v>0.196547783491186</v>
+        <v>0.147350038145569</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.421317491869307</v>
+        <v>-0.379174496763529</v>
       </c>
       <c r="E237" t="n">
-        <v>0.754110528438887</v>
+        <v>0.740346914078257</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0255022840338065</v>
+        <v>0.0184989567570497</v>
       </c>
       <c r="G237" t="n">
-        <v>0.211765171856736</v>
+        <v>0.183712348102734</v>
       </c>
     </row>
     <row r="238">
@@ -7216,22 +7216,22 @@
         <v>265</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.891821899872571</v>
+        <v>-0.845094592198062</v>
       </c>
       <c r="C238" t="n">
-        <v>0.159616279523607</v>
+        <v>0.144921016898132</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.447981891379169</v>
+        <v>-0.450464285048367</v>
       </c>
       <c r="E238" t="n">
-        <v>0.694105160136344</v>
+        <v>0.676990989166751</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0227473037508874</v>
+        <v>0.0228064679226872</v>
       </c>
       <c r="G238" t="n">
-        <v>0.217289975220386</v>
+        <v>0.223072547545695</v>
       </c>
     </row>
     <row r="239">
@@ -7239,22 +7239,22 @@
         <v>266</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.84369691397175</v>
+        <v>-0.820378372297824</v>
       </c>
       <c r="C239" t="n">
-        <v>0.024102298126259</v>
+        <v>0.0219928006012615</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.184010568228347</v>
+        <v>-0.180769878382485</v>
       </c>
       <c r="E239" t="n">
-        <v>0.689848157382821</v>
+        <v>0.680667535087084</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00455247164954612</v>
+        <v>0.00370344313222321</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0978070401319786</v>
+        <v>0.0894062342585677</v>
       </c>
     </row>
     <row r="240">
@@ -7262,22 +7262,22 @@
         <v>267</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.892483338648662</v>
+        <v>-0.756029979978687</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0333179312701906</v>
+        <v>0.0422037878844014</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.204521465858124</v>
+        <v>-0.271729442802037</v>
       </c>
       <c r="E240" t="n">
-        <v>0.712570796460177</v>
+        <v>0.650769911504425</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00690896281423761</v>
+        <v>0.0089524769858642</v>
       </c>
       <c r="G240" t="n">
-        <v>0.116648298436769</v>
+        <v>0.145393215544973</v>
       </c>
     </row>
     <row r="241">
@@ -7285,22 +7285,22 @@
         <v>268</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.0782252132273518</v>
+        <v>0.0613636447102712</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0163342729311497</v>
+        <v>0.0174455006687892</v>
       </c>
       <c r="D241" t="n">
-        <v>-1.63381601341886</v>
+        <v>2.1524376109364</v>
       </c>
       <c r="E241" t="n">
-        <v>0.323550509278288</v>
+        <v>0.261832996713203</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00348599516172024</v>
+        <v>0.00360078128517872</v>
       </c>
       <c r="G241" t="n">
-        <v>0.182482533670655</v>
+        <v>0.229178564618974</v>
       </c>
     </row>
     <row r="242">
@@ -7308,22 +7308,22 @@
         <v>269</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.467776406958493</v>
+        <v>-0.437584362863343</v>
       </c>
       <c r="C242" t="n">
-        <v>0.158512885004381</v>
+        <v>0.164725821550489</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.8511262235227</v>
+        <v>-0.927510953355567</v>
       </c>
       <c r="E242" t="n">
-        <v>0.508723324597529</v>
+        <v>0.493874953201048</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0281515735997705</v>
+        <v>0.0304163267684677</v>
       </c>
       <c r="G242" t="n">
-        <v>0.329814456428068</v>
+        <v>0.353131436502648</v>
       </c>
     </row>
     <row r="243">
@@ -7331,22 +7331,22 @@
         <v>270</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.38196125136197</v>
+        <v>-0.432627780493782</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0442110563719022</v>
+        <v>0.0405491914497905</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.550485822636311</v>
+        <v>-0.465453923915671</v>
       </c>
       <c r="E243" t="n">
-        <v>0.467068965517241</v>
+        <v>0.492903811252269</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00877835216678305</v>
+        <v>0.00802949811924203</v>
       </c>
       <c r="G243" t="n">
-        <v>0.200597487153433</v>
+        <v>0.181795037543909</v>
       </c>
     </row>
     <row r="244">
@@ -7354,22 +7354,22 @@
         <v>271</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.564649240313126</v>
+        <v>-0.474849545277321</v>
       </c>
       <c r="C244" t="n">
-        <v>0.199863401312069</v>
+        <v>0.166603935476261</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.791749666023069</v>
+        <v>-0.859580592608485</v>
       </c>
       <c r="E244" t="n">
-        <v>0.549043877728596</v>
+        <v>0.514106003530258</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0348269749065305</v>
+        <v>0.0299389360876078</v>
       </c>
       <c r="G244" t="n">
-        <v>0.33989973290852</v>
+        <v>0.336562330424116</v>
       </c>
     </row>
     <row r="245">
@@ -7377,22 +7377,22 @@
         <v>272</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.541458320507402</v>
+        <v>-0.552065709421815</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0614534780917112</v>
+        <v>0.0574518443090895</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.457834169313913</v>
+        <v>-0.434171402943494</v>
       </c>
       <c r="E245" t="n">
-        <v>0.545391081871345</v>
+        <v>0.551480263157895</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0127865076634157</v>
+        <v>0.0117558196426892</v>
       </c>
       <c r="G245" t="n">
-        <v>0.207332764982821</v>
+        <v>0.196605871277195</v>
       </c>
     </row>
     <row r="246">
@@ -7400,22 +7400,22 @@
         <v>273</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.648651207674721</v>
+        <v>-0.817780380368984</v>
       </c>
       <c r="C246" t="n">
-        <v>0.159677365311261</v>
+        <v>0.128808028738796</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.616042178599171</v>
+        <v>-0.438868873529708</v>
       </c>
       <c r="E246" t="n">
-        <v>0.587207714660266</v>
+        <v>0.660913995853253</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0274207902193871</v>
+        <v>0.0216826402433673</v>
       </c>
       <c r="G246" t="n">
-        <v>0.281999429988061</v>
+        <v>0.222797920618899</v>
       </c>
     </row>
     <row r="247">
@@ -7423,22 +7423,22 @@
         <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.487782867317421</v>
+        <v>-0.530645581515058</v>
       </c>
       <c r="C247" t="n">
-        <v>0.184862500112228</v>
+        <v>0.169975807122382</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.881450379003253</v>
+        <v>-0.776942723554429</v>
       </c>
       <c r="E247" t="n">
-        <v>0.518623215195326</v>
+        <v>0.53814258438751</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0320358551083068</v>
+        <v>0.0302650924342046</v>
       </c>
       <c r="G247" t="n">
-        <v>0.345116884422138</v>
+        <v>0.323276132838617</v>
       </c>
     </row>
     <row r="248">
@@ -7446,22 +7446,22 @@
         <v>275</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.520065284191733</v>
+        <v>-0.610926885347627</v>
       </c>
       <c r="C248" t="n">
-        <v>0.045812316465564</v>
+        <v>0.0472450508123995</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.411560097730259</v>
+        <v>-0.355786055409893</v>
       </c>
       <c r="E248" t="n">
-        <v>0.535553226182157</v>
+        <v>0.580712788259958</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00972908358120569</v>
+        <v>0.0105078160129256</v>
       </c>
       <c r="G248" t="n">
-        <v>0.184176123305796</v>
+        <v>0.176520374400492</v>
       </c>
     </row>
     <row r="249">
@@ -7469,22 +7469,22 @@
         <v>276</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.80718058387244</v>
+        <v>-0.870789859185731</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0461654085157611</v>
+        <v>0.0492727856244011</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.266187486112175</v>
+        <v>-0.254911949902456</v>
       </c>
       <c r="E249" t="n">
-        <v>0.671919040782222</v>
+        <v>0.700959859230994</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0091798975717518</v>
+        <v>0.0104796246289853</v>
       </c>
       <c r="G249" t="n">
-        <v>0.142594235605409</v>
+        <v>0.146042653373256</v>
       </c>
     </row>
     <row r="250">
@@ -7492,22 +7492,22 @@
         <v>277</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.561492453362477</v>
+        <v>-0.648951297156081</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0204956584528772</v>
+        <v>0.0174463427781999</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.254968784767131</v>
+        <v>-0.203535465914048</v>
       </c>
       <c r="E250" t="n">
-        <v>0.556790181306996</v>
+        <v>0.599589506061589</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00364130263498164</v>
+        <v>0.00364196242761433</v>
       </c>
       <c r="G250" t="n">
-        <v>0.10837692376502</v>
+        <v>0.100649983321841</v>
       </c>
     </row>
     <row r="251">
@@ -7515,22 +7515,22 @@
         <v>278</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.452436129025772</v>
+        <v>-0.488711621762384</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0560935785486744</v>
+        <v>0.0593706260352458</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.523479037967683</v>
+        <v>-0.498578041565571</v>
       </c>
       <c r="E251" t="n">
-        <v>0.50146975905977</v>
+        <v>0.51906052853119</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0115033033136415</v>
+        <v>0.0124456048454163</v>
       </c>
       <c r="G251" t="n">
-        <v>0.213878208373201</v>
+        <v>0.214926516259366</v>
       </c>
     </row>
     <row r="252">
@@ -7538,22 +7538,22 @@
         <v>279</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.425962596918164</v>
+        <v>-0.433892992034838</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0426096724913</v>
+        <v>0.0671045767985695</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.484599132073527</v>
+        <v>-0.597026261801874</v>
       </c>
       <c r="E252" t="n">
-        <v>0.487989690721649</v>
+        <v>0.492319587628866</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00954519677375012</v>
+        <v>0.0138925112414349</v>
       </c>
       <c r="G252" t="n">
-        <v>0.200208169868709</v>
+        <v>0.239410538393985</v>
       </c>
     </row>
     <row r="253">
@@ -7561,22 +7561,22 @@
         <v>280</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.0357014803654743</v>
+        <v>-0.0413896764847953</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0451145660496553</v>
+        <v>0.0483870298125445</v>
       </c>
       <c r="D253" t="n">
-        <v>-5.94938628027557</v>
+        <v>-5.31462284821019</v>
       </c>
       <c r="E253" t="n">
-        <v>0.30516113120684</v>
+        <v>0.308102597829661</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00949173920153604</v>
+        <v>0.00977736406559655</v>
       </c>
       <c r="G253" t="n">
-        <v>0.319259392061171</v>
+        <v>0.320933855260545</v>
       </c>
     </row>
     <row r="254">
@@ -7584,22 +7584,22 @@
         <v>281</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.35033860895152</v>
+        <v>-1.24790793612335</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0360327464257684</v>
+        <v>0.0452545992901156</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.140574321985395</v>
+        <v>-0.170470335248275</v>
       </c>
       <c r="E254" t="n">
-        <v>0.868160107912632</v>
+        <v>0.838923042165072</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00696743469621248</v>
+        <v>0.00842251547168864</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0961471969335985</v>
+        <v>0.109395330745148</v>
       </c>
     </row>
     <row r="255">
@@ -7607,22 +7607,22 @@
         <v>282</v>
       </c>
       <c r="B255" t="n">
-        <v>0.305816168418023</v>
+        <v>0.507389924473316</v>
       </c>
       <c r="C255" t="n">
-        <v>0.00812953440207169</v>
+        <v>0.00544457449463361</v>
       </c>
       <c r="D255" t="n">
-        <v>0.29483048977406</v>
+        <v>0.145425355201713</v>
       </c>
       <c r="E255" t="n">
-        <v>0.170651998091697</v>
+        <v>0.112760817764526</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00160670045993045</v>
+        <v>0.000905444234836473</v>
       </c>
       <c r="G255" t="n">
-        <v>0.234885431712925</v>
+        <v>0.266853336438043</v>
       </c>
     </row>
     <row r="256">
@@ -7630,22 +7630,22 @@
         <v>283</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.501790808840106</v>
+        <v>-0.515466900205686</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0332129172631635</v>
+        <v>0.025590538573849</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.363187430440997</v>
+        <v>-0.310340839047183</v>
       </c>
       <c r="E256" t="n">
-        <v>0.526359820928931</v>
+        <v>0.533612199216564</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0072839924098186</v>
+        <v>0.00544562417872786</v>
       </c>
       <c r="G256" t="n">
-        <v>0.162144421578076</v>
+        <v>0.138292326631504</v>
       </c>
     </row>
     <row r="257">
@@ -7653,22 +7653,22 @@
         <v>284</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.472947801365417</v>
+        <v>-0.494176631605832</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0205172463612682</v>
+        <v>0.0278520548006749</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.302863073818189</v>
+        <v>-0.337711940021972</v>
       </c>
       <c r="E257" t="n">
-        <v>0.511917404799282</v>
+        <v>0.523379273032517</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00426032734323575</v>
+        <v>0.00457713159711478</v>
       </c>
       <c r="G257" t="n">
-        <v>0.127503348172546</v>
+        <v>0.129264770621589</v>
       </c>
     </row>
     <row r="258">
@@ -7676,22 +7676,22 @@
         <v>285</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.227045535484256</v>
+        <v>-0.287993421196638</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0389570487431129</v>
+        <v>0.0299282651106942</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.869320773611134</v>
+        <v>-0.600700791395196</v>
       </c>
       <c r="E258" t="n">
-        <v>0.390687893138908</v>
+        <v>0.420972484292391</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00824005169763991</v>
+        <v>0.00650229652804513</v>
       </c>
       <c r="G258" t="n">
-        <v>0.23234590089879</v>
+        <v>0.19154890567983</v>
       </c>
     </row>
     <row r="259">
@@ -7699,22 +7699,22 @@
         <v>286</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.523392959950182</v>
+        <v>-0.527221726303389</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0571225571010564</v>
+        <v>0.0591164973325601</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.456642094563405</v>
+        <v>-0.461170000408154</v>
       </c>
       <c r="E259" t="n">
-        <v>0.537109048723898</v>
+        <v>0.5385</v>
       </c>
       <c r="F259" t="n">
-        <v>0.011528058821954</v>
+        <v>0.0114361330687685</v>
       </c>
       <c r="G259" t="n">
-        <v>0.199901302039138</v>
+        <v>0.198588407150515</v>
       </c>
     </row>
     <row r="260">
@@ -7722,22 +7722,22 @@
         <v>287</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.471255129076868</v>
+        <v>-0.625007034460149</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0342065823568078</v>
+        <v>0.0251065400694468</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.392463030057047</v>
+        <v>-0.253517841197145</v>
       </c>
       <c r="E260" t="n">
-        <v>0.511247733043163</v>
+        <v>0.587606093579978</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00666434501639182</v>
+        <v>0.00445096236256338</v>
       </c>
       <c r="G260" t="n">
-        <v>0.159678829718267</v>
+        <v>0.113537851074011</v>
       </c>
     </row>
     <row r="261">
@@ -7745,22 +7745,22 @@
         <v>288</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.605944763422913</v>
+        <v>-0.648791005846278</v>
       </c>
       <c r="C261" t="n">
-        <v>0.185042751901005</v>
+        <v>0.151039737468566</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.709909523974995</v>
+        <v>-0.599019265661489</v>
       </c>
       <c r="E261" t="n">
-        <v>0.573826998689384</v>
+        <v>0.591031017911752</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0309633565530131</v>
+        <v>0.0259949108733413</v>
       </c>
       <c r="G261" t="n">
-        <v>0.306650049322221</v>
+        <v>0.272793421319043</v>
       </c>
     </row>
     <row r="262">
@@ -7768,22 +7768,22 @@
         <v>289</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.402990567962758</v>
+        <v>-0.395868781727402</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0451046435120957</v>
+        <v>0.0395922554281873</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.527006225804342</v>
+        <v>-0.502636319622733</v>
       </c>
       <c r="E262" t="n">
-        <v>0.478330696202532</v>
+        <v>0.474133702531646</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00931916234252323</v>
+        <v>0.00839576278528581</v>
       </c>
       <c r="G262" t="n">
-        <v>0.201818134125238</v>
+        <v>0.193254338581405</v>
       </c>
     </row>
     <row r="263">
@@ -7791,22 +7791,22 @@
         <v>290</v>
       </c>
       <c r="B263" t="n">
-        <v>0.193936596781546</v>
+        <v>0.219340957196856</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0444508372858157</v>
+        <v>0.0485411299306194</v>
       </c>
       <c r="D263" t="n">
-        <v>1.08712680116166</v>
+        <v>1.00446591999519</v>
       </c>
       <c r="E263" t="n">
-        <v>0.210170051960321</v>
+        <v>0.204010392064242</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0089852246773482</v>
+        <v>0.00994234713185141</v>
       </c>
       <c r="G263" t="n">
-        <v>0.451017755126174</v>
+        <v>0.488756077407023</v>
       </c>
     </row>
     <row r="264">
@@ -7814,22 +7814,22 @@
         <v>291</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.734067275099526</v>
+        <v>-0.748044587864458</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0539318768399078</v>
+        <v>0.0456272405345865</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.316363887466379</v>
+        <v>-0.285551612468884</v>
       </c>
       <c r="E264" t="n">
-        <v>0.63711566091954</v>
+        <v>0.645409482758621</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0117608701309928</v>
+        <v>0.00967932114068796</v>
       </c>
       <c r="G264" t="n">
-        <v>0.170216417802737</v>
+        <v>0.152435846750368</v>
       </c>
     </row>
     <row r="265">
@@ -7837,22 +7837,22 @@
         <v>292</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.516432686598914</v>
+        <v>-0.585975195150299</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0552567980958696</v>
+        <v>0.0309248272323459</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.455175770021742</v>
+        <v>-0.300105813665286</v>
       </c>
       <c r="E265" t="n">
-        <v>0.534380281690141</v>
+        <v>0.567408450704225</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0117623824223589</v>
+        <v>0.00684829613260156</v>
       </c>
       <c r="G265" t="n">
-        <v>0.202953816739044</v>
+        <v>0.145846316888573</v>
       </c>
     </row>
     <row r="266">
@@ -7860,22 +7860,22 @@
         <v>293</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.10470788766206</v>
+        <v>-1.08863283239417</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0229660784260551</v>
+        <v>0.0285052924973528</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.137181632529558</v>
+        <v>-0.155089116765583</v>
       </c>
       <c r="E266" t="n">
-        <v>0.796147388059702</v>
+        <v>0.790695895522388</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00451988424290627</v>
+        <v>0.0062346289415098</v>
       </c>
       <c r="G266" t="n">
-        <v>0.084444269198393</v>
+        <v>0.0998609794182763</v>
       </c>
     </row>
     <row r="267">
@@ -7883,22 +7883,22 @@
         <v>294</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.504013002475347</v>
+        <v>-0.588522478619704</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0448888481920381</v>
+        <v>0.0423154991738851</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.420365911219874</v>
+        <v>-0.349531788190433</v>
       </c>
       <c r="E267" t="n">
-        <v>0.526363636363636</v>
+        <v>0.568099356395817</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0092313485093353</v>
+        <v>0.00820126302620499</v>
       </c>
       <c r="G267" t="n">
-        <v>0.182535228992565</v>
+        <v>0.159410187652667</v>
       </c>
     </row>
     <row r="268">
@@ -7906,22 +7906,22 @@
         <v>295</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.03427331941471</v>
+        <v>-1.03163074222432</v>
       </c>
       <c r="C268" t="n">
-        <v>0.040534297318763</v>
+        <v>0.0395066351798643</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.19465967896149</v>
+        <v>-0.192668512980284</v>
       </c>
       <c r="E268" t="n">
-        <v>0.770616083009079</v>
+        <v>0.769896238651102</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00832958294295724</v>
+        <v>0.0077560518580575</v>
       </c>
       <c r="G268" t="n">
-        <v>0.118433226199176</v>
+        <v>0.114390024815619</v>
       </c>
     </row>
     <row r="269">
@@ -7929,22 +7929,22 @@
         <v>296</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.10201836801276</v>
+        <v>-1.10019171864808</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0556750723894302</v>
+        <v>0.0445397838169644</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.214112273012054</v>
+        <v>-0.191825209318961</v>
       </c>
       <c r="E269" t="n">
-        <v>0.791849902534113</v>
+        <v>0.792842105263158</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0111751813889554</v>
+        <v>0.00935787012520472</v>
       </c>
       <c r="G269" t="n">
-        <v>0.133500970522142</v>
+        <v>0.122011790589241</v>
       </c>
     </row>
     <row r="270">
@@ -7952,22 +7952,22 @@
         <v>297</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.982106700250456</v>
+        <v>-0.870711568566858</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0474073609976637</v>
+        <v>0.0316130884322382</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.221699246069695</v>
+        <v>-0.204201603660347</v>
       </c>
       <c r="E270" t="n">
-        <v>0.749251320285803</v>
+        <v>0.702149735942839</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00902673316445603</v>
+        <v>0.00682460179767131</v>
       </c>
       <c r="G270" t="n">
-        <v>0.126805410825364</v>
+        <v>0.117654602594244</v>
       </c>
     </row>
     <row r="271">
@@ -7975,22 +7975,22 @@
         <v>298</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.512466643878892</v>
+        <v>-0.231030213785803</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0150059805991205</v>
+        <v>0.0108499236415817</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.239037802484932</v>
+        <v>-0.45086296307456</v>
       </c>
       <c r="E271" t="n">
-        <v>0.532133731541397</v>
+        <v>0.390603948896632</v>
       </c>
       <c r="F271" t="n">
-        <v>0.00305115258737374</v>
+        <v>0.000951816152984926</v>
       </c>
       <c r="G271" t="n">
-        <v>0.103803303308837</v>
+        <v>0.0789841421890083</v>
       </c>
     </row>
     <row r="272">
@@ -7998,22 +7998,22 @@
         <v>299</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.677655647089331</v>
+        <v>-0.694276937321689</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0511158317231826</v>
+        <v>0.0410443764016735</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.333632733790957</v>
+        <v>-0.29180591562371</v>
       </c>
       <c r="E272" t="n">
-        <v>0.61316058809195</v>
+        <v>0.621762651287466</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0102101186433654</v>
+        <v>0.00769731671252079</v>
       </c>
       <c r="G272" t="n">
-        <v>0.164793911542407</v>
+        <v>0.141105859141926</v>
       </c>
     </row>
     <row r="273">
@@ -8021,22 +8021,22 @@
         <v>300</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.515193453781382</v>
+        <v>-0.28190321142269</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0263037791314521</v>
+        <v>0.0284379212248078</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.314802910158816</v>
+        <v>-0.598203431649897</v>
       </c>
       <c r="E273" t="n">
-        <v>0.532713400095374</v>
+        <v>0.416714353838817</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00548200167780618</v>
+        <v>0.00618278344134012</v>
       </c>
       <c r="G273" t="n">
-        <v>0.138987569598807</v>
+        <v>0.188692030303345</v>
       </c>
     </row>
     <row r="274">
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.509197048460055</v>
+        <v>-0.350374081049023</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0190007700421433</v>
+        <v>0.0234315277153235</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.270707147941859</v>
+        <v>-0.436886204090304</v>
       </c>
       <c r="E274" t="n">
-        <v>0.529892501083658</v>
+        <v>0.450337234503684</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00382920371299426</v>
+        <v>0.00400803115612967</v>
       </c>
       <c r="G274" t="n">
-        <v>0.116779459853958</v>
+        <v>0.14058134300079</v>
       </c>
     </row>
     <row r="275">
@@ -8067,22 +8067,22 @@
         <v>302</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.668454324567833</v>
+        <v>-0.607672162630347</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0478090236988355</v>
+        <v>0.0588221234885813</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.327102000540054</v>
+        <v>-0.39911771765931</v>
       </c>
       <c r="E275" t="n">
-        <v>0.607612977983778</v>
+        <v>0.578215527230591</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0104488698476008</v>
+        <v>0.0126316380620106</v>
       </c>
       <c r="G275" t="n">
-        <v>0.168231616669809</v>
+        <v>0.19437485692574</v>
       </c>
     </row>
     <row r="276">
@@ -8090,22 +8090,22 @@
         <v>303</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.644796767078005</v>
+        <v>-0.299112256911166</v>
       </c>
       <c r="C276" t="n">
-        <v>0.033250684836624</v>
+        <v>0.0330902077776304</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.282798724249023</v>
+        <v>-0.608156758313829</v>
       </c>
       <c r="E276" t="n">
-        <v>0.595859510655091</v>
+        <v>0.425133385951065</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00730647785389422</v>
+        <v>0.00605000142361905</v>
       </c>
       <c r="G276" t="n">
-        <v>0.14345317359396</v>
+        <v>0.18295847292229</v>
       </c>
     </row>
     <row r="277">
@@ -8113,22 +8113,22 @@
         <v>304</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.897868938919041</v>
+        <v>-0.782585500895976</v>
       </c>
       <c r="C277" t="n">
-        <v>0.161735631046727</v>
+        <v>0.159495405212097</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.447909120641176</v>
+        <v>-0.510319649387181</v>
       </c>
       <c r="E277" t="n">
-        <v>0.687828685258964</v>
+        <v>0.645973605577689</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0229691084672143</v>
+        <v>0.024962499148637</v>
       </c>
       <c r="G277" t="n">
-        <v>0.220339208789618</v>
+        <v>0.244584684319552</v>
       </c>
     </row>
     <row r="278">
@@ -8136,22 +8136,22 @@
         <v>305</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.772389033832224</v>
+        <v>-0.567463657272082</v>
       </c>
       <c r="C278" t="n">
-        <v>0.137273117379542</v>
+        <v>0.150530642856442</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.479685564345144</v>
+        <v>-0.683713893977687</v>
       </c>
       <c r="E278" t="n">
-        <v>0.647023560990158</v>
+        <v>0.553343274679392</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0232067221793447</v>
+        <v>0.0271641027963349</v>
       </c>
       <c r="G278" t="n">
-        <v>0.23544355466856</v>
+        <v>0.297853732487286</v>
       </c>
     </row>
     <row r="279">
@@ -8159,22 +8159,22 @@
         <v>306</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.873589797439349</v>
+        <v>-0.767230881844502</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0455313588956567</v>
+        <v>0.0344930290632442</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.24425741283467</v>
+        <v>-0.24206923173455</v>
       </c>
       <c r="E279" t="n">
-        <v>0.702532871972318</v>
+        <v>0.652673587081892</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00854596059992896</v>
+        <v>0.00698969711894148</v>
       </c>
       <c r="G279" t="n">
-        <v>0.131587244637452</v>
+        <v>0.128095283989764</v>
       </c>
     </row>
     <row r="280">
@@ -8182,22 +8182,22 @@
         <v>307</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.671491462413201</v>
+        <v>-0.607904398048859</v>
       </c>
       <c r="C280" t="n">
-        <v>0.166009174396723</v>
+        <v>0.152713908228041</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.606772025015799</v>
+        <v>-0.642841654865838</v>
       </c>
       <c r="E280" t="n">
-        <v>0.604480898876404</v>
+        <v>0.574262921348315</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0285262416142911</v>
+        <v>0.0263284564805454</v>
       </c>
       <c r="G280" t="n">
-        <v>0.279408552936643</v>
+        <v>0.282554301764661</v>
       </c>
     </row>
     <row r="281">
@@ -8205,22 +8205,22 @@
         <v>308</v>
       </c>
       <c r="B281" t="n">
-        <v>0.118210626559422</v>
+        <v>0.175632095439276</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0261627457054319</v>
+        <v>0.0203109863555004</v>
       </c>
       <c r="D281" t="n">
-        <v>1.36831201587018</v>
+        <v>0.811449737964035</v>
       </c>
       <c r="E281" t="n">
-        <v>0.236331819901627</v>
+        <v>0.213673855467272</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00571298915062582</v>
+        <v>0.00446520405073461</v>
       </c>
       <c r="G281" t="n">
-        <v>0.319822858319612</v>
+        <v>0.312729801122894</v>
       </c>
     </row>
     <row r="282">
@@ -8228,22 +8228,22 @@
         <v>309</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.0685879760132</v>
+        <v>-1.07497074309187</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0421206037924484</v>
+        <v>0.0353011610276558</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.192060038220794</v>
+        <v>-0.174782461035258</v>
       </c>
       <c r="E282" t="n">
-        <v>0.779057628719887</v>
+        <v>0.781667453944261</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00808739974937463</v>
+        <v>0.00639595455468909</v>
       </c>
       <c r="G282" t="n">
-        <v>0.115434299142807</v>
+        <v>0.102312961306602</v>
       </c>
     </row>
     <row r="283">
@@ -8251,22 +8251,22 @@
         <v>310</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.744063615872074</v>
+        <v>-0.803393720091032</v>
       </c>
       <c r="C283" t="n">
-        <v>0.16418940910265</v>
+        <v>0.173584693987793</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.544581020655047</v>
+        <v>-0.518593753590052</v>
       </c>
       <c r="E283" t="n">
-        <v>0.631404366243076</v>
+        <v>0.657872271098078</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0247909017924969</v>
+        <v>0.0266283193569727</v>
       </c>
       <c r="G283" t="n">
-        <v>0.249366770979924</v>
+        <v>0.248044897065645</v>
       </c>
     </row>
     <row r="284">
@@ -8274,22 +8274,22 @@
         <v>311</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.287874766394094</v>
+        <v>-0.219888184100738</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0546383072500316</v>
+        <v>0.0420536182187469</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.81197941526583</v>
+        <v>-0.932609405516841</v>
       </c>
       <c r="E284" t="n">
-        <v>0.420040462427746</v>
+        <v>0.389543352601156</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0106589948655151</v>
+        <v>0.00826822712419393</v>
       </c>
       <c r="G284" t="n">
-        <v>0.245791578444346</v>
+        <v>0.233426630626413</v>
       </c>
     </row>
     <row r="285">
@@ -8297,22 +8297,22 @@
         <v>312</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.617520015629616</v>
+        <v>-0.665377646290692</v>
       </c>
       <c r="C285" t="n">
-        <v>0.173411495988173</v>
+        <v>0.166390969761606</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.67435394656919</v>
+        <v>-0.613051091533752</v>
       </c>
       <c r="E285" t="n">
-        <v>0.575780141843972</v>
+        <v>0.600520094562648</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0289465572491882</v>
+        <v>0.0281739336627936</v>
       </c>
       <c r="G285" t="n">
-        <v>0.295489312007742</v>
+        <v>0.279509259431233</v>
       </c>
     </row>
     <row r="286">
@@ -8320,22 +8320,22 @@
         <v>313</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.690424071733253</v>
+        <v>-0.523766079307082</v>
       </c>
       <c r="C286" t="n">
-        <v>0.169050764102873</v>
+        <v>0.143163338087413</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.595514916700469</v>
+        <v>-0.722401334028707</v>
       </c>
       <c r="E286" t="n">
-        <v>0.609274550968043</v>
+        <v>0.530520177280149</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0275168759415485</v>
+        <v>0.0242515979526257</v>
       </c>
       <c r="G286" t="n">
-        <v>0.27226168289574</v>
+        <v>0.293540665040323</v>
       </c>
     </row>
     <row r="287">
@@ -8343,22 +8343,22 @@
         <v>314</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.617848985984459</v>
+        <v>-0.839809667724987</v>
       </c>
       <c r="C287" t="n">
-        <v>0.161952386273413</v>
+        <v>0.152906243331679</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.651345380675157</v>
+        <v>-0.4656201210474</v>
       </c>
       <c r="E287" t="n">
-        <v>0.577895204262877</v>
+        <v>0.672513321492007</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0272896653065836</v>
+        <v>0.0247065936773391</v>
       </c>
       <c r="G287" t="n">
-        <v>0.285857778425339</v>
+        <v>0.233725202630373</v>
       </c>
     </row>
     <row r="288">
@@ -8366,22 +8366,22 @@
         <v>315</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.786542201883767</v>
+        <v>-0.687765460113213</v>
       </c>
       <c r="C288" t="n">
-        <v>0.162302071575582</v>
+        <v>0.192795788925225</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.51220050450256</v>
+        <v>-0.638422831925204</v>
       </c>
       <c r="E288" t="n">
-        <v>0.650251450676983</v>
+        <v>0.607512274959083</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0244896094870475</v>
+        <v>0.0319812568436606</v>
       </c>
       <c r="G288" t="n">
-        <v>0.240663151871586</v>
+        <v>0.294369429529376</v>
       </c>
     </row>
     <row r="289">
@@ -8389,22 +8389,22 @@
         <v>316</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.799261389677718</v>
+        <v>-0.532990866502931</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0304178441470379</v>
+        <v>0.0294236635219617</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.218210367832353</v>
+        <v>-0.321831541827633</v>
       </c>
       <c r="E289" t="n">
-        <v>0.6706925</v>
+        <v>0.54179</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0058450598136875</v>
+        <v>0.00617247421846484</v>
       </c>
       <c r="G289" t="n">
-        <v>0.113991122421532</v>
+        <v>0.145010235369252</v>
       </c>
     </row>
     <row r="290">
@@ -8412,22 +8412,22 @@
         <v>317</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.825826414355356</v>
+        <v>-0.759862029927178</v>
       </c>
       <c r="C290" t="n">
-        <v>0.188349065108681</v>
+        <v>0.114615308812069</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.525524496281834</v>
+        <v>-0.445539867077249</v>
       </c>
       <c r="E290" t="n">
-        <v>0.662776679841897</v>
+        <v>0.641702898550725</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0242098395833225</v>
+        <v>0.0177381525412659</v>
       </c>
       <c r="G290" t="n">
-        <v>0.234762505981212</v>
+        <v>0.207548783250673</v>
       </c>
     </row>
     <row r="291">
@@ -8435,22 +8435,22 @@
         <v>318</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.974046931204907</v>
+        <v>-0.852560012234563</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0434362744472189</v>
+        <v>0.046019124344714</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.213966805046308</v>
+        <v>-0.251619454398968</v>
       </c>
       <c r="E291" t="n">
-        <v>0.737680209698558</v>
+        <v>0.688836173001311</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0080061282377454</v>
+        <v>0.00880046522834435</v>
       </c>
       <c r="G291" t="n">
-        <v>0.121295066962524</v>
+        <v>0.13618738172585</v>
       </c>
     </row>
     <row r="292">
@@ -8458,22 +8458,22 @@
         <v>319</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.5712798646924</v>
+        <v>-0.414114173320571</v>
       </c>
       <c r="C292" t="n">
-        <v>0.012473533541263</v>
+        <v>0.00741536675248514</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.195499581653804</v>
+        <v>-0.207943918204276</v>
       </c>
       <c r="E292" t="n">
-        <v>0.56103305785124</v>
+        <v>0.481755300035932</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00253514093694566</v>
+        <v>0.00119416440948096</v>
       </c>
       <c r="G292" t="n">
-        <v>0.0897454835911993</v>
+        <v>0.071730781173106</v>
       </c>
     </row>
     <row r="293">
@@ -8481,22 +8481,22 @@
         <v>320</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.27536561985523</v>
+        <v>-1.24886036309637</v>
       </c>
       <c r="C293" t="n">
-        <v>0.028547223260612</v>
+        <v>0.0424620522806847</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.132479057667233</v>
+        <v>-0.165001012185189</v>
       </c>
       <c r="E293" t="n">
-        <v>0.841372690184785</v>
+        <v>0.837189824814015</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00475820970323814</v>
+        <v>0.00763282876278465</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0819848068514015</v>
+        <v>0.104356335036869</v>
       </c>
     </row>
     <row r="294">
@@ -8504,22 +8504,22 @@
         <v>321</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.18197268188309</v>
+        <v>-1.02505606040298</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0560601942465874</v>
+        <v>0.0543559926788526</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.200317946728551</v>
+        <v>-0.22744484501537</v>
       </c>
       <c r="E294" t="n">
-        <v>0.814840171155298</v>
+        <v>0.761130128366474</v>
       </c>
       <c r="F294" t="n">
-        <v>0.00979982681185087</v>
+        <v>0.0107362148394185</v>
       </c>
       <c r="G294" t="n">
-        <v>0.121488947322821</v>
+        <v>0.136134024435574</v>
       </c>
     </row>
     <row r="295">
@@ -8527,22 +8527,22 @@
         <v>322</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.423303668641355</v>
+        <v>-0.504396179961187</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0244190382031779</v>
+        <v>0.0289179354467862</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.369157966290603</v>
+        <v>-0.337141219319477</v>
       </c>
       <c r="E295" t="n">
-        <v>0.487791973337036</v>
+        <v>0.527390640188863</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00454346474201872</v>
+        <v>0.00588235705680989</v>
       </c>
       <c r="G295" t="n">
-        <v>0.138184372720699</v>
+        <v>0.145426406672508</v>
       </c>
     </row>
     <row r="296">
@@ -8550,22 +8550,22 @@
         <v>323</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.692362804966337</v>
+        <v>-0.632208566875957</v>
       </c>
       <c r="C296" t="n">
-        <v>0.156228770026608</v>
+        <v>0.172995523805679</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.570882562935762</v>
+        <v>-0.657895713071807</v>
       </c>
       <c r="E296" t="n">
-        <v>0.608151162790698</v>
+        <v>0.583313953488372</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0258787771809086</v>
+        <v>0.0302102854909561</v>
       </c>
       <c r="G296" t="n">
-        <v>0.264521108621539</v>
+        <v>0.297971721036196</v>
       </c>
     </row>
     <row r="297">
@@ -8573,22 +8573,22 @@
         <v>324</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.906757752795761</v>
+        <v>-0.746184045511134</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0424048452664451</v>
+        <v>0.0412477344241013</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.227099649488207</v>
+        <v>-0.272178672002949</v>
       </c>
       <c r="E297" t="n">
-        <v>0.711324399582318</v>
+        <v>0.642607030978072</v>
       </c>
       <c r="F297" t="n">
-        <v>0.00736528367572157</v>
+        <v>0.0081667526164178</v>
       </c>
       <c r="G297" t="n">
-        <v>0.120649918609759</v>
+        <v>0.140630404896688</v>
       </c>
     </row>
     <row r="298">
@@ -8596,22 +8596,22 @@
         <v>325</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.47599925255316</v>
+        <v>-1.14025189999414</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0443944048446267</v>
+        <v>0.043071277375963</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.142750612886924</v>
+        <v>-0.182009087103104</v>
       </c>
       <c r="E298" t="n">
-        <v>0.896126112759644</v>
+        <v>0.802715133531157</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00784278662687441</v>
+        <v>0.00818899048395689</v>
       </c>
       <c r="G298" t="n">
-        <v>0.0988248279979649</v>
+        <v>0.112733692564382</v>
       </c>
     </row>
     <row r="299">
@@ -8619,22 +8619,22 @@
         <v>326</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.841565658525259</v>
+        <v>-0.850514636050487</v>
       </c>
       <c r="C299" t="n">
-        <v>0.042387050095728</v>
+        <v>0.0440799253999845</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.244640632831664</v>
+        <v>-0.246853127498983</v>
       </c>
       <c r="E299" t="n">
-        <v>0.687624787775891</v>
+        <v>0.691269949066214</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00658492339521101</v>
+        <v>0.00712762724989263</v>
       </c>
       <c r="G299" t="n">
-        <v>0.118011366590215</v>
+        <v>0.122130690399053</v>
       </c>
     </row>
     <row r="300">
@@ -8642,22 +8642,22 @@
         <v>327</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.601687972583492</v>
+        <v>-0.68019223880711</v>
       </c>
       <c r="C300" t="n">
-        <v>0.149446305053236</v>
+        <v>0.150241967381792</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.642497231558342</v>
+        <v>-0.569854469337949</v>
       </c>
       <c r="E300" t="n">
-        <v>0.564201937786843</v>
+        <v>0.602172361040286</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0247585451734628</v>
+        <v>0.0246104712510997</v>
       </c>
       <c r="G300" t="n">
-        <v>0.278886818154205</v>
+        <v>0.260518846664357</v>
       </c>
     </row>
     <row r="301">
@@ -8665,22 +8665,22 @@
         <v>328</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.865931909813732</v>
+        <v>-0.84310268461163</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0500050564721209</v>
+        <v>0.0581376651907521</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.258239824107678</v>
+        <v>-0.28598833615059</v>
       </c>
       <c r="E301" t="n">
-        <v>0.697690031861629</v>
+        <v>0.688302230314065</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0095054653454798</v>
+        <v>0.0111856560017187</v>
       </c>
       <c r="G301" t="n">
-        <v>0.139741105068511</v>
+        <v>0.153656718009389</v>
       </c>
     </row>
     <row r="302">
@@ -8688,22 +8688,22 @@
         <v>329</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.949507492669348</v>
+        <v>-0.875426643297072</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0474033386786975</v>
+        <v>0.0365125908546486</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.229301063600084</v>
+        <v>-0.218273777865818</v>
       </c>
       <c r="E302" t="n">
-        <v>0.732273425499232</v>
+        <v>0.700401945724526</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00814964775081806</v>
+        <v>0.00635509105203726</v>
       </c>
       <c r="G302" t="n">
-        <v>0.123280999055689</v>
+        <v>0.113818680031617</v>
       </c>
     </row>
     <row r="303">
@@ -8711,22 +8711,22 @@
         <v>330</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.609059081575361</v>
+        <v>-0.475576130791323</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0383128512160805</v>
+        <v>0.0500391645106835</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.321375535475263</v>
+        <v>-0.470364975516352</v>
       </c>
       <c r="E303" t="n">
-        <v>0.579145207420422</v>
+        <v>0.51370009196136</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00680038588318666</v>
+        <v>0.00843567874432762</v>
       </c>
       <c r="G303" t="n">
-        <v>0.142389941560533</v>
+        <v>0.178792942801441</v>
       </c>
     </row>
     <row r="304">
@@ -8734,22 +8734,22 @@
         <v>331</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.868741504902253</v>
+        <v>-0.823770500581615</v>
       </c>
       <c r="C304" t="n">
-        <v>0.150797537141539</v>
+        <v>0.16564756871447</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.446999001985171</v>
+        <v>-0.494067511974285</v>
       </c>
       <c r="E304" t="n">
-        <v>0.683408387278356</v>
+        <v>0.669698846045595</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0231486141216965</v>
+        <v>0.0240697757190401</v>
       </c>
       <c r="G304" t="n">
-        <v>0.222629234630993</v>
+        <v>0.231662890692449</v>
       </c>
     </row>
     <row r="305">
@@ -8757,22 +8757,22 @@
         <v>332</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.07857147711336</v>
+        <v>-0.843779680821912</v>
       </c>
       <c r="C305" t="n">
-        <v>0.050247009978168</v>
+        <v>0.0559918169116669</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.207829015630519</v>
+        <v>-0.280435647054231</v>
       </c>
       <c r="E305" t="n">
-        <v>0.779690915944214</v>
+        <v>0.68664342254052</v>
       </c>
       <c r="F305" t="n">
-        <v>0.00942984268792138</v>
+        <v>0.0110030818677204</v>
       </c>
       <c r="G305" t="n">
-        <v>0.124545990106736</v>
+        <v>0.152765718817865</v>
       </c>
     </row>
     <row r="306">
@@ -8780,22 +8780,22 @@
         <v>333</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.167100883551029</v>
+        <v>-0.0964849706226026</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0184103218484708</v>
+        <v>0.012144617147274</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.81199236223682</v>
+        <v>-1.14217393541515</v>
       </c>
       <c r="E306" t="n">
-        <v>0.366283104257459</v>
+        <v>0.333372443848475</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00333697968727471</v>
+        <v>0.00229051945468112</v>
       </c>
       <c r="G306" t="n">
-        <v>0.157710240979569</v>
+        <v>0.143561270682627</v>
       </c>
     </row>
     <row r="307">
@@ -8803,22 +8803,22 @@
         <v>334</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.703875272268489</v>
+        <v>-0.883850649988976</v>
       </c>
       <c r="C307" t="n">
-        <v>0.183934419044646</v>
+        <v>0.154538560472406</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.609306476132401</v>
+        <v>-0.444774157390483</v>
       </c>
       <c r="E307" t="n">
-        <v>0.609617391304348</v>
+        <v>0.685831884057971</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0281286964825877</v>
+        <v>0.0212085601504726</v>
       </c>
       <c r="G307" t="n">
-        <v>0.275117017861539</v>
+        <v>0.212342986497778</v>
       </c>
     </row>
     <row r="308">
@@ -8826,22 +8826,22 @@
         <v>335</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.74096014520599</v>
+        <v>-0.687514592547729</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0483595991209549</v>
+        <v>0.0500226999435663</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.296788109419807</v>
+        <v>-0.325313168667864</v>
       </c>
       <c r="E308" t="n">
-        <v>0.64141975308642</v>
+        <v>0.615929174788824</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00859468825250019</v>
+        <v>0.00765722389900702</v>
       </c>
       <c r="G308" t="n">
-        <v>0.144534902553491</v>
+        <v>0.142070823305651</v>
       </c>
     </row>
     <row r="309">
@@ -8849,22 +8849,22 @@
         <v>336</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.17873706335107</v>
+        <v>-0.96298145048364</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0494917819148617</v>
+        <v>0.0513924248523698</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.188733765985852</v>
+        <v>-0.235413645791145</v>
       </c>
       <c r="E309" t="n">
-        <v>0.805702940545181</v>
+        <v>0.733176647349217</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00852561359857085</v>
+        <v>0.00991955230566673</v>
       </c>
       <c r="G309" t="n">
-        <v>0.114600859298572</v>
+        <v>0.135843046336794</v>
       </c>
     </row>
     <row r="310">
@@ -8872,22 +8872,22 @@
         <v>337</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.876255288821253</v>
+        <v>-0.875596661653681</v>
       </c>
       <c r="C310" t="n">
-        <v>0.128434669980564</v>
+        <v>0.165788169492614</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.408987923828238</v>
+        <v>-0.465021112836098</v>
       </c>
       <c r="E310" t="n">
-        <v>0.687901450725363</v>
+        <v>0.683656828414207</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0170766383038318</v>
+        <v>0.0224799778320251</v>
       </c>
       <c r="G310" t="n">
-        <v>0.189965600393716</v>
+        <v>0.219310680964864</v>
       </c>
     </row>
     <row r="311">
@@ -8895,22 +8895,22 @@
         <v>338</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.31077541005888</v>
+        <v>-0.983583617456253</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0506708533519567</v>
+        <v>0.0381667971815808</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.171731840212797</v>
+        <v>-0.198623930620322</v>
       </c>
       <c r="E311" t="n">
-        <v>0.852440451316339</v>
+        <v>0.74346009193481</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00749473714443279</v>
+        <v>0.00688720953334256</v>
       </c>
       <c r="G311" t="n">
-        <v>0.101558003027295</v>
+        <v>0.111625646427628</v>
       </c>
     </row>
     <row r="312">
@@ -8918,22 +8918,22 @@
         <v>339</v>
       </c>
       <c r="B312" t="n">
-        <v>-1.01747976346455</v>
+        <v>-0.845659683872309</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0445819283245392</v>
+        <v>0.0405097575719243</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.207516982778829</v>
+        <v>-0.238003966886171</v>
       </c>
       <c r="E312" t="n">
-        <v>0.754426725323068</v>
+        <v>0.686387132251856</v>
       </c>
       <c r="F312" t="n">
-        <v>0.00818339567904459</v>
+        <v>0.0078023933412354</v>
       </c>
       <c r="G312" t="n">
-        <v>0.119908428294784</v>
+        <v>0.128689995922327</v>
       </c>
     </row>
     <row r="313">
@@ -8941,22 +8941,22 @@
         <v>340</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.593656548847254</v>
+        <v>-0.592611945551622</v>
       </c>
       <c r="C313" t="n">
-        <v>0.177274351273626</v>
+        <v>0.179377320142074</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.709230966192563</v>
+        <v>-0.714682855949638</v>
       </c>
       <c r="E313" t="n">
-        <v>0.561792245793709</v>
+        <v>0.56311265544989</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0293964107176207</v>
+        <v>0.0290097124698117</v>
       </c>
       <c r="G313" t="n">
-        <v>0.305190782534125</v>
+        <v>0.302465903433128</v>
       </c>
     </row>
     <row r="314">
@@ -8964,22 +8964,22 @@
         <v>341</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.28867521492402</v>
+        <v>-1.16009793186085</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0465703392141596</v>
+        <v>0.0429894091149378</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.167460053197334</v>
+        <v>-0.178725320832667</v>
       </c>
       <c r="E314" t="n">
-        <v>0.83284394696805</v>
+        <v>0.80217996087807</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00858996977946877</v>
+        <v>0.00783322379973151</v>
       </c>
       <c r="G314" t="n">
-        <v>0.111283860788246</v>
+        <v>0.110331229697537</v>
       </c>
     </row>
     <row r="315">
@@ -8987,22 +8987,22 @@
         <v>342</v>
       </c>
       <c r="B315" t="n">
-        <v>-1.30971151408876</v>
+        <v>-1.20060095298306</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0449617901919417</v>
+        <v>0.0432225350971371</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.161899740185267</v>
+        <v>-0.173163531431606</v>
       </c>
       <c r="E315" t="n">
-        <v>0.839962114036749</v>
+        <v>0.811388520553135</v>
       </c>
       <c r="F315" t="n">
-        <v>0.00757731910042834</v>
+        <v>0.00791882923592825</v>
       </c>
       <c r="G315" t="n">
-        <v>0.103633004795431</v>
+        <v>0.109673481453634</v>
       </c>
     </row>
     <row r="316">
@@ -9010,22 +9010,22 @@
         <v>343</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.767631720312925</v>
+        <v>-0.701736625212224</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0227961216227642</v>
+        <v>0.0156621369360744</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.196687866816292</v>
+        <v>-0.178341068553259</v>
       </c>
       <c r="E316" t="n">
-        <v>0.65512040222281</v>
+        <v>0.626139190261974</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00433470811269293</v>
+        <v>0.00282284458444087</v>
       </c>
       <c r="G316" t="n">
-        <v>0.100498320625957</v>
+        <v>0.0848540541415038</v>
       </c>
     </row>
     <row r="317">
@@ -9033,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.806501744029341</v>
+        <v>-0.581570384929402</v>
       </c>
       <c r="C317" t="n">
-        <v>0.136151118463236</v>
+        <v>0.165450172481486</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.45751495625709</v>
+        <v>-0.699409181330109</v>
       </c>
       <c r="E317" t="n">
-        <v>0.654100464100464</v>
+        <v>0.558378378378378</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0214584136085307</v>
+        <v>0.0285221039818763</v>
       </c>
       <c r="G317" t="n">
-        <v>0.223951692390311</v>
+        <v>0.302455987474754</v>
       </c>
     </row>
     <row r="318">
@@ -9056,22 +9056,22 @@
         <v>345</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.484833109140472</v>
+        <v>-0.603652112891872</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0423804113477474</v>
+        <v>0.0352288011441165</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.42461009364063</v>
+        <v>-0.310929699403493</v>
       </c>
       <c r="E318" t="n">
-        <v>0.515729323308271</v>
+        <v>0.574135338345865</v>
       </c>
       <c r="F318" t="n">
-        <v>0.00892202917575895</v>
+        <v>0.00711485211148171</v>
       </c>
       <c r="G318" t="n">
-        <v>0.183151295246625</v>
+        <v>0.146915852630173</v>
       </c>
     </row>
     <row r="319">
@@ -9079,22 +9079,22 @@
         <v>346</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.866078891965981</v>
+        <v>-0.698562847337759</v>
       </c>
       <c r="C319" t="n">
-        <v>0.226101246520454</v>
+        <v>0.190789643514793</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.549027406481815</v>
+        <v>-0.625276222588311</v>
       </c>
       <c r="E319" t="n">
-        <v>0.675859375</v>
+        <v>0.6116796875</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0330983293965657</v>
+        <v>0.0307566685278151</v>
       </c>
       <c r="G319" t="n">
-        <v>0.269182420818243</v>
+        <v>0.286711813212607</v>
       </c>
     </row>
     <row r="320">
@@ -9102,22 +9102,22 @@
         <v>347</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.10846802447062</v>
+        <v>-1.41363688736165</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0534733409300847</v>
+        <v>0.0445293883933705</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.20861497962375</v>
+        <v>-0.149274455597309</v>
       </c>
       <c r="E320" t="n">
-        <v>0.781623296158612</v>
+        <v>0.878717472118959</v>
       </c>
       <c r="F320" t="n">
-        <v>0.0105574019467784</v>
+        <v>0.007810764554245</v>
       </c>
       <c r="G320" t="n">
-        <v>0.131456187681611</v>
+        <v>0.100576729999754</v>
       </c>
     </row>
     <row r="321">
@@ -9125,22 +9125,22 @@
         <v>348</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.829936362416526</v>
+        <v>-1.22205742070374</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0748429289656546</v>
+        <v>0.0523191010259281</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.329632932929506</v>
+        <v>-0.18717098420293</v>
       </c>
       <c r="E321" t="n">
-        <v>0.668128630705394</v>
+        <v>0.818655601659751</v>
       </c>
       <c r="F321" t="n">
-        <v>0.0122946707606618</v>
+        <v>0.00976284146226821</v>
       </c>
       <c r="G321" t="n">
-        <v>0.165958067502026</v>
+        <v>0.120694333448051</v>
       </c>
     </row>
     <row r="322">
@@ -9148,22 +9148,22 @@
         <v>349</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.12680606295508</v>
+        <v>-1.01902202627997</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0507639462679669</v>
+        <v>0.042675855171506</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.199953270858514</v>
+        <v>-0.202725110058134</v>
       </c>
       <c r="E322" t="n">
-        <v>0.797684761281884</v>
+        <v>0.757946370176586</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00769574301203546</v>
+        <v>0.00632945373701633</v>
       </c>
       <c r="G322" t="n">
-        <v>0.10997500308182</v>
+        <v>0.104965030786736</v>
       </c>
     </row>
     <row r="323">
@@ -9171,22 +9171,22 @@
         <v>350</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.92475736538386</v>
+        <v>-0.942280872622371</v>
       </c>
       <c r="C323" t="n">
-        <v>0.207708396068687</v>
+        <v>0.124029563721028</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.492832372053016</v>
+        <v>-0.373750887476228</v>
       </c>
       <c r="E323" t="n">
-        <v>0.703326530612245</v>
+        <v>0.709843537414966</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0292159623698459</v>
+        <v>0.0154860010042112</v>
       </c>
       <c r="G323" t="n">
-        <v>0.243026201113427</v>
+        <v>0.175310128782878</v>
       </c>
     </row>
     <row r="324">
@@ -9194,22 +9194,22 @@
         <v>351</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.136722498878927</v>
+        <v>-0.506859461159881</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0631338019458538</v>
+        <v>0.0472827154683237</v>
       </c>
       <c r="D324" t="n">
-        <v>-1.83776926624855</v>
+        <v>-0.429006277993057</v>
       </c>
       <c r="E324" t="n">
-        <v>0.359528588098016</v>
+        <v>0.526765460910152</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0117877212910903</v>
+        <v>0.00700012345603303</v>
       </c>
       <c r="G324" t="n">
-        <v>0.301982308103391</v>
+        <v>0.158831105396522</v>
       </c>
     </row>
     <row r="325">
@@ -9217,22 +9217,22 @@
         <v>352</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.685777346074071</v>
+        <v>-0.555367571586719</v>
       </c>
       <c r="C325" t="n">
-        <v>0.182915585872009</v>
+        <v>0.215853332539801</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.623651859589984</v>
+        <v>-0.836563403151124</v>
       </c>
       <c r="E325" t="n">
-        <v>0.601870997255261</v>
+        <v>0.54743824336688</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0315200547995687</v>
+        <v>0.0352541052922239</v>
       </c>
       <c r="G325" t="n">
-        <v>0.294978298190572</v>
+        <v>0.342980725936458</v>
       </c>
     </row>
     <row r="326">
@@ -9240,22 +9240,22 @@
         <v>353</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.782747647586129</v>
+        <v>-0.679864650169897</v>
       </c>
       <c r="C326" t="n">
-        <v>0.177817999114519</v>
+        <v>0.148089045377869</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.538723708204945</v>
+        <v>-0.566029422112051</v>
       </c>
       <c r="E326" t="n">
-        <v>0.642205202312139</v>
+        <v>0.601806358381503</v>
       </c>
       <c r="F326" t="n">
-        <v>0.026090690208577</v>
+        <v>0.0229142167386983</v>
       </c>
       <c r="G326" t="n">
-        <v>0.251517938474395</v>
+        <v>0.25153344349824</v>
       </c>
     </row>
     <row r="327">
@@ -9263,22 +9263,22 @@
         <v>354</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.279940640618648</v>
+        <v>-0.315358825414488</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0273400576302097</v>
+        <v>0.0212430866138842</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.590654831404194</v>
+        <v>-0.462172201877834</v>
       </c>
       <c r="E327" t="n">
-        <v>0.423677406907197</v>
+        <v>0.436395909704804</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00473667391428567</v>
+        <v>0.00428706369682657</v>
       </c>
       <c r="G327" t="n">
-        <v>0.162443163475729</v>
+        <v>0.150037319555901</v>
       </c>
     </row>
     <row r="328">
@@ -9286,22 +9286,22 @@
         <v>355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.503619961725634</v>
+        <v>0.501777099230614</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0540336126610444</v>
+        <v>0.0444846607135182</v>
       </c>
       <c r="D328" t="n">
-        <v>0.46156095889517</v>
+        <v>0.420333791022314</v>
       </c>
       <c r="E328" t="n">
-        <v>0.132101249735226</v>
+        <v>0.130879051048507</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0105201568113753</v>
+        <v>0.00872507040246743</v>
       </c>
       <c r="G328" t="n">
-        <v>0.776433348479846</v>
+        <v>0.713697758105961</v>
       </c>
     </row>
     <row r="329">
@@ -9309,22 +9309,22 @@
         <v>356</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0584995768324334</v>
+        <v>0.0575128435367695</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0238232436679911</v>
+        <v>0.00398400564865162</v>
       </c>
       <c r="D329" t="n">
-        <v>2.63844303394115</v>
+        <v>1.09747625429027</v>
       </c>
       <c r="E329" t="n">
-        <v>0.258019616685456</v>
+        <v>0.257493799323562</v>
       </c>
       <c r="F329" t="n">
-        <v>0.00405726215345139</v>
+        <v>0.000627354514764562</v>
       </c>
       <c r="G329" t="n">
-        <v>0.246867437586966</v>
+        <v>0.0972724240137572</v>
       </c>
     </row>
     <row r="330">
@@ -9332,22 +9332,22 @@
         <v>357</v>
       </c>
       <c r="B330" t="n">
-        <v>0.0439383820553647</v>
+        <v>-0.0624402160810193</v>
       </c>
       <c r="C330" t="n">
-        <v>0.052660081520756</v>
+        <v>0.0346988825641788</v>
       </c>
       <c r="D330" t="n">
-        <v>5.22271951415859</v>
+        <v>-2.98327540188564</v>
       </c>
       <c r="E330" t="n">
-        <v>0.274851063829787</v>
+        <v>0.319246200607903</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0105161781916279</v>
+        <v>0.00725719156031448</v>
       </c>
       <c r="G330" t="n">
-        <v>0.373105409665014</v>
+        <v>0.266844684436022</v>
       </c>
     </row>
     <row r="331">
@@ -9355,22 +9355,22 @@
         <v>358</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.011156868170352</v>
+        <v>-0.0733651847729287</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0494008516363314</v>
+        <v>0.0359989353219645</v>
       </c>
       <c r="D331" t="n">
-        <v>-19.9216321420567</v>
+        <v>-2.58615656054882</v>
       </c>
       <c r="E331" t="n">
-        <v>0.314401626842908</v>
+        <v>0.33536858159634</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00846387596271887</v>
+        <v>0.00650377187853782</v>
       </c>
       <c r="G331" t="n">
-        <v>0.292617206869097</v>
+        <v>0.240469652536343</v>
       </c>
     </row>
     <row r="332">
@@ -9378,22 +9378,22 @@
         <v>359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.20982003846808</v>
+        <v>0.275030402084031</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0425848886756486</v>
+        <v>0.0313701659605697</v>
       </c>
       <c r="D332" t="n">
-        <v>0.983514564968852</v>
+        <v>0.643987895544998</v>
       </c>
       <c r="E332" t="n">
-        <v>0.217010869565217</v>
+        <v>0.191605890603086</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00785659185367813</v>
+        <v>0.00606164178889375</v>
       </c>
       <c r="G332" t="n">
-        <v>0.408446904466901</v>
+        <v>0.406336913611007</v>
       </c>
     </row>
     <row r="333">
@@ -9401,22 +9401,22 @@
         <v>360</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.561519721381156</v>
+        <v>-0.519473634020652</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0484760480258374</v>
+        <v>0.0474434723468083</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.392101577558497</v>
+        <v>-0.419299866203389</v>
       </c>
       <c r="E333" t="n">
-        <v>0.554771106289987</v>
+        <v>0.533924040074622</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00873457749765474</v>
+        <v>0.00939825632440481</v>
       </c>
       <c r="G333" t="n">
-        <v>0.168464003459973</v>
+        <v>0.181570030818332</v>
       </c>
     </row>
     <row r="334">
@@ -9424,22 +9424,22 @@
         <v>361</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.674666020566342</v>
+        <v>-0.877962780460404</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0405462536224448</v>
+        <v>0.0396405318491056</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.298460270850146</v>
+        <v>-0.226774193518532</v>
       </c>
       <c r="E334" t="n">
-        <v>0.603299949924887</v>
+        <v>0.689387414455016</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00757873602087881</v>
+        <v>0.00700230288174152</v>
       </c>
       <c r="G334" t="n">
-        <v>0.144299591226388</v>
+        <v>0.121382784364517</v>
       </c>
     </row>
     <row r="335">
@@ -9447,22 +9447,22 @@
         <v>362</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.65262872086859</v>
+        <v>-0.660684075578953</v>
       </c>
       <c r="C335" t="n">
-        <v>0.138071412135879</v>
+        <v>0.15352356858537</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.569358358911894</v>
+        <v>-0.593053248651998</v>
       </c>
       <c r="E335" t="n">
-        <v>0.590080647509382</v>
+        <v>0.595587777420926</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0228549576396593</v>
+        <v>0.0261300342905118</v>
       </c>
       <c r="G335" t="n">
-        <v>0.256199830890102</v>
+        <v>0.271408980190226</v>
       </c>
     </row>
     <row r="336">
@@ -9470,22 +9470,22 @@
         <v>363</v>
       </c>
       <c r="B336" t="n">
-        <v>0.132909249543043</v>
+        <v>-0.0979304395892979</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0528113471548974</v>
+        <v>0.049956101996843</v>
       </c>
       <c r="D336" t="n">
-        <v>1.72905344362237</v>
+        <v>-2.28232016739464</v>
       </c>
       <c r="E336" t="n">
-        <v>0.241668044469933</v>
+        <v>0.335839551305527</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0107062443932276</v>
+        <v>0.00906140491777034</v>
       </c>
       <c r="G336" t="n">
-        <v>0.42815335211726</v>
+        <v>0.283443125224062</v>
       </c>
     </row>
     <row r="337">
@@ -9493,22 +9493,22 @@
         <v>364</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.556597021005483</v>
+        <v>-0.692064839626638</v>
       </c>
       <c r="C337" t="n">
-        <v>0.195982052562882</v>
+        <v>0.159873769204086</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.795366460272677</v>
+        <v>-0.577752484271596</v>
       </c>
       <c r="E337" t="n">
-        <v>0.546530025170802</v>
+        <v>0.608723480762316</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0315062854793294</v>
+        <v>0.0273263880384191</v>
       </c>
       <c r="G337" t="n">
-        <v>0.324776483938412</v>
+        <v>0.271563289724313</v>
       </c>
     </row>
     <row r="338">
@@ -9516,22 +9516,22 @@
         <v>365</v>
       </c>
       <c r="B338" t="n">
-        <v>-1.0413492051657</v>
+        <v>-0.935137543518008</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0528645773810985</v>
+        <v>0.0479193986551878</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.22079335180824</v>
+        <v>-0.234088558065788</v>
       </c>
       <c r="E338" t="n">
-        <v>0.759964185783287</v>
+        <v>0.720048025781299</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00935208288059229</v>
+        <v>0.00898240148297103</v>
       </c>
       <c r="G338" t="n">
-        <v>0.12725095413382</v>
+        <v>0.131623903818516</v>
       </c>
     </row>
     <row r="339">
@@ -9539,22 +9539,22 @@
         <v>366</v>
       </c>
       <c r="B339" t="n">
-        <v>0.429668025051113</v>
+        <v>0.0638455539626782</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0833845365129783</v>
+        <v>0.0468229535750342</v>
       </c>
       <c r="D339" t="n">
-        <v>0.672062594022923</v>
+        <v>3.38921206040551</v>
       </c>
       <c r="E339" t="n">
-        <v>0.162513374349538</v>
+        <v>0.277022625124315</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0117565715143406</v>
+        <v>0.00881127152557923</v>
       </c>
       <c r="G339" t="n">
-        <v>0.667192625072564</v>
+        <v>0.338847317478961</v>
       </c>
     </row>
     <row r="340">
@@ -9562,22 +9562,22 @@
         <v>367</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.09110809696957</v>
+        <v>-1.32836156662488</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0496752066818111</v>
+        <v>0.04398248009737</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.20426881182782</v>
+        <v>-0.157878705102566</v>
       </c>
       <c r="E340" t="n">
-        <v>0.775475161987041</v>
+        <v>0.852922966162707</v>
       </c>
       <c r="F340" t="n">
-        <v>0.00931990671031415</v>
+        <v>0.00793764743736268</v>
       </c>
       <c r="G340" t="n">
-        <v>0.124490981342799</v>
+        <v>0.104456650102234</v>
       </c>
     </row>
     <row r="341">
@@ -9585,22 +9585,22 @@
         <v>368</v>
       </c>
       <c r="B341" t="n">
-        <v>0.31438345968677</v>
+        <v>0.0623187347024814</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0700370625255778</v>
+        <v>0.0605649288391364</v>
       </c>
       <c r="D341" t="n">
-        <v>0.841790988912689</v>
+        <v>3.94904405458952</v>
       </c>
       <c r="E341" t="n">
-        <v>0.199667940496174</v>
+        <v>0.278074558898016</v>
       </c>
       <c r="F341" t="n">
-        <v>0.011768816241035</v>
+        <v>0.0108566280875073</v>
       </c>
       <c r="G341" t="n">
-        <v>0.543322953110735</v>
+        <v>0.374702183017433</v>
       </c>
     </row>
   </sheetData>

--- a/data/emdi_results.xlsx
+++ b/data/emdi_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3">
     <font>
@@ -1535,10 +1535,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -1687,10 +1687,10 @@
         <v>19</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.751821057801511</v>
+        <v>-0.767911937633567</v>
       </c>
       <c r="E16" t="n">
-        <v>6.63928243764697</v>
+        <v>6.66466633645833</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1700,16 +1700,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224594194831941</v>
+        <v>0.221953234540584</v>
       </c>
       <c r="E17" t="n">
-        <v>3.09640494298322</v>
+        <v>3.10911081335707</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9943565304237</v>
+        <v>0.994207939105865</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475175692022425</v>
+        <v>0.451154938178718</v>
       </c>
     </row>
     <row r="19">
@@ -1722,10 +1722,10 @@
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>0.227763435625725</v>
+        <v>0.232987803774201</v>
       </c>
       <c r="E20" t="n">
-        <v>0.383037305071663</v>
+        <v>0.387013989523932</v>
       </c>
     </row>
   </sheetData>
@@ -1741,10 +1741,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="0">
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false">
       <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight"/>
     </sheetView>
@@ -1788,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>0.256335096913801</v>
+        <v>0.249740597115212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.053237776408793</v>
+        <v>0.0540980025843833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.900123045540475</v>
+        <v>0.931325446719776</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2007457983329</v>
+        <v>0.202944409578356</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0103377309599477</v>
+        <v>0.0105205752331334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.506484487688502</v>
+        <v>0.505408626901039</v>
       </c>
     </row>
     <row r="3">
@@ -1811,22 +1811,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.367440015850772</v>
+        <v>-0.378225457728544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.061520219139591</v>
+        <v>0.0630969062929867</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.675029085083142</v>
+        <v>-0.664130270997864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.460365163054091</v>
+        <v>0.465702011325913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0127433021920109</v>
+        <v>0.0131129319078191</v>
       </c>
       <c r="G3" t="n">
-        <v>0.245210204154334</v>
+        <v>0.245890522273998</v>
       </c>
     </row>
     <row r="4">
@@ -1834,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.506843120843852</v>
+        <v>-0.516700225830619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0359336770665004</v>
+        <v>0.037642090275488</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.37400488428592</v>
+        <v>-0.375489860952672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.529086769081304</v>
+        <v>0.533959773727216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00720286285369708</v>
+        <v>0.00733127046307638</v>
       </c>
       <c r="G4" t="n">
-        <v>0.160407869847823</v>
+        <v>0.160354473606803</v>
       </c>
     </row>
     <row r="5">
@@ -1857,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.335731816727514</v>
+        <v>-0.335651620676711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0291910896997747</v>
+        <v>0.0292045801034348</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.508900237065632</v>
+        <v>-0.50913943317283</v>
       </c>
       <c r="E5" t="n">
-        <v>0.443448396512195</v>
+        <v>0.443414144576316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00490553501767896</v>
+        <v>0.00494208824811668</v>
       </c>
       <c r="G5" t="n">
-        <v>0.157942897601757</v>
+        <v>0.158542501180513</v>
       </c>
     </row>
     <row r="6">
@@ -1880,22 +1880,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.98942907121007</v>
+        <v>-1.0016127711227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.131837303800055</v>
+        <v>0.128032350092994</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.36697331900323</v>
+        <v>-0.357239937917384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.732939649815404</v>
+        <v>0.737602441788208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0182720192705999</v>
+        <v>0.017517514969408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.184427235318067</v>
+        <v>0.179437786347636</v>
       </c>
     </row>
     <row r="7">
@@ -1903,22 +1903,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.21147777697098</v>
+        <v>-0.209856745340325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.043698872067491</v>
+        <v>0.0436998705991466</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.988485668631215</v>
+        <v>-0.996132574915886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.383565173998468</v>
+        <v>0.382743473954917</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009438080432882</v>
+        <v>0.00946326031571385</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25328103300154</v>
+        <v>0.254163158593508</v>
       </c>
     </row>
     <row r="8">
@@ -1926,22 +1926,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.64004659620517</v>
+        <v>-0.64114674044685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.151020489440796</v>
+        <v>0.151195081801232</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.60716446268842</v>
+        <v>-0.606472891776424</v>
       </c>
       <c r="E8" t="n">
-        <v>0.586199622166247</v>
+        <v>0.586706549118388</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0249573114961313</v>
+        <v>0.0249855864658546</v>
       </c>
       <c r="G8" t="n">
-        <v>0.269496646631722</v>
+        <v>0.269416281576168</v>
       </c>
     </row>
     <row r="9">
@@ -1949,22 +1949,22 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.261993709035739</v>
+        <v>-0.263248032212712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0384287586178595</v>
+        <v>0.0384454752219387</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.74823378589541</v>
+        <v>-0.744830553250954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.408343742447609</v>
+        <v>0.408980977444489</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0077432366441487</v>
+        <v>0.00774792517379945</v>
       </c>
       <c r="G9" t="n">
-        <v>0.215494088672719</v>
+        <v>0.215223455742448</v>
       </c>
     </row>
     <row r="10">
@@ -1972,22 +1972,22 @@
         <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.043092329961549</v>
+        <v>-0.0419054863619231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0331398364414516</v>
+        <v>0.0329548378179041</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.22449892291439</v>
+        <v>-4.33200255222903</v>
       </c>
       <c r="E10" t="n">
-        <v>0.307175184337656</v>
+        <v>0.306692092550216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00678467008872036</v>
+        <v>0.00674459157419965</v>
       </c>
       <c r="G10" t="n">
-        <v>0.268150270677589</v>
+        <v>0.267778219241989</v>
       </c>
     </row>
     <row r="11">
@@ -1995,22 +1995,22 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.381154872662299</v>
+        <v>-0.38115800662588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0106416176099243</v>
+        <v>0.0106576385779498</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.270646458420096</v>
+        <v>-0.270847884094139</v>
       </c>
       <c r="E11" t="n">
-        <v>0.46538119109748</v>
+        <v>0.465386666210484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00205864560716097</v>
+        <v>0.00206203283456463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0974949157089469</v>
+        <v>0.0975739422613339</v>
       </c>
     </row>
     <row r="12">
@@ -2018,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.818444279626682</v>
+        <v>-0.817960771201645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0429763227093554</v>
+        <v>0.0430296132285984</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.253294353464465</v>
+        <v>-0.253601165706078</v>
       </c>
       <c r="E12" t="n">
-        <v>0.677515466102085</v>
+        <v>0.677262571767011</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00626376346760046</v>
+        <v>0.00629255481441156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.116814959075825</v>
+        <v>0.117126840480192</v>
       </c>
     </row>
     <row r="13">
@@ -2041,22 +2041,22 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.083218797202919</v>
+        <v>-0.0836433846374022</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00883950842113857</v>
+        <v>0.00889758147760335</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.1297767225981</v>
+        <v>-1.12772806499258</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3353764215294</v>
+        <v>0.335627560131471</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0012554150342575</v>
+        <v>0.00124420024942602</v>
       </c>
       <c r="G13" t="n">
-        <v>0.105647965020789</v>
+        <v>0.105096324106538</v>
       </c>
     </row>
     <row r="14">
@@ -2064,22 +2064,22 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.699431530882249</v>
+        <v>-0.705778020087002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0428039572228732</v>
+        <v>0.0425982898465804</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.29579903575853</v>
+        <v>-0.292434059477066</v>
       </c>
       <c r="E14" t="n">
-        <v>0.620758530754184</v>
+        <v>0.623703542708107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00882905846956624</v>
+        <v>0.00879504282414816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.15136814889538</v>
+        <v>0.150362926000382</v>
       </c>
     </row>
     <row r="15">
@@ -2087,22 +2087,22 @@
         <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0391147306786813</v>
+        <v>0.0423701140535698</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0282759594921878</v>
+        <v>0.0280776878629392</v>
       </c>
       <c r="D15" t="n">
-        <v>4.29900877038191</v>
+        <v>3.95476824039458</v>
       </c>
       <c r="E15" t="n">
-        <v>0.275795016325414</v>
+        <v>0.274485517142469</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00595277671017075</v>
+        <v>0.00587893980480873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.279752117242741</v>
+        <v>0.2793380340337</v>
       </c>
     </row>
     <row r="16">
@@ -2110,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.06267564880478</v>
+        <v>-1.05960910406814</v>
       </c>
       <c r="C16" t="n">
-        <v>0.195683894151245</v>
+        <v>0.195121808803063</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.416271628785462</v>
+        <v>-0.41687631920014</v>
       </c>
       <c r="E16" t="n">
-        <v>0.756441402908469</v>
+        <v>0.755453378956373</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0249232376834989</v>
+        <v>0.024937935534345</v>
       </c>
       <c r="G16" t="n">
-        <v>0.208702157259568</v>
+        <v>0.209036719368491</v>
       </c>
     </row>
     <row r="17">
@@ -2133,22 +2133,22 @@
         <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.536586893645418</v>
+        <v>-0.535645337766522</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00894039576437009</v>
+        <v>0.00893271230863187</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.17621314865195</v>
+        <v>-0.176447026654177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.543182886328259</v>
+        <v>0.542721693206485</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00170747018608393</v>
+        <v>0.00166560832920002</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0760729899805874</v>
+        <v>0.075198514385983</v>
       </c>
     </row>
     <row r="18">
@@ -2156,22 +2156,22 @@
         <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.890752478466423</v>
+        <v>-0.894888497675871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.161980662041309</v>
+        <v>0.161757898418705</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.451829461259106</v>
+        <v>-0.44943182467723</v>
       </c>
       <c r="E18" t="n">
-        <v>0.69769255353148</v>
+        <v>0.699501438159156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0244688700449746</v>
+        <v>0.0244237336340899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.224203748530444</v>
+        <v>0.22341761723343</v>
       </c>
     </row>
     <row r="19">
@@ -2179,22 +2179,22 @@
         <v>46</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.760685870120514</v>
+        <v>-0.760282352545441</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0288256085304088</v>
+        <v>0.0288718349667657</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.223194707888276</v>
+        <v>-0.223492155125423</v>
       </c>
       <c r="E19" t="n">
-        <v>0.652749665269175</v>
+        <v>0.652543196648717</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00585851820768457</v>
+        <v>0.0058602404633831</v>
       </c>
       <c r="G19" t="n">
-        <v>0.117259282977705</v>
+        <v>0.117313624338641</v>
       </c>
     </row>
     <row r="20">
@@ -2202,22 +2202,22 @@
         <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.829900944878961</v>
+        <v>-0.827510641390786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19888297406515</v>
+        <v>0.19872203997676</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.537368919296124</v>
+        <v>-0.538703045855803</v>
       </c>
       <c r="E20" t="n">
-        <v>0.668151191454396</v>
+        <v>0.66721446179129</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0285587773312407</v>
+        <v>0.0285898621426531</v>
       </c>
       <c r="G20" t="n">
-        <v>0.252926921466871</v>
+        <v>0.253419820875456</v>
       </c>
     </row>
     <row r="21">
@@ -2225,22 +2225,22 @@
         <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.109647764830808</v>
+        <v>-0.111299443489618</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0493992169919563</v>
+        <v>0.0493725518087338</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.02703034197767</v>
+        <v>-1.99641026529106</v>
       </c>
       <c r="E21" t="n">
-        <v>0.337530114550105</v>
+        <v>0.338281243688988</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00950210617518359</v>
+        <v>0.00953847403909507</v>
       </c>
       <c r="G21" t="n">
-        <v>0.288800148780686</v>
+        <v>0.288709804342238</v>
       </c>
     </row>
     <row r="22">
@@ -2248,22 +2248,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.27716274343527</v>
+        <v>-1.27719664338427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0273397744227818</v>
+        <v>0.0272816813973832</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.129464656198968</v>
+        <v>-0.129323603658374</v>
       </c>
       <c r="E22" t="n">
-        <v>0.852608840996202</v>
+        <v>0.852601183765876</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00429886009402736</v>
+        <v>0.00429608096067172</v>
       </c>
       <c r="G22" t="n">
-        <v>0.076900085728349</v>
+        <v>0.0768759148878272</v>
       </c>
     </row>
     <row r="23">
@@ -2271,22 +2271,22 @@
         <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.01713493283163</v>
+        <v>-1.01684816053454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.034195017644078</v>
+        <v>0.0341885404916557</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.181803753741876</v>
+        <v>-0.181837802050891</v>
       </c>
       <c r="E23" t="n">
-        <v>0.761372164363943</v>
+        <v>0.761227767810803</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00633744708891412</v>
+        <v>0.0063465740416835</v>
       </c>
       <c r="G23" t="n">
-        <v>0.104558700783783</v>
+        <v>0.104653812363015</v>
       </c>
     </row>
     <row r="24">
@@ -2294,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.24281803807684</v>
+        <v>-1.24197692447033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0371094699097201</v>
+        <v>0.0375527149661536</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.155001116843259</v>
+        <v>-0.156029653329168</v>
       </c>
       <c r="E24" t="n">
-        <v>0.838617878963716</v>
+        <v>0.838334232173943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00654553189247616</v>
+        <v>0.00664373557824395</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0964735710280087</v>
+        <v>0.0972274664915545</v>
       </c>
     </row>
     <row r="25">
@@ -2317,22 +2317,22 @@
         <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.765277468917306</v>
+        <v>-0.762939735205989</v>
       </c>
       <c r="C25" t="n">
-        <v>0.153114725506172</v>
+        <v>0.153090606774088</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.511316200291621</v>
+        <v>-0.512842534589993</v>
       </c>
       <c r="E25" t="n">
-        <v>0.641477699194487</v>
+        <v>0.640430189951906</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0246941814814816</v>
+        <v>0.0247747840782932</v>
       </c>
       <c r="G25" t="n">
-        <v>0.24497160912792</v>
+        <v>0.245772418223118</v>
       </c>
     </row>
     <row r="26">
@@ -2340,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.595495141012168</v>
+        <v>-0.595711280896513</v>
       </c>
       <c r="C26" t="n">
-        <v>0.153231221211088</v>
+        <v>0.153575677885165</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.657348095825858</v>
+        <v>-0.657847753796017</v>
       </c>
       <c r="E26" t="n">
-        <v>0.567115415657789</v>
+        <v>0.567200968523003</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0263850107148297</v>
+        <v>0.0264542802575172</v>
       </c>
       <c r="G26" t="n">
-        <v>0.286422535382132</v>
+        <v>0.286755008001322</v>
       </c>
     </row>
     <row r="27">
@@ -2363,22 +2363,22 @@
         <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.721285884734505</v>
+        <v>-0.720649229217473</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0456182004035288</v>
+        <v>0.0456313585775109</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.296115841040004</v>
+        <v>-0.296420184408534</v>
       </c>
       <c r="E27" t="n">
-        <v>0.633025023447008</v>
+        <v>0.632691217253447</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00867420419191262</v>
+        <v>0.00869947825614396</v>
       </c>
       <c r="G27" t="n">
-        <v>0.147127529531462</v>
+        <v>0.147419453763259</v>
       </c>
     </row>
     <row r="28">
@@ -2386,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.04020198306283</v>
+        <v>-1.03911617473186</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0491222761065344</v>
+        <v>0.0489932141565446</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.21306963580269</v>
+        <v>-0.213011897423524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.770975177304965</v>
+        <v>0.770620567375887</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00917159942456226</v>
+        <v>0.00919670326087792</v>
       </c>
       <c r="G28" t="n">
-        <v>0.124217316741298</v>
+        <v>0.124444438087493</v>
       </c>
     </row>
     <row r="29">
@@ -2409,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.651162783814101</v>
+        <v>-0.650531685774579</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0393439696257518</v>
+        <v>0.0393494925705882</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.304613759655579</v>
+        <v>-0.304930673746389</v>
       </c>
       <c r="E29" t="n">
-        <v>0.598610531489526</v>
+        <v>0.598299457538447</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00836222521705017</v>
+        <v>0.00835729215534771</v>
       </c>
       <c r="G29" t="n">
-        <v>0.152762436587465</v>
+        <v>0.152796773341096</v>
       </c>
     </row>
     <row r="30">
@@ -2432,22 +2432,22 @@
         <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0824593629708374</v>
+        <v>-0.0839634633442441</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0349708388357081</v>
+        <v>0.0351281567013789</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.26784333362506</v>
+        <v>-2.23222175574624</v>
       </c>
       <c r="E30" t="n">
-        <v>0.322887924103554</v>
+        <v>0.323574529667149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00636983898711657</v>
+        <v>0.00647132282445419</v>
       </c>
       <c r="G30" t="n">
-        <v>0.247179485806772</v>
+        <v>0.248612066833299</v>
       </c>
     </row>
     <row r="31">
@@ -2455,22 +2455,22 @@
         <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.682653088241585</v>
+        <v>-0.67834161133713</v>
       </c>
       <c r="C31" t="n">
-        <v>0.17392690630143</v>
+        <v>0.173790411846305</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.610918570365339</v>
+        <v>-0.614560223134144</v>
       </c>
       <c r="E31" t="n">
-        <v>0.606384918679152</v>
+        <v>0.604578610152785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.030382614282043</v>
+        <v>0.0304049752990825</v>
       </c>
       <c r="G31" t="n">
-        <v>0.287451234812098</v>
+        <v>0.288416132953285</v>
       </c>
     </row>
     <row r="32">
@@ -2478,22 +2478,22 @@
         <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.677478291084886</v>
+        <v>-0.677019621179968</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0212740640969072</v>
+        <v>0.0212533323605689</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.21529296969031</v>
+        <v>-0.215333828244793</v>
       </c>
       <c r="E32" t="n">
-        <v>0.613989535346519</v>
+        <v>0.613758992600901</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00416912157383363</v>
+        <v>0.00416648890470769</v>
       </c>
       <c r="G32" t="n">
-        <v>0.10516259895118</v>
+        <v>0.105168879416914</v>
       </c>
     </row>
     <row r="33">
@@ -2501,22 +2501,22 @@
         <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.25394683169121</v>
+        <v>-1.25304169904659</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0354565907000385</v>
+        <v>0.0354519989553983</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.150165222716845</v>
+        <v>-0.150263963539711</v>
       </c>
       <c r="E33" t="n">
-        <v>0.842056242502954</v>
+        <v>0.841720104259675</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00708911752361471</v>
+        <v>0.00710801246358779</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0999896362043525</v>
+        <v>0.10016278466309</v>
       </c>
     </row>
     <row r="34">
@@ -2524,22 +2524,22 @@
         <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.13863346491633</v>
+        <v>-1.13689303529708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.049003830356707</v>
+        <v>0.0490697631371081</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.194415582149492</v>
+        <v>-0.194844151693067</v>
       </c>
       <c r="E34" t="n">
-        <v>0.80455298013245</v>
+        <v>0.8039293598234</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0104417497447724</v>
+        <v>0.0104391625705378</v>
       </c>
       <c r="G34" t="n">
-        <v>0.127008267621166</v>
+        <v>0.127091042144818</v>
       </c>
     </row>
     <row r="35">
@@ -2547,22 +2547,22 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.048515178344</v>
+        <v>-1.04985828771408</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168867121684636</v>
+        <v>0.168471826307332</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.391920363066034</v>
+        <v>-0.390960571581725</v>
       </c>
       <c r="E35" t="n">
-        <v>0.758824662264183</v>
+        <v>0.759331251744945</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0223640646845627</v>
+        <v>0.0222973504909281</v>
       </c>
       <c r="G35" t="n">
-        <v>0.19707608787369</v>
+        <v>0.196650636216398</v>
       </c>
     </row>
     <row r="36">
@@ -2570,22 +2570,22 @@
         <v>63</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.56923497090247</v>
+        <v>-1.5691868650649</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0626279086644851</v>
+        <v>0.0622869163152465</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.159476236011867</v>
+        <v>-0.159046366197053</v>
       </c>
       <c r="E36" t="n">
-        <v>0.919779411764706</v>
+        <v>0.919756433823529</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00679122061716892</v>
+        <v>0.00676623802739444</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0895963330311409</v>
+        <v>0.0894336182143679</v>
       </c>
     </row>
     <row r="37">
@@ -2593,22 +2593,22 @@
         <v>64</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453836089081537</v>
+        <v>0.455125199939431</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00820521179702756</v>
+        <v>0.00822617647100379</v>
       </c>
       <c r="D37" t="n">
-        <v>0.19959325916214</v>
+        <v>0.199282025277523</v>
       </c>
       <c r="E37" t="n">
-        <v>0.12803277784167</v>
+        <v>0.127722272936825</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00113545674086452</v>
+        <v>0.00107813052599585</v>
       </c>
       <c r="G37" t="n">
-        <v>0.263186814910117</v>
+        <v>0.257080438945595</v>
       </c>
     </row>
     <row r="38">
@@ -2616,22 +2616,22 @@
         <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.830862032702937</v>
+        <v>-0.82752666230816</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174528252934727</v>
+        <v>0.174294140251905</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.502810058388236</v>
+        <v>-0.504497940756749</v>
       </c>
       <c r="E38" t="n">
-        <v>0.671676217765043</v>
+        <v>0.670229226361032</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0274070526845531</v>
+        <v>0.0274212422411864</v>
       </c>
       <c r="G38" t="n">
-        <v>0.246474046923119</v>
+        <v>0.247070105516454</v>
       </c>
     </row>
     <row r="39">
@@ -2639,22 +2639,22 @@
         <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>0.446309226666452</v>
+        <v>0.44681361138354</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0115182607325534</v>
+        <v>0.0114867195453084</v>
       </c>
       <c r="D39" t="n">
-        <v>0.240468163927337</v>
+        <v>0.239867613453826</v>
       </c>
       <c r="E39" t="n">
-        <v>0.131062426537734</v>
+        <v>0.130955926166727</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0014539579971734</v>
+        <v>0.00143232589288756</v>
       </c>
       <c r="G39" t="n">
-        <v>0.290936175746289</v>
+        <v>0.288998617422487</v>
       </c>
     </row>
     <row r="40">
@@ -2662,22 +2662,22 @@
         <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>0.456435054070009</v>
+        <v>0.461434253904263</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0117454543062451</v>
+        <v>0.011720892689805</v>
       </c>
       <c r="D40" t="n">
-        <v>0.237441112874496</v>
+        <v>0.234622962567189</v>
       </c>
       <c r="E40" t="n">
-        <v>0.163945267958951</v>
+        <v>0.162839224629418</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000499196552853943</v>
+        <v>0.00044701142721182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.136281499342962</v>
+        <v>0.129837542536453</v>
       </c>
     </row>
     <row r="41">
@@ -2685,22 +2685,22 @@
         <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>0.598455304338093</v>
+        <v>0.574723290654715</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0120926754279409</v>
+        <v>0.0113164415347658</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183750901117497</v>
+        <v>0.185095621182231</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0915102305943488</v>
+        <v>0.0966677492692433</v>
       </c>
       <c r="F41" t="n">
-        <v>0.000731828469234063</v>
+        <v>0.000809562134338146</v>
       </c>
       <c r="G41" t="n">
-        <v>0.295620808468485</v>
+        <v>0.294336069694062</v>
       </c>
     </row>
     <row r="42">
@@ -2708,22 +2708,22 @@
         <v>69</v>
       </c>
       <c r="B42" t="n">
-        <v>0.383384474423342</v>
+        <v>0.382731566980527</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00172532280536549</v>
+        <v>0.00172497651532797</v>
       </c>
       <c r="D42" t="n">
-        <v>0.108342950807304</v>
+        <v>0.108516882783054</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141542222086649</v>
+        <v>0.141751529666446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000267429401312426</v>
+        <v>0.000251826205191791</v>
       </c>
       <c r="G42" t="n">
-        <v>0.115536329622611</v>
+        <v>0.111949641303147</v>
       </c>
     </row>
     <row r="43">
@@ -2731,22 +2731,22 @@
         <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>0.387469800443593</v>
+        <v>0.38651560865673</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00116154157998239</v>
+        <v>0.00115052382267729</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0879588457017908</v>
+        <v>0.0877567984854159</v>
       </c>
       <c r="E43" t="n">
-        <v>0.141097590004377</v>
+        <v>0.141396463271867</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000194605896466105</v>
+        <v>0.000177593548845619</v>
       </c>
       <c r="G43" t="n">
-        <v>0.098868603894457</v>
+        <v>0.0942486300524069</v>
       </c>
     </row>
     <row r="44">
@@ -2754,22 +2754,22 @@
         <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.969985309164638</v>
+        <v>-0.967226956123129</v>
       </c>
       <c r="C44" t="n">
-        <v>0.108435178586785</v>
+        <v>0.108598615468518</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.339484494138464</v>
+        <v>-0.340709115169224</v>
       </c>
       <c r="E44" t="n">
-        <v>0.726056891185465</v>
+        <v>0.725019914641885</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0159181653435897</v>
+        <v>0.0159747408524001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.173770421260568</v>
+        <v>0.174327930680161</v>
       </c>
     </row>
     <row r="45">
@@ -2777,22 +2777,22 @@
         <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.847002881139757</v>
+        <v>-0.849063845239838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0430134091202193</v>
+        <v>0.0432636768314782</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.244859548758386</v>
+        <v>-0.24497477347229</v>
       </c>
       <c r="E45" t="n">
-        <v>0.687462077538369</v>
+        <v>0.688288131544798</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00588778931685419</v>
+        <v>0.00583921447631667</v>
       </c>
       <c r="G45" t="n">
-        <v>0.111616238975987</v>
+        <v>0.111021459617838</v>
       </c>
     </row>
     <row r="46">
@@ -2800,22 +2800,22 @@
         <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.784050414740939</v>
+        <v>-0.784669640632564</v>
       </c>
       <c r="C46" t="n">
-        <v>0.185747529823058</v>
+        <v>0.186056462747765</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.549689618114317</v>
+        <v>-0.549712395745203</v>
       </c>
       <c r="E46" t="n">
-        <v>0.649571057183112</v>
+        <v>0.649843818155112</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0303164464620845</v>
+        <v>0.030356148331</v>
       </c>
       <c r="G46" t="n">
-        <v>0.26804794448448</v>
+        <v>0.268110820179492</v>
       </c>
     </row>
     <row r="47">
@@ -2823,22 +2823,22 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.959143308585106</v>
+        <v>-0.959468330587667</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00829155054976133</v>
+        <v>0.0083011677120668</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0949367532316704</v>
+        <v>-0.0949596159810647</v>
       </c>
       <c r="E47" t="n">
-        <v>0.741460010735373</v>
+        <v>0.741569511540526</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00171726104675938</v>
+        <v>0.00172164757374518</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0558895259850605</v>
+        <v>0.0559525986058095</v>
       </c>
     </row>
     <row r="48">
@@ -2846,22 +2846,22 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.981925735423055</v>
+        <v>-0.981417622554971</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0421468096081201</v>
+        <v>0.042093677487192</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.209075772460808</v>
+        <v>-0.20905212314532</v>
       </c>
       <c r="E48" t="n">
-        <v>0.745002606882169</v>
+        <v>0.744796663190824</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00812693850153613</v>
+        <v>0.0081291345534824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.121005662643797</v>
+        <v>0.121055474335387</v>
       </c>
     </row>
     <row r="49">
@@ -2869,22 +2869,22 @@
         <v>76</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.651220356305073</v>
+        <v>-0.651001003063635</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0483159797859163</v>
+        <v>0.0480974665252021</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.337533923648851</v>
+        <v>-0.336883269090357</v>
       </c>
       <c r="E49" t="n">
-        <v>0.600131351563252</v>
+        <v>0.600022697358654</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00695373195576328</v>
+        <v>0.00690659914561477</v>
       </c>
       <c r="G49" t="n">
-        <v>0.13895131384951</v>
+        <v>0.138504679390842</v>
       </c>
     </row>
     <row r="50">
@@ -2892,22 +2892,22 @@
         <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.30992760932763</v>
+        <v>-1.30858019199913</v>
       </c>
       <c r="C50" t="n">
-        <v>0.042206354842253</v>
+        <v>0.0423010835958231</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.15683450844201</v>
+        <v>-0.157172081286471</v>
       </c>
       <c r="E50" t="n">
-        <v>0.860025526483727</v>
+        <v>0.859636247606892</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00576245400692082</v>
+        <v>0.00582499242920657</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0882657862760515</v>
+        <v>0.0887836433455483</v>
       </c>
     </row>
     <row r="51">
@@ -2915,22 +2915,22 @@
         <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.01686601988874</v>
+        <v>-1.01930883878607</v>
       </c>
       <c r="C51" t="n">
-        <v>0.191394835870235</v>
+        <v>0.190738164534987</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.430230675948494</v>
+        <v>-0.428462689340567</v>
       </c>
       <c r="E51" t="n">
-        <v>0.744655315614618</v>
+        <v>0.745701827242525</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02542954876826</v>
+        <v>0.0252939735581699</v>
       </c>
       <c r="G51" t="n">
-        <v>0.214148005052384</v>
+        <v>0.213276656043804</v>
       </c>
     </row>
     <row r="52">
@@ -2938,22 +2938,22 @@
         <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.3223385994879</v>
+        <v>-1.32266789751538</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0432185651113229</v>
+        <v>0.0431457664746536</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.15721446300391</v>
+        <v>-0.157042890918184</v>
       </c>
       <c r="E52" t="n">
-        <v>0.862058896511391</v>
+        <v>0.862131940485039</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0061785714593491</v>
+        <v>0.00615763383364915</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0911815769344446</v>
+        <v>0.0910192378604975</v>
       </c>
     </row>
     <row r="53">
@@ -2961,22 +2961,22 @@
         <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.849951595274153</v>
+        <v>-0.850262363570666</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0304437622811791</v>
+        <v>0.0303890579699106</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.205283936788472</v>
+        <v>-0.205024453584195</v>
       </c>
       <c r="E53" t="n">
-        <v>0.693908270312604</v>
+        <v>0.694021378487315</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00479718796815299</v>
+        <v>0.00477420423699458</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0998139641809016</v>
+        <v>0.0995583403743099</v>
       </c>
     </row>
     <row r="54">
@@ -2984,22 +2984,22 @@
         <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.914782874245571</v>
+        <v>-0.91624901928676</v>
       </c>
       <c r="C54" t="n">
-        <v>0.18439088371311</v>
+        <v>0.183450271215351</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.469409308301022</v>
+        <v>-0.46746129330726</v>
       </c>
       <c r="E54" t="n">
-        <v>0.701092444016892</v>
+        <v>0.701622589929828</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0268392457585232</v>
+        <v>0.026667877841053</v>
       </c>
       <c r="G54" t="n">
-        <v>0.233673717065068</v>
+        <v>0.23275052276868</v>
       </c>
     </row>
     <row r="55">
@@ -3007,22 +3007,22 @@
         <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.52857586533034</v>
+        <v>-1.52862358473889</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0344967321357727</v>
+        <v>0.0344782747854739</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.121507190725412</v>
+        <v>-0.121470888283116</v>
       </c>
       <c r="E55" t="n">
         <v>0.914361549517004</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00541097438270216</v>
+        <v>0.00539549355962033</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0804488395631781</v>
+        <v>0.080333674878888</v>
       </c>
     </row>
     <row r="56">
@@ -3030,22 +3030,22 @@
         <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.411532324023104</v>
+        <v>-0.411827101740961</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0256285636910627</v>
+        <v>0.025669997981062</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.389007684948332</v>
+        <v>-0.38904334777891</v>
       </c>
       <c r="E56" t="n">
-        <v>0.481941543498581</v>
+        <v>0.482095872637197</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0047826604791565</v>
+        <v>0.00478633642241242</v>
       </c>
       <c r="G56" t="n">
-        <v>0.143496203651347</v>
+        <v>0.143505384670984</v>
       </c>
     </row>
     <row r="57">
@@ -3053,22 +3053,22 @@
         <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.54109808651095</v>
+        <v>-1.5405404569393</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0417413673197546</v>
+        <v>0.041659197565813</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.132572380412049</v>
+        <v>-0.132489768773444</v>
       </c>
       <c r="E57" t="n">
-        <v>0.914120508562793</v>
+        <v>0.913986062465318</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00615215544036087</v>
+        <v>0.00614709443641867</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0858045261581609</v>
+        <v>0.0857818423510332</v>
       </c>
     </row>
     <row r="58">
@@ -3076,22 +3076,22 @@
         <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.82087231543326</v>
+        <v>-0.820861891536739</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301615042189919</v>
+        <v>0.0300638735504225</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.211568442767992</v>
+        <v>-0.211228431434201</v>
       </c>
       <c r="E58" t="n">
-        <v>0.680379663192506</v>
+        <v>0.680371142366181</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00514994109422881</v>
+        <v>0.00514591135442443</v>
       </c>
       <c r="G58" t="n">
-        <v>0.105475066256651</v>
+        <v>0.105435112404563</v>
       </c>
     </row>
     <row r="59">
@@ -3099,22 +3099,22 @@
         <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.08000013984775</v>
+        <v>-1.07971946112153</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16407295652827</v>
+        <v>0.164181768398807</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.375054767419436</v>
+        <v>-0.375276643239897</v>
       </c>
       <c r="E59" t="n">
-        <v>0.768444768425227</v>
+        <v>0.768324125323905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0152667827420993</v>
+        <v>0.0152924784070387</v>
       </c>
       <c r="G59" t="n">
-        <v>0.160790766078178</v>
+        <v>0.160951292192262</v>
       </c>
     </row>
     <row r="60">
@@ -3122,22 +3122,22 @@
         <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.4377696830097</v>
+        <v>-1.43760521511226</v>
       </c>
       <c r="C60" t="n">
-        <v>0.037095669304548</v>
+        <v>0.0370648282380173</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.13395911936748</v>
+        <v>-0.13391874057256</v>
       </c>
       <c r="E60" t="n">
-        <v>0.891976592977893</v>
+        <v>0.891915908105765</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00595372794283018</v>
+        <v>0.0059538460278728</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0865049650299286</v>
+        <v>0.0865117086375486</v>
       </c>
     </row>
     <row r="61">
@@ -3145,22 +3145,22 @@
         <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.05052838273666</v>
+        <v>-1.05099080027127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0305744795341342</v>
+        <v>0.030743059113327</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.166445380350301</v>
+        <v>-0.166830182765365</v>
       </c>
       <c r="E61" t="n">
-        <v>0.77060121708829</v>
+        <v>0.770735556895268</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00340726378614345</v>
+        <v>0.00344359930922038</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0757483519030819</v>
+        <v>0.0761379029472324</v>
       </c>
     </row>
     <row r="62">
@@ -3168,22 +3168,22 @@
         <v>89</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.23442053052108</v>
+        <v>-1.23670377158733</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173038132946175</v>
+        <v>0.174206137091416</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.336982830677467</v>
+        <v>-0.337493987379771</v>
       </c>
       <c r="E62" t="n">
-        <v>0.818618078561287</v>
+        <v>0.819327969711311</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0150638202248537</v>
+        <v>0.0150800849212468</v>
       </c>
       <c r="G62" t="n">
-        <v>0.149929202377025</v>
+        <v>0.149880147843075</v>
       </c>
     </row>
     <row r="63">
@@ -3191,22 +3191,22 @@
         <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.549613435433486</v>
+        <v>-0.55007522898537</v>
       </c>
       <c r="C63" t="n">
-        <v>0.00340408806746114</v>
+        <v>0.00342211819584549</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.10615563511613</v>
+        <v>-0.106347041959735</v>
       </c>
       <c r="E63" t="n">
-        <v>0.54997357772399</v>
+        <v>0.550200421732309</v>
       </c>
       <c r="F63" t="n">
-        <v>0.000705944958918805</v>
+        <v>0.000715200821878664</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0483107294931002</v>
+        <v>0.048606358247818</v>
       </c>
     </row>
     <row r="64">
@@ -3214,22 +3214,22 @@
         <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.5244612424692</v>
+        <v>-1.52500962438685</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0516840098881352</v>
+        <v>0.0517954136340372</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.149128865168659</v>
+        <v>-0.149235817272774</v>
       </c>
       <c r="E64" t="n">
-        <v>0.909457553566585</v>
+        <v>0.909558991049634</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00534270739783502</v>
+        <v>0.00534288550117777</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0803707943303175</v>
+        <v>0.0803631705243948</v>
       </c>
     </row>
     <row r="65">
@@ -3237,22 +3237,22 @@
         <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.32653886072164</v>
+        <v>-1.32716925060568</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0250326314286103</v>
+        <v>0.025127491933224</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.119270564685732</v>
+        <v>-0.119439577983071</v>
       </c>
       <c r="E65" t="n">
-        <v>0.862846888462431</v>
+        <v>0.862976863724108</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00333008982834073</v>
+        <v>0.00332538395810256</v>
       </c>
       <c r="G65" t="n">
-        <v>0.066879687783435</v>
+        <v>0.0668223502161775</v>
       </c>
     </row>
     <row r="66">
@@ -3260,22 +3260,22 @@
         <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.27433455991812</v>
+        <v>-1.27340097884464</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0416323827960152</v>
+        <v>0.0416030074880391</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1601150564212</v>
+        <v>-0.160175904142273</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8429400660689</v>
+        <v>0.842661632845682</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00592517358876441</v>
+        <v>0.00596303700134583</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0913174640311222</v>
+        <v>0.0916390401333927</v>
       </c>
     </row>
     <row r="67">
@@ -3283,22 +3283,22 @@
         <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.26602969083831</v>
+        <v>-1.26227532894564</v>
       </c>
       <c r="C67" t="n">
-        <v>0.145767561834004</v>
+        <v>0.145148140788257</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.301568901469826</v>
+        <v>-0.301822522617562</v>
       </c>
       <c r="E67" t="n">
-        <v>0.830618217604554</v>
+        <v>0.829552681564935</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0158124546608568</v>
+        <v>0.0158768676015886</v>
       </c>
       <c r="G67" t="n">
-        <v>0.151390350531898</v>
+        <v>0.151893237905889</v>
       </c>
     </row>
     <row r="68">
@@ -3306,22 +3306,22 @@
         <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.840132450798828</v>
+        <v>-0.840255101878882</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0211103880112531</v>
+        <v>0.0217362966603407</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.172941948539933</v>
+        <v>-0.175461411320629</v>
       </c>
       <c r="E68" t="n">
-        <v>0.68810821649803</v>
+        <v>0.688153415095464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00286112240700909</v>
+        <v>0.00293756613583817</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0777340822666986</v>
+        <v>0.0787605167729799</v>
       </c>
     </row>
     <row r="69">
@@ -3329,22 +3329,22 @@
         <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.782400047930068</v>
+        <v>-0.78287228160747</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0455046150392705</v>
+        <v>0.0458847521260197</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.272645826372304</v>
+        <v>-0.2736171268833</v>
       </c>
       <c r="E69" t="n">
-        <v>0.658440701510679</v>
+        <v>0.658623520948577</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00453675718550515</v>
+        <v>0.00462168372204511</v>
       </c>
       <c r="G69" t="n">
-        <v>0.102295398598548</v>
+        <v>0.103219767057714</v>
       </c>
     </row>
     <row r="70">
@@ -3352,22 +3352,22 @@
         <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.2455108923264</v>
+        <v>-1.24575494478906</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0493041366279484</v>
+        <v>0.0491679758305972</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.178276520504173</v>
+        <v>-0.177995304174638</v>
       </c>
       <c r="E70" t="n">
-        <v>0.836931156222228</v>
+        <v>0.836980816303346</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00503693345677301</v>
+        <v>0.00500669333499227</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0847995155470308</v>
+        <v>0.0845395616448271</v>
       </c>
     </row>
     <row r="71">
@@ -3375,22 +3375,22 @@
         <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.980174986539507</v>
+        <v>-0.98298053009883</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0469528301745195</v>
+        <v>0.0468636340561636</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.221068707591016</v>
+        <v>-0.220228269231411</v>
       </c>
       <c r="E71" t="n">
-        <v>0.743026956150105</v>
+        <v>0.744082034244861</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00653591557496822</v>
+        <v>0.00645012798391839</v>
       </c>
       <c r="G71" t="n">
-        <v>0.108804948349298</v>
+        <v>0.107935261320576</v>
       </c>
     </row>
     <row r="72">
@@ -3398,22 +3398,22 @@
         <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.09907909566021</v>
+        <v>-1.09911799153495</v>
       </c>
       <c r="C72" t="n">
-        <v>0.161023097353014</v>
+        <v>0.159826019897578</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.365102780495974</v>
+        <v>-0.363730253530117</v>
       </c>
       <c r="E72" t="n">
-        <v>0.772875708884688</v>
+        <v>0.772908790170132</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0189640332456087</v>
+        <v>0.0188487341608159</v>
       </c>
       <c r="G72" t="n">
-        <v>0.178178663149338</v>
+        <v>0.177628581705525</v>
       </c>
     </row>
     <row r="73">
@@ -3421,22 +3421,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.08735020813107</v>
+        <v>-1.07887824917342</v>
       </c>
       <c r="C73" t="n">
-        <v>0.165521058868557</v>
+        <v>0.165464541947955</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.374159852786717</v>
+        <v>-0.377033581174289</v>
       </c>
       <c r="E73" t="n">
-        <v>0.769463363591059</v>
+        <v>0.76676781493148</v>
       </c>
       <c r="F73" t="n">
-        <v>0.023469794576641</v>
+        <v>0.0235692282950493</v>
       </c>
       <c r="G73" t="n">
-        <v>0.199097908374144</v>
+        <v>0.200220622110667</v>
       </c>
     </row>
     <row r="74">
@@ -3444,22 +3444,22 @@
         <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.748603242781369</v>
+        <v>-0.746523886644483</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0452789668739576</v>
+        <v>0.0451598703459403</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.284247432441178</v>
+        <v>-0.284664057094674</v>
       </c>
       <c r="E74" t="n">
-        <v>0.644886144345812</v>
+        <v>0.64390968737939</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00712413704669893</v>
+        <v>0.00716210405940106</v>
       </c>
       <c r="G74" t="n">
-        <v>0.13088295348214</v>
+        <v>0.131430256173307</v>
       </c>
     </row>
     <row r="75">
@@ -3467,22 +3467,22 @@
         <v>102</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.906861253711256</v>
+        <v>-0.905494648640458</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0449716314819284</v>
+        <v>0.0450060918357506</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.233845208082595</v>
+        <v>-0.234287847844424</v>
       </c>
       <c r="E75" t="n">
-        <v>0.713603179275832</v>
+        <v>0.712984986753017</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00762191060355685</v>
+        <v>0.00767692306290447</v>
       </c>
       <c r="G75" t="n">
-        <v>0.122341879763892</v>
+        <v>0.122889056263279</v>
       </c>
     </row>
     <row r="76">
@@ -3490,22 +3490,22 @@
         <v>103</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.767439219382558</v>
+        <v>-0.766410846831795</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0384538297010887</v>
+        <v>0.0385309999946861</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.25552053588178</v>
+        <v>-0.256120002634107</v>
       </c>
       <c r="E76" t="n">
-        <v>0.652381283298587</v>
+        <v>0.651987491313412</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00565737834975247</v>
+        <v>0.00569808983043963</v>
       </c>
       <c r="G76" t="n">
-        <v>0.11529384404018</v>
+        <v>0.115777823794858</v>
       </c>
     </row>
     <row r="77">
@@ -3513,22 +3513,22 @@
         <v>104</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.02340438559839</v>
+        <v>-1.01863245714521</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176807841718333</v>
+        <v>0.176233121712406</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.41086910654181</v>
+        <v>-0.412122434760146</v>
       </c>
       <c r="E77" t="n">
-        <v>0.73605538671056</v>
+        <v>0.734323685395214</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0244573301747512</v>
+        <v>0.0245070053022489</v>
       </c>
       <c r="G77" t="n">
-        <v>0.212468243684356</v>
+        <v>0.21318546242797</v>
       </c>
     </row>
     <row r="78">
@@ -3536,22 +3536,22 @@
         <v>105</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.59322143598171</v>
+        <v>-0.592397165975357</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0419477110426717</v>
+        <v>0.0419513327738894</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.345252870467078</v>
+        <v>-0.345748185159086</v>
       </c>
       <c r="E78" t="n">
-        <v>0.571642271662763</v>
+        <v>0.571293911007026</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00623431068160098</v>
+        <v>0.00629088566495868</v>
       </c>
       <c r="G78" t="n">
-        <v>0.138124234517053</v>
+        <v>0.138834148428534</v>
       </c>
     </row>
     <row r="79">
@@ -3559,22 +3559,22 @@
         <v>106</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.250099754163251</v>
+        <v>-0.250370141094267</v>
       </c>
       <c r="C79" t="n">
-        <v>0.00322643357830239</v>
+        <v>0.0032376276668499</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.227116192892036</v>
+        <v>-0.227264141785547</v>
       </c>
       <c r="E79" t="n">
-        <v>0.398529301232559</v>
+        <v>0.398670719698591</v>
       </c>
       <c r="F79" t="n">
-        <v>0.000693980214461767</v>
+        <v>0.000704318509947336</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0661018001339117</v>
+        <v>0.0665687207022126</v>
       </c>
     </row>
     <row r="80">
@@ -3582,22 +3582,22 @@
         <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.64523119332239</v>
+        <v>-0.644343806451237</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0224918388119769</v>
+        <v>0.0225306983103619</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.232432646041789</v>
+        <v>-0.232953729544634</v>
       </c>
       <c r="E80" t="n">
-        <v>0.596529288303759</v>
+        <v>0.596019366533104</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00365289135561336</v>
+        <v>0.00369124208246246</v>
       </c>
       <c r="G80" t="n">
-        <v>0.10131799954394</v>
+        <v>0.101935602138623</v>
       </c>
     </row>
     <row r="81">
@@ -3605,22 +3605,22 @@
         <v>108</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.824601098567297</v>
+        <v>-0.824138320243293</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0413986865431813</v>
+        <v>0.0413743144372859</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.246745574530068</v>
+        <v>-0.246811446425282</v>
       </c>
       <c r="E81" t="n">
-        <v>0.68055775401049</v>
+        <v>0.680303639857129</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00619943274917705</v>
+        <v>0.00622368469843128</v>
       </c>
       <c r="G81" t="n">
-        <v>0.11569404087663</v>
+        <v>0.115963415073756</v>
       </c>
     </row>
     <row r="82">
@@ -3628,22 +3628,22 @@
         <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.773952148038223</v>
+        <v>-0.774049118181402</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0509248983207622</v>
+        <v>0.0509411190558498</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.291575463951484</v>
+        <v>-0.291585363590779</v>
       </c>
       <c r="E82" t="n">
-        <v>0.657229500242601</v>
+        <v>0.657248908296943</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00633736711092319</v>
+        <v>0.00632884066956793</v>
       </c>
       <c r="G82" t="n">
-        <v>0.121126002354677</v>
+        <v>0.121040917705564</v>
       </c>
     </row>
     <row r="83">
@@ -3651,22 +3651,22 @@
         <v>110</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.858123813408274</v>
+        <v>-0.855838851720549</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0394444917847065</v>
+        <v>0.0395160834439819</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.23144256210444</v>
+        <v>-0.232270978257716</v>
       </c>
       <c r="E83" t="n">
-        <v>0.693064740214015</v>
+        <v>0.692111629251882</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00712733987720831</v>
+        <v>0.00721379669470117</v>
       </c>
       <c r="G83" t="n">
-        <v>0.12181195966373</v>
+        <v>0.122717303173726</v>
       </c>
     </row>
     <row r="84">
@@ -3674,22 +3674,22 @@
         <v>111</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.959470120872694</v>
+        <v>-0.95771103410616</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0506933993054255</v>
+        <v>0.0506815237891166</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.234662802157077</v>
+        <v>-0.235066283421151</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7368466046319</v>
+        <v>0.736137694839305</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0078215115280037</v>
+        <v>0.0079245596804587</v>
       </c>
       <c r="G84" t="n">
-        <v>0.120024044762072</v>
+        <v>0.120928457519043</v>
       </c>
     </row>
     <row r="85">
@@ -3697,22 +3697,22 @@
         <v>112</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0419137986461295</v>
+        <v>0.0435844750558531</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0500774256599657</v>
+        <v>0.0500542795268542</v>
       </c>
       <c r="D85" t="n">
-        <v>5.33904983671104</v>
+        <v>5.13320711681641</v>
       </c>
       <c r="E85" t="n">
-        <v>0.272026242202624</v>
+        <v>0.271415358141536</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0104213299991982</v>
+        <v>0.0104569645040085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.37527598368259</v>
+        <v>0.376763131719348</v>
       </c>
     </row>
     <row r="86">
@@ -3720,22 +3720,22 @@
         <v>113</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.626751840878983</v>
+        <v>-0.628470083168396</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0377144652487495</v>
+        <v>0.036809672810819</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.309854893214727</v>
+        <v>-0.305278605808547</v>
       </c>
       <c r="E86" t="n">
-        <v>0.585581218449623</v>
+        <v>0.586403429914944</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00747074669457714</v>
+        <v>0.00729267570443266</v>
       </c>
       <c r="G86" t="n">
-        <v>0.147602891973577</v>
+        <v>0.145628692027215</v>
       </c>
     </row>
     <row r="87">
@@ -3743,22 +3743,22 @@
         <v>114</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.368666374899818</v>
+        <v>-0.367057128921092</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0371706091626844</v>
+        <v>0.0370957584466606</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.522957397512807</v>
+        <v>-0.524721022501673</v>
       </c>
       <c r="E87" t="n">
-        <v>0.460467226890756</v>
+        <v>0.459653781512605</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00773828258535414</v>
+        <v>0.00771326173213756</v>
       </c>
       <c r="G87" t="n">
-        <v>0.191039673518765</v>
+        <v>0.191068105233667</v>
       </c>
     </row>
     <row r="88">
@@ -3766,22 +3766,22 @@
         <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.403721225288766</v>
+        <v>-0.397010397416932</v>
       </c>
       <c r="C88" t="n">
-        <v>0.152576967808443</v>
+        <v>0.153131054161832</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.967526585368907</v>
+        <v>-0.985665952973209</v>
       </c>
       <c r="E88" t="n">
-        <v>0.479629372249247</v>
+        <v>0.476745425063702</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0280565713232788</v>
+        <v>0.0281809079660874</v>
       </c>
       <c r="G88" t="n">
-        <v>0.349229986449153</v>
+        <v>0.352120213605803</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +3789,22 @@
         <v>116</v>
       </c>
       <c r="B89" t="n">
-        <v>0.273044309522359</v>
+        <v>0.272418507746349</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00452936156698406</v>
+        <v>0.00452110517052598</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24648208862821</v>
+        <v>0.246823039006669</v>
       </c>
       <c r="E89" t="n">
-        <v>0.178825741743636</v>
+        <v>0.179063689702395</v>
       </c>
       <c r="F89" t="n">
-        <v>0.000494374237830323</v>
+        <v>0.000517407089949552</v>
       </c>
       <c r="G89" t="n">
-        <v>0.124336283122563</v>
+        <v>0.127030690453539</v>
       </c>
     </row>
     <row r="90">
@@ -3812,22 +3812,22 @@
         <v>117</v>
       </c>
       <c r="B90" t="n">
-        <v>0.434183353545378</v>
+        <v>0.434817190893841</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0567741250553126</v>
+        <v>0.0567507750920744</v>
       </c>
       <c r="D90" t="n">
-        <v>0.548784777672573</v>
+        <v>0.547872109930624</v>
       </c>
       <c r="E90" t="n">
-        <v>0.13916735366859</v>
+        <v>0.139035449299258</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0103003812289402</v>
+        <v>0.0102593795100572</v>
       </c>
       <c r="G90" t="n">
-        <v>0.729271565049755</v>
+        <v>0.728509136866279</v>
       </c>
     </row>
     <row r="91">
@@ -3835,22 +3835,22 @@
         <v>118</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.537463090463463</v>
+        <v>-0.536117700613521</v>
       </c>
       <c r="C91" t="n">
-        <v>0.140921672186733</v>
+        <v>0.140301208061425</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.698457924217675</v>
+        <v>-0.69866752802146</v>
       </c>
       <c r="E91" t="n">
-        <v>0.543697260735952</v>
+        <v>0.543022736263481</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0253941350740963</v>
+        <v>0.0252916191345229</v>
       </c>
       <c r="G91" t="n">
-        <v>0.293095781498133</v>
+        <v>0.292866908470798</v>
       </c>
     </row>
     <row r="92">
@@ -3858,22 +3858,22 @@
         <v>119</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.16505406737697</v>
+        <v>-1.16387048471652</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0484272972615191</v>
+        <v>0.0480397080712909</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.188885680628728</v>
+        <v>-0.188319600854451</v>
       </c>
       <c r="E92" t="n">
-        <v>0.813736128236745</v>
+        <v>0.813295314426634</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0100683386153665</v>
+        <v>0.0100219011781781</v>
       </c>
       <c r="G92" t="n">
-        <v>0.123309151222878</v>
+        <v>0.123091138265482</v>
       </c>
     </row>
     <row r="93">
@@ -3881,22 +3881,22 @@
         <v>120</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.391700502592054</v>
+        <v>-0.390520728350538</v>
       </c>
       <c r="C93" t="n">
-        <v>0.180705416723813</v>
+        <v>0.180637644246182</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.08525415354203</v>
+        <v>-1.08832859428122</v>
       </c>
       <c r="E93" t="n">
-        <v>0.473207584436105</v>
+        <v>0.472662453091053</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0312894570451029</v>
+        <v>0.0312543008056614</v>
       </c>
       <c r="G93" t="n">
-        <v>0.373806902690695</v>
+        <v>0.374027719437792</v>
       </c>
     </row>
     <row r="94">
@@ -3904,22 +3904,22 @@
         <v>121</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.775262737340545</v>
+        <v>-0.773991102214408</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0365422738742302</v>
+        <v>0.0365661976768727</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.246574904619838</v>
+        <v>-0.24706085115985</v>
       </c>
       <c r="E94" t="n">
-        <v>0.657194327328478</v>
+        <v>0.656607895745496</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00726614556299721</v>
+        <v>0.00726372748164688</v>
       </c>
       <c r="G94" t="n">
-        <v>0.129705454793636</v>
+        <v>0.129799694471973</v>
       </c>
     </row>
     <row r="95">
@@ -3927,22 +3927,22 @@
         <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.540732988366705</v>
+        <v>-0.538599579636063</v>
       </c>
       <c r="C95" t="n">
-        <v>0.162811321775799</v>
+        <v>0.161893654612789</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.746207201083246</v>
+        <v>-0.747048681164139</v>
       </c>
       <c r="E95" t="n">
-        <v>0.541351604712712</v>
+        <v>0.540423836659297</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0291409725105571</v>
+        <v>0.0289939171338031</v>
       </c>
       <c r="G95" t="n">
-        <v>0.31533530134383</v>
+        <v>0.315078631366606</v>
       </c>
     </row>
     <row r="96">
@@ -3950,22 +3950,22 @@
         <v>123</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.09480497385966</v>
+        <v>-1.09372534998015</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0355218136594564</v>
+        <v>0.0357326701854713</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.172151497176385</v>
+        <v>-0.172832120046187</v>
       </c>
       <c r="E96" t="n">
-        <v>0.788268187815548</v>
+        <v>0.787836441810228</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00812656741868498</v>
+        <v>0.00818053859744845</v>
       </c>
       <c r="G96" t="n">
-        <v>0.114361428426611</v>
+        <v>0.114803435241204</v>
       </c>
     </row>
     <row r="97">
@@ -3973,22 +3973,22 @@
         <v>124</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.851942556912089</v>
+        <v>-0.851342663150616</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0347167494483102</v>
+        <v>0.034709564968879</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.218705253119695</v>
+        <v>-0.218836715365779</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6921601625421</v>
+        <v>0.69184576804803</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00680506001121421</v>
+        <v>0.00680478794713302</v>
       </c>
       <c r="G97" t="n">
-        <v>0.119181646237078</v>
+        <v>0.119233422255899</v>
       </c>
     </row>
     <row r="98">
@@ -3996,22 +3996,22 @@
         <v>125</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.136128546963448</v>
+        <v>-0.138731878136346</v>
       </c>
       <c r="C98" t="n">
-        <v>0.020007947144812</v>
+        <v>0.0201259559633315</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.03908734796535</v>
+        <v>-1.02259106403574</v>
       </c>
       <c r="E98" t="n">
-        <v>0.346525477683887</v>
+        <v>0.347778195094972</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00248896463669328</v>
+        <v>0.00257458933556567</v>
       </c>
       <c r="G98" t="n">
-        <v>0.143970725187719</v>
+        <v>0.145898771063995</v>
       </c>
     </row>
     <row r="99">
@@ -4019,22 +4019,22 @@
         <v>126</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.202503816374874</v>
+        <v>-0.192901805597337</v>
       </c>
       <c r="C99" t="n">
-        <v>0.202969466162904</v>
+        <v>0.200495910048821</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.22475474860169</v>
+        <v>-2.32122086745469</v>
       </c>
       <c r="E99" t="n">
-        <v>0.389154661592824</v>
+        <v>0.384937483011688</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0322092437681016</v>
+        <v>0.0316214613195667</v>
       </c>
       <c r="G99" t="n">
-        <v>0.461177411107603</v>
+        <v>0.461956163340409</v>
       </c>
     </row>
     <row r="100">
@@ -4042,22 +4042,22 @@
         <v>127</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.333337426671244</v>
+        <v>-0.333794563322202</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0155443916206623</v>
+        <v>0.0155280303514526</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.374026855604091</v>
+        <v>-0.373317996829193</v>
       </c>
       <c r="E100" t="n">
-        <v>0.442109594540345</v>
+        <v>0.442334403853874</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00231744256900111</v>
+        <v>0.00233239999626919</v>
       </c>
       <c r="G100" t="n">
-        <v>0.108886628347021</v>
+        <v>0.10918193748994</v>
       </c>
     </row>
     <row r="101">
@@ -4065,22 +4065,22 @@
         <v>128</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.781090567098332</v>
+        <v>-0.7803542368169</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0508323529382322</v>
+        <v>0.0509874703807351</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.288648106814917</v>
+        <v>-0.289360962511596</v>
       </c>
       <c r="E101" t="n">
-        <v>0.659945932028836</v>
+        <v>0.659595777548919</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0106730974839607</v>
+        <v>0.0107100268908013</v>
       </c>
       <c r="G101" t="n">
-        <v>0.156544164081113</v>
+        <v>0.156898002242143</v>
       </c>
     </row>
     <row r="102">
@@ -4088,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.150553256611306</v>
+        <v>-0.148397683552312</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0509781710654846</v>
+        <v>0.0510030512483548</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.49969164167364</v>
+        <v>-1.52184687714131</v>
       </c>
       <c r="E102" t="n">
-        <v>0.357986463620981</v>
+        <v>0.356920473773266</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0101914712387734</v>
+        <v>0.0102619805979999</v>
       </c>
       <c r="G102" t="n">
-        <v>0.282001771442917</v>
+        <v>0.283820743770868</v>
       </c>
     </row>
     <row r="103">
@@ -4111,22 +4111,22 @@
         <v>130</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.438199797460213</v>
+        <v>-0.431691277983557</v>
       </c>
       <c r="C103" t="n">
-        <v>0.190966974687955</v>
+        <v>0.191250422784882</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.997256697141364</v>
+        <v>-1.01304311158644</v>
       </c>
       <c r="E103" t="n">
-        <v>0.493541867179981</v>
+        <v>0.490596727622714</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0321961481498636</v>
+        <v>0.0322677436875553</v>
       </c>
       <c r="G103" t="n">
-        <v>0.363561560425925</v>
+        <v>0.366150517450647</v>
       </c>
     </row>
     <row r="104">
@@ -4134,22 +4134,22 @@
         <v>131</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.66376140759805</v>
+        <v>-0.66252621384401</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0356104459759527</v>
+        <v>0.0356464311341023</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.284299900885432</v>
+        <v>-0.284973818185691</v>
       </c>
       <c r="E104" t="n">
-        <v>0.603555787278415</v>
+        <v>0.602930135557873</v>
       </c>
       <c r="F104" t="n">
-        <v>0.00683521358782737</v>
+        <v>0.00684267340487263</v>
       </c>
       <c r="G104" t="n">
-        <v>0.136980461935989</v>
+        <v>0.137197410589253</v>
       </c>
     </row>
     <row r="105">
@@ -4157,22 +4157,22 @@
         <v>132</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.849143900441163</v>
+        <v>-0.847124805625261</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0457648490801332</v>
+        <v>0.0455667580321562</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.251932805481772</v>
+        <v>-0.251986147193616</v>
       </c>
       <c r="E105" t="n">
-        <v>0.687542987490504</v>
+        <v>0.68663740704561</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0093539824253753</v>
+        <v>0.00937577910249715</v>
       </c>
       <c r="G105" t="n">
-        <v>0.140669005760904</v>
+        <v>0.141018543187474</v>
       </c>
     </row>
     <row r="106">
@@ -4180,22 +4180,22 @@
         <v>133</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.44180972101093</v>
+        <v>-0.438288547648242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.14474951965629</v>
+        <v>0.144476535893345</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.861139079188298</v>
+        <v>-0.867238475250574</v>
       </c>
       <c r="E106" t="n">
-        <v>0.497823162977947</v>
+        <v>0.496106366326852</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0260882630471576</v>
+        <v>0.0260277984259676</v>
       </c>
       <c r="G106" t="n">
-        <v>0.324449778925601</v>
+        <v>0.325195043135651</v>
       </c>
     </row>
     <row r="107">
@@ -4203,22 +4203,22 @@
         <v>134</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.0640872138360011</v>
+        <v>-0.0589512035987249</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0461735206632137</v>
+        <v>0.0463499064946483</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.35293476498284</v>
+        <v>-3.65200829012034</v>
       </c>
       <c r="E107" t="n">
-        <v>0.316674761682727</v>
+        <v>0.31432545850171</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00508119347567241</v>
+        <v>0.00493397591219404</v>
       </c>
       <c r="G107" t="n">
-        <v>0.225096847908224</v>
+        <v>0.223469858878247</v>
       </c>
     </row>
     <row r="108">
@@ -4226,22 +4226,22 @@
         <v>135</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.665731965754196</v>
+        <v>-0.664498910062287</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0499744603365644</v>
+        <v>0.0498737801330592</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.335795325343355</v>
+        <v>-0.336079382255418</v>
       </c>
       <c r="E108" t="n">
-        <v>0.605343156776848</v>
+        <v>0.604712597902562</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00907215314170815</v>
+        <v>0.00907932481045522</v>
       </c>
       <c r="G108" t="n">
-        <v>0.157345218240317</v>
+        <v>0.157571533007603</v>
       </c>
     </row>
     <row r="109">
@@ -4249,22 +4249,22 @@
         <v>136</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.360325313235442</v>
+        <v>-0.355973740806931</v>
       </c>
       <c r="C109" t="n">
-        <v>0.187965019272931</v>
+        <v>0.187830165736234</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.20321640322336</v>
+        <v>-1.21748805341598</v>
       </c>
       <c r="E109" t="n">
-        <v>0.457399972508591</v>
+        <v>0.455477278350515</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0298802304101531</v>
+        <v>0.0298461261992812</v>
       </c>
       <c r="G109" t="n">
-        <v>0.377916485242511</v>
+        <v>0.37929513176188</v>
       </c>
     </row>
     <row r="110">
@@ -4272,22 +4272,22 @@
         <v>137</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.508382616790014</v>
+        <v>-0.508453132761718</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0352374352835935</v>
+        <v>0.0354036200747488</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.36924230500466</v>
+        <v>-0.370060650810501</v>
       </c>
       <c r="E110" t="n">
-        <v>0.529731132905849</v>
+        <v>0.529780712924889</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00705065286649097</v>
+        <v>0.00710691545347002</v>
       </c>
       <c r="G110" t="n">
-        <v>0.158510913510972</v>
+        <v>0.159127203679456</v>
       </c>
     </row>
     <row r="111">
@@ -4295,22 +4295,22 @@
         <v>138</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.869935605106891</v>
+        <v>-0.869350498207222</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0218232101809741</v>
+        <v>0.0218420711967785</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.169813499316398</v>
+        <v>-0.170001205825821</v>
       </c>
       <c r="E111" t="n">
-        <v>0.701090617481957</v>
+        <v>0.700777866880513</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00474993698706085</v>
+        <v>0.00474926792947822</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0983036784354066</v>
+        <v>0.0983406237768398</v>
       </c>
     </row>
     <row r="112">
@@ -4318,22 +4318,22 @@
         <v>139</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152854037706933</v>
+        <v>0.153122590816878</v>
       </c>
       <c r="C112" t="n">
-        <v>0.036678153163352</v>
+        <v>0.036709251944237</v>
       </c>
       <c r="D112" t="n">
-        <v>1.2529300188074</v>
+        <v>1.25126270030291</v>
       </c>
       <c r="E112" t="n">
-        <v>0.228460863994294</v>
+        <v>0.228368716007234</v>
       </c>
       <c r="F112" t="n">
-        <v>0.00697555462132265</v>
+        <v>0.00698563311404418</v>
       </c>
       <c r="G112" t="n">
-        <v>0.365575899290734</v>
+        <v>0.365987519873749</v>
       </c>
     </row>
     <row r="113">
@@ -4341,22 +4341,22 @@
         <v>140</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.396086308607192</v>
+        <v>-0.415067055859835</v>
       </c>
       <c r="C113" t="n">
-        <v>0.167086609497488</v>
+        <v>0.173856491257501</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.03200307821245</v>
+        <v>-1.00456302899471</v>
       </c>
       <c r="E113" t="n">
-        <v>0.47738813229572</v>
+        <v>0.485963035019455</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0280872507746248</v>
+        <v>0.029374251573984</v>
       </c>
       <c r="G113" t="n">
-        <v>0.35106133298913</v>
+        <v>0.352679461733479</v>
       </c>
     </row>
     <row r="114">
@@ -4364,22 +4364,22 @@
         <v>141</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.401964897456664</v>
+        <v>-0.401652974216563</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0210426026302175</v>
+        <v>0.0210444731577417</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.36087898954221</v>
+        <v>-0.361175299552559</v>
       </c>
       <c r="E114" t="n">
-        <v>0.476504437446321</v>
+        <v>0.476346979673633</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00447723282432519</v>
+        <v>0.00447677254234452</v>
       </c>
       <c r="G114" t="n">
-        <v>0.140422884603601</v>
+        <v>0.140462081105202</v>
       </c>
     </row>
     <row r="115">
@@ -4387,22 +4387,22 @@
         <v>142</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.036800138810742</v>
+        <v>-0.0450878881038964</v>
       </c>
       <c r="C115" t="n">
-        <v>0.131115744105797</v>
+        <v>0.131222172472718</v>
       </c>
       <c r="D115" t="n">
-        <v>-9.83961181156644</v>
+        <v>-8.0342199694018</v>
       </c>
       <c r="E115" t="n">
-        <v>0.320359856637168</v>
+        <v>0.323725024245399</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0191736745217053</v>
+        <v>0.0193252682725963</v>
       </c>
       <c r="G115" t="n">
-        <v>0.43222967942156</v>
+        <v>0.429424178667485</v>
       </c>
     </row>
     <row r="116">
@@ -4410,22 +4410,22 @@
         <v>143</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.130549242242648</v>
+        <v>-0.13090418510775</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0136742432448316</v>
+        <v>0.0137257010011355</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.895730361434821</v>
+        <v>-0.894980835058144</v>
       </c>
       <c r="E116" t="n">
-        <v>0.343745398020126</v>
+        <v>0.343917205268756</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00203291203254415</v>
+        <v>0.00205366778696383</v>
       </c>
       <c r="G116" t="n">
-        <v>0.131166340053839</v>
+        <v>0.131768375721675</v>
       </c>
     </row>
     <row r="117">
@@ -4433,22 +4433,22 @@
         <v>144</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.470354843439472</v>
+        <v>-0.469963541882873</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0470306593626315</v>
+        <v>0.0472611143264411</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.461067927610216</v>
+        <v>-0.462581021068743</v>
       </c>
       <c r="E117" t="n">
-        <v>0.510786026200873</v>
+        <v>0.510612809315866</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0103471258480536</v>
+        <v>0.010394251054137</v>
       </c>
       <c r="G117" t="n">
-        <v>0.199145665429585</v>
+        <v>0.199666357735959</v>
       </c>
     </row>
     <row r="118">
@@ -4456,22 +4456,22 @@
         <v>145</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.111050637602167</v>
+        <v>-0.109187865709987</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0443736907552457</v>
+        <v>0.0443045165147313</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.89688813391428</v>
+        <v>-1.92774517077422</v>
       </c>
       <c r="E118" t="n">
-        <v>0.338357857563272</v>
+        <v>0.337585344320188</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00984028636426545</v>
+        <v>0.00981948547099599</v>
       </c>
       <c r="G118" t="n">
-        <v>0.293175451163442</v>
+        <v>0.29353560115021</v>
       </c>
     </row>
     <row r="119">
@@ -4479,22 +4479,22 @@
         <v>146</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.326585738593066</v>
+        <v>-0.328156092991135</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0263841742582885</v>
+        <v>0.026525964343797</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.497364217856646</v>
+        <v>-0.496312391459328</v>
       </c>
       <c r="E119" t="n">
-        <v>0.438728841870824</v>
+        <v>0.4395</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00575934970483777</v>
+        <v>0.00579407487525484</v>
       </c>
       <c r="G119" t="n">
-        <v>0.172977867613976</v>
+        <v>0.173194131442424</v>
       </c>
     </row>
     <row r="120">
@@ -4502,22 +4502,22 @@
         <v>147</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.376800963601336</v>
+        <v>-0.373659692623231</v>
       </c>
       <c r="C120" t="n">
-        <v>0.159918572912682</v>
+        <v>0.160140668297576</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.06129824978557</v>
+        <v>-1.07096324447512</v>
       </c>
       <c r="E120" t="n">
-        <v>0.466183801168407</v>
+        <v>0.464822404301878</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0293024062183627</v>
+        <v>0.0293321353325989</v>
       </c>
       <c r="G120" t="n">
-        <v>0.367193059372276</v>
+        <v>0.368455282460838</v>
       </c>
     </row>
     <row r="121">
@@ -4525,22 +4525,22 @@
         <v>148</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.298993682939524</v>
+        <v>-0.308518440514405</v>
       </c>
       <c r="C121" t="n">
-        <v>0.200841083789702</v>
+        <v>0.197861238765365</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.49887102891087</v>
+        <v>-1.44178078890309</v>
       </c>
       <c r="E121" t="n">
-        <v>0.432487341772152</v>
+        <v>0.436572784810127</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0347561692051554</v>
+        <v>0.034254641856974</v>
       </c>
       <c r="G121" t="n">
-        <v>0.431064790062566</v>
+        <v>0.42393869299184</v>
       </c>
     </row>
     <row r="122">
@@ -4548,22 +4548,22 @@
         <v>149</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.518583113509576</v>
+        <v>-0.516750182392407</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0346857747567426</v>
+        <v>0.0345757873719818</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.359134666715339</v>
+        <v>-0.359836654878331</v>
       </c>
       <c r="E122" t="n">
-        <v>0.534412018649629</v>
+        <v>0.533512346744949</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00725312776886803</v>
+        <v>0.00721950369331251</v>
       </c>
       <c r="G122" t="n">
-        <v>0.159362614926824</v>
+        <v>0.159260911488527</v>
       </c>
     </row>
     <row r="123">
@@ -4571,22 +4571,22 @@
         <v>150</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.127557641367075</v>
+        <v>-0.128047149154714</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0277175695559714</v>
+        <v>0.0277604913718384</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.3051820513059</v>
+        <v>-1.30119881995099</v>
       </c>
       <c r="E123" t="n">
-        <v>0.344076372515639</v>
+        <v>0.344339065463601</v>
       </c>
       <c r="F123" t="n">
-        <v>0.00517072718580717</v>
+        <v>0.00519261523587926</v>
       </c>
       <c r="G123" t="n">
-        <v>0.208987813024353</v>
+        <v>0.209269904051288</v>
       </c>
     </row>
     <row r="124">
@@ -4594,22 +4594,22 @@
         <v>151</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.276651656529785</v>
+        <v>-0.283034438732871</v>
       </c>
       <c r="C124" t="n">
-        <v>0.193822209049125</v>
+        <v>0.19384547790583</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.59136020868563</v>
+        <v>-1.55556640304085</v>
       </c>
       <c r="E124" t="n">
-        <v>0.423096820123398</v>
+        <v>0.425904129093498</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0302605109548082</v>
+        <v>0.0303640673124638</v>
       </c>
       <c r="G124" t="n">
-        <v>0.411148175267887</v>
+        <v>0.409136402590336</v>
       </c>
     </row>
     <row r="125">
@@ -4617,22 +4617,22 @@
         <v>152</v>
       </c>
       <c r="B125" t="n">
-        <v>0.454991711185245</v>
+        <v>0.451732473070354</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0171926091963692</v>
+        <v>0.0174410443471087</v>
       </c>
       <c r="D125" t="n">
-        <v>0.288182371371606</v>
+        <v>0.292351234442297</v>
       </c>
       <c r="E125" t="n">
-        <v>0.126703800467669</v>
+        <v>0.127559627991528</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00239290799521371</v>
+        <v>0.00252761779218164</v>
       </c>
       <c r="G125" t="n">
-        <v>0.386076492201655</v>
+        <v>0.394132690375182</v>
       </c>
     </row>
     <row r="126">
@@ -4640,22 +4640,22 @@
         <v>153</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.249318107739566</v>
+        <v>-0.250250542089386</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0519655618749983</v>
+        <v>0.0522665368806498</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.914332151788282</v>
+        <v>-0.913559494828764</v>
       </c>
       <c r="E126" t="n">
-        <v>0.401518978611427</v>
+        <v>0.402008610604891</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0111482807756768</v>
+        <v>0.0111997559776774</v>
       </c>
       <c r="G126" t="n">
-        <v>0.26296495298408</v>
+        <v>0.263250330334862</v>
       </c>
     </row>
     <row r="127">
@@ -4663,22 +4663,22 @@
         <v>154</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.430183492767199</v>
+        <v>-0.424460131228078</v>
       </c>
       <c r="C127" t="n">
-        <v>0.201178503782805</v>
+        <v>0.200500413082953</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.04264639396334</v>
+        <v>-1.05492292883564</v>
       </c>
       <c r="E127" t="n">
-        <v>0.488625097964614</v>
+        <v>0.485856415246875</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0354794038420846</v>
+        <v>0.0353316076642388</v>
       </c>
       <c r="G127" t="n">
-        <v>0.385489351940441</v>
+        <v>0.386877754151345</v>
       </c>
     </row>
     <row r="128">
@@ -4686,22 +4686,22 @@
         <v>155</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.0797059699224695</v>
+        <v>-0.0782193568496659</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0443411518648377</v>
+        <v>0.0445395709823679</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.64187724603282</v>
+        <v>-2.69810454827243</v>
       </c>
       <c r="E128" t="n">
-        <v>0.324467876410005</v>
+        <v>0.323854830799411</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00795387866164717</v>
+        <v>0.00804620817267068</v>
       </c>
       <c r="G128" t="n">
-        <v>0.274863944281934</v>
+        <v>0.276977985743492</v>
       </c>
     </row>
     <row r="129">
@@ -4709,22 +4709,22 @@
         <v>156</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.410595778384959</v>
+        <v>-0.410407588314974</v>
       </c>
       <c r="C129" t="n">
-        <v>0.125401314704625</v>
+        <v>0.125266777475009</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.862455239763899</v>
+        <v>-0.862387733337125</v>
       </c>
       <c r="E129" t="n">
-        <v>0.484121933370336</v>
+        <v>0.484020869128526</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0227074657880593</v>
+        <v>0.022684376110772</v>
       </c>
       <c r="G129" t="n">
-        <v>0.311264488132539</v>
+        <v>0.311171155454656</v>
       </c>
     </row>
     <row r="130">
@@ -4732,22 +4732,22 @@
         <v>157</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0542399884562511</v>
+        <v>0.0512836301563768</v>
       </c>
       <c r="C130" t="n">
-        <v>0.044821568842537</v>
+        <v>0.0444762732078506</v>
       </c>
       <c r="D130" t="n">
-        <v>3.90322816027227</v>
+        <v>4.11230611142457</v>
       </c>
       <c r="E130" t="n">
-        <v>0.266422807347867</v>
+        <v>0.267708790232545</v>
       </c>
       <c r="F130" t="n">
-        <v>0.00994283532340532</v>
+        <v>0.00989043317711421</v>
       </c>
       <c r="G130" t="n">
-        <v>0.374268884720872</v>
+        <v>0.371488201453931</v>
       </c>
     </row>
     <row r="131">
@@ -4755,22 +4755,22 @@
         <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>0.32308396849054</v>
+        <v>0.323589725666994</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0305889855136846</v>
+        <v>0.030613157196723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.541336272472007</v>
+        <v>0.540703694428946</v>
       </c>
       <c r="E131" t="n">
-        <v>0.163656460242997</v>
+        <v>0.163517870164757</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00555584091351115</v>
+        <v>0.00552771461820464</v>
       </c>
       <c r="G131" t="n">
-        <v>0.455451091598212</v>
+        <v>0.454681815005024</v>
       </c>
     </row>
     <row r="132">
@@ -4778,22 +4778,22 @@
         <v>159</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.433547701713136</v>
+        <v>-0.433676704322928</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0526647378576425</v>
+        <v>0.0521098907099164</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.52932581525455</v>
+        <v>-0.526373464149813</v>
       </c>
       <c r="E132" t="n">
-        <v>0.492192637858286</v>
+        <v>0.492278481012658</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0110045743144907</v>
+        <v>0.0108845669134991</v>
       </c>
       <c r="G132" t="n">
-        <v>0.213133398734968</v>
+        <v>0.211931115928722</v>
       </c>
     </row>
     <row r="133">
@@ -4801,22 +4801,22 @@
         <v>160</v>
       </c>
       <c r="B133" t="n">
-        <v>0.00991237959620179</v>
+        <v>0.00907762962705985</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0443985133979007</v>
+        <v>0.0444325842417919</v>
       </c>
       <c r="D133" t="n">
-        <v>21.2572112913829</v>
+        <v>23.2208614495886</v>
       </c>
       <c r="E133" t="n">
-        <v>0.285895394537942</v>
+        <v>0.28627229668447</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00761937311827932</v>
+        <v>0.00766623482894271</v>
       </c>
       <c r="G133" t="n">
-        <v>0.305318036852755</v>
+        <v>0.305852290246906</v>
       </c>
     </row>
     <row r="134">
@@ -4824,22 +4824,22 @@
         <v>161</v>
       </c>
       <c r="B134" t="n">
-        <v>0.464990998552278</v>
+        <v>0.466071181368811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0151717219933253</v>
+        <v>0.0151958733498332</v>
       </c>
       <c r="D134" t="n">
-        <v>0.264894470202193</v>
+        <v>0.264490807573477</v>
       </c>
       <c r="E134" t="n">
-        <v>0.122378339335498</v>
+        <v>0.122133353817691</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00122506897801133</v>
+        <v>0.00118866305355736</v>
       </c>
       <c r="G134" t="n">
-        <v>0.286006376425293</v>
+        <v>0.282289743360307</v>
       </c>
     </row>
     <row r="135">
@@ -4847,22 +4847,22 @@
         <v>162</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.375513525420001</v>
+        <v>-0.368998737692294</v>
       </c>
       <c r="C135" t="n">
-        <v>0.165239857157634</v>
+        <v>0.165765819876427</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.08250976129062</v>
+        <v>-1.10337366088179</v>
       </c>
       <c r="E135" t="n">
-        <v>0.465917334608798</v>
+        <v>0.463016197790533</v>
       </c>
       <c r="F135" t="n">
-        <v>0.028597099875163</v>
+        <v>0.0286881876465305</v>
       </c>
       <c r="G135" t="n">
-        <v>0.362954451520156</v>
+        <v>0.365809830460147</v>
       </c>
     </row>
     <row r="136">
@@ -4870,22 +4870,22 @@
         <v>163</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.638548395415161</v>
+        <v>-0.637868301861556</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0380048764597916</v>
+        <v>0.0381291588341166</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.305299325391982</v>
+        <v>-0.306124149327182</v>
       </c>
       <c r="E136" t="n">
-        <v>0.594162253759797</v>
+        <v>0.593844524465156</v>
       </c>
       <c r="F136" t="n">
-        <v>0.00826130727283096</v>
+        <v>0.00828634171030743</v>
       </c>
       <c r="G136" t="n">
-        <v>0.152974601168252</v>
+        <v>0.153288178260188</v>
       </c>
     </row>
     <row r="137">
@@ -4893,22 +4893,22 @@
         <v>164</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.346707574239804</v>
+        <v>-0.341410531169226</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165967734960241</v>
+        <v>0.166468888769894</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.17502878039384</v>
+        <v>-1.19505977070565</v>
       </c>
       <c r="E137" t="n">
-        <v>0.451558843971933</v>
+        <v>0.449127712645368</v>
       </c>
       <c r="F137" t="n">
-        <v>0.029304859869744</v>
+        <v>0.0294605211399597</v>
       </c>
       <c r="G137" t="n">
-        <v>0.379101473072627</v>
+        <v>0.382164515034525</v>
       </c>
     </row>
     <row r="138">
@@ -4916,22 +4916,22 @@
         <v>165</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.308633535107439</v>
+        <v>-0.310307937293615</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0326961636162899</v>
+        <v>0.0328024200977568</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.585875430552183</v>
+        <v>-0.583660171880655</v>
       </c>
       <c r="E138" t="n">
-        <v>0.430212765957447</v>
+        <v>0.431023622047244</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00707467407736083</v>
+        <v>0.00709814229008811</v>
       </c>
       <c r="G138" t="n">
-        <v>0.195510427469091</v>
+        <v>0.195466023718567</v>
       </c>
     </row>
     <row r="139">
@@ -4939,22 +4939,22 @@
         <v>166</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.655506651977304</v>
+        <v>-0.654727997291905</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0507465953379609</v>
+        <v>0.0505864800220732</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.343657915785981</v>
+        <v>-0.343523393974512</v>
       </c>
       <c r="E139" t="n">
-        <v>0.600874111929646</v>
+        <v>0.600468660237256</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0108846855077465</v>
+        <v>0.0108511696680336</v>
       </c>
       <c r="G139" t="n">
-        <v>0.173629873748538</v>
+        <v>0.173479408023993</v>
       </c>
     </row>
     <row r="140">
@@ -4962,22 +4962,22 @@
         <v>167</v>
       </c>
       <c r="B140" t="n">
-        <v>0.263301225078811</v>
+        <v>0.262858741217446</v>
       </c>
       <c r="C140" t="n">
-        <v>0.00399721475424965</v>
+        <v>0.00401316671663391</v>
       </c>
       <c r="D140" t="n">
-        <v>0.240118632372484</v>
+        <v>0.241002294334707</v>
       </c>
       <c r="E140" t="n">
-        <v>0.181693082346632</v>
+        <v>0.181868410408012</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000557857304524701</v>
+        <v>0.000570638811797354</v>
       </c>
       <c r="G140" t="n">
-        <v>0.129993958676265</v>
+        <v>0.131347975240194</v>
       </c>
     </row>
     <row r="141">
@@ -4985,22 +4985,22 @@
         <v>168</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0108978232512307</v>
+        <v>0.0113994437413018</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0306955371787396</v>
+        <v>0.0305551430520804</v>
       </c>
       <c r="D141" t="n">
-        <v>16.0767352199042</v>
+        <v>15.3341074124364</v>
       </c>
       <c r="E141" t="n">
-        <v>0.283436175517327</v>
+        <v>0.283266018449264</v>
       </c>
       <c r="F141" t="n">
-        <v>0.00666195954980541</v>
+        <v>0.00662197993716917</v>
       </c>
       <c r="G141" t="n">
-        <v>0.287968985496339</v>
+        <v>0.287276070785784</v>
       </c>
     </row>
     <row r="142">
@@ -5008,22 +5008,22 @@
         <v>169</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.037996032713747</v>
+        <v>-0.0368262207708122</v>
       </c>
       <c r="C142" t="n">
-        <v>0.015153363676572</v>
+        <v>0.0151545104565033</v>
       </c>
       <c r="D142" t="n">
-        <v>-3.23978559609105</v>
+        <v>-3.34282624683598</v>
       </c>
       <c r="E142" t="n">
-        <v>0.298664810990392</v>
+        <v>0.298196103079824</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00251246709261969</v>
+        <v>0.00246936640309143</v>
       </c>
       <c r="G142" t="n">
-        <v>0.167828662901152</v>
+        <v>0.166644430650124</v>
       </c>
     </row>
     <row r="143">
@@ -5031,22 +5031,22 @@
         <v>170</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.144961153444136</v>
+        <v>-0.14318111277877</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0452580337951422</v>
+        <v>0.0455111992296094</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.46756114603548</v>
+        <v>-1.48995587281534</v>
       </c>
       <c r="E143" t="n">
-        <v>0.351747927031509</v>
+        <v>0.350975124378109</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00918072264668916</v>
+        <v>0.00925976231105391</v>
       </c>
       <c r="G143" t="n">
-        <v>0.272399864380211</v>
+        <v>0.274172304757329</v>
       </c>
     </row>
     <row r="144">
@@ -5054,22 +5054,22 @@
         <v>171</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0282415201069354</v>
+        <v>-0.0268476622719984</v>
       </c>
       <c r="C144" t="n">
-        <v>0.00960399548839228</v>
+        <v>0.00955369782512227</v>
       </c>
       <c r="D144" t="n">
-        <v>-3.47006735510403</v>
+        <v>-3.64065289284158</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2954603666801</v>
+        <v>0.294859638209867</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00142898306407384</v>
+        <v>0.00137871259124778</v>
       </c>
       <c r="G144" t="n">
-        <v>0.127942345565052</v>
+        <v>0.125927778670917</v>
       </c>
     </row>
     <row r="145">
@@ -5077,22 +5077,22 @@
         <v>172</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.245591737668974</v>
+        <v>-0.24628114512119</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0508627054757618</v>
+        <v>0.0510470339474692</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.918302944197132</v>
+        <v>-0.917390190846423</v>
       </c>
       <c r="E145" t="n">
-        <v>0.400641909814324</v>
+        <v>0.400989389920424</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0109345412644851</v>
+        <v>0.0109733472326021</v>
       </c>
       <c r="G145" t="n">
-        <v>0.261002042814542</v>
+        <v>0.261238198083403</v>
       </c>
     </row>
     <row r="146">
@@ -5100,22 +5100,22 @@
         <v>173</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.22916944614026</v>
+        <v>-1.22574579442463</v>
       </c>
       <c r="C146" t="n">
-        <v>0.121954359943851</v>
+        <v>0.121773142881836</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.284110254583926</v>
+        <v>-0.284692053926388</v>
       </c>
       <c r="E146" t="n">
-        <v>0.813643716337113</v>
+        <v>0.812446799949207</v>
       </c>
       <c r="F146" t="n">
-        <v>0.011665742122828</v>
+        <v>0.0116660146808941</v>
       </c>
       <c r="G146" t="n">
-        <v>0.132746142953774</v>
+        <v>0.132943260814597</v>
       </c>
     </row>
     <row r="147">
@@ -5123,22 +5123,22 @@
         <v>174</v>
       </c>
       <c r="B147" t="n">
-        <v>0.142280535107267</v>
+        <v>0.142947466066281</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0123906722805358</v>
+        <v>0.0123675363670502</v>
       </c>
       <c r="D147" t="n">
-        <v>0.782351546516985</v>
+        <v>0.777974096160569</v>
       </c>
       <c r="E147" t="n">
-        <v>0.224922810629252</v>
+        <v>0.224685788295197</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00213957469317844</v>
+        <v>0.00210928693303241</v>
       </c>
       <c r="G147" t="n">
-        <v>0.205650715295241</v>
+        <v>0.204405335397234</v>
       </c>
     </row>
     <row r="148">
@@ -5146,22 +5146,22 @@
         <v>175</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.28450982011628</v>
+        <v>-1.28321229635447</v>
       </c>
       <c r="C148" t="n">
-        <v>0.152584942506039</v>
+        <v>0.151242520515734</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.304101393599421</v>
+        <v>-0.303066853902027</v>
       </c>
       <c r="E148" t="n">
-        <v>0.824474088876226</v>
+        <v>0.824151336371424</v>
       </c>
       <c r="F148" t="n">
-        <v>0.016283385849543</v>
+        <v>0.0161870756746054</v>
       </c>
       <c r="G148" t="n">
-        <v>0.154773051629412</v>
+        <v>0.154375092684047</v>
       </c>
     </row>
     <row r="149">
@@ -5169,22 +5169,22 @@
         <v>176</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.735899420262167</v>
+        <v>-0.74170002538032</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0234587437003795</v>
+        <v>0.0233320667619293</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.208129631070463</v>
+        <v>-0.205943605303928</v>
       </c>
       <c r="E149" t="n">
-        <v>0.640907377886674</v>
+        <v>0.64367165669919</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00458988588881695</v>
+        <v>0.00457693036286377</v>
       </c>
       <c r="G149" t="n">
-        <v>0.105707468694293</v>
+        <v>0.105104852351684</v>
       </c>
     </row>
     <row r="150">
@@ -5192,22 +5192,22 @@
         <v>177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.497876026281969</v>
+        <v>-0.504943854599524</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0324812575798551</v>
+        <v>0.0325149318224587</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.361988857952998</v>
+        <v>-0.357106974962178</v>
       </c>
       <c r="E150" t="n">
-        <v>0.524989287240011</v>
+        <v>0.528549757045671</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0055542433459109</v>
+        <v>0.0053970030326035</v>
       </c>
       <c r="G150" t="n">
-        <v>0.141958698913745</v>
+        <v>0.138992207817368</v>
       </c>
     </row>
     <row r="151">
@@ -5215,22 +5215,22 @@
         <v>178</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.17603307446033</v>
+        <v>-1.17570244437543</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0322438671239254</v>
+        <v>0.0322594661228671</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.152687690260955</v>
+        <v>-0.152767568657926</v>
       </c>
       <c r="E151" t="n">
-        <v>0.817215816074226</v>
+        <v>0.817078400607766</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00241397016027838</v>
+        <v>0.00242302001797329</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0601214138943844</v>
+        <v>0.0602441347066729</v>
       </c>
     </row>
     <row r="152">
@@ -5238,22 +5238,22 @@
         <v>179</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.258022757213334</v>
+        <v>-0.257505705523994</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0197419146565101</v>
+        <v>0.0197937908595884</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.544548571750452</v>
+        <v>-0.546358410034826</v>
       </c>
       <c r="E152" t="n">
-        <v>0.406484412920368</v>
+        <v>0.406254893967168</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00361290119071422</v>
+        <v>0.00363179604404725</v>
       </c>
       <c r="G152" t="n">
-        <v>0.14787138661264</v>
+        <v>0.148341313385844</v>
       </c>
     </row>
     <row r="153">
@@ -5261,22 +5261,22 @@
         <v>180</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.702838069390662</v>
+        <v>-0.70904463805241</v>
       </c>
       <c r="C153" t="n">
-        <v>0.030190598526314</v>
+        <v>0.0300930323865288</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.247218282177037</v>
+        <v>-0.24465798756349</v>
       </c>
       <c r="E153" t="n">
-        <v>0.62304660422034</v>
+        <v>0.626021339253373</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00522662828938024</v>
+        <v>0.00514750998761667</v>
       </c>
       <c r="G153" t="n">
-        <v>0.116035338640956</v>
+        <v>0.114606555939044</v>
       </c>
     </row>
     <row r="154">
@@ -5284,22 +5284,22 @@
         <v>181</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.696480697014216</v>
+        <v>-0.696465207890206</v>
       </c>
       <c r="C154" t="n">
-        <v>0.178802061611662</v>
+        <v>0.172367277168526</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.607123686004755</v>
+        <v>-0.59611216494926</v>
       </c>
       <c r="E154" t="n">
-        <v>0.608516949152542</v>
+        <v>0.608501540832049</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0292196544725306</v>
+        <v>0.0281142200969297</v>
       </c>
       <c r="G154" t="n">
-        <v>0.280908485820454</v>
+        <v>0.27555058536346</v>
       </c>
     </row>
     <row r="155">
@@ -5307,22 +5307,22 @@
         <v>182</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.976017867120238</v>
+        <v>-0.976071881285663</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0221655032558102</v>
+        <v>0.0221581561301538</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.15253904746297</v>
+        <v>-0.152505324708751</v>
       </c>
       <c r="E155" t="n">
-        <v>0.74357720414929</v>
+        <v>0.743568368747923</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00376277824534192</v>
+        <v>0.00376470235724701</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0824951174328679</v>
+        <v>0.0825171873367904</v>
       </c>
     </row>
     <row r="156">
@@ -5330,22 +5330,22 @@
         <v>183</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.127751508093633</v>
+        <v>-0.137660804279366</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0290568593109232</v>
+        <v>0.0292397345924479</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.33431478921543</v>
+        <v>-1.24215676955418</v>
       </c>
       <c r="E156" t="n">
-        <v>0.341472822394255</v>
+        <v>0.346205859231436</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00440437120462694</v>
+        <v>0.00480047348043295</v>
       </c>
       <c r="G156" t="n">
-        <v>0.194350567512423</v>
+        <v>0.200127893337788</v>
       </c>
     </row>
     <row r="157">
@@ -5353,22 +5353,22 @@
         <v>184</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.913087173266928</v>
+        <v>-0.919178600365647</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0563449355561393</v>
+        <v>0.0566764757502452</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.259965191508632</v>
+        <v>-0.259001043426263</v>
       </c>
       <c r="E157" t="n">
-        <v>0.717649473954324</v>
+        <v>0.720094944829356</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0116404066867725</v>
+        <v>0.0116237430692395</v>
       </c>
       <c r="G157" t="n">
-        <v>0.150339016919097</v>
+        <v>0.149721179136164</v>
       </c>
     </row>
     <row r="158">
@@ -5376,22 +5376,22 @@
         <v>185</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.506479365650435</v>
+        <v>-0.509604670264089</v>
       </c>
       <c r="C158" t="n">
-        <v>0.217248499427194</v>
+        <v>0.214360924582567</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.920272906176935</v>
+        <v>-0.90853029059716</v>
       </c>
       <c r="E158" t="n">
-        <v>0.52575225943647</v>
+        <v>0.527224880382775</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0379302098646726</v>
+        <v>0.0374028471674975</v>
       </c>
       <c r="G158" t="n">
-        <v>0.370434540630557</v>
+        <v>0.366822895296512</v>
       </c>
     </row>
     <row r="159">
@@ -5399,22 +5399,22 @@
         <v>186</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.739439281787609</v>
+        <v>-0.741621415821916</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0503756848774309</v>
+        <v>0.0501459037757909</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.303534432264095</v>
+        <v>-0.301950302504657</v>
       </c>
       <c r="E159" t="n">
-        <v>0.639654665686995</v>
+        <v>0.640683321087436</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00857023083553013</v>
+        <v>0.00846284817682788</v>
       </c>
       <c r="G159" t="n">
-        <v>0.144727375886001</v>
+        <v>0.143586912364645</v>
       </c>
     </row>
     <row r="160">
@@ -5422,22 +5422,22 @@
         <v>187</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.336311000573306</v>
+        <v>-0.336446439772556</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0230954044575899</v>
+        <v>0.0230695209901498</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.451878535938663</v>
+        <v>-0.451443445087585</v>
       </c>
       <c r="E160" t="n">
-        <v>0.445879667373227</v>
+        <v>0.445970161421816</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00435373955581039</v>
+        <v>0.00435333739833389</v>
       </c>
       <c r="G160" t="n">
-        <v>0.147983588463114</v>
+        <v>0.14794672693247</v>
       </c>
     </row>
     <row r="161">
@@ -5445,22 +5445,22 @@
         <v>188</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.02241298438962</v>
+        <v>-1.02283230438661</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0497377013173487</v>
+        <v>0.0496702970740406</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.218130552166204</v>
+        <v>-0.217893333313611</v>
       </c>
       <c r="E161" t="n">
-        <v>0.761699206833435</v>
+        <v>0.761835468781777</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00540326752958166</v>
+        <v>0.00537845039997702</v>
       </c>
       <c r="G161" t="n">
-        <v>0.096503870536529</v>
+        <v>0.0962647740300986</v>
       </c>
     </row>
     <row r="162">
@@ -5468,22 +5468,22 @@
         <v>189</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.19317872436459</v>
+        <v>-1.19276695515476</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0340014542631847</v>
+        <v>0.0337868688281336</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.154540831782446</v>
+        <v>-0.15410558346326</v>
       </c>
       <c r="E162" t="n">
-        <v>0.822087912087912</v>
+        <v>0.82188785573401</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0046415282925887</v>
+        <v>0.00463566273181775</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0828728431500253</v>
+        <v>0.0828406222341251</v>
       </c>
     </row>
     <row r="163">
@@ -5491,22 +5491,22 @@
         <v>190</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.51163673969384</v>
+        <v>-1.51110602864953</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0245899760738193</v>
+        <v>0.0245593757537949</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.103736505557483</v>
+        <v>-0.103708349755297</v>
       </c>
       <c r="E163" t="n">
-        <v>0.910651559535604</v>
+        <v>0.910520694174374</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00310975084041124</v>
+        <v>0.00311966013877254</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0612365283150918</v>
+        <v>0.0613428318582791</v>
       </c>
     </row>
     <row r="164">
@@ -5514,22 +5514,22 @@
         <v>191</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.609881108056857</v>
+        <v>-0.606892187123516</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0444500109679624</v>
+        <v>0.0443540065325684</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.345693135348939</v>
+        <v>-0.347020300440128</v>
       </c>
       <c r="E164" t="n">
-        <v>0.57720898380496</v>
+        <v>0.575780060525738</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00903115567207374</v>
+        <v>0.008975735711355</v>
       </c>
       <c r="G164" t="n">
-        <v>0.164641222534407</v>
+        <v>0.164542619585377</v>
       </c>
     </row>
     <row r="165">
@@ -5537,22 +5537,22 @@
         <v>192</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.713361706656141</v>
+        <v>-0.712944221630722</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0401391482471211</v>
+        <v>0.0401069612390782</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.28084990649005</v>
+        <v>-0.280901672948816</v>
       </c>
       <c r="E165" t="n">
-        <v>0.626155871511322</v>
+        <v>0.625966298051606</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00787117664652882</v>
+        <v>0.00787208239640553</v>
       </c>
       <c r="G165" t="n">
-        <v>0.141689403567609</v>
+        <v>0.141740468561697</v>
       </c>
     </row>
     <row r="166">
@@ -5560,22 +5560,22 @@
         <v>193</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.593822882386086</v>
+        <v>-0.593339078272428</v>
       </c>
       <c r="C166" t="n">
-        <v>0.00449201256675314</v>
+        <v>0.00448474487026232</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.112866108832837</v>
+        <v>-0.112866723639374</v>
       </c>
       <c r="E166" t="n">
-        <v>0.571514144868223</v>
+        <v>0.571248837457532</v>
       </c>
       <c r="F166" t="n">
-        <v>0.000907938680959347</v>
+        <v>0.000891778028073911</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0527231410247768</v>
+        <v>0.0522760849071179</v>
       </c>
     </row>
     <row r="167">
@@ -5583,22 +5583,22 @@
         <v>194</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.724507069962866</v>
+        <v>-0.723403605463396</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0399046978614668</v>
+        <v>0.0397984977069976</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.275720708399118</v>
+        <v>-0.275773588537871</v>
       </c>
       <c r="E167" t="n">
-        <v>0.633717881061776</v>
+        <v>0.633183217121033</v>
       </c>
       <c r="F167" t="n">
-        <v>0.00593579526841357</v>
+        <v>0.00596407944065499</v>
       </c>
       <c r="G167" t="n">
-        <v>0.121574780807346</v>
+        <v>0.121966992408927</v>
       </c>
     </row>
     <row r="168">
@@ -5606,22 +5606,22 @@
         <v>195</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.50284155530512</v>
+        <v>-1.50134449499611</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0386300175340444</v>
+        <v>0.0383720185330846</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.130782386284697</v>
+        <v>-0.130474898267372</v>
       </c>
       <c r="E168" t="n">
-        <v>0.899182608788197</v>
+        <v>0.898821460028358</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00638824867925574</v>
+        <v>0.00638935810696767</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0888879741655952</v>
+        <v>0.0889314107988883</v>
       </c>
     </row>
     <row r="169">
@@ -5629,22 +5629,22 @@
         <v>196</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.649327620270303</v>
+        <v>-0.652540719138145</v>
       </c>
       <c r="C169" t="n">
-        <v>0.037291909551931</v>
+        <v>0.0371298428906269</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.297401691561952</v>
+        <v>-0.295293534798551</v>
       </c>
       <c r="E169" t="n">
-        <v>0.598223671207113</v>
+        <v>0.599782645368667</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00584877795465453</v>
+        <v>0.00572646394220921</v>
       </c>
       <c r="G169" t="n">
-        <v>0.127840650925742</v>
+        <v>0.126168043908065</v>
       </c>
     </row>
     <row r="170">
@@ -5652,22 +5652,22 @@
         <v>197</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.37019018317258</v>
+        <v>-1.36879900179615</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0396331967207373</v>
+        <v>0.0396494661995518</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.145294341101063</v>
+        <v>-0.145471860275643</v>
       </c>
       <c r="E170" t="n">
-        <v>0.869640399557435</v>
+        <v>0.869273317565272</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00550561180878812</v>
+        <v>0.00556539396780874</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0853224046051477</v>
+        <v>0.085820612027205</v>
       </c>
     </row>
     <row r="171">
@@ -5675,22 +5675,22 @@
         <v>198</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.09800107499953</v>
+        <v>-1.09658186490033</v>
       </c>
       <c r="C171" t="n">
-        <v>0.17675846969991</v>
+        <v>0.176490853705263</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.382901749945063</v>
+        <v>-0.383106960544186</v>
       </c>
       <c r="E171" t="n">
-        <v>0.771550188614547</v>
+        <v>0.771034517898408</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0234099518100115</v>
+        <v>0.0233985950103713</v>
       </c>
       <c r="G171" t="n">
-        <v>0.198306102074008</v>
+        <v>0.198390590091244</v>
       </c>
     </row>
     <row r="172">
@@ -5698,22 +5698,22 @@
         <v>199</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.23265022870024</v>
+        <v>-1.23249862077096</v>
       </c>
       <c r="C172" t="n">
-        <v>0.024530987423628</v>
+        <v>0.0247319458675206</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.127062575573157</v>
+        <v>-0.127597657561352</v>
       </c>
       <c r="E172" t="n">
-        <v>0.835222835577851</v>
+        <v>0.835155407652073</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00349416862426607</v>
+        <v>0.0035075405942186</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07077332018191</v>
+        <v>0.0709143384003462</v>
       </c>
     </row>
     <row r="173">
@@ -5721,22 +5721,22 @@
         <v>200</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.18982943982269</v>
+        <v>-1.18829257758567</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0471524944211526</v>
+        <v>0.0470543156309753</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.182501998990332</v>
+        <v>-0.182547691931256</v>
       </c>
       <c r="E173" t="n">
-        <v>0.822415506611734</v>
+        <v>0.821874698115789</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00683363746842917</v>
+        <v>0.00688631837155479</v>
       </c>
       <c r="G173" t="n">
-        <v>0.100515879567533</v>
+        <v>0.100968972800407</v>
       </c>
     </row>
     <row r="174">
@@ -5744,22 +5744,22 @@
         <v>201</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.42955112263003</v>
+        <v>-1.42920414473915</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0397346975914797</v>
+        <v>0.0397513782376938</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.139439322868186</v>
+        <v>-0.139502447911422</v>
       </c>
       <c r="E174" t="n">
-        <v>0.889916088010164</v>
+        <v>0.889811224682651</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00447857465010771</v>
+        <v>0.00449285884740267</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0752005212162876</v>
+        <v>0.0753292263834063</v>
       </c>
     </row>
     <row r="175">
@@ -5767,22 +5767,22 @@
         <v>202</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.18053376739511</v>
+        <v>-1.18044215449063</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0327095350141658</v>
+        <v>0.0327913806887915</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.153200002107615</v>
+        <v>-0.153403455152882</v>
       </c>
       <c r="E175" t="n">
-        <v>0.820908242512836</v>
+        <v>0.820888168216807</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00410579645998253</v>
+        <v>0.00410452717589958</v>
       </c>
       <c r="G175" t="n">
-        <v>0.078055604533528</v>
+        <v>0.078045446878347</v>
       </c>
     </row>
     <row r="176">
@@ -5790,22 +5790,22 @@
         <v>203</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.33230389910169</v>
+        <v>-1.33284451923359</v>
       </c>
       <c r="C176" t="n">
-        <v>0.153550094655202</v>
+        <v>0.152060537806378</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.294118095654159</v>
+        <v>-0.292569312125264</v>
       </c>
       <c r="E176" t="n">
-        <v>0.843866404715128</v>
+        <v>0.844</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0138699601641186</v>
+        <v>0.0137487887210563</v>
       </c>
       <c r="G176" t="n">
-        <v>0.139560947539746</v>
+        <v>0.138927996411212</v>
       </c>
     </row>
     <row r="177">
@@ -5813,22 +5813,22 @@
         <v>204</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.926504129495509</v>
+        <v>-0.924521233505829</v>
       </c>
       <c r="C177" t="n">
-        <v>0.038246065717323</v>
+        <v>0.0382000056906357</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.21107948413968</v>
+        <v>-0.211404790210911</v>
       </c>
       <c r="E177" t="n">
-        <v>0.724036763576168</v>
+        <v>0.723135692229678</v>
       </c>
       <c r="F177" t="n">
-        <v>0.00499345551456997</v>
+        <v>0.00501651179684204</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0975977878756416</v>
+        <v>0.0979447407742694</v>
       </c>
     </row>
     <row r="178">
@@ -5836,22 +5836,22 @@
         <v>205</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.31849763138203</v>
+        <v>-1.31921531019372</v>
       </c>
       <c r="C178" t="n">
-        <v>0.134572415723018</v>
+        <v>0.134661527581776</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.278226613926339</v>
+        <v>-0.278167306650389</v>
       </c>
       <c r="E178" t="n">
-        <v>0.83639972435103</v>
+        <v>0.83667098294422</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0103995388974972</v>
+        <v>0.0103932060405925</v>
       </c>
       <c r="G178" t="n">
-        <v>0.121925111327486</v>
+        <v>0.121848464667329</v>
       </c>
     </row>
     <row r="179">
@@ -5859,22 +5859,22 @@
         <v>206</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.45889615764833</v>
+        <v>-1.45879988012104</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0240830092672021</v>
+        <v>0.0241292324161626</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.10637289915042</v>
+        <v>-0.106481959464782</v>
       </c>
       <c r="E179" t="n">
-        <v>0.899129276232424</v>
+        <v>0.899093995661698</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00247866290943141</v>
+        <v>0.00247644339166189</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0553715390941747</v>
+        <v>0.0553489141436453</v>
       </c>
     </row>
     <row r="180">
@@ -5882,22 +5882,22 @@
         <v>207</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.22342192868919</v>
+        <v>-1.22273017467824</v>
       </c>
       <c r="C180" t="n">
-        <v>0.193537044566089</v>
+        <v>0.193850028900569</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.359588498130549</v>
+        <v>-0.360082740406123</v>
       </c>
       <c r="E180" t="n">
-        <v>0.823652410134984</v>
+        <v>0.82342093113471</v>
       </c>
       <c r="F180" t="n">
-        <v>0.020276686538635</v>
+        <v>0.0203237179633093</v>
       </c>
       <c r="G180" t="n">
-        <v>0.172883887695585</v>
+        <v>0.173132929384601</v>
       </c>
     </row>
     <row r="181">
@@ -5905,22 +5905,22 @@
         <v>208</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.941650692286632</v>
+        <v>-0.940967375930703</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0471114932718301</v>
+        <v>0.0470453527455894</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.230501419905995</v>
+        <v>-0.230506830015519</v>
       </c>
       <c r="E181" t="n">
-        <v>0.73174332909784</v>
+        <v>0.731400254129606</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00722472972137773</v>
+        <v>0.00725028705285541</v>
       </c>
       <c r="G181" t="n">
-        <v>0.116158776897462</v>
+        <v>0.116418632567588</v>
       </c>
     </row>
     <row r="182">
@@ -5928,22 +5928,22 @@
         <v>209</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.702577604747786</v>
+        <v>-0.703174572579504</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0437701909537867</v>
+        <v>0.043699197771808</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.297779583726417</v>
+        <v>-0.297285395345109</v>
       </c>
       <c r="E182" t="n">
-        <v>0.623535536441829</v>
+        <v>0.623820733363513</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00521753745306302</v>
+        <v>0.00519541235087908</v>
       </c>
       <c r="G182" t="n">
-        <v>0.115843475297717</v>
+        <v>0.115544747091476</v>
       </c>
     </row>
     <row r="183">
@@ -5951,22 +5951,22 @@
         <v>210</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.73598334682768</v>
+        <v>-1.73543099333421</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0332201968259621</v>
+        <v>0.0333963651602976</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.104991839772569</v>
+        <v>-0.105303365433342</v>
       </c>
       <c r="E183" t="n">
-        <v>0.944111559375548</v>
+        <v>0.944016839151026</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0031871397069314</v>
+        <v>0.00319544152010555</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0597967025118327</v>
+        <v>0.0598805382919334</v>
       </c>
     </row>
     <row r="184">
@@ -5974,22 +5974,22 @@
         <v>211</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.70804375131753</v>
+        <v>-1.70807056060381</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0373758267716559</v>
+        <v>0.0371911395186143</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.113186964568603</v>
+        <v>-0.112905197579068</v>
       </c>
       <c r="E184" t="n">
-        <v>0.944078091106291</v>
+        <v>0.944056399132321</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00260765208706172</v>
+        <v>0.00258946666368657</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0540899904108648</v>
+        <v>0.0539022906870444</v>
       </c>
     </row>
     <row r="185">
@@ -5997,22 +5997,22 @@
         <v>212</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.484662133183156</v>
+        <v>-0.484679660408532</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0253909708131287</v>
+        <v>0.0253674371267104</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.328776345414241</v>
+        <v>-0.328612062632206</v>
       </c>
       <c r="E185" t="n">
-        <v>0.518098014257682</v>
+        <v>0.518114275470921</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00520876153274914</v>
+        <v>0.00520517660175524</v>
       </c>
       <c r="G185" t="n">
-        <v>0.139301345023899</v>
+        <v>0.139249029165089</v>
       </c>
     </row>
     <row r="186">
@@ -6020,22 +6020,22 @@
         <v>213</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.26579592691438</v>
+        <v>-1.26409136669561</v>
       </c>
       <c r="C186" t="n">
-        <v>0.158363799793109</v>
+        <v>0.158774454736078</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.314386770854138</v>
+        <v>-0.315218610071516</v>
       </c>
       <c r="E186" t="n">
-        <v>0.828717434869739</v>
+        <v>0.828196392785571</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0162987182733313</v>
+        <v>0.0163801072390829</v>
       </c>
       <c r="G186" t="n">
-        <v>0.154053032129566</v>
+        <v>0.154534352134606</v>
       </c>
     </row>
     <row r="187">
@@ -6043,22 +6043,22 @@
         <v>214</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.99092687623812</v>
+        <v>-1.99038866349688</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0415279319040631</v>
+        <v>0.0420119913354677</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.102356362223714</v>
+        <v>-0.102979017542274</v>
       </c>
       <c r="E187" t="n">
-        <v>0.97366513933972</v>
+        <v>0.97361724131106</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00656308657570706</v>
+        <v>0.00663492389670445</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0832040460316809</v>
+        <v>0.0836622840319559</v>
       </c>
     </row>
     <row r="188">
@@ -6066,22 +6066,22 @@
         <v>215</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.38879354996538</v>
+        <v>-1.38862534227679</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0705731320502674</v>
+        <v>0.0705762322345138</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.191285480031042</v>
+        <v>-0.191312852845207</v>
       </c>
       <c r="E188" t="n">
-        <v>0.878043202033037</v>
+        <v>0.877979669631512</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00913123983037576</v>
+        <v>0.00910977444019639</v>
       </c>
       <c r="G188" t="n">
-        <v>0.108830090404192</v>
+        <v>0.108709964114671</v>
       </c>
     </row>
     <row r="189">
@@ -6089,22 +6089,22 @@
         <v>216</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.77512203506382</v>
+        <v>-1.77476856126094</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0821687661216132</v>
+        <v>0.0821219810784802</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.161482389699753</v>
+        <v>-0.161468563604515</v>
       </c>
       <c r="E189" t="n">
-        <v>0.952279603122967</v>
+        <v>0.952183365864238</v>
       </c>
       <c r="F189" t="n">
-        <v>0.01358474368203</v>
+        <v>0.0136052689009409</v>
       </c>
       <c r="G189" t="n">
-        <v>0.12239431385112</v>
+        <v>0.12249912161604</v>
       </c>
     </row>
     <row r="190">
@@ -6112,22 +6112,22 @@
         <v>217</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.979419202174612</v>
+        <v>-0.977036124901005</v>
       </c>
       <c r="C190" t="n">
-        <v>0.108722428333846</v>
+        <v>0.108387978271552</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.336659564691372</v>
+        <v>-0.336961231080718</v>
       </c>
       <c r="E190" t="n">
-        <v>0.725284953818733</v>
+        <v>0.724413577673682</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0152688080318766</v>
+        <v>0.0152886118315932</v>
       </c>
       <c r="G190" t="n">
-        <v>0.170370304432265</v>
+        <v>0.170685821011229</v>
       </c>
     </row>
     <row r="191">
@@ -6135,22 +6135,22 @@
         <v>218</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.30701868337725</v>
+        <v>-1.30663827302833</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0328137728395038</v>
+        <v>0.0328732200887624</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.138594593151526</v>
+        <v>-0.138760465670929</v>
       </c>
       <c r="E191" t="n">
-        <v>0.862007722007722</v>
+        <v>0.861870831870832</v>
       </c>
       <c r="F191" t="n">
-        <v>0.00540030659024411</v>
+        <v>0.00542673927240547</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0852507192918301</v>
+        <v>0.0854726747830847</v>
       </c>
     </row>
     <row r="192">
@@ -6158,22 +6158,22 @@
         <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.6525243002372</v>
+        <v>-1.65227601796155</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0608028535216557</v>
+        <v>0.0607262716732778</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.149215564512245</v>
+        <v>-0.149143973624669</v>
       </c>
       <c r="E192" t="n">
-        <v>0.933268497330282</v>
+        <v>0.933224637681159</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00799613223474025</v>
+        <v>0.00799840120844221</v>
       </c>
       <c r="G192" t="n">
-        <v>0.095814972086509</v>
+        <v>0.0958330690444667</v>
       </c>
     </row>
     <row r="193">
@@ -6181,22 +6181,22 @@
         <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.79825400082265</v>
+        <v>-0.797877045463072</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0580773797927063</v>
+        <v>0.0580621751804569</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.301899506712259</v>
+        <v>-0.302002598724745</v>
       </c>
       <c r="E193" t="n">
-        <v>0.668840899333967</v>
+        <v>0.668657646358599</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00755853123428753</v>
+        <v>0.00757160800846787</v>
       </c>
       <c r="G193" t="n">
-        <v>0.129985791760286</v>
+        <v>0.130133840145812</v>
       </c>
     </row>
     <row r="194">
@@ -6204,22 +6204,22 @@
         <v>221</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.08892013871047</v>
+        <v>-1.08886987943118</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0374860277381691</v>
+        <v>0.037480886750743</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.177802834975267</v>
+        <v>-0.177798848586246</v>
       </c>
       <c r="E194" t="n">
-        <v>0.786979604398869</v>
+        <v>0.786953147940723</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00733152432379008</v>
+        <v>0.00732496297205072</v>
       </c>
       <c r="G194" t="n">
-        <v>0.108801194322638</v>
+        <v>0.108756153714125</v>
       </c>
     </row>
     <row r="195">
@@ -6227,22 +6227,22 @@
         <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.600343690518004</v>
+        <v>-0.600229807889861</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0448553342157109</v>
+        <v>0.044920789841543</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.352782552212063</v>
+        <v>-0.353106842087931</v>
       </c>
       <c r="E195" t="n">
-        <v>0.575522326064382</v>
+        <v>0.57546209761163</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00790646072171918</v>
+        <v>0.00793385673439591</v>
       </c>
       <c r="G195" t="n">
-        <v>0.154500142075642</v>
+        <v>0.154783781467695</v>
       </c>
     </row>
     <row r="196">
@@ -6250,22 +6250,22 @@
         <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.03534369333289</v>
+        <v>-1.03509496920877</v>
       </c>
       <c r="C196" t="n">
-        <v>0.15995395465708</v>
+        <v>0.159675262257694</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.386289540135537</v>
+        <v>-0.386045612754033</v>
       </c>
       <c r="E196" t="n">
-        <v>0.750678280207561</v>
+        <v>0.750637509266123</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0228375464493096</v>
+        <v>0.0228234099470217</v>
       </c>
       <c r="G196" t="n">
-        <v>0.201312559939676</v>
+        <v>0.201261174712853</v>
       </c>
     </row>
     <row r="197">
@@ -6273,22 +6273,22 @@
         <v>224</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.774769096761603</v>
+        <v>-0.776602838776522</v>
       </c>
       <c r="C197" t="n">
-        <v>0.135757382736989</v>
+        <v>0.135575990794575</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.475564511779847</v>
+        <v>-0.474124524063436</v>
       </c>
       <c r="E197" t="n">
-        <v>0.646900482244629</v>
+        <v>0.647689609820254</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0221784443339091</v>
+        <v>0.022119849853766</v>
       </c>
       <c r="G197" t="n">
-        <v>0.230212056874635</v>
+        <v>0.22962763724581</v>
       </c>
     </row>
     <row r="198">
@@ -6296,22 +6296,22 @@
         <v>225</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.864574887233043</v>
+        <v>-0.863569170521424</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0526986174474073</v>
+        <v>0.0527126233204768</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.265519850030654</v>
+        <v>-0.265864398452252</v>
       </c>
       <c r="E198" t="n">
-        <v>0.696301409260857</v>
+        <v>0.695844118492954</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0108984398633727</v>
+        <v>0.0108760913350719</v>
       </c>
       <c r="G198" t="n">
-        <v>0.149928740246547</v>
+        <v>0.149873366349398</v>
       </c>
     </row>
     <row r="199">
@@ -6319,22 +6319,22 @@
         <v>226</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.724236183248576</v>
+        <v>-0.724776870240167</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0283943530441915</v>
+        <v>0.0283615977032136</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.232667525137755</v>
+        <v>-0.232359814423307</v>
       </c>
       <c r="E199" t="n">
-        <v>0.634509652509653</v>
+        <v>0.634694980694981</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00453356343748602</v>
+        <v>0.00452152960257003</v>
       </c>
       <c r="G199" t="n">
-        <v>0.106116181861657</v>
+        <v>0.105944307221474</v>
       </c>
     </row>
     <row r="200">
@@ -6342,22 +6342,22 @@
         <v>227</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.66830329354378</v>
+        <v>-0.667537118490929</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0492362027496968</v>
+        <v>0.0491576893755833</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.332023386036428</v>
+        <v>-0.332139334217652</v>
       </c>
       <c r="E200" t="n">
-        <v>0.607550073277968</v>
+        <v>0.607183683439179</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00923323408187993</v>
+        <v>0.00923035034666529</v>
       </c>
       <c r="G200" t="n">
-        <v>0.158159340513755</v>
+        <v>0.158230062725248</v>
       </c>
     </row>
     <row r="201">
@@ -6365,22 +6365,22 @@
         <v>228</v>
       </c>
       <c r="B201" t="n">
-        <v>0.00408466783888228</v>
+        <v>0.0039647839071084</v>
       </c>
       <c r="C201" t="n">
-        <v>0.00479304785558532</v>
+        <v>0.00479062577628949</v>
       </c>
       <c r="D201" t="n">
-        <v>16.9491973577001</v>
+        <v>17.4572809588205</v>
       </c>
       <c r="E201" t="n">
-        <v>0.279559608763023</v>
+        <v>0.279621556703745</v>
       </c>
       <c r="F201" t="n">
-        <v>0.000878610986749406</v>
+        <v>0.000887646777189317</v>
       </c>
       <c r="G201" t="n">
-        <v>0.106028810886644</v>
+        <v>0.106549015471205</v>
       </c>
     </row>
     <row r="202">
@@ -6388,22 +6388,22 @@
         <v>229</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.661867909605019</v>
+        <v>-0.661819405292959</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0500969067851053</v>
+        <v>0.0500266615877323</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.338169262731616</v>
+        <v>-0.337956858228131</v>
       </c>
       <c r="E202" t="n">
-        <v>0.605760318218465</v>
+        <v>0.605738086774417</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00879022543449519</v>
+        <v>0.00878934720710672</v>
       </c>
       <c r="G202" t="n">
-        <v>0.15477442033161</v>
+        <v>0.154772368574076</v>
       </c>
     </row>
     <row r="203">
@@ -6411,22 +6411,22 @@
         <v>230</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.163252973110302</v>
+        <v>-0.164082620598428</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0217406456758951</v>
+        <v>0.0217539606619827</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.903181679872708</v>
+        <v>-0.898890076170535</v>
       </c>
       <c r="E203" t="n">
-        <v>0.358406839450313</v>
+        <v>0.358837795044137</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00402863381192503</v>
+        <v>0.00403733109070971</v>
       </c>
       <c r="G203" t="n">
-        <v>0.177093494612606</v>
+        <v>0.177071637575271</v>
       </c>
     </row>
     <row r="204">
@@ -6434,22 +6434,22 @@
         <v>231</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.04358340306013</v>
+        <v>-1.04370703208889</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0290838731959779</v>
+        <v>0.0291762917796969</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.16341764878766</v>
+        <v>-0.163657697644528</v>
       </c>
       <c r="E204" t="n">
-        <v>0.773626170616328</v>
+        <v>0.773664601884896</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00501637512395536</v>
+        <v>0.00502466270256098</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0915511596842797</v>
+        <v>0.0916222030431108</v>
       </c>
     </row>
     <row r="205">
@@ -6457,22 +6457,22 @@
         <v>232</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.880802396001289</v>
+        <v>-0.886242100169777</v>
       </c>
       <c r="C205" t="n">
-        <v>0.137531296812509</v>
+        <v>0.136895891746699</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.421038957490005</v>
+        <v>-0.417486878804131</v>
       </c>
       <c r="E205" t="n">
-        <v>0.691509520462117</v>
+        <v>0.693728991989024</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0200351353017624</v>
+        <v>0.0198605192615184</v>
       </c>
       <c r="G205" t="n">
-        <v>0.204690636340081</v>
+        <v>0.203144680676658</v>
       </c>
     </row>
     <row r="206">
@@ -6480,22 +6480,22 @@
         <v>233</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.52521850162991</v>
+        <v>-1.52525719872271</v>
       </c>
       <c r="C206" t="n">
-        <v>0.046435522370173</v>
+        <v>0.0464368386773315</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.141284039310975</v>
+        <v>-0.141282457236275</v>
       </c>
       <c r="E206" t="n">
-        <v>0.912180506703133</v>
+        <v>0.91218336606718</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00711863219126846</v>
+        <v>0.00711154257769171</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0924948366968677</v>
+        <v>0.0924484765360851</v>
       </c>
     </row>
     <row r="207">
@@ -6503,22 +6503,22 @@
         <v>234</v>
       </c>
       <c r="B207" t="n">
-        <v>0.393353472045385</v>
+        <v>0.393259124234875</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0567379794143397</v>
+        <v>0.0566899587209515</v>
       </c>
       <c r="D207" t="n">
-        <v>0.605555488505265</v>
+        <v>0.605444394510465</v>
       </c>
       <c r="E207" t="n">
-        <v>0.146076360999747</v>
+        <v>0.146110082780191</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0107725248366471</v>
+        <v>0.0107860026586482</v>
       </c>
       <c r="G207" t="n">
-        <v>0.710524095908959</v>
+        <v>0.71080434630719</v>
       </c>
     </row>
     <row r="208">
@@ -6526,22 +6526,22 @@
         <v>235</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.0288604246267</v>
+        <v>-1.02933183204004</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0436217630348993</v>
+        <v>0.0433900087730484</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.202999582542708</v>
+        <v>-0.20236689373032</v>
       </c>
       <c r="E208" t="n">
-        <v>0.76409698358152</v>
+        <v>0.764266895761741</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0057614689624941</v>
+        <v>0.00574005000899527</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0993386212722405</v>
+        <v>0.0991317537833883</v>
       </c>
     </row>
     <row r="209">
@@ -6549,22 +6549,22 @@
         <v>236</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.634802362642495</v>
+        <v>-0.63506726466536</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0468373420096025</v>
+        <v>0.0468417209613226</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.340924008486463</v>
+        <v>-0.340797730720322</v>
       </c>
       <c r="E209" t="n">
-        <v>0.590848549946294</v>
+        <v>0.590961331901181</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00857162068494083</v>
+        <v>0.00857153297448778</v>
       </c>
       <c r="G209" t="n">
-        <v>0.156695057492153</v>
+        <v>0.156664351487522</v>
       </c>
     </row>
     <row r="210">
@@ -6572,22 +6572,22 @@
         <v>237</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.799918861161419</v>
+        <v>-0.800386815265626</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0365181127598799</v>
+        <v>0.0363180431156427</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.238895641050027</v>
+        <v>-0.23810104091395</v>
       </c>
       <c r="E210" t="n">
-        <v>0.671065586787359</v>
+        <v>0.671292679053518</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00602075531633055</v>
+        <v>0.00598623505961547</v>
       </c>
       <c r="G210" t="n">
-        <v>0.115627336255138</v>
+        <v>0.115256379238783</v>
       </c>
     </row>
     <row r="211">
@@ -6595,22 +6595,22 @@
         <v>238</v>
       </c>
       <c r="B211" t="n">
-        <v>0.209103446387914</v>
+        <v>0.208811608691877</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0294215576821109</v>
+        <v>0.0294246032355996</v>
       </c>
       <c r="D211" t="n">
-        <v>0.82029797650842</v>
+        <v>0.821486949685929</v>
       </c>
       <c r="E211" t="n">
-        <v>0.202232890201871</v>
+        <v>0.202373215164943</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00622517608657391</v>
+        <v>0.00622223525367876</v>
       </c>
       <c r="G211" t="n">
-        <v>0.39014319088734</v>
+        <v>0.389780566130051</v>
       </c>
     </row>
     <row r="212">
@@ -6618,22 +6618,22 @@
         <v>239</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.610075305666932</v>
+        <v>-0.610881214581053</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0437640683008461</v>
+        <v>0.0437463331104336</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.342906247242824</v>
+        <v>-0.342384470032603</v>
       </c>
       <c r="E212" t="n">
-        <v>0.57895227008149</v>
+        <v>0.579251067132324</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0048511561456236</v>
+        <v>0.00484684910951465</v>
       </c>
       <c r="G212" t="n">
-        <v>0.120303944094266</v>
+        <v>0.120188497847521</v>
       </c>
     </row>
     <row r="213">
@@ -6641,22 +6641,22 @@
         <v>240</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.865944592004158</v>
+        <v>-0.869135291401586</v>
       </c>
       <c r="C213" t="n">
-        <v>0.147663676442348</v>
+        <v>0.147379605820728</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.443758550417326</v>
+        <v>-0.44170397787713</v>
       </c>
       <c r="E213" t="n">
-        <v>0.685795644891122</v>
+        <v>0.687091010608599</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0191483341192594</v>
+        <v>0.0190659596057089</v>
       </c>
       <c r="G213" t="n">
-        <v>0.201776588782891</v>
+        <v>0.200962519861074</v>
       </c>
     </row>
     <row r="214">
@@ -6664,22 +6664,22 @@
         <v>241</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.40146606947666</v>
+        <v>-1.40140645291542</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0437579079146478</v>
+        <v>0.0437624159094505</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.149260773319435</v>
+        <v>-0.149274811596074</v>
       </c>
       <c r="E214" t="n">
-        <v>0.882149030600327</v>
+        <v>0.882135015183368</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00648638145173114</v>
+        <v>0.00649494792508152</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0912975832350552</v>
+        <v>0.0913593025634692</v>
       </c>
     </row>
     <row r="215">
@@ -6687,22 +6687,22 @@
         <v>242</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.437062082205108</v>
+        <v>-0.437324752922801</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0493340016116032</v>
+        <v>0.0492399771844856</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.50819459462647</v>
+        <v>-0.507405139727822</v>
       </c>
       <c r="E215" t="n">
-        <v>0.493897656623625</v>
+        <v>0.494012434241989</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00734446441188249</v>
+        <v>0.00732984337500266</v>
       </c>
       <c r="G215" t="n">
-        <v>0.173517427267887</v>
+        <v>0.173304351332013</v>
       </c>
     </row>
     <row r="216">
@@ -6710,22 +6710,22 @@
         <v>243</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.889553710977439</v>
+        <v>-0.889851237877165</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0266048680117234</v>
+        <v>0.0265729036920369</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.183361595207676</v>
+        <v>-0.18319014138197</v>
       </c>
       <c r="E216" t="n">
-        <v>0.711058596265293</v>
+        <v>0.711175788795879</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00424338047419178</v>
+        <v>0.00422379839814844</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0916116268962626</v>
+        <v>0.0913849392448933</v>
       </c>
     </row>
     <row r="217">
@@ -6733,22 +6733,22 @@
         <v>244</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.11186134068056</v>
+        <v>-1.11431489235563</v>
       </c>
       <c r="C217" t="n">
-        <v>0.183380317344954</v>
+        <v>0.184138007131092</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.385146299822914</v>
+        <v>-0.385091368672766</v>
       </c>
       <c r="E217" t="n">
-        <v>0.781763167725065</v>
+        <v>0.782611131864027</v>
       </c>
       <c r="F217" t="n">
-        <v>0.022967732753827</v>
+        <v>0.0230074857697714</v>
       </c>
       <c r="G217" t="n">
-        <v>0.193858058092097</v>
+        <v>0.193815524146751</v>
       </c>
     </row>
     <row r="218">
@@ -6756,22 +6756,22 @@
         <v>245</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.39895436747526</v>
+        <v>-1.39894800427602</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0239331452199201</v>
+        <v>0.0239343668402392</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.110585029859029</v>
+        <v>-0.110588355136179</v>
       </c>
       <c r="E218" t="n">
-        <v>0.886361042419631</v>
+        <v>0.886342020163591</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00374902003596824</v>
+        <v>0.00375105089229651</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0690793466134452</v>
+        <v>0.0690995372834568</v>
       </c>
     </row>
     <row r="219">
@@ -6779,22 +6779,22 @@
         <v>246</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.926101329946316</v>
+        <v>-0.926749949218161</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0470752235038245</v>
+        <v>0.0471358731738878</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.234281333568304</v>
+        <v>-0.23426812812282</v>
       </c>
       <c r="E219" t="n">
-        <v>0.725656542617115</v>
+        <v>0.725903342901598</v>
       </c>
       <c r="F219" t="n">
-        <v>0.004664663399963</v>
+        <v>0.00465704885050444</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0941193761931546</v>
+        <v>0.0940105514868525</v>
       </c>
     </row>
     <row r="220">
@@ -6802,22 +6802,22 @@
         <v>247</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.13648590103333</v>
+        <v>-1.13563842712544</v>
       </c>
       <c r="C220" t="n">
-        <v>0.164537874524944</v>
+        <v>0.164436423846598</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.356918360247724</v>
+        <v>-0.357074578384512</v>
       </c>
       <c r="E220" t="n">
-        <v>0.787742408376963</v>
+        <v>0.787507853403141</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0193401728208766</v>
+        <v>0.0193537902997834</v>
       </c>
       <c r="G220" t="n">
-        <v>0.176541148986855</v>
+        <v>0.176655889989386</v>
       </c>
     </row>
     <row r="221">
@@ -6825,22 +6825,22 @@
         <v>248</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.28926184080358</v>
+        <v>-1.28927613475909</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0367713059604573</v>
+        <v>0.0367290394159887</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.148735075582458</v>
+        <v>-0.148647921660528</v>
       </c>
       <c r="E221" t="n">
-        <v>0.854913177771674</v>
+        <v>0.854908241662048</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00450831176837239</v>
+        <v>0.00450502738334194</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0785389262365311</v>
+        <v>0.078510765830827</v>
       </c>
     </row>
     <row r="222">
@@ -6848,22 +6848,22 @@
         <v>249</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.22700628344453</v>
+        <v>-1.22710710693145</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0375490170469151</v>
+        <v>0.0375259582318792</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.157925586906143</v>
+        <v>-0.157864116740796</v>
       </c>
       <c r="E222" t="n">
-        <v>0.834151692389139</v>
+        <v>0.834158760721382</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00509072604555999</v>
+        <v>0.00509335369270833</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0855351906891728</v>
+        <v>0.085556537936</v>
       </c>
     </row>
     <row r="223">
@@ -6871,22 +6871,22 @@
         <v>250</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.15101295852717</v>
+        <v>-1.15083757679953</v>
       </c>
       <c r="C223" t="n">
-        <v>0.158185272725861</v>
+        <v>0.15703099145378</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.34554356588588</v>
+        <v>-0.34433300482084</v>
       </c>
       <c r="E223" t="n">
-        <v>0.791124867350548</v>
+        <v>0.791089494163424</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0193004579562706</v>
+        <v>0.0191982508672187</v>
       </c>
       <c r="G223" t="n">
-        <v>0.175605765712641</v>
+        <v>0.17514801276563</v>
       </c>
     </row>
     <row r="224">
@@ -6894,22 +6894,22 @@
         <v>251</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.4224696976135</v>
+        <v>-1.42253233711989</v>
       </c>
       <c r="C224" t="n">
-        <v>0.028994404127445</v>
+        <v>0.0289101646934231</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.11970549046122</v>
+        <v>-0.11952620625347</v>
       </c>
       <c r="E224" t="n">
-        <v>0.892823297137216</v>
+        <v>0.892820476660556</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00310001028931046</v>
+        <v>0.00308828473706274</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0623614282999632</v>
+        <v>0.0622435745250655</v>
       </c>
     </row>
     <row r="225">
@@ -6917,22 +6917,22 @@
         <v>252</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.642756899643099</v>
+        <v>-0.64264788679024</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0230532075422826</v>
+        <v>0.0230517083116503</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.236221233411367</v>
+        <v>-0.236253621226033</v>
       </c>
       <c r="E225" t="n">
-        <v>0.597098752131779</v>
+        <v>0.597033168406498</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00463945455885878</v>
+        <v>0.00464508722616339</v>
       </c>
       <c r="G225" t="n">
-        <v>0.114074165164513</v>
+        <v>0.114155930300914</v>
       </c>
     </row>
     <row r="226">
@@ -6940,22 +6940,22 @@
         <v>253</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.11580512459931</v>
+        <v>-1.11712704498463</v>
       </c>
       <c r="C226" t="n">
-        <v>0.186028554481782</v>
+        <v>0.185049095876922</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.386546240770334</v>
+        <v>-0.385071093117843</v>
       </c>
       <c r="E226" t="n">
-        <v>0.779431601849334</v>
+        <v>0.779912972531955</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0203316708361905</v>
+        <v>0.0202058930249404</v>
       </c>
       <c r="G226" t="n">
-        <v>0.182939936846442</v>
+        <v>0.182260635634297</v>
       </c>
     </row>
     <row r="227">
@@ -6963,22 +6963,22 @@
         <v>254</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.04488511709755</v>
+        <v>-1.04482037567096</v>
       </c>
       <c r="C227" t="n">
-        <v>0.133888794087271</v>
+        <v>0.133793520253875</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.350189864070281</v>
+        <v>-0.350086937719022</v>
       </c>
       <c r="E227" t="n">
-        <v>0.753590277162029</v>
+        <v>0.753583494746269</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0176416014783918</v>
+        <v>0.0176255820283201</v>
       </c>
       <c r="G227" t="n">
-        <v>0.176251863336183</v>
+        <v>0.176173408025067</v>
       </c>
     </row>
     <row r="228">
@@ -6986,22 +6986,22 @@
         <v>255</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.15739335022808</v>
+        <v>-1.15855174315258</v>
       </c>
       <c r="C228" t="n">
-        <v>0.149079128876326</v>
+        <v>0.149110798390399</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.333601074172699</v>
+        <v>-0.333302915669025</v>
       </c>
       <c r="E228" t="n">
-        <v>0.795930280528053</v>
+        <v>0.796355198019802</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0145279361813231</v>
+        <v>0.0144988948806507</v>
       </c>
       <c r="G228" t="n">
-        <v>0.151435234464445</v>
+        <v>0.151203077774296</v>
       </c>
     </row>
     <row r="229">
@@ -7009,22 +7009,22 @@
         <v>256</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.08338057372991</v>
+        <v>-1.08345246738706</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0170671233253132</v>
+        <v>0.0170696393403867</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.120586619223995</v>
+        <v>-0.120587505019651</v>
       </c>
       <c r="E229" t="n">
-        <v>0.790020533759049</v>
+        <v>0.79002251581186</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00295828005052151</v>
+        <v>0.00296031999965054</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0688464043196896</v>
+        <v>0.0688699647437612</v>
       </c>
     </row>
     <row r="230">
@@ -7032,22 +7032,22 @@
         <v>257</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.310059708494122</v>
+        <v>-0.31099568733746</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0488383067999843</v>
+        <v>0.0487377674866281</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.71274628934086</v>
+        <v>-0.709869389580266</v>
       </c>
       <c r="E230" t="n">
-        <v>0.43062976356694</v>
+        <v>0.43114840461216</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00985127923075422</v>
+        <v>0.0098163540314671</v>
       </c>
       <c r="G230" t="n">
-        <v>0.230484790104788</v>
+        <v>0.229799099815867</v>
       </c>
     </row>
     <row r="231">
@@ -7055,22 +7055,22 @@
         <v>258</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.03466365026263</v>
+        <v>-1.03474891999525</v>
       </c>
       <c r="C231" t="n">
-        <v>0.140344631333041</v>
+        <v>0.139908086368727</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.36207514248995</v>
+        <v>-0.361481791889059</v>
       </c>
       <c r="E231" t="n">
-        <v>0.749654282765738</v>
+        <v>0.749705882352941</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0164692745028814</v>
+        <v>0.0164420141661901</v>
       </c>
       <c r="G231" t="n">
-        <v>0.171189139009751</v>
+        <v>0.171035629573349</v>
       </c>
     </row>
     <row r="232">
@@ -7078,22 +7078,22 @@
         <v>259</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.931083279945923</v>
+        <v>-0.929349277123461</v>
       </c>
       <c r="C232" t="n">
-        <v>0.149700805780835</v>
+        <v>0.149357201579818</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.415550243544852</v>
+        <v>-0.415847522550273</v>
       </c>
       <c r="E232" t="n">
-        <v>0.710607046070461</v>
+        <v>0.710059620596206</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0218404357365178</v>
+        <v>0.0218054757042031</v>
       </c>
       <c r="G232" t="n">
-        <v>0.207970214569802</v>
+        <v>0.207963906451015</v>
       </c>
     </row>
     <row r="233">
@@ -7101,22 +7101,22 @@
         <v>260</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.11706652278808</v>
+        <v>-1.11700764443595</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0445230505772493</v>
+        <v>0.0446149200786431</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.188891936896648</v>
+        <v>-0.189096684546241</v>
       </c>
       <c r="E233" t="n">
-        <v>0.799323706362978</v>
+        <v>0.799297733487358</v>
       </c>
       <c r="F233" t="n">
-        <v>0.00897369834371646</v>
+        <v>0.00898829181941736</v>
       </c>
       <c r="G233" t="n">
-        <v>0.118512194402812</v>
+        <v>0.118612374614831</v>
       </c>
     </row>
     <row r="234">
@@ -7124,22 +7124,22 @@
         <v>261</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.90437022059501</v>
+        <v>-0.904071918327552</v>
       </c>
       <c r="C234" t="n">
-        <v>0.16228915040351</v>
+        <v>0.161933494668998</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.445449514605115</v>
+        <v>-0.445107963647261</v>
       </c>
       <c r="E234" t="n">
-        <v>0.695617685305592</v>
+        <v>0.695526657997399</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0237953158713544</v>
+        <v>0.023766276490587</v>
       </c>
       <c r="G234" t="n">
-        <v>0.221755868731914</v>
+        <v>0.221649518628405</v>
       </c>
     </row>
     <row r="235">
@@ -7147,22 +7147,22 @@
         <v>262</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.920348440734269</v>
+        <v>-0.920115072166633</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0484100835282148</v>
+        <v>0.0483939234407544</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.239064800001772</v>
+        <v>-0.239085518604289</v>
       </c>
       <c r="E235" t="n">
-        <v>0.722010069802564</v>
+        <v>0.721902472793174</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00939197010121663</v>
+        <v>0.0093948469685752</v>
       </c>
       <c r="G235" t="n">
-        <v>0.134225520270384</v>
+        <v>0.134266085001477</v>
       </c>
     </row>
     <row r="236">
@@ -7170,22 +7170,22 @@
         <v>263</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.00393695608318</v>
+        <v>-1.00320474310671</v>
       </c>
       <c r="C236" t="n">
-        <v>0.037693340389793</v>
+        <v>0.037789060298161</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.193386374599398</v>
+        <v>-0.193773092057989</v>
       </c>
       <c r="E236" t="n">
-        <v>0.752726084456549</v>
+        <v>0.752414334272104</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00677513062522206</v>
+        <v>0.00680644651678805</v>
       </c>
       <c r="G236" t="n">
-        <v>0.109350776269549</v>
+        <v>0.109648616785129</v>
       </c>
     </row>
     <row r="237">
@@ -7193,22 +7193,22 @@
         <v>264</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.01236240125967</v>
+        <v>-1.00998377618788</v>
       </c>
       <c r="C237" t="n">
-        <v>0.147350038145569</v>
+        <v>0.146856114817808</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.379174496763529</v>
+        <v>-0.37942995966158</v>
       </c>
       <c r="E237" t="n">
-        <v>0.740346914078257</v>
+        <v>0.739366680112949</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0184989567570497</v>
+        <v>0.0184928158529225</v>
       </c>
       <c r="G237" t="n">
-        <v>0.183712348102734</v>
+        <v>0.183925373878464</v>
       </c>
     </row>
     <row r="238">
@@ -7216,22 +7216,22 @@
         <v>265</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.845094592198062</v>
+        <v>-0.843615398609563</v>
       </c>
       <c r="C238" t="n">
-        <v>0.144921016898132</v>
+        <v>0.14438897971645</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.450464285048367</v>
+        <v>-0.450425039628871</v>
       </c>
       <c r="E238" t="n">
-        <v>0.676990989166751</v>
+        <v>0.67655732172387</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0228064679226872</v>
+        <v>0.022763159938975</v>
       </c>
       <c r="G238" t="n">
-        <v>0.223072547545695</v>
+        <v>0.223003498611917</v>
       </c>
     </row>
     <row r="239">
@@ -7239,22 +7239,22 @@
         <v>266</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.820378372297824</v>
+        <v>-0.820168080576526</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0219928006012615</v>
+        <v>0.0219358881232378</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.180769878382485</v>
+        <v>-0.180582120267039</v>
       </c>
       <c r="E239" t="n">
-        <v>0.680667535087084</v>
+        <v>0.680562246563095</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00370344313222321</v>
+        <v>0.00369880442872915</v>
       </c>
       <c r="G239" t="n">
-        <v>0.0894062342585677</v>
+        <v>0.0893640475662503</v>
       </c>
     </row>
     <row r="240">
@@ -7262,22 +7262,22 @@
         <v>267</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.756029979978687</v>
+        <v>-0.755668138503623</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0422037878844014</v>
+        <v>0.0422232750957049</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.271729442802037</v>
+        <v>-0.271922313855985</v>
       </c>
       <c r="E240" t="n">
-        <v>0.650769911504425</v>
+        <v>0.650597345132743</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0089524769858642</v>
+        <v>0.0089593238190148</v>
       </c>
       <c r="G240" t="n">
-        <v>0.145393215544973</v>
+        <v>0.145487382384205</v>
       </c>
     </row>
     <row r="241">
@@ -7285,22 +7285,22 @@
         <v>268</v>
       </c>
       <c r="B241" t="n">
-        <v>0.0613636447102712</v>
+        <v>0.0618518215836659</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0174455006687892</v>
+        <v>0.0174194610775826</v>
       </c>
       <c r="D241" t="n">
-        <v>2.1524376109364</v>
+        <v>2.13385479381071</v>
       </c>
       <c r="E241" t="n">
-        <v>0.261832996713203</v>
+        <v>0.261672278131134</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00360078128517872</v>
+        <v>0.00357000824056715</v>
       </c>
       <c r="G241" t="n">
-        <v>0.229178564618974</v>
+        <v>0.228337317086759</v>
       </c>
     </row>
     <row r="242">
@@ -7308,22 +7308,22 @@
         <v>269</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.437584362863343</v>
+        <v>-0.440776114989803</v>
       </c>
       <c r="C242" t="n">
-        <v>0.164725821550489</v>
+        <v>0.164132037204966</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.927510953355567</v>
+        <v>-0.919133567742425</v>
       </c>
       <c r="E242" t="n">
-        <v>0.493874953201048</v>
+        <v>0.495312616997379</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0304163267684677</v>
+        <v>0.0302809995281909</v>
       </c>
       <c r="G242" t="n">
-        <v>0.353131436502648</v>
+        <v>0.351322296052472</v>
       </c>
     </row>
     <row r="243">
@@ -7331,22 +7331,22 @@
         <v>270</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.432627780493782</v>
+        <v>-0.433175125303981</v>
       </c>
       <c r="C243" t="n">
-        <v>0.0405491914497905</v>
+        <v>0.0405100344997013</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.465453923915671</v>
+        <v>-0.464641286141771</v>
       </c>
       <c r="E243" t="n">
-        <v>0.492903811252269</v>
+        <v>0.49318058076225</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00802949811924203</v>
+        <v>0.00798629413090701</v>
       </c>
       <c r="G243" t="n">
-        <v>0.181795037543909</v>
+        <v>0.181203542077993</v>
       </c>
     </row>
     <row r="244">
@@ -7354,22 +7354,22 @@
         <v>271</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.474849545277321</v>
+        <v>-0.478052056869934</v>
       </c>
       <c r="C244" t="n">
-        <v>0.166603935476261</v>
+        <v>0.166325462321216</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.859580592608485</v>
+        <v>-0.853108322061851</v>
       </c>
       <c r="E244" t="n">
-        <v>0.514106003530258</v>
+        <v>0.515535380406987</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0299389360876078</v>
+        <v>0.0299168316646051</v>
       </c>
       <c r="G244" t="n">
-        <v>0.336562330424116</v>
+        <v>0.33550525220726</v>
       </c>
     </row>
     <row r="245">
@@ -7377,22 +7377,22 @@
         <v>272</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.552065709421815</v>
+        <v>-0.552670624874791</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0574518443090895</v>
+        <v>0.0576592795907949</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.434171402943494</v>
+        <v>-0.434478433593514</v>
       </c>
       <c r="E245" t="n">
-        <v>0.551480263157895</v>
+        <v>0.551710526315789</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0117558196426892</v>
+        <v>0.0118003674819282</v>
       </c>
       <c r="G245" t="n">
-        <v>0.196605871277195</v>
+        <v>0.196895819800498</v>
       </c>
     </row>
     <row r="246">
@@ -7400,22 +7400,22 @@
         <v>273</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.817780380368984</v>
+        <v>-0.826133651546229</v>
       </c>
       <c r="C246" t="n">
-        <v>0.128808028738796</v>
+        <v>0.129152737386811</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.438868873529708</v>
+        <v>-0.435012257850108</v>
       </c>
       <c r="E246" t="n">
-        <v>0.660913995853253</v>
+        <v>0.664451800878363</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0216826402433673</v>
+        <v>0.0215692859729506</v>
       </c>
       <c r="G246" t="n">
-        <v>0.222797920618899</v>
+        <v>0.221031617280931</v>
       </c>
     </row>
     <row r="247">
@@ -7423,22 +7423,22 @@
         <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.530645581515058</v>
+        <v>-0.531059880685641</v>
       </c>
       <c r="C247" t="n">
-        <v>0.169975807122382</v>
+        <v>0.169930187313685</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.776942723554429</v>
+        <v>-0.776232414729762</v>
       </c>
       <c r="E247" t="n">
-        <v>0.53814258438751</v>
+        <v>0.538324661307573</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0302650924342046</v>
+        <v>0.0302560642060176</v>
       </c>
       <c r="G247" t="n">
-        <v>0.323276132838617</v>
+        <v>0.323118586801675</v>
       </c>
     </row>
     <row r="248">
@@ -7446,22 +7446,22 @@
         <v>275</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.610926885347627</v>
+        <v>-0.611136257837172</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0472450508123995</v>
+        <v>0.0472731328502874</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.355786055409893</v>
+        <v>-0.35576985083825</v>
       </c>
       <c r="E248" t="n">
-        <v>0.580712788259958</v>
+        <v>0.58082226880969</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0105078160129256</v>
+        <v>0.0105116538443695</v>
       </c>
       <c r="G248" t="n">
-        <v>0.176520374400492</v>
+        <v>0.176519328430459</v>
       </c>
     </row>
     <row r="249">
@@ -7469,22 +7469,22 @@
         <v>276</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.870789859185731</v>
+        <v>-0.87172687039771</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0492727856244011</v>
+        <v>0.0491155344553025</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.254911949902456</v>
+        <v>-0.254231291730249</v>
       </c>
       <c r="E249" t="n">
-        <v>0.700959859230994</v>
+        <v>0.701409716514592</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0104796246289853</v>
+        <v>0.0104155455424527</v>
       </c>
       <c r="G249" t="n">
-        <v>0.146042653373256</v>
+        <v>0.145502090576652</v>
       </c>
     </row>
     <row r="250">
@@ -7492,22 +7492,22 @@
         <v>277</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.648951297156081</v>
+        <v>-0.649363816241725</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0174463427781999</v>
+        <v>0.0176883377106743</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.203535465914048</v>
+        <v>-0.204812012681796</v>
       </c>
       <c r="E250" t="n">
-        <v>0.599589506061589</v>
+        <v>0.599806707998414</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00364196242761433</v>
+        <v>0.00367334044210683</v>
       </c>
       <c r="G250" t="n">
-        <v>0.100649983321841</v>
+        <v>0.101046033844341</v>
       </c>
     </row>
     <row r="251">
@@ -7515,22 +7515,22 @@
         <v>278</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.488711621762384</v>
+        <v>-0.489005149852355</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0593706260352458</v>
+        <v>0.0594323324852485</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.498578041565571</v>
+        <v>-0.498537641343461</v>
       </c>
       <c r="E251" t="n">
-        <v>0.51906052853119</v>
+        <v>0.519217901099583</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0124456048454163</v>
+        <v>0.012449614249362</v>
       </c>
       <c r="G251" t="n">
-        <v>0.214926516259366</v>
+        <v>0.214895979476978</v>
       </c>
     </row>
     <row r="252">
@@ -7538,22 +7538,22 @@
         <v>279</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.433892992034838</v>
+        <v>-0.434302717410091</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0671045767985695</v>
+        <v>0.0671036859967027</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.597026261801874</v>
+        <v>-0.596459062478501</v>
       </c>
       <c r="E252" t="n">
-        <v>0.492319587628866</v>
+        <v>0.492507029053421</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0138925112414349</v>
+        <v>0.0138874406371076</v>
       </c>
       <c r="G252" t="n">
-        <v>0.239410538393985</v>
+        <v>0.239275743641943</v>
       </c>
     </row>
     <row r="253">
@@ -7561,22 +7561,22 @@
         <v>280</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.0413896764847953</v>
+        <v>-0.0419970974597511</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0483870298125445</v>
+        <v>0.0485138640841558</v>
       </c>
       <c r="D253" t="n">
-        <v>-5.31462284821019</v>
+        <v>-5.24461554037182</v>
       </c>
       <c r="E253" t="n">
-        <v>0.308102597829661</v>
+        <v>0.308382111147649</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00977736406559655</v>
+        <v>0.00979277793251627</v>
       </c>
       <c r="G253" t="n">
-        <v>0.320933855260545</v>
+        <v>0.320895610078527</v>
       </c>
     </row>
     <row r="254">
@@ -7584,22 +7584,22 @@
         <v>281</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.24790793612335</v>
+        <v>-1.24905801127922</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0452545992901156</v>
+        <v>0.0458434490333356</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.170470335248275</v>
+        <v>-0.171417845762855</v>
       </c>
       <c r="E254" t="n">
-        <v>0.838923042165072</v>
+        <v>0.839228160927256</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00842251547168864</v>
+        <v>0.00849710761996195</v>
       </c>
       <c r="G254" t="n">
-        <v>0.109395330745148</v>
+        <v>0.10983873205981</v>
       </c>
     </row>
     <row r="255">
@@ -7607,22 +7607,22 @@
         <v>282</v>
       </c>
       <c r="B255" t="n">
-        <v>0.507389924473316</v>
+        <v>0.507841272634046</v>
       </c>
       <c r="C255" t="n">
-        <v>0.00544457449463361</v>
+        <v>0.00545539880234086</v>
       </c>
       <c r="D255" t="n">
-        <v>0.145425355201713</v>
+        <v>0.145440466408824</v>
       </c>
       <c r="E255" t="n">
-        <v>0.112760817764526</v>
+        <v>0.112682409618385</v>
       </c>
       <c r="F255" t="n">
-        <v>0.000905444234836473</v>
+        <v>0.000883509853855042</v>
       </c>
       <c r="G255" t="n">
-        <v>0.266853336438043</v>
+        <v>0.263784682569307</v>
       </c>
     </row>
     <row r="256">
@@ -7630,22 +7630,22 @@
         <v>283</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.515466900205686</v>
+        <v>-0.515725639788967</v>
       </c>
       <c r="C256" t="n">
-        <v>0.025590538573849</v>
+        <v>0.0255542515751782</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.310340839047183</v>
+        <v>-0.309965144083026</v>
       </c>
       <c r="E256" t="n">
-        <v>0.533612199216564</v>
+        <v>0.533754896474538</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00544562417872786</v>
+        <v>0.00543398772550244</v>
       </c>
       <c r="G256" t="n">
-        <v>0.138292326631504</v>
+        <v>0.138107560618342</v>
       </c>
     </row>
     <row r="257">
@@ -7653,22 +7653,22 @@
         <v>284</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.494176631605832</v>
+        <v>-0.494896039812116</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0278520548006749</v>
+        <v>0.0282796992588357</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.337711940021972</v>
+        <v>-0.339800031460628</v>
       </c>
       <c r="E257" t="n">
-        <v>0.523379273032517</v>
+        <v>0.523739697231984</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00457713159711478</v>
+        <v>0.00462602866100222</v>
       </c>
       <c r="G257" t="n">
-        <v>0.129264770621589</v>
+        <v>0.129863967441783</v>
       </c>
     </row>
     <row r="258">
@@ -7676,22 +7676,22 @@
         <v>285</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.287993421196638</v>
+        <v>-0.288639713007024</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0299282651106942</v>
+        <v>0.0299565031623213</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.600700791395196</v>
+        <v>-0.599638451868524</v>
       </c>
       <c r="E258" t="n">
-        <v>0.420972484292391</v>
+        <v>0.421317567922745</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00650229652804513</v>
+        <v>0.00651701261425537</v>
       </c>
       <c r="G258" t="n">
-        <v>0.19154890567983</v>
+        <v>0.191608474075428</v>
       </c>
     </row>
     <row r="259">
@@ -7699,22 +7699,22 @@
         <v>286</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.527221726303389</v>
+        <v>-0.527692365227672</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0591164973325601</v>
+        <v>0.058982353517926</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.461170000408154</v>
+        <v>-0.460235630849085</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5385</v>
+        <v>0.538740139211137</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0114361330687685</v>
+        <v>0.0114327631675648</v>
       </c>
       <c r="G259" t="n">
-        <v>0.198588407150515</v>
+        <v>0.198470639644844</v>
       </c>
     </row>
     <row r="260">
@@ -7722,22 +7722,22 @@
         <v>287</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.625007034460149</v>
+        <v>-0.625637235944068</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0251065400694468</v>
+        <v>0.0250831469456001</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.253517841197145</v>
+        <v>-0.253144457170059</v>
       </c>
       <c r="E260" t="n">
-        <v>0.587606093579978</v>
+        <v>0.587887196227784</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00445096236256338</v>
+        <v>0.00445017160980017</v>
       </c>
       <c r="G260" t="n">
-        <v>0.113537851074011</v>
+        <v>0.113473480977492</v>
       </c>
     </row>
     <row r="261">
@@ -7745,22 +7745,22 @@
         <v>288</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.648791005846278</v>
+        <v>-0.650363738456784</v>
       </c>
       <c r="C261" t="n">
-        <v>0.151039737468566</v>
+        <v>0.149624985112072</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.599019265661489</v>
+        <v>-0.594765462201779</v>
       </c>
       <c r="E261" t="n">
-        <v>0.591031017911752</v>
+        <v>0.591734381826125</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0259949108733413</v>
+        <v>0.0257110350734351</v>
       </c>
       <c r="G261" t="n">
-        <v>0.272793421319043</v>
+        <v>0.270977340675472</v>
       </c>
     </row>
     <row r="262">
@@ -7768,22 +7768,22 @@
         <v>289</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.395868781727402</v>
+        <v>-0.396010638510607</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0395922554281873</v>
+        <v>0.0395573958457342</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.502636319622733</v>
+        <v>-0.502235021757463</v>
       </c>
       <c r="E262" t="n">
-        <v>0.474133702531646</v>
+        <v>0.474220727848101</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00839576278528581</v>
+        <v>0.0083769031003082</v>
       </c>
       <c r="G262" t="n">
-        <v>0.193254338581405</v>
+        <v>0.193001734995938</v>
       </c>
     </row>
     <row r="263">
@@ -7791,22 +7791,22 @@
         <v>290</v>
       </c>
       <c r="B263" t="n">
-        <v>0.219340957196856</v>
+        <v>0.218357225756316</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0485411299306194</v>
+        <v>0.0484755854963669</v>
       </c>
       <c r="D263" t="n">
-        <v>1.00446591999519</v>
+        <v>1.00830974308354</v>
       </c>
       <c r="E263" t="n">
-        <v>0.204010392064242</v>
+        <v>0.204364666981578</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00994234713185141</v>
+        <v>0.00993695166353578</v>
       </c>
       <c r="G263" t="n">
-        <v>0.488756077407023</v>
+        <v>0.487776391735466</v>
       </c>
     </row>
     <row r="264">
@@ -7814,22 +7814,22 @@
         <v>291</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.748044587864458</v>
+        <v>-0.74809137898654</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0456272405345865</v>
+        <v>0.0455710790996264</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.285551612468884</v>
+        <v>-0.28535796967339</v>
       </c>
       <c r="E264" t="n">
-        <v>0.645409482758621</v>
+        <v>0.645445402298851</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00967932114068796</v>
+        <v>0.00966977408918677</v>
       </c>
       <c r="G264" t="n">
-        <v>0.152435846750368</v>
+        <v>0.15235217282286</v>
       </c>
     </row>
     <row r="265">
@@ -7837,22 +7837,22 @@
         <v>292</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.585975195150299</v>
+        <v>-0.585783824905467</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0309248272323459</v>
+        <v>0.0308454423625798</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.300105813665286</v>
+        <v>-0.29981829218945</v>
       </c>
       <c r="E265" t="n">
-        <v>0.567408450704225</v>
+        <v>0.567347417840376</v>
       </c>
       <c r="F265" t="n">
-        <v>0.00684829613260156</v>
+        <v>0.00682838477462585</v>
       </c>
       <c r="G265" t="n">
-        <v>0.145846316888573</v>
+        <v>0.145649805850057</v>
       </c>
     </row>
     <row r="266">
@@ -7860,22 +7860,22 @@
         <v>293</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.08863283239417</v>
+        <v>-1.08880012699303</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0285052924973528</v>
+        <v>0.0286097548373989</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.155089116765583</v>
+        <v>-0.155349158566468</v>
       </c>
       <c r="E266" t="n">
-        <v>0.790695895522388</v>
+        <v>0.790736940298507</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0062346289415098</v>
+        <v>0.00623746869977306</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0998609794182763</v>
+        <v>0.0998785345810696</v>
       </c>
     </row>
     <row r="267">
@@ -7883,22 +7883,22 @@
         <v>294</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.588522478619704</v>
+        <v>-0.589987854553096</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0423154991738851</v>
+        <v>0.0427627260226909</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.349531788190433</v>
+        <v>-0.350501289395936</v>
       </c>
       <c r="E267" t="n">
-        <v>0.568099356395817</v>
+        <v>0.568777152051488</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00820126302620499</v>
+        <v>0.00830620137917147</v>
       </c>
       <c r="G267" t="n">
-        <v>0.159410187652667</v>
+        <v>0.160235627604988</v>
       </c>
     </row>
     <row r="268">
@@ -7906,22 +7906,22 @@
         <v>295</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.03163074222432</v>
+        <v>-1.03294694521576</v>
       </c>
       <c r="C268" t="n">
-        <v>0.0395066351798643</v>
+        <v>0.039731757530408</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.192668512980284</v>
+        <v>-0.192970477992128</v>
       </c>
       <c r="E268" t="n">
-        <v>0.769896238651102</v>
+        <v>0.770367488110679</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0077560518580575</v>
+        <v>0.00773777337915416</v>
       </c>
       <c r="G268" t="n">
-        <v>0.114390024815619</v>
+        <v>0.114185263157648</v>
       </c>
     </row>
     <row r="269">
@@ -7929,22 +7929,22 @@
         <v>296</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.10019171864808</v>
+        <v>-1.10041984329749</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0445397838169644</v>
+        <v>0.0444388836354247</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.191825209318961</v>
+        <v>-0.191568084611267</v>
       </c>
       <c r="E269" t="n">
-        <v>0.792842105263158</v>
+        <v>0.792904483430799</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00935787012520472</v>
+        <v>0.00932594493002595</v>
       </c>
       <c r="G269" t="n">
-        <v>0.122011790589241</v>
+        <v>0.121793903471907</v>
       </c>
     </row>
     <row r="270">
@@ -7952,22 +7952,22 @@
         <v>297</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.870711568566858</v>
+        <v>-0.870863240296793</v>
       </c>
       <c r="C270" t="n">
-        <v>0.0316130884322382</v>
+        <v>0.0317646740235801</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.204201603660347</v>
+        <v>-0.204654944785432</v>
       </c>
       <c r="E270" t="n">
-        <v>0.702149735942839</v>
+        <v>0.702208760484623</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00682460179767131</v>
+        <v>0.00687505140385589</v>
       </c>
       <c r="G270" t="n">
-        <v>0.117654602594244</v>
+        <v>0.118078745810571</v>
       </c>
     </row>
     <row r="271">
@@ -7975,22 +7975,22 @@
         <v>298</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.231030213785803</v>
+        <v>-0.231248530747678</v>
       </c>
       <c r="C271" t="n">
-        <v>0.0108499236415817</v>
+        <v>0.0108942894155288</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.45086296307456</v>
+        <v>-0.451357301294398</v>
       </c>
       <c r="E271" t="n">
-        <v>0.390603948896632</v>
+        <v>0.390700182512029</v>
       </c>
       <c r="F271" t="n">
-        <v>0.000951816152984926</v>
+        <v>0.000955746178175204</v>
       </c>
       <c r="G271" t="n">
-        <v>0.0789841421890083</v>
+        <v>0.0791275412363071</v>
       </c>
     </row>
     <row r="272">
@@ -7998,22 +7998,22 @@
         <v>299</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.694276937321689</v>
+        <v>-0.694873988226234</v>
       </c>
       <c r="C272" t="n">
-        <v>0.0410443764016735</v>
+        <v>0.0408832814813321</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.29180591562371</v>
+        <v>-0.290982465145483</v>
       </c>
       <c r="E272" t="n">
-        <v>0.621762651287466</v>
+        <v>0.622049386727317</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00769731671252079</v>
+        <v>0.00761248321911849</v>
       </c>
       <c r="G272" t="n">
-        <v>0.141105859141926</v>
+        <v>0.140261444716069</v>
       </c>
     </row>
     <row r="273">
@@ -8021,22 +8021,22 @@
         <v>300</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.28190321142269</v>
+        <v>-0.281776722441696</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0284379212248078</v>
+        <v>0.0284435083704757</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.598203431649897</v>
+        <v>-0.598530751369788</v>
       </c>
       <c r="E273" t="n">
-        <v>0.416714353838817</v>
+        <v>0.416657129232237</v>
       </c>
       <c r="F273" t="n">
-        <v>0.00618278344134012</v>
+        <v>0.00619782522253445</v>
       </c>
       <c r="G273" t="n">
-        <v>0.188692030303345</v>
+        <v>0.188947367403107</v>
       </c>
     </row>
     <row r="274">
@@ -8044,22 +8044,22 @@
         <v>301</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.350374081049023</v>
+        <v>-0.350261562240363</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0234315277153235</v>
+        <v>0.0233686319702994</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.436886204090304</v>
+        <v>-0.436439615108844</v>
       </c>
       <c r="E274" t="n">
-        <v>0.450337234503684</v>
+        <v>0.450295622019939</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00400803115612967</v>
+        <v>0.0039923958443207</v>
       </c>
       <c r="G274" t="n">
-        <v>0.14058134300079</v>
+        <v>0.140319837427894</v>
       </c>
     </row>
     <row r="275">
@@ -8067,22 +8067,22 @@
         <v>302</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.607672162630347</v>
+        <v>-0.607643917641937</v>
       </c>
       <c r="C275" t="n">
-        <v>0.0588221234885813</v>
+        <v>0.0588349401098558</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.39911771765931</v>
+        <v>-0.399179750854225</v>
       </c>
       <c r="E275" t="n">
-        <v>0.578215527230591</v>
+        <v>0.57819235225956</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0126316380620106</v>
+        <v>0.0126312846525418</v>
       </c>
       <c r="G275" t="n">
-        <v>0.19437485692574</v>
+        <v>0.194379928564013</v>
       </c>
     </row>
     <row r="276">
@@ -8090,22 +8090,22 @@
         <v>303</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.299112256911166</v>
+        <v>-0.300624203370658</v>
       </c>
       <c r="C276" t="n">
-        <v>0.0330902077776304</v>
+        <v>0.0330068048998328</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.608156758313829</v>
+        <v>-0.60433507386873</v>
       </c>
       <c r="E276" t="n">
-        <v>0.425133385951065</v>
+        <v>0.425810576164167</v>
       </c>
       <c r="F276" t="n">
-        <v>0.00605000142361905</v>
+        <v>0.00608409966487031</v>
       </c>
       <c r="G276" t="n">
-        <v>0.18295847292229</v>
+        <v>0.183181544191342</v>
       </c>
     </row>
     <row r="277">
@@ -8113,22 +8113,22 @@
         <v>304</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.782585500895976</v>
+        <v>-0.783300416735944</v>
       </c>
       <c r="C277" t="n">
-        <v>0.159495405212097</v>
+        <v>0.160247746775433</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.510319649387181</v>
+        <v>-0.511054960688407</v>
       </c>
       <c r="E277" t="n">
-        <v>0.645973605577689</v>
+        <v>0.646245019920319</v>
       </c>
       <c r="F277" t="n">
-        <v>0.024962499148637</v>
+        <v>0.0251126275902987</v>
       </c>
       <c r="G277" t="n">
-        <v>0.244584684319552</v>
+        <v>0.245216036647548</v>
       </c>
     </row>
     <row r="278">
@@ -8136,22 +8136,22 @@
         <v>305</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.567463657272082</v>
+        <v>-0.571166514206648</v>
       </c>
       <c r="C278" t="n">
-        <v>0.150530642856442</v>
+        <v>0.150535543936418</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.683713893977687</v>
+        <v>-0.679292453614407</v>
       </c>
       <c r="E278" t="n">
-        <v>0.553343274679392</v>
+        <v>0.554995526394274</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0271641027963349</v>
+        <v>0.0271178332459129</v>
       </c>
       <c r="G278" t="n">
-        <v>0.297853732487286</v>
+        <v>0.296713980958731</v>
       </c>
     </row>
     <row r="279">
@@ -8159,22 +8159,22 @@
         <v>306</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.767230881844502</v>
+        <v>-0.76831467477325</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0344930290632442</v>
+        <v>0.0345132313894518</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.24206923173455</v>
+        <v>-0.241798545047493</v>
       </c>
       <c r="E279" t="n">
-        <v>0.652673587081892</v>
+        <v>0.653190311418685</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00698969711894148</v>
+        <v>0.00698578904312821</v>
       </c>
       <c r="G279" t="n">
-        <v>0.128095283989764</v>
+        <v>0.127958163699279</v>
       </c>
     </row>
     <row r="280">
@@ -8182,22 +8182,22 @@
         <v>307</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.607904398048859</v>
+        <v>-0.611873837882637</v>
       </c>
       <c r="C280" t="n">
-        <v>0.152713908228041</v>
+        <v>0.152689344260892</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.642841654865838</v>
+        <v>-0.638619948889553</v>
       </c>
       <c r="E280" t="n">
-        <v>0.574262921348315</v>
+        <v>0.576103370786517</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0263284564805454</v>
+        <v>0.0263200738939023</v>
       </c>
       <c r="G280" t="n">
-        <v>0.282554301764661</v>
+        <v>0.28160679886636</v>
       </c>
     </row>
     <row r="281">
@@ -8205,22 +8205,22 @@
         <v>308</v>
       </c>
       <c r="B281" t="n">
-        <v>0.175632095439276</v>
+        <v>0.17534573632131</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0203109863555004</v>
+        <v>0.0203003713490243</v>
       </c>
       <c r="D281" t="n">
-        <v>0.811449737964035</v>
+        <v>0.812562510218696</v>
       </c>
       <c r="E281" t="n">
-        <v>0.213673855467272</v>
+        <v>0.213828982217177</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00446520405073461</v>
+        <v>0.00447256506256792</v>
       </c>
       <c r="G281" t="n">
-        <v>0.312729801122894</v>
+        <v>0.312760403452499</v>
       </c>
     </row>
     <row r="282">
@@ -8228,22 +8228,22 @@
         <v>309</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.07497074309187</v>
+        <v>-1.07608219727449</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0353011610276558</v>
+        <v>0.0349960254263188</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.174782461035258</v>
+        <v>-0.173845684851906</v>
       </c>
       <c r="E282" t="n">
-        <v>0.781667453944261</v>
+        <v>0.782022909777988</v>
       </c>
       <c r="F282" t="n">
-        <v>0.00639595455468909</v>
+        <v>0.00635068648666831</v>
       </c>
       <c r="G282" t="n">
-        <v>0.102312961306602</v>
+        <v>0.101903912967475</v>
       </c>
     </row>
     <row r="283">
@@ -8251,22 +8251,22 @@
         <v>310</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.803393720091032</v>
+        <v>-0.809356182989304</v>
       </c>
       <c r="C283" t="n">
-        <v>0.173584693987793</v>
+        <v>0.172348809990726</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.518593753590052</v>
+        <v>-0.512937505871701</v>
       </c>
       <c r="E283" t="n">
-        <v>0.657872271098078</v>
+        <v>0.660283479960899</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0266283193569727</v>
+        <v>0.0263188985811403</v>
       </c>
       <c r="G283" t="n">
-        <v>0.248044897065645</v>
+        <v>0.245699019715153</v>
       </c>
     </row>
     <row r="284">
@@ -8274,22 +8274,22 @@
         <v>311</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.219888184100738</v>
+        <v>-0.221611835008216</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0420536182187469</v>
+        <v>0.0423005324766221</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.932609405516841</v>
+        <v>-0.928068361039013</v>
       </c>
       <c r="E284" t="n">
-        <v>0.389543352601156</v>
+        <v>0.390346820809249</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00826822712419393</v>
+        <v>0.00832142796084065</v>
       </c>
       <c r="G284" t="n">
-        <v>0.233426630626413</v>
+        <v>0.23369438749661</v>
       </c>
     </row>
     <row r="285">
@@ -8297,22 +8297,22 @@
         <v>312</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.665377646290692</v>
+        <v>-0.667091780091792</v>
       </c>
       <c r="C285" t="n">
-        <v>0.166390969761606</v>
+        <v>0.166367094384598</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.613051091533752</v>
+        <v>-0.611431946851291</v>
       </c>
       <c r="E285" t="n">
-        <v>0.600520094562648</v>
+        <v>0.601321513002364</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0281739336627936</v>
+        <v>0.0282152019909573</v>
       </c>
       <c r="G285" t="n">
-        <v>0.279509259431233</v>
+        <v>0.279341100852534</v>
       </c>
     </row>
     <row r="286">
@@ -8320,22 +8320,22 @@
         <v>313</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.523766079307082</v>
+        <v>-0.525246863766912</v>
       </c>
       <c r="C286" t="n">
-        <v>0.143163338087413</v>
+        <v>0.143469457289279</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.722401334028707</v>
+        <v>-0.721134477664593</v>
       </c>
       <c r="E286" t="n">
-        <v>0.530520177280149</v>
+        <v>0.531196641007698</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0242515979526257</v>
+        <v>0.0243253773071484</v>
       </c>
       <c r="G286" t="n">
-        <v>0.293540665040323</v>
+        <v>0.293612453752426</v>
       </c>
     </row>
     <row r="287">
@@ -8343,22 +8343,22 @@
         <v>314</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.839809667724987</v>
+        <v>-0.845093696521011</v>
       </c>
       <c r="C287" t="n">
-        <v>0.152906243331679</v>
+        <v>0.152583172283672</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.4656201210474</v>
+        <v>-0.462219706624801</v>
       </c>
       <c r="E287" t="n">
-        <v>0.672513321492007</v>
+        <v>0.674755772646536</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0247065936773391</v>
+        <v>0.0245746183500989</v>
       </c>
       <c r="G287" t="n">
-        <v>0.233725202630373</v>
+        <v>0.232325447431427</v>
       </c>
     </row>
     <row r="288">
@@ -8366,22 +8366,22 @@
         <v>315</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.687765460113213</v>
+        <v>-0.689903979403754</v>
       </c>
       <c r="C288" t="n">
-        <v>0.192795788925225</v>
+        <v>0.192648614397398</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.638422831925204</v>
+        <v>-0.636200923058493</v>
       </c>
       <c r="E288" t="n">
-        <v>0.607512274959083</v>
+        <v>0.608492783811933</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0319812568436606</v>
+        <v>0.0319292023995878</v>
       </c>
       <c r="G288" t="n">
-        <v>0.294369429529376</v>
+        <v>0.29365581330116</v>
       </c>
     </row>
     <row r="289">
@@ -8389,22 +8389,22 @@
         <v>316</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.532990866502931</v>
+        <v>-0.535536561759516</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0294236635219617</v>
+        <v>0.0297018627264026</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.321831541827633</v>
+        <v>-0.321812357801685</v>
       </c>
       <c r="E289" t="n">
-        <v>0.54179</v>
+        <v>0.543106875</v>
       </c>
       <c r="F289" t="n">
-        <v>0.00617247421846484</v>
+        <v>0.00624150452503125</v>
       </c>
       <c r="G289" t="n">
-        <v>0.145010235369252</v>
+        <v>0.145465279061084</v>
       </c>
     </row>
     <row r="290">
@@ -8412,22 +8412,22 @@
         <v>317</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.759862029927178</v>
+        <v>-0.758438417927417</v>
       </c>
       <c r="C290" t="n">
-        <v>0.114615308812069</v>
+        <v>0.113753668863413</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.445539867077249</v>
+        <v>-0.444695139578513</v>
       </c>
       <c r="E290" t="n">
-        <v>0.641702898550725</v>
+        <v>0.640994729907773</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0177381525412659</v>
+        <v>0.0176201647793453</v>
       </c>
       <c r="G290" t="n">
-        <v>0.207548783250673</v>
+        <v>0.207085897178862</v>
       </c>
     </row>
     <row r="291">
@@ -8435,22 +8435,22 @@
         <v>318</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.852560012234563</v>
+        <v>-0.852315883540472</v>
       </c>
       <c r="C291" t="n">
-        <v>0.046019124344714</v>
+        <v>0.0459602555811262</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.251619454398968</v>
+        <v>-0.251530489292558</v>
       </c>
       <c r="E291" t="n">
-        <v>0.688836173001311</v>
+        <v>0.688684141546527</v>
       </c>
       <c r="F291" t="n">
-        <v>0.00880046522834435</v>
+        <v>0.00878804973428678</v>
       </c>
       <c r="G291" t="n">
-        <v>0.13618738172585</v>
+        <v>0.136121325832677</v>
       </c>
     </row>
     <row r="292">
@@ -8458,22 +8458,22 @@
         <v>319</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.414114173320571</v>
+        <v>-0.414866261023346</v>
       </c>
       <c r="C292" t="n">
-        <v>0.00741536675248514</v>
+        <v>0.00739876331982743</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.207943918204276</v>
+        <v>-0.207334440984461</v>
       </c>
       <c r="E292" t="n">
-        <v>0.481755300035932</v>
+        <v>0.482149658641753</v>
       </c>
       <c r="F292" t="n">
-        <v>0.00119416440948096</v>
+        <v>0.00121242071790589</v>
       </c>
       <c r="G292" t="n">
-        <v>0.071730781173106</v>
+        <v>0.072217892568697</v>
       </c>
     </row>
     <row r="293">
@@ -8481,22 +8481,22 @@
         <v>320</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.24886036309637</v>
+        <v>-1.2491844221523</v>
       </c>
       <c r="C293" t="n">
-        <v>0.0424620522806847</v>
+        <v>0.042449095333816</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.165001012185189</v>
+        <v>-0.164933038457275</v>
       </c>
       <c r="E293" t="n">
-        <v>0.837189824814015</v>
+        <v>0.837279817614591</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00763282876278465</v>
+        <v>0.0076138700477036</v>
       </c>
       <c r="G293" t="n">
-        <v>0.104356335036869</v>
+        <v>0.104215449784656</v>
       </c>
     </row>
     <row r="294">
@@ -8504,22 +8504,22 @@
         <v>321</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.02505606040298</v>
+        <v>-1.02507615798844</v>
       </c>
       <c r="C294" t="n">
-        <v>0.0543559926788526</v>
+        <v>0.0545135752119054</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.22744484501537</v>
+        <v>-0.227769831420013</v>
       </c>
       <c r="E294" t="n">
-        <v>0.761130128366474</v>
+        <v>0.761120060407752</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0107362148394185</v>
+        <v>0.0107945790411099</v>
       </c>
       <c r="G294" t="n">
-        <v>0.136134024435574</v>
+        <v>0.136505354390707</v>
       </c>
     </row>
     <row r="295">
@@ -8527,22 +8527,22 @@
         <v>322</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.504396179961187</v>
+        <v>-0.504708008925562</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0289179354467862</v>
+        <v>0.0288548325080938</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.337141219319477</v>
+        <v>-0.336565101970285</v>
       </c>
       <c r="E295" t="n">
-        <v>0.527390640188863</v>
+        <v>0.527568393278711</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00588235705680989</v>
+        <v>0.00586159703686482</v>
       </c>
       <c r="G295" t="n">
-        <v>0.145426406672508</v>
+        <v>0.145120648517995</v>
       </c>
     </row>
     <row r="296">
@@ -8550,22 +8550,22 @@
         <v>323</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.632208566875957</v>
+        <v>-0.639251578117425</v>
       </c>
       <c r="C296" t="n">
-        <v>0.172995523805679</v>
+        <v>0.172650683635519</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.657895713071807</v>
+        <v>-0.649998481899801</v>
       </c>
       <c r="E296" t="n">
-        <v>0.583313953488372</v>
+        <v>0.586496124031008</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0302102854909561</v>
+        <v>0.0300551629664684</v>
       </c>
       <c r="G296" t="n">
-        <v>0.297971721036196</v>
+        <v>0.295593171525504</v>
       </c>
     </row>
     <row r="297">
@@ -8573,22 +8573,22 @@
         <v>324</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.746184045511134</v>
+        <v>-0.745644354429184</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0412477344241013</v>
+        <v>0.0412042947777402</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.272178672002949</v>
+        <v>-0.272232209961777</v>
       </c>
       <c r="E297" t="n">
-        <v>0.642607030978072</v>
+        <v>0.642333797424295</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0081667526164178</v>
+        <v>0.00818196033551814</v>
       </c>
       <c r="G297" t="n">
-        <v>0.140630404896688</v>
+        <v>0.14082115796611</v>
       </c>
     </row>
     <row r="298">
@@ -8596,22 +8596,22 @@
         <v>325</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.14025189999414</v>
+        <v>-1.14053531075748</v>
       </c>
       <c r="C298" t="n">
-        <v>0.043071277375963</v>
+        <v>0.043607733896374</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.182009087103104</v>
+        <v>-0.183093540998241</v>
       </c>
       <c r="E298" t="n">
-        <v>0.802715133531157</v>
+        <v>0.802792284866469</v>
       </c>
       <c r="F298" t="n">
-        <v>0.00818899048395689</v>
+        <v>0.00827785044682088</v>
       </c>
       <c r="G298" t="n">
-        <v>0.112733692564382</v>
+        <v>0.11333279458724</v>
       </c>
     </row>
     <row r="299">
@@ -8619,22 +8619,22 @@
         <v>326</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.850514636050487</v>
+        <v>-0.851021292943182</v>
       </c>
       <c r="C299" t="n">
-        <v>0.0440799253999845</v>
+        <v>0.0440804417387251</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.246853127498983</v>
+        <v>-0.246707608009284</v>
       </c>
       <c r="E299" t="n">
-        <v>0.691269949066214</v>
+        <v>0.691478777589134</v>
       </c>
       <c r="F299" t="n">
-        <v>0.00712762724989263</v>
+        <v>0.0070987648170621</v>
       </c>
       <c r="G299" t="n">
-        <v>0.122130690399053</v>
+        <v>0.121846354047827</v>
       </c>
     </row>
     <row r="300">
@@ -8642,22 +8642,22 @@
         <v>327</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.68019223880711</v>
+        <v>-0.678521713616238</v>
       </c>
       <c r="C300" t="n">
-        <v>0.150241967381792</v>
+        <v>0.152376177171302</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.569854469337949</v>
+        <v>-0.575300546586486</v>
       </c>
       <c r="E300" t="n">
-        <v>0.602172361040286</v>
+        <v>0.601366649668536</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0246104712510997</v>
+        <v>0.0250879732148128</v>
       </c>
       <c r="G300" t="n">
-        <v>0.260518846664357</v>
+        <v>0.263386462351298</v>
       </c>
     </row>
     <row r="301">
@@ -8665,22 +8665,22 @@
         <v>328</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.84310268461163</v>
+        <v>-0.844661462887821</v>
       </c>
       <c r="C301" t="n">
-        <v>0.0581376651907521</v>
+        <v>0.0579880367123573</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.28598833615059</v>
+        <v>-0.285092979200897</v>
       </c>
       <c r="E301" t="n">
-        <v>0.688302230314065</v>
+        <v>0.688871187983614</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0111856560017187</v>
+        <v>0.0110729426188192</v>
       </c>
       <c r="G301" t="n">
-        <v>0.153656718009389</v>
+        <v>0.152754320935193</v>
       </c>
     </row>
     <row r="302">
@@ -8688,22 +8688,22 @@
         <v>329</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.875426643297072</v>
+        <v>-0.877753638031802</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0365125908546486</v>
+        <v>0.0364570022319401</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.218273777865818</v>
+        <v>-0.217529338541012</v>
       </c>
       <c r="E302" t="n">
-        <v>0.700401945724526</v>
+        <v>0.701405529953917</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00635509105203726</v>
+        <v>0.00629907248344283</v>
       </c>
       <c r="G302" t="n">
-        <v>0.113818680031617</v>
+        <v>0.113153793237091</v>
       </c>
     </row>
     <row r="303">
@@ -8711,22 +8711,22 @@
         <v>330</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.475576130791323</v>
+        <v>-0.477099563987496</v>
       </c>
       <c r="C303" t="n">
-        <v>0.0500391645106835</v>
+        <v>0.0499585049115324</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.470364975516352</v>
+        <v>-0.468485007164073</v>
       </c>
       <c r="E303" t="n">
-        <v>0.51370009196136</v>
+        <v>0.514428685006286</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00843567874432762</v>
+        <v>0.00840278629877308</v>
       </c>
       <c r="G303" t="n">
-        <v>0.178792942801441</v>
+        <v>0.178191294180438</v>
       </c>
     </row>
     <row r="304">
@@ -8734,22 +8734,22 @@
         <v>331</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.823770500581615</v>
+        <v>-0.828020392155523</v>
       </c>
       <c r="C304" t="n">
-        <v>0.16564756871447</v>
+        <v>0.165397581242684</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.494067511974285</v>
+        <v>-0.491160626372393</v>
       </c>
       <c r="E304" t="n">
-        <v>0.669698846045595</v>
+        <v>0.671418519560934</v>
       </c>
       <c r="F304" t="n">
-        <v>0.0240697757190401</v>
+        <v>0.0239926302033721</v>
       </c>
       <c r="G304" t="n">
-        <v>0.231662890692449</v>
+        <v>0.230698947963122</v>
       </c>
     </row>
     <row r="305">
@@ -8757,22 +8757,22 @@
         <v>332</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.843779680821912</v>
+        <v>-0.845329667296168</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0559918169116669</v>
+        <v>0.0561078742758975</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.280435647054231</v>
+        <v>-0.280211397797478</v>
       </c>
       <c r="E305" t="n">
-        <v>0.68664342254052</v>
+        <v>0.687301168488504</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0110030818677204</v>
+        <v>0.010978334855505</v>
       </c>
       <c r="G305" t="n">
-        <v>0.152765718817865</v>
+        <v>0.152447797545918</v>
       </c>
     </row>
     <row r="306">
@@ -8780,22 +8780,22 @@
         <v>333</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.0964849706226026</v>
+        <v>-0.0978345878764538</v>
       </c>
       <c r="C306" t="n">
-        <v>0.012144617147274</v>
+        <v>0.0121678263431165</v>
       </c>
       <c r="D306" t="n">
-        <v>-1.14217393541515</v>
+        <v>-1.12749359010764</v>
       </c>
       <c r="E306" t="n">
-        <v>0.333372443848475</v>
+        <v>0.333953234998324</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00229051945468112</v>
+        <v>0.00228744779225956</v>
       </c>
       <c r="G306" t="n">
-        <v>0.143561270682627</v>
+        <v>0.143215472618304</v>
       </c>
     </row>
     <row r="307">
@@ -8803,22 +8803,22 @@
         <v>334</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.883850649988976</v>
+        <v>-0.884935884167885</v>
       </c>
       <c r="C307" t="n">
-        <v>0.154538560472406</v>
+        <v>0.154216490285327</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.444774157390483</v>
+        <v>-0.443765567342122</v>
       </c>
       <c r="E307" t="n">
-        <v>0.685831884057971</v>
+        <v>0.686255072463768</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0212085601504726</v>
+        <v>0.0211444982412098</v>
       </c>
       <c r="G307" t="n">
-        <v>0.212342986497778</v>
+        <v>0.211891299446136</v>
       </c>
     </row>
     <row r="308">
@@ -8826,22 +8826,22 @@
         <v>335</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.687514592547729</v>
+        <v>-0.688606270998145</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0500226999435663</v>
+        <v>0.0500100496736551</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.325313168667864</v>
+        <v>-0.324756363386314</v>
       </c>
       <c r="E308" t="n">
-        <v>0.615929174788824</v>
+        <v>0.616439246263808</v>
       </c>
       <c r="F308" t="n">
-        <v>0.00765722389900702</v>
+        <v>0.00762192235397111</v>
       </c>
       <c r="G308" t="n">
-        <v>0.142070823305651</v>
+        <v>0.141625670629378</v>
       </c>
     </row>
     <row r="309">
@@ -8849,22 +8849,22 @@
         <v>336</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.96298145048364</v>
+        <v>-0.962171097337407</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0513924248523698</v>
+        <v>0.0518129872888842</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.235413645791145</v>
+        <v>-0.236573997922265</v>
       </c>
       <c r="E309" t="n">
-        <v>0.733176647349217</v>
+        <v>0.732846104314231</v>
       </c>
       <c r="F309" t="n">
-        <v>0.00991955230566673</v>
+        <v>0.0100547221578399</v>
       </c>
       <c r="G309" t="n">
-        <v>0.135843046336794</v>
+        <v>0.136827141340114</v>
       </c>
     </row>
     <row r="310">
@@ -8872,22 +8872,22 @@
         <v>337</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.875596661653681</v>
+        <v>-0.874455143302233</v>
       </c>
       <c r="C310" t="n">
-        <v>0.165788169492614</v>
+        <v>0.166286108672016</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.465021112836098</v>
+        <v>-0.466326878824397</v>
       </c>
       <c r="E310" t="n">
-        <v>0.683656828414207</v>
+        <v>0.683166583291646</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0224799778320251</v>
+        <v>0.0225815782617422</v>
       </c>
       <c r="G310" t="n">
-        <v>0.219310680964864</v>
+        <v>0.219963454270507</v>
       </c>
     </row>
     <row r="311">
@@ -8895,22 +8895,22 @@
         <v>338</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.983583617456253</v>
+        <v>-0.982938714816591</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0381667971815808</v>
+        <v>0.0381784529276236</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.198623930620322</v>
+        <v>-0.198784593515258</v>
       </c>
       <c r="E311" t="n">
-        <v>0.74346009193481</v>
+        <v>0.743167572085249</v>
       </c>
       <c r="F311" t="n">
-        <v>0.00688720953334256</v>
+        <v>0.00687816371926127</v>
       </c>
       <c r="G311" t="n">
-        <v>0.111625646427628</v>
+        <v>0.111596224895606</v>
       </c>
     </row>
     <row r="312">
@@ -8918,22 +8918,22 @@
         <v>339</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.845659683872309</v>
+        <v>-0.844392218268522</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0405097575719243</v>
+        <v>0.0407602952515319</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.238003966886171</v>
+        <v>-0.239097171407334</v>
       </c>
       <c r="E312" t="n">
-        <v>0.686387132251856</v>
+        <v>0.685738245806984</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0078023933412354</v>
+        <v>0.00789704307067957</v>
       </c>
       <c r="G312" t="n">
-        <v>0.128689995922327</v>
+        <v>0.12959071355976</v>
       </c>
     </row>
     <row r="313">
@@ -8941,22 +8941,22 @@
         <v>340</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.592611945551622</v>
+        <v>-0.590310305861503</v>
       </c>
       <c r="C313" t="n">
-        <v>0.179377320142074</v>
+        <v>0.179551993166329</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.714682855949638</v>
+        <v>-0.717818670030857</v>
       </c>
       <c r="E313" t="n">
-        <v>0.56311265544989</v>
+        <v>0.562132406730066</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0290097124698117</v>
+        <v>0.0291012757968287</v>
       </c>
       <c r="G313" t="n">
-        <v>0.302465903433128</v>
+        <v>0.303471136756544</v>
       </c>
     </row>
     <row r="314">
@@ -8964,22 +8964,22 @@
         <v>341</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.16009793186085</v>
+        <v>-1.16233694398427</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0429894091149378</v>
+        <v>0.0424868716196707</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.178725320832667</v>
+        <v>-0.17733535777992</v>
       </c>
       <c r="E314" t="n">
-        <v>0.80217996087807</v>
+        <v>0.802868941534449</v>
       </c>
       <c r="F314" t="n">
-        <v>0.00783322379973151</v>
+        <v>0.00768931999685534</v>
       </c>
       <c r="G314" t="n">
-        <v>0.110331229697537</v>
+        <v>0.109219280078604</v>
       </c>
     </row>
     <row r="315">
@@ -8987,22 +8987,22 @@
         <v>342</v>
       </c>
       <c r="B315" t="n">
-        <v>-1.20060095298306</v>
+        <v>-1.20045376160842</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0432225350971371</v>
+        <v>0.0432394221667657</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.173163531431606</v>
+        <v>-0.173218591941637</v>
       </c>
       <c r="E315" t="n">
-        <v>0.811388520553135</v>
+        <v>0.811329797310097</v>
       </c>
       <c r="F315" t="n">
-        <v>0.00791882923592825</v>
+        <v>0.00793527029951836</v>
       </c>
       <c r="G315" t="n">
-        <v>0.109673481453634</v>
+        <v>0.109795220687831</v>
       </c>
     </row>
     <row r="316">
@@ -9010,22 +9010,22 @@
         <v>343</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.701736625212224</v>
+        <v>-0.702401609083282</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0156621369360744</v>
+        <v>0.0156660932465665</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.178341068553259</v>
+        <v>-0.178194729960241</v>
       </c>
       <c r="E316" t="n">
-        <v>0.626139190261974</v>
+        <v>0.626465555261533</v>
       </c>
       <c r="F316" t="n">
-        <v>0.00282284458444087</v>
+        <v>0.00287587328153698</v>
       </c>
       <c r="G316" t="n">
-        <v>0.0848540541415038</v>
+        <v>0.0856027419184391</v>
       </c>
     </row>
     <row r="317">
@@ -9033,22 +9033,22 @@
         <v>344</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.581570384929402</v>
+        <v>-0.585336954538782</v>
       </c>
       <c r="C317" t="n">
-        <v>0.165450172481486</v>
+        <v>0.165296266085616</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.699409181330109</v>
+        <v>-0.694585284370556</v>
       </c>
       <c r="E317" t="n">
-        <v>0.558378378378378</v>
+        <v>0.56022113022113</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0285221039818763</v>
+        <v>0.0285000034650092</v>
       </c>
       <c r="G317" t="n">
-        <v>0.302455987474754</v>
+        <v>0.301344293024392</v>
       </c>
     </row>
     <row r="318">
@@ -9056,22 +9056,22 @@
         <v>345</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.603652112891872</v>
+        <v>-0.602601706500793</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0352288011441165</v>
+        <v>0.035721082825478</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.310929699403493</v>
+        <v>-0.313640364897714</v>
       </c>
       <c r="E318" t="n">
-        <v>0.574135338345865</v>
+        <v>0.573586466165414</v>
       </c>
       <c r="F318" t="n">
-        <v>0.00711485211148171</v>
+        <v>0.00728447241392956</v>
       </c>
       <c r="G318" t="n">
-        <v>0.146915852630173</v>
+        <v>0.148799049125429</v>
       </c>
     </row>
     <row r="319">
@@ -9079,22 +9079,22 @@
         <v>346</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.698562847337759</v>
+        <v>-0.695426407180979</v>
       </c>
       <c r="C319" t="n">
-        <v>0.190789643514793</v>
+        <v>0.190675112247295</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.625276222588311</v>
+        <v>-0.627907726846243</v>
       </c>
       <c r="E319" t="n">
-        <v>0.6116796875</v>
+        <v>0.610240885416667</v>
       </c>
       <c r="F319" t="n">
-        <v>0.0307566685278151</v>
+        <v>0.0308360138778686</v>
       </c>
       <c r="G319" t="n">
-        <v>0.286711813212607</v>
+        <v>0.287758270587301</v>
       </c>
     </row>
     <row r="320">
@@ -9102,22 +9102,22 @@
         <v>347</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.41363688736165</v>
+        <v>-1.4123441247761</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0445293883933705</v>
+        <v>0.0447172162327179</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.149274455597309</v>
+        <v>-0.149725872386698</v>
       </c>
       <c r="E320" t="n">
-        <v>0.878717472118959</v>
+        <v>0.878373605947955</v>
       </c>
       <c r="F320" t="n">
-        <v>0.007810764554245</v>
+        <v>0.00786840883843968</v>
       </c>
       <c r="G320" t="n">
-        <v>0.100576729999754</v>
+        <v>0.100986700173674</v>
       </c>
     </row>
     <row r="321">
@@ -9125,22 +9125,22 @@
         <v>348</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.22205742070374</v>
+        <v>-1.22284944978699</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0523191010259281</v>
+        <v>0.0523603487344954</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.18717098420293</v>
+        <v>-0.187123474452042</v>
       </c>
       <c r="E321" t="n">
-        <v>0.818655601659751</v>
+        <v>0.818912863070539</v>
       </c>
       <c r="F321" t="n">
-        <v>0.00976284146226821</v>
+        <v>0.00976141726537078</v>
       </c>
       <c r="G321" t="n">
-        <v>0.120694333448051</v>
+        <v>0.12064761637238</v>
       </c>
     </row>
     <row r="322">
@@ -9148,22 +9148,22 @@
         <v>349</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.01902202627997</v>
+        <v>-1.01927648894782</v>
       </c>
       <c r="C322" t="n">
-        <v>0.042675855171506</v>
+        <v>0.042750512851999</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.202725110058134</v>
+        <v>-0.20285170287559</v>
       </c>
       <c r="E322" t="n">
-        <v>0.757946370176586</v>
+        <v>0.758051013734467</v>
       </c>
       <c r="F322" t="n">
-        <v>0.00632945373701633</v>
+        <v>0.00633708258260506</v>
       </c>
       <c r="G322" t="n">
-        <v>0.104965030786736</v>
+        <v>0.105013770133701</v>
       </c>
     </row>
     <row r="323">
@@ -9171,22 +9171,22 @@
         <v>350</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.942280872622371</v>
+        <v>-0.940937371784191</v>
       </c>
       <c r="C323" t="n">
-        <v>0.124029563721028</v>
+        <v>0.123900867345517</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.373750887476228</v>
+        <v>-0.374090306893779</v>
       </c>
       <c r="E323" t="n">
-        <v>0.709843537414966</v>
+        <v>0.709319727891156</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0154860010042112</v>
+        <v>0.0155144516692119</v>
       </c>
       <c r="G323" t="n">
-        <v>0.175310128782878</v>
+        <v>0.175600673236976</v>
       </c>
     </row>
     <row r="324">
@@ -9194,22 +9194,22 @@
         <v>351</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.506859461159881</v>
+        <v>-0.507049129741119</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0472827154683237</v>
+        <v>0.0473724650263834</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.429006277993057</v>
+        <v>-0.42925261568718</v>
       </c>
       <c r="E324" t="n">
-        <v>0.526765460910152</v>
+        <v>0.526849474912485</v>
       </c>
       <c r="F324" t="n">
-        <v>0.00700012345603303</v>
+        <v>0.0070530165124059</v>
       </c>
       <c r="G324" t="n">
-        <v>0.158831105396522</v>
+        <v>0.159404617953891</v>
       </c>
     </row>
     <row r="325">
@@ -9217,22 +9217,22 @@
         <v>352</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.555367571586719</v>
+        <v>-0.5514364058744</v>
       </c>
       <c r="C325" t="n">
-        <v>0.215853332539801</v>
+        <v>0.213228726743856</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.836563403151124</v>
+        <v>-0.837389328293631</v>
       </c>
       <c r="E325" t="n">
-        <v>0.54743824336688</v>
+        <v>0.545608417200366</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0352541052922239</v>
+        <v>0.034888426456432</v>
       </c>
       <c r="G325" t="n">
-        <v>0.342980725936458</v>
+        <v>0.342341563265208</v>
       </c>
     </row>
     <row r="326">
@@ -9240,22 +9240,22 @@
         <v>353</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.679864650169897</v>
+        <v>-0.68105171432699</v>
       </c>
       <c r="C326" t="n">
-        <v>0.148089045377869</v>
+        <v>0.148184408659035</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.566029422112051</v>
+        <v>-0.565224743239383</v>
       </c>
       <c r="E326" t="n">
-        <v>0.601806358381503</v>
+        <v>0.602315028901734</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0229142167386983</v>
+        <v>0.0229186074689265</v>
       </c>
       <c r="G326" t="n">
-        <v>0.25153344349824</v>
+        <v>0.251345094450148</v>
       </c>
     </row>
     <row r="327">
@@ -9263,22 +9263,22 @@
         <v>354</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.315358825414488</v>
+        <v>-0.316371464350952</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0212430866138842</v>
+        <v>0.0211132315127062</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.462172201877834</v>
+        <v>-0.459282661186144</v>
       </c>
       <c r="E327" t="n">
-        <v>0.436395909704804</v>
+        <v>0.436820374300598</v>
       </c>
       <c r="F327" t="n">
-        <v>0.00428706369682657</v>
+        <v>0.00425433741957346</v>
       </c>
       <c r="G327" t="n">
-        <v>0.150037319555901</v>
+        <v>0.149318314564989</v>
       </c>
     </row>
     <row r="328">
@@ -9286,22 +9286,22 @@
         <v>355</v>
       </c>
       <c r="B328" t="n">
-        <v>0.501777099230614</v>
+        <v>0.498902509153989</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0444846607135182</v>
+        <v>0.0444283025037638</v>
       </c>
       <c r="D328" t="n">
-        <v>0.420333791022314</v>
+        <v>0.422487799439536</v>
       </c>
       <c r="E328" t="n">
-        <v>0.130879051048507</v>
+        <v>0.131605592035586</v>
       </c>
       <c r="F328" t="n">
-        <v>0.00872507040246743</v>
+        <v>0.00867134422894528</v>
       </c>
       <c r="G328" t="n">
-        <v>0.713697758105961</v>
+        <v>0.707569118723313</v>
       </c>
     </row>
     <row r="329">
@@ -9309,22 +9309,22 @@
         <v>356</v>
       </c>
       <c r="B329" t="n">
-        <v>0.0575128435367695</v>
+        <v>0.0569640780546967</v>
       </c>
       <c r="C329" t="n">
-        <v>0.00398400564865162</v>
+        <v>0.00394562294947241</v>
       </c>
       <c r="D329" t="n">
-        <v>1.09747625429027</v>
+        <v>1.10269833197764</v>
       </c>
       <c r="E329" t="n">
-        <v>0.257493799323562</v>
+        <v>0.257728748590755</v>
       </c>
       <c r="F329" t="n">
-        <v>0.000627354514764562</v>
+        <v>0.000651448810282051</v>
       </c>
       <c r="G329" t="n">
-        <v>0.0972724240137572</v>
+        <v>0.0990323951032207</v>
       </c>
     </row>
     <row r="330">
@@ -9332,22 +9332,22 @@
         <v>357</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.0624402160810193</v>
+        <v>-0.0633749023041701</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0346988825641788</v>
+        <v>0.0351082706662611</v>
       </c>
       <c r="D330" t="n">
-        <v>-2.98327540188564</v>
+        <v>-2.95656489579841</v>
       </c>
       <c r="E330" t="n">
-        <v>0.319246200607903</v>
+        <v>0.319762917933131</v>
       </c>
       <c r="F330" t="n">
-        <v>0.00725719156031448</v>
+        <v>0.00734625231252483</v>
       </c>
       <c r="G330" t="n">
-        <v>0.266844684436022</v>
+        <v>0.268043217166455</v>
       </c>
     </row>
     <row r="331">
@@ -9355,22 +9355,22 @@
         <v>358</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.0733651847729287</v>
+        <v>-0.0750926530986794</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0359989353219645</v>
+        <v>0.0360230282023796</v>
       </c>
       <c r="D331" t="n">
-        <v>-2.58615656054882</v>
+        <v>-2.52750870715457</v>
       </c>
       <c r="E331" t="n">
-        <v>0.33536858159634</v>
+        <v>0.336129130655821</v>
       </c>
       <c r="F331" t="n">
-        <v>0.00650377187853782</v>
+        <v>0.00654167578991334</v>
       </c>
       <c r="G331" t="n">
-        <v>0.240469652536343</v>
+        <v>0.240623675288152</v>
       </c>
     </row>
     <row r="332">
@@ -9378,22 +9378,22 @@
         <v>359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.275030402084031</v>
+        <v>0.273493192902599</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0313701659605697</v>
+        <v>0.0315601729780347</v>
       </c>
       <c r="D332" t="n">
-        <v>0.643987895544998</v>
+        <v>0.649565822426829</v>
       </c>
       <c r="E332" t="n">
-        <v>0.191605890603086</v>
+        <v>0.192103786816269</v>
       </c>
       <c r="F332" t="n">
-        <v>0.00606164178889375</v>
+        <v>0.00605874991775167</v>
       </c>
       <c r="G332" t="n">
-        <v>0.406336913611007</v>
+        <v>0.405187078817772</v>
       </c>
     </row>
     <row r="333">
@@ -9401,22 +9401,22 @@
         <v>360</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.519473634020652</v>
+        <v>-0.520353144479639</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0474434723468083</v>
+        <v>0.0472392684492338</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.419299866203389</v>
+        <v>-0.417689346523436</v>
       </c>
       <c r="E333" t="n">
-        <v>0.533924040074622</v>
+        <v>0.534310190891852</v>
       </c>
       <c r="F333" t="n">
-        <v>0.00939825632440481</v>
+        <v>0.00936605501238848</v>
       </c>
       <c r="G333" t="n">
-        <v>0.181570030818332</v>
+        <v>0.181127709267038</v>
       </c>
     </row>
     <row r="334">
@@ -9424,22 +9424,22 @@
         <v>361</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.877962780460404</v>
+        <v>-0.877761680234331</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0396405318491056</v>
+        <v>0.0395885736099656</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.226774193518532</v>
+        <v>-0.22667744553589</v>
       </c>
       <c r="E334" t="n">
-        <v>0.689387414455016</v>
+        <v>0.689268903355033</v>
       </c>
       <c r="F334" t="n">
-        <v>0.00700230288174152</v>
+        <v>0.00699297265341065</v>
       </c>
       <c r="G334" t="n">
-        <v>0.121382784364517</v>
+        <v>0.121322745408203</v>
       </c>
     </row>
     <row r="335">
@@ -9447,22 +9447,22 @@
         <v>362</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.660684075578953</v>
+        <v>-0.65227331612213</v>
       </c>
       <c r="C335" t="n">
-        <v>0.15352356858537</v>
+        <v>0.154499613920802</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.593053248651998</v>
+        <v>-0.602606881672495</v>
       </c>
       <c r="E335" t="n">
-        <v>0.595587777420926</v>
+        <v>0.591816721083224</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0261300342905118</v>
+        <v>0.0263186100986602</v>
       </c>
       <c r="G335" t="n">
-        <v>0.271408980190226</v>
+        <v>0.274122222080734</v>
       </c>
     </row>
     <row r="336">
@@ -9470,22 +9470,22 @@
         <v>363</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.0979304395892979</v>
+        <v>-0.0978756366958477</v>
       </c>
       <c r="C336" t="n">
-        <v>0.049956101996843</v>
+        <v>0.049838835683213</v>
       </c>
       <c r="D336" t="n">
-        <v>-2.28232016739464</v>
+        <v>-2.28091627346891</v>
       </c>
       <c r="E336" t="n">
-        <v>0.335839551305527</v>
+        <v>0.335894265945431</v>
       </c>
       <c r="F336" t="n">
-        <v>0.00906140491777034</v>
+        <v>0.00903845373952463</v>
       </c>
       <c r="G336" t="n">
-        <v>0.283443125224062</v>
+        <v>0.283037825960832</v>
       </c>
     </row>
     <row r="337">
@@ -9493,22 +9493,22 @@
         <v>364</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.692064839626638</v>
+        <v>-0.693713168515996</v>
       </c>
       <c r="C337" t="n">
-        <v>0.159873769204086</v>
+        <v>0.159896112115676</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.577752484271596</v>
+        <v>-0.576419963186918</v>
       </c>
       <c r="E337" t="n">
-        <v>0.608723480762316</v>
+        <v>0.60938151743977</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0273263880384191</v>
+        <v>0.027347607442939</v>
       </c>
       <c r="G337" t="n">
-        <v>0.271563289724313</v>
+        <v>0.27137534632834</v>
       </c>
     </row>
     <row r="338">
@@ -9516,22 +9516,22 @@
         <v>365</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.935137543518008</v>
+        <v>-0.935396469644411</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0479193986551878</v>
+        <v>0.0479551614759653</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.234088558065788</v>
+        <v>-0.234111071334268</v>
       </c>
       <c r="E338" t="n">
-        <v>0.720048025781299</v>
+        <v>0.720149463761951</v>
       </c>
       <c r="F338" t="n">
-        <v>0.00898240148297103</v>
+        <v>0.00900822909820793</v>
       </c>
       <c r="G338" t="n">
-        <v>0.131623903818516</v>
+        <v>0.131794434110172</v>
       </c>
     </row>
     <row r="339">
@@ -9539,22 +9539,22 @@
         <v>366</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0638455539626782</v>
+        <v>0.0618224747807158</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0468229535750342</v>
+        <v>0.0468083049989876</v>
       </c>
       <c r="D339" t="n">
-        <v>3.38921206040551</v>
+        <v>3.49957311446114</v>
       </c>
       <c r="E339" t="n">
-        <v>0.277022625124315</v>
+        <v>0.277768602727919</v>
       </c>
       <c r="F339" t="n">
-        <v>0.00881127152557923</v>
+        <v>0.00880919085020502</v>
       </c>
       <c r="G339" t="n">
-        <v>0.338847317478961</v>
+        <v>0.337897404122667</v>
       </c>
     </row>
     <row r="340">
@@ -9562,22 +9562,22 @@
         <v>367</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.32836156662488</v>
+        <v>-1.32826433234843</v>
       </c>
       <c r="C340" t="n">
-        <v>0.04398248009737</v>
+        <v>0.0438700169958818</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.157878705102566</v>
+        <v>-0.157688270730405</v>
       </c>
       <c r="E340" t="n">
-        <v>0.852922966162707</v>
+        <v>0.852876169906407</v>
       </c>
       <c r="F340" t="n">
-        <v>0.00793764743736268</v>
+        <v>0.00791136974795796</v>
       </c>
       <c r="G340" t="n">
-        <v>0.104456650102234</v>
+        <v>0.104289326099823</v>
       </c>
     </row>
     <row r="341">
@@ -9585,22 +9585,22 @@
         <v>368</v>
       </c>
       <c r="B341" t="n">
-        <v>0.0623187347024814</v>
+        <v>0.0615823792348235</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0605649288391364</v>
+        <v>0.0604358470828493</v>
       </c>
       <c r="D341" t="n">
-        <v>3.94904405458952</v>
+        <v>3.99200285278961</v>
       </c>
       <c r="E341" t="n">
-        <v>0.278074558898016</v>
+        <v>0.27837414884393</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0108566280875073</v>
+        <v>0.0108317161643979</v>
       </c>
       <c r="G341" t="n">
-        <v>0.374702183017433</v>
+        <v>0.37386923853132</v>
       </c>
     </row>
   </sheetData>
